--- a/doc/30_工程表/工程表_第2版.xlsx
+++ b/doc/30_工程表/工程表_第2版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E4\doc\30_工程表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82470B78-840D-4198-8506-08EDA3F201D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA3D9BD-2395-4AF6-9492-B7371C5EA8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="月間" sheetId="4" r:id="rId1"/>
@@ -2085,7 +2085,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="334">
+  <cellXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2188,75 +2188,6 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2269,23 +2200,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2314,68 +2233,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2391,69 +2250,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2473,57 +2269,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2532,15 +2277,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2581,9 +2317,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2592,48 +2325,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2677,12 +2368,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2697,18 +2382,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2734,98 +2407,23 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2842,15 +2440,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2865,9 +2454,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2887,23 +2473,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2916,21 +2487,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2959,22 +2515,13 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2983,43 +2530,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3032,9 +2549,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3055,11 +2569,467 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3070,22 +3040,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3662,15 +3617,45 @@
             </a:rPr>
             <a:t>流し込み</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>仮</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3835,7 +3820,7 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>254001</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1363133" cy="338041"/>
+    <xdr:ext cx="1363133" cy="581954"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="テキスト ボックス 32">
@@ -3850,7 +3835,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8703733" y="3928534"/>
-          <a:ext cx="1363133" cy="338041"/>
+          <a:ext cx="1363133" cy="581954"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3882,11 +3867,66 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>コーディング調整</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>仮</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3959,6 +3999,69 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>品質テスト</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>仮</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3967,11 +4070,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>245535</xdr:colOff>
+      <xdr:colOff>152401</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>245535</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1075266" cy="338041"/>
+    <xdr:ext cx="1320799" cy="338041"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="36" name="テキスト ボックス 35">
@@ -3985,8 +4088,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8974668" y="2802468"/>
-          <a:ext cx="1075266" cy="338041"/>
+          <a:off x="8881534" y="2802468"/>
+          <a:ext cx="1320799" cy="338041"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4018,11 +4121,66 @@
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>コーディング</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>仮</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5397,8 +5555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F461FB36-AA5C-4255-9DAB-20DEB8CADCD8}">
   <dimension ref="A1:AM1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
@@ -5450,18 +5608,18 @@
       <c r="AJ1" s="2"/>
     </row>
     <row r="2" spans="1:39" ht="22.5" customHeight="1">
-      <c r="B2" s="34">
+      <c r="B2" s="208">
         <v>2024</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
       <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="208">
         <v>6</v>
       </c>
-      <c r="G2" s="35"/>
+      <c r="G2" s="189"/>
       <c r="H2" s="12" t="s">
         <v>1</v>
       </c>
@@ -5534,57 +5692,57 @@
       <c r="AJ3" s="3"/>
     </row>
     <row r="4" spans="1:39" ht="19.5" customHeight="1">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39" t="s">
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="36" t="s">
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="39" t="s">
+      <c r="L4" s="193"/>
+      <c r="M4" s="193"/>
+      <c r="N4" s="195"/>
+      <c r="O4" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="36" t="s">
+      <c r="P4" s="193"/>
+      <c r="Q4" s="193"/>
+      <c r="R4" s="193"/>
+      <c r="S4" s="195"/>
+      <c r="T4" s="197" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="48">
+      <c r="U4" s="193"/>
+      <c r="V4" s="193"/>
+      <c r="W4" s="195"/>
+      <c r="X4" s="198">
         <v>45451</v>
       </c>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="36" t="s">
+      <c r="Y4" s="193"/>
+      <c r="Z4" s="193"/>
+      <c r="AA4" s="193"/>
+      <c r="AB4" s="195"/>
+      <c r="AC4" s="197" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="316">
+      <c r="AD4" s="193"/>
+      <c r="AE4" s="193"/>
+      <c r="AF4" s="193"/>
+      <c r="AG4" s="183">
         <v>45451</v>
       </c>
-      <c r="AH4" s="244"/>
-      <c r="AI4" s="244"/>
-      <c r="AJ4" s="244"/>
+      <c r="AH4" s="184"/>
+      <c r="AI4" s="184"/>
+      <c r="AJ4" s="184"/>
     </row>
     <row r="5" spans="1:39" ht="18.75" customHeight="1">
       <c r="B5" s="2"/>
@@ -5624,52 +5782,52 @@
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:39" ht="18.75" customHeight="1">
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="187"/>
       <c r="F6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="192">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="37"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="193"/>
+      <c r="K6" s="193"/>
+      <c r="L6" s="193"/>
+      <c r="M6" s="193"/>
+      <c r="N6" s="193"/>
+      <c r="O6" s="193"/>
+      <c r="P6" s="193"/>
+      <c r="Q6" s="193"/>
+      <c r="R6" s="193"/>
+      <c r="S6" s="193"/>
+      <c r="T6" s="193"/>
+      <c r="U6" s="193"/>
+      <c r="V6" s="193"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="193"/>
+      <c r="Y6" s="193"/>
+      <c r="Z6" s="193"/>
+      <c r="AA6" s="193"/>
+      <c r="AB6" s="193"/>
+      <c r="AC6" s="193"/>
+      <c r="AD6" s="193"/>
+      <c r="AE6" s="193"/>
+      <c r="AF6" s="193"/>
+      <c r="AG6" s="193"/>
+      <c r="AH6" s="193"/>
+      <c r="AI6" s="193"/>
+      <c r="AJ6" s="193"/>
     </row>
     <row r="7" spans="1:39" ht="22.5" customHeight="1">
-      <c r="B7" s="43"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="44"/>
+      <c r="B7" s="188"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="190"/>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
@@ -5681,11 +5839,11 @@
         <f>DATE($B$2,$F$2,2)</f>
         <v>45445</v>
       </c>
-      <c r="I7" s="313">
+      <c r="I7" s="152">
         <f>DATE($B$2,$F$2,3)</f>
         <v>45446</v>
       </c>
-      <c r="J7" s="313">
+      <c r="J7" s="152">
         <f>DATE($B$2,$F$2,4)</f>
         <v>45447</v>
       </c>
@@ -5693,7 +5851,7 @@
         <f>DATE($B$2,$F$2,5)</f>
         <v>45448</v>
       </c>
-      <c r="L7" s="313">
+      <c r="L7" s="152">
         <f>DATE($B$2,$F$2,6)</f>
         <v>45449</v>
       </c>
@@ -5709,11 +5867,11 @@
         <f>DATE($B$2,$F$2,9)</f>
         <v>45452</v>
       </c>
-      <c r="P7" s="313">
+      <c r="P7" s="152">
         <f>DATE($B$2,$F$2,10)</f>
         <v>45453</v>
       </c>
-      <c r="Q7" s="313">
+      <c r="Q7" s="152">
         <f>DATE($B$2,$F$2,11)</f>
         <v>45454</v>
       </c>
@@ -5737,7 +5895,7 @@
         <f>DATE($B$2,$F$2,16)</f>
         <v>45459</v>
       </c>
-      <c r="W7" s="313">
+      <c r="W7" s="152">
         <f>DATE($B$2,$F$2,17)</f>
         <v>45460</v>
       </c>
@@ -5781,7 +5939,7 @@
         <f>DATE($B$2,$F$2,27)</f>
         <v>45470</v>
       </c>
-      <c r="AH7" s="314">
+      <c r="AH7" s="153">
         <f>DATE($B$2,$F$2,28)</f>
         <v>45471</v>
       </c>
@@ -5795,199 +5953,199 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B8" s="43"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="44"/>
+      <c r="B8" s="188"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="190"/>
       <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="247" t="str">
+      <c r="G8" s="113" t="str">
         <f t="shared" ref="G8:AJ8" si="0">TEXT(G7,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="H8" s="247" t="str">
+      <c r="H8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
-      <c r="I8" s="312" t="str">
+      <c r="I8" s="151" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="J8" s="312" t="str">
+      <c r="J8" s="151" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="K8" s="247" t="str">
+      <c r="K8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
-      <c r="L8" s="312" t="str">
+      <c r="L8" s="151" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="M8" s="247" t="str">
+      <c r="M8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="N8" s="247" t="str">
+      <c r="N8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>土</v>
       </c>
-      <c r="O8" s="247" t="str">
+      <c r="O8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
-      <c r="P8" s="312" t="str">
+      <c r="P8" s="151" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="Q8" s="312" t="str">
+      <c r="Q8" s="151" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="R8" s="247" t="str">
+      <c r="R8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
-      <c r="S8" s="247" t="str">
+      <c r="S8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="T8" s="247" t="str">
+      <c r="T8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="U8" s="247" t="str">
+      <c r="U8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>土</v>
       </c>
-      <c r="V8" s="247" t="str">
+      <c r="V8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
-      <c r="W8" s="312" t="str">
+      <c r="W8" s="151" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="X8" s="247" t="str">
+      <c r="X8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="Y8" s="247" t="str">
+      <c r="Y8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
-      <c r="Z8" s="247" t="str">
+      <c r="Z8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="AA8" s="247" t="str">
+      <c r="AA8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="AB8" s="247" t="str">
+      <c r="AB8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>土</v>
       </c>
-      <c r="AC8" s="247" t="str">
+      <c r="AC8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
-      <c r="AD8" s="247" t="str">
+      <c r="AD8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="AE8" s="247" t="str">
+      <c r="AE8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="AF8" s="247" t="str">
+      <c r="AF8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
-      <c r="AG8" s="247" t="str">
+      <c r="AG8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="AH8" s="315" t="str">
+      <c r="AH8" s="154" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="AI8" s="247" t="str">
+      <c r="AI8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>土</v>
       </c>
-      <c r="AJ8" s="247" t="str">
+      <c r="AJ8" s="113" t="str">
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
-      <c r="AK8" s="248" t="s">
+      <c r="AK8" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="AL8" s="248" t="s">
+      <c r="AL8" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="AM8" s="248" t="s">
+      <c r="AM8" s="114" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A9" s="245" t="s">
+      <c r="A9" s="199" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="252" t="s">
+      <c r="B9" s="196" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="253"/>
-      <c r="D9" s="253"/>
-      <c r="E9" s="253"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="255"/>
-      <c r="H9" s="256"/>
-      <c r="I9" s="256"/>
-      <c r="J9" s="255"/>
-      <c r="K9" s="255"/>
-      <c r="L9" s="255"/>
-      <c r="M9" s="255"/>
-      <c r="N9" s="256"/>
-      <c r="O9" s="256"/>
-      <c r="P9" s="257"/>
-      <c r="Q9" s="257"/>
-      <c r="R9" s="257"/>
-      <c r="S9" s="257"/>
-      <c r="T9" s="257"/>
-      <c r="U9" s="256"/>
-      <c r="V9" s="256"/>
-      <c r="W9" s="257"/>
-      <c r="X9" s="257"/>
-      <c r="Y9" s="256"/>
-      <c r="Z9" s="256"/>
-      <c r="AA9" s="256"/>
-      <c r="AB9" s="256"/>
-      <c r="AC9" s="256"/>
-      <c r="AD9" s="256"/>
-      <c r="AE9" s="256"/>
-      <c r="AF9" s="256"/>
-      <c r="AG9" s="256"/>
-      <c r="AH9" s="256"/>
-      <c r="AI9" s="256"/>
-      <c r="AJ9" s="256"/>
-      <c r="AK9" s="258"/>
-      <c r="AL9" s="258"/>
-      <c r="AM9" s="259">
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="119"/>
+      <c r="J9" s="118"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="119"/>
+      <c r="V9" s="119"/>
+      <c r="W9" s="120"/>
+      <c r="X9" s="120"/>
+      <c r="Y9" s="119"/>
+      <c r="Z9" s="119"/>
+      <c r="AA9" s="119"/>
+      <c r="AB9" s="119"/>
+      <c r="AC9" s="119"/>
+      <c r="AD9" s="119"/>
+      <c r="AE9" s="119"/>
+      <c r="AF9" s="119"/>
+      <c r="AG9" s="119"/>
+      <c r="AH9" s="119"/>
+      <c r="AI9" s="119"/>
+      <c r="AJ9" s="119"/>
+      <c r="AK9" s="121"/>
+      <c r="AL9" s="121"/>
+      <c r="AM9" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A10" s="246"/>
-      <c r="B10" s="260" t="s">
+      <c r="A10" s="200"/>
+      <c r="B10" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="195"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -6020,30 +6178,30 @@
       <c r="AJ10" s="11"/>
       <c r="AK10" s="16"/>
       <c r="AL10" s="16"/>
-      <c r="AM10" s="261">
+      <c r="AM10" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A11" s="246"/>
-      <c r="B11" s="260" t="s">
+      <c r="A11" s="200"/>
+      <c r="B11" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="195"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
-      <c r="I11" s="227"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="227"/>
-      <c r="Q11" s="227"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
       <c r="T11" s="11"/>
@@ -6065,19 +6223,19 @@
       <c r="AJ11" s="11"/>
       <c r="AK11" s="16"/>
       <c r="AL11" s="16"/>
-      <c r="AM11" s="261">
+      <c r="AM11" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A12" s="246"/>
-      <c r="B12" s="260" t="s">
+      <c r="A12" s="200"/>
+      <c r="B12" s="214" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
+      <c r="C12" s="193"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="195"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -6094,11 +6252,11 @@
       <c r="T12" s="15"/>
       <c r="U12" s="26"/>
       <c r="V12" s="26"/>
-      <c r="W12" s="243"/>
-      <c r="X12" s="243"/>
-      <c r="Y12" s="243"/>
-      <c r="Z12" s="243"/>
-      <c r="AA12" s="243"/>
+      <c r="W12" s="112"/>
+      <c r="X12" s="112"/>
+      <c r="Y12" s="112"/>
+      <c r="Z12" s="112"/>
+      <c r="AA12" s="112"/>
       <c r="AB12" s="26"/>
       <c r="AC12" s="26"/>
       <c r="AD12" s="24"/>
@@ -6110,19 +6268,19 @@
       <c r="AJ12" s="11"/>
       <c r="AK12" s="16"/>
       <c r="AL12" s="16"/>
-      <c r="AM12" s="261">
+      <c r="AM12" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:39" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A13" s="267"/>
-      <c r="B13" s="268" t="s">
+      <c r="A13" s="201"/>
+      <c r="B13" s="215" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="186"/>
+      <c r="E13" s="186"/>
+      <c r="F13" s="187"/>
       <c r="G13" s="29"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -6153,75 +6311,75 @@
       <c r="AH13" s="9"/>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
-      <c r="AK13" s="248"/>
-      <c r="AL13" s="248"/>
-      <c r="AM13" s="269">
+      <c r="AK13" s="114"/>
+      <c r="AL13" s="114"/>
+      <c r="AM13" s="129">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A14" s="270" t="s">
+      <c r="A14" s="202" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="271" t="s">
+      <c r="B14" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="272"/>
-      <c r="D14" s="272"/>
-      <c r="E14" s="272"/>
-      <c r="F14" s="272"/>
-      <c r="G14" s="273"/>
-      <c r="H14" s="273"/>
-      <c r="I14" s="274"/>
-      <c r="J14" s="256"/>
-      <c r="K14" s="256"/>
-      <c r="L14" s="256"/>
-      <c r="M14" s="275"/>
-      <c r="N14" s="256"/>
-      <c r="O14" s="256"/>
-      <c r="P14" s="276"/>
-      <c r="Q14" s="257"/>
-      <c r="R14" s="257"/>
-      <c r="S14" s="257"/>
-      <c r="T14" s="256"/>
-      <c r="U14" s="256"/>
-      <c r="V14" s="256"/>
-      <c r="W14" s="256"/>
-      <c r="X14" s="256"/>
-      <c r="Y14" s="256"/>
-      <c r="Z14" s="256"/>
-      <c r="AA14" s="256"/>
-      <c r="AB14" s="256"/>
-      <c r="AC14" s="256"/>
-      <c r="AD14" s="256"/>
-      <c r="AE14" s="256"/>
-      <c r="AF14" s="256"/>
-      <c r="AG14" s="256"/>
-      <c r="AH14" s="256"/>
-      <c r="AI14" s="256"/>
-      <c r="AJ14" s="256"/>
-      <c r="AK14" s="258"/>
-      <c r="AL14" s="258"/>
-      <c r="AM14" s="259">
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="213"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="131"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="120"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="119"/>
+      <c r="AC14" s="119"/>
+      <c r="AD14" s="119"/>
+      <c r="AE14" s="119"/>
+      <c r="AF14" s="119"/>
+      <c r="AG14" s="119"/>
+      <c r="AH14" s="119"/>
+      <c r="AI14" s="119"/>
+      <c r="AJ14" s="119"/>
+      <c r="AK14" s="121"/>
+      <c r="AL14" s="121"/>
+      <c r="AM14" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A15" s="277"/>
-      <c r="B15" s="228" t="s">
+      <c r="A15" s="203"/>
+      <c r="B15" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="229"/>
-      <c r="D15" s="229"/>
-      <c r="E15" s="229"/>
-      <c r="F15" s="229"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="I15" s="30"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
       <c r="L15" s="32"/>
-      <c r="M15" s="278"/>
+      <c r="M15" s="19"/>
       <c r="N15" s="11"/>
       <c r="O15" s="15"/>
       <c r="P15" s="14"/>
@@ -6247,26 +6405,26 @@
       <c r="AJ15" s="11"/>
       <c r="AK15" s="16"/>
       <c r="AL15" s="16"/>
-      <c r="AM15" s="261">
+      <c r="AM15" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A16" s="277"/>
-      <c r="B16" s="228" t="s">
+      <c r="A16" s="203"/>
+      <c r="B16" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="229"/>
-      <c r="D16" s="229"/>
-      <c r="E16" s="229"/>
-      <c r="F16" s="229"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
       <c r="I16" s="31"/>
       <c r="J16" s="23"/>
       <c r="K16" s="23"/>
       <c r="L16" s="33"/>
-      <c r="M16" s="278"/>
+      <c r="M16" s="19"/>
       <c r="N16" s="11"/>
       <c r="O16" s="15"/>
       <c r="P16" s="13"/>
@@ -6278,125 +6436,125 @@
       <c r="V16" s="11"/>
       <c r="W16" s="14"/>
       <c r="X16" s="14"/>
-      <c r="Y16" s="227"/>
-      <c r="Z16" s="227"/>
-      <c r="AA16" s="227"/>
-      <c r="AB16" s="227"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
       <c r="AC16" s="11"/>
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
-      <c r="AF16" s="227"/>
-      <c r="AG16" s="227"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
       <c r="AJ16" s="11"/>
       <c r="AK16" s="16"/>
       <c r="AL16" s="16"/>
-      <c r="AM16" s="261">
+      <c r="AM16" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A17" s="279"/>
-      <c r="B17" s="280" t="s">
+      <c r="A17" s="204"/>
+      <c r="B17" s="178" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="281"/>
-      <c r="D17" s="281"/>
-      <c r="E17" s="281"/>
-      <c r="F17" s="281"/>
-      <c r="G17" s="282"/>
-      <c r="H17" s="282"/>
-      <c r="I17" s="283"/>
-      <c r="J17" s="284"/>
-      <c r="K17" s="284"/>
-      <c r="L17" s="285"/>
-      <c r="M17" s="286"/>
-      <c r="N17" s="263"/>
-      <c r="O17" s="287"/>
-      <c r="P17" s="310"/>
-      <c r="Q17" s="310"/>
-      <c r="R17" s="310"/>
-      <c r="S17" s="310"/>
-      <c r="T17" s="310"/>
-      <c r="U17" s="263"/>
-      <c r="V17" s="263"/>
-      <c r="W17" s="263"/>
-      <c r="X17" s="288"/>
-      <c r="Y17" s="289"/>
-      <c r="Z17" s="264"/>
-      <c r="AA17" s="264"/>
-      <c r="AB17" s="263"/>
-      <c r="AC17" s="263"/>
-      <c r="AD17" s="263"/>
-      <c r="AE17" s="263"/>
-      <c r="AF17" s="263"/>
-      <c r="AG17" s="263"/>
-      <c r="AH17" s="263"/>
-      <c r="AI17" s="263"/>
-      <c r="AJ17" s="263"/>
-      <c r="AK17" s="265"/>
-      <c r="AL17" s="265"/>
-      <c r="AM17" s="266">
+      <c r="C17" s="179"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="135"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="140"/>
+      <c r="Y17" s="141"/>
+      <c r="Z17" s="126"/>
+      <c r="AA17" s="126"/>
+      <c r="AB17" s="125"/>
+      <c r="AC17" s="125"/>
+      <c r="AD17" s="125"/>
+      <c r="AE17" s="125"/>
+      <c r="AF17" s="125"/>
+      <c r="AG17" s="125"/>
+      <c r="AH17" s="125"/>
+      <c r="AI17" s="125"/>
+      <c r="AJ17" s="125"/>
+      <c r="AK17" s="127"/>
+      <c r="AL17" s="127"/>
+      <c r="AM17" s="128">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A18" s="299" t="s">
+      <c r="A18" s="205" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="300" t="s">
+      <c r="B18" s="180" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="253"/>
-      <c r="D18" s="253"/>
-      <c r="E18" s="253"/>
-      <c r="F18" s="254"/>
-      <c r="G18" s="256"/>
-      <c r="H18" s="256"/>
-      <c r="I18" s="256"/>
-      <c r="J18" s="256"/>
-      <c r="K18" s="256"/>
-      <c r="L18" s="256"/>
-      <c r="M18" s="256"/>
-      <c r="N18" s="301"/>
-      <c r="O18" s="301"/>
-      <c r="P18" s="256"/>
-      <c r="Q18" s="256"/>
-      <c r="R18" s="256"/>
-      <c r="S18" s="311"/>
-      <c r="T18" s="257"/>
-      <c r="U18" s="256"/>
-      <c r="V18" s="256"/>
-      <c r="W18" s="257"/>
-      <c r="X18" s="257"/>
-      <c r="Y18" s="257"/>
-      <c r="Z18" s="257"/>
-      <c r="AA18" s="256"/>
-      <c r="AB18" s="256"/>
-      <c r="AC18" s="256"/>
-      <c r="AD18" s="256"/>
-      <c r="AE18" s="256"/>
-      <c r="AF18" s="256"/>
-      <c r="AG18" s="256"/>
-      <c r="AH18" s="256"/>
-      <c r="AI18" s="256"/>
-      <c r="AJ18" s="256"/>
-      <c r="AK18" s="258"/>
-      <c r="AL18" s="258"/>
-      <c r="AM18" s="259">
+      <c r="C18" s="181"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="148"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="120"/>
+      <c r="U18" s="119"/>
+      <c r="V18" s="119"/>
+      <c r="W18" s="120"/>
+      <c r="X18" s="120"/>
+      <c r="Y18" s="120"/>
+      <c r="Z18" s="120"/>
+      <c r="AA18" s="119"/>
+      <c r="AB18" s="119"/>
+      <c r="AC18" s="119"/>
+      <c r="AD18" s="119"/>
+      <c r="AE18" s="119"/>
+      <c r="AF18" s="119"/>
+      <c r="AG18" s="119"/>
+      <c r="AH18" s="119"/>
+      <c r="AI18" s="119"/>
+      <c r="AJ18" s="119"/>
+      <c r="AK18" s="121"/>
+      <c r="AL18" s="121"/>
+      <c r="AM18" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A19" s="302"/>
-      <c r="B19" s="230" t="s">
+      <c r="A19" s="206"/>
+      <c r="B19" s="169" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="231"/>
-      <c r="D19" s="231"/>
-      <c r="E19" s="231"/>
-      <c r="F19" s="232"/>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="171"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -6406,10 +6564,10 @@
       <c r="M19" s="15"/>
       <c r="N19" s="26"/>
       <c r="O19" s="26"/>
-      <c r="P19" s="226"/>
-      <c r="Q19" s="227"/>
-      <c r="R19" s="227"/>
-      <c r="S19" s="227"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
       <c r="T19" s="14"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
@@ -6427,21 +6585,21 @@
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
       <c r="AJ19" s="11"/>
-      <c r="AK19" s="258"/>
+      <c r="AK19" s="121"/>
       <c r="AL19" s="16"/>
-      <c r="AM19" s="261">
+      <c r="AM19" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A20" s="302"/>
-      <c r="B20" s="230" t="s">
+      <c r="A20" s="206"/>
+      <c r="B20" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="231"/>
-      <c r="D20" s="231"/>
-      <c r="E20" s="231"/>
-      <c r="F20" s="232"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="171"/>
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -6451,11 +6609,11 @@
       <c r="M20" s="15"/>
       <c r="N20" s="26"/>
       <c r="O20" s="26"/>
-      <c r="P20" s="226"/>
-      <c r="Q20" s="227"/>
-      <c r="R20" s="227"/>
-      <c r="S20" s="227"/>
-      <c r="T20" s="227"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
@@ -6474,19 +6632,19 @@
       <c r="AJ20" s="11"/>
       <c r="AK20" s="16"/>
       <c r="AL20" s="16"/>
-      <c r="AM20" s="261">
+      <c r="AM20" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A21" s="302"/>
-      <c r="B21" s="233" t="s">
+      <c r="A21" s="206"/>
+      <c r="B21" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="233"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="233"/>
-      <c r="F21" s="234"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="216"/>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -6496,10 +6654,10 @@
       <c r="M21" s="15"/>
       <c r="N21" s="26"/>
       <c r="O21" s="26"/>
-      <c r="P21" s="226"/>
-      <c r="Q21" s="227"/>
-      <c r="R21" s="227"/>
-      <c r="S21" s="227"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
       <c r="T21" s="14"/>
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
@@ -6519,32 +6677,32 @@
       <c r="AJ21" s="11"/>
       <c r="AK21" s="16"/>
       <c r="AL21" s="16"/>
-      <c r="AM21" s="261">
+      <c r="AM21" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A22" s="302"/>
-      <c r="B22" s="235" t="s">
+      <c r="A22" s="206"/>
+      <c r="B22" s="217" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="236"/>
-      <c r="D22" s="236"/>
-      <c r="E22" s="236"/>
-      <c r="F22" s="237"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="168"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="240"/>
-      <c r="N22" s="238"/>
-      <c r="O22" s="238"/>
-      <c r="P22" s="239"/>
-      <c r="Q22" s="241"/>
-      <c r="R22" s="241"/>
-      <c r="S22" s="227"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="109"/>
+      <c r="O22" s="109"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="11"/>
       <c r="T22" s="14"/>
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
@@ -6558,38 +6716,38 @@
       <c r="AD22" s="14"/>
       <c r="AE22" s="14"/>
       <c r="AF22" s="14"/>
-      <c r="AG22" s="227"/>
-      <c r="AH22" s="227"/>
-      <c r="AI22" s="227"/>
+      <c r="AG22" s="11"/>
+      <c r="AH22" s="11"/>
+      <c r="AI22" s="11"/>
       <c r="AJ22" s="11"/>
       <c r="AK22" s="16"/>
       <c r="AL22" s="16"/>
-      <c r="AM22" s="261">
+      <c r="AM22" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A23" s="302"/>
-      <c r="B23" s="233" t="s">
+      <c r="A23" s="206"/>
+      <c r="B23" s="166" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="236"/>
-      <c r="D23" s="236"/>
-      <c r="E23" s="236"/>
-      <c r="F23" s="237"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="168"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
       <c r="K23" s="15"/>
-      <c r="L23" s="242"/>
-      <c r="M23" s="242"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
-      <c r="P23" s="243"/>
-      <c r="Q23" s="243"/>
-      <c r="R23" s="243"/>
-      <c r="S23" s="226"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="108"/>
       <c r="T23" s="14"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
@@ -6603,38 +6761,38 @@
       <c r="AD23" s="14"/>
       <c r="AE23" s="14"/>
       <c r="AF23" s="14"/>
-      <c r="AG23" s="227"/>
-      <c r="AH23" s="227"/>
-      <c r="AI23" s="227"/>
+      <c r="AG23" s="11"/>
+      <c r="AH23" s="11"/>
+      <c r="AI23" s="11"/>
       <c r="AJ23" s="11"/>
       <c r="AK23" s="16"/>
       <c r="AL23" s="16"/>
-      <c r="AM23" s="261">
+      <c r="AM23" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A24" s="302"/>
-      <c r="B24" s="233" t="s">
+      <c r="A24" s="206"/>
+      <c r="B24" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="236"/>
-      <c r="D24" s="236"/>
-      <c r="E24" s="236"/>
-      <c r="F24" s="237"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="168"/>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="15"/>
-      <c r="L24" s="242"/>
-      <c r="M24" s="242"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="112"/>
       <c r="N24" s="26"/>
       <c r="O24" s="26"/>
-      <c r="P24" s="243"/>
-      <c r="Q24" s="243"/>
-      <c r="R24" s="243"/>
-      <c r="S24" s="226"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="108"/>
       <c r="T24" s="14"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
@@ -6648,38 +6806,38 @@
       <c r="AD24" s="14"/>
       <c r="AE24" s="14"/>
       <c r="AF24" s="14"/>
-      <c r="AG24" s="227"/>
-      <c r="AH24" s="227"/>
-      <c r="AI24" s="227"/>
+      <c r="AG24" s="11"/>
+      <c r="AH24" s="11"/>
+      <c r="AI24" s="11"/>
       <c r="AJ24" s="11"/>
       <c r="AK24" s="16"/>
       <c r="AL24" s="16"/>
-      <c r="AM24" s="261">
+      <c r="AM24" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A25" s="302"/>
-      <c r="B25" s="233" t="s">
+      <c r="A25" s="206"/>
+      <c r="B25" s="166" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="236"/>
-      <c r="D25" s="236"/>
-      <c r="E25" s="236"/>
-      <c r="F25" s="237"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="168"/>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="15"/>
-      <c r="L25" s="242"/>
-      <c r="M25" s="242"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="112"/>
       <c r="N25" s="26"/>
       <c r="O25" s="26"/>
-      <c r="P25" s="243"/>
-      <c r="Q25" s="243"/>
-      <c r="R25" s="243"/>
-      <c r="S25" s="226"/>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="112"/>
+      <c r="S25" s="108"/>
       <c r="T25" s="14"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
@@ -6693,38 +6851,38 @@
       <c r="AD25" s="14"/>
       <c r="AE25" s="14"/>
       <c r="AF25" s="14"/>
-      <c r="AG25" s="227"/>
-      <c r="AH25" s="227"/>
-      <c r="AI25" s="227"/>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="11"/>
+      <c r="AI25" s="11"/>
       <c r="AJ25" s="11"/>
       <c r="AK25" s="16"/>
       <c r="AL25" s="16"/>
-      <c r="AM25" s="261">
+      <c r="AM25" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A26" s="302"/>
-      <c r="B26" s="230" t="s">
+      <c r="A26" s="206"/>
+      <c r="B26" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="231"/>
-      <c r="D26" s="231"/>
-      <c r="E26" s="231"/>
-      <c r="F26" s="232"/>
+      <c r="C26" s="170"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="171"/>
       <c r="G26" s="10"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="15"/>
-      <c r="L26" s="242"/>
-      <c r="M26" s="242"/>
+      <c r="L26" s="112"/>
+      <c r="M26" s="112"/>
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
-      <c r="P26" s="243"/>
-      <c r="Q26" s="243"/>
-      <c r="R26" s="243"/>
-      <c r="S26" s="226"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="108"/>
       <c r="T26" s="14"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
@@ -6738,38 +6896,38 @@
       <c r="AD26" s="14"/>
       <c r="AE26" s="14"/>
       <c r="AF26" s="14"/>
-      <c r="AG26" s="227"/>
-      <c r="AH26" s="227"/>
-      <c r="AI26" s="227"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="11"/>
+      <c r="AI26" s="11"/>
       <c r="AJ26" s="11"/>
       <c r="AK26" s="16"/>
       <c r="AL26" s="16"/>
-      <c r="AM26" s="261">
+      <c r="AM26" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A27" s="302"/>
-      <c r="B27" s="230" t="s">
+      <c r="A27" s="206"/>
+      <c r="B27" s="169" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="231"/>
-      <c r="D27" s="231"/>
-      <c r="E27" s="231"/>
-      <c r="F27" s="232"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="170"/>
+      <c r="F27" s="171"/>
       <c r="G27" s="10"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
       <c r="K27" s="15"/>
-      <c r="L27" s="242"/>
-      <c r="M27" s="242"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="112"/>
       <c r="N27" s="26"/>
       <c r="O27" s="26"/>
-      <c r="P27" s="243"/>
-      <c r="Q27" s="243"/>
-      <c r="R27" s="243"/>
-      <c r="S27" s="226"/>
+      <c r="P27" s="112"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="112"/>
+      <c r="S27" s="108"/>
       <c r="T27" s="14"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
@@ -6783,38 +6941,38 @@
       <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
       <c r="AF27" s="14"/>
-      <c r="AG27" s="227"/>
-      <c r="AH27" s="227"/>
-      <c r="AI27" s="227"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
       <c r="AJ27" s="11"/>
       <c r="AK27" s="16"/>
       <c r="AL27" s="16"/>
-      <c r="AM27" s="261">
+      <c r="AM27" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A28" s="302"/>
-      <c r="B28" s="230" t="s">
+      <c r="A28" s="206"/>
+      <c r="B28" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="231"/>
-      <c r="D28" s="231"/>
-      <c r="E28" s="231"/>
-      <c r="F28" s="232"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="171"/>
       <c r="G28" s="10"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="15"/>
-      <c r="L28" s="242"/>
-      <c r="M28" s="242"/>
+      <c r="L28" s="112"/>
+      <c r="M28" s="112"/>
       <c r="N28" s="26"/>
       <c r="O28" s="26"/>
-      <c r="P28" s="243"/>
-      <c r="Q28" s="243"/>
-      <c r="R28" s="243"/>
-      <c r="S28" s="226"/>
+      <c r="P28" s="112"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="112"/>
+      <c r="S28" s="108"/>
       <c r="T28" s="14"/>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
@@ -6828,105 +6986,105 @@
       <c r="AD28" s="14"/>
       <c r="AE28" s="14"/>
       <c r="AF28" s="14"/>
-      <c r="AG28" s="227"/>
-      <c r="AH28" s="227"/>
-      <c r="AI28" s="227"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
       <c r="AJ28" s="11"/>
       <c r="AK28" s="16"/>
       <c r="AL28" s="16"/>
-      <c r="AM28" s="261">
+      <c r="AM28" s="123">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A29" s="303"/>
-      <c r="B29" s="304" t="s">
+      <c r="A29" s="207"/>
+      <c r="B29" s="209" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="305"/>
-      <c r="D29" s="305"/>
-      <c r="E29" s="305"/>
-      <c r="F29" s="306"/>
-      <c r="G29" s="262"/>
-      <c r="H29" s="263"/>
-      <c r="I29" s="263"/>
-      <c r="J29" s="263"/>
-      <c r="K29" s="287"/>
-      <c r="L29" s="307"/>
-      <c r="M29" s="307"/>
-      <c r="N29" s="307"/>
-      <c r="O29" s="307"/>
-      <c r="P29" s="308"/>
-      <c r="Q29" s="308"/>
-      <c r="R29" s="308"/>
-      <c r="S29" s="309"/>
-      <c r="T29" s="310"/>
-      <c r="U29" s="263"/>
-      <c r="V29" s="263"/>
-      <c r="W29" s="263"/>
-      <c r="X29" s="263"/>
-      <c r="Y29" s="263"/>
-      <c r="Z29" s="263"/>
-      <c r="AA29" s="263"/>
-      <c r="AB29" s="263"/>
-      <c r="AC29" s="263"/>
-      <c r="AD29" s="264"/>
-      <c r="AE29" s="264"/>
-      <c r="AF29" s="264"/>
-      <c r="AG29" s="310"/>
-      <c r="AH29" s="310"/>
-      <c r="AI29" s="310"/>
-      <c r="AJ29" s="263"/>
-      <c r="AK29" s="265"/>
-      <c r="AL29" s="265"/>
-      <c r="AM29" s="266">
+      <c r="C29" s="210"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="210"/>
+      <c r="F29" s="211"/>
+      <c r="G29" s="124"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="149"/>
+      <c r="O29" s="149"/>
+      <c r="P29" s="149"/>
+      <c r="Q29" s="149"/>
+      <c r="R29" s="149"/>
+      <c r="S29" s="150"/>
+      <c r="T29" s="125"/>
+      <c r="U29" s="125"/>
+      <c r="V29" s="125"/>
+      <c r="W29" s="125"/>
+      <c r="X29" s="125"/>
+      <c r="Y29" s="125"/>
+      <c r="Z29" s="125"/>
+      <c r="AA29" s="125"/>
+      <c r="AB29" s="125"/>
+      <c r="AC29" s="125"/>
+      <c r="AD29" s="126"/>
+      <c r="AE29" s="126"/>
+      <c r="AF29" s="126"/>
+      <c r="AG29" s="125"/>
+      <c r="AH29" s="125"/>
+      <c r="AI29" s="125"/>
+      <c r="AJ29" s="125"/>
+      <c r="AK29" s="127"/>
+      <c r="AL29" s="127"/>
+      <c r="AM29" s="128">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="22.2" customHeight="1">
-      <c r="A30" s="290" t="s">
+      <c r="A30" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="291" t="s">
+      <c r="B30" s="173" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="46"/>
+      <c r="C30" s="174"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="175"/>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="292"/>
-      <c r="L30" s="293"/>
-      <c r="M30" s="293"/>
-      <c r="N30" s="293"/>
-      <c r="O30" s="293"/>
-      <c r="P30" s="294"/>
-      <c r="Q30" s="294"/>
-      <c r="R30" s="294"/>
-      <c r="S30" s="295"/>
-      <c r="T30" s="296"/>
+      <c r="K30" s="143"/>
+      <c r="L30" s="144"/>
+      <c r="M30" s="144"/>
+      <c r="N30" s="144"/>
+      <c r="O30" s="144"/>
+      <c r="P30" s="144"/>
+      <c r="Q30" s="144"/>
+      <c r="R30" s="144"/>
+      <c r="S30" s="145"/>
+      <c r="T30" s="25"/>
       <c r="U30" s="25"/>
       <c r="V30" s="25"/>
       <c r="W30" s="25"/>
       <c r="X30" s="25"/>
-      <c r="Y30" s="249"/>
-      <c r="Z30" s="249"/>
-      <c r="AA30" s="249"/>
+      <c r="Y30" s="115"/>
+      <c r="Z30" s="115"/>
+      <c r="AA30" s="115"/>
       <c r="AB30" s="25"/>
       <c r="AC30" s="25"/>
-      <c r="AD30" s="249"/>
-      <c r="AE30" s="249"/>
-      <c r="AF30" s="249"/>
-      <c r="AG30" s="249"/>
-      <c r="AH30" s="297"/>
+      <c r="AD30" s="115"/>
+      <c r="AE30" s="115"/>
+      <c r="AF30" s="115"/>
+      <c r="AG30" s="115"/>
+      <c r="AH30" s="146"/>
       <c r="AI30" s="25"/>
-      <c r="AJ30" s="298"/>
-      <c r="AK30" s="250"/>
-      <c r="AL30" s="250"/>
-      <c r="AM30" s="251">
+      <c r="AJ30" s="147"/>
+      <c r="AK30" s="116"/>
+      <c r="AL30" s="116"/>
+      <c r="AM30" s="117">
         <v>0</v>
       </c>
     </row>
@@ -7010,12 +7168,12 @@
     <row r="33" spans="1:36" ht="22.5" customHeight="1">
       <c r="A33" s="18"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
+      <c r="D33" s="172"/>
+      <c r="E33" s="172"/>
+      <c r="F33" s="172"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -7050,12 +7208,12 @@
     <row r="34" spans="1:36" ht="22.5" customHeight="1">
       <c r="A34" s="19"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="49" t="s">
+      <c r="C34" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="172"/>
+      <c r="F34" s="172"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -7090,12 +7248,12 @@
     <row r="35" spans="1:36" ht="22.5" customHeight="1">
       <c r="A35" s="20"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -7130,12 +7288,12 @@
     <row r="36" spans="1:36" ht="22.5" customHeight="1">
       <c r="A36" s="21"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
+      <c r="D36" s="172"/>
+      <c r="E36" s="172"/>
+      <c r="F36" s="172"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -7168,14 +7326,14 @@
       <c r="AJ36" s="3"/>
     </row>
     <row r="37" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A37" s="164"/>
+      <c r="A37" s="76"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="172" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -43025,32 +43183,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AJ6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A29"/>
@@ -43067,6 +43199,32 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AJ6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="B30:F30"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7:AJ8">
@@ -43097,725 +43255,716 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="18" customHeight="1">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="291" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55" t="s">
+      <c r="H2" s="292"/>
+      <c r="I2" s="278" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="L2" s="53" t="s">
+      <c r="J2" s="235"/>
+      <c r="L2" s="291" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55" t="s">
+      <c r="M2" s="292"/>
+      <c r="N2" s="278" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="56"/>
-      <c r="Q2" s="53" t="s">
+      <c r="O2" s="235"/>
+      <c r="Q2" s="291" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="V2" s="53" t="s">
+      <c r="R2" s="292"/>
+      <c r="S2" s="235"/>
+      <c r="T2" s="235"/>
+      <c r="V2" s="291" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="54"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
+      <c r="W2" s="292"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="293" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="182" t="s">
+      <c r="F4" s="255"/>
+      <c r="G4" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="197"/>
-      <c r="I4" s="76" t="s">
+      <c r="H4" s="294"/>
+      <c r="I4" s="293" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="182" t="s">
+      <c r="J4" s="255"/>
+      <c r="K4" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="197"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="294"/>
+      <c r="M4" s="293" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="62"/>
+      <c r="N4" s="255"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="167" t="s">
+      <c r="D5" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="66">
+      <c r="E5" s="288">
         <v>3</v>
       </c>
-      <c r="F5" s="64"/>
-      <c r="G5" s="129">
+      <c r="F5" s="236"/>
+      <c r="G5" s="261">
         <v>4</v>
       </c>
-      <c r="H5" s="198"/>
-      <c r="I5" s="66">
+      <c r="H5" s="289"/>
+      <c r="I5" s="288">
         <v>5</v>
       </c>
-      <c r="J5" s="64"/>
-      <c r="K5" s="129">
+      <c r="J5" s="236"/>
+      <c r="K5" s="261">
         <v>6</v>
       </c>
-      <c r="L5" s="198"/>
-      <c r="M5" s="66">
+      <c r="L5" s="289"/>
+      <c r="M5" s="288">
         <v>7</v>
       </c>
-      <c r="N5" s="64"/>
+      <c r="N5" s="236"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="168" t="s">
+      <c r="D6" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="183" t="s">
+      <c r="G6" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="123" t="s">
+      <c r="H6" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="183" t="s">
+      <c r="K6" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="67" t="s">
+      <c r="M6" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="72" t="s">
+      <c r="N6" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="204" t="s">
+      <c r="O6" s="290" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="151" t="s">
+      <c r="P6" s="230"/>
+      <c r="Q6" s="279" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="133"/>
-      <c r="S6" s="151" t="s">
+      <c r="R6" s="230"/>
+      <c r="S6" s="279" t="s">
         <v>68</v>
       </c>
-      <c r="T6" s="134"/>
+      <c r="T6" s="231"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="280" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="252" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="185"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="199"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="221" t="s">
+      <c r="C7" s="283"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="285" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="131"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="136"/>
+      <c r="P7" s="286"/>
+      <c r="Q7" s="286"/>
+      <c r="R7" s="286"/>
+      <c r="S7" s="286"/>
+      <c r="T7" s="287"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="88" t="s">
+      <c r="A8" s="281"/>
+      <c r="B8" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="55" t="s">
+      <c r="C8" s="238"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="278" t="s">
         <v>73</v>
       </c>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="64"/>
+      <c r="P8" s="235"/>
+      <c r="Q8" s="235"/>
+      <c r="R8" s="235"/>
+      <c r="S8" s="235"/>
+      <c r="T8" s="236"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="78"/>
-      <c r="B9" s="88" t="s">
+      <c r="A9" s="281"/>
+      <c r="B9" s="237" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="188"/>
-      <c r="G9" s="154"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="220" t="s">
+      <c r="C9" s="238"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="256" t="s">
         <v>36</v>
       </c>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="55" t="s">
+      <c r="P9" s="235"/>
+      <c r="Q9" s="278" t="s">
         <v>73</v>
       </c>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="64"/>
+      <c r="R9" s="235"/>
+      <c r="S9" s="235"/>
+      <c r="T9" s="236"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="78"/>
-      <c r="B10" s="88" t="s">
+      <c r="A10" s="281"/>
+      <c r="B10" s="237" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="129"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="64"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="239"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="261"/>
+      <c r="P10" s="235"/>
+      <c r="Q10" s="235"/>
+      <c r="R10" s="235"/>
+      <c r="S10" s="235"/>
+      <c r="T10" s="236"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="93"/>
-      <c r="B11" s="94" t="s">
+      <c r="A11" s="282"/>
+      <c r="B11" s="262" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="156"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="200"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="205"/>
-      <c r="P11" s="141"/>
-      <c r="Q11" s="141"/>
-      <c r="R11" s="141"/>
-      <c r="S11" s="141"/>
-      <c r="T11" s="142"/>
+      <c r="C11" s="263"/>
+      <c r="D11" s="264"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="265"/>
+      <c r="P11" s="266"/>
+      <c r="Q11" s="266"/>
+      <c r="R11" s="266"/>
+      <c r="S11" s="266"/>
+      <c r="T11" s="267"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="268" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="271" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="191"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="216"/>
-      <c r="I12" s="217"/>
-      <c r="J12" s="218"/>
-      <c r="K12" s="158"/>
-      <c r="L12" s="216"/>
-      <c r="M12" s="217"/>
-      <c r="N12" s="219"/>
-      <c r="O12" s="225" t="s">
+      <c r="C12" s="272"/>
+      <c r="D12" s="273"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="206"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="62"/>
+      <c r="P12" s="275"/>
+      <c r="Q12" s="223"/>
+      <c r="R12" s="223"/>
+      <c r="S12" s="223"/>
+      <c r="T12" s="255"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="80"/>
-      <c r="B13" s="106" t="s">
+      <c r="A13" s="269"/>
+      <c r="B13" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="208"/>
-      <c r="I13" s="209"/>
-      <c r="J13" s="210"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="214"/>
-      <c r="M13" s="209"/>
-      <c r="N13" s="209"/>
-      <c r="O13" s="220" t="s">
+      <c r="C13" s="276"/>
+      <c r="D13" s="277"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="100"/>
+      <c r="O13" s="256" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="64"/>
+      <c r="P13" s="235"/>
+      <c r="Q13" s="235"/>
+      <c r="R13" s="235"/>
+      <c r="S13" s="235"/>
+      <c r="T13" s="236"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="80"/>
-      <c r="B14" s="106" t="s">
+      <c r="A14" s="269"/>
+      <c r="B14" s="257" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="208"/>
-      <c r="I14" s="209"/>
-      <c r="J14" s="210"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="214"/>
-      <c r="M14" s="209"/>
-      <c r="N14" s="209"/>
-      <c r="O14" s="223" t="s">
+      <c r="C14" s="258"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="100"/>
+      <c r="O14" s="260" t="s">
         <v>75</v>
       </c>
-      <c r="P14" s="129"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="64"/>
+      <c r="P14" s="261"/>
+      <c r="Q14" s="235"/>
+      <c r="R14" s="235"/>
+      <c r="S14" s="235"/>
+      <c r="T14" s="236"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="81"/>
-      <c r="B15" s="111" t="s">
+      <c r="A15" s="270"/>
+      <c r="B15" s="244" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="212"/>
-      <c r="J15" s="213"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="215"/>
-      <c r="M15" s="212"/>
-      <c r="N15" s="212"/>
-      <c r="O15" s="222" t="s">
+      <c r="C15" s="245"/>
+      <c r="D15" s="246"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="103"/>
+      <c r="O15" s="247" t="s">
         <v>74</v>
       </c>
-      <c r="P15" s="138"/>
-      <c r="Q15" s="224"/>
-      <c r="R15" s="138"/>
-      <c r="S15" s="138"/>
-      <c r="T15" s="139"/>
+      <c r="P15" s="224"/>
+      <c r="Q15" s="248"/>
+      <c r="R15" s="224"/>
+      <c r="S15" s="224"/>
+      <c r="T15" s="225"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="252" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="191"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="158"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="158"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="182" t="s">
+      <c r="C16" s="253"/>
+      <c r="D16" s="254"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="182"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="62"/>
+      <c r="P16" s="223"/>
+      <c r="Q16" s="222"/>
+      <c r="R16" s="223"/>
+      <c r="S16" s="223"/>
+      <c r="T16" s="255"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A17" s="83"/>
-      <c r="B17" s="116" t="s">
+      <c r="A17" s="250"/>
+      <c r="B17" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="182" t="s">
+      <c r="C17" s="242"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="182"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="64"/>
+      <c r="P17" s="223"/>
+      <c r="Q17" s="222"/>
+      <c r="R17" s="223"/>
+      <c r="S17" s="235"/>
+      <c r="T17" s="236"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A18" s="83"/>
-      <c r="B18" s="116" t="s">
+      <c r="A18" s="250"/>
+      <c r="B18" s="232" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="182" t="s">
+      <c r="C18" s="242"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="182"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="64"/>
+      <c r="P18" s="223"/>
+      <c r="Q18" s="222"/>
+      <c r="R18" s="223"/>
+      <c r="S18" s="235"/>
+      <c r="T18" s="236"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A19" s="83"/>
-      <c r="B19" s="88" t="s">
+      <c r="A19" s="250"/>
+      <c r="B19" s="237" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="154"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="182" t="s">
+      <c r="C19" s="240"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="182"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="64"/>
+      <c r="P19" s="223"/>
+      <c r="Q19" s="222"/>
+      <c r="R19" s="223"/>
+      <c r="S19" s="235"/>
+      <c r="T19" s="236"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="83"/>
-      <c r="B20" s="88" t="s">
+      <c r="A20" s="250"/>
+      <c r="B20" s="237" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="154"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="182" t="s">
+      <c r="C20" s="240"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="182"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="64"/>
+      <c r="P20" s="223"/>
+      <c r="Q20" s="222"/>
+      <c r="R20" s="223"/>
+      <c r="S20" s="235"/>
+      <c r="T20" s="236"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="83"/>
-      <c r="B21" s="88" t="s">
+      <c r="A21" s="250"/>
+      <c r="B21" s="237" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="182" t="s">
+      <c r="C21" s="240"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="182"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="64"/>
+      <c r="P21" s="223"/>
+      <c r="Q21" s="222"/>
+      <c r="R21" s="223"/>
+      <c r="S21" s="235"/>
+      <c r="T21" s="236"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="83"/>
-      <c r="B22" s="88" t="s">
+      <c r="A22" s="250"/>
+      <c r="B22" s="237" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="154"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="182" t="s">
+      <c r="C22" s="240"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="182"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="64"/>
+      <c r="P22" s="223"/>
+      <c r="Q22" s="222"/>
+      <c r="R22" s="223"/>
+      <c r="S22" s="235"/>
+      <c r="T22" s="236"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A23" s="83"/>
-      <c r="B23" s="88" t="s">
+      <c r="A23" s="250"/>
+      <c r="B23" s="237" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="187"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="154"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="182" t="s">
+      <c r="C23" s="238"/>
+      <c r="D23" s="239"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="182"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="64"/>
+      <c r="P23" s="223"/>
+      <c r="Q23" s="222"/>
+      <c r="R23" s="223"/>
+      <c r="S23" s="235"/>
+      <c r="T23" s="236"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A24" s="83"/>
-      <c r="B24" s="116" t="s">
+      <c r="A24" s="250"/>
+      <c r="B24" s="232" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="119"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="154"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="182" t="s">
+      <c r="C24" s="233"/>
+      <c r="D24" s="234"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="182"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="64"/>
+      <c r="P24" s="223"/>
+      <c r="Q24" s="222"/>
+      <c r="R24" s="223"/>
+      <c r="S24" s="235"/>
+      <c r="T24" s="236"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A25" s="83"/>
-      <c r="B25" s="116" t="s">
+      <c r="A25" s="250"/>
+      <c r="B25" s="232" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="187"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="154"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="182" t="s">
+      <c r="C25" s="233"/>
+      <c r="D25" s="234"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="182"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="64"/>
+      <c r="P25" s="223"/>
+      <c r="Q25" s="222"/>
+      <c r="R25" s="223"/>
+      <c r="S25" s="235"/>
+      <c r="T25" s="236"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A26" s="83"/>
-      <c r="B26" s="116" t="s">
+      <c r="A26" s="250"/>
+      <c r="B26" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="186"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="154"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="182" t="s">
+      <c r="C26" s="233"/>
+      <c r="D26" s="234"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="182"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="64"/>
+      <c r="P26" s="223"/>
+      <c r="Q26" s="222"/>
+      <c r="R26" s="223"/>
+      <c r="S26" s="235"/>
+      <c r="T26" s="236"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="84"/>
-      <c r="B27" s="102" t="s">
+      <c r="A27" s="251"/>
+      <c r="B27" s="219" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="121"/>
-      <c r="D27" s="180"/>
-      <c r="E27" s="193"/>
-      <c r="F27" s="194"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="201"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="160"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="201"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="182" t="s">
+      <c r="C27" s="220"/>
+      <c r="D27" s="221"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="222" t="s">
         <v>71</v>
       </c>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="182"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="138"/>
-      <c r="T27" s="139"/>
+      <c r="P27" s="223"/>
+      <c r="Q27" s="222"/>
+      <c r="R27" s="223"/>
+      <c r="S27" s="224"/>
+      <c r="T27" s="225"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="85" t="s">
+      <c r="A28" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="143" t="s">
+      <c r="B28" s="226" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="144"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="195"/>
-      <c r="F28" s="196"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="202"/>
-      <c r="J28" s="203"/>
-      <c r="K28" s="162"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="202"/>
-      <c r="N28" s="203"/>
-      <c r="O28" s="207"/>
-      <c r="P28" s="133"/>
-      <c r="Q28" s="133"/>
-      <c r="R28" s="133"/>
-      <c r="S28" s="133"/>
-      <c r="T28" s="134"/>
+      <c r="C28" s="227"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="229"/>
+      <c r="P28" s="230"/>
+      <c r="Q28" s="230"/>
+      <c r="R28" s="230"/>
+      <c r="S28" s="230"/>
+      <c r="T28" s="231"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="B29" s="218"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="17" t="s">
@@ -43829,194 +43978,88 @@
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="18"/>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="172"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="19"/>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="49"/>
+      <c r="C32" s="172"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1">
       <c r="A33" s="20"/>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="49"/>
+      <c r="C33" s="172"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1">
       <c r="A34" s="21"/>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="49"/>
+      <c r="C34" s="172"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1">
-      <c r="A35" s="164"/>
-      <c r="B35" s="49" t="s">
+      <c r="A35" s="76"/>
+      <c r="B35" s="172" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="49"/>
+      <c r="C35" s="172"/>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1">
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
+      <c r="B36" s="218"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="218"/>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1">
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
+      <c r="B37" s="218"/>
+      <c r="C37" s="218"/>
+      <c r="D37" s="218"/>
     </row>
     <row r="38" spans="1:6" ht="18" customHeight="1">
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
+      <c r="B38" s="218"/>
+      <c r="C38" s="218"/>
+      <c r="D38" s="218"/>
     </row>
     <row r="39" spans="1:6" ht="18" customHeight="1">
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="218"/>
+      <c r="C39" s="218"/>
+      <c r="D39" s="218"/>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1">
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
+      <c r="B40" s="218"/>
+      <c r="C40" s="218"/>
+      <c r="D40" s="218"/>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1">
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
+      <c r="B41" s="218"/>
+      <c r="C41" s="218"/>
+      <c r="D41" s="218"/>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1">
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
+      <c r="B42" s="218"/>
+      <c r="C42" s="218"/>
+      <c r="D42" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -44036,6 +44079,112 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44054,689 +44203,680 @@
   <sheetFormatPr defaultColWidth="5.453125" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
     <row r="2" spans="1:25" ht="18" customHeight="1">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="291" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55" t="s">
+      <c r="H2" s="292"/>
+      <c r="I2" s="278" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="L2" s="53" t="s">
+      <c r="J2" s="235"/>
+      <c r="L2" s="291" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55" t="s">
+      <c r="M2" s="292"/>
+      <c r="N2" s="278" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="56"/>
-      <c r="Q2" s="53" t="s">
+      <c r="O2" s="235"/>
+      <c r="Q2" s="291" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="333">
+      <c r="R2" s="292"/>
+      <c r="S2" s="314">
         <v>45451</v>
       </c>
-      <c r="T2" s="56"/>
-      <c r="V2" s="53" t="s">
+      <c r="T2" s="235"/>
+      <c r="V2" s="291" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="54"/>
-      <c r="X2" s="333">
+      <c r="W2" s="292"/>
+      <c r="X2" s="314">
         <v>45451</v>
       </c>
-      <c r="Y2" s="56"/>
+      <c r="Y2" s="235"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="324" t="s">
+      <c r="D4" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="325" t="s">
+      <c r="E4" s="315" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="326"/>
-      <c r="G4" s="325" t="s">
+      <c r="F4" s="316"/>
+      <c r="G4" s="315" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="326"/>
-      <c r="I4" s="325" t="s">
+      <c r="H4" s="316"/>
+      <c r="I4" s="315" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="326"/>
-      <c r="K4" s="325" t="s">
+      <c r="J4" s="316"/>
+      <c r="K4" s="315" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="326"/>
-      <c r="M4" s="325" t="s">
+      <c r="L4" s="316"/>
+      <c r="M4" s="315" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="327"/>
+      <c r="N4" s="317"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="328" t="s">
+      <c r="D5" s="162" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="235">
         <v>10</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56">
+      <c r="F5" s="235"/>
+      <c r="G5" s="235">
         <v>11</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56">
+      <c r="H5" s="235"/>
+      <c r="I5" s="235">
         <v>12</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56">
+      <c r="J5" s="235"/>
+      <c r="K5" s="235">
         <v>13</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56">
+      <c r="L5" s="235"/>
+      <c r="M5" s="235">
         <v>14</v>
       </c>
-      <c r="N5" s="329"/>
+      <c r="N5" s="313"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="330" t="s">
+      <c r="D6" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="331" t="s">
+      <c r="E6" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="331" t="s">
+      <c r="F6" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="331" t="s">
+      <c r="G6" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="331" t="s">
+      <c r="H6" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="331" t="s">
+      <c r="I6" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="331" t="s">
+      <c r="J6" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="331" t="s">
+      <c r="K6" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="331" t="s">
+      <c r="L6" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="331" t="s">
+      <c r="M6" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="332" t="s">
+      <c r="N6" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="204" t="s">
+      <c r="O6" s="290" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="151" t="s">
+      <c r="P6" s="230"/>
+      <c r="Q6" s="279" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="133"/>
-      <c r="S6" s="151" t="s">
+      <c r="R6" s="230"/>
+      <c r="S6" s="279" t="s">
         <v>68</v>
       </c>
-      <c r="T6" s="134"/>
+      <c r="T6" s="231"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="280" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="252" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="317"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="317"/>
-      <c r="I7" s="317"/>
-      <c r="J7" s="317"/>
-      <c r="K7" s="317"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="317"/>
-      <c r="N7" s="321"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="131"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="136"/>
+      <c r="C7" s="283"/>
+      <c r="D7" s="311"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="155"/>
+      <c r="N7" s="159"/>
+      <c r="O7" s="312"/>
+      <c r="P7" s="286"/>
+      <c r="Q7" s="286"/>
+      <c r="R7" s="286"/>
+      <c r="S7" s="286"/>
+      <c r="T7" s="287"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="88" t="s">
+      <c r="A8" s="281"/>
+      <c r="B8" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="318"/>
-      <c r="G8" s="155"/>
-      <c r="H8" s="318"/>
-      <c r="I8" s="318"/>
-      <c r="J8" s="318"/>
-      <c r="K8" s="318"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="125"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="64"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="300"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="288"/>
+      <c r="P8" s="235"/>
+      <c r="Q8" s="235"/>
+      <c r="R8" s="235"/>
+      <c r="S8" s="235"/>
+      <c r="T8" s="236"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="78"/>
-      <c r="B9" s="88" t="s">
+      <c r="A9" s="281"/>
+      <c r="B9" s="237" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="64"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="300"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="288"/>
+      <c r="P9" s="235"/>
+      <c r="Q9" s="235"/>
+      <c r="R9" s="235"/>
+      <c r="S9" s="235"/>
+      <c r="T9" s="236"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="78"/>
-      <c r="B10" s="88" t="s">
+      <c r="A10" s="281"/>
+      <c r="B10" s="237" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="64"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="300"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="288"/>
+      <c r="P10" s="235"/>
+      <c r="Q10" s="235"/>
+      <c r="R10" s="235"/>
+      <c r="S10" s="235"/>
+      <c r="T10" s="236"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="93"/>
-      <c r="B11" s="94" t="s">
+      <c r="A11" s="282"/>
+      <c r="B11" s="262" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="126"/>
-      <c r="O11" s="140"/>
-      <c r="P11" s="141"/>
-      <c r="Q11" s="141"/>
-      <c r="R11" s="141"/>
-      <c r="S11" s="141"/>
-      <c r="T11" s="142"/>
+      <c r="C11" s="263"/>
+      <c r="D11" s="307"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="308"/>
+      <c r="P11" s="266"/>
+      <c r="Q11" s="266"/>
+      <c r="R11" s="266"/>
+      <c r="S11" s="266"/>
+      <c r="T11" s="267"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="268" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="271" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="319"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="319"/>
-      <c r="I12" s="319"/>
-      <c r="J12" s="319"/>
-      <c r="K12" s="319"/>
-      <c r="L12" s="319"/>
-      <c r="M12" s="60"/>
-      <c r="N12" s="127"/>
-      <c r="O12" s="149"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="62"/>
+      <c r="C12" s="272"/>
+      <c r="D12" s="309"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="305"/>
+      <c r="P12" s="223"/>
+      <c r="Q12" s="223"/>
+      <c r="R12" s="223"/>
+      <c r="S12" s="223"/>
+      <c r="T12" s="255"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="80"/>
-      <c r="B13" s="106" t="s">
+      <c r="A13" s="269"/>
+      <c r="B13" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="318"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="318"/>
-      <c r="I13" s="318"/>
-      <c r="J13" s="318"/>
-      <c r="K13" s="318"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="318"/>
-      <c r="N13" s="320"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="64"/>
+      <c r="C13" s="276"/>
+      <c r="D13" s="310"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="156"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="288"/>
+      <c r="P13" s="235"/>
+      <c r="Q13" s="235"/>
+      <c r="R13" s="235"/>
+      <c r="S13" s="235"/>
+      <c r="T13" s="236"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="80"/>
-      <c r="B14" s="106" t="s">
+      <c r="A14" s="269"/>
+      <c r="B14" s="257" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="318"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="318"/>
-      <c r="I14" s="318"/>
-      <c r="J14" s="318"/>
-      <c r="K14" s="318"/>
-      <c r="L14" s="318"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="64"/>
+      <c r="C14" s="258"/>
+      <c r="D14" s="306"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="156"/>
+      <c r="L14" s="156"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="288"/>
+      <c r="P14" s="235"/>
+      <c r="Q14" s="235"/>
+      <c r="R14" s="235"/>
+      <c r="S14" s="235"/>
+      <c r="T14" s="236"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="81"/>
-      <c r="B15" s="111" t="s">
+      <c r="A15" s="270"/>
+      <c r="B15" s="244" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="160"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="138"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="138"/>
-      <c r="S15" s="138"/>
-      <c r="T15" s="139"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="303"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="296"/>
+      <c r="P15" s="224"/>
+      <c r="Q15" s="224"/>
+      <c r="R15" s="224"/>
+      <c r="S15" s="224"/>
+      <c r="T15" s="225"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="252" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="158"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="319"/>
-      <c r="N16" s="322"/>
-      <c r="O16" s="149"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="62"/>
+      <c r="C16" s="253"/>
+      <c r="D16" s="304"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="157"/>
+      <c r="N16" s="160"/>
+      <c r="O16" s="305"/>
+      <c r="P16" s="223"/>
+      <c r="Q16" s="223"/>
+      <c r="R16" s="223"/>
+      <c r="S16" s="223"/>
+      <c r="T16" s="255"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="83"/>
-      <c r="B17" s="116" t="s">
+      <c r="A17" s="250"/>
+      <c r="B17" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="318"/>
-      <c r="N17" s="320"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="64"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="156"/>
+      <c r="N17" s="158"/>
+      <c r="O17" s="288"/>
+      <c r="P17" s="235"/>
+      <c r="Q17" s="235"/>
+      <c r="R17" s="235"/>
+      <c r="S17" s="235"/>
+      <c r="T17" s="236"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="83"/>
-      <c r="B18" s="116" t="s">
+      <c r="A18" s="250"/>
+      <c r="B18" s="232" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="165"/>
-      <c r="N18" s="323"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="64"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="302"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="288"/>
+      <c r="P18" s="235"/>
+      <c r="Q18" s="235"/>
+      <c r="R18" s="235"/>
+      <c r="S18" s="235"/>
+      <c r="T18" s="236"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="83"/>
-      <c r="B19" s="88" t="s">
+      <c r="A19" s="250"/>
+      <c r="B19" s="237" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="318"/>
-      <c r="N19" s="320"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="64"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="301"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="156"/>
+      <c r="N19" s="158"/>
+      <c r="O19" s="288"/>
+      <c r="P19" s="235"/>
+      <c r="Q19" s="235"/>
+      <c r="R19" s="235"/>
+      <c r="S19" s="235"/>
+      <c r="T19" s="236"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="83"/>
-      <c r="B20" s="88" t="s">
+      <c r="A20" s="250"/>
+      <c r="B20" s="237" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="318"/>
-      <c r="N20" s="320"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="64"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="301"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="156"/>
+      <c r="N20" s="158"/>
+      <c r="O20" s="288"/>
+      <c r="P20" s="235"/>
+      <c r="Q20" s="235"/>
+      <c r="R20" s="235"/>
+      <c r="S20" s="235"/>
+      <c r="T20" s="236"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="83"/>
-      <c r="B21" s="88" t="s">
+      <c r="A21" s="250"/>
+      <c r="B21" s="237" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="318"/>
-      <c r="N21" s="320"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="64"/>
+      <c r="C21" s="240"/>
+      <c r="D21" s="301"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="156"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="288"/>
+      <c r="P21" s="235"/>
+      <c r="Q21" s="235"/>
+      <c r="R21" s="235"/>
+      <c r="S21" s="235"/>
+      <c r="T21" s="236"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="83"/>
-      <c r="B22" s="88" t="s">
+      <c r="A22" s="250"/>
+      <c r="B22" s="237" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="318"/>
-      <c r="N22" s="320"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="64"/>
+      <c r="C22" s="240"/>
+      <c r="D22" s="301"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="156"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="288"/>
+      <c r="P22" s="235"/>
+      <c r="Q22" s="235"/>
+      <c r="R22" s="235"/>
+      <c r="S22" s="235"/>
+      <c r="T22" s="236"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="83"/>
-      <c r="B23" s="88" t="s">
+      <c r="A23" s="250"/>
+      <c r="B23" s="237" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="154"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="318"/>
-      <c r="N23" s="320"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="64"/>
+      <c r="C23" s="238"/>
+      <c r="D23" s="300"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="156"/>
+      <c r="N23" s="158"/>
+      <c r="O23" s="288"/>
+      <c r="P23" s="235"/>
+      <c r="Q23" s="235"/>
+      <c r="R23" s="235"/>
+      <c r="S23" s="235"/>
+      <c r="T23" s="236"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="83"/>
-      <c r="B24" s="116" t="s">
+      <c r="A24" s="250"/>
+      <c r="B24" s="232" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="119"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="318"/>
-      <c r="N24" s="320"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="64"/>
+      <c r="C24" s="233"/>
+      <c r="D24" s="299"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="156"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="288"/>
+      <c r="P24" s="235"/>
+      <c r="Q24" s="235"/>
+      <c r="R24" s="235"/>
+      <c r="S24" s="235"/>
+      <c r="T24" s="236"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="83"/>
-      <c r="B25" s="116" t="s">
+      <c r="A25" s="250"/>
+      <c r="B25" s="232" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="120"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="318"/>
-      <c r="N25" s="320"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="64"/>
+      <c r="C25" s="233"/>
+      <c r="D25" s="299"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="156"/>
+      <c r="N25" s="158"/>
+      <c r="O25" s="288"/>
+      <c r="P25" s="235"/>
+      <c r="Q25" s="235"/>
+      <c r="R25" s="235"/>
+      <c r="S25" s="235"/>
+      <c r="T25" s="236"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="83"/>
-      <c r="B26" s="116" t="s">
+      <c r="A26" s="250"/>
+      <c r="B26" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="318"/>
-      <c r="N26" s="320"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="64"/>
+      <c r="C26" s="233"/>
+      <c r="D26" s="299"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="156"/>
+      <c r="N26" s="158"/>
+      <c r="O26" s="288"/>
+      <c r="P26" s="235"/>
+      <c r="Q26" s="235"/>
+      <c r="R26" s="235"/>
+      <c r="S26" s="235"/>
+      <c r="T26" s="236"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="84"/>
-      <c r="B27" s="102" t="s">
+      <c r="A27" s="251"/>
+      <c r="B27" s="219" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="121"/>
-      <c r="D27" s="122"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="137"/>
-      <c r="P27" s="138"/>
-      <c r="Q27" s="138"/>
-      <c r="R27" s="138"/>
-      <c r="S27" s="138"/>
-      <c r="T27" s="139"/>
+      <c r="C27" s="220"/>
+      <c r="D27" s="295"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="296"/>
+      <c r="P27" s="224"/>
+      <c r="Q27" s="224"/>
+      <c r="R27" s="224"/>
+      <c r="S27" s="224"/>
+      <c r="T27" s="225"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="85" t="s">
+      <c r="A28" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="143" t="s">
+      <c r="B28" s="226" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="144"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="147"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="148"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="133"/>
-      <c r="Q28" s="133"/>
-      <c r="R28" s="133"/>
-      <c r="S28" s="133"/>
-      <c r="T28" s="134"/>
+      <c r="C28" s="227"/>
+      <c r="D28" s="297"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="298"/>
+      <c r="P28" s="230"/>
+      <c r="Q28" s="230"/>
+      <c r="R28" s="230"/>
+      <c r="S28" s="230"/>
+      <c r="T28" s="231"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="B29" s="218"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="17" t="s">
@@ -44747,182 +44887,76 @@
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="18"/>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="172"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="19"/>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="49"/>
+      <c r="C32" s="172"/>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1">
       <c r="A33" s="20"/>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="49"/>
+      <c r="C33" s="172"/>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1">
       <c r="A34" s="21"/>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="49"/>
+      <c r="C34" s="172"/>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1">
-      <c r="A35" s="164"/>
-      <c r="B35" s="49" t="s">
+      <c r="A35" s="76"/>
+      <c r="B35" s="172" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="49"/>
+      <c r="C35" s="172"/>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1">
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
+      <c r="B36" s="218"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="218"/>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1">
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
+      <c r="B37" s="218"/>
+      <c r="C37" s="218"/>
+      <c r="D37" s="218"/>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1">
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
+      <c r="B38" s="218"/>
+      <c r="C38" s="218"/>
+      <c r="D38" s="218"/>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1">
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="218"/>
+      <c r="C39" s="218"/>
+      <c r="D39" s="218"/>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1">
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
+      <c r="B40" s="218"/>
+      <c r="C40" s="218"/>
+      <c r="D40" s="218"/>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1">
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
+      <c r="B41" s="218"/>
+      <c r="C41" s="218"/>
+      <c r="D41" s="218"/>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1">
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
+      <c r="B42" s="218"/>
+      <c r="C42" s="218"/>
+      <c r="D42" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -44942,6 +44976,112 @@
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44960,675 +45100,666 @@
   <sheetFormatPr defaultColWidth="5.453125" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
     <row r="2" spans="1:25" ht="18" customHeight="1">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="291" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55" t="s">
+      <c r="H2" s="292"/>
+      <c r="I2" s="278" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="L2" s="53" t="s">
+      <c r="J2" s="235"/>
+      <c r="L2" s="291" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="55" t="s">
+      <c r="M2" s="292"/>
+      <c r="N2" s="278" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="56"/>
-      <c r="Q2" s="53" t="s">
+      <c r="O2" s="235"/>
+      <c r="Q2" s="291" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="V2" s="53" t="s">
+      <c r="R2" s="292"/>
+      <c r="S2" s="235"/>
+      <c r="T2" s="235"/>
+      <c r="V2" s="291" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="54"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
+      <c r="W2" s="292"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="293" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="182" t="s">
+      <c r="F4" s="255"/>
+      <c r="G4" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="197"/>
-      <c r="I4" s="76" t="s">
+      <c r="H4" s="294"/>
+      <c r="I4" s="293" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="182" t="s">
+      <c r="J4" s="255"/>
+      <c r="K4" s="222" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="197"/>
-      <c r="M4" s="76" t="s">
+      <c r="L4" s="294"/>
+      <c r="M4" s="293" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="62"/>
+      <c r="N4" s="255"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="167" t="s">
+      <c r="D5" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="198"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="198"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="64"/>
+      <c r="E5" s="288"/>
+      <c r="F5" s="236"/>
+      <c r="G5" s="261"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="288"/>
+      <c r="J5" s="236"/>
+      <c r="K5" s="261"/>
+      <c r="L5" s="289"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="236"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="168" t="s">
+      <c r="D6" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="72" t="s">
+      <c r="F6" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="183" t="s">
+      <c r="G6" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="123" t="s">
+      <c r="H6" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="183" t="s">
+      <c r="K6" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="67" t="s">
+      <c r="M6" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="72" t="s">
+      <c r="N6" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="150" t="s">
+      <c r="O6" s="318" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="151" t="s">
+      <c r="P6" s="230"/>
+      <c r="Q6" s="279" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="133"/>
-      <c r="S6" s="151" t="s">
+      <c r="R6" s="230"/>
+      <c r="S6" s="279" t="s">
         <v>68</v>
       </c>
-      <c r="T6" s="134"/>
+      <c r="T6" s="231"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="280" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="252" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="169"/>
-      <c r="E7" s="199"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="199"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="199"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="135"/>
-      <c r="P7" s="131"/>
-      <c r="Q7" s="131"/>
-      <c r="R7" s="131"/>
-      <c r="S7" s="131"/>
-      <c r="T7" s="136"/>
+      <c r="C7" s="283"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="312"/>
+      <c r="P7" s="286"/>
+      <c r="Q7" s="286"/>
+      <c r="R7" s="286"/>
+      <c r="S7" s="286"/>
+      <c r="T7" s="287"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="88" t="s">
+      <c r="A8" s="281"/>
+      <c r="B8" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="64"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="288"/>
+      <c r="P8" s="235"/>
+      <c r="Q8" s="235"/>
+      <c r="R8" s="235"/>
+      <c r="S8" s="235"/>
+      <c r="T8" s="236"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="78"/>
-      <c r="B9" s="88" t="s">
+      <c r="A9" s="281"/>
+      <c r="B9" s="237" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="64"/>
+      <c r="C9" s="238"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="288"/>
+      <c r="P9" s="235"/>
+      <c r="Q9" s="235"/>
+      <c r="R9" s="235"/>
+      <c r="S9" s="235"/>
+      <c r="T9" s="236"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="78"/>
-      <c r="B10" s="88" t="s">
+      <c r="A10" s="281"/>
+      <c r="B10" s="237" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="63"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="64"/>
+      <c r="C10" s="238"/>
+      <c r="D10" s="239"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="288"/>
+      <c r="P10" s="235"/>
+      <c r="Q10" s="235"/>
+      <c r="R10" s="235"/>
+      <c r="S10" s="235"/>
+      <c r="T10" s="236"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="93"/>
-      <c r="B11" s="94" t="s">
+      <c r="A11" s="282"/>
+      <c r="B11" s="262" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="200"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="140"/>
-      <c r="P11" s="141"/>
-      <c r="Q11" s="141"/>
-      <c r="R11" s="141"/>
-      <c r="S11" s="141"/>
-      <c r="T11" s="142"/>
+      <c r="C11" s="263"/>
+      <c r="D11" s="264"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="308"/>
+      <c r="P11" s="266"/>
+      <c r="Q11" s="266"/>
+      <c r="R11" s="266"/>
+      <c r="S11" s="266"/>
+      <c r="T11" s="267"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="268" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="271" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="127"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="127"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="149"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="62"/>
+      <c r="C12" s="272"/>
+      <c r="D12" s="273"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="305"/>
+      <c r="P12" s="223"/>
+      <c r="Q12" s="223"/>
+      <c r="R12" s="223"/>
+      <c r="S12" s="223"/>
+      <c r="T12" s="255"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="80"/>
-      <c r="B13" s="106" t="s">
+      <c r="A13" s="269"/>
+      <c r="B13" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="107"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="64"/>
+      <c r="C13" s="276"/>
+      <c r="D13" s="277"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="288"/>
+      <c r="P13" s="235"/>
+      <c r="Q13" s="235"/>
+      <c r="R13" s="235"/>
+      <c r="S13" s="235"/>
+      <c r="T13" s="236"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="80"/>
-      <c r="B14" s="106" t="s">
+      <c r="A14" s="269"/>
+      <c r="B14" s="257" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="64"/>
+      <c r="C14" s="258"/>
+      <c r="D14" s="259"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="288"/>
+      <c r="P14" s="235"/>
+      <c r="Q14" s="235"/>
+      <c r="R14" s="235"/>
+      <c r="S14" s="235"/>
+      <c r="T14" s="236"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="81"/>
-      <c r="B15" s="111" t="s">
+      <c r="A15" s="270"/>
+      <c r="B15" s="244" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="201"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="137"/>
-      <c r="P15" s="138"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="138"/>
-      <c r="S15" s="138"/>
-      <c r="T15" s="139"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="246"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="296"/>
+      <c r="P15" s="224"/>
+      <c r="Q15" s="224"/>
+      <c r="R15" s="224"/>
+      <c r="S15" s="224"/>
+      <c r="T15" s="225"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="249" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="252" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="127"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="149"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="62"/>
+      <c r="C16" s="253"/>
+      <c r="D16" s="254"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="305"/>
+      <c r="P16" s="223"/>
+      <c r="Q16" s="223"/>
+      <c r="R16" s="223"/>
+      <c r="S16" s="223"/>
+      <c r="T16" s="255"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="83"/>
-      <c r="B17" s="116" t="s">
+      <c r="A17" s="250"/>
+      <c r="B17" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="64"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="243"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="288"/>
+      <c r="P17" s="235"/>
+      <c r="Q17" s="235"/>
+      <c r="R17" s="235"/>
+      <c r="S17" s="235"/>
+      <c r="T17" s="236"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="83"/>
-      <c r="B18" s="116" t="s">
+      <c r="A18" s="250"/>
+      <c r="B18" s="232" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="177"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="125"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="64"/>
+      <c r="C18" s="242"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="288"/>
+      <c r="P18" s="235"/>
+      <c r="Q18" s="235"/>
+      <c r="R18" s="235"/>
+      <c r="S18" s="235"/>
+      <c r="T18" s="236"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="83"/>
-      <c r="B19" s="88" t="s">
+      <c r="A19" s="250"/>
+      <c r="B19" s="237" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="91"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="64"/>
+      <c r="C19" s="240"/>
+      <c r="D19" s="241"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="288"/>
+      <c r="P19" s="235"/>
+      <c r="Q19" s="235"/>
+      <c r="R19" s="235"/>
+      <c r="S19" s="235"/>
+      <c r="T19" s="236"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="83"/>
-      <c r="B20" s="88" t="s">
+      <c r="A20" s="250"/>
+      <c r="B20" s="237" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="64"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="288"/>
+      <c r="P20" s="235"/>
+      <c r="Q20" s="235"/>
+      <c r="R20" s="235"/>
+      <c r="S20" s="235"/>
+      <c r="T20" s="236"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="83"/>
-      <c r="B21" s="88" t="s">
+      <c r="A21" s="250"/>
+      <c r="B21" s="237" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="125"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="64"/>
+      <c r="C21" s="240"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="288"/>
+      <c r="P21" s="235"/>
+      <c r="Q21" s="235"/>
+      <c r="R21" s="235"/>
+      <c r="S21" s="235"/>
+      <c r="T21" s="236"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="83"/>
-      <c r="B22" s="88" t="s">
+      <c r="A22" s="250"/>
+      <c r="B22" s="237" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="91"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="125"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="64"/>
+      <c r="C22" s="240"/>
+      <c r="D22" s="241"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="288"/>
+      <c r="P22" s="235"/>
+      <c r="Q22" s="235"/>
+      <c r="R22" s="235"/>
+      <c r="S22" s="235"/>
+      <c r="T22" s="236"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="83"/>
-      <c r="B23" s="88" t="s">
+      <c r="A23" s="250"/>
+      <c r="B23" s="237" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="89"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="64"/>
+      <c r="C23" s="238"/>
+      <c r="D23" s="239"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="288"/>
+      <c r="P23" s="235"/>
+      <c r="Q23" s="235"/>
+      <c r="R23" s="235"/>
+      <c r="S23" s="235"/>
+      <c r="T23" s="236"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="83"/>
-      <c r="B24" s="116" t="s">
+      <c r="A24" s="250"/>
+      <c r="B24" s="232" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="119"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="125"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="64"/>
+      <c r="C24" s="233"/>
+      <c r="D24" s="234"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="288"/>
+      <c r="P24" s="235"/>
+      <c r="Q24" s="235"/>
+      <c r="R24" s="235"/>
+      <c r="S24" s="235"/>
+      <c r="T24" s="236"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="83"/>
-      <c r="B25" s="116" t="s">
+      <c r="A25" s="250"/>
+      <c r="B25" s="232" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="179"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="125"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="64"/>
+      <c r="C25" s="233"/>
+      <c r="D25" s="234"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="288"/>
+      <c r="P25" s="235"/>
+      <c r="Q25" s="235"/>
+      <c r="R25" s="235"/>
+      <c r="S25" s="235"/>
+      <c r="T25" s="236"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="83"/>
-      <c r="B26" s="116" t="s">
+      <c r="A26" s="250"/>
+      <c r="B26" s="232" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="119"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="125"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="64"/>
+      <c r="C26" s="233"/>
+      <c r="D26" s="234"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="288"/>
+      <c r="P26" s="235"/>
+      <c r="Q26" s="235"/>
+      <c r="R26" s="235"/>
+      <c r="S26" s="235"/>
+      <c r="T26" s="236"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="84"/>
-      <c r="B27" s="102" t="s">
+      <c r="A27" s="251"/>
+      <c r="B27" s="219" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="121"/>
-      <c r="D27" s="180"/>
-      <c r="E27" s="201"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="201"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="201"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="137"/>
-      <c r="P27" s="138"/>
-      <c r="Q27" s="138"/>
-      <c r="R27" s="138"/>
-      <c r="S27" s="138"/>
-      <c r="T27" s="139"/>
+      <c r="C27" s="220"/>
+      <c r="D27" s="221"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="296"/>
+      <c r="P27" s="224"/>
+      <c r="Q27" s="224"/>
+      <c r="R27" s="224"/>
+      <c r="S27" s="224"/>
+      <c r="T27" s="225"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="85" t="s">
+      <c r="A28" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="143" t="s">
+      <c r="B28" s="226" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="144"/>
-      <c r="D28" s="181"/>
-      <c r="E28" s="202"/>
-      <c r="F28" s="203"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="202"/>
-      <c r="J28" s="203"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="202"/>
-      <c r="N28" s="203"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="133"/>
-      <c r="Q28" s="133"/>
-      <c r="R28" s="133"/>
-      <c r="S28" s="133"/>
-      <c r="T28" s="134"/>
+      <c r="C28" s="227"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="298"/>
+      <c r="P28" s="230"/>
+      <c r="Q28" s="230"/>
+      <c r="R28" s="230"/>
+      <c r="S28" s="230"/>
+      <c r="T28" s="231"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="B29" s="218"/>
+      <c r="C29" s="218"/>
+      <c r="D29" s="218"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="17" t="s">
@@ -45639,144 +45770,105 @@
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="18"/>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="172" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="172"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="19"/>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="49"/>
+      <c r="C32" s="172"/>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1">
       <c r="A33" s="20"/>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="49"/>
+      <c r="C33" s="172"/>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1">
       <c r="A34" s="21"/>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="49"/>
+      <c r="C34" s="172"/>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1">
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
+      <c r="B35" s="218"/>
+      <c r="C35" s="218"/>
+      <c r="D35" s="218"/>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1">
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
+      <c r="B36" s="218"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="218"/>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1">
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
+      <c r="B37" s="218"/>
+      <c r="C37" s="218"/>
+      <c r="D37" s="218"/>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1">
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
+      <c r="B38" s="218"/>
+      <c r="C38" s="218"/>
+      <c r="D38" s="218"/>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1">
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="B39" s="218"/>
+      <c r="C39" s="218"/>
+      <c r="D39" s="218"/>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1">
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
+      <c r="B40" s="218"/>
+      <c r="C40" s="218"/>
+      <c r="D40" s="218"/>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1">
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
+      <c r="B41" s="218"/>
+      <c r="C41" s="218"/>
+      <c r="D41" s="218"/>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1">
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
+      <c r="B42" s="218"/>
+      <c r="C42" s="218"/>
+      <c r="D42" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
@@ -45801,37 +45893,76 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="O28:P28"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/30_工程表/工程表_第2版.xlsx
+++ b/doc/30_工程表/工程表_第2版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E4\doc\30_工程表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\doc\30_工程表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA3D9BD-2395-4AF6-9492-B7371C5EA8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0BC277-8C87-49C1-BBFF-6DA0F19D6A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="月間" sheetId="4" r:id="rId1"/>
@@ -701,7 +701,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -718,12 +718,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor rgb="FFBDD6EE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2128,9 +2122,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2140,25 +2131,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2167,7 +2158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2176,16 +2167,16 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2233,7 +2224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2278,94 +2269,94 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2383,31 +2374,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2431,7 +2422,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2446,7 +2437,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2464,7 +2455,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2482,25 +2473,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="12" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="11" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="84" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2509,10 +2497,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2524,7 +2512,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2539,43 +2527,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="14" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2584,23 +2572,149 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2614,271 +2728,100 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2899,13 +2842,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2914,115 +2857,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3040,8 +2974,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5555,8 +5549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F461FB36-AA5C-4255-9DAB-20DEB8CADCD8}">
   <dimension ref="A1:AM1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
@@ -5608,18 +5602,18 @@
       <c r="AJ1" s="2"/>
     </row>
     <row r="2" spans="1:39" ht="22.5" customHeight="1">
-      <c r="B2" s="208">
+      <c r="B2" s="173">
         <v>2024</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
       <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="208">
+      <c r="F2" s="173">
         <v>6</v>
       </c>
-      <c r="G2" s="189"/>
+      <c r="G2" s="174"/>
       <c r="H2" s="12" t="s">
         <v>1</v>
       </c>
@@ -5692,57 +5686,57 @@
       <c r="AJ3" s="3"/>
     </row>
     <row r="4" spans="1:39" ht="19.5" customHeight="1">
-      <c r="B4" s="197" t="s">
+      <c r="B4" s="175" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="194" t="s">
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="193"/>
-      <c r="H4" s="193"/>
-      <c r="I4" s="193"/>
-      <c r="J4" s="195"/>
-      <c r="K4" s="197" t="s">
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="193"/>
-      <c r="M4" s="193"/>
-      <c r="N4" s="195"/>
-      <c r="O4" s="194" t="s">
+      <c r="L4" s="176"/>
+      <c r="M4" s="176"/>
+      <c r="N4" s="177"/>
+      <c r="O4" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="193"/>
-      <c r="Q4" s="193"/>
-      <c r="R4" s="193"/>
-      <c r="S4" s="195"/>
-      <c r="T4" s="197" t="s">
+      <c r="P4" s="176"/>
+      <c r="Q4" s="176"/>
+      <c r="R4" s="176"/>
+      <c r="S4" s="177"/>
+      <c r="T4" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="193"/>
-      <c r="V4" s="193"/>
-      <c r="W4" s="195"/>
-      <c r="X4" s="198">
+      <c r="U4" s="176"/>
+      <c r="V4" s="176"/>
+      <c r="W4" s="177"/>
+      <c r="X4" s="206">
         <v>45451</v>
       </c>
-      <c r="Y4" s="193"/>
-      <c r="Z4" s="193"/>
-      <c r="AA4" s="193"/>
-      <c r="AB4" s="195"/>
-      <c r="AC4" s="197" t="s">
+      <c r="Y4" s="176"/>
+      <c r="Z4" s="176"/>
+      <c r="AA4" s="176"/>
+      <c r="AB4" s="177"/>
+      <c r="AC4" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="193"/>
-      <c r="AE4" s="193"/>
-      <c r="AF4" s="193"/>
-      <c r="AG4" s="183">
+      <c r="AD4" s="176"/>
+      <c r="AE4" s="176"/>
+      <c r="AF4" s="176"/>
+      <c r="AG4" s="196">
         <v>45451</v>
       </c>
-      <c r="AH4" s="184"/>
-      <c r="AI4" s="184"/>
-      <c r="AJ4" s="184"/>
+      <c r="AH4" s="197"/>
+      <c r="AI4" s="197"/>
+      <c r="AJ4" s="197"/>
     </row>
     <row r="5" spans="1:39" ht="18.75" customHeight="1">
       <c r="B5" s="2"/>
@@ -5782,52 +5776,52 @@
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:39" ht="18.75" customHeight="1">
-      <c r="B6" s="185"/>
+      <c r="B6" s="198"/>
       <c r="C6" s="186"/>
       <c r="D6" s="186"/>
       <c r="E6" s="187"/>
       <c r="F6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="192">
+      <c r="G6" s="202">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="193"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="193"/>
-      <c r="L6" s="193"/>
-      <c r="M6" s="193"/>
-      <c r="N6" s="193"/>
-      <c r="O6" s="193"/>
-      <c r="P6" s="193"/>
-      <c r="Q6" s="193"/>
-      <c r="R6" s="193"/>
-      <c r="S6" s="193"/>
-      <c r="T6" s="193"/>
-      <c r="U6" s="193"/>
-      <c r="V6" s="193"/>
-      <c r="W6" s="193"/>
-      <c r="X6" s="193"/>
-      <c r="Y6" s="193"/>
-      <c r="Z6" s="193"/>
-      <c r="AA6" s="193"/>
-      <c r="AB6" s="193"/>
-      <c r="AC6" s="193"/>
-      <c r="AD6" s="193"/>
-      <c r="AE6" s="193"/>
-      <c r="AF6" s="193"/>
-      <c r="AG6" s="193"/>
-      <c r="AH6" s="193"/>
-      <c r="AI6" s="193"/>
-      <c r="AJ6" s="193"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="176"/>
+      <c r="J6" s="176"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="176"/>
+      <c r="M6" s="176"/>
+      <c r="N6" s="176"/>
+      <c r="O6" s="176"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="176"/>
+      <c r="R6" s="176"/>
+      <c r="S6" s="176"/>
+      <c r="T6" s="176"/>
+      <c r="U6" s="176"/>
+      <c r="V6" s="176"/>
+      <c r="W6" s="176"/>
+      <c r="X6" s="176"/>
+      <c r="Y6" s="176"/>
+      <c r="Z6" s="176"/>
+      <c r="AA6" s="176"/>
+      <c r="AB6" s="176"/>
+      <c r="AC6" s="176"/>
+      <c r="AD6" s="176"/>
+      <c r="AE6" s="176"/>
+      <c r="AF6" s="176"/>
+      <c r="AG6" s="176"/>
+      <c r="AH6" s="176"/>
+      <c r="AI6" s="176"/>
+      <c r="AJ6" s="176"/>
     </row>
     <row r="7" spans="1:39" ht="22.5" customHeight="1">
-      <c r="B7" s="188"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="190"/>
+      <c r="B7" s="199"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="200"/>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
@@ -5839,11 +5833,11 @@
         <f>DATE($B$2,$F$2,2)</f>
         <v>45445</v>
       </c>
-      <c r="I7" s="152">
+      <c r="I7" s="150">
         <f>DATE($B$2,$F$2,3)</f>
         <v>45446</v>
       </c>
-      <c r="J7" s="152">
+      <c r="J7" s="150">
         <f>DATE($B$2,$F$2,4)</f>
         <v>45447</v>
       </c>
@@ -5851,7 +5845,7 @@
         <f>DATE($B$2,$F$2,5)</f>
         <v>45448</v>
       </c>
-      <c r="L7" s="152">
+      <c r="L7" s="150">
         <f>DATE($B$2,$F$2,6)</f>
         <v>45449</v>
       </c>
@@ -5867,11 +5861,11 @@
         <f>DATE($B$2,$F$2,9)</f>
         <v>45452</v>
       </c>
-      <c r="P7" s="152">
+      <c r="P7" s="150">
         <f>DATE($B$2,$F$2,10)</f>
         <v>45453</v>
       </c>
-      <c r="Q7" s="152">
+      <c r="Q7" s="150">
         <f>DATE($B$2,$F$2,11)</f>
         <v>45454</v>
       </c>
@@ -5895,7 +5889,7 @@
         <f>DATE($B$2,$F$2,16)</f>
         <v>45459</v>
       </c>
-      <c r="W7" s="152">
+      <c r="W7" s="150">
         <f>DATE($B$2,$F$2,17)</f>
         <v>45460</v>
       </c>
@@ -5939,7 +5933,7 @@
         <f>DATE($B$2,$F$2,27)</f>
         <v>45470</v>
       </c>
-      <c r="AH7" s="153">
+      <c r="AH7" s="151">
         <f>DATE($B$2,$F$2,28)</f>
         <v>45471</v>
       </c>
@@ -5953,199 +5947,199 @@
       </c>
     </row>
     <row r="8" spans="1:39" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B8" s="188"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="191"/>
-      <c r="E8" s="190"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="201"/>
+      <c r="D8" s="201"/>
+      <c r="E8" s="200"/>
       <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="113" t="str">
+      <c r="G8" s="112" t="str">
         <f t="shared" ref="G8:AJ8" si="0">TEXT(G7,"aaa")</f>
         <v>土</v>
       </c>
-      <c r="H8" s="113" t="str">
+      <c r="H8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
-      <c r="I8" s="151" t="str">
+      <c r="I8" s="149" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="J8" s="151" t="str">
+      <c r="J8" s="149" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="K8" s="113" t="str">
+      <c r="K8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
-      <c r="L8" s="151" t="str">
+      <c r="L8" s="149" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="M8" s="113" t="str">
+      <c r="M8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="N8" s="113" t="str">
+      <c r="N8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>土</v>
       </c>
-      <c r="O8" s="113" t="str">
+      <c r="O8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
-      <c r="P8" s="151" t="str">
+      <c r="P8" s="149" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="Q8" s="151" t="str">
+      <c r="Q8" s="149" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="R8" s="113" t="str">
+      <c r="R8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
-      <c r="S8" s="113" t="str">
+      <c r="S8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="T8" s="113" t="str">
+      <c r="T8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="U8" s="113" t="str">
+      <c r="U8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>土</v>
       </c>
-      <c r="V8" s="113" t="str">
+      <c r="V8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
-      <c r="W8" s="151" t="str">
+      <c r="W8" s="149" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="X8" s="113" t="str">
+      <c r="X8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="Y8" s="113" t="str">
+      <c r="Y8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
-      <c r="Z8" s="113" t="str">
+      <c r="Z8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="AA8" s="113" t="str">
+      <c r="AA8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="AB8" s="113" t="str">
+      <c r="AB8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>土</v>
       </c>
-      <c r="AC8" s="113" t="str">
+      <c r="AC8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
-      <c r="AD8" s="113" t="str">
+      <c r="AD8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="AE8" s="113" t="str">
+      <c r="AE8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
-      <c r="AF8" s="113" t="str">
+      <c r="AF8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
-      <c r="AG8" s="113" t="str">
+      <c r="AG8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="AH8" s="154" t="str">
+      <c r="AH8" s="152" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
-      <c r="AI8" s="113" t="str">
+      <c r="AI8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>土</v>
       </c>
-      <c r="AJ8" s="113" t="str">
+      <c r="AJ8" s="112" t="str">
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
-      <c r="AK8" s="114" t="s">
+      <c r="AK8" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="AL8" s="114" t="s">
+      <c r="AL8" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="AM8" s="114" t="s">
+      <c r="AM8" s="113" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A9" s="199" t="s">
+      <c r="A9" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="196" t="s">
+      <c r="B9" s="203" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="181"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="182"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="118"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="119"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="119"/>
-      <c r="V9" s="119"/>
-      <c r="W9" s="120"/>
-      <c r="X9" s="120"/>
-      <c r="Y9" s="119"/>
-      <c r="Z9" s="119"/>
-      <c r="AA9" s="119"/>
-      <c r="AB9" s="119"/>
-      <c r="AC9" s="119"/>
-      <c r="AD9" s="119"/>
-      <c r="AE9" s="119"/>
-      <c r="AF9" s="119"/>
-      <c r="AG9" s="119"/>
-      <c r="AH9" s="119"/>
-      <c r="AI9" s="119"/>
-      <c r="AJ9" s="119"/>
-      <c r="AK9" s="121"/>
-      <c r="AL9" s="121"/>
-      <c r="AM9" s="122">
+      <c r="C9" s="204"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="318"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="119"/>
+      <c r="U9" s="118"/>
+      <c r="V9" s="118"/>
+      <c r="W9" s="119"/>
+      <c r="X9" s="119"/>
+      <c r="Y9" s="118"/>
+      <c r="Z9" s="118"/>
+      <c r="AA9" s="118"/>
+      <c r="AB9" s="118"/>
+      <c r="AC9" s="118"/>
+      <c r="AD9" s="118"/>
+      <c r="AE9" s="118"/>
+      <c r="AF9" s="118"/>
+      <c r="AG9" s="118"/>
+      <c r="AH9" s="118"/>
+      <c r="AI9" s="118"/>
+      <c r="AJ9" s="118"/>
+      <c r="AK9" s="120"/>
+      <c r="AL9" s="120"/>
+      <c r="AM9" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A10" s="200"/>
-      <c r="B10" s="214" t="s">
+      <c r="A10" s="165"/>
+      <c r="B10" s="184" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="195"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="177"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -6155,10 +6149,10 @@
       <c r="M10" s="10"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
@@ -6176,21 +6170,21 @@
       <c r="AH10" s="11"/>
       <c r="AI10" s="11"/>
       <c r="AJ10" s="11"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="123">
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A11" s="200"/>
-      <c r="B11" s="214" t="s">
+      <c r="A11" s="165"/>
+      <c r="B11" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="193"/>
-      <c r="D11" s="193"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="195"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="177"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -6202,8 +6196,8 @@
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
       <c r="T11" s="11"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
@@ -6221,21 +6215,21 @@
       <c r="AH11" s="11"/>
       <c r="AI11" s="11"/>
       <c r="AJ11" s="11"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="16"/>
-      <c r="AM11" s="123">
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A12" s="200"/>
-      <c r="B12" s="214" t="s">
+      <c r="A12" s="165"/>
+      <c r="B12" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="193"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="195"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="177"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -6249,39 +6243,39 @@
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="112"/>
-      <c r="X12" s="112"/>
-      <c r="Y12" s="112"/>
-      <c r="Z12" s="112"/>
-      <c r="AA12" s="112"/>
-      <c r="AB12" s="26"/>
-      <c r="AC12" s="26"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="111"/>
+      <c r="X12" s="111"/>
+      <c r="Y12" s="111"/>
+      <c r="Z12" s="111"/>
+      <c r="AA12" s="111"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
       <c r="AG12" s="11"/>
       <c r="AH12" s="11"/>
       <c r="AI12" s="11"/>
       <c r="AJ12" s="11"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="123">
+      <c r="AK12" s="15"/>
+      <c r="AL12" s="15"/>
+      <c r="AM12" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:39" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A13" s="201"/>
-      <c r="B13" s="215" t="s">
+      <c r="A13" s="166"/>
+      <c r="B13" s="185" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="186"/>
       <c r="D13" s="186"/>
       <c r="E13" s="186"/>
       <c r="F13" s="187"/>
-      <c r="G13" s="29"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -6295,98 +6289,98 @@
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
-      <c r="AB13" s="28"/>
-      <c r="AC13" s="28"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
       <c r="AD13" s="9"/>
       <c r="AE13" s="9"/>
       <c r="AF13" s="9"/>
-      <c r="AG13" s="27"/>
+      <c r="AG13" s="26"/>
       <c r="AH13" s="9"/>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
-      <c r="AK13" s="114"/>
-      <c r="AL13" s="114"/>
-      <c r="AM13" s="129">
+      <c r="AK13" s="113"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="128">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A14" s="202" t="s">
+      <c r="A14" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="212" t="s">
+      <c r="B14" s="182" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="213"/>
-      <c r="D14" s="213"/>
-      <c r="E14" s="213"/>
-      <c r="F14" s="213"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="119"/>
-      <c r="O14" s="119"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="120"/>
-      <c r="R14" s="120"/>
-      <c r="S14" s="120"/>
-      <c r="T14" s="119"/>
-      <c r="U14" s="119"/>
-      <c r="V14" s="119"/>
-      <c r="W14" s="119"/>
-      <c r="X14" s="119"/>
-      <c r="Y14" s="119"/>
-      <c r="Z14" s="119"/>
-      <c r="AA14" s="119"/>
-      <c r="AB14" s="119"/>
-      <c r="AC14" s="119"/>
-      <c r="AD14" s="119"/>
-      <c r="AE14" s="119"/>
-      <c r="AF14" s="119"/>
-      <c r="AG14" s="119"/>
-      <c r="AH14" s="119"/>
-      <c r="AI14" s="119"/>
-      <c r="AJ14" s="119"/>
-      <c r="AK14" s="121"/>
-      <c r="AL14" s="121"/>
-      <c r="AM14" s="122">
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="317"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="119"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="118"/>
+      <c r="X14" s="118"/>
+      <c r="Y14" s="118"/>
+      <c r="Z14" s="118"/>
+      <c r="AA14" s="118"/>
+      <c r="AB14" s="118"/>
+      <c r="AC14" s="118"/>
+      <c r="AD14" s="118"/>
+      <c r="AE14" s="118"/>
+      <c r="AF14" s="118"/>
+      <c r="AG14" s="118"/>
+      <c r="AH14" s="118"/>
+      <c r="AI14" s="118"/>
+      <c r="AJ14" s="118"/>
+      <c r="AK14" s="120"/>
+      <c r="AL14" s="120"/>
+      <c r="AM14" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A15" s="203"/>
-      <c r="B15" s="176" t="s">
+      <c r="A15" s="168"/>
+      <c r="B15" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="177"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="19"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="208"/>
+      <c r="E15" s="208"/>
+      <c r="F15" s="208"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="18"/>
       <c r="N15" s="11"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
@@ -6403,178 +6397,178 @@
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
       <c r="AJ15" s="11"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="16"/>
-      <c r="AM15" s="123">
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A16" s="203"/>
-      <c r="B16" s="176" t="s">
+      <c r="A16" s="168"/>
+      <c r="B16" s="207" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="177"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="19"/>
+      <c r="C16" s="208"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="208"/>
+      <c r="F16" s="208"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="18"/>
       <c r="N16" s="11"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="14"/>
-      <c r="X16" s="14"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="11"/>
-      <c r="AD16" s="14"/>
-      <c r="AE16" s="14"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
       <c r="AF16" s="11"/>
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
       <c r="AJ16" s="11"/>
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="16"/>
-      <c r="AM16" s="123">
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A17" s="204"/>
-      <c r="B17" s="178" t="s">
+      <c r="A17" s="169"/>
+      <c r="B17" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="179"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="137"/>
-      <c r="M17" s="138"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="139"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="125"/>
-      <c r="S17" s="125"/>
-      <c r="T17" s="125"/>
-      <c r="U17" s="125"/>
-      <c r="V17" s="125"/>
-      <c r="W17" s="125"/>
-      <c r="X17" s="140"/>
-      <c r="Y17" s="141"/>
-      <c r="Z17" s="126"/>
-      <c r="AA17" s="126"/>
-      <c r="AB17" s="125"/>
-      <c r="AC17" s="125"/>
-      <c r="AD17" s="125"/>
-      <c r="AE17" s="125"/>
-      <c r="AF17" s="125"/>
-      <c r="AG17" s="125"/>
-      <c r="AH17" s="125"/>
-      <c r="AI17" s="125"/>
-      <c r="AJ17" s="125"/>
-      <c r="AK17" s="127"/>
-      <c r="AL17" s="127"/>
-      <c r="AM17" s="128">
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="210"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="134"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="124"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="124"/>
+      <c r="R17" s="124"/>
+      <c r="S17" s="124"/>
+      <c r="T17" s="124"/>
+      <c r="U17" s="124"/>
+      <c r="V17" s="124"/>
+      <c r="W17" s="124"/>
+      <c r="X17" s="138"/>
+      <c r="Y17" s="139"/>
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="125"/>
+      <c r="AB17" s="124"/>
+      <c r="AC17" s="124"/>
+      <c r="AD17" s="124"/>
+      <c r="AE17" s="124"/>
+      <c r="AF17" s="124"/>
+      <c r="AG17" s="124"/>
+      <c r="AH17" s="124"/>
+      <c r="AI17" s="124"/>
+      <c r="AJ17" s="124"/>
+      <c r="AK17" s="126"/>
+      <c r="AL17" s="126"/>
+      <c r="AM17" s="127">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A18" s="205" t="s">
+      <c r="A18" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="180" t="s">
+      <c r="B18" s="211" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="181"/>
-      <c r="D18" s="181"/>
-      <c r="E18" s="181"/>
-      <c r="F18" s="182"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="148"/>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="119"/>
-      <c r="T18" s="120"/>
-      <c r="U18" s="119"/>
-      <c r="V18" s="119"/>
-      <c r="W18" s="120"/>
-      <c r="X18" s="120"/>
-      <c r="Y18" s="120"/>
-      <c r="Z18" s="120"/>
-      <c r="AA18" s="119"/>
-      <c r="AB18" s="119"/>
-      <c r="AC18" s="119"/>
-      <c r="AD18" s="119"/>
-      <c r="AE18" s="119"/>
-      <c r="AF18" s="119"/>
-      <c r="AG18" s="119"/>
-      <c r="AH18" s="119"/>
-      <c r="AI18" s="119"/>
-      <c r="AJ18" s="119"/>
-      <c r="AK18" s="121"/>
-      <c r="AL18" s="121"/>
-      <c r="AM18" s="122">
+      <c r="C18" s="204"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="146"/>
+      <c r="O18" s="146"/>
+      <c r="P18" s="118"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="118"/>
+      <c r="W18" s="119"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="119"/>
+      <c r="Z18" s="119"/>
+      <c r="AA18" s="118"/>
+      <c r="AB18" s="118"/>
+      <c r="AC18" s="118"/>
+      <c r="AD18" s="118"/>
+      <c r="AE18" s="118"/>
+      <c r="AF18" s="118"/>
+      <c r="AG18" s="118"/>
+      <c r="AH18" s="118"/>
+      <c r="AI18" s="118"/>
+      <c r="AJ18" s="118"/>
+      <c r="AK18" s="120"/>
+      <c r="AL18" s="120"/>
+      <c r="AM18" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A19" s="206"/>
-      <c r="B19" s="169" t="s">
+      <c r="A19" s="171"/>
+      <c r="B19" s="188" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="171"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="189"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="190"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="108"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="107"/>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
-      <c r="T19" s="14"/>
+      <c r="T19" s="13"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
       <c r="AA19" s="11"/>
       <c r="AB19" s="11"/>
       <c r="AC19" s="11"/>
@@ -6585,31 +6579,31 @@
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
       <c r="AJ19" s="11"/>
-      <c r="AK19" s="121"/>
-      <c r="AL19" s="16"/>
-      <c r="AM19" s="123">
+      <c r="AK19" s="120"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A20" s="206"/>
-      <c r="B20" s="169" t="s">
+      <c r="A20" s="171"/>
+      <c r="B20" s="188" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="171"/>
+      <c r="C20" s="189"/>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="190"/>
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="108"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="107"/>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
@@ -6630,42 +6624,42 @@
       <c r="AH20" s="11"/>
       <c r="AI20" s="11"/>
       <c r="AJ20" s="11"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="16"/>
-      <c r="AM20" s="123">
+      <c r="AK20" s="15"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A21" s="206"/>
-      <c r="B21" s="166" t="s">
+      <c r="A21" s="171"/>
+      <c r="B21" s="191" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="216"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="191"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="192"/>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="108"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="107"/>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
-      <c r="T21" s="14"/>
+      <c r="T21" s="13"/>
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
       <c r="AB21" s="11"/>
       <c r="AC21" s="11"/>
       <c r="AD21" s="11"/>
@@ -6675,416 +6669,416 @@
       <c r="AH21" s="11"/>
       <c r="AI21" s="11"/>
       <c r="AJ21" s="11"/>
-      <c r="AK21" s="16"/>
-      <c r="AL21" s="16"/>
-      <c r="AM21" s="123">
+      <c r="AK21" s="15"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A22" s="206"/>
-      <c r="B22" s="217" t="s">
+      <c r="A22" s="171"/>
+      <c r="B22" s="193" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="168"/>
+      <c r="C22" s="194"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="195"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="109"/>
-      <c r="P22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="109"/>
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="11"/>
-      <c r="T22" s="14"/>
+      <c r="T22" s="13"/>
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
-      <c r="W22" s="14"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
       <c r="AB22" s="11"/>
       <c r="AC22" s="11"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
       <c r="AG22" s="11"/>
       <c r="AH22" s="11"/>
       <c r="AI22" s="11"/>
       <c r="AJ22" s="11"/>
-      <c r="AK22" s="16"/>
-      <c r="AL22" s="16"/>
-      <c r="AM22" s="123">
+      <c r="AK22" s="15"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A23" s="206"/>
-      <c r="B23" s="166" t="s">
+      <c r="A23" s="171"/>
+      <c r="B23" s="191" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="167"/>
-      <c r="D23" s="167"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="168"/>
+      <c r="C23" s="194"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="195"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="112"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="112"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="111"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="13"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
       <c r="AB23" s="11"/>
       <c r="AC23" s="11"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
       <c r="AG23" s="11"/>
       <c r="AH23" s="11"/>
       <c r="AI23" s="11"/>
       <c r="AJ23" s="11"/>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="16"/>
-      <c r="AM23" s="123">
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A24" s="206"/>
-      <c r="B24" s="166" t="s">
+      <c r="A24" s="171"/>
+      <c r="B24" s="191" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="167"/>
-      <c r="D24" s="167"/>
-      <c r="E24" s="167"/>
-      <c r="F24" s="168"/>
+      <c r="C24" s="194"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="195"/>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="108"/>
-      <c r="T24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="111"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="13"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
       <c r="AB24" s="11"/>
       <c r="AC24" s="11"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
       <c r="AG24" s="11"/>
       <c r="AH24" s="11"/>
       <c r="AI24" s="11"/>
       <c r="AJ24" s="11"/>
-      <c r="AK24" s="16"/>
-      <c r="AL24" s="16"/>
-      <c r="AM24" s="123">
+      <c r="AK24" s="15"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A25" s="206"/>
-      <c r="B25" s="166" t="s">
+      <c r="A25" s="171"/>
+      <c r="B25" s="191" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="168"/>
+      <c r="C25" s="194"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="195"/>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="112"/>
-      <c r="Q25" s="112"/>
-      <c r="R25" s="112"/>
-      <c r="S25" s="108"/>
-      <c r="T25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="13"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
+      <c r="AA25" s="13"/>
       <c r="AB25" s="11"/>
       <c r="AC25" s="11"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
       <c r="AG25" s="11"/>
       <c r="AH25" s="11"/>
       <c r="AI25" s="11"/>
       <c r="AJ25" s="11"/>
-      <c r="AK25" s="16"/>
-      <c r="AL25" s="16"/>
-      <c r="AM25" s="123">
+      <c r="AK25" s="15"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A26" s="206"/>
-      <c r="B26" s="169" t="s">
+      <c r="A26" s="171"/>
+      <c r="B26" s="188" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="171"/>
+      <c r="C26" s="189"/>
+      <c r="D26" s="189"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="190"/>
       <c r="G26" s="10"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="112"/>
-      <c r="M26" s="112"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="108"/>
-      <c r="T26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="111"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="13"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
       <c r="AB26" s="11"/>
       <c r="AC26" s="11"/>
-      <c r="AD26" s="14"/>
-      <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
       <c r="AG26" s="11"/>
       <c r="AH26" s="11"/>
       <c r="AI26" s="11"/>
       <c r="AJ26" s="11"/>
-      <c r="AK26" s="16"/>
-      <c r="AL26" s="16"/>
-      <c r="AM26" s="123">
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A27" s="206"/>
-      <c r="B27" s="169" t="s">
+      <c r="A27" s="171"/>
+      <c r="B27" s="188" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="171"/>
+      <c r="C27" s="189"/>
+      <c r="D27" s="189"/>
+      <c r="E27" s="189"/>
+      <c r="F27" s="190"/>
       <c r="G27" s="10"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="112"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="112"/>
-      <c r="Q27" s="112"/>
-      <c r="R27" s="112"/>
-      <c r="S27" s="108"/>
-      <c r="T27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="111"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="107"/>
+      <c r="T27" s="13"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
       <c r="AB27" s="11"/>
       <c r="AC27" s="11"/>
-      <c r="AD27" s="14"/>
-      <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
       <c r="AG27" s="11"/>
       <c r="AH27" s="11"/>
       <c r="AI27" s="11"/>
       <c r="AJ27" s="11"/>
-      <c r="AK27" s="16"/>
-      <c r="AL27" s="16"/>
-      <c r="AM27" s="123">
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A28" s="206"/>
-      <c r="B28" s="169" t="s">
+      <c r="A28" s="171"/>
+      <c r="B28" s="188" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="170"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="171"/>
+      <c r="C28" s="189"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="190"/>
       <c r="G28" s="10"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="112"/>
-      <c r="M28" s="112"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="112"/>
-      <c r="Q28" s="112"/>
-      <c r="R28" s="112"/>
-      <c r="S28" s="108"/>
-      <c r="T28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="107"/>
+      <c r="T28" s="13"/>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
       <c r="AB28" s="11"/>
       <c r="AC28" s="11"/>
-      <c r="AD28" s="14"/>
-      <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
       <c r="AG28" s="11"/>
       <c r="AH28" s="11"/>
       <c r="AI28" s="11"/>
       <c r="AJ28" s="11"/>
-      <c r="AK28" s="16"/>
-      <c r="AL28" s="16"/>
-      <c r="AM28" s="123">
+      <c r="AK28" s="15"/>
+      <c r="AL28" s="15"/>
+      <c r="AM28" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A29" s="207"/>
-      <c r="B29" s="209" t="s">
+      <c r="A29" s="172"/>
+      <c r="B29" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="210"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="210"/>
-      <c r="F29" s="211"/>
-      <c r="G29" s="124"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="139"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-      <c r="N29" s="149"/>
-      <c r="O29" s="149"/>
-      <c r="P29" s="149"/>
-      <c r="Q29" s="149"/>
-      <c r="R29" s="149"/>
-      <c r="S29" s="150"/>
-      <c r="T29" s="125"/>
-      <c r="U29" s="125"/>
-      <c r="V29" s="125"/>
-      <c r="W29" s="125"/>
-      <c r="X29" s="125"/>
-      <c r="Y29" s="125"/>
-      <c r="Z29" s="125"/>
-      <c r="AA29" s="125"/>
-      <c r="AB29" s="125"/>
-      <c r="AC29" s="125"/>
-      <c r="AD29" s="126"/>
-      <c r="AE29" s="126"/>
-      <c r="AF29" s="126"/>
-      <c r="AG29" s="125"/>
-      <c r="AH29" s="125"/>
-      <c r="AI29" s="125"/>
-      <c r="AJ29" s="125"/>
-      <c r="AK29" s="127"/>
-      <c r="AL29" s="127"/>
-      <c r="AM29" s="128">
+      <c r="C29" s="180"/>
+      <c r="D29" s="180"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="124"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="147"/>
+      <c r="M29" s="147"/>
+      <c r="N29" s="147"/>
+      <c r="O29" s="147"/>
+      <c r="P29" s="147"/>
+      <c r="Q29" s="147"/>
+      <c r="R29" s="147"/>
+      <c r="S29" s="148"/>
+      <c r="T29" s="124"/>
+      <c r="U29" s="124"/>
+      <c r="V29" s="124"/>
+      <c r="W29" s="124"/>
+      <c r="X29" s="124"/>
+      <c r="Y29" s="124"/>
+      <c r="Z29" s="124"/>
+      <c r="AA29" s="124"/>
+      <c r="AB29" s="124"/>
+      <c r="AC29" s="124"/>
+      <c r="AD29" s="125"/>
+      <c r="AE29" s="125"/>
+      <c r="AF29" s="125"/>
+      <c r="AG29" s="124"/>
+      <c r="AH29" s="124"/>
+      <c r="AI29" s="124"/>
+      <c r="AJ29" s="124"/>
+      <c r="AK29" s="126"/>
+      <c r="AL29" s="126"/>
+      <c r="AM29" s="127">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:39" ht="22.2" customHeight="1">
-      <c r="A30" s="142" t="s">
+      <c r="A30" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="173" t="s">
+      <c r="B30" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="174"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="143"/>
-      <c r="L30" s="144"/>
-      <c r="M30" s="144"/>
-      <c r="N30" s="144"/>
-      <c r="O30" s="144"/>
-      <c r="P30" s="144"/>
-      <c r="Q30" s="144"/>
-      <c r="R30" s="144"/>
-      <c r="S30" s="145"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="X30" s="25"/>
-      <c r="Y30" s="115"/>
-      <c r="Z30" s="115"/>
-      <c r="AA30" s="115"/>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="25"/>
-      <c r="AD30" s="115"/>
-      <c r="AE30" s="115"/>
-      <c r="AF30" s="115"/>
-      <c r="AG30" s="115"/>
-      <c r="AH30" s="146"/>
-      <c r="AI30" s="25"/>
-      <c r="AJ30" s="147"/>
-      <c r="AK30" s="116"/>
-      <c r="AL30" s="116"/>
-      <c r="AM30" s="117">
+      <c r="C30" s="214"/>
+      <c r="D30" s="214"/>
+      <c r="E30" s="214"/>
+      <c r="F30" s="215"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="142"/>
+      <c r="M30" s="142"/>
+      <c r="N30" s="142"/>
+      <c r="O30" s="142"/>
+      <c r="P30" s="142"/>
+      <c r="Q30" s="142"/>
+      <c r="R30" s="142"/>
+      <c r="S30" s="143"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="114"/>
+      <c r="Z30" s="114"/>
+      <c r="AA30" s="114"/>
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="24"/>
+      <c r="AD30" s="114"/>
+      <c r="AE30" s="114"/>
+      <c r="AF30" s="114"/>
+      <c r="AG30" s="114"/>
+      <c r="AH30" s="144"/>
+      <c r="AI30" s="24"/>
+      <c r="AJ30" s="145"/>
+      <c r="AK30" s="115"/>
+      <c r="AL30" s="115"/>
+      <c r="AM30" s="116">
         <v>0</v>
       </c>
     </row>
@@ -7126,7 +7120,7 @@
       <c r="AJ31" s="3"/>
     </row>
     <row r="32" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B32" s="3"/>
@@ -7166,14 +7160,14 @@
       <c r="AJ32" s="3"/>
     </row>
     <row r="33" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A33" s="18"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="172" t="s">
+      <c r="C33" s="212" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="172"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
+      <c r="D33" s="212"/>
+      <c r="E33" s="212"/>
+      <c r="F33" s="212"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -7206,14 +7200,14 @@
       <c r="AJ33" s="3"/>
     </row>
     <row r="34" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A34" s="19"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="172" t="s">
+      <c r="C34" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
+      <c r="D34" s="212"/>
+      <c r="E34" s="212"/>
+      <c r="F34" s="212"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -7246,14 +7240,14 @@
       <c r="AJ34" s="3"/>
     </row>
     <row r="35" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A35" s="20"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="172" t="s">
+      <c r="C35" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
+      <c r="D35" s="212"/>
+      <c r="E35" s="212"/>
+      <c r="F35" s="212"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -7286,14 +7280,14 @@
       <c r="AJ35" s="3"/>
     </row>
     <row r="36" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A36" s="21"/>
+      <c r="A36" s="20"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="172" t="s">
+      <c r="C36" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="172"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
+      <c r="D36" s="212"/>
+      <c r="E36" s="212"/>
+      <c r="F36" s="212"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -7326,14 +7320,14 @@
       <c r="AJ36" s="3"/>
     </row>
     <row r="37" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A37" s="76"/>
+      <c r="A37" s="75"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="172" t="s">
+      <c r="C37" s="212" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="172"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
+      <c r="D37" s="212"/>
+      <c r="E37" s="212"/>
+      <c r="F37" s="212"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -43183,6 +43177,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AJ6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A29"/>
@@ -43199,32 +43219,6 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AJ6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="B30:F30"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7:AJ8">
@@ -43255,719 +43249,719 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:25" ht="18" customHeight="1">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="291" t="s">
+      <c r="G2" s="222" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="292"/>
-      <c r="I2" s="278" t="s">
+      <c r="H2" s="223"/>
+      <c r="I2" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="235"/>
-      <c r="L2" s="291" t="s">
+      <c r="J2" s="224"/>
+      <c r="L2" s="222" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="292"/>
-      <c r="N2" s="278" t="s">
+      <c r="M2" s="223"/>
+      <c r="N2" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="235"/>
-      <c r="Q2" s="291" t="s">
+      <c r="O2" s="224"/>
+      <c r="Q2" s="222" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="292"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="235"/>
-      <c r="V2" s="291" t="s">
+      <c r="R2" s="223"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="224"/>
+      <c r="V2" s="222" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="292"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="235"/>
+      <c r="W2" s="223"/>
+      <c r="X2" s="224"/>
+      <c r="Y2" s="224"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="293" t="s">
+      <c r="E4" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="255"/>
-      <c r="G4" s="222" t="s">
+      <c r="F4" s="226"/>
+      <c r="G4" s="227" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="294"/>
-      <c r="I4" s="293" t="s">
+      <c r="H4" s="228"/>
+      <c r="I4" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="255"/>
-      <c r="K4" s="222" t="s">
+      <c r="J4" s="226"/>
+      <c r="K4" s="227" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="294"/>
-      <c r="M4" s="293" t="s">
+      <c r="L4" s="228"/>
+      <c r="M4" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="255"/>
+      <c r="N4" s="226"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="288">
+      <c r="E5" s="216">
         <v>3</v>
       </c>
-      <c r="F5" s="236"/>
-      <c r="G5" s="261">
+      <c r="F5" s="217"/>
+      <c r="G5" s="218">
         <v>4</v>
       </c>
-      <c r="H5" s="289"/>
-      <c r="I5" s="288">
+      <c r="H5" s="219"/>
+      <c r="I5" s="216">
         <v>5</v>
       </c>
-      <c r="J5" s="236"/>
-      <c r="K5" s="261">
+      <c r="J5" s="217"/>
+      <c r="K5" s="218">
         <v>6</v>
       </c>
-      <c r="L5" s="289"/>
-      <c r="M5" s="288">
+      <c r="L5" s="219"/>
+      <c r="M5" s="216">
         <v>7</v>
       </c>
-      <c r="N5" s="236"/>
+      <c r="N5" s="217"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="80" t="s">
+      <c r="K6" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="55" t="s">
+      <c r="L6" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="45" t="s">
+      <c r="N6" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="290" t="s">
+      <c r="O6" s="220" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="230"/>
-      <c r="Q6" s="279" t="s">
+      <c r="P6" s="221"/>
+      <c r="Q6" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="230"/>
-      <c r="S6" s="279" t="s">
+      <c r="R6" s="221"/>
+      <c r="S6" s="230" t="s">
         <v>68</v>
       </c>
       <c r="T6" s="231"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="280" t="s">
+      <c r="A7" s="232" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="252" t="s">
+      <c r="B7" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="283"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="285" t="s">
+      <c r="C7" s="236"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="238" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="286"/>
-      <c r="Q7" s="286"/>
-      <c r="R7" s="286"/>
-      <c r="S7" s="286"/>
-      <c r="T7" s="287"/>
+      <c r="P7" s="239"/>
+      <c r="Q7" s="239"/>
+      <c r="R7" s="239"/>
+      <c r="S7" s="239"/>
+      <c r="T7" s="240"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="281"/>
-      <c r="B8" s="237" t="s">
+      <c r="A8" s="233"/>
+      <c r="B8" s="241" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="238"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="278" t="s">
+      <c r="C8" s="242"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="229" t="s">
         <v>73</v>
       </c>
-      <c r="P8" s="235"/>
-      <c r="Q8" s="235"/>
-      <c r="R8" s="235"/>
-      <c r="S8" s="235"/>
-      <c r="T8" s="236"/>
+      <c r="P8" s="224"/>
+      <c r="Q8" s="224"/>
+      <c r="R8" s="224"/>
+      <c r="S8" s="224"/>
+      <c r="T8" s="217"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="281"/>
-      <c r="B9" s="237" t="s">
+      <c r="A9" s="233"/>
+      <c r="B9" s="241" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="238"/>
-      <c r="D9" s="239"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="256" t="s">
+      <c r="C9" s="242"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="244" t="s">
         <v>36</v>
       </c>
-      <c r="P9" s="235"/>
-      <c r="Q9" s="278" t="s">
+      <c r="P9" s="224"/>
+      <c r="Q9" s="229" t="s">
         <v>73</v>
       </c>
-      <c r="R9" s="235"/>
-      <c r="S9" s="235"/>
-      <c r="T9" s="236"/>
+      <c r="R9" s="224"/>
+      <c r="S9" s="224"/>
+      <c r="T9" s="217"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="281"/>
-      <c r="B10" s="237" t="s">
+      <c r="A10" s="233"/>
+      <c r="B10" s="241" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="238"/>
-      <c r="D10" s="239"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="261"/>
-      <c r="P10" s="235"/>
-      <c r="Q10" s="235"/>
-      <c r="R10" s="235"/>
-      <c r="S10" s="235"/>
-      <c r="T10" s="236"/>
+      <c r="C10" s="242"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="218"/>
+      <c r="P10" s="224"/>
+      <c r="Q10" s="224"/>
+      <c r="R10" s="224"/>
+      <c r="S10" s="224"/>
+      <c r="T10" s="217"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="282"/>
-      <c r="B11" s="262" t="s">
+      <c r="A11" s="234"/>
+      <c r="B11" s="245" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="263"/>
-      <c r="D11" s="264"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="265"/>
-      <c r="P11" s="266"/>
-      <c r="Q11" s="266"/>
-      <c r="R11" s="266"/>
-      <c r="S11" s="266"/>
-      <c r="T11" s="267"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="248"/>
+      <c r="P11" s="249"/>
+      <c r="Q11" s="249"/>
+      <c r="R11" s="249"/>
+      <c r="S11" s="249"/>
+      <c r="T11" s="250"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="268" t="s">
+      <c r="A12" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="271" t="s">
+      <c r="B12" s="254" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="272"/>
-      <c r="D12" s="273"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="274" t="s">
+      <c r="C12" s="255"/>
+      <c r="D12" s="256"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="106"/>
+      <c r="O12" s="257" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="275"/>
-      <c r="Q12" s="223"/>
-      <c r="R12" s="223"/>
-      <c r="S12" s="223"/>
-      <c r="T12" s="255"/>
+      <c r="P12" s="258"/>
+      <c r="Q12" s="259"/>
+      <c r="R12" s="259"/>
+      <c r="S12" s="259"/>
+      <c r="T12" s="226"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="269"/>
-      <c r="B13" s="257" t="s">
+      <c r="A13" s="252"/>
+      <c r="B13" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="276"/>
-      <c r="D13" s="277"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="256" t="s">
+      <c r="C13" s="261"/>
+      <c r="D13" s="262"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="244" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="235"/>
-      <c r="R13" s="235"/>
-      <c r="S13" s="235"/>
-      <c r="T13" s="236"/>
+      <c r="P13" s="224"/>
+      <c r="Q13" s="224"/>
+      <c r="R13" s="224"/>
+      <c r="S13" s="224"/>
+      <c r="T13" s="217"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="269"/>
-      <c r="B14" s="257" t="s">
+      <c r="A14" s="252"/>
+      <c r="B14" s="260" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="258"/>
-      <c r="D14" s="259"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="99"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="260" t="s">
+      <c r="C14" s="271"/>
+      <c r="D14" s="272"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="99"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="273" t="s">
         <v>75</v>
       </c>
-      <c r="P14" s="261"/>
-      <c r="Q14" s="235"/>
-      <c r="R14" s="235"/>
-      <c r="S14" s="235"/>
-      <c r="T14" s="236"/>
+      <c r="P14" s="218"/>
+      <c r="Q14" s="224"/>
+      <c r="R14" s="224"/>
+      <c r="S14" s="224"/>
+      <c r="T14" s="217"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="270"/>
-      <c r="B15" s="244" t="s">
+      <c r="A15" s="253"/>
+      <c r="B15" s="274" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="245"/>
-      <c r="D15" s="246"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="103"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="247" t="s">
+      <c r="C15" s="275"/>
+      <c r="D15" s="276"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="277" t="s">
         <v>74</v>
       </c>
-      <c r="P15" s="224"/>
-      <c r="Q15" s="248"/>
-      <c r="R15" s="224"/>
-      <c r="S15" s="224"/>
-      <c r="T15" s="225"/>
+      <c r="P15" s="278"/>
+      <c r="Q15" s="279"/>
+      <c r="R15" s="278"/>
+      <c r="S15" s="278"/>
+      <c r="T15" s="280"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A16" s="249" t="s">
+      <c r="A16" s="263" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="252" t="s">
+      <c r="B16" s="235" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="253"/>
-      <c r="D16" s="254"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="222" t="s">
+      <c r="C16" s="266"/>
+      <c r="D16" s="267"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="P16" s="223"/>
-      <c r="Q16" s="222"/>
-      <c r="R16" s="223"/>
-      <c r="S16" s="223"/>
-      <c r="T16" s="255"/>
+      <c r="P16" s="259"/>
+      <c r="Q16" s="227"/>
+      <c r="R16" s="259"/>
+      <c r="S16" s="259"/>
+      <c r="T16" s="226"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A17" s="250"/>
-      <c r="B17" s="232" t="s">
+      <c r="A17" s="264"/>
+      <c r="B17" s="268" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="242"/>
-      <c r="D17" s="243"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="222" t="s">
+      <c r="C17" s="269"/>
+      <c r="D17" s="270"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="P17" s="223"/>
-      <c r="Q17" s="222"/>
-      <c r="R17" s="223"/>
-      <c r="S17" s="235"/>
-      <c r="T17" s="236"/>
+      <c r="P17" s="259"/>
+      <c r="Q17" s="227"/>
+      <c r="R17" s="259"/>
+      <c r="S17" s="224"/>
+      <c r="T17" s="217"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A18" s="250"/>
-      <c r="B18" s="232" t="s">
+      <c r="A18" s="264"/>
+      <c r="B18" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="242"/>
-      <c r="D18" s="243"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="222" t="s">
+      <c r="C18" s="269"/>
+      <c r="D18" s="270"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="P18" s="223"/>
-      <c r="Q18" s="222"/>
-      <c r="R18" s="223"/>
-      <c r="S18" s="235"/>
-      <c r="T18" s="236"/>
+      <c r="P18" s="259"/>
+      <c r="Q18" s="227"/>
+      <c r="R18" s="259"/>
+      <c r="S18" s="224"/>
+      <c r="T18" s="217"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A19" s="250"/>
-      <c r="B19" s="237" t="s">
+      <c r="A19" s="264"/>
+      <c r="B19" s="241" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="240"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="222" t="s">
+      <c r="C19" s="281"/>
+      <c r="D19" s="282"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="P19" s="223"/>
-      <c r="Q19" s="222"/>
-      <c r="R19" s="223"/>
-      <c r="S19" s="235"/>
-      <c r="T19" s="236"/>
+      <c r="P19" s="259"/>
+      <c r="Q19" s="227"/>
+      <c r="R19" s="259"/>
+      <c r="S19" s="224"/>
+      <c r="T19" s="217"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="250"/>
-      <c r="B20" s="237" t="s">
+      <c r="A20" s="264"/>
+      <c r="B20" s="241" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="240"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="222" t="s">
+      <c r="C20" s="281"/>
+      <c r="D20" s="282"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="P20" s="223"/>
-      <c r="Q20" s="222"/>
-      <c r="R20" s="223"/>
-      <c r="S20" s="235"/>
-      <c r="T20" s="236"/>
+      <c r="P20" s="259"/>
+      <c r="Q20" s="227"/>
+      <c r="R20" s="259"/>
+      <c r="S20" s="224"/>
+      <c r="T20" s="217"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="250"/>
-      <c r="B21" s="237" t="s">
+      <c r="A21" s="264"/>
+      <c r="B21" s="241" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="240"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="222" t="s">
+      <c r="C21" s="281"/>
+      <c r="D21" s="282"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="P21" s="223"/>
-      <c r="Q21" s="222"/>
-      <c r="R21" s="223"/>
-      <c r="S21" s="235"/>
-      <c r="T21" s="236"/>
+      <c r="P21" s="259"/>
+      <c r="Q21" s="227"/>
+      <c r="R21" s="259"/>
+      <c r="S21" s="224"/>
+      <c r="T21" s="217"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="250"/>
-      <c r="B22" s="237" t="s">
+      <c r="A22" s="264"/>
+      <c r="B22" s="241" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="240"/>
-      <c r="D22" s="241"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="222" t="s">
+      <c r="C22" s="281"/>
+      <c r="D22" s="282"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="P22" s="223"/>
-      <c r="Q22" s="222"/>
-      <c r="R22" s="223"/>
-      <c r="S22" s="235"/>
-      <c r="T22" s="236"/>
+      <c r="P22" s="259"/>
+      <c r="Q22" s="227"/>
+      <c r="R22" s="259"/>
+      <c r="S22" s="224"/>
+      <c r="T22" s="217"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A23" s="250"/>
-      <c r="B23" s="237" t="s">
+      <c r="A23" s="264"/>
+      <c r="B23" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="238"/>
-      <c r="D23" s="239"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="222" t="s">
+      <c r="C23" s="242"/>
+      <c r="D23" s="243"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="P23" s="223"/>
-      <c r="Q23" s="222"/>
-      <c r="R23" s="223"/>
-      <c r="S23" s="235"/>
-      <c r="T23" s="236"/>
+      <c r="P23" s="259"/>
+      <c r="Q23" s="227"/>
+      <c r="R23" s="259"/>
+      <c r="S23" s="224"/>
+      <c r="T23" s="217"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A24" s="250"/>
-      <c r="B24" s="232" t="s">
+      <c r="A24" s="264"/>
+      <c r="B24" s="268" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="233"/>
-      <c r="D24" s="234"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="222" t="s">
+      <c r="C24" s="283"/>
+      <c r="D24" s="284"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="P24" s="223"/>
-      <c r="Q24" s="222"/>
-      <c r="R24" s="223"/>
-      <c r="S24" s="235"/>
-      <c r="T24" s="236"/>
+      <c r="P24" s="259"/>
+      <c r="Q24" s="227"/>
+      <c r="R24" s="259"/>
+      <c r="S24" s="224"/>
+      <c r="T24" s="217"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A25" s="250"/>
-      <c r="B25" s="232" t="s">
+      <c r="A25" s="264"/>
+      <c r="B25" s="268" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="233"/>
-      <c r="D25" s="234"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="222" t="s">
+      <c r="C25" s="283"/>
+      <c r="D25" s="284"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="P25" s="223"/>
-      <c r="Q25" s="222"/>
-      <c r="R25" s="223"/>
-      <c r="S25" s="235"/>
-      <c r="T25" s="236"/>
+      <c r="P25" s="259"/>
+      <c r="Q25" s="227"/>
+      <c r="R25" s="259"/>
+      <c r="S25" s="224"/>
+      <c r="T25" s="217"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A26" s="250"/>
-      <c r="B26" s="232" t="s">
+      <c r="A26" s="264"/>
+      <c r="B26" s="268" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="233"/>
-      <c r="D26" s="234"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="222" t="s">
+      <c r="C26" s="283"/>
+      <c r="D26" s="284"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="P26" s="223"/>
-      <c r="Q26" s="222"/>
-      <c r="R26" s="223"/>
-      <c r="S26" s="235"/>
-      <c r="T26" s="236"/>
+      <c r="P26" s="259"/>
+      <c r="Q26" s="227"/>
+      <c r="R26" s="259"/>
+      <c r="S26" s="224"/>
+      <c r="T26" s="217"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="251"/>
-      <c r="B27" s="219" t="s">
+      <c r="A27" s="265"/>
+      <c r="B27" s="286" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="220"/>
-      <c r="D27" s="221"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="222" t="s">
+      <c r="C27" s="287"/>
+      <c r="D27" s="288"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="227" t="s">
         <v>71</v>
       </c>
-      <c r="P27" s="223"/>
-      <c r="Q27" s="222"/>
-      <c r="R27" s="223"/>
-      <c r="S27" s="224"/>
-      <c r="T27" s="225"/>
+      <c r="P27" s="259"/>
+      <c r="Q27" s="227"/>
+      <c r="R27" s="259"/>
+      <c r="S27" s="278"/>
+      <c r="T27" s="280"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="226" t="s">
+      <c r="B28" s="289" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="227"/>
-      <c r="D28" s="228"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="229"/>
-      <c r="P28" s="230"/>
-      <c r="Q28" s="230"/>
-      <c r="R28" s="230"/>
-      <c r="S28" s="230"/>
+      <c r="C28" s="290"/>
+      <c r="D28" s="291"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="292"/>
+      <c r="P28" s="221"/>
+      <c r="Q28" s="221"/>
+      <c r="R28" s="221"/>
+      <c r="S28" s="221"/>
       <c r="T28" s="231"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="218"/>
-      <c r="C29" s="218"/>
-      <c r="D29" s="218"/>
+      <c r="B29" s="285"/>
+      <c r="C29" s="285"/>
+      <c r="D29" s="285"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="3"/>
@@ -43977,131 +43971,148 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="172" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="212" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="172"/>
+      <c r="C31" s="212"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
-      <c r="A32" s="19"/>
-      <c r="B32" s="172" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="172"/>
+      <c r="C32" s="212"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1">
-      <c r="A33" s="20"/>
-      <c r="B33" s="172" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="172"/>
+      <c r="C33" s="212"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="172" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="172"/>
+      <c r="C34" s="212"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1">
-      <c r="A35" s="76"/>
-      <c r="B35" s="172" t="s">
+      <c r="A35" s="75"/>
+      <c r="B35" s="212" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="172"/>
+      <c r="C35" s="212"/>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1">
-      <c r="B36" s="218"/>
-      <c r="C36" s="218"/>
-      <c r="D36" s="218"/>
+      <c r="B36" s="285"/>
+      <c r="C36" s="285"/>
+      <c r="D36" s="285"/>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1">
-      <c r="B37" s="218"/>
-      <c r="C37" s="218"/>
-      <c r="D37" s="218"/>
+      <c r="B37" s="285"/>
+      <c r="C37" s="285"/>
+      <c r="D37" s="285"/>
     </row>
     <row r="38" spans="1:6" ht="18" customHeight="1">
-      <c r="B38" s="218"/>
-      <c r="C38" s="218"/>
-      <c r="D38" s="218"/>
+      <c r="B38" s="285"/>
+      <c r="C38" s="285"/>
+      <c r="D38" s="285"/>
     </row>
     <row r="39" spans="1:6" ht="18" customHeight="1">
-      <c r="B39" s="218"/>
-      <c r="C39" s="218"/>
-      <c r="D39" s="218"/>
+      <c r="B39" s="285"/>
+      <c r="C39" s="285"/>
+      <c r="D39" s="285"/>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1">
-      <c r="B40" s="218"/>
-      <c r="C40" s="218"/>
-      <c r="D40" s="218"/>
+      <c r="B40" s="285"/>
+      <c r="C40" s="285"/>
+      <c r="D40" s="285"/>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1">
-      <c r="B41" s="218"/>
-      <c r="C41" s="218"/>
-      <c r="D41" s="218"/>
+      <c r="B41" s="285"/>
+      <c r="C41" s="285"/>
+      <c r="D41" s="285"/>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1">
-      <c r="B42" s="218"/>
-      <c r="C42" s="218"/>
-      <c r="D42" s="218"/>
+      <c r="B42" s="285"/>
+      <c r="C42" s="285"/>
+      <c r="D42" s="285"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="O12:P12"/>
@@ -44126,837 +44137,27 @@
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-  </mergeCells>
-  <phoneticPr fontId="8"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF4906B-027D-4E20-B248-E186BA8B7085}">
-  <dimension ref="A2:Y42"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="5.453125" defaultRowHeight="18" customHeight="1"/>
-  <sheetData>
-    <row r="2" spans="1:25" ht="18" customHeight="1">
-      <c r="B2" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="291" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="292"/>
-      <c r="I2" s="278" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="235"/>
-      <c r="L2" s="291" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="292"/>
-      <c r="N2" s="278" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="235"/>
-      <c r="Q2" s="291" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="292"/>
-      <c r="S2" s="314">
-        <v>45451</v>
-      </c>
-      <c r="T2" s="235"/>
-      <c r="V2" s="291" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="292"/>
-      <c r="X2" s="314">
-        <v>45451</v>
-      </c>
-      <c r="Y2" s="235"/>
-    </row>
-    <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
-    <row r="4" spans="1:25" ht="15" customHeight="1">
-      <c r="D4" s="161" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="315" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="316"/>
-      <c r="G4" s="315" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="316"/>
-      <c r="I4" s="315" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="316"/>
-      <c r="K4" s="315" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="316"/>
-      <c r="M4" s="315" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="317"/>
-    </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="D5" s="162" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="235">
-        <v>10</v>
-      </c>
-      <c r="F5" s="235"/>
-      <c r="G5" s="235">
-        <v>11</v>
-      </c>
-      <c r="H5" s="235"/>
-      <c r="I5" s="235">
-        <v>12</v>
-      </c>
-      <c r="J5" s="235"/>
-      <c r="K5" s="235">
-        <v>13</v>
-      </c>
-      <c r="L5" s="235"/>
-      <c r="M5" s="235">
-        <v>14</v>
-      </c>
-      <c r="N5" s="313"/>
-    </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="D6" s="163" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="164" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="164" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="164" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="164" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="164" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="164" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="164" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="164" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="164" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="165" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="290" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" s="230"/>
-      <c r="Q6" s="279" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="230"/>
-      <c r="S6" s="279" t="s">
-        <v>68</v>
-      </c>
-      <c r="T6" s="231"/>
-    </row>
-    <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="280" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="252" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="283"/>
-      <c r="D7" s="311"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="155"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="155"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="312"/>
-      <c r="P7" s="286"/>
-      <c r="Q7" s="286"/>
-      <c r="R7" s="286"/>
-      <c r="S7" s="286"/>
-      <c r="T7" s="287"/>
-    </row>
-    <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="281"/>
-      <c r="B8" s="237" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="238"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="156"/>
-      <c r="I8" s="156"/>
-      <c r="J8" s="156"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="288"/>
-      <c r="P8" s="235"/>
-      <c r="Q8" s="235"/>
-      <c r="R8" s="235"/>
-      <c r="S8" s="235"/>
-      <c r="T8" s="236"/>
-    </row>
-    <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="281"/>
-      <c r="B9" s="237" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="238"/>
-      <c r="D9" s="300"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="288"/>
-      <c r="P9" s="235"/>
-      <c r="Q9" s="235"/>
-      <c r="R9" s="235"/>
-      <c r="S9" s="235"/>
-      <c r="T9" s="236"/>
-    </row>
-    <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="281"/>
-      <c r="B10" s="237" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="238"/>
-      <c r="D10" s="300"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="288"/>
-      <c r="P10" s="235"/>
-      <c r="Q10" s="235"/>
-      <c r="R10" s="235"/>
-      <c r="S10" s="235"/>
-      <c r="T10" s="236"/>
-    </row>
-    <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="282"/>
-      <c r="B11" s="262" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="263"/>
-      <c r="D11" s="307"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="308"/>
-      <c r="P11" s="266"/>
-      <c r="Q11" s="266"/>
-      <c r="R11" s="266"/>
-      <c r="S11" s="266"/>
-      <c r="T11" s="267"/>
-    </row>
-    <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="268" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="271" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="272"/>
-      <c r="D12" s="309"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="59"/>
-      <c r="O12" s="305"/>
-      <c r="P12" s="223"/>
-      <c r="Q12" s="223"/>
-      <c r="R12" s="223"/>
-      <c r="S12" s="223"/>
-      <c r="T12" s="255"/>
-    </row>
-    <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="269"/>
-      <c r="B13" s="257" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="276"/>
-      <c r="D13" s="310"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="156"/>
-      <c r="N13" s="158"/>
-      <c r="O13" s="288"/>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="235"/>
-      <c r="R13" s="235"/>
-      <c r="S13" s="235"/>
-      <c r="T13" s="236"/>
-    </row>
-    <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="269"/>
-      <c r="B14" s="257" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="258"/>
-      <c r="D14" s="306"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="156"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="288"/>
-      <c r="P14" s="235"/>
-      <c r="Q14" s="235"/>
-      <c r="R14" s="235"/>
-      <c r="S14" s="235"/>
-      <c r="T14" s="236"/>
-    </row>
-    <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="270"/>
-      <c r="B15" s="244" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="245"/>
-      <c r="D15" s="303"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="296"/>
-      <c r="P15" s="224"/>
-      <c r="Q15" s="224"/>
-      <c r="R15" s="224"/>
-      <c r="S15" s="224"/>
-      <c r="T15" s="225"/>
-    </row>
-    <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="249" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="252" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="253"/>
-      <c r="D16" s="304"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="160"/>
-      <c r="O16" s="305"/>
-      <c r="P16" s="223"/>
-      <c r="Q16" s="223"/>
-      <c r="R16" s="223"/>
-      <c r="S16" s="223"/>
-      <c r="T16" s="255"/>
-    </row>
-    <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="250"/>
-      <c r="B17" s="232" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="242"/>
-      <c r="D17" s="302"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="158"/>
-      <c r="O17" s="288"/>
-      <c r="P17" s="235"/>
-      <c r="Q17" s="235"/>
-      <c r="R17" s="235"/>
-      <c r="S17" s="235"/>
-      <c r="T17" s="236"/>
-    </row>
-    <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="250"/>
-      <c r="B18" s="232" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="242"/>
-      <c r="D18" s="302"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="288"/>
-      <c r="P18" s="235"/>
-      <c r="Q18" s="235"/>
-      <c r="R18" s="235"/>
-      <c r="S18" s="235"/>
-      <c r="T18" s="236"/>
-    </row>
-    <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="250"/>
-      <c r="B19" s="237" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="240"/>
-      <c r="D19" s="301"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="288"/>
-      <c r="P19" s="235"/>
-      <c r="Q19" s="235"/>
-      <c r="R19" s="235"/>
-      <c r="S19" s="235"/>
-      <c r="T19" s="236"/>
-    </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="250"/>
-      <c r="B20" s="237" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="240"/>
-      <c r="D20" s="301"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="288"/>
-      <c r="P20" s="235"/>
-      <c r="Q20" s="235"/>
-      <c r="R20" s="235"/>
-      <c r="S20" s="235"/>
-      <c r="T20" s="236"/>
-    </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="250"/>
-      <c r="B21" s="237" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="240"/>
-      <c r="D21" s="301"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="158"/>
-      <c r="O21" s="288"/>
-      <c r="P21" s="235"/>
-      <c r="Q21" s="235"/>
-      <c r="R21" s="235"/>
-      <c r="S21" s="235"/>
-      <c r="T21" s="236"/>
-    </row>
-    <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="250"/>
-      <c r="B22" s="237" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="240"/>
-      <c r="D22" s="301"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="158"/>
-      <c r="O22" s="288"/>
-      <c r="P22" s="235"/>
-      <c r="Q22" s="235"/>
-      <c r="R22" s="235"/>
-      <c r="S22" s="235"/>
-      <c r="T22" s="236"/>
-    </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="250"/>
-      <c r="B23" s="237" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="238"/>
-      <c r="D23" s="300"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="288"/>
-      <c r="P23" s="235"/>
-      <c r="Q23" s="235"/>
-      <c r="R23" s="235"/>
-      <c r="S23" s="235"/>
-      <c r="T23" s="236"/>
-    </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="250"/>
-      <c r="B24" s="232" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="233"/>
-      <c r="D24" s="299"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="158"/>
-      <c r="O24" s="288"/>
-      <c r="P24" s="235"/>
-      <c r="Q24" s="235"/>
-      <c r="R24" s="235"/>
-      <c r="S24" s="235"/>
-      <c r="T24" s="236"/>
-    </row>
-    <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="250"/>
-      <c r="B25" s="232" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="233"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="158"/>
-      <c r="O25" s="288"/>
-      <c r="P25" s="235"/>
-      <c r="Q25" s="235"/>
-      <c r="R25" s="235"/>
-      <c r="S25" s="235"/>
-      <c r="T25" s="236"/>
-    </row>
-    <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="250"/>
-      <c r="B26" s="232" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="233"/>
-      <c r="D26" s="299"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="156"/>
-      <c r="N26" s="158"/>
-      <c r="O26" s="288"/>
-      <c r="P26" s="235"/>
-      <c r="Q26" s="235"/>
-      <c r="R26" s="235"/>
-      <c r="S26" s="235"/>
-      <c r="T26" s="236"/>
-    </row>
-    <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="251"/>
-      <c r="B27" s="219" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="220"/>
-      <c r="D27" s="295"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="296"/>
-      <c r="P27" s="224"/>
-      <c r="Q27" s="224"/>
-      <c r="R27" s="224"/>
-      <c r="S27" s="224"/>
-      <c r="T27" s="225"/>
-    </row>
-    <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="226" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="227"/>
-      <c r="D28" s="297"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="298"/>
-      <c r="P28" s="230"/>
-      <c r="Q28" s="230"/>
-      <c r="R28" s="230"/>
-      <c r="S28" s="230"/>
-      <c r="T28" s="231"/>
-    </row>
-    <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="218"/>
-      <c r="C29" s="218"/>
-      <c r="D29" s="218"/>
-    </row>
-    <row r="30" spans="1:20" ht="18" customHeight="1">
-      <c r="A30" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:20" ht="18" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="172" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="172"/>
-    </row>
-    <row r="32" spans="1:20" ht="18" customHeight="1">
-      <c r="A32" s="19"/>
-      <c r="B32" s="172" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="172"/>
-    </row>
-    <row r="33" spans="1:4" ht="18" customHeight="1">
-      <c r="A33" s="20"/>
-      <c r="B33" s="172" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="172"/>
-    </row>
-    <row r="34" spans="1:4" ht="18" customHeight="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="172" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="172"/>
-    </row>
-    <row r="35" spans="1:4" ht="18" customHeight="1">
-      <c r="A35" s="76"/>
-      <c r="B35" s="172" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="172"/>
-    </row>
-    <row r="36" spans="1:4" ht="18" customHeight="1">
-      <c r="B36" s="218"/>
-      <c r="C36" s="218"/>
-      <c r="D36" s="218"/>
-    </row>
-    <row r="37" spans="1:4" ht="18" customHeight="1">
-      <c r="B37" s="218"/>
-      <c r="C37" s="218"/>
-      <c r="D37" s="218"/>
-    </row>
-    <row r="38" spans="1:4" ht="18" customHeight="1">
-      <c r="B38" s="218"/>
-      <c r="C38" s="218"/>
-      <c r="D38" s="218"/>
-    </row>
-    <row r="39" spans="1:4" ht="18" customHeight="1">
-      <c r="B39" s="218"/>
-      <c r="C39" s="218"/>
-      <c r="D39" s="218"/>
-    </row>
-    <row r="40" spans="1:4" ht="18" customHeight="1">
-      <c r="B40" s="218"/>
-      <c r="C40" s="218"/>
-      <c r="D40" s="218"/>
-    </row>
-    <row r="41" spans="1:4" ht="18" customHeight="1">
-      <c r="B41" s="218"/>
-      <c r="C41" s="218"/>
-      <c r="D41" s="218"/>
-    </row>
-    <row r="42" spans="1:4" ht="18" customHeight="1">
-      <c r="B42" s="218"/>
-      <c r="C42" s="218"/>
-      <c r="D42" s="218"/>
-    </row>
-  </sheetData>
-  <mergeCells count="125">
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -44978,27 +44179,837 @@
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF4906B-027D-4E20-B248-E186BA8B7085}">
+  <dimension ref="A2:Y42"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.453125" defaultRowHeight="18" customHeight="1"/>
+  <sheetData>
+    <row r="2" spans="1:25" ht="18" customHeight="1">
+      <c r="B2" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="222" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="223"/>
+      <c r="I2" s="229" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="224"/>
+      <c r="L2" s="222" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="223"/>
+      <c r="N2" s="229" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="224"/>
+      <c r="Q2" s="222" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="223"/>
+      <c r="S2" s="294">
+        <v>45451</v>
+      </c>
+      <c r="T2" s="224"/>
+      <c r="V2" s="222" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" s="223"/>
+      <c r="X2" s="294">
+        <v>45451</v>
+      </c>
+      <c r="Y2" s="224"/>
+    </row>
+    <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
+    <row r="4" spans="1:25" ht="15" customHeight="1">
+      <c r="D4" s="159" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="295" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="296"/>
+      <c r="G4" s="295" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="296"/>
+      <c r="I4" s="295" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="296"/>
+      <c r="K4" s="295" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="296"/>
+      <c r="M4" s="295" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="297"/>
+    </row>
+    <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="D5" s="160" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="224">
+        <v>10</v>
+      </c>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224">
+        <v>11</v>
+      </c>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224">
+        <v>12</v>
+      </c>
+      <c r="J5" s="224"/>
+      <c r="K5" s="224">
+        <v>13</v>
+      </c>
+      <c r="L5" s="224"/>
+      <c r="M5" s="224">
+        <v>14</v>
+      </c>
+      <c r="N5" s="293"/>
+    </row>
+    <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="D6" s="161" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="162" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="162" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="162" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="162" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="162" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="162" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="162" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="162" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="162" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="163" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="220" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="221"/>
+      <c r="Q6" s="230" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="221"/>
+      <c r="S6" s="230" t="s">
+        <v>68</v>
+      </c>
+      <c r="T6" s="231"/>
+    </row>
+    <row r="7" spans="1:25" ht="18" customHeight="1">
+      <c r="A7" s="232" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="235" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="236"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="157"/>
+      <c r="O7" s="299"/>
+      <c r="P7" s="239"/>
+      <c r="Q7" s="239"/>
+      <c r="R7" s="239"/>
+      <c r="S7" s="239"/>
+      <c r="T7" s="240"/>
+    </row>
+    <row r="8" spans="1:25" ht="18" customHeight="1">
+      <c r="A8" s="233"/>
+      <c r="B8" s="241" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="242"/>
+      <c r="D8" s="300"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="216"/>
+      <c r="P8" s="224"/>
+      <c r="Q8" s="224"/>
+      <c r="R8" s="224"/>
+      <c r="S8" s="224"/>
+      <c r="T8" s="217"/>
+    </row>
+    <row r="9" spans="1:25" ht="18" customHeight="1">
+      <c r="A9" s="233"/>
+      <c r="B9" s="241" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="242"/>
+      <c r="D9" s="300"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="216"/>
+      <c r="P9" s="224"/>
+      <c r="Q9" s="224"/>
+      <c r="R9" s="224"/>
+      <c r="S9" s="224"/>
+      <c r="T9" s="217"/>
+    </row>
+    <row r="10" spans="1:25" ht="18" customHeight="1">
+      <c r="A10" s="233"/>
+      <c r="B10" s="241" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="242"/>
+      <c r="D10" s="300"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="216"/>
+      <c r="P10" s="224"/>
+      <c r="Q10" s="224"/>
+      <c r="R10" s="224"/>
+      <c r="S10" s="224"/>
+      <c r="T10" s="217"/>
+    </row>
+    <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
+      <c r="A11" s="234"/>
+      <c r="B11" s="245" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="246"/>
+      <c r="D11" s="301"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="302"/>
+      <c r="P11" s="249"/>
+      <c r="Q11" s="249"/>
+      <c r="R11" s="249"/>
+      <c r="S11" s="249"/>
+      <c r="T11" s="250"/>
+    </row>
+    <row r="12" spans="1:25" ht="18" customHeight="1">
+      <c r="A12" s="251" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="254" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="255"/>
+      <c r="D12" s="303"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="304"/>
+      <c r="P12" s="259"/>
+      <c r="Q12" s="259"/>
+      <c r="R12" s="259"/>
+      <c r="S12" s="259"/>
+      <c r="T12" s="226"/>
+    </row>
+    <row r="13" spans="1:25" ht="18" customHeight="1">
+      <c r="A13" s="252"/>
+      <c r="B13" s="260" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="261"/>
+      <c r="D13" s="305"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="154"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="216"/>
+      <c r="P13" s="224"/>
+      <c r="Q13" s="224"/>
+      <c r="R13" s="224"/>
+      <c r="S13" s="224"/>
+      <c r="T13" s="217"/>
+    </row>
+    <row r="14" spans="1:25" ht="18" customHeight="1">
+      <c r="A14" s="252"/>
+      <c r="B14" s="260" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="271"/>
+      <c r="D14" s="308"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="216"/>
+      <c r="P14" s="224"/>
+      <c r="Q14" s="224"/>
+      <c r="R14" s="224"/>
+      <c r="S14" s="224"/>
+      <c r="T14" s="217"/>
+    </row>
+    <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
+      <c r="A15" s="253"/>
+      <c r="B15" s="274" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="275"/>
+      <c r="D15" s="309"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="310"/>
+      <c r="P15" s="278"/>
+      <c r="Q15" s="278"/>
+      <c r="R15" s="278"/>
+      <c r="S15" s="278"/>
+      <c r="T15" s="280"/>
+    </row>
+    <row r="16" spans="1:25" ht="18" customHeight="1">
+      <c r="A16" s="263" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="235" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="266"/>
+      <c r="D16" s="306"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="304"/>
+      <c r="P16" s="259"/>
+      <c r="Q16" s="259"/>
+      <c r="R16" s="259"/>
+      <c r="S16" s="259"/>
+      <c r="T16" s="226"/>
+    </row>
+    <row r="17" spans="1:20" ht="18" customHeight="1">
+      <c r="A17" s="264"/>
+      <c r="B17" s="268" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="269"/>
+      <c r="D17" s="307"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="156"/>
+      <c r="O17" s="216"/>
+      <c r="P17" s="224"/>
+      <c r="Q17" s="224"/>
+      <c r="R17" s="224"/>
+      <c r="S17" s="224"/>
+      <c r="T17" s="217"/>
+    </row>
+    <row r="18" spans="1:20" ht="18" customHeight="1">
+      <c r="A18" s="264"/>
+      <c r="B18" s="268" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="269"/>
+      <c r="D18" s="307"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="216"/>
+      <c r="P18" s="224"/>
+      <c r="Q18" s="224"/>
+      <c r="R18" s="224"/>
+      <c r="S18" s="224"/>
+      <c r="T18" s="217"/>
+    </row>
+    <row r="19" spans="1:20" ht="18" customHeight="1">
+      <c r="A19" s="264"/>
+      <c r="B19" s="241" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="281"/>
+      <c r="D19" s="311"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="216"/>
+      <c r="P19" s="224"/>
+      <c r="Q19" s="224"/>
+      <c r="R19" s="224"/>
+      <c r="S19" s="224"/>
+      <c r="T19" s="217"/>
+    </row>
+    <row r="20" spans="1:20" ht="18" customHeight="1">
+      <c r="A20" s="264"/>
+      <c r="B20" s="241" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="281"/>
+      <c r="D20" s="311"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="156"/>
+      <c r="O20" s="216"/>
+      <c r="P20" s="224"/>
+      <c r="Q20" s="224"/>
+      <c r="R20" s="224"/>
+      <c r="S20" s="224"/>
+      <c r="T20" s="217"/>
+    </row>
+    <row r="21" spans="1:20" ht="18" customHeight="1">
+      <c r="A21" s="264"/>
+      <c r="B21" s="241" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="281"/>
+      <c r="D21" s="311"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="156"/>
+      <c r="O21" s="216"/>
+      <c r="P21" s="224"/>
+      <c r="Q21" s="224"/>
+      <c r="R21" s="224"/>
+      <c r="S21" s="224"/>
+      <c r="T21" s="217"/>
+    </row>
+    <row r="22" spans="1:20" ht="18" customHeight="1">
+      <c r="A22" s="264"/>
+      <c r="B22" s="241" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="281"/>
+      <c r="D22" s="311"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="156"/>
+      <c r="O22" s="216"/>
+      <c r="P22" s="224"/>
+      <c r="Q22" s="224"/>
+      <c r="R22" s="224"/>
+      <c r="S22" s="224"/>
+      <c r="T22" s="217"/>
+    </row>
+    <row r="23" spans="1:20" ht="18" customHeight="1">
+      <c r="A23" s="264"/>
+      <c r="B23" s="241" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="242"/>
+      <c r="D23" s="300"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="216"/>
+      <c r="P23" s="224"/>
+      <c r="Q23" s="224"/>
+      <c r="R23" s="224"/>
+      <c r="S23" s="224"/>
+      <c r="T23" s="217"/>
+    </row>
+    <row r="24" spans="1:20" ht="18" customHeight="1">
+      <c r="A24" s="264"/>
+      <c r="B24" s="268" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="283"/>
+      <c r="D24" s="312"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="156"/>
+      <c r="O24" s="216"/>
+      <c r="P24" s="224"/>
+      <c r="Q24" s="224"/>
+      <c r="R24" s="224"/>
+      <c r="S24" s="224"/>
+      <c r="T24" s="217"/>
+    </row>
+    <row r="25" spans="1:20" ht="18" customHeight="1">
+      <c r="A25" s="264"/>
+      <c r="B25" s="268" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="283"/>
+      <c r="D25" s="312"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="154"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="216"/>
+      <c r="P25" s="224"/>
+      <c r="Q25" s="224"/>
+      <c r="R25" s="224"/>
+      <c r="S25" s="224"/>
+      <c r="T25" s="217"/>
+    </row>
+    <row r="26" spans="1:20" ht="18" customHeight="1">
+      <c r="A26" s="264"/>
+      <c r="B26" s="268" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="283"/>
+      <c r="D26" s="312"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="216"/>
+      <c r="P26" s="224"/>
+      <c r="Q26" s="224"/>
+      <c r="R26" s="224"/>
+      <c r="S26" s="224"/>
+      <c r="T26" s="217"/>
+    </row>
+    <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
+      <c r="A27" s="265"/>
+      <c r="B27" s="286" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="287"/>
+      <c r="D27" s="313"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="310"/>
+      <c r="P27" s="278"/>
+      <c r="Q27" s="278"/>
+      <c r="R27" s="278"/>
+      <c r="S27" s="278"/>
+      <c r="T27" s="280"/>
+    </row>
+    <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
+      <c r="A28" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="289" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="290"/>
+      <c r="D28" s="314"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="315"/>
+      <c r="P28" s="221"/>
+      <c r="Q28" s="221"/>
+      <c r="R28" s="221"/>
+      <c r="S28" s="221"/>
+      <c r="T28" s="231"/>
+    </row>
+    <row r="29" spans="1:20" ht="18" customHeight="1">
+      <c r="B29" s="285"/>
+      <c r="C29" s="285"/>
+      <c r="D29" s="285"/>
+    </row>
+    <row r="30" spans="1:20" ht="18" customHeight="1">
+      <c r="A30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:20" ht="18" customHeight="1">
+      <c r="A31" s="17"/>
+      <c r="B31" s="212" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="212"/>
+    </row>
+    <row r="32" spans="1:20" ht="18" customHeight="1">
+      <c r="A32" s="18"/>
+      <c r="B32" s="212" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="212"/>
+    </row>
+    <row r="33" spans="1:4" ht="18" customHeight="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="212" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="212"/>
+    </row>
+    <row r="34" spans="1:4" ht="18" customHeight="1">
+      <c r="A34" s="20"/>
+      <c r="B34" s="212" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="212"/>
+    </row>
+    <row r="35" spans="1:4" ht="18" customHeight="1">
+      <c r="A35" s="75"/>
+      <c r="B35" s="212" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="212"/>
+    </row>
+    <row r="36" spans="1:4" ht="18" customHeight="1">
+      <c r="B36" s="285"/>
+      <c r="C36" s="285"/>
+      <c r="D36" s="285"/>
+    </row>
+    <row r="37" spans="1:4" ht="18" customHeight="1">
+      <c r="B37" s="285"/>
+      <c r="C37" s="285"/>
+      <c r="D37" s="285"/>
+    </row>
+    <row r="38" spans="1:4" ht="18" customHeight="1">
+      <c r="B38" s="285"/>
+      <c r="C38" s="285"/>
+      <c r="D38" s="285"/>
+    </row>
+    <row r="39" spans="1:4" ht="18" customHeight="1">
+      <c r="B39" s="285"/>
+      <c r="C39" s="285"/>
+      <c r="D39" s="285"/>
+    </row>
+    <row r="40" spans="1:4" ht="18" customHeight="1">
+      <c r="B40" s="285"/>
+      <c r="C40" s="285"/>
+      <c r="D40" s="285"/>
+    </row>
+    <row r="41" spans="1:4" ht="18" customHeight="1">
+      <c r="B41" s="285"/>
+      <c r="C41" s="285"/>
+      <c r="D41" s="285"/>
+    </row>
+    <row r="42" spans="1:4" ht="18" customHeight="1">
+      <c r="B42" s="285"/>
+      <c r="C42" s="285"/>
+      <c r="D42" s="285"/>
+    </row>
+  </sheetData>
+  <mergeCells count="125">
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="O12:P12"/>
@@ -45023,65 +45034,48 @@
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45100,775 +45094,814 @@
   <sheetFormatPr defaultColWidth="5.453125" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
     <row r="2" spans="1:25" ht="18" customHeight="1">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="291" t="s">
+      <c r="G2" s="222" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="292"/>
-      <c r="I2" s="278" t="s">
+      <c r="H2" s="223"/>
+      <c r="I2" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="235"/>
-      <c r="L2" s="291" t="s">
+      <c r="J2" s="224"/>
+      <c r="L2" s="222" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="292"/>
-      <c r="N2" s="278" t="s">
+      <c r="M2" s="223"/>
+      <c r="N2" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="235"/>
-      <c r="Q2" s="291" t="s">
+      <c r="O2" s="224"/>
+      <c r="Q2" s="222" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="292"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="235"/>
-      <c r="V2" s="291" t="s">
+      <c r="R2" s="223"/>
+      <c r="S2" s="224"/>
+      <c r="T2" s="224"/>
+      <c r="V2" s="222" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="292"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="235"/>
+      <c r="W2" s="223"/>
+      <c r="X2" s="224"/>
+      <c r="Y2" s="224"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="293" t="s">
+      <c r="E4" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="255"/>
-      <c r="G4" s="222" t="s">
+      <c r="F4" s="226"/>
+      <c r="G4" s="227" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="294"/>
-      <c r="I4" s="293" t="s">
+      <c r="H4" s="228"/>
+      <c r="I4" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="255"/>
-      <c r="K4" s="222" t="s">
+      <c r="J4" s="226"/>
+      <c r="K4" s="227" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="294"/>
-      <c r="M4" s="293" t="s">
+      <c r="L4" s="228"/>
+      <c r="M4" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="255"/>
+      <c r="N4" s="226"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="288"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="261"/>
-      <c r="H5" s="289"/>
-      <c r="I5" s="288"/>
-      <c r="J5" s="236"/>
-      <c r="K5" s="261"/>
-      <c r="L5" s="289"/>
-      <c r="M5" s="288"/>
-      <c r="N5" s="236"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="218"/>
+      <c r="H5" s="219"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="217"/>
+      <c r="K5" s="218"/>
+      <c r="L5" s="219"/>
+      <c r="M5" s="216"/>
+      <c r="N5" s="217"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="55" t="s">
+      <c r="H6" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="40" t="s">
+      <c r="I6" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="45" t="s">
+      <c r="J6" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="80" t="s">
+      <c r="K6" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="55" t="s">
+      <c r="L6" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="N6" s="45" t="s">
+      <c r="N6" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="318" t="s">
+      <c r="O6" s="316" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="230"/>
-      <c r="Q6" s="279" t="s">
+      <c r="P6" s="221"/>
+      <c r="Q6" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="230"/>
-      <c r="S6" s="279" t="s">
+      <c r="R6" s="221"/>
+      <c r="S6" s="230" t="s">
         <v>68</v>
       </c>
       <c r="T6" s="231"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="280" t="s">
+      <c r="A7" s="232" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="252" t="s">
+      <c r="B7" s="235" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="283"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="312"/>
-      <c r="P7" s="286"/>
-      <c r="Q7" s="286"/>
-      <c r="R7" s="286"/>
-      <c r="S7" s="286"/>
-      <c r="T7" s="287"/>
+      <c r="C7" s="236"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="299"/>
+      <c r="P7" s="239"/>
+      <c r="Q7" s="239"/>
+      <c r="R7" s="239"/>
+      <c r="S7" s="239"/>
+      <c r="T7" s="240"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="281"/>
-      <c r="B8" s="237" t="s">
+      <c r="A8" s="233"/>
+      <c r="B8" s="241" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="238"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="288"/>
-      <c r="P8" s="235"/>
-      <c r="Q8" s="235"/>
-      <c r="R8" s="235"/>
-      <c r="S8" s="235"/>
-      <c r="T8" s="236"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="216"/>
+      <c r="P8" s="224"/>
+      <c r="Q8" s="224"/>
+      <c r="R8" s="224"/>
+      <c r="S8" s="224"/>
+      <c r="T8" s="217"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="281"/>
-      <c r="B9" s="237" t="s">
+      <c r="A9" s="233"/>
+      <c r="B9" s="241" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="238"/>
-      <c r="D9" s="239"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="288"/>
-      <c r="P9" s="235"/>
-      <c r="Q9" s="235"/>
-      <c r="R9" s="235"/>
-      <c r="S9" s="235"/>
-      <c r="T9" s="236"/>
+      <c r="C9" s="242"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="216"/>
+      <c r="P9" s="224"/>
+      <c r="Q9" s="224"/>
+      <c r="R9" s="224"/>
+      <c r="S9" s="224"/>
+      <c r="T9" s="217"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="281"/>
-      <c r="B10" s="237" t="s">
+      <c r="A10" s="233"/>
+      <c r="B10" s="241" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="238"/>
-      <c r="D10" s="239"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="288"/>
-      <c r="P10" s="235"/>
-      <c r="Q10" s="235"/>
-      <c r="R10" s="235"/>
-      <c r="S10" s="235"/>
-      <c r="T10" s="236"/>
+      <c r="C10" s="242"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="216"/>
+      <c r="P10" s="224"/>
+      <c r="Q10" s="224"/>
+      <c r="R10" s="224"/>
+      <c r="S10" s="224"/>
+      <c r="T10" s="217"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="282"/>
-      <c r="B11" s="262" t="s">
+      <c r="A11" s="234"/>
+      <c r="B11" s="245" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="263"/>
-      <c r="D11" s="264"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="308"/>
-      <c r="P11" s="266"/>
-      <c r="Q11" s="266"/>
-      <c r="R11" s="266"/>
-      <c r="S11" s="266"/>
-      <c r="T11" s="267"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="302"/>
+      <c r="P11" s="249"/>
+      <c r="Q11" s="249"/>
+      <c r="R11" s="249"/>
+      <c r="S11" s="249"/>
+      <c r="T11" s="250"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="268" t="s">
+      <c r="A12" s="251" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="271" t="s">
+      <c r="B12" s="254" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="272"/>
-      <c r="D12" s="273"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="59"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="305"/>
-      <c r="P12" s="223"/>
-      <c r="Q12" s="223"/>
-      <c r="R12" s="223"/>
-      <c r="S12" s="223"/>
-      <c r="T12" s="255"/>
+      <c r="C12" s="255"/>
+      <c r="D12" s="256"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="304"/>
+      <c r="P12" s="259"/>
+      <c r="Q12" s="259"/>
+      <c r="R12" s="259"/>
+      <c r="S12" s="259"/>
+      <c r="T12" s="226"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="269"/>
-      <c r="B13" s="257" t="s">
+      <c r="A13" s="252"/>
+      <c r="B13" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="276"/>
-      <c r="D13" s="277"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="288"/>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="235"/>
-      <c r="R13" s="235"/>
-      <c r="S13" s="235"/>
-      <c r="T13" s="236"/>
+      <c r="C13" s="261"/>
+      <c r="D13" s="262"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="216"/>
+      <c r="P13" s="224"/>
+      <c r="Q13" s="224"/>
+      <c r="R13" s="224"/>
+      <c r="S13" s="224"/>
+      <c r="T13" s="217"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="269"/>
-      <c r="B14" s="257" t="s">
+      <c r="A14" s="252"/>
+      <c r="B14" s="260" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="258"/>
-      <c r="D14" s="259"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="288"/>
-      <c r="P14" s="235"/>
-      <c r="Q14" s="235"/>
-      <c r="R14" s="235"/>
-      <c r="S14" s="235"/>
-      <c r="T14" s="236"/>
+      <c r="C14" s="271"/>
+      <c r="D14" s="272"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="216"/>
+      <c r="P14" s="224"/>
+      <c r="Q14" s="224"/>
+      <c r="R14" s="224"/>
+      <c r="S14" s="224"/>
+      <c r="T14" s="217"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="270"/>
-      <c r="B15" s="244" t="s">
+      <c r="A15" s="253"/>
+      <c r="B15" s="274" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="245"/>
-      <c r="D15" s="246"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="296"/>
-      <c r="P15" s="224"/>
-      <c r="Q15" s="224"/>
-      <c r="R15" s="224"/>
-      <c r="S15" s="224"/>
-      <c r="T15" s="225"/>
+      <c r="C15" s="275"/>
+      <c r="D15" s="276"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="310"/>
+      <c r="P15" s="278"/>
+      <c r="Q15" s="278"/>
+      <c r="R15" s="278"/>
+      <c r="S15" s="278"/>
+      <c r="T15" s="280"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="249" t="s">
+      <c r="A16" s="263" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="252" t="s">
+      <c r="B16" s="235" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="253"/>
-      <c r="D16" s="254"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="305"/>
-      <c r="P16" s="223"/>
-      <c r="Q16" s="223"/>
-      <c r="R16" s="223"/>
-      <c r="S16" s="223"/>
-      <c r="T16" s="255"/>
+      <c r="C16" s="266"/>
+      <c r="D16" s="267"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="304"/>
+      <c r="P16" s="259"/>
+      <c r="Q16" s="259"/>
+      <c r="R16" s="259"/>
+      <c r="S16" s="259"/>
+      <c r="T16" s="226"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="250"/>
-      <c r="B17" s="232" t="s">
+      <c r="A17" s="264"/>
+      <c r="B17" s="268" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="242"/>
-      <c r="D17" s="243"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="288"/>
-      <c r="P17" s="235"/>
-      <c r="Q17" s="235"/>
-      <c r="R17" s="235"/>
-      <c r="S17" s="235"/>
-      <c r="T17" s="236"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="270"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="216"/>
+      <c r="P17" s="224"/>
+      <c r="Q17" s="224"/>
+      <c r="R17" s="224"/>
+      <c r="S17" s="224"/>
+      <c r="T17" s="217"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="250"/>
-      <c r="B18" s="232" t="s">
+      <c r="A18" s="264"/>
+      <c r="B18" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="242"/>
-      <c r="D18" s="243"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="288"/>
-      <c r="P18" s="235"/>
-      <c r="Q18" s="235"/>
-      <c r="R18" s="235"/>
-      <c r="S18" s="235"/>
-      <c r="T18" s="236"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="270"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="216"/>
+      <c r="P18" s="224"/>
+      <c r="Q18" s="224"/>
+      <c r="R18" s="224"/>
+      <c r="S18" s="224"/>
+      <c r="T18" s="217"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="250"/>
-      <c r="B19" s="237" t="s">
+      <c r="A19" s="264"/>
+      <c r="B19" s="241" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="240"/>
-      <c r="D19" s="241"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="288"/>
-      <c r="P19" s="235"/>
-      <c r="Q19" s="235"/>
-      <c r="R19" s="235"/>
-      <c r="S19" s="235"/>
-      <c r="T19" s="236"/>
+      <c r="C19" s="281"/>
+      <c r="D19" s="282"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="216"/>
+      <c r="P19" s="224"/>
+      <c r="Q19" s="224"/>
+      <c r="R19" s="224"/>
+      <c r="S19" s="224"/>
+      <c r="T19" s="217"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="250"/>
-      <c r="B20" s="237" t="s">
+      <c r="A20" s="264"/>
+      <c r="B20" s="241" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="240"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="288"/>
-      <c r="P20" s="235"/>
-      <c r="Q20" s="235"/>
-      <c r="R20" s="235"/>
-      <c r="S20" s="235"/>
-      <c r="T20" s="236"/>
+      <c r="C20" s="281"/>
+      <c r="D20" s="282"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="216"/>
+      <c r="P20" s="224"/>
+      <c r="Q20" s="224"/>
+      <c r="R20" s="224"/>
+      <c r="S20" s="224"/>
+      <c r="T20" s="217"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="250"/>
-      <c r="B21" s="237" t="s">
+      <c r="A21" s="264"/>
+      <c r="B21" s="241" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="240"/>
-      <c r="D21" s="241"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="288"/>
-      <c r="P21" s="235"/>
-      <c r="Q21" s="235"/>
-      <c r="R21" s="235"/>
-      <c r="S21" s="235"/>
-      <c r="T21" s="236"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="282"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="216"/>
+      <c r="P21" s="224"/>
+      <c r="Q21" s="224"/>
+      <c r="R21" s="224"/>
+      <c r="S21" s="224"/>
+      <c r="T21" s="217"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="250"/>
-      <c r="B22" s="237" t="s">
+      <c r="A22" s="264"/>
+      <c r="B22" s="241" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="240"/>
-      <c r="D22" s="241"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="288"/>
-      <c r="P22" s="235"/>
-      <c r="Q22" s="235"/>
-      <c r="R22" s="235"/>
-      <c r="S22" s="235"/>
-      <c r="T22" s="236"/>
+      <c r="C22" s="281"/>
+      <c r="D22" s="282"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="216"/>
+      <c r="P22" s="224"/>
+      <c r="Q22" s="224"/>
+      <c r="R22" s="224"/>
+      <c r="S22" s="224"/>
+      <c r="T22" s="217"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="250"/>
-      <c r="B23" s="237" t="s">
+      <c r="A23" s="264"/>
+      <c r="B23" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="238"/>
-      <c r="D23" s="239"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="288"/>
-      <c r="P23" s="235"/>
-      <c r="Q23" s="235"/>
-      <c r="R23" s="235"/>
-      <c r="S23" s="235"/>
-      <c r="T23" s="236"/>
+      <c r="C23" s="242"/>
+      <c r="D23" s="243"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="216"/>
+      <c r="P23" s="224"/>
+      <c r="Q23" s="224"/>
+      <c r="R23" s="224"/>
+      <c r="S23" s="224"/>
+      <c r="T23" s="217"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="250"/>
-      <c r="B24" s="232" t="s">
+      <c r="A24" s="264"/>
+      <c r="B24" s="268" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="233"/>
-      <c r="D24" s="234"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="288"/>
-      <c r="P24" s="235"/>
-      <c r="Q24" s="235"/>
-      <c r="R24" s="235"/>
-      <c r="S24" s="235"/>
-      <c r="T24" s="236"/>
+      <c r="C24" s="283"/>
+      <c r="D24" s="284"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="216"/>
+      <c r="P24" s="224"/>
+      <c r="Q24" s="224"/>
+      <c r="R24" s="224"/>
+      <c r="S24" s="224"/>
+      <c r="T24" s="217"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="250"/>
-      <c r="B25" s="232" t="s">
+      <c r="A25" s="264"/>
+      <c r="B25" s="268" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="233"/>
-      <c r="D25" s="234"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="288"/>
-      <c r="P25" s="235"/>
-      <c r="Q25" s="235"/>
-      <c r="R25" s="235"/>
-      <c r="S25" s="235"/>
-      <c r="T25" s="236"/>
+      <c r="C25" s="283"/>
+      <c r="D25" s="284"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="216"/>
+      <c r="P25" s="224"/>
+      <c r="Q25" s="224"/>
+      <c r="R25" s="224"/>
+      <c r="S25" s="224"/>
+      <c r="T25" s="217"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="250"/>
-      <c r="B26" s="232" t="s">
+      <c r="A26" s="264"/>
+      <c r="B26" s="268" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="233"/>
-      <c r="D26" s="234"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="288"/>
-      <c r="P26" s="235"/>
-      <c r="Q26" s="235"/>
-      <c r="R26" s="235"/>
-      <c r="S26" s="235"/>
-      <c r="T26" s="236"/>
+      <c r="C26" s="283"/>
+      <c r="D26" s="284"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="216"/>
+      <c r="P26" s="224"/>
+      <c r="Q26" s="224"/>
+      <c r="R26" s="224"/>
+      <c r="S26" s="224"/>
+      <c r="T26" s="217"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="251"/>
-      <c r="B27" s="219" t="s">
+      <c r="A27" s="265"/>
+      <c r="B27" s="286" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="220"/>
-      <c r="D27" s="221"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="296"/>
-      <c r="P27" s="224"/>
-      <c r="Q27" s="224"/>
-      <c r="R27" s="224"/>
-      <c r="S27" s="224"/>
-      <c r="T27" s="225"/>
+      <c r="C27" s="287"/>
+      <c r="D27" s="288"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="310"/>
+      <c r="P27" s="278"/>
+      <c r="Q27" s="278"/>
+      <c r="R27" s="278"/>
+      <c r="S27" s="278"/>
+      <c r="T27" s="280"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="226" t="s">
+      <c r="B28" s="289" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="227"/>
-      <c r="D28" s="228"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="63"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="298"/>
-      <c r="P28" s="230"/>
-      <c r="Q28" s="230"/>
-      <c r="R28" s="230"/>
-      <c r="S28" s="230"/>
+      <c r="C28" s="290"/>
+      <c r="D28" s="291"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="315"/>
+      <c r="P28" s="221"/>
+      <c r="Q28" s="221"/>
+      <c r="R28" s="221"/>
+      <c r="S28" s="221"/>
       <c r="T28" s="231"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="218"/>
-      <c r="C29" s="218"/>
-      <c r="D29" s="218"/>
+      <c r="B29" s="285"/>
+      <c r="C29" s="285"/>
+      <c r="D29" s="285"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="172" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="212" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="172"/>
+      <c r="C31" s="212"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
-      <c r="A32" s="19"/>
-      <c r="B32" s="172" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="212" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="172"/>
+      <c r="C32" s="212"/>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1">
-      <c r="A33" s="20"/>
-      <c r="B33" s="172" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="212" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="172"/>
+      <c r="C33" s="212"/>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="172" t="s">
+      <c r="A34" s="20"/>
+      <c r="B34" s="212" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="172"/>
+      <c r="C34" s="212"/>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1">
-      <c r="B35" s="218"/>
-      <c r="C35" s="218"/>
-      <c r="D35" s="218"/>
+      <c r="B35" s="285"/>
+      <c r="C35" s="285"/>
+      <c r="D35" s="285"/>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1">
-      <c r="B36" s="218"/>
-      <c r="C36" s="218"/>
-      <c r="D36" s="218"/>
+      <c r="B36" s="285"/>
+      <c r="C36" s="285"/>
+      <c r="D36" s="285"/>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1">
-      <c r="B37" s="218"/>
-      <c r="C37" s="218"/>
-      <c r="D37" s="218"/>
+      <c r="B37" s="285"/>
+      <c r="C37" s="285"/>
+      <c r="D37" s="285"/>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1">
-      <c r="B38" s="218"/>
-      <c r="C38" s="218"/>
-      <c r="D38" s="218"/>
+      <c r="B38" s="285"/>
+      <c r="C38" s="285"/>
+      <c r="D38" s="285"/>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1">
-      <c r="B39" s="218"/>
-      <c r="C39" s="218"/>
-      <c r="D39" s="218"/>
+      <c r="B39" s="285"/>
+      <c r="C39" s="285"/>
+      <c r="D39" s="285"/>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1">
-      <c r="B40" s="218"/>
-      <c r="C40" s="218"/>
-      <c r="D40" s="218"/>
+      <c r="B40" s="285"/>
+      <c r="C40" s="285"/>
+      <c r="D40" s="285"/>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1">
-      <c r="B41" s="218"/>
-      <c r="C41" s="218"/>
-      <c r="D41" s="218"/>
+      <c r="B41" s="285"/>
+      <c r="C41" s="285"/>
+      <c r="D41" s="285"/>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1">
-      <c r="B42" s="218"/>
-      <c r="C42" s="218"/>
-      <c r="D42" s="218"/>
+      <c r="B42" s="285"/>
+      <c r="C42" s="285"/>
+      <c r="D42" s="285"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="Q10:R10"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
@@ -45893,76 +45926,37 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/30_工程表/工程表_第2版.xlsx
+++ b/doc/30_工程表/工程表_第2版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\doc\30_工程表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0BC277-8C87-49C1-BBFF-6DA0F19D6A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D88F3B-6452-4CBD-9395-EBADE9E41D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="月間" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="99">
   <si>
     <t>年</t>
   </si>
@@ -599,6 +599,121 @@
     <rPh sb="12" eb="15">
       <t>コウテイヒョウ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>紺野由夏</t>
+  </si>
+  <si>
+    <t>紺野由夏</t>
+    <rPh sb="0" eb="2">
+      <t>コンノ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>佐々木尚輝</t>
+  </si>
+  <si>
+    <t>岡崎一志</t>
+  </si>
+  <si>
+    <t>岡崎一志</t>
+    <rPh sb="0" eb="2">
+      <t>オカザキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カズシ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>佐々木尚輝</t>
+    <rPh sb="0" eb="5">
+      <t>ササキナオキ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>藤川開斗</t>
+  </si>
+  <si>
+    <t>藤川開斗</t>
+    <rPh sb="0" eb="2">
+      <t>フジカワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイト</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>福岡竜大</t>
+  </si>
+  <si>
+    <t>福岡竜大</t>
+    <rPh sb="0" eb="2">
+      <t>フクオカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リュウダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>名簿(50音順)</t>
+    <rPh sb="0" eb="2">
+      <t>メイボ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジュン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>サブ機能・未定</t>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>岡崎一志</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>紺野由夏</t>
+    <rPh sb="0" eb="4">
+      <t>コンノユカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>藤川開斗</t>
+    <rPh sb="0" eb="4">
+      <t>フジカワカイト</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>サブ機能・未定</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>紺野由夏</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>佐々木尚輝</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -2079,7 +2194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="319">
+  <cellXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2572,6 +2687,114 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2602,21 +2825,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2638,169 +2846,67 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2812,25 +2918,25 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2857,7 +2963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2878,20 +2984,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2902,92 +3011,101 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3007,34 +3125,37 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -3333,7 +3454,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>169333</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>169334</xdr:rowOff>
+      <xdr:rowOff>107577</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3348,8 +3469,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4750434" y="2142068"/>
-          <a:ext cx="1015366" cy="1981199"/>
+          <a:off x="4737485" y="2125135"/>
+          <a:ext cx="1016860" cy="1908983"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5547,10 +5668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F461FB36-AA5C-4255-9DAB-20DEB8CADCD8}">
-  <dimension ref="A1:AM1005"/>
+  <dimension ref="A1:AO1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q9:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
@@ -5559,12 +5680,13 @@
     <col min="2" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="3.36328125" customWidth="1"/>
     <col min="7" max="36" width="3.7265625" customWidth="1"/>
-    <col min="37" max="37" width="11.36328125" customWidth="1"/>
+    <col min="37" max="37" width="11.36328125" style="164" customWidth="1"/>
     <col min="38" max="38" width="10.453125" customWidth="1"/>
     <col min="39" max="39" width="11.453125" customWidth="1"/>
+    <col min="40" max="40" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="16.5" customHeight="1">
+    <row r="1" spans="1:41" ht="16.5" customHeight="1">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -5601,19 +5723,19 @@
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
     </row>
-    <row r="2" spans="1:39" ht="22.5" customHeight="1">
-      <c r="B2" s="173">
+    <row r="2" spans="1:41" ht="22.5" customHeight="1">
+      <c r="B2" s="209">
         <v>2024</v>
       </c>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
       <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="173">
+      <c r="F2" s="209">
         <v>6</v>
       </c>
-      <c r="G2" s="174"/>
+      <c r="G2" s="190"/>
       <c r="H2" s="12" t="s">
         <v>1</v>
       </c>
@@ -5648,7 +5770,7 @@
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
     </row>
-    <row r="3" spans="1:39" ht="18.75" customHeight="1">
+    <row r="3" spans="1:41" ht="18.75" customHeight="1">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -5685,60 +5807,60 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
     </row>
-    <row r="4" spans="1:39" ht="19.5" customHeight="1">
-      <c r="B4" s="175" t="s">
+    <row r="4" spans="1:41" ht="19.5" customHeight="1">
+      <c r="B4" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="176"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="178" t="s">
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="196"/>
+      <c r="F4" s="195" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="176"/>
-      <c r="H4" s="176"/>
-      <c r="I4" s="176"/>
-      <c r="J4" s="177"/>
-      <c r="K4" s="175" t="s">
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="196"/>
+      <c r="K4" s="198" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="176"/>
-      <c r="M4" s="176"/>
-      <c r="N4" s="177"/>
-      <c r="O4" s="178" t="s">
+      <c r="L4" s="194"/>
+      <c r="M4" s="194"/>
+      <c r="N4" s="196"/>
+      <c r="O4" s="195" t="s">
         <v>31</v>
       </c>
-      <c r="P4" s="176"/>
-      <c r="Q4" s="176"/>
-      <c r="R4" s="176"/>
-      <c r="S4" s="177"/>
-      <c r="T4" s="175" t="s">
+      <c r="P4" s="194"/>
+      <c r="Q4" s="194"/>
+      <c r="R4" s="194"/>
+      <c r="S4" s="196"/>
+      <c r="T4" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="176"/>
-      <c r="V4" s="176"/>
-      <c r="W4" s="177"/>
-      <c r="X4" s="206">
+      <c r="U4" s="194"/>
+      <c r="V4" s="194"/>
+      <c r="W4" s="196"/>
+      <c r="X4" s="199">
         <v>45451</v>
       </c>
-      <c r="Y4" s="176"/>
-      <c r="Z4" s="176"/>
-      <c r="AA4" s="176"/>
-      <c r="AB4" s="177"/>
-      <c r="AC4" s="175" t="s">
+      <c r="Y4" s="194"/>
+      <c r="Z4" s="194"/>
+      <c r="AA4" s="194"/>
+      <c r="AB4" s="196"/>
+      <c r="AC4" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="176"/>
-      <c r="AE4" s="176"/>
-      <c r="AF4" s="176"/>
-      <c r="AG4" s="196">
+      <c r="AD4" s="194"/>
+      <c r="AE4" s="194"/>
+      <c r="AF4" s="194"/>
+      <c r="AG4" s="184">
         <v>45451</v>
       </c>
-      <c r="AH4" s="197"/>
-      <c r="AI4" s="197"/>
-      <c r="AJ4" s="197"/>
-    </row>
-    <row r="5" spans="1:39" ht="18.75" customHeight="1">
+      <c r="AH4" s="185"/>
+      <c r="AI4" s="185"/>
+      <c r="AJ4" s="185"/>
+    </row>
+    <row r="5" spans="1:41" ht="18.75" customHeight="1">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5775,53 +5897,53 @@
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
     </row>
-    <row r="6" spans="1:39" ht="18.75" customHeight="1">
-      <c r="B6" s="198"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="187"/>
+    <row r="6" spans="1:41" ht="18.75" customHeight="1">
+      <c r="B6" s="186"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="188"/>
       <c r="F6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="202">
+      <c r="G6" s="193">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="176"/>
-      <c r="K6" s="176"/>
-      <c r="L6" s="176"/>
-      <c r="M6" s="176"/>
-      <c r="N6" s="176"/>
-      <c r="O6" s="176"/>
-      <c r="P6" s="176"/>
-      <c r="Q6" s="176"/>
-      <c r="R6" s="176"/>
-      <c r="S6" s="176"/>
-      <c r="T6" s="176"/>
-      <c r="U6" s="176"/>
-      <c r="V6" s="176"/>
-      <c r="W6" s="176"/>
-      <c r="X6" s="176"/>
-      <c r="Y6" s="176"/>
-      <c r="Z6" s="176"/>
-      <c r="AA6" s="176"/>
-      <c r="AB6" s="176"/>
-      <c r="AC6" s="176"/>
-      <c r="AD6" s="176"/>
-      <c r="AE6" s="176"/>
-      <c r="AF6" s="176"/>
-      <c r="AG6" s="176"/>
-      <c r="AH6" s="176"/>
-      <c r="AI6" s="176"/>
-      <c r="AJ6" s="176"/>
-    </row>
-    <row r="7" spans="1:39" ht="22.5" customHeight="1">
-      <c r="B7" s="199"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="200"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="194"/>
+      <c r="P6" s="194"/>
+      <c r="Q6" s="194"/>
+      <c r="R6" s="194"/>
+      <c r="S6" s="194"/>
+      <c r="T6" s="194"/>
+      <c r="U6" s="194"/>
+      <c r="V6" s="194"/>
+      <c r="W6" s="194"/>
+      <c r="X6" s="194"/>
+      <c r="Y6" s="194"/>
+      <c r="Z6" s="194"/>
+      <c r="AA6" s="194"/>
+      <c r="AB6" s="194"/>
+      <c r="AC6" s="194"/>
+      <c r="AD6" s="194"/>
+      <c r="AE6" s="194"/>
+      <c r="AF6" s="194"/>
+      <c r="AG6" s="194"/>
+      <c r="AH6" s="194"/>
+      <c r="AI6" s="194"/>
+      <c r="AJ6" s="194"/>
+    </row>
+    <row r="7" spans="1:41" ht="22.5" customHeight="1">
+      <c r="B7" s="189"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="191"/>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
@@ -5946,11 +6068,11 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="8" spans="1:39" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B8" s="199"/>
-      <c r="C8" s="201"/>
-      <c r="D8" s="201"/>
-      <c r="E8" s="200"/>
+    <row r="8" spans="1:41" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B8" s="189"/>
+      <c r="C8" s="192"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="191"/>
       <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
@@ -6083,18 +6205,21 @@
       <c r="AM8" s="113" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A9" s="164" t="s">
+      <c r="AO8" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="22.5" customHeight="1">
+      <c r="A9" s="200" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="203" t="s">
+      <c r="B9" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="204"/>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="205"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="182"/>
+      <c r="F9" s="183"/>
       <c r="G9" s="117"/>
       <c r="H9" s="118"/>
       <c r="I9" s="118"/>
@@ -6104,8 +6229,8 @@
       <c r="M9" s="117"/>
       <c r="N9" s="118"/>
       <c r="O9" s="118"/>
-      <c r="P9" s="318"/>
-      <c r="Q9" s="119"/>
+      <c r="P9" s="166"/>
+      <c r="Q9" s="320"/>
       <c r="R9" s="119"/>
       <c r="S9" s="119"/>
       <c r="T9" s="119"/>
@@ -6125,21 +6250,28 @@
       <c r="AH9" s="118"/>
       <c r="AI9" s="118"/>
       <c r="AJ9" s="118"/>
-      <c r="AK9" s="120"/>
-      <c r="AL9" s="120"/>
+      <c r="AK9" s="120" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL9" s="120" t="s">
+        <v>83</v>
+      </c>
       <c r="AM9" s="121">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A10" s="165"/>
-      <c r="B10" s="184" t="s">
+      <c r="AO9" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="22.5" customHeight="1">
+      <c r="A10" s="201"/>
+      <c r="B10" s="215" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="176"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="177"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="196"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -6150,7 +6282,7 @@
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="21"/>
-      <c r="Q10" s="13"/>
+      <c r="Q10" s="31"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="11"/>
@@ -6170,21 +6302,26 @@
       <c r="AH10" s="11"/>
       <c r="AI10" s="11"/>
       <c r="AJ10" s="11"/>
-      <c r="AK10" s="15"/>
+      <c r="AK10" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="AL10" s="15"/>
       <c r="AM10" s="122">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A11" s="165"/>
-      <c r="B11" s="184" t="s">
+      <c r="AO10" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="22.5" customHeight="1">
+      <c r="A11" s="201"/>
+      <c r="B11" s="215" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="176"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="176"/>
-      <c r="F11" s="177"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="196"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -6215,21 +6352,26 @@
       <c r="AH11" s="11"/>
       <c r="AI11" s="11"/>
       <c r="AJ11" s="11"/>
-      <c r="AK11" s="15"/>
+      <c r="AK11" s="15" t="s">
+        <v>81</v>
+      </c>
       <c r="AL11" s="15"/>
       <c r="AM11" s="122">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A12" s="165"/>
-      <c r="B12" s="184" t="s">
+      <c r="AO11" s="16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="22.5" customHeight="1">
+      <c r="A12" s="201"/>
+      <c r="B12" s="215" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="176"/>
-      <c r="D12" s="176"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="177"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="196"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -6260,21 +6402,28 @@
       <c r="AH12" s="11"/>
       <c r="AI12" s="11"/>
       <c r="AJ12" s="11"/>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="15"/>
+      <c r="AK12" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL12" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="AM12" s="122">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:39" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A13" s="166"/>
-      <c r="B13" s="185" t="s">
+      <c r="AO12" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A13" s="202"/>
+      <c r="B13" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="186"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="187"/>
+      <c r="C13" s="187"/>
+      <c r="D13" s="187"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="188"/>
       <c r="G13" s="28"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -6305,23 +6454,28 @@
       <c r="AH13" s="9"/>
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
-      <c r="AK13" s="113"/>
+      <c r="AK13" s="113" t="s">
+        <v>83</v>
+      </c>
       <c r="AL13" s="113"/>
       <c r="AM13" s="128">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A14" s="167" t="s">
+      <c r="AO13" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" ht="22.5" customHeight="1">
+      <c r="A14" s="203" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="182" t="s">
+      <c r="B14" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
+      <c r="C14" s="214"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="214"/>
       <c r="G14" s="129"/>
       <c r="H14" s="129"/>
       <c r="I14" s="130"/>
@@ -6331,8 +6485,8 @@
       <c r="M14" s="131"/>
       <c r="N14" s="118"/>
       <c r="O14" s="118"/>
-      <c r="P14" s="317"/>
-      <c r="Q14" s="119"/>
+      <c r="P14" s="165"/>
+      <c r="Q14" s="166"/>
       <c r="R14" s="119"/>
       <c r="S14" s="119"/>
       <c r="T14" s="118"/>
@@ -6352,21 +6506,25 @@
       <c r="AH14" s="118"/>
       <c r="AI14" s="118"/>
       <c r="AJ14" s="118"/>
-      <c r="AK14" s="120"/>
-      <c r="AL14" s="120"/>
+      <c r="AK14" s="120" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL14" s="120" t="s">
+        <v>84</v>
+      </c>
       <c r="AM14" s="121">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A15" s="168"/>
-      <c r="B15" s="207" t="s">
+    <row r="15" spans="1:41" ht="22.5" customHeight="1">
+      <c r="A15" s="204"/>
+      <c r="B15" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="208"/>
-      <c r="D15" s="208"/>
-      <c r="E15" s="208"/>
-      <c r="F15" s="208"/>
+      <c r="C15" s="178"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="178"/>
+      <c r="F15" s="178"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="29"/>
@@ -6377,7 +6535,7 @@
       <c r="N15" s="11"/>
       <c r="O15" s="14"/>
       <c r="P15" s="21"/>
-      <c r="Q15" s="13"/>
+      <c r="Q15" s="21"/>
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
@@ -6397,21 +6555,23 @@
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
       <c r="AJ15" s="11"/>
-      <c r="AK15" s="15"/>
+      <c r="AK15" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="AL15" s="15"/>
       <c r="AM15" s="122">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A16" s="168"/>
-      <c r="B16" s="207" t="s">
+    <row r="16" spans="1:41" ht="22.5" customHeight="1">
+      <c r="A16" s="204"/>
+      <c r="B16" s="177" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="208"/>
-      <c r="D16" s="208"/>
-      <c r="E16" s="208"/>
-      <c r="F16" s="208"/>
+      <c r="C16" s="178"/>
+      <c r="D16" s="178"/>
+      <c r="E16" s="178"/>
+      <c r="F16" s="178"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="30"/>
@@ -6422,7 +6582,7 @@
       <c r="N16" s="11"/>
       <c r="O16" s="14"/>
       <c r="P16" s="22"/>
-      <c r="Q16" s="13"/>
+      <c r="Q16" s="21"/>
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
@@ -6442,21 +6602,25 @@
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
       <c r="AJ16" s="11"/>
-      <c r="AK16" s="15"/>
-      <c r="AL16" s="15"/>
+      <c r="AK16" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL16" s="15" t="s">
+        <v>84</v>
+      </c>
       <c r="AM16" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A17" s="169"/>
-      <c r="B17" s="209" t="s">
+      <c r="A17" s="205"/>
+      <c r="B17" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="210"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="180"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="180"/>
       <c r="G17" s="132"/>
       <c r="H17" s="132"/>
       <c r="I17" s="133"/>
@@ -6487,23 +6651,25 @@
       <c r="AH17" s="124"/>
       <c r="AI17" s="124"/>
       <c r="AJ17" s="124"/>
-      <c r="AK17" s="126"/>
+      <c r="AK17" s="126" t="s">
+        <v>81</v>
+      </c>
       <c r="AL17" s="126"/>
       <c r="AM17" s="127">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:39" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A18" s="170" t="s">
+    <row r="18" spans="1:39" ht="22.5" customHeight="1">
+      <c r="A18" s="206" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="211" t="s">
+      <c r="B18" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="204"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="205"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="183"/>
       <c r="G18" s="118"/>
       <c r="H18" s="118"/>
       <c r="I18" s="118"/>
@@ -6534,21 +6700,25 @@
       <c r="AH18" s="118"/>
       <c r="AI18" s="118"/>
       <c r="AJ18" s="118"/>
-      <c r="AK18" s="120"/>
-      <c r="AL18" s="120"/>
+      <c r="AK18" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL18" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="AM18" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A19" s="171"/>
-      <c r="B19" s="188" t="s">
+      <c r="A19" s="207"/>
+      <c r="B19" s="170" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="189"/>
-      <c r="D19" s="189"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="190"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="172"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -6579,21 +6749,23 @@
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
       <c r="AJ19" s="11"/>
-      <c r="AK19" s="120"/>
+      <c r="AK19" s="15" t="s">
+        <v>89</v>
+      </c>
       <c r="AL19" s="15"/>
       <c r="AM19" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A20" s="171"/>
-      <c r="B20" s="188" t="s">
+      <c r="A20" s="207"/>
+      <c r="B20" s="170" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="189"/>
-      <c r="D20" s="189"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="190"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="172"/>
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -6624,21 +6796,23 @@
       <c r="AH20" s="11"/>
       <c r="AI20" s="11"/>
       <c r="AJ20" s="11"/>
-      <c r="AK20" s="15"/>
+      <c r="AK20" s="15" t="s">
+        <v>92</v>
+      </c>
       <c r="AL20" s="15"/>
       <c r="AM20" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A21" s="171"/>
-      <c r="B21" s="191" t="s">
+      <c r="A21" s="207"/>
+      <c r="B21" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="191"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="192"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="217"/>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -6669,21 +6843,25 @@
       <c r="AH21" s="11"/>
       <c r="AI21" s="11"/>
       <c r="AJ21" s="11"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="15"/>
+      <c r="AK21" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL21" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="AM21" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A22" s="171"/>
-      <c r="B22" s="193" t="s">
+      <c r="A22" s="207"/>
+      <c r="B22" s="218" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="194"/>
-      <c r="D22" s="194"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="195"/>
+      <c r="C22" s="168"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="169"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -6714,21 +6892,25 @@
       <c r="AH22" s="11"/>
       <c r="AI22" s="11"/>
       <c r="AJ22" s="11"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="15"/>
+      <c r="AK22" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL22" s="15" t="s">
+        <v>98</v>
+      </c>
       <c r="AM22" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A23" s="171"/>
-      <c r="B23" s="191" t="s">
+      <c r="A23" s="207"/>
+      <c r="B23" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="194"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="195"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="169"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -6759,21 +6941,25 @@
       <c r="AH23" s="11"/>
       <c r="AI23" s="11"/>
       <c r="AJ23" s="11"/>
-      <c r="AK23" s="15"/>
-      <c r="AL23" s="15"/>
+      <c r="AK23" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL23" s="15" t="s">
+        <v>88</v>
+      </c>
       <c r="AM23" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A24" s="171"/>
-      <c r="B24" s="191" t="s">
+      <c r="A24" s="207"/>
+      <c r="B24" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="194"/>
-      <c r="D24" s="194"/>
-      <c r="E24" s="194"/>
-      <c r="F24" s="195"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="169"/>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -6804,21 +6990,25 @@
       <c r="AH24" s="11"/>
       <c r="AI24" s="11"/>
       <c r="AJ24" s="11"/>
-      <c r="AK24" s="15"/>
-      <c r="AL24" s="15"/>
+      <c r="AK24" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL24" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="AM24" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A25" s="171"/>
-      <c r="B25" s="191" t="s">
+      <c r="A25" s="207"/>
+      <c r="B25" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="194"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="195"/>
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="169"/>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -6848,22 +7038,26 @@
       <c r="AG25" s="11"/>
       <c r="AH25" s="11"/>
       <c r="AI25" s="11"/>
-      <c r="AJ25" s="11"/>
-      <c r="AK25" s="15"/>
-      <c r="AL25" s="15"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL25" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="AM25" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A26" s="171"/>
-      <c r="B26" s="188" t="s">
+      <c r="A26" s="207"/>
+      <c r="B26" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="189"/>
-      <c r="D26" s="189"/>
-      <c r="E26" s="189"/>
-      <c r="F26" s="190"/>
+      <c r="C26" s="171"/>
+      <c r="D26" s="171"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="172"/>
       <c r="G26" s="10"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -6894,21 +7088,23 @@
       <c r="AH26" s="11"/>
       <c r="AI26" s="11"/>
       <c r="AJ26" s="11"/>
-      <c r="AK26" s="15"/>
+      <c r="AK26" s="15" t="s">
+        <v>94</v>
+      </c>
       <c r="AL26" s="15"/>
       <c r="AM26" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A27" s="171"/>
-      <c r="B27" s="188" t="s">
+      <c r="A27" s="207"/>
+      <c r="B27" s="170" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="189"/>
-      <c r="D27" s="189"/>
-      <c r="E27" s="189"/>
-      <c r="F27" s="190"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="172"/>
       <c r="G27" s="10"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -6939,21 +7135,23 @@
       <c r="AH27" s="11"/>
       <c r="AI27" s="11"/>
       <c r="AJ27" s="11"/>
-      <c r="AK27" s="15"/>
+      <c r="AK27" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="AL27" s="15"/>
       <c r="AM27" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A28" s="171"/>
-      <c r="B28" s="188" t="s">
+      <c r="A28" s="207"/>
+      <c r="B28" s="170" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="189"/>
-      <c r="D28" s="189"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="190"/>
+      <c r="C28" s="171"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="172"/>
       <c r="G28" s="10"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -6984,21 +7182,23 @@
       <c r="AH28" s="11"/>
       <c r="AI28" s="11"/>
       <c r="AJ28" s="11"/>
-      <c r="AK28" s="15"/>
+      <c r="AK28" s="15" t="s">
+        <v>95</v>
+      </c>
       <c r="AL28" s="15"/>
       <c r="AM28" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A29" s="172"/>
-      <c r="B29" s="179" t="s">
+      <c r="A29" s="208"/>
+      <c r="B29" s="210" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="180"/>
-      <c r="D29" s="180"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="181"/>
+      <c r="C29" s="211"/>
+      <c r="D29" s="211"/>
+      <c r="E29" s="211"/>
+      <c r="F29" s="212"/>
       <c r="G29" s="123"/>
       <c r="H29" s="124"/>
       <c r="I29" s="124"/>
@@ -7029,7 +7229,9 @@
       <c r="AH29" s="124"/>
       <c r="AI29" s="124"/>
       <c r="AJ29" s="124"/>
-      <c r="AK29" s="126"/>
+      <c r="AK29" s="126" t="s">
+        <v>96</v>
+      </c>
       <c r="AL29" s="126"/>
       <c r="AM29" s="127">
         <v>0</v>
@@ -7039,13 +7241,13 @@
       <c r="A30" s="140" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="213" t="s">
+      <c r="B30" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="214"/>
-      <c r="D30" s="214"/>
-      <c r="E30" s="214"/>
-      <c r="F30" s="215"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="176"/>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
@@ -7076,8 +7278,10 @@
       <c r="AH30" s="144"/>
       <c r="AI30" s="24"/>
       <c r="AJ30" s="145"/>
-      <c r="AK30" s="115"/>
-      <c r="AL30" s="115"/>
+      <c r="AK30" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL30" s="15"/>
       <c r="AM30" s="116">
         <v>0</v>
       </c>
@@ -7162,12 +7366,12 @@
     <row r="33" spans="1:36" ht="22.5" customHeight="1">
       <c r="A33" s="17"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="212" t="s">
+      <c r="C33" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="212"/>
-      <c r="E33" s="212"/>
-      <c r="F33" s="212"/>
+      <c r="D33" s="173"/>
+      <c r="E33" s="173"/>
+      <c r="F33" s="173"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -7202,12 +7406,12 @@
     <row r="34" spans="1:36" ht="22.5" customHeight="1">
       <c r="A34" s="18"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="212" t="s">
+      <c r="C34" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="212"/>
-      <c r="E34" s="212"/>
-      <c r="F34" s="212"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="173"/>
+      <c r="F34" s="173"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -7242,12 +7446,12 @@
     <row r="35" spans="1:36" ht="22.5" customHeight="1">
       <c r="A35" s="19"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="212" t="s">
+      <c r="C35" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="212"/>
-      <c r="E35" s="212"/>
-      <c r="F35" s="212"/>
+      <c r="D35" s="173"/>
+      <c r="E35" s="173"/>
+      <c r="F35" s="173"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -7282,12 +7486,12 @@
     <row r="36" spans="1:36" ht="22.5" customHeight="1">
       <c r="A36" s="20"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="212" t="s">
+      <c r="C36" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="212"/>
-      <c r="E36" s="212"/>
-      <c r="F36" s="212"/>
+      <c r="D36" s="173"/>
+      <c r="E36" s="173"/>
+      <c r="F36" s="173"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -7322,12 +7526,12 @@
     <row r="37" spans="1:36" ht="22.5" customHeight="1">
       <c r="A37" s="75"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="212" t="s">
+      <c r="C37" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="212"/>
-      <c r="E37" s="212"/>
-      <c r="F37" s="212"/>
+      <c r="D37" s="173"/>
+      <c r="E37" s="173"/>
+      <c r="F37" s="173"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -43177,32 +43381,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AJ6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A29"/>
@@ -43219,6 +43397,32 @@
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AJ6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="B30:F30"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7:AJ8">
@@ -43252,85 +43456,85 @@
       <c r="B2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="222" t="s">
+      <c r="G2" s="291" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="223"/>
-      <c r="I2" s="229" t="s">
+      <c r="H2" s="292"/>
+      <c r="I2" s="281" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="224"/>
-      <c r="L2" s="222" t="s">
+      <c r="J2" s="236"/>
+      <c r="L2" s="291" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="223"/>
-      <c r="N2" s="229" t="s">
+      <c r="M2" s="292"/>
+      <c r="N2" s="281" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="224"/>
-      <c r="Q2" s="222" t="s">
+      <c r="O2" s="236"/>
+      <c r="Q2" s="291" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="223"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="224"/>
-      <c r="V2" s="222" t="s">
+      <c r="R2" s="292"/>
+      <c r="S2" s="236"/>
+      <c r="T2" s="236"/>
+      <c r="V2" s="291" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="223"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="224"/>
+      <c r="W2" s="292"/>
+      <c r="X2" s="236"/>
+      <c r="Y2" s="236"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="D4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="225" t="s">
+      <c r="E4" s="293" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="226"/>
-      <c r="G4" s="227" t="s">
+      <c r="F4" s="256"/>
+      <c r="G4" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="228"/>
-      <c r="I4" s="225" t="s">
+      <c r="H4" s="294"/>
+      <c r="I4" s="293" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="226"/>
-      <c r="K4" s="227" t="s">
+      <c r="J4" s="256"/>
+      <c r="K4" s="223" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="228"/>
-      <c r="M4" s="225" t="s">
+      <c r="L4" s="294"/>
+      <c r="M4" s="293" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="226"/>
+      <c r="N4" s="256"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D5" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="216">
+      <c r="E5" s="288">
         <v>3</v>
       </c>
-      <c r="F5" s="217"/>
-      <c r="G5" s="218">
+      <c r="F5" s="237"/>
+      <c r="G5" s="272">
         <v>4</v>
       </c>
-      <c r="H5" s="219"/>
-      <c r="I5" s="216">
+      <c r="H5" s="289"/>
+      <c r="I5" s="288">
         <v>5</v>
       </c>
-      <c r="J5" s="217"/>
-      <c r="K5" s="218">
+      <c r="J5" s="237"/>
+      <c r="K5" s="272">
         <v>6</v>
       </c>
-      <c r="L5" s="219"/>
-      <c r="M5" s="216">
+      <c r="L5" s="289"/>
+      <c r="M5" s="288">
         <v>7</v>
       </c>
-      <c r="N5" s="217"/>
+      <c r="N5" s="237"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D6" s="78" t="s">
@@ -43366,28 +43570,28 @@
       <c r="N6" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="220" t="s">
+      <c r="O6" s="290" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="230" t="s">
+      <c r="P6" s="231"/>
+      <c r="Q6" s="295" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="221"/>
-      <c r="S6" s="230" t="s">
+      <c r="R6" s="231"/>
+      <c r="S6" s="295" t="s">
         <v>68</v>
       </c>
-      <c r="T6" s="231"/>
+      <c r="T6" s="232"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="232" t="s">
+      <c r="A7" s="273" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="235" t="s">
+      <c r="B7" s="263" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="236"/>
-      <c r="D7" s="237"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="277"/>
       <c r="E7" s="80"/>
       <c r="F7" s="81"/>
       <c r="G7" s="63"/>
@@ -43398,22 +43602,22 @@
       <c r="L7" s="55"/>
       <c r="M7" s="93"/>
       <c r="N7" s="43"/>
-      <c r="O7" s="238" t="s">
+      <c r="O7" s="278" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="239"/>
-      <c r="Q7" s="239"/>
-      <c r="R7" s="239"/>
-      <c r="S7" s="239"/>
-      <c r="T7" s="240"/>
+      <c r="P7" s="279"/>
+      <c r="Q7" s="279"/>
+      <c r="R7" s="279"/>
+      <c r="S7" s="279"/>
+      <c r="T7" s="280"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="233"/>
-      <c r="B8" s="241" t="s">
+      <c r="A8" s="274"/>
+      <c r="B8" s="238" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="242"/>
-      <c r="D8" s="243"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="82"/>
       <c r="F8" s="83"/>
       <c r="G8" s="65"/>
@@ -43424,22 +43628,22 @@
       <c r="L8" s="56"/>
       <c r="M8" s="37"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="229" t="s">
+      <c r="O8" s="281" t="s">
         <v>73</v>
       </c>
-      <c r="P8" s="224"/>
-      <c r="Q8" s="224"/>
-      <c r="R8" s="224"/>
-      <c r="S8" s="224"/>
-      <c r="T8" s="217"/>
+      <c r="P8" s="236"/>
+      <c r="Q8" s="236"/>
+      <c r="R8" s="236"/>
+      <c r="S8" s="236"/>
+      <c r="T8" s="237"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="233"/>
-      <c r="B9" s="241" t="s">
+      <c r="A9" s="274"/>
+      <c r="B9" s="238" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="242"/>
-      <c r="D9" s="243"/>
+      <c r="C9" s="239"/>
+      <c r="D9" s="240"/>
       <c r="E9" s="82"/>
       <c r="F9" s="84"/>
       <c r="G9" s="65"/>
@@ -43450,24 +43654,24 @@
       <c r="L9" s="56"/>
       <c r="M9" s="37"/>
       <c r="N9" s="38"/>
-      <c r="O9" s="244" t="s">
+      <c r="O9" s="268" t="s">
         <v>36</v>
       </c>
-      <c r="P9" s="224"/>
-      <c r="Q9" s="229" t="s">
+      <c r="P9" s="236"/>
+      <c r="Q9" s="281" t="s">
         <v>73</v>
       </c>
-      <c r="R9" s="224"/>
-      <c r="S9" s="224"/>
-      <c r="T9" s="217"/>
+      <c r="R9" s="236"/>
+      <c r="S9" s="236"/>
+      <c r="T9" s="237"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="233"/>
-      <c r="B10" s="241" t="s">
+      <c r="A10" s="274"/>
+      <c r="B10" s="238" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="242"/>
-      <c r="D10" s="243"/>
+      <c r="C10" s="239"/>
+      <c r="D10" s="240"/>
       <c r="E10" s="82"/>
       <c r="F10" s="83"/>
       <c r="G10" s="65"/>
@@ -43478,20 +43682,20 @@
       <c r="L10" s="56"/>
       <c r="M10" s="37"/>
       <c r="N10" s="38"/>
-      <c r="O10" s="218"/>
-      <c r="P10" s="224"/>
-      <c r="Q10" s="224"/>
-      <c r="R10" s="224"/>
-      <c r="S10" s="224"/>
-      <c r="T10" s="217"/>
+      <c r="O10" s="272"/>
+      <c r="P10" s="236"/>
+      <c r="Q10" s="236"/>
+      <c r="R10" s="236"/>
+      <c r="S10" s="236"/>
+      <c r="T10" s="237"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="234"/>
-      <c r="B11" s="245" t="s">
+      <c r="A11" s="275"/>
+      <c r="B11" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="246"/>
-      <c r="D11" s="247"/>
+      <c r="C11" s="283"/>
+      <c r="D11" s="284"/>
       <c r="E11" s="85"/>
       <c r="F11" s="86"/>
       <c r="G11" s="67"/>
@@ -43502,22 +43706,22 @@
       <c r="L11" s="57"/>
       <c r="M11" s="94"/>
       <c r="N11" s="51"/>
-      <c r="O11" s="248"/>
-      <c r="P11" s="249"/>
-      <c r="Q11" s="249"/>
-      <c r="R11" s="249"/>
-      <c r="S11" s="249"/>
-      <c r="T11" s="250"/>
+      <c r="O11" s="285"/>
+      <c r="P11" s="286"/>
+      <c r="Q11" s="286"/>
+      <c r="R11" s="286"/>
+      <c r="S11" s="286"/>
+      <c r="T11" s="287"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="251" t="s">
+      <c r="A12" s="248" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="254" t="s">
+      <c r="B12" s="251" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="255"/>
-      <c r="D12" s="256"/>
+      <c r="C12" s="252"/>
+      <c r="D12" s="253"/>
       <c r="E12" s="87"/>
       <c r="F12" s="88"/>
       <c r="G12" s="69"/>
@@ -43528,22 +43732,22 @@
       <c r="L12" s="58"/>
       <c r="M12" s="35"/>
       <c r="N12" s="106"/>
-      <c r="O12" s="257" t="s">
+      <c r="O12" s="254" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="258"/>
-      <c r="Q12" s="259"/>
-      <c r="R12" s="259"/>
-      <c r="S12" s="259"/>
-      <c r="T12" s="226"/>
+      <c r="P12" s="255"/>
+      <c r="Q12" s="224"/>
+      <c r="R12" s="224"/>
+      <c r="S12" s="224"/>
+      <c r="T12" s="256"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="252"/>
-      <c r="B13" s="260" t="s">
+      <c r="A13" s="249"/>
+      <c r="B13" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="261"/>
-      <c r="D13" s="262"/>
+      <c r="C13" s="258"/>
+      <c r="D13" s="259"/>
       <c r="E13" s="82"/>
       <c r="F13" s="83"/>
       <c r="G13" s="65"/>
@@ -43554,22 +43758,22 @@
       <c r="L13" s="104"/>
       <c r="M13" s="99"/>
       <c r="N13" s="99"/>
-      <c r="O13" s="244" t="s">
+      <c r="O13" s="268" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="224"/>
-      <c r="Q13" s="224"/>
-      <c r="R13" s="224"/>
-      <c r="S13" s="224"/>
-      <c r="T13" s="217"/>
+      <c r="P13" s="236"/>
+      <c r="Q13" s="236"/>
+      <c r="R13" s="236"/>
+      <c r="S13" s="236"/>
+      <c r="T13" s="237"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="252"/>
-      <c r="B14" s="260" t="s">
+      <c r="A14" s="249"/>
+      <c r="B14" s="257" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="271"/>
-      <c r="D14" s="272"/>
+      <c r="C14" s="269"/>
+      <c r="D14" s="270"/>
       <c r="E14" s="82"/>
       <c r="F14" s="83"/>
       <c r="G14" s="65"/>
@@ -43580,22 +43784,22 @@
       <c r="L14" s="104"/>
       <c r="M14" s="99"/>
       <c r="N14" s="99"/>
-      <c r="O14" s="273" t="s">
+      <c r="O14" s="271" t="s">
         <v>75</v>
       </c>
-      <c r="P14" s="218"/>
-      <c r="Q14" s="224"/>
-      <c r="R14" s="224"/>
-      <c r="S14" s="224"/>
-      <c r="T14" s="217"/>
+      <c r="P14" s="272"/>
+      <c r="Q14" s="236"/>
+      <c r="R14" s="236"/>
+      <c r="S14" s="236"/>
+      <c r="T14" s="237"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="253"/>
-      <c r="B15" s="274" t="s">
+      <c r="A15" s="250"/>
+      <c r="B15" s="243" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="275"/>
-      <c r="D15" s="276"/>
+      <c r="C15" s="244"/>
+      <c r="D15" s="245"/>
       <c r="E15" s="89"/>
       <c r="F15" s="90"/>
       <c r="G15" s="71"/>
@@ -43606,24 +43810,24 @@
       <c r="L15" s="105"/>
       <c r="M15" s="102"/>
       <c r="N15" s="102"/>
-      <c r="O15" s="277" t="s">
+      <c r="O15" s="246" t="s">
         <v>74</v>
       </c>
-      <c r="P15" s="278"/>
-      <c r="Q15" s="279"/>
-      <c r="R15" s="278"/>
-      <c r="S15" s="278"/>
-      <c r="T15" s="280"/>
+      <c r="P15" s="225"/>
+      <c r="Q15" s="247"/>
+      <c r="R15" s="225"/>
+      <c r="S15" s="225"/>
+      <c r="T15" s="226"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A16" s="263" t="s">
+      <c r="A16" s="260" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="235" t="s">
+      <c r="B16" s="263" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="266"/>
-      <c r="D16" s="267"/>
+      <c r="C16" s="264"/>
+      <c r="D16" s="265"/>
       <c r="E16" s="87"/>
       <c r="F16" s="88"/>
       <c r="G16" s="69"/>
@@ -43634,22 +43838,22 @@
       <c r="L16" s="58"/>
       <c r="M16" s="35"/>
       <c r="N16" s="53"/>
-      <c r="O16" s="227" t="s">
+      <c r="O16" s="223" t="s">
         <v>71</v>
       </c>
-      <c r="P16" s="259"/>
-      <c r="Q16" s="227"/>
-      <c r="R16" s="259"/>
-      <c r="S16" s="259"/>
-      <c r="T16" s="226"/>
+      <c r="P16" s="224"/>
+      <c r="Q16" s="223"/>
+      <c r="R16" s="224"/>
+      <c r="S16" s="224"/>
+      <c r="T16" s="256"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A17" s="264"/>
-      <c r="B17" s="268" t="s">
+      <c r="A17" s="261"/>
+      <c r="B17" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="269"/>
-      <c r="D17" s="270"/>
+      <c r="C17" s="266"/>
+      <c r="D17" s="267"/>
       <c r="E17" s="82"/>
       <c r="F17" s="83"/>
       <c r="G17" s="65"/>
@@ -43660,22 +43864,22 @@
       <c r="L17" s="56"/>
       <c r="M17" s="37"/>
       <c r="N17" s="38"/>
-      <c r="O17" s="227" t="s">
+      <c r="O17" s="223" t="s">
         <v>71</v>
       </c>
-      <c r="P17" s="259"/>
-      <c r="Q17" s="227"/>
-      <c r="R17" s="259"/>
-      <c r="S17" s="224"/>
-      <c r="T17" s="217"/>
+      <c r="P17" s="224"/>
+      <c r="Q17" s="223"/>
+      <c r="R17" s="224"/>
+      <c r="S17" s="236"/>
+      <c r="T17" s="237"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A18" s="264"/>
-      <c r="B18" s="268" t="s">
+      <c r="A18" s="261"/>
+      <c r="B18" s="233" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="269"/>
-      <c r="D18" s="270"/>
+      <c r="C18" s="266"/>
+      <c r="D18" s="267"/>
       <c r="E18" s="82"/>
       <c r="F18" s="83"/>
       <c r="G18" s="65"/>
@@ -43686,22 +43890,22 @@
       <c r="L18" s="56"/>
       <c r="M18" s="37"/>
       <c r="N18" s="38"/>
-      <c r="O18" s="227" t="s">
+      <c r="O18" s="223" t="s">
         <v>71</v>
       </c>
-      <c r="P18" s="259"/>
-      <c r="Q18" s="227"/>
-      <c r="R18" s="259"/>
-      <c r="S18" s="224"/>
-      <c r="T18" s="217"/>
+      <c r="P18" s="224"/>
+      <c r="Q18" s="223"/>
+      <c r="R18" s="224"/>
+      <c r="S18" s="236"/>
+      <c r="T18" s="237"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A19" s="264"/>
-      <c r="B19" s="241" t="s">
+      <c r="A19" s="261"/>
+      <c r="B19" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="281"/>
-      <c r="D19" s="282"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="242"/>
       <c r="E19" s="82"/>
       <c r="F19" s="83"/>
       <c r="G19" s="65"/>
@@ -43712,22 +43916,22 @@
       <c r="L19" s="56"/>
       <c r="M19" s="37"/>
       <c r="N19" s="38"/>
-      <c r="O19" s="227" t="s">
+      <c r="O19" s="223" t="s">
         <v>71</v>
       </c>
-      <c r="P19" s="259"/>
-      <c r="Q19" s="227"/>
-      <c r="R19" s="259"/>
-      <c r="S19" s="224"/>
-      <c r="T19" s="217"/>
+      <c r="P19" s="224"/>
+      <c r="Q19" s="223"/>
+      <c r="R19" s="224"/>
+      <c r="S19" s="236"/>
+      <c r="T19" s="237"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="264"/>
-      <c r="B20" s="241" t="s">
+      <c r="A20" s="261"/>
+      <c r="B20" s="238" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="281"/>
-      <c r="D20" s="282"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="242"/>
       <c r="E20" s="82"/>
       <c r="F20" s="83"/>
       <c r="G20" s="65"/>
@@ -43738,22 +43942,22 @@
       <c r="L20" s="56"/>
       <c r="M20" s="37"/>
       <c r="N20" s="38"/>
-      <c r="O20" s="227" t="s">
+      <c r="O20" s="223" t="s">
         <v>71</v>
       </c>
-      <c r="P20" s="259"/>
-      <c r="Q20" s="227"/>
-      <c r="R20" s="259"/>
-      <c r="S20" s="224"/>
-      <c r="T20" s="217"/>
+      <c r="P20" s="224"/>
+      <c r="Q20" s="223"/>
+      <c r="R20" s="224"/>
+      <c r="S20" s="236"/>
+      <c r="T20" s="237"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="264"/>
-      <c r="B21" s="241" t="s">
+      <c r="A21" s="261"/>
+      <c r="B21" s="238" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="281"/>
-      <c r="D21" s="282"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="242"/>
       <c r="E21" s="82"/>
       <c r="F21" s="83"/>
       <c r="G21" s="65"/>
@@ -43764,22 +43968,22 @@
       <c r="L21" s="56"/>
       <c r="M21" s="37"/>
       <c r="N21" s="38"/>
-      <c r="O21" s="227" t="s">
+      <c r="O21" s="223" t="s">
         <v>71</v>
       </c>
-      <c r="P21" s="259"/>
-      <c r="Q21" s="227"/>
-      <c r="R21" s="259"/>
-      <c r="S21" s="224"/>
-      <c r="T21" s="217"/>
+      <c r="P21" s="224"/>
+      <c r="Q21" s="223"/>
+      <c r="R21" s="224"/>
+      <c r="S21" s="236"/>
+      <c r="T21" s="237"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="264"/>
-      <c r="B22" s="241" t="s">
+      <c r="A22" s="261"/>
+      <c r="B22" s="238" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="281"/>
-      <c r="D22" s="282"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="242"/>
       <c r="E22" s="82"/>
       <c r="F22" s="83"/>
       <c r="G22" s="65"/>
@@ -43790,22 +43994,22 @@
       <c r="L22" s="56"/>
       <c r="M22" s="37"/>
       <c r="N22" s="38"/>
-      <c r="O22" s="227" t="s">
+      <c r="O22" s="223" t="s">
         <v>71</v>
       </c>
-      <c r="P22" s="259"/>
-      <c r="Q22" s="227"/>
-      <c r="R22" s="259"/>
-      <c r="S22" s="224"/>
-      <c r="T22" s="217"/>
+      <c r="P22" s="224"/>
+      <c r="Q22" s="223"/>
+      <c r="R22" s="224"/>
+      <c r="S22" s="236"/>
+      <c r="T22" s="237"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A23" s="264"/>
-      <c r="B23" s="241" t="s">
+      <c r="A23" s="261"/>
+      <c r="B23" s="238" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="242"/>
-      <c r="D23" s="243"/>
+      <c r="C23" s="239"/>
+      <c r="D23" s="240"/>
       <c r="E23" s="82"/>
       <c r="F23" s="83"/>
       <c r="G23" s="65"/>
@@ -43816,22 +44020,22 @@
       <c r="L23" s="56"/>
       <c r="M23" s="37"/>
       <c r="N23" s="38"/>
-      <c r="O23" s="227" t="s">
+      <c r="O23" s="223" t="s">
         <v>71</v>
       </c>
-      <c r="P23" s="259"/>
-      <c r="Q23" s="227"/>
-      <c r="R23" s="259"/>
-      <c r="S23" s="224"/>
-      <c r="T23" s="217"/>
+      <c r="P23" s="224"/>
+      <c r="Q23" s="223"/>
+      <c r="R23" s="224"/>
+      <c r="S23" s="236"/>
+      <c r="T23" s="237"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A24" s="264"/>
-      <c r="B24" s="268" t="s">
+      <c r="A24" s="261"/>
+      <c r="B24" s="233" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="283"/>
-      <c r="D24" s="284"/>
+      <c r="C24" s="234"/>
+      <c r="D24" s="235"/>
       <c r="E24" s="82"/>
       <c r="F24" s="83"/>
       <c r="G24" s="65"/>
@@ -43842,22 +44046,22 @@
       <c r="L24" s="56"/>
       <c r="M24" s="37"/>
       <c r="N24" s="38"/>
-      <c r="O24" s="227" t="s">
+      <c r="O24" s="223" t="s">
         <v>71</v>
       </c>
-      <c r="P24" s="259"/>
-      <c r="Q24" s="227"/>
-      <c r="R24" s="259"/>
-      <c r="S24" s="224"/>
-      <c r="T24" s="217"/>
+      <c r="P24" s="224"/>
+      <c r="Q24" s="223"/>
+      <c r="R24" s="224"/>
+      <c r="S24" s="236"/>
+      <c r="T24" s="237"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A25" s="264"/>
-      <c r="B25" s="268" t="s">
+      <c r="A25" s="261"/>
+      <c r="B25" s="233" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="283"/>
-      <c r="D25" s="284"/>
+      <c r="C25" s="234"/>
+      <c r="D25" s="235"/>
       <c r="E25" s="82"/>
       <c r="F25" s="83"/>
       <c r="G25" s="65"/>
@@ -43868,22 +44072,22 @@
       <c r="L25" s="56"/>
       <c r="M25" s="37"/>
       <c r="N25" s="38"/>
-      <c r="O25" s="227" t="s">
+      <c r="O25" s="223" t="s">
         <v>71</v>
       </c>
-      <c r="P25" s="259"/>
-      <c r="Q25" s="227"/>
-      <c r="R25" s="259"/>
-      <c r="S25" s="224"/>
-      <c r="T25" s="217"/>
+      <c r="P25" s="224"/>
+      <c r="Q25" s="223"/>
+      <c r="R25" s="224"/>
+      <c r="S25" s="236"/>
+      <c r="T25" s="237"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A26" s="264"/>
-      <c r="B26" s="268" t="s">
+      <c r="A26" s="261"/>
+      <c r="B26" s="233" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="283"/>
-      <c r="D26" s="284"/>
+      <c r="C26" s="234"/>
+      <c r="D26" s="235"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="65"/>
@@ -43894,22 +44098,22 @@
       <c r="L26" s="56"/>
       <c r="M26" s="37"/>
       <c r="N26" s="38"/>
-      <c r="O26" s="227" t="s">
+      <c r="O26" s="223" t="s">
         <v>71</v>
       </c>
-      <c r="P26" s="259"/>
-      <c r="Q26" s="227"/>
-      <c r="R26" s="259"/>
-      <c r="S26" s="224"/>
-      <c r="T26" s="217"/>
+      <c r="P26" s="224"/>
+      <c r="Q26" s="223"/>
+      <c r="R26" s="224"/>
+      <c r="S26" s="236"/>
+      <c r="T26" s="237"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="265"/>
-      <c r="B27" s="286" t="s">
+      <c r="A27" s="262"/>
+      <c r="B27" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="287"/>
-      <c r="D27" s="288"/>
+      <c r="C27" s="221"/>
+      <c r="D27" s="222"/>
       <c r="E27" s="89"/>
       <c r="F27" s="90"/>
       <c r="G27" s="71"/>
@@ -43920,24 +44124,24 @@
       <c r="L27" s="59"/>
       <c r="M27" s="95"/>
       <c r="N27" s="41"/>
-      <c r="O27" s="227" t="s">
+      <c r="O27" s="223" t="s">
         <v>71</v>
       </c>
-      <c r="P27" s="259"/>
-      <c r="Q27" s="227"/>
-      <c r="R27" s="259"/>
-      <c r="S27" s="278"/>
-      <c r="T27" s="280"/>
+      <c r="P27" s="224"/>
+      <c r="Q27" s="223"/>
+      <c r="R27" s="224"/>
+      <c r="S27" s="225"/>
+      <c r="T27" s="226"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="289" t="s">
+      <c r="B28" s="227" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="290"/>
-      <c r="D28" s="291"/>
+      <c r="C28" s="228"/>
+      <c r="D28" s="229"/>
       <c r="E28" s="91"/>
       <c r="F28" s="92"/>
       <c r="G28" s="73"/>
@@ -43948,17 +44152,17 @@
       <c r="L28" s="62"/>
       <c r="M28" s="96"/>
       <c r="N28" s="97"/>
-      <c r="O28" s="292"/>
-      <c r="P28" s="221"/>
-      <c r="Q28" s="221"/>
-      <c r="R28" s="221"/>
-      <c r="S28" s="221"/>
-      <c r="T28" s="231"/>
+      <c r="O28" s="230"/>
+      <c r="P28" s="231"/>
+      <c r="Q28" s="231"/>
+      <c r="R28" s="231"/>
+      <c r="S28" s="231"/>
+      <c r="T28" s="232"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="285"/>
-      <c r="C29" s="285"/>
-      <c r="D29" s="285"/>
+      <c r="B29" s="219"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="219"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="16" t="s">
@@ -43972,147 +44176,130 @@
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="212" t="s">
+      <c r="B31" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="212"/>
+      <c r="C31" s="173"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="212" t="s">
+      <c r="B32" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="212"/>
+      <c r="C32" s="173"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1">
       <c r="A33" s="19"/>
-      <c r="B33" s="212" t="s">
+      <c r="B33" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="212"/>
+      <c r="C33" s="173"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="212" t="s">
+      <c r="B34" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="212"/>
+      <c r="C34" s="173"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="212" t="s">
+      <c r="B35" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="212"/>
+      <c r="C35" s="173"/>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1">
-      <c r="B36" s="285"/>
-      <c r="C36" s="285"/>
-      <c r="D36" s="285"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="219"/>
+      <c r="D36" s="219"/>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1">
-      <c r="B37" s="285"/>
-      <c r="C37" s="285"/>
-      <c r="D37" s="285"/>
+      <c r="B37" s="219"/>
+      <c r="C37" s="219"/>
+      <c r="D37" s="219"/>
     </row>
     <row r="38" spans="1:6" ht="18" customHeight="1">
-      <c r="B38" s="285"/>
-      <c r="C38" s="285"/>
-      <c r="D38" s="285"/>
+      <c r="B38" s="219"/>
+      <c r="C38" s="219"/>
+      <c r="D38" s="219"/>
     </row>
     <row r="39" spans="1:6" ht="18" customHeight="1">
-      <c r="B39" s="285"/>
-      <c r="C39" s="285"/>
-      <c r="D39" s="285"/>
+      <c r="B39" s="219"/>
+      <c r="C39" s="219"/>
+      <c r="D39" s="219"/>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1">
-      <c r="B40" s="285"/>
-      <c r="C40" s="285"/>
-      <c r="D40" s="285"/>
+      <c r="B40" s="219"/>
+      <c r="C40" s="219"/>
+      <c r="D40" s="219"/>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1">
-      <c r="B41" s="285"/>
-      <c r="C41" s="285"/>
-      <c r="D41" s="285"/>
+      <c r="B41" s="219"/>
+      <c r="C41" s="219"/>
+      <c r="D41" s="219"/>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1">
-      <c r="B42" s="285"/>
-      <c r="C42" s="285"/>
-      <c r="D42" s="285"/>
+      <c r="B42" s="219"/>
+      <c r="C42" s="219"/>
+      <c r="D42" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="O12:P12"/>
@@ -44137,48 +44324,65 @@
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44190,7 +44394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF4906B-027D-4E20-B248-E186BA8B7085}">
   <dimension ref="A2:Y42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
@@ -44200,89 +44404,89 @@
       <c r="B2" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="222" t="s">
+      <c r="G2" s="291" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="223"/>
-      <c r="I2" s="229" t="s">
+      <c r="H2" s="292"/>
+      <c r="I2" s="281" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="224"/>
-      <c r="L2" s="222" t="s">
+      <c r="J2" s="236"/>
+      <c r="L2" s="291" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="223"/>
-      <c r="N2" s="229" t="s">
+      <c r="M2" s="292"/>
+      <c r="N2" s="281" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="224"/>
-      <c r="Q2" s="222" t="s">
+      <c r="O2" s="236"/>
+      <c r="Q2" s="291" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="223"/>
-      <c r="S2" s="294">
+      <c r="R2" s="292"/>
+      <c r="S2" s="315">
         <v>45451</v>
       </c>
-      <c r="T2" s="224"/>
-      <c r="V2" s="222" t="s">
+      <c r="T2" s="236"/>
+      <c r="V2" s="291" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="223"/>
-      <c r="X2" s="294">
+      <c r="W2" s="292"/>
+      <c r="X2" s="315">
         <v>45451</v>
       </c>
-      <c r="Y2" s="224"/>
+      <c r="Y2" s="236"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="D4" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="295" t="s">
+      <c r="E4" s="316" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="296"/>
-      <c r="G4" s="295" t="s">
+      <c r="F4" s="317"/>
+      <c r="G4" s="316" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="296"/>
-      <c r="I4" s="295" t="s">
+      <c r="H4" s="317"/>
+      <c r="I4" s="316" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="296"/>
-      <c r="K4" s="295" t="s">
+      <c r="J4" s="317"/>
+      <c r="K4" s="316" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="296"/>
-      <c r="M4" s="295" t="s">
+      <c r="L4" s="317"/>
+      <c r="M4" s="316" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="297"/>
+      <c r="N4" s="318"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D5" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="224">
+      <c r="E5" s="236">
         <v>10</v>
       </c>
-      <c r="F5" s="224"/>
-      <c r="G5" s="224">
+      <c r="F5" s="236"/>
+      <c r="G5" s="236">
         <v>11</v>
       </c>
-      <c r="H5" s="224"/>
-      <c r="I5" s="224">
+      <c r="H5" s="236"/>
+      <c r="I5" s="236">
         <v>12</v>
       </c>
-      <c r="J5" s="224"/>
-      <c r="K5" s="224">
+      <c r="J5" s="236"/>
+      <c r="K5" s="236">
         <v>13</v>
       </c>
-      <c r="L5" s="224"/>
-      <c r="M5" s="224">
+      <c r="L5" s="236"/>
+      <c r="M5" s="236">
         <v>14</v>
       </c>
-      <c r="N5" s="293"/>
+      <c r="N5" s="314"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D6" s="161" t="s">
@@ -44318,28 +44522,28 @@
       <c r="N6" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="220" t="s">
+      <c r="O6" s="290" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="230" t="s">
+      <c r="P6" s="231"/>
+      <c r="Q6" s="295" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="221"/>
-      <c r="S6" s="230" t="s">
+      <c r="R6" s="231"/>
+      <c r="S6" s="295" t="s">
         <v>68</v>
       </c>
-      <c r="T6" s="231"/>
+      <c r="T6" s="232"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="232" t="s">
+      <c r="A7" s="273" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="235" t="s">
+      <c r="B7" s="263" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="236"/>
-      <c r="D7" s="298"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="310"/>
       <c r="E7" s="63"/>
       <c r="F7" s="153"/>
       <c r="G7" s="64"/>
@@ -44350,20 +44554,20 @@
       <c r="L7" s="42"/>
       <c r="M7" s="153"/>
       <c r="N7" s="157"/>
-      <c r="O7" s="299"/>
-      <c r="P7" s="239"/>
-      <c r="Q7" s="239"/>
-      <c r="R7" s="239"/>
-      <c r="S7" s="239"/>
-      <c r="T7" s="240"/>
+      <c r="O7" s="311"/>
+      <c r="P7" s="279"/>
+      <c r="Q7" s="279"/>
+      <c r="R7" s="279"/>
+      <c r="S7" s="279"/>
+      <c r="T7" s="280"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="233"/>
-      <c r="B8" s="241" t="s">
+      <c r="A8" s="274"/>
+      <c r="B8" s="238" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="242"/>
-      <c r="D8" s="300"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="301"/>
       <c r="E8" s="65"/>
       <c r="F8" s="154"/>
       <c r="G8" s="66"/>
@@ -44374,20 +44578,20 @@
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
       <c r="N8" s="56"/>
-      <c r="O8" s="216"/>
-      <c r="P8" s="224"/>
-      <c r="Q8" s="224"/>
-      <c r="R8" s="224"/>
-      <c r="S8" s="224"/>
-      <c r="T8" s="217"/>
+      <c r="O8" s="288"/>
+      <c r="P8" s="236"/>
+      <c r="Q8" s="236"/>
+      <c r="R8" s="236"/>
+      <c r="S8" s="236"/>
+      <c r="T8" s="237"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="233"/>
-      <c r="B9" s="241" t="s">
+      <c r="A9" s="274"/>
+      <c r="B9" s="238" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="242"/>
-      <c r="D9" s="300"/>
+      <c r="C9" s="239"/>
+      <c r="D9" s="301"/>
       <c r="E9" s="65"/>
       <c r="F9" s="34"/>
       <c r="G9" s="66"/>
@@ -44398,20 +44602,20 @@
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
       <c r="N9" s="56"/>
-      <c r="O9" s="216"/>
-      <c r="P9" s="224"/>
-      <c r="Q9" s="224"/>
-      <c r="R9" s="224"/>
-      <c r="S9" s="224"/>
-      <c r="T9" s="217"/>
+      <c r="O9" s="288"/>
+      <c r="P9" s="236"/>
+      <c r="Q9" s="236"/>
+      <c r="R9" s="236"/>
+      <c r="S9" s="236"/>
+      <c r="T9" s="237"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="233"/>
-      <c r="B10" s="241" t="s">
+      <c r="A10" s="274"/>
+      <c r="B10" s="238" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="242"/>
-      <c r="D10" s="300"/>
+      <c r="C10" s="239"/>
+      <c r="D10" s="301"/>
       <c r="E10" s="65"/>
       <c r="F10" s="34"/>
       <c r="G10" s="66"/>
@@ -44422,20 +44626,20 @@
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="56"/>
-      <c r="O10" s="216"/>
-      <c r="P10" s="224"/>
-      <c r="Q10" s="224"/>
-      <c r="R10" s="224"/>
-      <c r="S10" s="224"/>
-      <c r="T10" s="217"/>
+      <c r="O10" s="288"/>
+      <c r="P10" s="236"/>
+      <c r="Q10" s="236"/>
+      <c r="R10" s="236"/>
+      <c r="S10" s="236"/>
+      <c r="T10" s="237"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="234"/>
-      <c r="B11" s="245" t="s">
+      <c r="A11" s="275"/>
+      <c r="B11" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="246"/>
-      <c r="D11" s="301"/>
+      <c r="C11" s="283"/>
+      <c r="D11" s="312"/>
       <c r="E11" s="67"/>
       <c r="F11" s="50"/>
       <c r="G11" s="68"/>
@@ -44446,22 +44650,22 @@
       <c r="L11" s="50"/>
       <c r="M11" s="50"/>
       <c r="N11" s="57"/>
-      <c r="O11" s="302"/>
-      <c r="P11" s="249"/>
-      <c r="Q11" s="249"/>
-      <c r="R11" s="249"/>
-      <c r="S11" s="249"/>
-      <c r="T11" s="250"/>
+      <c r="O11" s="313"/>
+      <c r="P11" s="286"/>
+      <c r="Q11" s="286"/>
+      <c r="R11" s="286"/>
+      <c r="S11" s="286"/>
+      <c r="T11" s="287"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="251" t="s">
+      <c r="A12" s="248" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="254" t="s">
+      <c r="B12" s="251" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="255"/>
-      <c r="D12" s="303"/>
+      <c r="C12" s="252"/>
+      <c r="D12" s="304"/>
       <c r="E12" s="69"/>
       <c r="F12" s="155"/>
       <c r="G12" s="70"/>
@@ -44472,20 +44676,20 @@
       <c r="L12" s="155"/>
       <c r="M12" s="36"/>
       <c r="N12" s="58"/>
-      <c r="O12" s="304"/>
-      <c r="P12" s="259"/>
-      <c r="Q12" s="259"/>
-      <c r="R12" s="259"/>
-      <c r="S12" s="259"/>
-      <c r="T12" s="226"/>
+      <c r="O12" s="305"/>
+      <c r="P12" s="224"/>
+      <c r="Q12" s="224"/>
+      <c r="R12" s="224"/>
+      <c r="S12" s="224"/>
+      <c r="T12" s="256"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="252"/>
-      <c r="B13" s="260" t="s">
+      <c r="A13" s="249"/>
+      <c r="B13" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="261"/>
-      <c r="D13" s="305"/>
+      <c r="C13" s="258"/>
+      <c r="D13" s="306"/>
       <c r="E13" s="65"/>
       <c r="F13" s="154"/>
       <c r="G13" s="66"/>
@@ -44496,20 +44700,20 @@
       <c r="L13" s="34"/>
       <c r="M13" s="154"/>
       <c r="N13" s="156"/>
-      <c r="O13" s="216"/>
-      <c r="P13" s="224"/>
-      <c r="Q13" s="224"/>
-      <c r="R13" s="224"/>
-      <c r="S13" s="224"/>
-      <c r="T13" s="217"/>
+      <c r="O13" s="288"/>
+      <c r="P13" s="236"/>
+      <c r="Q13" s="236"/>
+      <c r="R13" s="236"/>
+      <c r="S13" s="236"/>
+      <c r="T13" s="237"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="252"/>
-      <c r="B14" s="260" t="s">
+      <c r="A14" s="249"/>
+      <c r="B14" s="257" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="271"/>
-      <c r="D14" s="308"/>
+      <c r="C14" s="269"/>
+      <c r="D14" s="309"/>
       <c r="E14" s="65"/>
       <c r="F14" s="154"/>
       <c r="G14" s="66"/>
@@ -44520,20 +44724,20 @@
       <c r="L14" s="154"/>
       <c r="M14" s="34"/>
       <c r="N14" s="56"/>
-      <c r="O14" s="216"/>
-      <c r="P14" s="224"/>
-      <c r="Q14" s="224"/>
-      <c r="R14" s="224"/>
-      <c r="S14" s="224"/>
-      <c r="T14" s="217"/>
+      <c r="O14" s="288"/>
+      <c r="P14" s="236"/>
+      <c r="Q14" s="236"/>
+      <c r="R14" s="236"/>
+      <c r="S14" s="236"/>
+      <c r="T14" s="237"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="253"/>
-      <c r="B15" s="274" t="s">
+      <c r="A15" s="250"/>
+      <c r="B15" s="243" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="275"/>
-      <c r="D15" s="309"/>
+      <c r="C15" s="244"/>
+      <c r="D15" s="303"/>
       <c r="E15" s="71"/>
       <c r="F15" s="40"/>
       <c r="G15" s="72"/>
@@ -44544,22 +44748,22 @@
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
       <c r="N15" s="59"/>
-      <c r="O15" s="310"/>
-      <c r="P15" s="278"/>
-      <c r="Q15" s="278"/>
-      <c r="R15" s="278"/>
-      <c r="S15" s="278"/>
-      <c r="T15" s="280"/>
+      <c r="O15" s="297"/>
+      <c r="P15" s="225"/>
+      <c r="Q15" s="225"/>
+      <c r="R15" s="225"/>
+      <c r="S15" s="225"/>
+      <c r="T15" s="226"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="263" t="s">
+      <c r="A16" s="260" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="235" t="s">
+      <c r="B16" s="263" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="266"/>
-      <c r="D16" s="306"/>
+      <c r="C16" s="264"/>
+      <c r="D16" s="307"/>
       <c r="E16" s="69"/>
       <c r="F16" s="36"/>
       <c r="G16" s="70"/>
@@ -44570,20 +44774,20 @@
       <c r="L16" s="36"/>
       <c r="M16" s="155"/>
       <c r="N16" s="158"/>
-      <c r="O16" s="304"/>
-      <c r="P16" s="259"/>
-      <c r="Q16" s="259"/>
-      <c r="R16" s="259"/>
-      <c r="S16" s="259"/>
-      <c r="T16" s="226"/>
+      <c r="O16" s="305"/>
+      <c r="P16" s="224"/>
+      <c r="Q16" s="224"/>
+      <c r="R16" s="224"/>
+      <c r="S16" s="224"/>
+      <c r="T16" s="256"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="264"/>
-      <c r="B17" s="268" t="s">
+      <c r="A17" s="261"/>
+      <c r="B17" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="269"/>
-      <c r="D17" s="307"/>
+      <c r="C17" s="266"/>
+      <c r="D17" s="308"/>
       <c r="E17" s="65"/>
       <c r="F17" s="34"/>
       <c r="G17" s="66"/>
@@ -44594,20 +44798,20 @@
       <c r="L17" s="34"/>
       <c r="M17" s="154"/>
       <c r="N17" s="156"/>
-      <c r="O17" s="216"/>
-      <c r="P17" s="224"/>
-      <c r="Q17" s="224"/>
-      <c r="R17" s="224"/>
-      <c r="S17" s="224"/>
-      <c r="T17" s="217"/>
+      <c r="O17" s="288"/>
+      <c r="P17" s="236"/>
+      <c r="Q17" s="236"/>
+      <c r="R17" s="236"/>
+      <c r="S17" s="236"/>
+      <c r="T17" s="237"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="264"/>
-      <c r="B18" s="268" t="s">
+      <c r="A18" s="261"/>
+      <c r="B18" s="233" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="269"/>
-      <c r="D18" s="307"/>
+      <c r="C18" s="266"/>
+      <c r="D18" s="308"/>
       <c r="E18" s="65"/>
       <c r="F18" s="34"/>
       <c r="G18" s="66"/>
@@ -44618,20 +44822,20 @@
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="56"/>
-      <c r="O18" s="216"/>
-      <c r="P18" s="224"/>
-      <c r="Q18" s="224"/>
-      <c r="R18" s="224"/>
-      <c r="S18" s="224"/>
-      <c r="T18" s="217"/>
+      <c r="O18" s="288"/>
+      <c r="P18" s="236"/>
+      <c r="Q18" s="236"/>
+      <c r="R18" s="236"/>
+      <c r="S18" s="236"/>
+      <c r="T18" s="237"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="264"/>
-      <c r="B19" s="241" t="s">
+      <c r="A19" s="261"/>
+      <c r="B19" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="281"/>
-      <c r="D19" s="311"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="302"/>
       <c r="E19" s="65"/>
       <c r="F19" s="34"/>
       <c r="G19" s="66"/>
@@ -44642,20 +44846,20 @@
       <c r="L19" s="34"/>
       <c r="M19" s="154"/>
       <c r="N19" s="156"/>
-      <c r="O19" s="216"/>
-      <c r="P19" s="224"/>
-      <c r="Q19" s="224"/>
-      <c r="R19" s="224"/>
-      <c r="S19" s="224"/>
-      <c r="T19" s="217"/>
+      <c r="O19" s="288"/>
+      <c r="P19" s="236"/>
+      <c r="Q19" s="236"/>
+      <c r="R19" s="236"/>
+      <c r="S19" s="236"/>
+      <c r="T19" s="237"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="264"/>
-      <c r="B20" s="241" t="s">
+      <c r="A20" s="261"/>
+      <c r="B20" s="238" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="281"/>
-      <c r="D20" s="311"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="302"/>
       <c r="E20" s="65"/>
       <c r="F20" s="34"/>
       <c r="G20" s="66"/>
@@ -44666,20 +44870,20 @@
       <c r="L20" s="34"/>
       <c r="M20" s="154"/>
       <c r="N20" s="156"/>
-      <c r="O20" s="216"/>
-      <c r="P20" s="224"/>
-      <c r="Q20" s="224"/>
-      <c r="R20" s="224"/>
-      <c r="S20" s="224"/>
-      <c r="T20" s="217"/>
+      <c r="O20" s="288"/>
+      <c r="P20" s="236"/>
+      <c r="Q20" s="236"/>
+      <c r="R20" s="236"/>
+      <c r="S20" s="236"/>
+      <c r="T20" s="237"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="264"/>
-      <c r="B21" s="241" t="s">
+      <c r="A21" s="261"/>
+      <c r="B21" s="238" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="281"/>
-      <c r="D21" s="311"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="302"/>
       <c r="E21" s="65"/>
       <c r="F21" s="34"/>
       <c r="G21" s="66"/>
@@ -44690,20 +44894,20 @@
       <c r="L21" s="34"/>
       <c r="M21" s="154"/>
       <c r="N21" s="156"/>
-      <c r="O21" s="216"/>
-      <c r="P21" s="224"/>
-      <c r="Q21" s="224"/>
-      <c r="R21" s="224"/>
-      <c r="S21" s="224"/>
-      <c r="T21" s="217"/>
+      <c r="O21" s="288"/>
+      <c r="P21" s="236"/>
+      <c r="Q21" s="236"/>
+      <c r="R21" s="236"/>
+      <c r="S21" s="236"/>
+      <c r="T21" s="237"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="264"/>
-      <c r="B22" s="241" t="s">
+      <c r="A22" s="261"/>
+      <c r="B22" s="238" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="281"/>
-      <c r="D22" s="311"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="302"/>
       <c r="E22" s="65"/>
       <c r="F22" s="34"/>
       <c r="G22" s="66"/>
@@ -44714,20 +44918,20 @@
       <c r="L22" s="34"/>
       <c r="M22" s="154"/>
       <c r="N22" s="156"/>
-      <c r="O22" s="216"/>
-      <c r="P22" s="224"/>
-      <c r="Q22" s="224"/>
-      <c r="R22" s="224"/>
-      <c r="S22" s="224"/>
-      <c r="T22" s="217"/>
+      <c r="O22" s="288"/>
+      <c r="P22" s="236"/>
+      <c r="Q22" s="236"/>
+      <c r="R22" s="236"/>
+      <c r="S22" s="236"/>
+      <c r="T22" s="237"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="264"/>
-      <c r="B23" s="241" t="s">
+      <c r="A23" s="261"/>
+      <c r="B23" s="238" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="242"/>
-      <c r="D23" s="300"/>
+      <c r="C23" s="239"/>
+      <c r="D23" s="301"/>
       <c r="E23" s="65"/>
       <c r="F23" s="34"/>
       <c r="G23" s="66"/>
@@ -44738,20 +44942,20 @@
       <c r="L23" s="34"/>
       <c r="M23" s="154"/>
       <c r="N23" s="156"/>
-      <c r="O23" s="216"/>
-      <c r="P23" s="224"/>
-      <c r="Q23" s="224"/>
-      <c r="R23" s="224"/>
-      <c r="S23" s="224"/>
-      <c r="T23" s="217"/>
+      <c r="O23" s="288"/>
+      <c r="P23" s="236"/>
+      <c r="Q23" s="236"/>
+      <c r="R23" s="236"/>
+      <c r="S23" s="236"/>
+      <c r="T23" s="237"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="264"/>
-      <c r="B24" s="268" t="s">
+      <c r="A24" s="261"/>
+      <c r="B24" s="233" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="283"/>
-      <c r="D24" s="312"/>
+      <c r="C24" s="234"/>
+      <c r="D24" s="300"/>
       <c r="E24" s="65"/>
       <c r="F24" s="34"/>
       <c r="G24" s="66"/>
@@ -44762,20 +44966,20 @@
       <c r="L24" s="34"/>
       <c r="M24" s="154"/>
       <c r="N24" s="156"/>
-      <c r="O24" s="216"/>
-      <c r="P24" s="224"/>
-      <c r="Q24" s="224"/>
-      <c r="R24" s="224"/>
-      <c r="S24" s="224"/>
-      <c r="T24" s="217"/>
+      <c r="O24" s="288"/>
+      <c r="P24" s="236"/>
+      <c r="Q24" s="236"/>
+      <c r="R24" s="236"/>
+      <c r="S24" s="236"/>
+      <c r="T24" s="237"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="264"/>
-      <c r="B25" s="268" t="s">
+      <c r="A25" s="261"/>
+      <c r="B25" s="233" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="283"/>
-      <c r="D25" s="312"/>
+      <c r="C25" s="234"/>
+      <c r="D25" s="300"/>
       <c r="E25" s="65"/>
       <c r="F25" s="34"/>
       <c r="G25" s="66"/>
@@ -44786,20 +44990,20 @@
       <c r="L25" s="34"/>
       <c r="M25" s="154"/>
       <c r="N25" s="156"/>
-      <c r="O25" s="216"/>
-      <c r="P25" s="224"/>
-      <c r="Q25" s="224"/>
-      <c r="R25" s="224"/>
-      <c r="S25" s="224"/>
-      <c r="T25" s="217"/>
+      <c r="O25" s="288"/>
+      <c r="P25" s="236"/>
+      <c r="Q25" s="236"/>
+      <c r="R25" s="236"/>
+      <c r="S25" s="236"/>
+      <c r="T25" s="237"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="264"/>
-      <c r="B26" s="268" t="s">
+      <c r="A26" s="261"/>
+      <c r="B26" s="233" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="283"/>
-      <c r="D26" s="312"/>
+      <c r="C26" s="234"/>
+      <c r="D26" s="300"/>
       <c r="E26" s="65"/>
       <c r="F26" s="34"/>
       <c r="G26" s="66"/>
@@ -44810,20 +45014,20 @@
       <c r="L26" s="34"/>
       <c r="M26" s="154"/>
       <c r="N26" s="156"/>
-      <c r="O26" s="216"/>
-      <c r="P26" s="224"/>
-      <c r="Q26" s="224"/>
-      <c r="R26" s="224"/>
-      <c r="S26" s="224"/>
-      <c r="T26" s="217"/>
+      <c r="O26" s="288"/>
+      <c r="P26" s="236"/>
+      <c r="Q26" s="236"/>
+      <c r="R26" s="236"/>
+      <c r="S26" s="236"/>
+      <c r="T26" s="237"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="265"/>
-      <c r="B27" s="286" t="s">
+      <c r="A27" s="262"/>
+      <c r="B27" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="287"/>
-      <c r="D27" s="313"/>
+      <c r="C27" s="221"/>
+      <c r="D27" s="296"/>
       <c r="E27" s="71"/>
       <c r="F27" s="40"/>
       <c r="G27" s="72"/>
@@ -44834,22 +45038,22 @@
       <c r="L27" s="40"/>
       <c r="M27" s="40"/>
       <c r="N27" s="59"/>
-      <c r="O27" s="310"/>
-      <c r="P27" s="278"/>
-      <c r="Q27" s="278"/>
-      <c r="R27" s="278"/>
-      <c r="S27" s="278"/>
-      <c r="T27" s="280"/>
+      <c r="O27" s="297"/>
+      <c r="P27" s="225"/>
+      <c r="Q27" s="225"/>
+      <c r="R27" s="225"/>
+      <c r="S27" s="225"/>
+      <c r="T27" s="226"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="289" t="s">
+      <c r="B28" s="227" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="290"/>
-      <c r="D28" s="314"/>
+      <c r="C28" s="228"/>
+      <c r="D28" s="298"/>
       <c r="E28" s="73"/>
       <c r="F28" s="61"/>
       <c r="G28" s="74"/>
@@ -44860,17 +45064,17 @@
       <c r="L28" s="61"/>
       <c r="M28" s="61"/>
       <c r="N28" s="62"/>
-      <c r="O28" s="315"/>
-      <c r="P28" s="221"/>
-      <c r="Q28" s="221"/>
-      <c r="R28" s="221"/>
-      <c r="S28" s="221"/>
-      <c r="T28" s="231"/>
+      <c r="O28" s="299"/>
+      <c r="P28" s="231"/>
+      <c r="Q28" s="231"/>
+      <c r="R28" s="231"/>
+      <c r="S28" s="231"/>
+      <c r="T28" s="232"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="285"/>
-      <c r="C29" s="285"/>
-      <c r="D29" s="285"/>
+      <c r="B29" s="219"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="219"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="16" t="s">
@@ -44881,135 +45085,118 @@
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="212" t="s">
+      <c r="B31" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="212"/>
+      <c r="C31" s="173"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="212" t="s">
+      <c r="B32" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="212"/>
+      <c r="C32" s="173"/>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1">
       <c r="A33" s="19"/>
-      <c r="B33" s="212" t="s">
+      <c r="B33" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="212"/>
+      <c r="C33" s="173"/>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="212" t="s">
+      <c r="B34" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="212"/>
+      <c r="C34" s="173"/>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="212" t="s">
+      <c r="B35" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="212"/>
+      <c r="C35" s="173"/>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1">
-      <c r="B36" s="285"/>
-      <c r="C36" s="285"/>
-      <c r="D36" s="285"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="219"/>
+      <c r="D36" s="219"/>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1">
-      <c r="B37" s="285"/>
-      <c r="C37" s="285"/>
-      <c r="D37" s="285"/>
+      <c r="B37" s="219"/>
+      <c r="C37" s="219"/>
+      <c r="D37" s="219"/>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1">
-      <c r="B38" s="285"/>
-      <c r="C38" s="285"/>
-      <c r="D38" s="285"/>
+      <c r="B38" s="219"/>
+      <c r="C38" s="219"/>
+      <c r="D38" s="219"/>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1">
-      <c r="B39" s="285"/>
-      <c r="C39" s="285"/>
-      <c r="D39" s="285"/>
+      <c r="B39" s="219"/>
+      <c r="C39" s="219"/>
+      <c r="D39" s="219"/>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1">
-      <c r="B40" s="285"/>
-      <c r="C40" s="285"/>
-      <c r="D40" s="285"/>
+      <c r="B40" s="219"/>
+      <c r="C40" s="219"/>
+      <c r="D40" s="219"/>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1">
-      <c r="B41" s="285"/>
-      <c r="C41" s="285"/>
-      <c r="D41" s="285"/>
+      <c r="B41" s="219"/>
+      <c r="C41" s="219"/>
+      <c r="D41" s="219"/>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1">
-      <c r="B42" s="285"/>
-      <c r="C42" s="285"/>
-      <c r="D42" s="285"/>
+      <c r="B42" s="219"/>
+      <c r="C42" s="219"/>
+      <c r="D42" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="O12:P12"/>
@@ -45034,48 +45221,65 @@
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45097,75 +45301,75 @@
       <c r="B2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="222" t="s">
+      <c r="G2" s="291" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="223"/>
-      <c r="I2" s="229" t="s">
+      <c r="H2" s="292"/>
+      <c r="I2" s="281" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="224"/>
-      <c r="L2" s="222" t="s">
+      <c r="J2" s="236"/>
+      <c r="L2" s="291" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="223"/>
-      <c r="N2" s="229" t="s">
+      <c r="M2" s="292"/>
+      <c r="N2" s="281" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="224"/>
-      <c r="Q2" s="222" t="s">
+      <c r="O2" s="236"/>
+      <c r="Q2" s="291" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="223"/>
-      <c r="S2" s="224"/>
-      <c r="T2" s="224"/>
-      <c r="V2" s="222" t="s">
+      <c r="R2" s="292"/>
+      <c r="S2" s="236"/>
+      <c r="T2" s="236"/>
+      <c r="V2" s="291" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="223"/>
-      <c r="X2" s="224"/>
-      <c r="Y2" s="224"/>
+      <c r="W2" s="292"/>
+      <c r="X2" s="236"/>
+      <c r="Y2" s="236"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="D4" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="225" t="s">
+      <c r="E4" s="293" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="226"/>
-      <c r="G4" s="227" t="s">
+      <c r="F4" s="256"/>
+      <c r="G4" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="228"/>
-      <c r="I4" s="225" t="s">
+      <c r="H4" s="294"/>
+      <c r="I4" s="293" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="226"/>
-      <c r="K4" s="227" t="s">
+      <c r="J4" s="256"/>
+      <c r="K4" s="223" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="228"/>
-      <c r="M4" s="225" t="s">
+      <c r="L4" s="294"/>
+      <c r="M4" s="293" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="226"/>
+      <c r="N4" s="256"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D5" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="216"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="218"/>
-      <c r="H5" s="219"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="218"/>
-      <c r="L5" s="219"/>
-      <c r="M5" s="216"/>
-      <c r="N5" s="217"/>
+      <c r="E5" s="288"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="272"/>
+      <c r="H5" s="289"/>
+      <c r="I5" s="288"/>
+      <c r="J5" s="237"/>
+      <c r="K5" s="272"/>
+      <c r="L5" s="289"/>
+      <c r="M5" s="288"/>
+      <c r="N5" s="237"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D6" s="78" t="s">
@@ -45201,28 +45405,28 @@
       <c r="N6" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="316" t="s">
+      <c r="O6" s="319" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="230" t="s">
+      <c r="P6" s="231"/>
+      <c r="Q6" s="295" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="221"/>
-      <c r="S6" s="230" t="s">
+      <c r="R6" s="231"/>
+      <c r="S6" s="295" t="s">
         <v>68</v>
       </c>
-      <c r="T6" s="231"/>
+      <c r="T6" s="232"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="232" t="s">
+      <c r="A7" s="273" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="235" t="s">
+      <c r="B7" s="263" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="236"/>
-      <c r="D7" s="237"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="277"/>
       <c r="E7" s="93"/>
       <c r="F7" s="43"/>
       <c r="G7" s="45"/>
@@ -45233,20 +45437,20 @@
       <c r="L7" s="55"/>
       <c r="M7" s="93"/>
       <c r="N7" s="43"/>
-      <c r="O7" s="299"/>
-      <c r="P7" s="239"/>
-      <c r="Q7" s="239"/>
-      <c r="R7" s="239"/>
-      <c r="S7" s="239"/>
-      <c r="T7" s="240"/>
+      <c r="O7" s="311"/>
+      <c r="P7" s="279"/>
+      <c r="Q7" s="279"/>
+      <c r="R7" s="279"/>
+      <c r="S7" s="279"/>
+      <c r="T7" s="280"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="233"/>
-      <c r="B8" s="241" t="s">
+      <c r="A8" s="274"/>
+      <c r="B8" s="238" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="242"/>
-      <c r="D8" s="243"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="240"/>
       <c r="E8" s="37"/>
       <c r="F8" s="38"/>
       <c r="G8" s="46"/>
@@ -45257,20 +45461,20 @@
       <c r="L8" s="56"/>
       <c r="M8" s="37"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="216"/>
-      <c r="P8" s="224"/>
-      <c r="Q8" s="224"/>
-      <c r="R8" s="224"/>
-      <c r="S8" s="224"/>
-      <c r="T8" s="217"/>
+      <c r="O8" s="288"/>
+      <c r="P8" s="236"/>
+      <c r="Q8" s="236"/>
+      <c r="R8" s="236"/>
+      <c r="S8" s="236"/>
+      <c r="T8" s="237"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="233"/>
-      <c r="B9" s="241" t="s">
+      <c r="A9" s="274"/>
+      <c r="B9" s="238" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="242"/>
-      <c r="D9" s="243"/>
+      <c r="C9" s="239"/>
+      <c r="D9" s="240"/>
       <c r="E9" s="37"/>
       <c r="F9" s="38"/>
       <c r="G9" s="46"/>
@@ -45281,20 +45485,20 @@
       <c r="L9" s="56"/>
       <c r="M9" s="37"/>
       <c r="N9" s="38"/>
-      <c r="O9" s="216"/>
-      <c r="P9" s="224"/>
-      <c r="Q9" s="224"/>
-      <c r="R9" s="224"/>
-      <c r="S9" s="224"/>
-      <c r="T9" s="217"/>
+      <c r="O9" s="288"/>
+      <c r="P9" s="236"/>
+      <c r="Q9" s="236"/>
+      <c r="R9" s="236"/>
+      <c r="S9" s="236"/>
+      <c r="T9" s="237"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="233"/>
-      <c r="B10" s="241" t="s">
+      <c r="A10" s="274"/>
+      <c r="B10" s="238" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="242"/>
-      <c r="D10" s="243"/>
+      <c r="C10" s="239"/>
+      <c r="D10" s="240"/>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
       <c r="G10" s="46"/>
@@ -45305,20 +45509,20 @@
       <c r="L10" s="56"/>
       <c r="M10" s="37"/>
       <c r="N10" s="38"/>
-      <c r="O10" s="216"/>
-      <c r="P10" s="224"/>
-      <c r="Q10" s="224"/>
-      <c r="R10" s="224"/>
-      <c r="S10" s="224"/>
-      <c r="T10" s="217"/>
+      <c r="O10" s="288"/>
+      <c r="P10" s="236"/>
+      <c r="Q10" s="236"/>
+      <c r="R10" s="236"/>
+      <c r="S10" s="236"/>
+      <c r="T10" s="237"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="234"/>
-      <c r="B11" s="245" t="s">
+      <c r="A11" s="275"/>
+      <c r="B11" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="246"/>
-      <c r="D11" s="247"/>
+      <c r="C11" s="283"/>
+      <c r="D11" s="284"/>
       <c r="E11" s="94"/>
       <c r="F11" s="51"/>
       <c r="G11" s="49"/>
@@ -45329,22 +45533,22 @@
       <c r="L11" s="57"/>
       <c r="M11" s="94"/>
       <c r="N11" s="51"/>
-      <c r="O11" s="302"/>
-      <c r="P11" s="249"/>
-      <c r="Q11" s="249"/>
-      <c r="R11" s="249"/>
-      <c r="S11" s="249"/>
-      <c r="T11" s="250"/>
+      <c r="O11" s="313"/>
+      <c r="P11" s="286"/>
+      <c r="Q11" s="286"/>
+      <c r="R11" s="286"/>
+      <c r="S11" s="286"/>
+      <c r="T11" s="287"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="251" t="s">
+      <c r="A12" s="248" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="254" t="s">
+      <c r="B12" s="251" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="255"/>
-      <c r="D12" s="256"/>
+      <c r="C12" s="252"/>
+      <c r="D12" s="253"/>
       <c r="E12" s="35"/>
       <c r="F12" s="53"/>
       <c r="G12" s="52"/>
@@ -45355,20 +45559,20 @@
       <c r="L12" s="58"/>
       <c r="M12" s="35"/>
       <c r="N12" s="53"/>
-      <c r="O12" s="304"/>
-      <c r="P12" s="259"/>
-      <c r="Q12" s="259"/>
-      <c r="R12" s="259"/>
-      <c r="S12" s="259"/>
-      <c r="T12" s="226"/>
+      <c r="O12" s="305"/>
+      <c r="P12" s="224"/>
+      <c r="Q12" s="224"/>
+      <c r="R12" s="224"/>
+      <c r="S12" s="224"/>
+      <c r="T12" s="256"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="252"/>
-      <c r="B13" s="260" t="s">
+      <c r="A13" s="249"/>
+      <c r="B13" s="257" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="261"/>
-      <c r="D13" s="262"/>
+      <c r="C13" s="258"/>
+      <c r="D13" s="259"/>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
       <c r="G13" s="46"/>
@@ -45379,20 +45583,20 @@
       <c r="L13" s="56"/>
       <c r="M13" s="37"/>
       <c r="N13" s="38"/>
-      <c r="O13" s="216"/>
-      <c r="P13" s="224"/>
-      <c r="Q13" s="224"/>
-      <c r="R13" s="224"/>
-      <c r="S13" s="224"/>
-      <c r="T13" s="217"/>
+      <c r="O13" s="288"/>
+      <c r="P13" s="236"/>
+      <c r="Q13" s="236"/>
+      <c r="R13" s="236"/>
+      <c r="S13" s="236"/>
+      <c r="T13" s="237"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="252"/>
-      <c r="B14" s="260" t="s">
+      <c r="A14" s="249"/>
+      <c r="B14" s="257" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="271"/>
-      <c r="D14" s="272"/>
+      <c r="C14" s="269"/>
+      <c r="D14" s="270"/>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
       <c r="G14" s="46"/>
@@ -45403,20 +45607,20 @@
       <c r="L14" s="56"/>
       <c r="M14" s="37"/>
       <c r="N14" s="38"/>
-      <c r="O14" s="216"/>
-      <c r="P14" s="224"/>
-      <c r="Q14" s="224"/>
-      <c r="R14" s="224"/>
-      <c r="S14" s="224"/>
-      <c r="T14" s="217"/>
+      <c r="O14" s="288"/>
+      <c r="P14" s="236"/>
+      <c r="Q14" s="236"/>
+      <c r="R14" s="236"/>
+      <c r="S14" s="236"/>
+      <c r="T14" s="237"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="253"/>
-      <c r="B15" s="274" t="s">
+      <c r="A15" s="250"/>
+      <c r="B15" s="243" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="275"/>
-      <c r="D15" s="276"/>
+      <c r="C15" s="244"/>
+      <c r="D15" s="245"/>
       <c r="E15" s="95"/>
       <c r="F15" s="41"/>
       <c r="G15" s="47"/>
@@ -45427,22 +45631,22 @@
       <c r="L15" s="59"/>
       <c r="M15" s="95"/>
       <c r="N15" s="41"/>
-      <c r="O15" s="310"/>
-      <c r="P15" s="278"/>
-      <c r="Q15" s="278"/>
-      <c r="R15" s="278"/>
-      <c r="S15" s="278"/>
-      <c r="T15" s="280"/>
+      <c r="O15" s="297"/>
+      <c r="P15" s="225"/>
+      <c r="Q15" s="225"/>
+      <c r="R15" s="225"/>
+      <c r="S15" s="225"/>
+      <c r="T15" s="226"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="263" t="s">
+      <c r="A16" s="260" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="235" t="s">
+      <c r="B16" s="263" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="266"/>
-      <c r="D16" s="267"/>
+      <c r="C16" s="264"/>
+      <c r="D16" s="265"/>
       <c r="E16" s="35"/>
       <c r="F16" s="53"/>
       <c r="G16" s="52"/>
@@ -45453,20 +45657,20 @@
       <c r="L16" s="58"/>
       <c r="M16" s="35"/>
       <c r="N16" s="53"/>
-      <c r="O16" s="304"/>
-      <c r="P16" s="259"/>
-      <c r="Q16" s="259"/>
-      <c r="R16" s="259"/>
-      <c r="S16" s="259"/>
-      <c r="T16" s="226"/>
+      <c r="O16" s="305"/>
+      <c r="P16" s="224"/>
+      <c r="Q16" s="224"/>
+      <c r="R16" s="224"/>
+      <c r="S16" s="224"/>
+      <c r="T16" s="256"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="264"/>
-      <c r="B17" s="268" t="s">
+      <c r="A17" s="261"/>
+      <c r="B17" s="233" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="269"/>
-      <c r="D17" s="270"/>
+      <c r="C17" s="266"/>
+      <c r="D17" s="267"/>
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
       <c r="G17" s="46"/>
@@ -45477,20 +45681,20 @@
       <c r="L17" s="56"/>
       <c r="M17" s="37"/>
       <c r="N17" s="38"/>
-      <c r="O17" s="216"/>
-      <c r="P17" s="224"/>
-      <c r="Q17" s="224"/>
-      <c r="R17" s="224"/>
-      <c r="S17" s="224"/>
-      <c r="T17" s="217"/>
+      <c r="O17" s="288"/>
+      <c r="P17" s="236"/>
+      <c r="Q17" s="236"/>
+      <c r="R17" s="236"/>
+      <c r="S17" s="236"/>
+      <c r="T17" s="237"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="264"/>
-      <c r="B18" s="268" t="s">
+      <c r="A18" s="261"/>
+      <c r="B18" s="233" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="269"/>
-      <c r="D18" s="270"/>
+      <c r="C18" s="266"/>
+      <c r="D18" s="267"/>
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
       <c r="G18" s="46"/>
@@ -45501,20 +45705,20 @@
       <c r="L18" s="56"/>
       <c r="M18" s="37"/>
       <c r="N18" s="38"/>
-      <c r="O18" s="216"/>
-      <c r="P18" s="224"/>
-      <c r="Q18" s="224"/>
-      <c r="R18" s="224"/>
-      <c r="S18" s="224"/>
-      <c r="T18" s="217"/>
+      <c r="O18" s="288"/>
+      <c r="P18" s="236"/>
+      <c r="Q18" s="236"/>
+      <c r="R18" s="236"/>
+      <c r="S18" s="236"/>
+      <c r="T18" s="237"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="264"/>
-      <c r="B19" s="241" t="s">
+      <c r="A19" s="261"/>
+      <c r="B19" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="281"/>
-      <c r="D19" s="282"/>
+      <c r="C19" s="241"/>
+      <c r="D19" s="242"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
       <c r="G19" s="46"/>
@@ -45525,20 +45729,20 @@
       <c r="L19" s="56"/>
       <c r="M19" s="37"/>
       <c r="N19" s="38"/>
-      <c r="O19" s="216"/>
-      <c r="P19" s="224"/>
-      <c r="Q19" s="224"/>
-      <c r="R19" s="224"/>
-      <c r="S19" s="224"/>
-      <c r="T19" s="217"/>
+      <c r="O19" s="288"/>
+      <c r="P19" s="236"/>
+      <c r="Q19" s="236"/>
+      <c r="R19" s="236"/>
+      <c r="S19" s="236"/>
+      <c r="T19" s="237"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="264"/>
-      <c r="B20" s="241" t="s">
+      <c r="A20" s="261"/>
+      <c r="B20" s="238" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="281"/>
-      <c r="D20" s="282"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="242"/>
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
       <c r="G20" s="46"/>
@@ -45549,20 +45753,20 @@
       <c r="L20" s="56"/>
       <c r="M20" s="37"/>
       <c r="N20" s="38"/>
-      <c r="O20" s="216"/>
-      <c r="P20" s="224"/>
-      <c r="Q20" s="224"/>
-      <c r="R20" s="224"/>
-      <c r="S20" s="224"/>
-      <c r="T20" s="217"/>
+      <c r="O20" s="288"/>
+      <c r="P20" s="236"/>
+      <c r="Q20" s="236"/>
+      <c r="R20" s="236"/>
+      <c r="S20" s="236"/>
+      <c r="T20" s="237"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="264"/>
-      <c r="B21" s="241" t="s">
+      <c r="A21" s="261"/>
+      <c r="B21" s="238" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="281"/>
-      <c r="D21" s="282"/>
+      <c r="C21" s="241"/>
+      <c r="D21" s="242"/>
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
       <c r="G21" s="46"/>
@@ -45573,20 +45777,20 @@
       <c r="L21" s="56"/>
       <c r="M21" s="37"/>
       <c r="N21" s="38"/>
-      <c r="O21" s="216"/>
-      <c r="P21" s="224"/>
-      <c r="Q21" s="224"/>
-      <c r="R21" s="224"/>
-      <c r="S21" s="224"/>
-      <c r="T21" s="217"/>
+      <c r="O21" s="288"/>
+      <c r="P21" s="236"/>
+      <c r="Q21" s="236"/>
+      <c r="R21" s="236"/>
+      <c r="S21" s="236"/>
+      <c r="T21" s="237"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="264"/>
-      <c r="B22" s="241" t="s">
+      <c r="A22" s="261"/>
+      <c r="B22" s="238" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="281"/>
-      <c r="D22" s="282"/>
+      <c r="C22" s="241"/>
+      <c r="D22" s="242"/>
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
       <c r="G22" s="46"/>
@@ -45597,20 +45801,20 @@
       <c r="L22" s="56"/>
       <c r="M22" s="37"/>
       <c r="N22" s="38"/>
-      <c r="O22" s="216"/>
-      <c r="P22" s="224"/>
-      <c r="Q22" s="224"/>
-      <c r="R22" s="224"/>
-      <c r="S22" s="224"/>
-      <c r="T22" s="217"/>
+      <c r="O22" s="288"/>
+      <c r="P22" s="236"/>
+      <c r="Q22" s="236"/>
+      <c r="R22" s="236"/>
+      <c r="S22" s="236"/>
+      <c r="T22" s="237"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="264"/>
-      <c r="B23" s="241" t="s">
+      <c r="A23" s="261"/>
+      <c r="B23" s="238" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="242"/>
-      <c r="D23" s="243"/>
+      <c r="C23" s="239"/>
+      <c r="D23" s="240"/>
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
       <c r="G23" s="46"/>
@@ -45621,20 +45825,20 @@
       <c r="L23" s="56"/>
       <c r="M23" s="37"/>
       <c r="N23" s="38"/>
-      <c r="O23" s="216"/>
-      <c r="P23" s="224"/>
-      <c r="Q23" s="224"/>
-      <c r="R23" s="224"/>
-      <c r="S23" s="224"/>
-      <c r="T23" s="217"/>
+      <c r="O23" s="288"/>
+      <c r="P23" s="236"/>
+      <c r="Q23" s="236"/>
+      <c r="R23" s="236"/>
+      <c r="S23" s="236"/>
+      <c r="T23" s="237"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="264"/>
-      <c r="B24" s="268" t="s">
+      <c r="A24" s="261"/>
+      <c r="B24" s="233" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="283"/>
-      <c r="D24" s="284"/>
+      <c r="C24" s="234"/>
+      <c r="D24" s="235"/>
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
       <c r="G24" s="46"/>
@@ -45645,20 +45849,20 @@
       <c r="L24" s="56"/>
       <c r="M24" s="37"/>
       <c r="N24" s="38"/>
-      <c r="O24" s="216"/>
-      <c r="P24" s="224"/>
-      <c r="Q24" s="224"/>
-      <c r="R24" s="224"/>
-      <c r="S24" s="224"/>
-      <c r="T24" s="217"/>
+      <c r="O24" s="288"/>
+      <c r="P24" s="236"/>
+      <c r="Q24" s="236"/>
+      <c r="R24" s="236"/>
+      <c r="S24" s="236"/>
+      <c r="T24" s="237"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="264"/>
-      <c r="B25" s="268" t="s">
+      <c r="A25" s="261"/>
+      <c r="B25" s="233" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="283"/>
-      <c r="D25" s="284"/>
+      <c r="C25" s="234"/>
+      <c r="D25" s="235"/>
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
       <c r="G25" s="46"/>
@@ -45669,20 +45873,20 @@
       <c r="L25" s="56"/>
       <c r="M25" s="37"/>
       <c r="N25" s="38"/>
-      <c r="O25" s="216"/>
-      <c r="P25" s="224"/>
-      <c r="Q25" s="224"/>
-      <c r="R25" s="224"/>
-      <c r="S25" s="224"/>
-      <c r="T25" s="217"/>
+      <c r="O25" s="288"/>
+      <c r="P25" s="236"/>
+      <c r="Q25" s="236"/>
+      <c r="R25" s="236"/>
+      <c r="S25" s="236"/>
+      <c r="T25" s="237"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="264"/>
-      <c r="B26" s="268" t="s">
+      <c r="A26" s="261"/>
+      <c r="B26" s="233" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="283"/>
-      <c r="D26" s="284"/>
+      <c r="C26" s="234"/>
+      <c r="D26" s="235"/>
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
       <c r="G26" s="46"/>
@@ -45693,20 +45897,20 @@
       <c r="L26" s="56"/>
       <c r="M26" s="37"/>
       <c r="N26" s="38"/>
-      <c r="O26" s="216"/>
-      <c r="P26" s="224"/>
-      <c r="Q26" s="224"/>
-      <c r="R26" s="224"/>
-      <c r="S26" s="224"/>
-      <c r="T26" s="217"/>
+      <c r="O26" s="288"/>
+      <c r="P26" s="236"/>
+      <c r="Q26" s="236"/>
+      <c r="R26" s="236"/>
+      <c r="S26" s="236"/>
+      <c r="T26" s="237"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="265"/>
-      <c r="B27" s="286" t="s">
+      <c r="A27" s="262"/>
+      <c r="B27" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="287"/>
-      <c r="D27" s="288"/>
+      <c r="C27" s="221"/>
+      <c r="D27" s="222"/>
       <c r="E27" s="95"/>
       <c r="F27" s="41"/>
       <c r="G27" s="47"/>
@@ -45717,22 +45921,22 @@
       <c r="L27" s="59"/>
       <c r="M27" s="95"/>
       <c r="N27" s="41"/>
-      <c r="O27" s="310"/>
-      <c r="P27" s="278"/>
-      <c r="Q27" s="278"/>
-      <c r="R27" s="278"/>
-      <c r="S27" s="278"/>
-      <c r="T27" s="280"/>
+      <c r="O27" s="297"/>
+      <c r="P27" s="225"/>
+      <c r="Q27" s="225"/>
+      <c r="R27" s="225"/>
+      <c r="S27" s="225"/>
+      <c r="T27" s="226"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="289" t="s">
+      <c r="B28" s="227" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="290"/>
-      <c r="D28" s="291"/>
+      <c r="C28" s="228"/>
+      <c r="D28" s="229"/>
       <c r="E28" s="96"/>
       <c r="F28" s="97"/>
       <c r="G28" s="60"/>
@@ -45743,17 +45947,17 @@
       <c r="L28" s="62"/>
       <c r="M28" s="96"/>
       <c r="N28" s="97"/>
-      <c r="O28" s="315"/>
-      <c r="P28" s="221"/>
-      <c r="Q28" s="221"/>
-      <c r="R28" s="221"/>
-      <c r="S28" s="221"/>
-      <c r="T28" s="231"/>
+      <c r="O28" s="299"/>
+      <c r="P28" s="231"/>
+      <c r="Q28" s="231"/>
+      <c r="R28" s="231"/>
+      <c r="S28" s="231"/>
+      <c r="T28" s="232"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="285"/>
-      <c r="C29" s="285"/>
-      <c r="D29" s="285"/>
+      <c r="B29" s="219"/>
+      <c r="C29" s="219"/>
+      <c r="D29" s="219"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="16" t="s">
@@ -45764,96 +45968,150 @@
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="212" t="s">
+      <c r="B31" s="173" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="212"/>
+      <c r="C31" s="173"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="212" t="s">
+      <c r="B32" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="212"/>
+      <c r="C32" s="173"/>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1">
       <c r="A33" s="19"/>
-      <c r="B33" s="212" t="s">
+      <c r="B33" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="212"/>
+      <c r="C33" s="173"/>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="212" t="s">
+      <c r="B34" s="173" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="212"/>
+      <c r="C34" s="173"/>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1">
-      <c r="B35" s="285"/>
-      <c r="C35" s="285"/>
-      <c r="D35" s="285"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="219"/>
+      <c r="D35" s="219"/>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1">
-      <c r="B36" s="285"/>
-      <c r="C36" s="285"/>
-      <c r="D36" s="285"/>
+      <c r="B36" s="219"/>
+      <c r="C36" s="219"/>
+      <c r="D36" s="219"/>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1">
-      <c r="B37" s="285"/>
-      <c r="C37" s="285"/>
-      <c r="D37" s="285"/>
+      <c r="B37" s="219"/>
+      <c r="C37" s="219"/>
+      <c r="D37" s="219"/>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1">
-      <c r="B38" s="285"/>
-      <c r="C38" s="285"/>
-      <c r="D38" s="285"/>
+      <c r="B38" s="219"/>
+      <c r="C38" s="219"/>
+      <c r="D38" s="219"/>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1">
-      <c r="B39" s="285"/>
-      <c r="C39" s="285"/>
-      <c r="D39" s="285"/>
+      <c r="B39" s="219"/>
+      <c r="C39" s="219"/>
+      <c r="D39" s="219"/>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1">
-      <c r="B40" s="285"/>
-      <c r="C40" s="285"/>
-      <c r="D40" s="285"/>
+      <c r="B40" s="219"/>
+      <c r="C40" s="219"/>
+      <c r="D40" s="219"/>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1">
-      <c r="B41" s="285"/>
-      <c r="C41" s="285"/>
-      <c r="D41" s="285"/>
+      <c r="B41" s="219"/>
+      <c r="C41" s="219"/>
+      <c r="D41" s="219"/>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1">
-      <c r="B42" s="285"/>
-      <c r="C42" s="285"/>
-      <c r="D42" s="285"/>
+      <c r="B42" s="219"/>
+      <c r="C42" s="219"/>
+      <c r="D42" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="Q10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S11:T11"/>
@@ -45878,85 +46136,31 @@
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="S21:T21"/>
     <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="O28:P28"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A12:A15"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/30_工程表/工程表_第2版.xlsx
+++ b/doc/30_工程表/工程表_第2版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\doc\30_工程表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E4\doc\30_工程表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D88F3B-6452-4CBD-9395-EBADE9E41D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC30DE7-42F1-45A6-A9AC-6F83E0E66C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="月間" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="113">
   <si>
     <t>年</t>
   </si>
@@ -68,12 +68,6 @@
   </si>
   <si>
     <t>サイト構成</t>
-  </si>
-  <si>
-    <t>ページ資料</t>
-  </si>
-  <si>
-    <t>デザイン</t>
   </si>
   <si>
     <t>コンテンツ入力</t>
@@ -425,13 +419,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>コミュニケーション機能</t>
-    <rPh sb="9" eb="11">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>開催場所表示</t>
     <rPh sb="0" eb="4">
       <t>カイサイバショ</t>
@@ -569,13 +556,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>開催場所表示</t>
-    <rPh sb="0" eb="6">
-      <t>カイサイバショヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>講義あり</t>
     <rPh sb="0" eb="2">
       <t>コウギ</t>
@@ -687,17 +667,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>岡崎一志</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>紺野由夏</t>
-    <rPh sb="0" eb="4">
-      <t>コンノユカ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>藤川開斗</t>
     <rPh sb="0" eb="4">
       <t>フジカワカイト</t>
@@ -714,6 +683,149 @@
   </si>
   <si>
     <t>佐々木尚輝</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ドキュメント作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>デザイン</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>素材用意</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>紺野由夏</t>
+    <rPh sb="0" eb="4">
+      <t>コンノユカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ヘッダー・フッター</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>TOP画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>アイコン設定画面</t>
+    <rPh sb="4" eb="8">
+      <t>セッテイガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>イベント一覧</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>イベント詳細</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>未参加</t>
+    <rPh sb="0" eb="3">
+      <t>ミサンカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>参加者</t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>主催者</t>
+    <rPh sb="0" eb="3">
+      <t>シュサイシャ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>参加イベント一覧</t>
+    <rPh sb="0" eb="2">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>作成イベント一覧</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>レビュー画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>福岡竜大</t>
+    <rPh sb="0" eb="2">
+      <t>フクオカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リュウダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>半分達成</t>
+    <rPh sb="0" eb="2">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タッセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ダミーデータ用意</t>
+    <rPh sb="6" eb="8">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>佐々木尚輝</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>岡崎一志</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -932,7 +1044,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="95">
+  <borders count="96">
     <border>
       <left/>
       <right/>
@@ -2190,11 +2302,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2696,104 +2821,20 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2819,10 +2860,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2835,15 +2894,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2852,61 +2929,151 @@
     <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2918,25 +3085,25 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2963,7 +3130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2984,23 +3151,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3011,101 +3175,92 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3125,38 +3280,29 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3209,7 +3355,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>305859</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>254000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3331,11 +3477,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:colOff>137458</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>254001</xdr:rowOff>
+      <xdr:rowOff>110566</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1320800" cy="338041"/>
+    <xdr:ext cx="1377577" cy="929340"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="テキスト ボックス 13">
@@ -3349,8 +3495,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6011333" y="3928534"/>
-          <a:ext cx="1320800" cy="338041"/>
+          <a:off x="6036234" y="3759201"/>
+          <a:ext cx="1377577" cy="929340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3377,8 +3523,8 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
@@ -3402,7 +3548,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>306705</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>255905</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3453,7 +3599,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>169333</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>107577</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3630,13 +3776,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>8467</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>93132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>287866</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>186267</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3848,13 +3994,13 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>59900</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>42334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>262466</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3931,9 +4077,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>287866</xdr:colOff>
+      <xdr:colOff>296830</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>254001</xdr:rowOff>
+      <xdr:rowOff>92637</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1363133" cy="581954"/>
     <xdr:sp macro="" textlink="">
@@ -3949,7 +4095,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8703733" y="3928534"/>
+          <a:off x="8705724" y="3741272"/>
           <a:ext cx="1363133" cy="581954"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4051,7 +4197,7 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>203201</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1202267" cy="2006600"/>
@@ -4184,12 +4330,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>152401</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>197225</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>245535</xdr:rowOff>
+      <xdr:rowOff>254500</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1320799" cy="338041"/>
+    <xdr:ext cx="1757081" cy="588182"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="36" name="テキスト ボックス 35">
@@ -4203,8 +4349,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8881534" y="2802468"/>
-          <a:ext cx="1320799" cy="338041"/>
+          <a:off x="8606119" y="2791512"/>
+          <a:ext cx="1757081" cy="588182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4255,7 +4401,7 @@
           </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>コーディング</a:t>
+            <a:t>テスト・コーディング</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
@@ -4305,7 +4451,7 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>42334</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>262468</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="550333" cy="336246"/>
@@ -4369,7 +4515,7 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>33865</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>262467</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="491067" cy="338667"/>
@@ -5668,10 +5814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F461FB36-AA5C-4255-9DAB-20DEB8CADCD8}">
-  <dimension ref="A1:AO1005"/>
+  <dimension ref="A1:AO1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q9:Q10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL30" sqref="AL30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
@@ -5724,18 +5870,18 @@
       <c r="AJ1" s="2"/>
     </row>
     <row r="2" spans="1:41" ht="22.5" customHeight="1">
-      <c r="B2" s="209">
+      <c r="B2" s="182">
         <v>2024</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
       <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="209">
+      <c r="F2" s="182">
         <v>6</v>
       </c>
-      <c r="G2" s="190"/>
+      <c r="G2" s="183"/>
       <c r="H2" s="12" t="s">
         <v>1</v>
       </c>
@@ -5808,57 +5954,57 @@
       <c r="AJ3" s="3"/>
     </row>
     <row r="4" spans="1:41" ht="19.5" customHeight="1">
-      <c r="B4" s="198" t="s">
+      <c r="B4" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="196"/>
-      <c r="F4" s="195" t="s">
-        <v>31</v>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="187" t="s">
+        <v>29</v>
       </c>
-      <c r="G4" s="194"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="194"/>
-      <c r="J4" s="196"/>
-      <c r="K4" s="198" t="s">
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="194"/>
-      <c r="M4" s="194"/>
-      <c r="N4" s="196"/>
-      <c r="O4" s="195" t="s">
-        <v>31</v>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="186"/>
+      <c r="O4" s="187" t="s">
+        <v>29</v>
       </c>
-      <c r="P4" s="194"/>
-      <c r="Q4" s="194"/>
-      <c r="R4" s="194"/>
-      <c r="S4" s="196"/>
-      <c r="T4" s="198" t="s">
+      <c r="P4" s="185"/>
+      <c r="Q4" s="185"/>
+      <c r="R4" s="185"/>
+      <c r="S4" s="186"/>
+      <c r="T4" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="194"/>
-      <c r="V4" s="194"/>
-      <c r="W4" s="196"/>
-      <c r="X4" s="199">
+      <c r="U4" s="185"/>
+      <c r="V4" s="185"/>
+      <c r="W4" s="186"/>
+      <c r="X4" s="215">
         <v>45451</v>
       </c>
-      <c r="Y4" s="194"/>
-      <c r="Z4" s="194"/>
-      <c r="AA4" s="194"/>
-      <c r="AB4" s="196"/>
-      <c r="AC4" s="198" t="s">
+      <c r="Y4" s="185"/>
+      <c r="Z4" s="185"/>
+      <c r="AA4" s="185"/>
+      <c r="AB4" s="186"/>
+      <c r="AC4" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="194"/>
-      <c r="AE4" s="194"/>
-      <c r="AF4" s="194"/>
-      <c r="AG4" s="184">
+      <c r="AD4" s="185"/>
+      <c r="AE4" s="185"/>
+      <c r="AF4" s="185"/>
+      <c r="AG4" s="205">
         <v>45451</v>
       </c>
-      <c r="AH4" s="185"/>
-      <c r="AI4" s="185"/>
-      <c r="AJ4" s="185"/>
+      <c r="AH4" s="206"/>
+      <c r="AI4" s="206"/>
+      <c r="AJ4" s="206"/>
     </row>
     <row r="5" spans="1:41" ht="18.75" customHeight="1">
       <c r="B5" s="2"/>
@@ -5898,52 +6044,52 @@
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:41" ht="18.75" customHeight="1">
-      <c r="B6" s="186"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="188"/>
+      <c r="B6" s="207"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="196"/>
       <c r="F6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="193">
+      <c r="G6" s="211">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
-      <c r="L6" s="194"/>
-      <c r="M6" s="194"/>
-      <c r="N6" s="194"/>
-      <c r="O6" s="194"/>
-      <c r="P6" s="194"/>
-      <c r="Q6" s="194"/>
-      <c r="R6" s="194"/>
-      <c r="S6" s="194"/>
-      <c r="T6" s="194"/>
-      <c r="U6" s="194"/>
-      <c r="V6" s="194"/>
-      <c r="W6" s="194"/>
-      <c r="X6" s="194"/>
-      <c r="Y6" s="194"/>
-      <c r="Z6" s="194"/>
-      <c r="AA6" s="194"/>
-      <c r="AB6" s="194"/>
-      <c r="AC6" s="194"/>
-      <c r="AD6" s="194"/>
-      <c r="AE6" s="194"/>
-      <c r="AF6" s="194"/>
-      <c r="AG6" s="194"/>
-      <c r="AH6" s="194"/>
-      <c r="AI6" s="194"/>
-      <c r="AJ6" s="194"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="185"/>
+      <c r="K6" s="185"/>
+      <c r="L6" s="185"/>
+      <c r="M6" s="185"/>
+      <c r="N6" s="185"/>
+      <c r="O6" s="185"/>
+      <c r="P6" s="185"/>
+      <c r="Q6" s="185"/>
+      <c r="R6" s="185"/>
+      <c r="S6" s="185"/>
+      <c r="T6" s="185"/>
+      <c r="U6" s="185"/>
+      <c r="V6" s="185"/>
+      <c r="W6" s="185"/>
+      <c r="X6" s="185"/>
+      <c r="Y6" s="185"/>
+      <c r="Z6" s="185"/>
+      <c r="AA6" s="185"/>
+      <c r="AB6" s="185"/>
+      <c r="AC6" s="185"/>
+      <c r="AD6" s="185"/>
+      <c r="AE6" s="185"/>
+      <c r="AF6" s="185"/>
+      <c r="AG6" s="185"/>
+      <c r="AH6" s="185"/>
+      <c r="AI6" s="185"/>
+      <c r="AJ6" s="185"/>
     </row>
     <row r="7" spans="1:41" ht="22.5" customHeight="1">
-      <c r="B7" s="189"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="191"/>
+      <c r="B7" s="208"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="209"/>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
@@ -6069,10 +6215,10 @@
       </c>
     </row>
     <row r="8" spans="1:41" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B8" s="189"/>
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="191"/>
+      <c r="B8" s="208"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="209"/>
       <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
@@ -6197,29 +6343,29 @@
         <v>日</v>
       </c>
       <c r="AK8" s="113" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL8" s="113" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM8" s="113" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO8" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A9" s="200" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="197" t="s">
+      <c r="A9" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="183"/>
+      <c r="B9" s="212" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="214"/>
       <c r="G9" s="117"/>
       <c r="H9" s="118"/>
       <c r="I9" s="118"/>
@@ -6230,8 +6376,8 @@
       <c r="N9" s="118"/>
       <c r="O9" s="118"/>
       <c r="P9" s="166"/>
-      <c r="Q9" s="320"/>
-      <c r="R9" s="119"/>
+      <c r="Q9" s="167"/>
+      <c r="R9" s="167"/>
       <c r="S9" s="119"/>
       <c r="T9" s="119"/>
       <c r="U9" s="118"/>
@@ -6251,27 +6397,27 @@
       <c r="AI9" s="118"/>
       <c r="AJ9" s="118"/>
       <c r="AK9" s="120" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AL9" s="120" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AM9" s="121">
         <v>0</v>
       </c>
       <c r="AO9" s="16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A10" s="201"/>
-      <c r="B10" s="215" t="s">
-        <v>17</v>
+      <c r="A10" s="173"/>
+      <c r="B10" s="193" t="s">
+        <v>15</v>
       </c>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="196"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="186"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -6283,7 +6429,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="31"/>
-      <c r="R10" s="13"/>
+      <c r="R10" s="31"/>
       <c r="S10" s="13"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
@@ -6303,25 +6449,25 @@
       <c r="AI10" s="11"/>
       <c r="AJ10" s="11"/>
       <c r="AK10" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AL10" s="15"/>
       <c r="AM10" s="122">
         <v>0</v>
       </c>
       <c r="AO10" s="16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A11" s="201"/>
-      <c r="B11" s="215" t="s">
-        <v>14</v>
+      <c r="A11" s="173"/>
+      <c r="B11" s="193" t="s">
+        <v>12</v>
       </c>
-      <c r="C11" s="194"/>
-      <c r="D11" s="194"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="196"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="186"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -6333,7 +6479,7 @@
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
-      <c r="R11" s="13"/>
+      <c r="R11" s="31"/>
       <c r="S11" s="13"/>
       <c r="T11" s="11"/>
       <c r="U11" s="9"/>
@@ -6353,25 +6499,25 @@
       <c r="AI11" s="11"/>
       <c r="AJ11" s="11"/>
       <c r="AK11" s="15" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AL11" s="15"/>
       <c r="AM11" s="122">
         <v>0</v>
       </c>
       <c r="AO11" s="16" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A12" s="201"/>
-      <c r="B12" s="215" t="s">
-        <v>15</v>
+      <c r="A12" s="173"/>
+      <c r="B12" s="193" t="s">
+        <v>13</v>
       </c>
-      <c r="C12" s="194"/>
-      <c r="D12" s="194"/>
-      <c r="E12" s="194"/>
-      <c r="F12" s="196"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="186"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -6403,27 +6549,27 @@
       <c r="AI12" s="11"/>
       <c r="AJ12" s="11"/>
       <c r="AK12" s="15" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="AL12" s="15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AM12" s="122">
         <v>0</v>
       </c>
       <c r="AO12" s="16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:41" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A13" s="202"/>
-      <c r="B13" s="216" t="s">
-        <v>16</v>
+      <c r="A13" s="174"/>
+      <c r="B13" s="194" t="s">
+        <v>14</v>
       </c>
-      <c r="C13" s="187"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="188"/>
+      <c r="C13" s="195"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="196"/>
       <c r="G13" s="28"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -6455,27 +6601,27 @@
       <c r="AI13" s="9"/>
       <c r="AJ13" s="9"/>
       <c r="AK13" s="113" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AL13" s="113"/>
       <c r="AM13" s="128">
         <v>0</v>
       </c>
       <c r="AO13" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A14" s="203" t="s">
-        <v>21</v>
+      <c r="A14" s="175" t="s">
+        <v>19</v>
       </c>
-      <c r="B14" s="213" t="s">
+      <c r="B14" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="214"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="214"/>
-      <c r="F14" s="214"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
       <c r="G14" s="129"/>
       <c r="H14" s="129"/>
       <c r="I14" s="130"/>
@@ -6487,7 +6633,7 @@
       <c r="O14" s="118"/>
       <c r="P14" s="165"/>
       <c r="Q14" s="166"/>
-      <c r="R14" s="119"/>
+      <c r="R14" s="169"/>
       <c r="S14" s="119"/>
       <c r="T14" s="118"/>
       <c r="U14" s="118"/>
@@ -6507,24 +6653,24 @@
       <c r="AI14" s="118"/>
       <c r="AJ14" s="118"/>
       <c r="AK14" s="120" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="AL14" s="120" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AM14" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A15" s="204"/>
-      <c r="B15" s="177" t="s">
-        <v>10</v>
+      <c r="A15" s="176"/>
+      <c r="B15" s="216" t="s">
+        <v>93</v>
       </c>
-      <c r="C15" s="178"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="178"/>
-      <c r="F15" s="178"/>
+      <c r="C15" s="217"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="217"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="29"/>
@@ -6536,7 +6682,7 @@
       <c r="O15" s="14"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="13"/>
+      <c r="R15" s="170"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
       <c r="U15" s="11"/>
@@ -6556,263 +6702,265 @@
       <c r="AI15" s="11"/>
       <c r="AJ15" s="11"/>
       <c r="AK15" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
-      <c r="AL15" s="15"/>
+      <c r="AL15" s="15" t="s">
+        <v>96</v>
+      </c>
       <c r="AM15" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A16" s="204"/>
-      <c r="B16" s="177" t="s">
-        <v>11</v>
+      <c r="A16" s="176"/>
+      <c r="B16" s="216" t="s">
+        <v>94</v>
       </c>
-      <c r="C16" s="178"/>
-      <c r="D16" s="178"/>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
+      <c r="C16" s="217"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="217"/>
+      <c r="F16" s="217"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="32"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="31"/>
       <c r="M16" s="18"/>
       <c r="N16" s="11"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="22"/>
+      <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="13"/>
+      <c r="R16" s="170"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="13"/>
       <c r="X16" s="13"/>
-      <c r="Y16" s="11"/>
+      <c r="Y16" s="13"/>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
       <c r="AC16" s="11"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
       <c r="AF16" s="11"/>
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
       <c r="AI16" s="11"/>
       <c r="AJ16" s="11"/>
       <c r="AK16" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
-      <c r="AL16" s="15" t="s">
-        <v>84</v>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="122"/>
+    </row>
+    <row r="17" spans="1:39" ht="22.5" customHeight="1">
+      <c r="A17" s="176"/>
+      <c r="B17" s="218" t="s">
+        <v>95</v>
       </c>
-      <c r="AM16" s="122">
-        <v>0</v>
+      <c r="C17" s="219"/>
+      <c r="D17" s="219"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="219"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="170"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="15" t="s">
+        <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:39" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A17" s="205"/>
-      <c r="B17" s="179" t="s">
-        <v>12</v>
+      <c r="AL17" s="15" t="s">
+        <v>34</v>
       </c>
-      <c r="C17" s="180"/>
-      <c r="D17" s="180"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="133"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="134"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="124"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="124"/>
-      <c r="Q17" s="124"/>
-      <c r="R17" s="124"/>
-      <c r="S17" s="124"/>
-      <c r="T17" s="124"/>
-      <c r="U17" s="124"/>
-      <c r="V17" s="124"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="138"/>
-      <c r="Y17" s="139"/>
-      <c r="Z17" s="125"/>
-      <c r="AA17" s="125"/>
-      <c r="AB17" s="124"/>
-      <c r="AC17" s="124"/>
-      <c r="AD17" s="124"/>
-      <c r="AE17" s="124"/>
-      <c r="AF17" s="124"/>
-      <c r="AG17" s="124"/>
-      <c r="AH17" s="124"/>
-      <c r="AI17" s="124"/>
-      <c r="AJ17" s="124"/>
-      <c r="AK17" s="126" t="s">
-        <v>81</v>
+      <c r="AM17" s="122"/>
+    </row>
+    <row r="18" spans="1:39" ht="22.5" customHeight="1">
+      <c r="A18" s="176"/>
+      <c r="B18" s="218" t="s">
+        <v>110</v>
       </c>
-      <c r="AL17" s="126"/>
-      <c r="AM17" s="127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A18" s="206" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="181" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="182"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="118"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="119"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="118"/>
-      <c r="W18" s="119"/>
-      <c r="X18" s="119"/>
-      <c r="Y18" s="119"/>
-      <c r="Z18" s="119"/>
-      <c r="AA18" s="118"/>
-      <c r="AB18" s="118"/>
-      <c r="AC18" s="118"/>
-      <c r="AD18" s="118"/>
-      <c r="AE18" s="118"/>
-      <c r="AF18" s="118"/>
-      <c r="AG18" s="118"/>
-      <c r="AH18" s="118"/>
-      <c r="AI18" s="118"/>
-      <c r="AJ18" s="118"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="219"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="219"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="170"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
       <c r="AK18" s="15" t="s">
         <v>89</v>
       </c>
       <c r="AL18" s="15" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
-      <c r="AM18" s="121">
+      <c r="AM18" s="122">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A19" s="207"/>
-      <c r="B19" s="170" t="s">
-        <v>54</v>
+    <row r="19" spans="1:39" ht="22.5" customHeight="1" thickBot="1">
+      <c r="A19" s="177"/>
+      <c r="B19" s="220" t="s">
+        <v>10</v>
       </c>
-      <c r="C19" s="171"/>
-      <c r="D19" s="171"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="221"/>
+      <c r="E19" s="221"/>
+      <c r="F19" s="221"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="124"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="124"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="124"/>
+      <c r="S19" s="124"/>
+      <c r="T19" s="124"/>
+      <c r="U19" s="124"/>
+      <c r="V19" s="124"/>
+      <c r="W19" s="124"/>
+      <c r="X19" s="138"/>
+      <c r="Y19" s="139"/>
+      <c r="Z19" s="125"/>
+      <c r="AA19" s="125"/>
+      <c r="AB19" s="124"/>
+      <c r="AC19" s="124"/>
+      <c r="AD19" s="124"/>
+      <c r="AE19" s="124"/>
+      <c r="AF19" s="124"/>
+      <c r="AG19" s="124"/>
+      <c r="AH19" s="124"/>
+      <c r="AI19" s="124"/>
+      <c r="AJ19" s="124"/>
       <c r="AK19" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
-      <c r="AL19" s="15"/>
-      <c r="AM19" s="122">
+      <c r="AL19" s="126" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM19" s="127">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A20" s="207"/>
-      <c r="B20" s="170" t="s">
-        <v>65</v>
+      <c r="A20" s="178" t="s">
+        <v>20</v>
       </c>
-      <c r="C20" s="171"/>
-      <c r="D20" s="171"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="107"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
+      <c r="B20" s="222" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="213"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="118"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="118"/>
+      <c r="M20" s="118"/>
+      <c r="N20" s="146"/>
+      <c r="O20" s="146"/>
+      <c r="P20" s="118"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="119"/>
+      <c r="X20" s="119"/>
+      <c r="Y20" s="119"/>
+      <c r="Z20" s="119"/>
+      <c r="AA20" s="118"/>
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="118"/>
+      <c r="AD20" s="118"/>
+      <c r="AE20" s="118"/>
+      <c r="AF20" s="118"/>
+      <c r="AG20" s="118"/>
+      <c r="AH20" s="118"/>
+      <c r="AI20" s="118"/>
+      <c r="AJ20" s="118"/>
       <c r="AK20" s="15" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
-      <c r="AL20" s="15"/>
-      <c r="AM20" s="122">
+      <c r="AL20" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM20" s="121">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A21" s="207"/>
-      <c r="B21" s="167" t="s">
-        <v>55</v>
+      <c r="A21" s="179"/>
+      <c r="B21" s="197" t="s">
+        <v>62</v>
       </c>
-      <c r="C21" s="167"/>
-      <c r="D21" s="167"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="217"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="198"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="199"/>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -6826,14 +6974,14 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
-      <c r="T21" s="13"/>
+      <c r="T21" s="11"/>
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
+      <c r="Z21" s="11"/>
+      <c r="AA21" s="11"/>
       <c r="AB21" s="11"/>
       <c r="AC21" s="11"/>
       <c r="AD21" s="11"/>
@@ -6844,86 +6992,82 @@
       <c r="AI21" s="11"/>
       <c r="AJ21" s="11"/>
       <c r="AK21" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL21" s="15" t="s">
         <v>88</v>
       </c>
+      <c r="AL21" s="15"/>
       <c r="AM21" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A22" s="207"/>
-      <c r="B22" s="218" t="s">
-        <v>77</v>
+      <c r="A22" s="179"/>
+      <c r="B22" s="200" t="s">
+        <v>97</v>
       </c>
-      <c r="C22" s="168"/>
-      <c r="D22" s="168"/>
-      <c r="E22" s="168"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="11"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="200"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="107"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
       <c r="S22" s="11"/>
-      <c r="T22" s="13"/>
+      <c r="T22" s="11"/>
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
+      <c r="Z22" s="11"/>
+      <c r="AA22" s="11"/>
       <c r="AB22" s="11"/>
       <c r="AC22" s="11"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
+      <c r="AD22" s="11"/>
+      <c r="AE22" s="11"/>
+      <c r="AF22" s="11"/>
       <c r="AG22" s="11"/>
       <c r="AH22" s="11"/>
       <c r="AI22" s="11"/>
       <c r="AJ22" s="11"/>
       <c r="AK22" s="15" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="AL22" s="15" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
-      <c r="AM22" s="122">
-        <v>0</v>
+      <c r="AM22" s="122"/>
+    </row>
+    <row r="23" spans="1:39" ht="22.5" customHeight="1">
+      <c r="A23" s="179"/>
+      <c r="B23" s="200" t="s">
+        <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A23" s="207"/>
-      <c r="B23" s="167" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="11"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="201"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="111"/>
-      <c r="M23" s="111"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="14"/>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
-      <c r="P23" s="111"/>
-      <c r="Q23" s="111"/>
-      <c r="R23" s="111"/>
-      <c r="S23" s="107"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
       <c r="T23" s="13"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
@@ -6934,45 +7078,45 @@
       <c r="AA23" s="13"/>
       <c r="AB23" s="11"/>
       <c r="AC23" s="11"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="11"/>
       <c r="AG23" s="11"/>
       <c r="AH23" s="11"/>
       <c r="AI23" s="11"/>
       <c r="AJ23" s="11"/>
       <c r="AK23" s="15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AL23" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AM23" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A24" s="207"/>
-      <c r="B24" s="167" t="s">
-        <v>57</v>
+      <c r="A24" s="179"/>
+      <c r="B24" s="200" t="s">
+        <v>98</v>
       </c>
-      <c r="C24" s="168"/>
-      <c r="D24" s="168"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="169"/>
+      <c r="C24" s="200"/>
+      <c r="D24" s="200"/>
+      <c r="E24" s="200"/>
+      <c r="F24" s="201"/>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="111"/>
-      <c r="Q24" s="111"/>
-      <c r="R24" s="111"/>
-      <c r="S24" s="107"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="108"/>
+      <c r="P24" s="109"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="11"/>
       <c r="T24" s="13"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
@@ -6983,45 +7127,41 @@
       <c r="AA24" s="13"/>
       <c r="AB24" s="11"/>
       <c r="AC24" s="11"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
-      <c r="AF24" s="13"/>
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="11"/>
+      <c r="AF24" s="11"/>
       <c r="AG24" s="11"/>
       <c r="AH24" s="11"/>
       <c r="AI24" s="11"/>
       <c r="AJ24" s="11"/>
       <c r="AK24" s="15" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
-      <c r="AL24" s="15" t="s">
-        <v>93</v>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="122"/>
+    </row>
+    <row r="25" spans="1:39" ht="22.2" customHeight="1">
+      <c r="A25" s="179"/>
+      <c r="B25" s="202" t="s">
+        <v>74</v>
       </c>
-      <c r="AM24" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A25" s="207"/>
-      <c r="B25" s="167" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="168"/>
-      <c r="D25" s="168"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="10"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="111"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="107"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="11"/>
       <c r="T25" s="13"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
@@ -7038,27 +7178,25 @@
       <c r="AG25" s="11"/>
       <c r="AH25" s="11"/>
       <c r="AI25" s="11"/>
-      <c r="AJ25" s="14"/>
+      <c r="AJ25" s="11"/>
       <c r="AK25" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
-      <c r="AL25" s="15" t="s">
-        <v>82</v>
-      </c>
+      <c r="AL25" s="15"/>
       <c r="AM25" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A26" s="207"/>
-      <c r="B26" s="170" t="s">
-        <v>60</v>
+      <c r="A26" s="179"/>
+      <c r="B26" s="200" t="s">
+        <v>99</v>
       </c>
-      <c r="C26" s="171"/>
-      <c r="D26" s="171"/>
-      <c r="E26" s="171"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="10"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -7089,7 +7227,7 @@
       <c r="AI26" s="11"/>
       <c r="AJ26" s="11"/>
       <c r="AK26" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AL26" s="15"/>
       <c r="AM26" s="122">
@@ -7097,14 +7235,14 @@
       </c>
     </row>
     <row r="27" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A27" s="207"/>
-      <c r="B27" s="170" t="s">
-        <v>78</v>
+      <c r="A27" s="179"/>
+      <c r="B27" s="200" t="s">
+        <v>55</v>
       </c>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
-      <c r="E27" s="171"/>
-      <c r="F27" s="172"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="204"/>
       <c r="G27" s="10"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -7136,7 +7274,7 @@
       <c r="AI27" s="11"/>
       <c r="AJ27" s="11"/>
       <c r="AK27" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AL27" s="15"/>
       <c r="AM27" s="122">
@@ -7144,14 +7282,14 @@
       </c>
     </row>
     <row r="28" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A28" s="207"/>
-      <c r="B28" s="170" t="s">
-        <v>63</v>
+      <c r="A28" s="179"/>
+      <c r="B28" s="200" t="s">
+        <v>100</v>
       </c>
-      <c r="C28" s="171"/>
-      <c r="D28" s="171"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="172"/>
+      <c r="C28" s="203"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="204"/>
       <c r="G28" s="10"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -7181,389 +7319,439 @@
       <c r="AG28" s="11"/>
       <c r="AH28" s="11"/>
       <c r="AI28" s="11"/>
-      <c r="AJ28" s="11"/>
+      <c r="AJ28" s="14"/>
       <c r="AK28" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AL28" s="15"/>
       <c r="AM28" s="122">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A29" s="208"/>
-      <c r="B29" s="210" t="s">
-        <v>64</v>
+    <row r="29" spans="1:39" ht="22.5" customHeight="1">
+      <c r="A29" s="179"/>
+      <c r="B29" s="197" t="s">
+        <v>105</v>
       </c>
-      <c r="C29" s="211"/>
-      <c r="D29" s="211"/>
-      <c r="E29" s="211"/>
-      <c r="F29" s="212"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="124"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="137"/>
-      <c r="L29" s="147"/>
-      <c r="M29" s="147"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="147"/>
-      <c r="Q29" s="147"/>
-      <c r="R29" s="147"/>
-      <c r="S29" s="148"/>
-      <c r="T29" s="124"/>
-      <c r="U29" s="124"/>
-      <c r="V29" s="124"/>
-      <c r="W29" s="124"/>
-      <c r="X29" s="124"/>
-      <c r="Y29" s="124"/>
-      <c r="Z29" s="124"/>
-      <c r="AA29" s="124"/>
-      <c r="AB29" s="124"/>
-      <c r="AC29" s="124"/>
-      <c r="AD29" s="125"/>
-      <c r="AE29" s="125"/>
-      <c r="AF29" s="125"/>
-      <c r="AG29" s="124"/>
-      <c r="AH29" s="124"/>
-      <c r="AI29" s="124"/>
-      <c r="AJ29" s="124"/>
-      <c r="AK29" s="126" t="s">
-        <v>96</v>
+      <c r="C29" s="198"/>
+      <c r="D29" s="198"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="111"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="11"/>
+      <c r="AC29" s="11"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="15" t="s">
+        <v>89</v>
       </c>
-      <c r="AL29" s="126"/>
-      <c r="AM29" s="127">
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="122">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39" ht="22.2" customHeight="1">
-      <c r="A30" s="140" t="s">
-        <v>23</v>
+    <row r="30" spans="1:39" ht="22.5" customHeight="1">
+      <c r="A30" s="179"/>
+      <c r="B30" s="197" t="s">
+        <v>106</v>
       </c>
-      <c r="B30" s="174" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="176"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="142"/>
-      <c r="M30" s="142"/>
-      <c r="N30" s="142"/>
-      <c r="O30" s="142"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="142"/>
-      <c r="R30" s="142"/>
-      <c r="S30" s="143"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="114"/>
-      <c r="Z30" s="114"/>
-      <c r="AA30" s="114"/>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="114"/>
-      <c r="AE30" s="114"/>
-      <c r="AF30" s="114"/>
-      <c r="AG30" s="114"/>
-      <c r="AH30" s="144"/>
-      <c r="AI30" s="24"/>
-      <c r="AJ30" s="145"/>
-      <c r="AK30" s="115" t="s">
-        <v>97</v>
+      <c r="C30" s="198"/>
+      <c r="D30" s="198"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="199"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="111"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="AL30" s="15"/>
-      <c r="AM30" s="116">
+      <c r="AM30" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:39" ht="22.5" customHeight="1">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
-      <c r="AJ31" s="3"/>
+      <c r="A31" s="179"/>
+      <c r="B31" s="200" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="203"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="107"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="122">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A32" s="16" t="s">
-        <v>25</v>
+      <c r="A32" s="179"/>
+      <c r="B32" s="197" t="s">
+        <v>102</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="3"/>
-      <c r="AI32" s="3"/>
-      <c r="AJ32" s="3"/>
-    </row>
-    <row r="33" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A33" s="17"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="173" t="s">
-        <v>26</v>
+      <c r="C32" s="198"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="199"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="111"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="107"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="15" t="s">
+        <v>78</v>
       </c>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-    </row>
-    <row r="34" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="173" t="s">
-        <v>27</v>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="122">
+        <v>0</v>
       </c>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3"/>
-    </row>
-    <row r="35" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A35" s="19"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="173" t="s">
+    </row>
+    <row r="33" spans="1:39" ht="22.5" customHeight="1">
+      <c r="A33" s="179"/>
+      <c r="B33" s="197" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="198"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="199"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="11"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" ht="22.2" customHeight="1">
+      <c r="A34" s="179"/>
+      <c r="B34" s="197" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="198"/>
+      <c r="D34" s="198"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="199"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="111"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="11"/>
+      <c r="AJ34" s="11"/>
+      <c r="AK34" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
+      <c r="A35" s="180"/>
+      <c r="B35" s="188" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="189"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="168"/>
+      <c r="M35" s="168"/>
+      <c r="N35" s="108"/>
+      <c r="O35" s="108"/>
+      <c r="P35" s="168"/>
+      <c r="Q35" s="168"/>
+      <c r="R35" s="168"/>
+      <c r="S35" s="109"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="9"/>
+      <c r="AK35" s="113" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL35" s="113"/>
+      <c r="AM35" s="128"/>
+    </row>
+    <row r="36" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
+      <c r="A36" s="181"/>
+      <c r="B36" s="188" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="190"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="124"/>
+      <c r="K36" s="137"/>
+      <c r="L36" s="147"/>
+      <c r="M36" s="147"/>
+      <c r="N36" s="147"/>
+      <c r="O36" s="147"/>
+      <c r="P36" s="147"/>
+      <c r="Q36" s="147"/>
+      <c r="R36" s="147"/>
+      <c r="S36" s="148"/>
+      <c r="T36" s="124"/>
+      <c r="U36" s="124"/>
+      <c r="V36" s="124"/>
+      <c r="W36" s="124"/>
+      <c r="X36" s="124"/>
+      <c r="Y36" s="124"/>
+      <c r="Z36" s="124"/>
+      <c r="AA36" s="124"/>
+      <c r="AB36" s="124"/>
+      <c r="AC36" s="124"/>
+      <c r="AD36" s="125"/>
+      <c r="AE36" s="125"/>
+      <c r="AF36" s="125"/>
+      <c r="AG36" s="124"/>
+      <c r="AH36" s="124"/>
+      <c r="AI36" s="124"/>
+      <c r="AJ36" s="124"/>
+      <c r="AK36" s="126" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL36" s="126"/>
+      <c r="AM36" s="127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" ht="22.2" customHeight="1">
+      <c r="A37" s="140" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="173"/>
-      <c r="E35" s="173"/>
-      <c r="F35" s="173"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
-    </row>
-    <row r="36" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A36" s="20"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="173" t="s">
-        <v>29</v>
+      <c r="C37" s="225"/>
+      <c r="D37" s="225"/>
+      <c r="E37" s="225"/>
+      <c r="F37" s="226"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="141"/>
+      <c r="L37" s="142"/>
+      <c r="M37" s="142"/>
+      <c r="N37" s="142"/>
+      <c r="O37" s="142"/>
+      <c r="P37" s="142"/>
+      <c r="Q37" s="142"/>
+      <c r="R37" s="142"/>
+      <c r="S37" s="143"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="114"/>
+      <c r="Z37" s="114"/>
+      <c r="AA37" s="114"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="114"/>
+      <c r="AE37" s="114"/>
+      <c r="AF37" s="114"/>
+      <c r="AG37" s="114"/>
+      <c r="AH37" s="144"/>
+      <c r="AI37" s="24"/>
+      <c r="AJ37" s="145"/>
+      <c r="AK37" s="115" t="s">
+        <v>91</v>
       </c>
-      <c r="D36" s="173"/>
-      <c r="E36" s="173"/>
-      <c r="F36" s="173"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
-      <c r="AH36" s="3"/>
-      <c r="AI36" s="3"/>
-      <c r="AJ36" s="3"/>
-    </row>
-    <row r="37" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A37" s="75"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="173" t="s">
-        <v>79</v>
+      <c r="AL37" s="15"/>
+      <c r="AM37" s="116">
+        <v>0</v>
       </c>
-      <c r="D37" s="173"/>
-      <c r="E37" s="173"/>
-      <c r="F37" s="173"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
-      <c r="AF37" s="3"/>
-      <c r="AG37" s="3"/>
-      <c r="AH37" s="3"/>
-      <c r="AI37" s="3"/>
-      <c r="AJ37" s="3"/>
-    </row>
-    <row r="38" spans="1:36" ht="22.5" customHeight="1">
+    </row>
+    <row r="38" spans="1:39" ht="22.5" customHeight="1">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -7600,7 +7788,10 @@
       <c r="AI38" s="3"/>
       <c r="AJ38" s="3"/>
     </row>
-    <row r="39" spans="1:36" ht="22.5" customHeight="1">
+    <row r="39" spans="1:39" ht="22.5" customHeight="1">
+      <c r="A39" s="16" t="s">
+        <v>23</v>
+      </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -7637,12 +7828,15 @@
       <c r="AI39" s="3"/>
       <c r="AJ39" s="3"/>
     </row>
-    <row r="40" spans="1:36" ht="22.5" customHeight="1">
+    <row r="40" spans="1:39" ht="22.5" customHeight="1">
+      <c r="A40" s="17"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+      <c r="C40" s="223" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="223"/>
+      <c r="E40" s="223"/>
+      <c r="F40" s="223"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -7674,12 +7868,15 @@
       <c r="AI40" s="3"/>
       <c r="AJ40" s="3"/>
     </row>
-    <row r="41" spans="1:36" ht="22.5" customHeight="1">
+    <row r="41" spans="1:39" ht="22.5" customHeight="1">
+      <c r="A41" s="171"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
+      <c r="C41" s="223" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" s="223"/>
+      <c r="E41" s="223"/>
+      <c r="F41" s="223"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -7711,12 +7908,15 @@
       <c r="AI41" s="3"/>
       <c r="AJ41" s="3"/>
     </row>
-    <row r="42" spans="1:36" ht="22.5" customHeight="1">
+    <row r="42" spans="1:39" ht="22.5" customHeight="1">
+      <c r="A42" s="18"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
+      <c r="C42" s="223" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="223"/>
+      <c r="E42" s="223"/>
+      <c r="F42" s="223"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -7748,12 +7948,15 @@
       <c r="AI42" s="3"/>
       <c r="AJ42" s="3"/>
     </row>
-    <row r="43" spans="1:36" ht="22.5" customHeight="1">
+    <row r="43" spans="1:39" ht="22.5" customHeight="1">
+      <c r="A43" s="19"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+      <c r="C43" s="223" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="223"/>
+      <c r="E43" s="223"/>
+      <c r="F43" s="223"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -7785,12 +7988,15 @@
       <c r="AI43" s="3"/>
       <c r="AJ43" s="3"/>
     </row>
-    <row r="44" spans="1:36" ht="22.5" customHeight="1">
+    <row r="44" spans="1:39" ht="22.5" customHeight="1">
+      <c r="A44" s="20"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="C44" s="223" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="223"/>
+      <c r="E44" s="223"/>
+      <c r="F44" s="223"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -7822,12 +8028,15 @@
       <c r="AI44" s="3"/>
       <c r="AJ44" s="3"/>
     </row>
-    <row r="45" spans="1:36" ht="22.5" customHeight="1">
+    <row r="45" spans="1:39" ht="22.5" customHeight="1">
+      <c r="A45" s="75"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+      <c r="C45" s="223" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="223"/>
+      <c r="E45" s="223"/>
+      <c r="F45" s="223"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -7859,7 +8068,7 @@
       <c r="AI45" s="3"/>
       <c r="AJ45" s="3"/>
     </row>
-    <row r="46" spans="1:36" ht="22.5" customHeight="1">
+    <row r="46" spans="1:39" ht="22.5" customHeight="1">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -7896,7 +8105,7 @@
       <c r="AI46" s="3"/>
       <c r="AJ46" s="3"/>
     </row>
-    <row r="47" spans="1:36" ht="22.5" customHeight="1">
+    <row r="47" spans="1:39" ht="22.5" customHeight="1">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -7933,7 +8142,7 @@
       <c r="AI47" s="3"/>
       <c r="AJ47" s="3"/>
     </row>
-    <row r="48" spans="1:36" ht="22.5" customHeight="1">
+    <row r="48" spans="1:39" ht="22.5" customHeight="1">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -43379,24 +43588,329 @@
       <c r="AI1005" s="3"/>
       <c r="AJ1005" s="3"/>
     </row>
+    <row r="1006" spans="2:36" ht="22.5" customHeight="1">
+      <c r="B1006" s="3"/>
+      <c r="C1006" s="3"/>
+      <c r="D1006" s="3"/>
+      <c r="E1006" s="3"/>
+      <c r="F1006" s="3"/>
+      <c r="G1006" s="3"/>
+      <c r="H1006" s="3"/>
+      <c r="I1006" s="3"/>
+      <c r="J1006" s="3"/>
+      <c r="K1006" s="3"/>
+      <c r="L1006" s="3"/>
+      <c r="M1006" s="3"/>
+      <c r="N1006" s="3"/>
+      <c r="O1006" s="3"/>
+      <c r="P1006" s="3"/>
+      <c r="Q1006" s="3"/>
+      <c r="R1006" s="3"/>
+      <c r="S1006" s="3"/>
+      <c r="T1006" s="3"/>
+      <c r="U1006" s="3"/>
+      <c r="V1006" s="3"/>
+      <c r="W1006" s="3"/>
+      <c r="X1006" s="3"/>
+      <c r="Y1006" s="3"/>
+      <c r="Z1006" s="3"/>
+      <c r="AA1006" s="3"/>
+      <c r="AB1006" s="3"/>
+      <c r="AC1006" s="3"/>
+      <c r="AD1006" s="3"/>
+      <c r="AE1006" s="3"/>
+      <c r="AF1006" s="3"/>
+      <c r="AG1006" s="3"/>
+      <c r="AH1006" s="3"/>
+      <c r="AI1006" s="3"/>
+      <c r="AJ1006" s="3"/>
+    </row>
+    <row r="1007" spans="2:36" ht="22.5" customHeight="1">
+      <c r="B1007" s="3"/>
+      <c r="C1007" s="3"/>
+      <c r="D1007" s="3"/>
+      <c r="E1007" s="3"/>
+      <c r="F1007" s="3"/>
+      <c r="G1007" s="3"/>
+      <c r="H1007" s="3"/>
+      <c r="I1007" s="3"/>
+      <c r="J1007" s="3"/>
+      <c r="K1007" s="3"/>
+      <c r="L1007" s="3"/>
+      <c r="M1007" s="3"/>
+      <c r="N1007" s="3"/>
+      <c r="O1007" s="3"/>
+      <c r="P1007" s="3"/>
+      <c r="Q1007" s="3"/>
+      <c r="R1007" s="3"/>
+      <c r="S1007" s="3"/>
+      <c r="T1007" s="3"/>
+      <c r="U1007" s="3"/>
+      <c r="V1007" s="3"/>
+      <c r="W1007" s="3"/>
+      <c r="X1007" s="3"/>
+      <c r="Y1007" s="3"/>
+      <c r="Z1007" s="3"/>
+      <c r="AA1007" s="3"/>
+      <c r="AB1007" s="3"/>
+      <c r="AC1007" s="3"/>
+      <c r="AD1007" s="3"/>
+      <c r="AE1007" s="3"/>
+      <c r="AF1007" s="3"/>
+      <c r="AG1007" s="3"/>
+      <c r="AH1007" s="3"/>
+      <c r="AI1007" s="3"/>
+      <c r="AJ1007" s="3"/>
+    </row>
+    <row r="1008" spans="2:36" ht="22.5" customHeight="1">
+      <c r="B1008" s="3"/>
+      <c r="C1008" s="3"/>
+      <c r="D1008" s="3"/>
+      <c r="E1008" s="3"/>
+      <c r="F1008" s="3"/>
+      <c r="G1008" s="3"/>
+      <c r="H1008" s="3"/>
+      <c r="I1008" s="3"/>
+      <c r="J1008" s="3"/>
+      <c r="K1008" s="3"/>
+      <c r="L1008" s="3"/>
+      <c r="M1008" s="3"/>
+      <c r="N1008" s="3"/>
+      <c r="O1008" s="3"/>
+      <c r="P1008" s="3"/>
+      <c r="Q1008" s="3"/>
+      <c r="R1008" s="3"/>
+      <c r="S1008" s="3"/>
+      <c r="T1008" s="3"/>
+      <c r="U1008" s="3"/>
+      <c r="V1008" s="3"/>
+      <c r="W1008" s="3"/>
+      <c r="X1008" s="3"/>
+      <c r="Y1008" s="3"/>
+      <c r="Z1008" s="3"/>
+      <c r="AA1008" s="3"/>
+      <c r="AB1008" s="3"/>
+      <c r="AC1008" s="3"/>
+      <c r="AD1008" s="3"/>
+      <c r="AE1008" s="3"/>
+      <c r="AF1008" s="3"/>
+      <c r="AG1008" s="3"/>
+      <c r="AH1008" s="3"/>
+      <c r="AI1008" s="3"/>
+      <c r="AJ1008" s="3"/>
+    </row>
+    <row r="1009" spans="2:36" ht="22.5" customHeight="1">
+      <c r="B1009" s="3"/>
+      <c r="C1009" s="3"/>
+      <c r="D1009" s="3"/>
+      <c r="E1009" s="3"/>
+      <c r="F1009" s="3"/>
+      <c r="G1009" s="3"/>
+      <c r="H1009" s="3"/>
+      <c r="I1009" s="3"/>
+      <c r="J1009" s="3"/>
+      <c r="K1009" s="3"/>
+      <c r="L1009" s="3"/>
+      <c r="M1009" s="3"/>
+      <c r="N1009" s="3"/>
+      <c r="O1009" s="3"/>
+      <c r="P1009" s="3"/>
+      <c r="Q1009" s="3"/>
+      <c r="R1009" s="3"/>
+      <c r="S1009" s="3"/>
+      <c r="T1009" s="3"/>
+      <c r="U1009" s="3"/>
+      <c r="V1009" s="3"/>
+      <c r="W1009" s="3"/>
+      <c r="X1009" s="3"/>
+      <c r="Y1009" s="3"/>
+      <c r="Z1009" s="3"/>
+      <c r="AA1009" s="3"/>
+      <c r="AB1009" s="3"/>
+      <c r="AC1009" s="3"/>
+      <c r="AD1009" s="3"/>
+      <c r="AE1009" s="3"/>
+      <c r="AF1009" s="3"/>
+      <c r="AG1009" s="3"/>
+      <c r="AH1009" s="3"/>
+      <c r="AI1009" s="3"/>
+      <c r="AJ1009" s="3"/>
+    </row>
+    <row r="1010" spans="2:36" ht="22.5" customHeight="1">
+      <c r="B1010" s="3"/>
+      <c r="C1010" s="3"/>
+      <c r="D1010" s="3"/>
+      <c r="E1010" s="3"/>
+      <c r="F1010" s="3"/>
+      <c r="G1010" s="3"/>
+      <c r="H1010" s="3"/>
+      <c r="I1010" s="3"/>
+      <c r="J1010" s="3"/>
+      <c r="K1010" s="3"/>
+      <c r="L1010" s="3"/>
+      <c r="M1010" s="3"/>
+      <c r="N1010" s="3"/>
+      <c r="O1010" s="3"/>
+      <c r="P1010" s="3"/>
+      <c r="Q1010" s="3"/>
+      <c r="R1010" s="3"/>
+      <c r="S1010" s="3"/>
+      <c r="T1010" s="3"/>
+      <c r="U1010" s="3"/>
+      <c r="V1010" s="3"/>
+      <c r="W1010" s="3"/>
+      <c r="X1010" s="3"/>
+      <c r="Y1010" s="3"/>
+      <c r="Z1010" s="3"/>
+      <c r="AA1010" s="3"/>
+      <c r="AB1010" s="3"/>
+      <c r="AC1010" s="3"/>
+      <c r="AD1010" s="3"/>
+      <c r="AE1010" s="3"/>
+      <c r="AF1010" s="3"/>
+      <c r="AG1010" s="3"/>
+      <c r="AH1010" s="3"/>
+      <c r="AI1010" s="3"/>
+      <c r="AJ1010" s="3"/>
+    </row>
+    <row r="1011" spans="2:36" ht="22.5" customHeight="1">
+      <c r="B1011" s="3"/>
+      <c r="C1011" s="3"/>
+      <c r="D1011" s="3"/>
+      <c r="E1011" s="3"/>
+      <c r="F1011" s="3"/>
+      <c r="G1011" s="3"/>
+      <c r="H1011" s="3"/>
+      <c r="I1011" s="3"/>
+      <c r="J1011" s="3"/>
+      <c r="K1011" s="3"/>
+      <c r="L1011" s="3"/>
+      <c r="M1011" s="3"/>
+      <c r="N1011" s="3"/>
+      <c r="O1011" s="3"/>
+      <c r="P1011" s="3"/>
+      <c r="Q1011" s="3"/>
+      <c r="R1011" s="3"/>
+      <c r="S1011" s="3"/>
+      <c r="T1011" s="3"/>
+      <c r="U1011" s="3"/>
+      <c r="V1011" s="3"/>
+      <c r="W1011" s="3"/>
+      <c r="X1011" s="3"/>
+      <c r="Y1011" s="3"/>
+      <c r="Z1011" s="3"/>
+      <c r="AA1011" s="3"/>
+      <c r="AB1011" s="3"/>
+      <c r="AC1011" s="3"/>
+      <c r="AD1011" s="3"/>
+      <c r="AE1011" s="3"/>
+      <c r="AF1011" s="3"/>
+      <c r="AG1011" s="3"/>
+      <c r="AH1011" s="3"/>
+      <c r="AI1011" s="3"/>
+      <c r="AJ1011" s="3"/>
+    </row>
+    <row r="1012" spans="2:36" ht="22.5" customHeight="1">
+      <c r="B1012" s="3"/>
+      <c r="C1012" s="3"/>
+      <c r="D1012" s="3"/>
+      <c r="E1012" s="3"/>
+      <c r="F1012" s="3"/>
+      <c r="G1012" s="3"/>
+      <c r="H1012" s="3"/>
+      <c r="I1012" s="3"/>
+      <c r="J1012" s="3"/>
+      <c r="K1012" s="3"/>
+      <c r="L1012" s="3"/>
+      <c r="M1012" s="3"/>
+      <c r="N1012" s="3"/>
+      <c r="O1012" s="3"/>
+      <c r="P1012" s="3"/>
+      <c r="Q1012" s="3"/>
+      <c r="R1012" s="3"/>
+      <c r="S1012" s="3"/>
+      <c r="T1012" s="3"/>
+      <c r="U1012" s="3"/>
+      <c r="V1012" s="3"/>
+      <c r="W1012" s="3"/>
+      <c r="X1012" s="3"/>
+      <c r="Y1012" s="3"/>
+      <c r="Z1012" s="3"/>
+      <c r="AA1012" s="3"/>
+      <c r="AB1012" s="3"/>
+      <c r="AC1012" s="3"/>
+      <c r="AD1012" s="3"/>
+      <c r="AE1012" s="3"/>
+      <c r="AF1012" s="3"/>
+      <c r="AG1012" s="3"/>
+      <c r="AH1012" s="3"/>
+      <c r="AI1012" s="3"/>
+      <c r="AJ1012" s="3"/>
+    </row>
+    <row r="1013" spans="2:36" ht="22.5" customHeight="1">
+      <c r="B1013" s="3"/>
+      <c r="C1013" s="3"/>
+      <c r="D1013" s="3"/>
+      <c r="E1013" s="3"/>
+      <c r="F1013" s="3"/>
+      <c r="G1013" s="3"/>
+      <c r="H1013" s="3"/>
+      <c r="I1013" s="3"/>
+      <c r="J1013" s="3"/>
+      <c r="K1013" s="3"/>
+      <c r="L1013" s="3"/>
+      <c r="M1013" s="3"/>
+      <c r="N1013" s="3"/>
+      <c r="O1013" s="3"/>
+      <c r="P1013" s="3"/>
+      <c r="Q1013" s="3"/>
+      <c r="R1013" s="3"/>
+      <c r="S1013" s="3"/>
+      <c r="T1013" s="3"/>
+      <c r="U1013" s="3"/>
+      <c r="V1013" s="3"/>
+      <c r="W1013" s="3"/>
+      <c r="X1013" s="3"/>
+      <c r="Y1013" s="3"/>
+      <c r="Z1013" s="3"/>
+      <c r="AA1013" s="3"/>
+      <c r="AB1013" s="3"/>
+      <c r="AC1013" s="3"/>
+      <c r="AD1013" s="3"/>
+      <c r="AE1013" s="3"/>
+      <c r="AF1013" s="3"/>
+      <c r="AG1013" s="3"/>
+      <c r="AH1013" s="3"/>
+      <c r="AI1013" s="3"/>
+      <c r="AJ1013" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A29"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:J4"/>
+  <mergeCells count="50">
+    <mergeCell ref="B28:F28"/>
     <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B16:F16"/>
     <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B17:F17"/>
     <mergeCell ref="AG4:AJ4"/>
     <mergeCell ref="B6:E8"/>
     <mergeCell ref="G6:AJ6"/>
@@ -43406,23 +43920,22 @@
     <mergeCell ref="T4:W4"/>
     <mergeCell ref="X4:AB4"/>
     <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A20:A36"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B21:F21"/>
     <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="B30:F30"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7:AJ8">
@@ -43454,144 +43967,144 @@
   <sheetData>
     <row r="2" spans="1:25" ht="18" customHeight="1">
       <c r="B2" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="233" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="234"/>
+      <c r="I2" s="240" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="291" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="292"/>
-      <c r="I2" s="281" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="236"/>
-      <c r="L2" s="291" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="292"/>
-      <c r="N2" s="281" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="236"/>
-      <c r="Q2" s="291" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="292"/>
-      <c r="S2" s="236"/>
-      <c r="T2" s="236"/>
-      <c r="V2" s="291" t="s">
+      <c r="J2" s="235"/>
+      <c r="L2" s="233" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="292"/>
-      <c r="X2" s="236"/>
-      <c r="Y2" s="236"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="240" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="235"/>
+      <c r="Q2" s="233" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="234"/>
+      <c r="S2" s="235"/>
+      <c r="T2" s="235"/>
+      <c r="V2" s="233" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="234"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="D4" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="236" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="237"/>
+      <c r="G4" s="238" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="239"/>
+      <c r="I4" s="236" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="237"/>
+      <c r="K4" s="238" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="239"/>
+      <c r="M4" s="236" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="237"/>
+    </row>
+    <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="D5" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="227">
+        <v>3</v>
+      </c>
+      <c r="F5" s="228"/>
+      <c r="G5" s="229">
+        <v>4</v>
+      </c>
+      <c r="H5" s="230"/>
+      <c r="I5" s="227">
+        <v>5</v>
+      </c>
+      <c r="J5" s="228"/>
+      <c r="K5" s="229">
+        <v>6</v>
+      </c>
+      <c r="L5" s="230"/>
+      <c r="M5" s="227">
+        <v>7</v>
+      </c>
+      <c r="N5" s="228"/>
+    </row>
+    <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="D6" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="293" t="s">
-        <v>42</v>
+      <c r="F6" s="44" t="s">
+        <v>39</v>
       </c>
-      <c r="F4" s="256"/>
-      <c r="G4" s="223" t="s">
-        <v>43</v>
+      <c r="G6" s="79" t="s">
+        <v>38</v>
       </c>
-      <c r="H4" s="294"/>
-      <c r="I4" s="293" t="s">
-        <v>44</v>
+      <c r="H6" s="54" t="s">
+        <v>39</v>
       </c>
-      <c r="J4" s="256"/>
-      <c r="K4" s="223" t="s">
-        <v>45</v>
+      <c r="I6" s="39" t="s">
+        <v>38</v>
       </c>
-      <c r="L4" s="294"/>
-      <c r="M4" s="293" t="s">
+      <c r="J6" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="231" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="232"/>
+      <c r="Q6" s="241" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="232"/>
+      <c r="S6" s="241" t="s">
+        <v>65</v>
+      </c>
+      <c r="T6" s="242"/>
+    </row>
+    <row r="7" spans="1:25" ht="18" customHeight="1">
+      <c r="A7" s="243" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="246" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="256"/>
-    </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="D5" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="288">
-        <v>3</v>
-      </c>
-      <c r="F5" s="237"/>
-      <c r="G5" s="272">
-        <v>4</v>
-      </c>
-      <c r="H5" s="289"/>
-      <c r="I5" s="288">
-        <v>5</v>
-      </c>
-      <c r="J5" s="237"/>
-      <c r="K5" s="272">
-        <v>6</v>
-      </c>
-      <c r="L5" s="289"/>
-      <c r="M5" s="288">
-        <v>7</v>
-      </c>
-      <c r="N5" s="237"/>
-    </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="D6" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="290" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" s="231"/>
-      <c r="Q6" s="295" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="231"/>
-      <c r="S6" s="295" t="s">
-        <v>68</v>
-      </c>
-      <c r="T6" s="232"/>
-    </row>
-    <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="273" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="263" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="276"/>
-      <c r="D7" s="277"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="80"/>
       <c r="F7" s="81"/>
       <c r="G7" s="63"/>
@@ -43602,22 +44115,22 @@
       <c r="L7" s="55"/>
       <c r="M7" s="93"/>
       <c r="N7" s="43"/>
-      <c r="O7" s="278" t="s">
-        <v>72</v>
+      <c r="O7" s="249" t="s">
+        <v>69</v>
       </c>
-      <c r="P7" s="279"/>
-      <c r="Q7" s="279"/>
-      <c r="R7" s="279"/>
-      <c r="S7" s="279"/>
-      <c r="T7" s="280"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="251"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="274"/>
-      <c r="B8" s="238" t="s">
-        <v>49</v>
+      <c r="A8" s="244"/>
+      <c r="B8" s="252" t="s">
+        <v>47</v>
       </c>
-      <c r="C8" s="239"/>
-      <c r="D8" s="240"/>
+      <c r="C8" s="253"/>
+      <c r="D8" s="254"/>
       <c r="E8" s="82"/>
       <c r="F8" s="83"/>
       <c r="G8" s="65"/>
@@ -43628,22 +44141,22 @@
       <c r="L8" s="56"/>
       <c r="M8" s="37"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="281" t="s">
-        <v>73</v>
+      <c r="O8" s="240" t="s">
+        <v>70</v>
       </c>
-      <c r="P8" s="236"/>
-      <c r="Q8" s="236"/>
-      <c r="R8" s="236"/>
-      <c r="S8" s="236"/>
-      <c r="T8" s="237"/>
+      <c r="P8" s="235"/>
+      <c r="Q8" s="235"/>
+      <c r="R8" s="235"/>
+      <c r="S8" s="235"/>
+      <c r="T8" s="228"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="274"/>
-      <c r="B9" s="238" t="s">
-        <v>50</v>
+      <c r="A9" s="244"/>
+      <c r="B9" s="252" t="s">
+        <v>48</v>
       </c>
-      <c r="C9" s="239"/>
-      <c r="D9" s="240"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="254"/>
       <c r="E9" s="82"/>
       <c r="F9" s="84"/>
       <c r="G9" s="65"/>
@@ -43654,24 +44167,24 @@
       <c r="L9" s="56"/>
       <c r="M9" s="37"/>
       <c r="N9" s="38"/>
-      <c r="O9" s="268" t="s">
-        <v>36</v>
+      <c r="O9" s="255" t="s">
+        <v>34</v>
       </c>
-      <c r="P9" s="236"/>
-      <c r="Q9" s="281" t="s">
-        <v>73</v>
+      <c r="P9" s="235"/>
+      <c r="Q9" s="240" t="s">
+        <v>70</v>
       </c>
-      <c r="R9" s="236"/>
-      <c r="S9" s="236"/>
-      <c r="T9" s="237"/>
+      <c r="R9" s="235"/>
+      <c r="S9" s="235"/>
+      <c r="T9" s="228"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="274"/>
-      <c r="B10" s="238" t="s">
-        <v>15</v>
+      <c r="A10" s="244"/>
+      <c r="B10" s="252" t="s">
+        <v>13</v>
       </c>
-      <c r="C10" s="239"/>
-      <c r="D10" s="240"/>
+      <c r="C10" s="253"/>
+      <c r="D10" s="254"/>
       <c r="E10" s="82"/>
       <c r="F10" s="83"/>
       <c r="G10" s="65"/>
@@ -43682,20 +44195,20 @@
       <c r="L10" s="56"/>
       <c r="M10" s="37"/>
       <c r="N10" s="38"/>
-      <c r="O10" s="272"/>
-      <c r="P10" s="236"/>
-      <c r="Q10" s="236"/>
-      <c r="R10" s="236"/>
-      <c r="S10" s="236"/>
-      <c r="T10" s="237"/>
+      <c r="O10" s="229"/>
+      <c r="P10" s="235"/>
+      <c r="Q10" s="235"/>
+      <c r="R10" s="235"/>
+      <c r="S10" s="235"/>
+      <c r="T10" s="228"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="275"/>
-      <c r="B11" s="282" t="s">
-        <v>16</v>
+      <c r="A11" s="245"/>
+      <c r="B11" s="256" t="s">
+        <v>14</v>
       </c>
-      <c r="C11" s="283"/>
-      <c r="D11" s="284"/>
+      <c r="C11" s="257"/>
+      <c r="D11" s="258"/>
       <c r="E11" s="85"/>
       <c r="F11" s="86"/>
       <c r="G11" s="67"/>
@@ -43706,22 +44219,22 @@
       <c r="L11" s="57"/>
       <c r="M11" s="94"/>
       <c r="N11" s="51"/>
-      <c r="O11" s="285"/>
-      <c r="P11" s="286"/>
-      <c r="Q11" s="286"/>
-      <c r="R11" s="286"/>
-      <c r="S11" s="286"/>
-      <c r="T11" s="287"/>
+      <c r="O11" s="259"/>
+      <c r="P11" s="260"/>
+      <c r="Q11" s="260"/>
+      <c r="R11" s="260"/>
+      <c r="S11" s="260"/>
+      <c r="T11" s="261"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="248" t="s">
-        <v>21</v>
+      <c r="A12" s="262" t="s">
+        <v>19</v>
       </c>
-      <c r="B12" s="251" t="s">
-        <v>51</v>
+      <c r="B12" s="265" t="s">
+        <v>49</v>
       </c>
-      <c r="C12" s="252"/>
-      <c r="D12" s="253"/>
+      <c r="C12" s="266"/>
+      <c r="D12" s="267"/>
       <c r="E12" s="87"/>
       <c r="F12" s="88"/>
       <c r="G12" s="69"/>
@@ -43732,22 +44245,22 @@
       <c r="L12" s="58"/>
       <c r="M12" s="35"/>
       <c r="N12" s="106"/>
-      <c r="O12" s="254" t="s">
-        <v>73</v>
+      <c r="O12" s="268" t="s">
+        <v>70</v>
       </c>
-      <c r="P12" s="255"/>
-      <c r="Q12" s="224"/>
-      <c r="R12" s="224"/>
-      <c r="S12" s="224"/>
-      <c r="T12" s="256"/>
+      <c r="P12" s="269"/>
+      <c r="Q12" s="270"/>
+      <c r="R12" s="270"/>
+      <c r="S12" s="270"/>
+      <c r="T12" s="237"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="249"/>
-      <c r="B13" s="257" t="s">
-        <v>21</v>
+      <c r="A13" s="263"/>
+      <c r="B13" s="271" t="s">
+        <v>19</v>
       </c>
-      <c r="C13" s="258"/>
-      <c r="D13" s="259"/>
+      <c r="C13" s="272"/>
+      <c r="D13" s="273"/>
       <c r="E13" s="82"/>
       <c r="F13" s="83"/>
       <c r="G13" s="65"/>
@@ -43758,22 +44271,22 @@
       <c r="L13" s="104"/>
       <c r="M13" s="99"/>
       <c r="N13" s="99"/>
-      <c r="O13" s="268" t="s">
-        <v>76</v>
+      <c r="O13" s="255" t="s">
+        <v>73</v>
       </c>
-      <c r="P13" s="236"/>
-      <c r="Q13" s="236"/>
-      <c r="R13" s="236"/>
-      <c r="S13" s="236"/>
-      <c r="T13" s="237"/>
+      <c r="P13" s="235"/>
+      <c r="Q13" s="235"/>
+      <c r="R13" s="235"/>
+      <c r="S13" s="235"/>
+      <c r="T13" s="228"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="249"/>
-      <c r="B14" s="257" t="s">
-        <v>52</v>
+      <c r="A14" s="263"/>
+      <c r="B14" s="271" t="s">
+        <v>50</v>
       </c>
-      <c r="C14" s="269"/>
-      <c r="D14" s="270"/>
+      <c r="C14" s="282"/>
+      <c r="D14" s="283"/>
       <c r="E14" s="82"/>
       <c r="F14" s="83"/>
       <c r="G14" s="65"/>
@@ -43784,22 +44297,22 @@
       <c r="L14" s="104"/>
       <c r="M14" s="99"/>
       <c r="N14" s="99"/>
-      <c r="O14" s="271" t="s">
-        <v>75</v>
+      <c r="O14" s="284" t="s">
+        <v>72</v>
       </c>
-      <c r="P14" s="272"/>
-      <c r="Q14" s="236"/>
-      <c r="R14" s="236"/>
-      <c r="S14" s="236"/>
-      <c r="T14" s="237"/>
+      <c r="P14" s="229"/>
+      <c r="Q14" s="235"/>
+      <c r="R14" s="235"/>
+      <c r="S14" s="235"/>
+      <c r="T14" s="228"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="250"/>
-      <c r="B15" s="243" t="s">
-        <v>53</v>
+      <c r="A15" s="264"/>
+      <c r="B15" s="285" t="s">
+        <v>51</v>
       </c>
-      <c r="C15" s="244"/>
-      <c r="D15" s="245"/>
+      <c r="C15" s="286"/>
+      <c r="D15" s="287"/>
       <c r="E15" s="89"/>
       <c r="F15" s="90"/>
       <c r="G15" s="71"/>
@@ -43810,24 +44323,24 @@
       <c r="L15" s="105"/>
       <c r="M15" s="102"/>
       <c r="N15" s="102"/>
-      <c r="O15" s="246" t="s">
-        <v>74</v>
+      <c r="O15" s="288" t="s">
+        <v>71</v>
       </c>
-      <c r="P15" s="225"/>
-      <c r="Q15" s="247"/>
-      <c r="R15" s="225"/>
-      <c r="S15" s="225"/>
-      <c r="T15" s="226"/>
+      <c r="P15" s="289"/>
+      <c r="Q15" s="290"/>
+      <c r="R15" s="289"/>
+      <c r="S15" s="289"/>
+      <c r="T15" s="291"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A16" s="260" t="s">
-        <v>22</v>
+      <c r="A16" s="274" t="s">
+        <v>20</v>
       </c>
-      <c r="B16" s="263" t="s">
-        <v>54</v>
+      <c r="B16" s="246" t="s">
+        <v>52</v>
       </c>
-      <c r="C16" s="264"/>
-      <c r="D16" s="265"/>
+      <c r="C16" s="277"/>
+      <c r="D16" s="278"/>
       <c r="E16" s="87"/>
       <c r="F16" s="88"/>
       <c r="G16" s="69"/>
@@ -43838,22 +44351,22 @@
       <c r="L16" s="58"/>
       <c r="M16" s="35"/>
       <c r="N16" s="53"/>
-      <c r="O16" s="223" t="s">
-        <v>71</v>
+      <c r="O16" s="238" t="s">
+        <v>68</v>
       </c>
-      <c r="P16" s="224"/>
-      <c r="Q16" s="223"/>
-      <c r="R16" s="224"/>
-      <c r="S16" s="224"/>
-      <c r="T16" s="256"/>
+      <c r="P16" s="270"/>
+      <c r="Q16" s="238"/>
+      <c r="R16" s="270"/>
+      <c r="S16" s="270"/>
+      <c r="T16" s="237"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A17" s="261"/>
-      <c r="B17" s="233" t="s">
-        <v>54</v>
+      <c r="A17" s="275"/>
+      <c r="B17" s="279" t="s">
+        <v>52</v>
       </c>
-      <c r="C17" s="266"/>
-      <c r="D17" s="267"/>
+      <c r="C17" s="280"/>
+      <c r="D17" s="281"/>
       <c r="E17" s="82"/>
       <c r="F17" s="83"/>
       <c r="G17" s="65"/>
@@ -43864,22 +44377,22 @@
       <c r="L17" s="56"/>
       <c r="M17" s="37"/>
       <c r="N17" s="38"/>
-      <c r="O17" s="223" t="s">
-        <v>71</v>
+      <c r="O17" s="238" t="s">
+        <v>68</v>
       </c>
-      <c r="P17" s="224"/>
-      <c r="Q17" s="223"/>
-      <c r="R17" s="224"/>
-      <c r="S17" s="236"/>
-      <c r="T17" s="237"/>
+      <c r="P17" s="270"/>
+      <c r="Q17" s="238"/>
+      <c r="R17" s="270"/>
+      <c r="S17" s="235"/>
+      <c r="T17" s="228"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A18" s="261"/>
-      <c r="B18" s="233" t="s">
-        <v>65</v>
+      <c r="A18" s="275"/>
+      <c r="B18" s="279" t="s">
+        <v>62</v>
       </c>
-      <c r="C18" s="266"/>
-      <c r="D18" s="267"/>
+      <c r="C18" s="280"/>
+      <c r="D18" s="281"/>
       <c r="E18" s="82"/>
       <c r="F18" s="83"/>
       <c r="G18" s="65"/>
@@ -43890,22 +44403,22 @@
       <c r="L18" s="56"/>
       <c r="M18" s="37"/>
       <c r="N18" s="38"/>
-      <c r="O18" s="223" t="s">
-        <v>71</v>
+      <c r="O18" s="238" t="s">
+        <v>68</v>
       </c>
-      <c r="P18" s="224"/>
-      <c r="Q18" s="223"/>
-      <c r="R18" s="224"/>
-      <c r="S18" s="236"/>
-      <c r="T18" s="237"/>
+      <c r="P18" s="270"/>
+      <c r="Q18" s="238"/>
+      <c r="R18" s="270"/>
+      <c r="S18" s="235"/>
+      <c r="T18" s="228"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A19" s="261"/>
-      <c r="B19" s="238" t="s">
-        <v>55</v>
+      <c r="A19" s="275"/>
+      <c r="B19" s="252" t="s">
+        <v>53</v>
       </c>
-      <c r="C19" s="241"/>
-      <c r="D19" s="242"/>
+      <c r="C19" s="292"/>
+      <c r="D19" s="293"/>
       <c r="E19" s="82"/>
       <c r="F19" s="83"/>
       <c r="G19" s="65"/>
@@ -43916,22 +44429,22 @@
       <c r="L19" s="56"/>
       <c r="M19" s="37"/>
       <c r="N19" s="38"/>
-      <c r="O19" s="223" t="s">
-        <v>71</v>
+      <c r="O19" s="238" t="s">
+        <v>68</v>
       </c>
-      <c r="P19" s="224"/>
-      <c r="Q19" s="223"/>
-      <c r="R19" s="224"/>
-      <c r="S19" s="236"/>
-      <c r="T19" s="237"/>
+      <c r="P19" s="270"/>
+      <c r="Q19" s="238"/>
+      <c r="R19" s="270"/>
+      <c r="S19" s="235"/>
+      <c r="T19" s="228"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="261"/>
-      <c r="B20" s="238" t="s">
-        <v>56</v>
+      <c r="A20" s="275"/>
+      <c r="B20" s="252" t="s">
+        <v>54</v>
       </c>
-      <c r="C20" s="241"/>
-      <c r="D20" s="242"/>
+      <c r="C20" s="292"/>
+      <c r="D20" s="293"/>
       <c r="E20" s="82"/>
       <c r="F20" s="83"/>
       <c r="G20" s="65"/>
@@ -43942,22 +44455,22 @@
       <c r="L20" s="56"/>
       <c r="M20" s="37"/>
       <c r="N20" s="38"/>
-      <c r="O20" s="223" t="s">
-        <v>71</v>
+      <c r="O20" s="238" t="s">
+        <v>68</v>
       </c>
-      <c r="P20" s="224"/>
-      <c r="Q20" s="223"/>
-      <c r="R20" s="224"/>
-      <c r="S20" s="236"/>
-      <c r="T20" s="237"/>
+      <c r="P20" s="270"/>
+      <c r="Q20" s="238"/>
+      <c r="R20" s="270"/>
+      <c r="S20" s="235"/>
+      <c r="T20" s="228"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="261"/>
-      <c r="B21" s="238" t="s">
-        <v>58</v>
+      <c r="A21" s="275"/>
+      <c r="B21" s="252" t="s">
+        <v>56</v>
       </c>
-      <c r="C21" s="241"/>
-      <c r="D21" s="242"/>
+      <c r="C21" s="292"/>
+      <c r="D21" s="293"/>
       <c r="E21" s="82"/>
       <c r="F21" s="83"/>
       <c r="G21" s="65"/>
@@ -43968,22 +44481,22 @@
       <c r="L21" s="56"/>
       <c r="M21" s="37"/>
       <c r="N21" s="38"/>
-      <c r="O21" s="223" t="s">
-        <v>71</v>
+      <c r="O21" s="238" t="s">
+        <v>68</v>
       </c>
-      <c r="P21" s="224"/>
-      <c r="Q21" s="223"/>
-      <c r="R21" s="224"/>
-      <c r="S21" s="236"/>
-      <c r="T21" s="237"/>
+      <c r="P21" s="270"/>
+      <c r="Q21" s="238"/>
+      <c r="R21" s="270"/>
+      <c r="S21" s="235"/>
+      <c r="T21" s="228"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="261"/>
-      <c r="B22" s="238" t="s">
-        <v>57</v>
+      <c r="A22" s="275"/>
+      <c r="B22" s="252" t="s">
+        <v>55</v>
       </c>
-      <c r="C22" s="241"/>
-      <c r="D22" s="242"/>
+      <c r="C22" s="292"/>
+      <c r="D22" s="293"/>
       <c r="E22" s="82"/>
       <c r="F22" s="83"/>
       <c r="G22" s="65"/>
@@ -43994,22 +44507,22 @@
       <c r="L22" s="56"/>
       <c r="M22" s="37"/>
       <c r="N22" s="38"/>
-      <c r="O22" s="223" t="s">
-        <v>71</v>
+      <c r="O22" s="238" t="s">
+        <v>68</v>
       </c>
-      <c r="P22" s="224"/>
-      <c r="Q22" s="223"/>
-      <c r="R22" s="224"/>
-      <c r="S22" s="236"/>
-      <c r="T22" s="237"/>
+      <c r="P22" s="270"/>
+      <c r="Q22" s="238"/>
+      <c r="R22" s="270"/>
+      <c r="S22" s="235"/>
+      <c r="T22" s="228"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A23" s="261"/>
-      <c r="B23" s="238" t="s">
-        <v>59</v>
+      <c r="A23" s="275"/>
+      <c r="B23" s="252" t="s">
+        <v>57</v>
       </c>
-      <c r="C23" s="239"/>
-      <c r="D23" s="240"/>
+      <c r="C23" s="253"/>
+      <c r="D23" s="254"/>
       <c r="E23" s="82"/>
       <c r="F23" s="83"/>
       <c r="G23" s="65"/>
@@ -44020,22 +44533,22 @@
       <c r="L23" s="56"/>
       <c r="M23" s="37"/>
       <c r="N23" s="38"/>
-      <c r="O23" s="223" t="s">
-        <v>71</v>
+      <c r="O23" s="238" t="s">
+        <v>68</v>
       </c>
-      <c r="P23" s="224"/>
-      <c r="Q23" s="223"/>
-      <c r="R23" s="224"/>
-      <c r="S23" s="236"/>
-      <c r="T23" s="237"/>
+      <c r="P23" s="270"/>
+      <c r="Q23" s="238"/>
+      <c r="R23" s="270"/>
+      <c r="S23" s="235"/>
+      <c r="T23" s="228"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A24" s="261"/>
-      <c r="B24" s="233" t="s">
-        <v>62</v>
+      <c r="A24" s="275"/>
+      <c r="B24" s="279" t="s">
+        <v>59</v>
       </c>
-      <c r="C24" s="234"/>
-      <c r="D24" s="235"/>
+      <c r="C24" s="294"/>
+      <c r="D24" s="295"/>
       <c r="E24" s="82"/>
       <c r="F24" s="83"/>
       <c r="G24" s="65"/>
@@ -44046,22 +44559,22 @@
       <c r="L24" s="56"/>
       <c r="M24" s="37"/>
       <c r="N24" s="38"/>
-      <c r="O24" s="223" t="s">
-        <v>71</v>
+      <c r="O24" s="238" t="s">
+        <v>68</v>
       </c>
-      <c r="P24" s="224"/>
-      <c r="Q24" s="223"/>
-      <c r="R24" s="224"/>
-      <c r="S24" s="236"/>
-      <c r="T24" s="237"/>
+      <c r="P24" s="270"/>
+      <c r="Q24" s="238"/>
+      <c r="R24" s="270"/>
+      <c r="S24" s="235"/>
+      <c r="T24" s="228"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A25" s="261"/>
-      <c r="B25" s="233" t="s">
-        <v>61</v>
+      <c r="A25" s="275"/>
+      <c r="B25" s="279" t="s">
+        <v>58</v>
       </c>
-      <c r="C25" s="234"/>
-      <c r="D25" s="235"/>
+      <c r="C25" s="294"/>
+      <c r="D25" s="295"/>
       <c r="E25" s="82"/>
       <c r="F25" s="83"/>
       <c r="G25" s="65"/>
@@ -44072,22 +44585,22 @@
       <c r="L25" s="56"/>
       <c r="M25" s="37"/>
       <c r="N25" s="38"/>
-      <c r="O25" s="223" t="s">
-        <v>71</v>
+      <c r="O25" s="238" t="s">
+        <v>68</v>
       </c>
-      <c r="P25" s="224"/>
-      <c r="Q25" s="223"/>
-      <c r="R25" s="224"/>
-      <c r="S25" s="236"/>
-      <c r="T25" s="237"/>
+      <c r="P25" s="270"/>
+      <c r="Q25" s="238"/>
+      <c r="R25" s="270"/>
+      <c r="S25" s="235"/>
+      <c r="T25" s="228"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A26" s="261"/>
-      <c r="B26" s="233" t="s">
-        <v>63</v>
+      <c r="A26" s="275"/>
+      <c r="B26" s="279" t="s">
+        <v>60</v>
       </c>
-      <c r="C26" s="234"/>
-      <c r="D26" s="235"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="295"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="65"/>
@@ -44098,22 +44611,22 @@
       <c r="L26" s="56"/>
       <c r="M26" s="37"/>
       <c r="N26" s="38"/>
-      <c r="O26" s="223" t="s">
-        <v>71</v>
+      <c r="O26" s="238" t="s">
+        <v>68</v>
       </c>
-      <c r="P26" s="224"/>
-      <c r="Q26" s="223"/>
-      <c r="R26" s="224"/>
-      <c r="S26" s="236"/>
-      <c r="T26" s="237"/>
+      <c r="P26" s="270"/>
+      <c r="Q26" s="238"/>
+      <c r="R26" s="270"/>
+      <c r="S26" s="235"/>
+      <c r="T26" s="228"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="262"/>
-      <c r="B27" s="220" t="s">
-        <v>64</v>
+      <c r="A27" s="276"/>
+      <c r="B27" s="297" t="s">
+        <v>61</v>
       </c>
-      <c r="C27" s="221"/>
-      <c r="D27" s="222"/>
+      <c r="C27" s="298"/>
+      <c r="D27" s="299"/>
       <c r="E27" s="89"/>
       <c r="F27" s="90"/>
       <c r="G27" s="71"/>
@@ -44124,24 +44637,24 @@
       <c r="L27" s="59"/>
       <c r="M27" s="95"/>
       <c r="N27" s="41"/>
-      <c r="O27" s="223" t="s">
-        <v>71</v>
+      <c r="O27" s="238" t="s">
+        <v>68</v>
       </c>
-      <c r="P27" s="224"/>
-      <c r="Q27" s="223"/>
-      <c r="R27" s="224"/>
-      <c r="S27" s="225"/>
-      <c r="T27" s="226"/>
+      <c r="P27" s="270"/>
+      <c r="Q27" s="238"/>
+      <c r="R27" s="270"/>
+      <c r="S27" s="289"/>
+      <c r="T27" s="291"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
-      <c r="B28" s="227" t="s">
-        <v>66</v>
+      <c r="B28" s="300" t="s">
+        <v>63</v>
       </c>
-      <c r="C28" s="228"/>
-      <c r="D28" s="229"/>
+      <c r="C28" s="301"/>
+      <c r="D28" s="302"/>
       <c r="E28" s="91"/>
       <c r="F28" s="92"/>
       <c r="G28" s="73"/>
@@ -44152,21 +44665,21 @@
       <c r="L28" s="62"/>
       <c r="M28" s="96"/>
       <c r="N28" s="97"/>
-      <c r="O28" s="230"/>
-      <c r="P28" s="231"/>
-      <c r="Q28" s="231"/>
-      <c r="R28" s="231"/>
-      <c r="S28" s="231"/>
-      <c r="T28" s="232"/>
+      <c r="O28" s="303"/>
+      <c r="P28" s="232"/>
+      <c r="Q28" s="232"/>
+      <c r="R28" s="232"/>
+      <c r="S28" s="232"/>
+      <c r="T28" s="242"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="219"/>
-      <c r="C29" s="219"/>
-      <c r="D29" s="219"/>
+      <c r="B29" s="296"/>
+      <c r="C29" s="296"/>
+      <c r="D29" s="296"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -44176,130 +44689,147 @@
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="173" t="s">
-        <v>26</v>
+      <c r="B31" s="223" t="s">
+        <v>24</v>
       </c>
-      <c r="C31" s="173"/>
+      <c r="C31" s="223"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="173" t="s">
-        <v>27</v>
+      <c r="B32" s="223" t="s">
+        <v>25</v>
       </c>
-      <c r="C32" s="173"/>
+      <c r="C32" s="223"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1">
       <c r="A33" s="19"/>
-      <c r="B33" s="173" t="s">
-        <v>28</v>
+      <c r="B33" s="223" t="s">
+        <v>26</v>
       </c>
-      <c r="C33" s="173"/>
+      <c r="C33" s="223"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="173" t="s">
-        <v>29</v>
+      <c r="B34" s="223" t="s">
+        <v>27</v>
       </c>
-      <c r="C34" s="173"/>
+      <c r="C34" s="223"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="173" t="s">
-        <v>70</v>
+      <c r="B35" s="223" t="s">
+        <v>67</v>
       </c>
-      <c r="C35" s="173"/>
+      <c r="C35" s="223"/>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1">
-      <c r="B36" s="219"/>
-      <c r="C36" s="219"/>
-      <c r="D36" s="219"/>
+      <c r="B36" s="296"/>
+      <c r="C36" s="296"/>
+      <c r="D36" s="296"/>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1">
-      <c r="B37" s="219"/>
-      <c r="C37" s="219"/>
-      <c r="D37" s="219"/>
+      <c r="B37" s="296"/>
+      <c r="C37" s="296"/>
+      <c r="D37" s="296"/>
     </row>
     <row r="38" spans="1:6" ht="18" customHeight="1">
-      <c r="B38" s="219"/>
-      <c r="C38" s="219"/>
-      <c r="D38" s="219"/>
+      <c r="B38" s="296"/>
+      <c r="C38" s="296"/>
+      <c r="D38" s="296"/>
     </row>
     <row r="39" spans="1:6" ht="18" customHeight="1">
-      <c r="B39" s="219"/>
-      <c r="C39" s="219"/>
-      <c r="D39" s="219"/>
+      <c r="B39" s="296"/>
+      <c r="C39" s="296"/>
+      <c r="D39" s="296"/>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1">
-      <c r="B40" s="219"/>
-      <c r="C40" s="219"/>
-      <c r="D40" s="219"/>
+      <c r="B40" s="296"/>
+      <c r="C40" s="296"/>
+      <c r="D40" s="296"/>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1">
-      <c r="B41" s="219"/>
-      <c r="C41" s="219"/>
-      <c r="D41" s="219"/>
+      <c r="B41" s="296"/>
+      <c r="C41" s="296"/>
+      <c r="D41" s="296"/>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1">
-      <c r="B42" s="219"/>
-      <c r="C42" s="219"/>
-      <c r="D42" s="219"/>
+      <c r="B42" s="296"/>
+      <c r="C42" s="296"/>
+      <c r="D42" s="296"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="O12:P12"/>
@@ -44324,837 +44854,27 @@
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-  </mergeCells>
-  <phoneticPr fontId="8"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF4906B-027D-4E20-B248-E186BA8B7085}">
-  <dimension ref="A2:Y42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="5.453125" defaultRowHeight="18" customHeight="1"/>
-  <sheetData>
-    <row r="2" spans="1:25" ht="18" customHeight="1">
-      <c r="B2" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="291" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="292"/>
-      <c r="I2" s="281" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="236"/>
-      <c r="L2" s="291" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="292"/>
-      <c r="N2" s="281" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="236"/>
-      <c r="Q2" s="291" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="292"/>
-      <c r="S2" s="315">
-        <v>45451</v>
-      </c>
-      <c r="T2" s="236"/>
-      <c r="V2" s="291" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="292"/>
-      <c r="X2" s="315">
-        <v>45451</v>
-      </c>
-      <c r="Y2" s="236"/>
-    </row>
-    <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
-    <row r="4" spans="1:25" ht="15" customHeight="1">
-      <c r="D4" s="159" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="316" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="317"/>
-      <c r="G4" s="316" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="317"/>
-      <c r="I4" s="316" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="317"/>
-      <c r="K4" s="316" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="317"/>
-      <c r="M4" s="316" t="s">
-        <v>46</v>
-      </c>
-      <c r="N4" s="318"/>
-    </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="D5" s="160" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="236">
-        <v>10</v>
-      </c>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236">
-        <v>11</v>
-      </c>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236">
-        <v>12</v>
-      </c>
-      <c r="J5" s="236"/>
-      <c r="K5" s="236">
-        <v>13</v>
-      </c>
-      <c r="L5" s="236"/>
-      <c r="M5" s="236">
-        <v>14</v>
-      </c>
-      <c r="N5" s="314"/>
-    </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="D6" s="161" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="162" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="162" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="162" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="162" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="162" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="162" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="162" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="162" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="162" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="163" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="290" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" s="231"/>
-      <c r="Q6" s="295" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="231"/>
-      <c r="S6" s="295" t="s">
-        <v>68</v>
-      </c>
-      <c r="T6" s="232"/>
-    </row>
-    <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="273" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="263" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="276"/>
-      <c r="D7" s="310"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="157"/>
-      <c r="O7" s="311"/>
-      <c r="P7" s="279"/>
-      <c r="Q7" s="279"/>
-      <c r="R7" s="279"/>
-      <c r="S7" s="279"/>
-      <c r="T7" s="280"/>
-    </row>
-    <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="274"/>
-      <c r="B8" s="238" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="239"/>
-      <c r="D8" s="301"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="288"/>
-      <c r="P8" s="236"/>
-      <c r="Q8" s="236"/>
-      <c r="R8" s="236"/>
-      <c r="S8" s="236"/>
-      <c r="T8" s="237"/>
-    </row>
-    <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="274"/>
-      <c r="B9" s="238" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="239"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="288"/>
-      <c r="P9" s="236"/>
-      <c r="Q9" s="236"/>
-      <c r="R9" s="236"/>
-      <c r="S9" s="236"/>
-      <c r="T9" s="237"/>
-    </row>
-    <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="274"/>
-      <c r="B10" s="238" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="239"/>
-      <c r="D10" s="301"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="288"/>
-      <c r="P10" s="236"/>
-      <c r="Q10" s="236"/>
-      <c r="R10" s="236"/>
-      <c r="S10" s="236"/>
-      <c r="T10" s="237"/>
-    </row>
-    <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="275"/>
-      <c r="B11" s="282" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="283"/>
-      <c r="D11" s="312"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="313"/>
-      <c r="P11" s="286"/>
-      <c r="Q11" s="286"/>
-      <c r="R11" s="286"/>
-      <c r="S11" s="286"/>
-      <c r="T11" s="287"/>
-    </row>
-    <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="248" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="251" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="252"/>
-      <c r="D12" s="304"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="155"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="305"/>
-      <c r="P12" s="224"/>
-      <c r="Q12" s="224"/>
-      <c r="R12" s="224"/>
-      <c r="S12" s="224"/>
-      <c r="T12" s="256"/>
-    </row>
-    <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="249"/>
-      <c r="B13" s="257" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="258"/>
-      <c r="D13" s="306"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="288"/>
-      <c r="P13" s="236"/>
-      <c r="Q13" s="236"/>
-      <c r="R13" s="236"/>
-      <c r="S13" s="236"/>
-      <c r="T13" s="237"/>
-    </row>
-    <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="249"/>
-      <c r="B14" s="257" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="269"/>
-      <c r="D14" s="309"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="288"/>
-      <c r="P14" s="236"/>
-      <c r="Q14" s="236"/>
-      <c r="R14" s="236"/>
-      <c r="S14" s="236"/>
-      <c r="T14" s="237"/>
-    </row>
-    <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="250"/>
-      <c r="B15" s="243" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="244"/>
-      <c r="D15" s="303"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="59"/>
-      <c r="O15" s="297"/>
-      <c r="P15" s="225"/>
-      <c r="Q15" s="225"/>
-      <c r="R15" s="225"/>
-      <c r="S15" s="225"/>
-      <c r="T15" s="226"/>
-    </row>
-    <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="260" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="263" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="264"/>
-      <c r="D16" s="307"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="155"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="305"/>
-      <c r="P16" s="224"/>
-      <c r="Q16" s="224"/>
-      <c r="R16" s="224"/>
-      <c r="S16" s="224"/>
-      <c r="T16" s="256"/>
-    </row>
-    <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="261"/>
-      <c r="B17" s="233" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="266"/>
-      <c r="D17" s="308"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="156"/>
-      <c r="O17" s="288"/>
-      <c r="P17" s="236"/>
-      <c r="Q17" s="236"/>
-      <c r="R17" s="236"/>
-      <c r="S17" s="236"/>
-      <c r="T17" s="237"/>
-    </row>
-    <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="261"/>
-      <c r="B18" s="233" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="266"/>
-      <c r="D18" s="308"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="288"/>
-      <c r="P18" s="236"/>
-      <c r="Q18" s="236"/>
-      <c r="R18" s="236"/>
-      <c r="S18" s="236"/>
-      <c r="T18" s="237"/>
-    </row>
-    <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="261"/>
-      <c r="B19" s="238" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="241"/>
-      <c r="D19" s="302"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="288"/>
-      <c r="P19" s="236"/>
-      <c r="Q19" s="236"/>
-      <c r="R19" s="236"/>
-      <c r="S19" s="236"/>
-      <c r="T19" s="237"/>
-    </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="261"/>
-      <c r="B20" s="238" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="241"/>
-      <c r="D20" s="302"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="288"/>
-      <c r="P20" s="236"/>
-      <c r="Q20" s="236"/>
-      <c r="R20" s="236"/>
-      <c r="S20" s="236"/>
-      <c r="T20" s="237"/>
-    </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="261"/>
-      <c r="B21" s="238" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="241"/>
-      <c r="D21" s="302"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="288"/>
-      <c r="P21" s="236"/>
-      <c r="Q21" s="236"/>
-      <c r="R21" s="236"/>
-      <c r="S21" s="236"/>
-      <c r="T21" s="237"/>
-    </row>
-    <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="261"/>
-      <c r="B22" s="238" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="241"/>
-      <c r="D22" s="302"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="288"/>
-      <c r="P22" s="236"/>
-      <c r="Q22" s="236"/>
-      <c r="R22" s="236"/>
-      <c r="S22" s="236"/>
-      <c r="T22" s="237"/>
-    </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="261"/>
-      <c r="B23" s="238" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="239"/>
-      <c r="D23" s="301"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="288"/>
-      <c r="P23" s="236"/>
-      <c r="Q23" s="236"/>
-      <c r="R23" s="236"/>
-      <c r="S23" s="236"/>
-      <c r="T23" s="237"/>
-    </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="261"/>
-      <c r="B24" s="233" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="234"/>
-      <c r="D24" s="300"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="156"/>
-      <c r="O24" s="288"/>
-      <c r="P24" s="236"/>
-      <c r="Q24" s="236"/>
-      <c r="R24" s="236"/>
-      <c r="S24" s="236"/>
-      <c r="T24" s="237"/>
-    </row>
-    <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="261"/>
-      <c r="B25" s="233" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="234"/>
-      <c r="D25" s="300"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="154"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="288"/>
-      <c r="P25" s="236"/>
-      <c r="Q25" s="236"/>
-      <c r="R25" s="236"/>
-      <c r="S25" s="236"/>
-      <c r="T25" s="237"/>
-    </row>
-    <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="261"/>
-      <c r="B26" s="233" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="234"/>
-      <c r="D26" s="300"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="288"/>
-      <c r="P26" s="236"/>
-      <c r="Q26" s="236"/>
-      <c r="R26" s="236"/>
-      <c r="S26" s="236"/>
-      <c r="T26" s="237"/>
-    </row>
-    <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="262"/>
-      <c r="B27" s="220" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="221"/>
-      <c r="D27" s="296"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="297"/>
-      <c r="P27" s="225"/>
-      <c r="Q27" s="225"/>
-      <c r="R27" s="225"/>
-      <c r="S27" s="225"/>
-      <c r="T27" s="226"/>
-    </row>
-    <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="227" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="228"/>
-      <c r="D28" s="298"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="299"/>
-      <c r="P28" s="231"/>
-      <c r="Q28" s="231"/>
-      <c r="R28" s="231"/>
-      <c r="S28" s="231"/>
-      <c r="T28" s="232"/>
-    </row>
-    <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="219"/>
-      <c r="C29" s="219"/>
-      <c r="D29" s="219"/>
-    </row>
-    <row r="30" spans="1:20" ht="18" customHeight="1">
-      <c r="A30" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:20" ht="18" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="173" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="173"/>
-    </row>
-    <row r="32" spans="1:20" ht="18" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="173" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="173"/>
-    </row>
-    <row r="33" spans="1:4" ht="18" customHeight="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="173" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="173"/>
-    </row>
-    <row r="34" spans="1:4" ht="18" customHeight="1">
-      <c r="A34" s="20"/>
-      <c r="B34" s="173" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="173"/>
-    </row>
-    <row r="35" spans="1:4" ht="18" customHeight="1">
-      <c r="A35" s="75"/>
-      <c r="B35" s="173" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="173"/>
-    </row>
-    <row r="36" spans="1:4" ht="18" customHeight="1">
-      <c r="B36" s="219"/>
-      <c r="C36" s="219"/>
-      <c r="D36" s="219"/>
-    </row>
-    <row r="37" spans="1:4" ht="18" customHeight="1">
-      <c r="B37" s="219"/>
-      <c r="C37" s="219"/>
-      <c r="D37" s="219"/>
-    </row>
-    <row r="38" spans="1:4" ht="18" customHeight="1">
-      <c r="B38" s="219"/>
-      <c r="C38" s="219"/>
-      <c r="D38" s="219"/>
-    </row>
-    <row r="39" spans="1:4" ht="18" customHeight="1">
-      <c r="B39" s="219"/>
-      <c r="C39" s="219"/>
-      <c r="D39" s="219"/>
-    </row>
-    <row r="40" spans="1:4" ht="18" customHeight="1">
-      <c r="B40" s="219"/>
-      <c r="C40" s="219"/>
-      <c r="D40" s="219"/>
-    </row>
-    <row r="41" spans="1:4" ht="18" customHeight="1">
-      <c r="B41" s="219"/>
-      <c r="C41" s="219"/>
-      <c r="D41" s="219"/>
-    </row>
-    <row r="42" spans="1:4" ht="18" customHeight="1">
-      <c r="B42" s="219"/>
-      <c r="C42" s="219"/>
-      <c r="D42" s="219"/>
-    </row>
-  </sheetData>
-  <mergeCells count="125">
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -45176,27 +44896,837 @@
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="Q6:R6"/>
     <mergeCell ref="S6:T6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF4906B-027D-4E20-B248-E186BA8B7085}">
+  <dimension ref="A2:Y42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.453125" defaultRowHeight="18" customHeight="1"/>
+  <sheetData>
+    <row r="2" spans="1:25" ht="18" customHeight="1">
+      <c r="B2" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="233" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="234"/>
+      <c r="I2" s="240" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="235"/>
+      <c r="L2" s="233" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="234"/>
+      <c r="N2" s="240" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="235"/>
+      <c r="Q2" s="233" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="234"/>
+      <c r="S2" s="305">
+        <v>45451</v>
+      </c>
+      <c r="T2" s="235"/>
+      <c r="V2" s="233" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="234"/>
+      <c r="X2" s="305">
+        <v>45451</v>
+      </c>
+      <c r="Y2" s="235"/>
+    </row>
+    <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
+    <row r="4" spans="1:25" ht="15" customHeight="1">
+      <c r="D4" s="159" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="306" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="307"/>
+      <c r="G4" s="306" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="307"/>
+      <c r="I4" s="306" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="307"/>
+      <c r="K4" s="306" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="307"/>
+      <c r="M4" s="306" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="308"/>
+    </row>
+    <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="D5" s="160" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="235">
+        <v>10</v>
+      </c>
+      <c r="F5" s="235"/>
+      <c r="G5" s="235">
+        <v>11</v>
+      </c>
+      <c r="H5" s="235"/>
+      <c r="I5" s="235">
+        <v>12</v>
+      </c>
+      <c r="J5" s="235"/>
+      <c r="K5" s="235">
+        <v>13</v>
+      </c>
+      <c r="L5" s="235"/>
+      <c r="M5" s="235">
+        <v>14</v>
+      </c>
+      <c r="N5" s="304"/>
+    </row>
+    <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="D6" s="161" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="162" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="162" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="162" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="162" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="162" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="162" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="163" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="231" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="232"/>
+      <c r="Q6" s="241" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="232"/>
+      <c r="S6" s="241" t="s">
+        <v>65</v>
+      </c>
+      <c r="T6" s="242"/>
+    </row>
+    <row r="7" spans="1:25" ht="18" customHeight="1">
+      <c r="A7" s="243" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="246" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="247"/>
+      <c r="D7" s="309"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="153"/>
+      <c r="N7" s="157"/>
+      <c r="O7" s="310"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="251"/>
+    </row>
+    <row r="8" spans="1:25" ht="18" customHeight="1">
+      <c r="A8" s="244"/>
+      <c r="B8" s="252" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="253"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="154"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="227"/>
+      <c r="P8" s="235"/>
+      <c r="Q8" s="235"/>
+      <c r="R8" s="235"/>
+      <c r="S8" s="235"/>
+      <c r="T8" s="228"/>
+    </row>
+    <row r="9" spans="1:25" ht="18" customHeight="1">
+      <c r="A9" s="244"/>
+      <c r="B9" s="252" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="253"/>
+      <c r="D9" s="311"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="227"/>
+      <c r="P9" s="235"/>
+      <c r="Q9" s="235"/>
+      <c r="R9" s="235"/>
+      <c r="S9" s="235"/>
+      <c r="T9" s="228"/>
+    </row>
+    <row r="10" spans="1:25" ht="18" customHeight="1">
+      <c r="A10" s="244"/>
+      <c r="B10" s="252" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="253"/>
+      <c r="D10" s="311"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="227"/>
+      <c r="P10" s="235"/>
+      <c r="Q10" s="235"/>
+      <c r="R10" s="235"/>
+      <c r="S10" s="235"/>
+      <c r="T10" s="228"/>
+    </row>
+    <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
+      <c r="A11" s="245"/>
+      <c r="B11" s="256" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="257"/>
+      <c r="D11" s="312"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="313"/>
+      <c r="P11" s="260"/>
+      <c r="Q11" s="260"/>
+      <c r="R11" s="260"/>
+      <c r="S11" s="260"/>
+      <c r="T11" s="261"/>
+    </row>
+    <row r="12" spans="1:25" ht="18" customHeight="1">
+      <c r="A12" s="262" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="265" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="266"/>
+      <c r="D12" s="314"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="315"/>
+      <c r="P12" s="270"/>
+      <c r="Q12" s="270"/>
+      <c r="R12" s="270"/>
+      <c r="S12" s="270"/>
+      <c r="T12" s="237"/>
+    </row>
+    <row r="13" spans="1:25" ht="18" customHeight="1">
+      <c r="A13" s="263"/>
+      <c r="B13" s="271" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="272"/>
+      <c r="D13" s="316"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="154"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="154"/>
+      <c r="N13" s="156"/>
+      <c r="O13" s="227"/>
+      <c r="P13" s="235"/>
+      <c r="Q13" s="235"/>
+      <c r="R13" s="235"/>
+      <c r="S13" s="235"/>
+      <c r="T13" s="228"/>
+    </row>
+    <row r="14" spans="1:25" ht="18" customHeight="1">
+      <c r="A14" s="263"/>
+      <c r="B14" s="271" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="282"/>
+      <c r="D14" s="319"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="227"/>
+      <c r="P14" s="235"/>
+      <c r="Q14" s="235"/>
+      <c r="R14" s="235"/>
+      <c r="S14" s="235"/>
+      <c r="T14" s="228"/>
+    </row>
+    <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
+      <c r="A15" s="264"/>
+      <c r="B15" s="285" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="286"/>
+      <c r="D15" s="320"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="321"/>
+      <c r="P15" s="289"/>
+      <c r="Q15" s="289"/>
+      <c r="R15" s="289"/>
+      <c r="S15" s="289"/>
+      <c r="T15" s="291"/>
+    </row>
+    <row r="16" spans="1:25" ht="18" customHeight="1">
+      <c r="A16" s="274" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="246" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="277"/>
+      <c r="D16" s="317"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="315"/>
+      <c r="P16" s="270"/>
+      <c r="Q16" s="270"/>
+      <c r="R16" s="270"/>
+      <c r="S16" s="270"/>
+      <c r="T16" s="237"/>
+    </row>
+    <row r="17" spans="1:20" ht="18" customHeight="1">
+      <c r="A17" s="275"/>
+      <c r="B17" s="279" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="280"/>
+      <c r="D17" s="318"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="156"/>
+      <c r="O17" s="227"/>
+      <c r="P17" s="235"/>
+      <c r="Q17" s="235"/>
+      <c r="R17" s="235"/>
+      <c r="S17" s="235"/>
+      <c r="T17" s="228"/>
+    </row>
+    <row r="18" spans="1:20" ht="18" customHeight="1">
+      <c r="A18" s="275"/>
+      <c r="B18" s="279" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="280"/>
+      <c r="D18" s="318"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="227"/>
+      <c r="P18" s="235"/>
+      <c r="Q18" s="235"/>
+      <c r="R18" s="235"/>
+      <c r="S18" s="235"/>
+      <c r="T18" s="228"/>
+    </row>
+    <row r="19" spans="1:20" ht="18" customHeight="1">
+      <c r="A19" s="275"/>
+      <c r="B19" s="252" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="292"/>
+      <c r="D19" s="322"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="156"/>
+      <c r="O19" s="227"/>
+      <c r="P19" s="235"/>
+      <c r="Q19" s="235"/>
+      <c r="R19" s="235"/>
+      <c r="S19" s="235"/>
+      <c r="T19" s="228"/>
+    </row>
+    <row r="20" spans="1:20" ht="18" customHeight="1">
+      <c r="A20" s="275"/>
+      <c r="B20" s="252" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="292"/>
+      <c r="D20" s="322"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="156"/>
+      <c r="O20" s="227"/>
+      <c r="P20" s="235"/>
+      <c r="Q20" s="235"/>
+      <c r="R20" s="235"/>
+      <c r="S20" s="235"/>
+      <c r="T20" s="228"/>
+    </row>
+    <row r="21" spans="1:20" ht="18" customHeight="1">
+      <c r="A21" s="275"/>
+      <c r="B21" s="252" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="292"/>
+      <c r="D21" s="322"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="156"/>
+      <c r="O21" s="227"/>
+      <c r="P21" s="235"/>
+      <c r="Q21" s="235"/>
+      <c r="R21" s="235"/>
+      <c r="S21" s="235"/>
+      <c r="T21" s="228"/>
+    </row>
+    <row r="22" spans="1:20" ht="18" customHeight="1">
+      <c r="A22" s="275"/>
+      <c r="B22" s="252" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="292"/>
+      <c r="D22" s="322"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="156"/>
+      <c r="O22" s="227"/>
+      <c r="P22" s="235"/>
+      <c r="Q22" s="235"/>
+      <c r="R22" s="235"/>
+      <c r="S22" s="235"/>
+      <c r="T22" s="228"/>
+    </row>
+    <row r="23" spans="1:20" ht="18" customHeight="1">
+      <c r="A23" s="275"/>
+      <c r="B23" s="252" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="253"/>
+      <c r="D23" s="311"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="156"/>
+      <c r="O23" s="227"/>
+      <c r="P23" s="235"/>
+      <c r="Q23" s="235"/>
+      <c r="R23" s="235"/>
+      <c r="S23" s="235"/>
+      <c r="T23" s="228"/>
+    </row>
+    <row r="24" spans="1:20" ht="18" customHeight="1">
+      <c r="A24" s="275"/>
+      <c r="B24" s="279" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="294"/>
+      <c r="D24" s="323"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="154"/>
+      <c r="N24" s="156"/>
+      <c r="O24" s="227"/>
+      <c r="P24" s="235"/>
+      <c r="Q24" s="235"/>
+      <c r="R24" s="235"/>
+      <c r="S24" s="235"/>
+      <c r="T24" s="228"/>
+    </row>
+    <row r="25" spans="1:20" ht="18" customHeight="1">
+      <c r="A25" s="275"/>
+      <c r="B25" s="279" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="294"/>
+      <c r="D25" s="323"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="154"/>
+      <c r="N25" s="156"/>
+      <c r="O25" s="227"/>
+      <c r="P25" s="235"/>
+      <c r="Q25" s="235"/>
+      <c r="R25" s="235"/>
+      <c r="S25" s="235"/>
+      <c r="T25" s="228"/>
+    </row>
+    <row r="26" spans="1:20" ht="18" customHeight="1">
+      <c r="A26" s="275"/>
+      <c r="B26" s="279" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="294"/>
+      <c r="D26" s="323"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="154"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="227"/>
+      <c r="P26" s="235"/>
+      <c r="Q26" s="235"/>
+      <c r="R26" s="235"/>
+      <c r="S26" s="235"/>
+      <c r="T26" s="228"/>
+    </row>
+    <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
+      <c r="A27" s="276"/>
+      <c r="B27" s="297" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="298"/>
+      <c r="D27" s="324"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="40"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="321"/>
+      <c r="P27" s="289"/>
+      <c r="Q27" s="289"/>
+      <c r="R27" s="289"/>
+      <c r="S27" s="289"/>
+      <c r="T27" s="291"/>
+    </row>
+    <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
+      <c r="A28" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="300" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="301"/>
+      <c r="D28" s="325"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="326"/>
+      <c r="P28" s="232"/>
+      <c r="Q28" s="232"/>
+      <c r="R28" s="232"/>
+      <c r="S28" s="232"/>
+      <c r="T28" s="242"/>
+    </row>
+    <row r="29" spans="1:20" ht="18" customHeight="1">
+      <c r="B29" s="296"/>
+      <c r="C29" s="296"/>
+      <c r="D29" s="296"/>
+    </row>
+    <row r="30" spans="1:20" ht="18" customHeight="1">
+      <c r="A30" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:20" ht="18" customHeight="1">
+      <c r="A31" s="17"/>
+      <c r="B31" s="223" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="223"/>
+    </row>
+    <row r="32" spans="1:20" ht="18" customHeight="1">
+      <c r="A32" s="18"/>
+      <c r="B32" s="223" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="223"/>
+    </row>
+    <row r="33" spans="1:4" ht="18" customHeight="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="223" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="223"/>
+    </row>
+    <row r="34" spans="1:4" ht="18" customHeight="1">
+      <c r="A34" s="20"/>
+      <c r="B34" s="223" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="223"/>
+    </row>
+    <row r="35" spans="1:4" ht="18" customHeight="1">
+      <c r="A35" s="75"/>
+      <c r="B35" s="223" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="223"/>
+    </row>
+    <row r="36" spans="1:4" ht="18" customHeight="1">
+      <c r="B36" s="296"/>
+      <c r="C36" s="296"/>
+      <c r="D36" s="296"/>
+    </row>
+    <row r="37" spans="1:4" ht="18" customHeight="1">
+      <c r="B37" s="296"/>
+      <c r="C37" s="296"/>
+      <c r="D37" s="296"/>
+    </row>
+    <row r="38" spans="1:4" ht="18" customHeight="1">
+      <c r="B38" s="296"/>
+      <c r="C38" s="296"/>
+      <c r="D38" s="296"/>
+    </row>
+    <row r="39" spans="1:4" ht="18" customHeight="1">
+      <c r="B39" s="296"/>
+      <c r="C39" s="296"/>
+      <c r="D39" s="296"/>
+    </row>
+    <row r="40" spans="1:4" ht="18" customHeight="1">
+      <c r="B40" s="296"/>
+      <c r="C40" s="296"/>
+      <c r="D40" s="296"/>
+    </row>
+    <row r="41" spans="1:4" ht="18" customHeight="1">
+      <c r="B41" s="296"/>
+      <c r="C41" s="296"/>
+      <c r="D41" s="296"/>
+    </row>
+    <row r="42" spans="1:4" ht="18" customHeight="1">
+      <c r="B42" s="296"/>
+      <c r="C42" s="296"/>
+      <c r="D42" s="296"/>
+    </row>
+  </sheetData>
+  <mergeCells count="125">
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="O12:P12"/>
@@ -45221,65 +45751,48 @@
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45299,134 +45812,134 @@
   <sheetData>
     <row r="2" spans="1:25" ht="18" customHeight="1">
       <c r="B2" s="33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
-      <c r="G2" s="291" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="292"/>
-      <c r="I2" s="281" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="236"/>
-      <c r="L2" s="291" t="s">
+      <c r="G2" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="292"/>
-      <c r="N2" s="281" t="s">
-        <v>36</v>
+      <c r="H2" s="234"/>
+      <c r="I2" s="240" t="s">
+        <v>34</v>
       </c>
-      <c r="O2" s="236"/>
-      <c r="Q2" s="291" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="292"/>
-      <c r="S2" s="236"/>
-      <c r="T2" s="236"/>
-      <c r="V2" s="291" t="s">
+      <c r="J2" s="235"/>
+      <c r="L2" s="233" t="s">
         <v>33</v>
       </c>
-      <c r="W2" s="292"/>
-      <c r="X2" s="236"/>
-      <c r="Y2" s="236"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="240" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="235"/>
+      <c r="Q2" s="233" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="234"/>
+      <c r="S2" s="235"/>
+      <c r="T2" s="235"/>
+      <c r="V2" s="233" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="234"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="D4" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="236" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="237"/>
+      <c r="G4" s="238" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="239"/>
+      <c r="I4" s="236" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="237"/>
+      <c r="K4" s="238" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="239"/>
+      <c r="M4" s="236" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="237"/>
+    </row>
+    <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="D5" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="227"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="229"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="227"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="229"/>
+      <c r="L5" s="230"/>
+      <c r="M5" s="227"/>
+      <c r="N5" s="228"/>
+    </row>
+    <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="D6" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="293" t="s">
-        <v>42</v>
+      <c r="F6" s="44" t="s">
+        <v>39</v>
       </c>
-      <c r="F4" s="256"/>
-      <c r="G4" s="223" t="s">
-        <v>43</v>
+      <c r="G6" s="79" t="s">
+        <v>38</v>
       </c>
-      <c r="H4" s="294"/>
-      <c r="I4" s="293" t="s">
-        <v>44</v>
+      <c r="H6" s="54" t="s">
+        <v>39</v>
       </c>
-      <c r="J4" s="256"/>
-      <c r="K4" s="223" t="s">
-        <v>45</v>
+      <c r="I6" s="39" t="s">
+        <v>38</v>
       </c>
-      <c r="L4" s="294"/>
-      <c r="M4" s="293" t="s">
+      <c r="J6" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="327" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="232"/>
+      <c r="Q6" s="241" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" s="232"/>
+      <c r="S6" s="241" t="s">
+        <v>65</v>
+      </c>
+      <c r="T6" s="242"/>
+    </row>
+    <row r="7" spans="1:25" ht="18" customHeight="1">
+      <c r="A7" s="243" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="246" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="256"/>
-    </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="D5" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="288"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="272"/>
-      <c r="H5" s="289"/>
-      <c r="I5" s="288"/>
-      <c r="J5" s="237"/>
-      <c r="K5" s="272"/>
-      <c r="L5" s="289"/>
-      <c r="M5" s="288"/>
-      <c r="N5" s="237"/>
-    </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="D6" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="319" t="s">
-        <v>67</v>
-      </c>
-      <c r="P6" s="231"/>
-      <c r="Q6" s="295" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="231"/>
-      <c r="S6" s="295" t="s">
-        <v>68</v>
-      </c>
-      <c r="T6" s="232"/>
-    </row>
-    <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="273" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="263" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="276"/>
-      <c r="D7" s="277"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="93"/>
       <c r="F7" s="43"/>
       <c r="G7" s="45"/>
@@ -45437,20 +45950,20 @@
       <c r="L7" s="55"/>
       <c r="M7" s="93"/>
       <c r="N7" s="43"/>
-      <c r="O7" s="311"/>
-      <c r="P7" s="279"/>
-      <c r="Q7" s="279"/>
-      <c r="R7" s="279"/>
-      <c r="S7" s="279"/>
-      <c r="T7" s="280"/>
+      <c r="O7" s="310"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="251"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="274"/>
-      <c r="B8" s="238" t="s">
-        <v>49</v>
+      <c r="A8" s="244"/>
+      <c r="B8" s="252" t="s">
+        <v>47</v>
       </c>
-      <c r="C8" s="239"/>
-      <c r="D8" s="240"/>
+      <c r="C8" s="253"/>
+      <c r="D8" s="254"/>
       <c r="E8" s="37"/>
       <c r="F8" s="38"/>
       <c r="G8" s="46"/>
@@ -45461,20 +45974,20 @@
       <c r="L8" s="56"/>
       <c r="M8" s="37"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="288"/>
-      <c r="P8" s="236"/>
-      <c r="Q8" s="236"/>
-      <c r="R8" s="236"/>
-      <c r="S8" s="236"/>
-      <c r="T8" s="237"/>
+      <c r="O8" s="227"/>
+      <c r="P8" s="235"/>
+      <c r="Q8" s="235"/>
+      <c r="R8" s="235"/>
+      <c r="S8" s="235"/>
+      <c r="T8" s="228"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="274"/>
-      <c r="B9" s="238" t="s">
-        <v>50</v>
+      <c r="A9" s="244"/>
+      <c r="B9" s="252" t="s">
+        <v>48</v>
       </c>
-      <c r="C9" s="239"/>
-      <c r="D9" s="240"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="254"/>
       <c r="E9" s="37"/>
       <c r="F9" s="38"/>
       <c r="G9" s="46"/>
@@ -45485,20 +45998,20 @@
       <c r="L9" s="56"/>
       <c r="M9" s="37"/>
       <c r="N9" s="38"/>
-      <c r="O9" s="288"/>
-      <c r="P9" s="236"/>
-      <c r="Q9" s="236"/>
-      <c r="R9" s="236"/>
-      <c r="S9" s="236"/>
-      <c r="T9" s="237"/>
+      <c r="O9" s="227"/>
+      <c r="P9" s="235"/>
+      <c r="Q9" s="235"/>
+      <c r="R9" s="235"/>
+      <c r="S9" s="235"/>
+      <c r="T9" s="228"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="274"/>
-      <c r="B10" s="238" t="s">
-        <v>15</v>
+      <c r="A10" s="244"/>
+      <c r="B10" s="252" t="s">
+        <v>13</v>
       </c>
-      <c r="C10" s="239"/>
-      <c r="D10" s="240"/>
+      <c r="C10" s="253"/>
+      <c r="D10" s="254"/>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
       <c r="G10" s="46"/>
@@ -45509,20 +46022,20 @@
       <c r="L10" s="56"/>
       <c r="M10" s="37"/>
       <c r="N10" s="38"/>
-      <c r="O10" s="288"/>
-      <c r="P10" s="236"/>
-      <c r="Q10" s="236"/>
-      <c r="R10" s="236"/>
-      <c r="S10" s="236"/>
-      <c r="T10" s="237"/>
+      <c r="O10" s="227"/>
+      <c r="P10" s="235"/>
+      <c r="Q10" s="235"/>
+      <c r="R10" s="235"/>
+      <c r="S10" s="235"/>
+      <c r="T10" s="228"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="275"/>
-      <c r="B11" s="282" t="s">
-        <v>16</v>
+      <c r="A11" s="245"/>
+      <c r="B11" s="256" t="s">
+        <v>14</v>
       </c>
-      <c r="C11" s="283"/>
-      <c r="D11" s="284"/>
+      <c r="C11" s="257"/>
+      <c r="D11" s="258"/>
       <c r="E11" s="94"/>
       <c r="F11" s="51"/>
       <c r="G11" s="49"/>
@@ -45534,21 +46047,21 @@
       <c r="M11" s="94"/>
       <c r="N11" s="51"/>
       <c r="O11" s="313"/>
-      <c r="P11" s="286"/>
-      <c r="Q11" s="286"/>
-      <c r="R11" s="286"/>
-      <c r="S11" s="286"/>
-      <c r="T11" s="287"/>
+      <c r="P11" s="260"/>
+      <c r="Q11" s="260"/>
+      <c r="R11" s="260"/>
+      <c r="S11" s="260"/>
+      <c r="T11" s="261"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="248" t="s">
-        <v>21</v>
+      <c r="A12" s="262" t="s">
+        <v>19</v>
       </c>
-      <c r="B12" s="251" t="s">
-        <v>51</v>
+      <c r="B12" s="265" t="s">
+        <v>49</v>
       </c>
-      <c r="C12" s="252"/>
-      <c r="D12" s="253"/>
+      <c r="C12" s="266"/>
+      <c r="D12" s="267"/>
       <c r="E12" s="35"/>
       <c r="F12" s="53"/>
       <c r="G12" s="52"/>
@@ -45559,20 +46072,20 @@
       <c r="L12" s="58"/>
       <c r="M12" s="35"/>
       <c r="N12" s="53"/>
-      <c r="O12" s="305"/>
-      <c r="P12" s="224"/>
-      <c r="Q12" s="224"/>
-      <c r="R12" s="224"/>
-      <c r="S12" s="224"/>
-      <c r="T12" s="256"/>
+      <c r="O12" s="315"/>
+      <c r="P12" s="270"/>
+      <c r="Q12" s="270"/>
+      <c r="R12" s="270"/>
+      <c r="S12" s="270"/>
+      <c r="T12" s="237"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="249"/>
-      <c r="B13" s="257" t="s">
-        <v>21</v>
+      <c r="A13" s="263"/>
+      <c r="B13" s="271" t="s">
+        <v>19</v>
       </c>
-      <c r="C13" s="258"/>
-      <c r="D13" s="259"/>
+      <c r="C13" s="272"/>
+      <c r="D13" s="273"/>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
       <c r="G13" s="46"/>
@@ -45583,20 +46096,20 @@
       <c r="L13" s="56"/>
       <c r="M13" s="37"/>
       <c r="N13" s="38"/>
-      <c r="O13" s="288"/>
-      <c r="P13" s="236"/>
-      <c r="Q13" s="236"/>
-      <c r="R13" s="236"/>
-      <c r="S13" s="236"/>
-      <c r="T13" s="237"/>
+      <c r="O13" s="227"/>
+      <c r="P13" s="235"/>
+      <c r="Q13" s="235"/>
+      <c r="R13" s="235"/>
+      <c r="S13" s="235"/>
+      <c r="T13" s="228"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="249"/>
-      <c r="B14" s="257" t="s">
-        <v>52</v>
+      <c r="A14" s="263"/>
+      <c r="B14" s="271" t="s">
+        <v>50</v>
       </c>
-      <c r="C14" s="269"/>
-      <c r="D14" s="270"/>
+      <c r="C14" s="282"/>
+      <c r="D14" s="283"/>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
       <c r="G14" s="46"/>
@@ -45607,20 +46120,20 @@
       <c r="L14" s="56"/>
       <c r="M14" s="37"/>
       <c r="N14" s="38"/>
-      <c r="O14" s="288"/>
-      <c r="P14" s="236"/>
-      <c r="Q14" s="236"/>
-      <c r="R14" s="236"/>
-      <c r="S14" s="236"/>
-      <c r="T14" s="237"/>
+      <c r="O14" s="227"/>
+      <c r="P14" s="235"/>
+      <c r="Q14" s="235"/>
+      <c r="R14" s="235"/>
+      <c r="S14" s="235"/>
+      <c r="T14" s="228"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="250"/>
-      <c r="B15" s="243" t="s">
-        <v>53</v>
+      <c r="A15" s="264"/>
+      <c r="B15" s="285" t="s">
+        <v>51</v>
       </c>
-      <c r="C15" s="244"/>
-      <c r="D15" s="245"/>
+      <c r="C15" s="286"/>
+      <c r="D15" s="287"/>
       <c r="E15" s="95"/>
       <c r="F15" s="41"/>
       <c r="G15" s="47"/>
@@ -45631,22 +46144,22 @@
       <c r="L15" s="59"/>
       <c r="M15" s="95"/>
       <c r="N15" s="41"/>
-      <c r="O15" s="297"/>
-      <c r="P15" s="225"/>
-      <c r="Q15" s="225"/>
-      <c r="R15" s="225"/>
-      <c r="S15" s="225"/>
-      <c r="T15" s="226"/>
+      <c r="O15" s="321"/>
+      <c r="P15" s="289"/>
+      <c r="Q15" s="289"/>
+      <c r="R15" s="289"/>
+      <c r="S15" s="289"/>
+      <c r="T15" s="291"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="260" t="s">
-        <v>22</v>
+      <c r="A16" s="274" t="s">
+        <v>20</v>
       </c>
-      <c r="B16" s="263" t="s">
-        <v>54</v>
+      <c r="B16" s="246" t="s">
+        <v>52</v>
       </c>
-      <c r="C16" s="264"/>
-      <c r="D16" s="265"/>
+      <c r="C16" s="277"/>
+      <c r="D16" s="278"/>
       <c r="E16" s="35"/>
       <c r="F16" s="53"/>
       <c r="G16" s="52"/>
@@ -45657,20 +46170,20 @@
       <c r="L16" s="58"/>
       <c r="M16" s="35"/>
       <c r="N16" s="53"/>
-      <c r="O16" s="305"/>
-      <c r="P16" s="224"/>
-      <c r="Q16" s="224"/>
-      <c r="R16" s="224"/>
-      <c r="S16" s="224"/>
-      <c r="T16" s="256"/>
+      <c r="O16" s="315"/>
+      <c r="P16" s="270"/>
+      <c r="Q16" s="270"/>
+      <c r="R16" s="270"/>
+      <c r="S16" s="270"/>
+      <c r="T16" s="237"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="261"/>
-      <c r="B17" s="233" t="s">
-        <v>54</v>
+      <c r="A17" s="275"/>
+      <c r="B17" s="279" t="s">
+        <v>52</v>
       </c>
-      <c r="C17" s="266"/>
-      <c r="D17" s="267"/>
+      <c r="C17" s="280"/>
+      <c r="D17" s="281"/>
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
       <c r="G17" s="46"/>
@@ -45681,20 +46194,20 @@
       <c r="L17" s="56"/>
       <c r="M17" s="37"/>
       <c r="N17" s="38"/>
-      <c r="O17" s="288"/>
-      <c r="P17" s="236"/>
-      <c r="Q17" s="236"/>
-      <c r="R17" s="236"/>
-      <c r="S17" s="236"/>
-      <c r="T17" s="237"/>
+      <c r="O17" s="227"/>
+      <c r="P17" s="235"/>
+      <c r="Q17" s="235"/>
+      <c r="R17" s="235"/>
+      <c r="S17" s="235"/>
+      <c r="T17" s="228"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="261"/>
-      <c r="B18" s="233" t="s">
-        <v>65</v>
+      <c r="A18" s="275"/>
+      <c r="B18" s="279" t="s">
+        <v>62</v>
       </c>
-      <c r="C18" s="266"/>
-      <c r="D18" s="267"/>
+      <c r="C18" s="280"/>
+      <c r="D18" s="281"/>
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
       <c r="G18" s="46"/>
@@ -45705,20 +46218,20 @@
       <c r="L18" s="56"/>
       <c r="M18" s="37"/>
       <c r="N18" s="38"/>
-      <c r="O18" s="288"/>
-      <c r="P18" s="236"/>
-      <c r="Q18" s="236"/>
-      <c r="R18" s="236"/>
-      <c r="S18" s="236"/>
-      <c r="T18" s="237"/>
+      <c r="O18" s="227"/>
+      <c r="P18" s="235"/>
+      <c r="Q18" s="235"/>
+      <c r="R18" s="235"/>
+      <c r="S18" s="235"/>
+      <c r="T18" s="228"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="261"/>
-      <c r="B19" s="238" t="s">
-        <v>55</v>
+      <c r="A19" s="275"/>
+      <c r="B19" s="252" t="s">
+        <v>53</v>
       </c>
-      <c r="C19" s="241"/>
-      <c r="D19" s="242"/>
+      <c r="C19" s="292"/>
+      <c r="D19" s="293"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
       <c r="G19" s="46"/>
@@ -45729,20 +46242,20 @@
       <c r="L19" s="56"/>
       <c r="M19" s="37"/>
       <c r="N19" s="38"/>
-      <c r="O19" s="288"/>
-      <c r="P19" s="236"/>
-      <c r="Q19" s="236"/>
-      <c r="R19" s="236"/>
-      <c r="S19" s="236"/>
-      <c r="T19" s="237"/>
+      <c r="O19" s="227"/>
+      <c r="P19" s="235"/>
+      <c r="Q19" s="235"/>
+      <c r="R19" s="235"/>
+      <c r="S19" s="235"/>
+      <c r="T19" s="228"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="261"/>
-      <c r="B20" s="238" t="s">
-        <v>56</v>
+      <c r="A20" s="275"/>
+      <c r="B20" s="252" t="s">
+        <v>54</v>
       </c>
-      <c r="C20" s="241"/>
-      <c r="D20" s="242"/>
+      <c r="C20" s="292"/>
+      <c r="D20" s="293"/>
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
       <c r="G20" s="46"/>
@@ -45753,20 +46266,20 @@
       <c r="L20" s="56"/>
       <c r="M20" s="37"/>
       <c r="N20" s="38"/>
-      <c r="O20" s="288"/>
-      <c r="P20" s="236"/>
-      <c r="Q20" s="236"/>
-      <c r="R20" s="236"/>
-      <c r="S20" s="236"/>
-      <c r="T20" s="237"/>
+      <c r="O20" s="227"/>
+      <c r="P20" s="235"/>
+      <c r="Q20" s="235"/>
+      <c r="R20" s="235"/>
+      <c r="S20" s="235"/>
+      <c r="T20" s="228"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="261"/>
-      <c r="B21" s="238" t="s">
-        <v>58</v>
+      <c r="A21" s="275"/>
+      <c r="B21" s="252" t="s">
+        <v>56</v>
       </c>
-      <c r="C21" s="241"/>
-      <c r="D21" s="242"/>
+      <c r="C21" s="292"/>
+      <c r="D21" s="293"/>
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
       <c r="G21" s="46"/>
@@ -45777,20 +46290,20 @@
       <c r="L21" s="56"/>
       <c r="M21" s="37"/>
       <c r="N21" s="38"/>
-      <c r="O21" s="288"/>
-      <c r="P21" s="236"/>
-      <c r="Q21" s="236"/>
-      <c r="R21" s="236"/>
-      <c r="S21" s="236"/>
-      <c r="T21" s="237"/>
+      <c r="O21" s="227"/>
+      <c r="P21" s="235"/>
+      <c r="Q21" s="235"/>
+      <c r="R21" s="235"/>
+      <c r="S21" s="235"/>
+      <c r="T21" s="228"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="261"/>
-      <c r="B22" s="238" t="s">
-        <v>57</v>
+      <c r="A22" s="275"/>
+      <c r="B22" s="252" t="s">
+        <v>55</v>
       </c>
-      <c r="C22" s="241"/>
-      <c r="D22" s="242"/>
+      <c r="C22" s="292"/>
+      <c r="D22" s="293"/>
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
       <c r="G22" s="46"/>
@@ -45801,20 +46314,20 @@
       <c r="L22" s="56"/>
       <c r="M22" s="37"/>
       <c r="N22" s="38"/>
-      <c r="O22" s="288"/>
-      <c r="P22" s="236"/>
-      <c r="Q22" s="236"/>
-      <c r="R22" s="236"/>
-      <c r="S22" s="236"/>
-      <c r="T22" s="237"/>
+      <c r="O22" s="227"/>
+      <c r="P22" s="235"/>
+      <c r="Q22" s="235"/>
+      <c r="R22" s="235"/>
+      <c r="S22" s="235"/>
+      <c r="T22" s="228"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="261"/>
-      <c r="B23" s="238" t="s">
-        <v>59</v>
+      <c r="A23" s="275"/>
+      <c r="B23" s="252" t="s">
+        <v>57</v>
       </c>
-      <c r="C23" s="239"/>
-      <c r="D23" s="240"/>
+      <c r="C23" s="253"/>
+      <c r="D23" s="254"/>
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
       <c r="G23" s="46"/>
@@ -45825,20 +46338,20 @@
       <c r="L23" s="56"/>
       <c r="M23" s="37"/>
       <c r="N23" s="38"/>
-      <c r="O23" s="288"/>
-      <c r="P23" s="236"/>
-      <c r="Q23" s="236"/>
-      <c r="R23" s="236"/>
-      <c r="S23" s="236"/>
-      <c r="T23" s="237"/>
+      <c r="O23" s="227"/>
+      <c r="P23" s="235"/>
+      <c r="Q23" s="235"/>
+      <c r="R23" s="235"/>
+      <c r="S23" s="235"/>
+      <c r="T23" s="228"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="261"/>
-      <c r="B24" s="233" t="s">
-        <v>62</v>
+      <c r="A24" s="275"/>
+      <c r="B24" s="279" t="s">
+        <v>59</v>
       </c>
-      <c r="C24" s="234"/>
-      <c r="D24" s="235"/>
+      <c r="C24" s="294"/>
+      <c r="D24" s="295"/>
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
       <c r="G24" s="46"/>
@@ -45849,20 +46362,20 @@
       <c r="L24" s="56"/>
       <c r="M24" s="37"/>
       <c r="N24" s="38"/>
-      <c r="O24" s="288"/>
-      <c r="P24" s="236"/>
-      <c r="Q24" s="236"/>
-      <c r="R24" s="236"/>
-      <c r="S24" s="236"/>
-      <c r="T24" s="237"/>
+      <c r="O24" s="227"/>
+      <c r="P24" s="235"/>
+      <c r="Q24" s="235"/>
+      <c r="R24" s="235"/>
+      <c r="S24" s="235"/>
+      <c r="T24" s="228"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="261"/>
-      <c r="B25" s="233" t="s">
-        <v>61</v>
+      <c r="A25" s="275"/>
+      <c r="B25" s="279" t="s">
+        <v>58</v>
       </c>
-      <c r="C25" s="234"/>
-      <c r="D25" s="235"/>
+      <c r="C25" s="294"/>
+      <c r="D25" s="295"/>
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
       <c r="G25" s="46"/>
@@ -45873,20 +46386,20 @@
       <c r="L25" s="56"/>
       <c r="M25" s="37"/>
       <c r="N25" s="38"/>
-      <c r="O25" s="288"/>
-      <c r="P25" s="236"/>
-      <c r="Q25" s="236"/>
-      <c r="R25" s="236"/>
-      <c r="S25" s="236"/>
-      <c r="T25" s="237"/>
+      <c r="O25" s="227"/>
+      <c r="P25" s="235"/>
+      <c r="Q25" s="235"/>
+      <c r="R25" s="235"/>
+      <c r="S25" s="235"/>
+      <c r="T25" s="228"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="261"/>
-      <c r="B26" s="233" t="s">
-        <v>63</v>
+      <c r="A26" s="275"/>
+      <c r="B26" s="279" t="s">
+        <v>60</v>
       </c>
-      <c r="C26" s="234"/>
-      <c r="D26" s="235"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="295"/>
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
       <c r="G26" s="46"/>
@@ -45897,20 +46410,20 @@
       <c r="L26" s="56"/>
       <c r="M26" s="37"/>
       <c r="N26" s="38"/>
-      <c r="O26" s="288"/>
-      <c r="P26" s="236"/>
-      <c r="Q26" s="236"/>
-      <c r="R26" s="236"/>
-      <c r="S26" s="236"/>
-      <c r="T26" s="237"/>
+      <c r="O26" s="227"/>
+      <c r="P26" s="235"/>
+      <c r="Q26" s="235"/>
+      <c r="R26" s="235"/>
+      <c r="S26" s="235"/>
+      <c r="T26" s="228"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="262"/>
-      <c r="B27" s="220" t="s">
-        <v>64</v>
+      <c r="A27" s="276"/>
+      <c r="B27" s="297" t="s">
+        <v>61</v>
       </c>
-      <c r="C27" s="221"/>
-      <c r="D27" s="222"/>
+      <c r="C27" s="298"/>
+      <c r="D27" s="299"/>
       <c r="E27" s="95"/>
       <c r="F27" s="41"/>
       <c r="G27" s="47"/>
@@ -45921,22 +46434,22 @@
       <c r="L27" s="59"/>
       <c r="M27" s="95"/>
       <c r="N27" s="41"/>
-      <c r="O27" s="297"/>
-      <c r="P27" s="225"/>
-      <c r="Q27" s="225"/>
-      <c r="R27" s="225"/>
-      <c r="S27" s="225"/>
-      <c r="T27" s="226"/>
+      <c r="O27" s="321"/>
+      <c r="P27" s="289"/>
+      <c r="Q27" s="289"/>
+      <c r="R27" s="289"/>
+      <c r="S27" s="289"/>
+      <c r="T27" s="291"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
-      <c r="B28" s="227" t="s">
-        <v>66</v>
+      <c r="B28" s="300" t="s">
+        <v>63</v>
       </c>
-      <c r="C28" s="228"/>
-      <c r="D28" s="229"/>
+      <c r="C28" s="301"/>
+      <c r="D28" s="302"/>
       <c r="E28" s="96"/>
       <c r="F28" s="97"/>
       <c r="G28" s="60"/>
@@ -45947,123 +46460,168 @@
       <c r="L28" s="62"/>
       <c r="M28" s="96"/>
       <c r="N28" s="97"/>
-      <c r="O28" s="299"/>
-      <c r="P28" s="231"/>
-      <c r="Q28" s="231"/>
-      <c r="R28" s="231"/>
-      <c r="S28" s="231"/>
-      <c r="T28" s="232"/>
+      <c r="O28" s="326"/>
+      <c r="P28" s="232"/>
+      <c r="Q28" s="232"/>
+      <c r="R28" s="232"/>
+      <c r="S28" s="232"/>
+      <c r="T28" s="242"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="219"/>
-      <c r="C29" s="219"/>
-      <c r="D29" s="219"/>
+      <c r="B29" s="296"/>
+      <c r="C29" s="296"/>
+      <c r="D29" s="296"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="173" t="s">
+      <c r="B31" s="223" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="223"/>
+    </row>
+    <row r="32" spans="1:20" ht="18" customHeight="1">
+      <c r="A32" s="18"/>
+      <c r="B32" s="223" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="223"/>
+    </row>
+    <row r="33" spans="1:4" ht="18" customHeight="1">
+      <c r="A33" s="19"/>
+      <c r="B33" s="223" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="173"/>
-    </row>
-    <row r="32" spans="1:20" ht="18" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="173" t="s">
+      <c r="C33" s="223"/>
+    </row>
+    <row r="34" spans="1:4" ht="18" customHeight="1">
+      <c r="A34" s="20"/>
+      <c r="B34" s="223" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="173"/>
-    </row>
-    <row r="33" spans="1:4" ht="18" customHeight="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="173" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="173"/>
-    </row>
-    <row r="34" spans="1:4" ht="18" customHeight="1">
-      <c r="A34" s="20"/>
-      <c r="B34" s="173" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="173"/>
+      <c r="C34" s="223"/>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1">
-      <c r="B35" s="219"/>
-      <c r="C35" s="219"/>
-      <c r="D35" s="219"/>
+      <c r="B35" s="296"/>
+      <c r="C35" s="296"/>
+      <c r="D35" s="296"/>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1">
-      <c r="B36" s="219"/>
-      <c r="C36" s="219"/>
-      <c r="D36" s="219"/>
+      <c r="B36" s="296"/>
+      <c r="C36" s="296"/>
+      <c r="D36" s="296"/>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1">
-      <c r="B37" s="219"/>
-      <c r="C37" s="219"/>
-      <c r="D37" s="219"/>
+      <c r="B37" s="296"/>
+      <c r="C37" s="296"/>
+      <c r="D37" s="296"/>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1">
-      <c r="B38" s="219"/>
-      <c r="C38" s="219"/>
-      <c r="D38" s="219"/>
+      <c r="B38" s="296"/>
+      <c r="C38" s="296"/>
+      <c r="D38" s="296"/>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1">
-      <c r="B39" s="219"/>
-      <c r="C39" s="219"/>
-      <c r="D39" s="219"/>
+      <c r="B39" s="296"/>
+      <c r="C39" s="296"/>
+      <c r="D39" s="296"/>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1">
-      <c r="B40" s="219"/>
-      <c r="C40" s="219"/>
-      <c r="D40" s="219"/>
+      <c r="B40" s="296"/>
+      <c r="C40" s="296"/>
+      <c r="D40" s="296"/>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1">
-      <c r="B41" s="219"/>
-      <c r="C41" s="219"/>
-      <c r="D41" s="219"/>
+      <c r="B41" s="296"/>
+      <c r="C41" s="296"/>
+      <c r="D41" s="296"/>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1">
-      <c r="B42" s="219"/>
-      <c r="C42" s="219"/>
-      <c r="D42" s="219"/>
+      <c r="B42" s="296"/>
+      <c r="C42" s="296"/>
+      <c r="D42" s="296"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="Q10:R10"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
@@ -46088,79 +46646,34 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/30_工程表/工程表_第2版.xlsx
+++ b/doc/30_工程表/工程表_第2版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E4\doc\30_工程表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC30DE7-42F1-45A6-A9AC-6F83E0E66C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A475C05F-5029-4006-BD2F-A89A9E31B7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2836,6 +2836,123 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2869,30 +2986,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2905,175 +2998,64 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3085,25 +3067,25 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3130,7 +3112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3151,20 +3133,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3175,92 +3160,101 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3280,25 +3274,31 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5816,8 +5816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F461FB36-AA5C-4255-9DAB-20DEB8CADCD8}">
   <dimension ref="A1:AO1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL30" sqref="AL30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM35" sqref="AM35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
@@ -5870,18 +5870,18 @@
       <c r="AJ1" s="2"/>
     </row>
     <row r="2" spans="1:41" ht="22.5" customHeight="1">
-      <c r="B2" s="182">
+      <c r="B2" s="221">
         <v>2024</v>
       </c>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
       <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="182">
+      <c r="F2" s="221">
         <v>6</v>
       </c>
-      <c r="G2" s="183"/>
+      <c r="G2" s="201"/>
       <c r="H2" s="12" t="s">
         <v>1</v>
       </c>
@@ -5954,57 +5954,57 @@
       <c r="AJ3" s="3"/>
     </row>
     <row r="4" spans="1:41" ht="19.5" customHeight="1">
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="187" t="s">
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="184" t="s">
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="185"/>
-      <c r="M4" s="185"/>
-      <c r="N4" s="186"/>
-      <c r="O4" s="187" t="s">
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="185"/>
-      <c r="Q4" s="185"/>
-      <c r="R4" s="185"/>
-      <c r="S4" s="186"/>
-      <c r="T4" s="184" t="s">
+      <c r="P4" s="205"/>
+      <c r="Q4" s="205"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="185"/>
-      <c r="V4" s="185"/>
-      <c r="W4" s="186"/>
-      <c r="X4" s="215">
+      <c r="U4" s="205"/>
+      <c r="V4" s="205"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="210">
         <v>45451</v>
       </c>
-      <c r="Y4" s="185"/>
-      <c r="Z4" s="185"/>
-      <c r="AA4" s="185"/>
-      <c r="AB4" s="186"/>
-      <c r="AC4" s="184" t="s">
+      <c r="Y4" s="205"/>
+      <c r="Z4" s="205"/>
+      <c r="AA4" s="205"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="185"/>
-      <c r="AE4" s="185"/>
-      <c r="AF4" s="185"/>
-      <c r="AG4" s="205">
+      <c r="AD4" s="205"/>
+      <c r="AE4" s="205"/>
+      <c r="AF4" s="205"/>
+      <c r="AG4" s="195">
         <v>45451</v>
       </c>
-      <c r="AH4" s="206"/>
-      <c r="AI4" s="206"/>
-      <c r="AJ4" s="206"/>
+      <c r="AH4" s="196"/>
+      <c r="AI4" s="196"/>
+      <c r="AJ4" s="196"/>
     </row>
     <row r="5" spans="1:41" ht="18.75" customHeight="1">
       <c r="B5" s="2"/>
@@ -6044,52 +6044,52 @@
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:41" ht="18.75" customHeight="1">
-      <c r="B6" s="207"/>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="196"/>
+      <c r="B6" s="197"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="199"/>
       <c r="F6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="211">
+      <c r="G6" s="204">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="185"/>
-      <c r="K6" s="185"/>
-      <c r="L6" s="185"/>
-      <c r="M6" s="185"/>
-      <c r="N6" s="185"/>
-      <c r="O6" s="185"/>
-      <c r="P6" s="185"/>
-      <c r="Q6" s="185"/>
-      <c r="R6" s="185"/>
-      <c r="S6" s="185"/>
-      <c r="T6" s="185"/>
-      <c r="U6" s="185"/>
-      <c r="V6" s="185"/>
-      <c r="W6" s="185"/>
-      <c r="X6" s="185"/>
-      <c r="Y6" s="185"/>
-      <c r="Z6" s="185"/>
-      <c r="AA6" s="185"/>
-      <c r="AB6" s="185"/>
-      <c r="AC6" s="185"/>
-      <c r="AD6" s="185"/>
-      <c r="AE6" s="185"/>
-      <c r="AF6" s="185"/>
-      <c r="AG6" s="185"/>
-      <c r="AH6" s="185"/>
-      <c r="AI6" s="185"/>
-      <c r="AJ6" s="185"/>
+      <c r="H6" s="205"/>
+      <c r="I6" s="205"/>
+      <c r="J6" s="205"/>
+      <c r="K6" s="205"/>
+      <c r="L6" s="205"/>
+      <c r="M6" s="205"/>
+      <c r="N6" s="205"/>
+      <c r="O6" s="205"/>
+      <c r="P6" s="205"/>
+      <c r="Q6" s="205"/>
+      <c r="R6" s="205"/>
+      <c r="S6" s="205"/>
+      <c r="T6" s="205"/>
+      <c r="U6" s="205"/>
+      <c r="V6" s="205"/>
+      <c r="W6" s="205"/>
+      <c r="X6" s="205"/>
+      <c r="Y6" s="205"/>
+      <c r="Z6" s="205"/>
+      <c r="AA6" s="205"/>
+      <c r="AB6" s="205"/>
+      <c r="AC6" s="205"/>
+      <c r="AD6" s="205"/>
+      <c r="AE6" s="205"/>
+      <c r="AF6" s="205"/>
+      <c r="AG6" s="205"/>
+      <c r="AH6" s="205"/>
+      <c r="AI6" s="205"/>
+      <c r="AJ6" s="205"/>
     </row>
     <row r="7" spans="1:41" ht="22.5" customHeight="1">
-      <c r="B7" s="208"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="209"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="202"/>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
@@ -6215,10 +6215,10 @@
       </c>
     </row>
     <row r="8" spans="1:41" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B8" s="208"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="209"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="202"/>
       <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
@@ -6356,16 +6356,16 @@
       </c>
     </row>
     <row r="9" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A9" s="172" t="s">
+      <c r="A9" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="213"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="214"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="193"/>
       <c r="G9" s="117"/>
       <c r="H9" s="118"/>
       <c r="I9" s="118"/>
@@ -6410,14 +6410,14 @@
       </c>
     </row>
     <row r="10" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A10" s="173"/>
-      <c r="B10" s="193" t="s">
+      <c r="A10" s="212"/>
+      <c r="B10" s="224" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="185"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="186"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="205"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="207"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -6460,14 +6460,14 @@
       </c>
     </row>
     <row r="11" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A11" s="173"/>
-      <c r="B11" s="193" t="s">
+      <c r="A11" s="212"/>
+      <c r="B11" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="185"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="186"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="205"/>
+      <c r="F11" s="207"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -6510,14 +6510,14 @@
       </c>
     </row>
     <row r="12" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A12" s="173"/>
-      <c r="B12" s="193" t="s">
+      <c r="A12" s="212"/>
+      <c r="B12" s="224" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="185"/>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="186"/>
+      <c r="C12" s="205"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="205"/>
+      <c r="F12" s="207"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -6562,14 +6562,14 @@
       </c>
     </row>
     <row r="13" spans="1:41" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A13" s="174"/>
-      <c r="B13" s="194" t="s">
+      <c r="A13" s="213"/>
+      <c r="B13" s="225" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="195"/>
-      <c r="D13" s="195"/>
-      <c r="E13" s="195"/>
-      <c r="F13" s="196"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="198"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="199"/>
       <c r="G13" s="28"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -6612,16 +6612,16 @@
       </c>
     </row>
     <row r="14" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A14" s="175" t="s">
+      <c r="A14" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="192"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="192"/>
+      <c r="C14" s="223"/>
+      <c r="D14" s="223"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="223"/>
       <c r="G14" s="129"/>
       <c r="H14" s="129"/>
       <c r="I14" s="130"/>
@@ -6663,14 +6663,14 @@
       </c>
     </row>
     <row r="15" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A15" s="176"/>
-      <c r="B15" s="216" t="s">
+      <c r="A15" s="215"/>
+      <c r="B15" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="217"/>
-      <c r="D15" s="217"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="217"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="29"/>
@@ -6712,14 +6712,14 @@
       </c>
     </row>
     <row r="16" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A16" s="176"/>
-      <c r="B16" s="216" t="s">
+      <c r="A16" s="215"/>
+      <c r="B16" s="185" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="217"/>
-      <c r="D16" s="217"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="217"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="29"/>
@@ -6754,17 +6754,19 @@
         <v>85</v>
       </c>
       <c r="AL16" s="15"/>
-      <c r="AM16" s="122"/>
+      <c r="AM16" s="122">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A17" s="176"/>
-      <c r="B17" s="218" t="s">
+      <c r="A17" s="215"/>
+      <c r="B17" s="187" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="219"/>
-      <c r="D17" s="219"/>
-      <c r="E17" s="219"/>
-      <c r="F17" s="219"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="29"/>
@@ -6801,17 +6803,19 @@
       <c r="AL17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AM17" s="122"/>
+      <c r="AM17" s="122">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A18" s="176"/>
-      <c r="B18" s="218" t="s">
+      <c r="A18" s="215"/>
+      <c r="B18" s="187" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="219"/>
-      <c r="D18" s="219"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="30"/>
@@ -6852,15 +6856,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A19" s="177"/>
-      <c r="B19" s="220" t="s">
+    <row r="19" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
+      <c r="A19" s="216"/>
+      <c r="B19" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="221"/>
-      <c r="D19" s="221"/>
-      <c r="E19" s="221"/>
-      <c r="F19" s="221"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
       <c r="G19" s="132"/>
       <c r="H19" s="132"/>
       <c r="I19" s="133"/>
@@ -6897,21 +6901,21 @@
       <c r="AL19" s="126" t="s">
         <v>96</v>
       </c>
-      <c r="AM19" s="127">
+      <c r="AM19" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A20" s="178" t="s">
+      <c r="A20" s="217" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="222" t="s">
+      <c r="B20" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="213"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="214"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="193"/>
       <c r="G20" s="118"/>
       <c r="H20" s="118"/>
       <c r="I20" s="118"/>
@@ -6948,19 +6952,19 @@
       <c r="AL20" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="AM20" s="121">
+      <c r="AM20" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A21" s="179"/>
-      <c r="B21" s="197" t="s">
+      <c r="A21" s="218"/>
+      <c r="B21" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="198"/>
-      <c r="D21" s="198"/>
-      <c r="E21" s="198"/>
-      <c r="F21" s="199"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="177"/>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -7000,14 +7004,14 @@
       </c>
     </row>
     <row r="22" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A22" s="179"/>
-      <c r="B22" s="200" t="s">
+      <c r="A22" s="218"/>
+      <c r="B22" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="200"/>
-      <c r="D22" s="200"/>
-      <c r="E22" s="200"/>
-      <c r="F22" s="201"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="194"/>
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -7044,17 +7048,19 @@
       <c r="AL22" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="AM22" s="122"/>
+      <c r="AM22" s="122">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A23" s="179"/>
-      <c r="B23" s="200" t="s">
+      <c r="A23" s="218"/>
+      <c r="B23" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="200"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="200"/>
-      <c r="F23" s="201"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="194"/>
       <c r="G23" s="10"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -7096,14 +7102,14 @@
       </c>
     </row>
     <row r="24" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A24" s="179"/>
-      <c r="B24" s="200" t="s">
+      <c r="A24" s="218"/>
+      <c r="B24" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="200"/>
-      <c r="D24" s="200"/>
-      <c r="E24" s="200"/>
-      <c r="F24" s="201"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="194"/>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -7138,17 +7144,19 @@
         <v>112</v>
       </c>
       <c r="AL24" s="15"/>
-      <c r="AM24" s="122"/>
+      <c r="AM24" s="122">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:39" ht="22.2" customHeight="1">
-      <c r="A25" s="179"/>
-      <c r="B25" s="202" t="s">
+      <c r="A25" s="218"/>
+      <c r="B25" s="226" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="203"/>
-      <c r="D25" s="203"/>
-      <c r="E25" s="203"/>
-      <c r="F25" s="204"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="174"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -7188,14 +7196,14 @@
       </c>
     </row>
     <row r="26" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A26" s="179"/>
-      <c r="B26" s="200" t="s">
+      <c r="A26" s="218"/>
+      <c r="B26" s="172" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="203"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="204"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="174"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -7235,14 +7243,14 @@
       </c>
     </row>
     <row r="27" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A27" s="179"/>
-      <c r="B27" s="200" t="s">
+      <c r="A27" s="218"/>
+      <c r="B27" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="203"/>
-      <c r="D27" s="203"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="204"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="174"/>
       <c r="G27" s="10"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -7282,14 +7290,14 @@
       </c>
     </row>
     <row r="28" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A28" s="179"/>
-      <c r="B28" s="200" t="s">
+      <c r="A28" s="218"/>
+      <c r="B28" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="203"/>
-      <c r="D28" s="203"/>
-      <c r="E28" s="203"/>
-      <c r="F28" s="204"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="174"/>
       <c r="G28" s="10"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -7329,14 +7337,14 @@
       </c>
     </row>
     <row r="29" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A29" s="179"/>
-      <c r="B29" s="197" t="s">
+      <c r="A29" s="218"/>
+      <c r="B29" s="175" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="198"/>
-      <c r="D29" s="198"/>
-      <c r="E29" s="198"/>
-      <c r="F29" s="199"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="177"/>
       <c r="G29" s="10"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7376,14 +7384,14 @@
       </c>
     </row>
     <row r="30" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A30" s="179"/>
-      <c r="B30" s="197" t="s">
+      <c r="A30" s="218"/>
+      <c r="B30" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="198"/>
-      <c r="D30" s="198"/>
-      <c r="E30" s="198"/>
-      <c r="F30" s="199"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="177"/>
       <c r="G30" s="10"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -7423,14 +7431,14 @@
       </c>
     </row>
     <row r="31" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A31" s="179"/>
-      <c r="B31" s="200" t="s">
+      <c r="A31" s="218"/>
+      <c r="B31" s="172" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="203"/>
-      <c r="D31" s="203"/>
-      <c r="E31" s="203"/>
-      <c r="F31" s="204"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="174"/>
       <c r="G31" s="10"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -7470,14 +7478,14 @@
       </c>
     </row>
     <row r="32" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A32" s="179"/>
-      <c r="B32" s="197" t="s">
+      <c r="A32" s="218"/>
+      <c r="B32" s="175" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="198"/>
-      <c r="D32" s="198"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="199"/>
+      <c r="C32" s="176"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="177"/>
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -7517,14 +7525,14 @@
       </c>
     </row>
     <row r="33" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A33" s="179"/>
-      <c r="B33" s="197" t="s">
+      <c r="A33" s="218"/>
+      <c r="B33" s="175" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="198"/>
-      <c r="D33" s="198"/>
-      <c r="E33" s="198"/>
-      <c r="F33" s="199"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="177"/>
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -7564,14 +7572,14 @@
       </c>
     </row>
     <row r="34" spans="1:39" ht="22.2" customHeight="1">
-      <c r="A34" s="179"/>
-      <c r="B34" s="197" t="s">
+      <c r="A34" s="218"/>
+      <c r="B34" s="175" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="198"/>
-      <c r="D34" s="198"/>
-      <c r="E34" s="198"/>
-      <c r="F34" s="199"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="177"/>
       <c r="G34" s="10"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -7611,14 +7619,14 @@
       </c>
     </row>
     <row r="35" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A35" s="180"/>
-      <c r="B35" s="188" t="s">
+      <c r="A35" s="219"/>
+      <c r="B35" s="182" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="189"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="190"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="184"/>
       <c r="G35" s="28"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -7653,17 +7661,19 @@
         <v>108</v>
       </c>
       <c r="AL35" s="113"/>
-      <c r="AM35" s="128"/>
+      <c r="AM35" s="122">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A36" s="181"/>
-      <c r="B36" s="188" t="s">
+      <c r="A36" s="220"/>
+      <c r="B36" s="182" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="189"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="190"/>
+      <c r="C36" s="183"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="183"/>
+      <c r="F36" s="184"/>
       <c r="G36" s="123"/>
       <c r="H36" s="124"/>
       <c r="I36" s="124"/>
@@ -7706,13 +7716,13 @@
       <c r="A37" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="224" t="s">
+      <c r="B37" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="225"/>
-      <c r="D37" s="225"/>
-      <c r="E37" s="225"/>
-      <c r="F37" s="226"/>
+      <c r="C37" s="180"/>
+      <c r="D37" s="180"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="181"/>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -7831,12 +7841,12 @@
     <row r="40" spans="1:39" ht="22.5" customHeight="1">
       <c r="A40" s="17"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="223" t="s">
+      <c r="C40" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="223"/>
-      <c r="E40" s="223"/>
-      <c r="F40" s="223"/>
+      <c r="D40" s="178"/>
+      <c r="E40" s="178"/>
+      <c r="F40" s="178"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -7871,12 +7881,12 @@
     <row r="41" spans="1:39" ht="22.5" customHeight="1">
       <c r="A41" s="171"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="223" t="s">
+      <c r="C41" s="178" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="223"/>
-      <c r="E41" s="223"/>
-      <c r="F41" s="223"/>
+      <c r="D41" s="178"/>
+      <c r="E41" s="178"/>
+      <c r="F41" s="178"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -7911,12 +7921,12 @@
     <row r="42" spans="1:39" ht="22.5" customHeight="1">
       <c r="A42" s="18"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="223" t="s">
+      <c r="C42" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="223"/>
-      <c r="E42" s="223"/>
-      <c r="F42" s="223"/>
+      <c r="D42" s="178"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="178"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -7951,12 +7961,12 @@
     <row r="43" spans="1:39" ht="22.5" customHeight="1">
       <c r="A43" s="19"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="223" t="s">
+      <c r="C43" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="223"/>
-      <c r="E43" s="223"/>
-      <c r="F43" s="223"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="178"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -7991,12 +8001,12 @@
     <row r="44" spans="1:39" ht="22.5" customHeight="1">
       <c r="A44" s="20"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="223" t="s">
+      <c r="C44" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="223"/>
-      <c r="E44" s="223"/>
-      <c r="F44" s="223"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="178"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -8031,12 +8041,12 @@
     <row r="45" spans="1:39" ht="22.5" customHeight="1">
       <c r="A45" s="75"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="223" t="s">
+      <c r="C45" s="178" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="223"/>
-      <c r="E45" s="223"/>
-      <c r="F45" s="223"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="178"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -43886,40 +43896,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AJ6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A20:A36"/>
@@ -43936,6 +43912,40 @@
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B25:F25"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AJ6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="C41:F41"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7:AJ8">
@@ -43969,85 +43979,85 @@
       <c r="B2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="233" t="s">
+      <c r="G2" s="299" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="234"/>
-      <c r="I2" s="240" t="s">
+      <c r="H2" s="300"/>
+      <c r="I2" s="289" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="235"/>
-      <c r="L2" s="233" t="s">
+      <c r="J2" s="244"/>
+      <c r="L2" s="299" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="234"/>
-      <c r="N2" s="240" t="s">
+      <c r="M2" s="300"/>
+      <c r="N2" s="289" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="235"/>
-      <c r="Q2" s="233" t="s">
+      <c r="O2" s="244"/>
+      <c r="Q2" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="234"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="235"/>
-      <c r="V2" s="233" t="s">
+      <c r="R2" s="300"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="244"/>
+      <c r="V2" s="299" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="234"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="235"/>
+      <c r="W2" s="300"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="244"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="D4" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="236" t="s">
+      <c r="E4" s="301" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="237"/>
-      <c r="G4" s="238" t="s">
+      <c r="F4" s="264"/>
+      <c r="G4" s="231" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="239"/>
-      <c r="I4" s="236" t="s">
+      <c r="H4" s="302"/>
+      <c r="I4" s="301" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="237"/>
-      <c r="K4" s="238" t="s">
+      <c r="J4" s="264"/>
+      <c r="K4" s="231" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="239"/>
-      <c r="M4" s="236" t="s">
+      <c r="L4" s="302"/>
+      <c r="M4" s="301" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="237"/>
+      <c r="N4" s="264"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D5" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="227">
+      <c r="E5" s="296">
         <v>3</v>
       </c>
-      <c r="F5" s="228"/>
-      <c r="G5" s="229">
+      <c r="F5" s="245"/>
+      <c r="G5" s="280">
         <v>4</v>
       </c>
-      <c r="H5" s="230"/>
-      <c r="I5" s="227">
+      <c r="H5" s="297"/>
+      <c r="I5" s="296">
         <v>5</v>
       </c>
-      <c r="J5" s="228"/>
-      <c r="K5" s="229">
+      <c r="J5" s="245"/>
+      <c r="K5" s="280">
         <v>6</v>
       </c>
-      <c r="L5" s="230"/>
-      <c r="M5" s="227">
+      <c r="L5" s="297"/>
+      <c r="M5" s="296">
         <v>7</v>
       </c>
-      <c r="N5" s="228"/>
+      <c r="N5" s="245"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D6" s="78" t="s">
@@ -44083,28 +44093,28 @@
       <c r="N6" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="231" t="s">
+      <c r="O6" s="298" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="232"/>
-      <c r="Q6" s="241" t="s">
+      <c r="P6" s="239"/>
+      <c r="Q6" s="303" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="232"/>
-      <c r="S6" s="241" t="s">
+      <c r="R6" s="239"/>
+      <c r="S6" s="303" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="242"/>
+      <c r="T6" s="240"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="243" t="s">
+      <c r="A7" s="281" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="246" t="s">
+      <c r="B7" s="271" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="247"/>
-      <c r="D7" s="248"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="285"/>
       <c r="E7" s="80"/>
       <c r="F7" s="81"/>
       <c r="G7" s="63"/>
@@ -44115,22 +44125,22 @@
       <c r="L7" s="55"/>
       <c r="M7" s="93"/>
       <c r="N7" s="43"/>
-      <c r="O7" s="249" t="s">
+      <c r="O7" s="286" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="250"/>
-      <c r="Q7" s="250"/>
-      <c r="R7" s="250"/>
-      <c r="S7" s="250"/>
-      <c r="T7" s="251"/>
+      <c r="P7" s="287"/>
+      <c r="Q7" s="287"/>
+      <c r="R7" s="287"/>
+      <c r="S7" s="287"/>
+      <c r="T7" s="288"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="244"/>
-      <c r="B8" s="252" t="s">
+      <c r="A8" s="282"/>
+      <c r="B8" s="246" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="253"/>
-      <c r="D8" s="254"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="248"/>
       <c r="E8" s="82"/>
       <c r="F8" s="83"/>
       <c r="G8" s="65"/>
@@ -44141,22 +44151,22 @@
       <c r="L8" s="56"/>
       <c r="M8" s="37"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="240" t="s">
+      <c r="O8" s="289" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="235"/>
-      <c r="Q8" s="235"/>
-      <c r="R8" s="235"/>
-      <c r="S8" s="235"/>
-      <c r="T8" s="228"/>
+      <c r="P8" s="244"/>
+      <c r="Q8" s="244"/>
+      <c r="R8" s="244"/>
+      <c r="S8" s="244"/>
+      <c r="T8" s="245"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="244"/>
-      <c r="B9" s="252" t="s">
+      <c r="A9" s="282"/>
+      <c r="B9" s="246" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="253"/>
-      <c r="D9" s="254"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="248"/>
       <c r="E9" s="82"/>
       <c r="F9" s="84"/>
       <c r="G9" s="65"/>
@@ -44167,24 +44177,24 @@
       <c r="L9" s="56"/>
       <c r="M9" s="37"/>
       <c r="N9" s="38"/>
-      <c r="O9" s="255" t="s">
+      <c r="O9" s="276" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="235"/>
-      <c r="Q9" s="240" t="s">
+      <c r="P9" s="244"/>
+      <c r="Q9" s="289" t="s">
         <v>70</v>
       </c>
-      <c r="R9" s="235"/>
-      <c r="S9" s="235"/>
-      <c r="T9" s="228"/>
+      <c r="R9" s="244"/>
+      <c r="S9" s="244"/>
+      <c r="T9" s="245"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="244"/>
-      <c r="B10" s="252" t="s">
+      <c r="A10" s="282"/>
+      <c r="B10" s="246" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="253"/>
-      <c r="D10" s="254"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="248"/>
       <c r="E10" s="82"/>
       <c r="F10" s="83"/>
       <c r="G10" s="65"/>
@@ -44195,20 +44205,20 @@
       <c r="L10" s="56"/>
       <c r="M10" s="37"/>
       <c r="N10" s="38"/>
-      <c r="O10" s="229"/>
-      <c r="P10" s="235"/>
-      <c r="Q10" s="235"/>
-      <c r="R10" s="235"/>
-      <c r="S10" s="235"/>
-      <c r="T10" s="228"/>
+      <c r="O10" s="280"/>
+      <c r="P10" s="244"/>
+      <c r="Q10" s="244"/>
+      <c r="R10" s="244"/>
+      <c r="S10" s="244"/>
+      <c r="T10" s="245"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="245"/>
-      <c r="B11" s="256" t="s">
+      <c r="A11" s="283"/>
+      <c r="B11" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="257"/>
-      <c r="D11" s="258"/>
+      <c r="C11" s="291"/>
+      <c r="D11" s="292"/>
       <c r="E11" s="85"/>
       <c r="F11" s="86"/>
       <c r="G11" s="67"/>
@@ -44219,22 +44229,22 @@
       <c r="L11" s="57"/>
       <c r="M11" s="94"/>
       <c r="N11" s="51"/>
-      <c r="O11" s="259"/>
-      <c r="P11" s="260"/>
-      <c r="Q11" s="260"/>
-      <c r="R11" s="260"/>
-      <c r="S11" s="260"/>
-      <c r="T11" s="261"/>
+      <c r="O11" s="293"/>
+      <c r="P11" s="294"/>
+      <c r="Q11" s="294"/>
+      <c r="R11" s="294"/>
+      <c r="S11" s="294"/>
+      <c r="T11" s="295"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="262" t="s">
+      <c r="A12" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="259" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="266"/>
-      <c r="D12" s="267"/>
+      <c r="C12" s="260"/>
+      <c r="D12" s="261"/>
       <c r="E12" s="87"/>
       <c r="F12" s="88"/>
       <c r="G12" s="69"/>
@@ -44245,22 +44255,22 @@
       <c r="L12" s="58"/>
       <c r="M12" s="35"/>
       <c r="N12" s="106"/>
-      <c r="O12" s="268" t="s">
+      <c r="O12" s="262" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="269"/>
-      <c r="Q12" s="270"/>
-      <c r="R12" s="270"/>
-      <c r="S12" s="270"/>
-      <c r="T12" s="237"/>
+      <c r="P12" s="263"/>
+      <c r="Q12" s="232"/>
+      <c r="R12" s="232"/>
+      <c r="S12" s="232"/>
+      <c r="T12" s="264"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="263"/>
-      <c r="B13" s="271" t="s">
+      <c r="A13" s="257"/>
+      <c r="B13" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="272"/>
-      <c r="D13" s="273"/>
+      <c r="C13" s="266"/>
+      <c r="D13" s="267"/>
       <c r="E13" s="82"/>
       <c r="F13" s="83"/>
       <c r="G13" s="65"/>
@@ -44271,22 +44281,22 @@
       <c r="L13" s="104"/>
       <c r="M13" s="99"/>
       <c r="N13" s="99"/>
-      <c r="O13" s="255" t="s">
+      <c r="O13" s="276" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="235"/>
-      <c r="R13" s="235"/>
-      <c r="S13" s="235"/>
-      <c r="T13" s="228"/>
+      <c r="P13" s="244"/>
+      <c r="Q13" s="244"/>
+      <c r="R13" s="244"/>
+      <c r="S13" s="244"/>
+      <c r="T13" s="245"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="263"/>
-      <c r="B14" s="271" t="s">
+      <c r="A14" s="257"/>
+      <c r="B14" s="265" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="282"/>
-      <c r="D14" s="283"/>
+      <c r="C14" s="277"/>
+      <c r="D14" s="278"/>
       <c r="E14" s="82"/>
       <c r="F14" s="83"/>
       <c r="G14" s="65"/>
@@ -44297,22 +44307,22 @@
       <c r="L14" s="104"/>
       <c r="M14" s="99"/>
       <c r="N14" s="99"/>
-      <c r="O14" s="284" t="s">
+      <c r="O14" s="279" t="s">
         <v>72</v>
       </c>
-      <c r="P14" s="229"/>
-      <c r="Q14" s="235"/>
-      <c r="R14" s="235"/>
-      <c r="S14" s="235"/>
-      <c r="T14" s="228"/>
+      <c r="P14" s="280"/>
+      <c r="Q14" s="244"/>
+      <c r="R14" s="244"/>
+      <c r="S14" s="244"/>
+      <c r="T14" s="245"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="264"/>
-      <c r="B15" s="285" t="s">
+      <c r="A15" s="258"/>
+      <c r="B15" s="251" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="286"/>
-      <c r="D15" s="287"/>
+      <c r="C15" s="252"/>
+      <c r="D15" s="253"/>
       <c r="E15" s="89"/>
       <c r="F15" s="90"/>
       <c r="G15" s="71"/>
@@ -44323,24 +44333,24 @@
       <c r="L15" s="105"/>
       <c r="M15" s="102"/>
       <c r="N15" s="102"/>
-      <c r="O15" s="288" t="s">
+      <c r="O15" s="254" t="s">
         <v>71</v>
       </c>
-      <c r="P15" s="289"/>
-      <c r="Q15" s="290"/>
-      <c r="R15" s="289"/>
-      <c r="S15" s="289"/>
-      <c r="T15" s="291"/>
+      <c r="P15" s="233"/>
+      <c r="Q15" s="255"/>
+      <c r="R15" s="233"/>
+      <c r="S15" s="233"/>
+      <c r="T15" s="234"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A16" s="274" t="s">
+      <c r="A16" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="246" t="s">
+      <c r="B16" s="271" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="277"/>
-      <c r="D16" s="278"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="273"/>
       <c r="E16" s="87"/>
       <c r="F16" s="88"/>
       <c r="G16" s="69"/>
@@ -44351,22 +44361,22 @@
       <c r="L16" s="58"/>
       <c r="M16" s="35"/>
       <c r="N16" s="53"/>
-      <c r="O16" s="238" t="s">
+      <c r="O16" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P16" s="270"/>
-      <c r="Q16" s="238"/>
-      <c r="R16" s="270"/>
-      <c r="S16" s="270"/>
-      <c r="T16" s="237"/>
+      <c r="P16" s="232"/>
+      <c r="Q16" s="231"/>
+      <c r="R16" s="232"/>
+      <c r="S16" s="232"/>
+      <c r="T16" s="264"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A17" s="275"/>
-      <c r="B17" s="279" t="s">
+      <c r="A17" s="269"/>
+      <c r="B17" s="241" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="280"/>
-      <c r="D17" s="281"/>
+      <c r="C17" s="274"/>
+      <c r="D17" s="275"/>
       <c r="E17" s="82"/>
       <c r="F17" s="83"/>
       <c r="G17" s="65"/>
@@ -44377,22 +44387,22 @@
       <c r="L17" s="56"/>
       <c r="M17" s="37"/>
       <c r="N17" s="38"/>
-      <c r="O17" s="238" t="s">
+      <c r="O17" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P17" s="270"/>
-      <c r="Q17" s="238"/>
-      <c r="R17" s="270"/>
-      <c r="S17" s="235"/>
-      <c r="T17" s="228"/>
+      <c r="P17" s="232"/>
+      <c r="Q17" s="231"/>
+      <c r="R17" s="232"/>
+      <c r="S17" s="244"/>
+      <c r="T17" s="245"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A18" s="275"/>
-      <c r="B18" s="279" t="s">
+      <c r="A18" s="269"/>
+      <c r="B18" s="241" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="280"/>
-      <c r="D18" s="281"/>
+      <c r="C18" s="274"/>
+      <c r="D18" s="275"/>
       <c r="E18" s="82"/>
       <c r="F18" s="83"/>
       <c r="G18" s="65"/>
@@ -44403,22 +44413,22 @@
       <c r="L18" s="56"/>
       <c r="M18" s="37"/>
       <c r="N18" s="38"/>
-      <c r="O18" s="238" t="s">
+      <c r="O18" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="270"/>
-      <c r="Q18" s="238"/>
-      <c r="R18" s="270"/>
-      <c r="S18" s="235"/>
-      <c r="T18" s="228"/>
+      <c r="P18" s="232"/>
+      <c r="Q18" s="231"/>
+      <c r="R18" s="232"/>
+      <c r="S18" s="244"/>
+      <c r="T18" s="245"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A19" s="275"/>
-      <c r="B19" s="252" t="s">
+      <c r="A19" s="269"/>
+      <c r="B19" s="246" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="292"/>
-      <c r="D19" s="293"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="250"/>
       <c r="E19" s="82"/>
       <c r="F19" s="83"/>
       <c r="G19" s="65"/>
@@ -44429,22 +44439,22 @@
       <c r="L19" s="56"/>
       <c r="M19" s="37"/>
       <c r="N19" s="38"/>
-      <c r="O19" s="238" t="s">
+      <c r="O19" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="270"/>
-      <c r="Q19" s="238"/>
-      <c r="R19" s="270"/>
-      <c r="S19" s="235"/>
-      <c r="T19" s="228"/>
+      <c r="P19" s="232"/>
+      <c r="Q19" s="231"/>
+      <c r="R19" s="232"/>
+      <c r="S19" s="244"/>
+      <c r="T19" s="245"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="275"/>
-      <c r="B20" s="252" t="s">
+      <c r="A20" s="269"/>
+      <c r="B20" s="246" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="292"/>
-      <c r="D20" s="293"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="250"/>
       <c r="E20" s="82"/>
       <c r="F20" s="83"/>
       <c r="G20" s="65"/>
@@ -44455,22 +44465,22 @@
       <c r="L20" s="56"/>
       <c r="M20" s="37"/>
       <c r="N20" s="38"/>
-      <c r="O20" s="238" t="s">
+      <c r="O20" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P20" s="270"/>
-      <c r="Q20" s="238"/>
-      <c r="R20" s="270"/>
-      <c r="S20" s="235"/>
-      <c r="T20" s="228"/>
+      <c r="P20" s="232"/>
+      <c r="Q20" s="231"/>
+      <c r="R20" s="232"/>
+      <c r="S20" s="244"/>
+      <c r="T20" s="245"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="275"/>
-      <c r="B21" s="252" t="s">
+      <c r="A21" s="269"/>
+      <c r="B21" s="246" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="292"/>
-      <c r="D21" s="293"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="250"/>
       <c r="E21" s="82"/>
       <c r="F21" s="83"/>
       <c r="G21" s="65"/>
@@ -44481,22 +44491,22 @@
       <c r="L21" s="56"/>
       <c r="M21" s="37"/>
       <c r="N21" s="38"/>
-      <c r="O21" s="238" t="s">
+      <c r="O21" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P21" s="270"/>
-      <c r="Q21" s="238"/>
-      <c r="R21" s="270"/>
-      <c r="S21" s="235"/>
-      <c r="T21" s="228"/>
+      <c r="P21" s="232"/>
+      <c r="Q21" s="231"/>
+      <c r="R21" s="232"/>
+      <c r="S21" s="244"/>
+      <c r="T21" s="245"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="275"/>
-      <c r="B22" s="252" t="s">
+      <c r="A22" s="269"/>
+      <c r="B22" s="246" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="292"/>
-      <c r="D22" s="293"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="250"/>
       <c r="E22" s="82"/>
       <c r="F22" s="83"/>
       <c r="G22" s="65"/>
@@ -44507,22 +44517,22 @@
       <c r="L22" s="56"/>
       <c r="M22" s="37"/>
       <c r="N22" s="38"/>
-      <c r="O22" s="238" t="s">
+      <c r="O22" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P22" s="270"/>
-      <c r="Q22" s="238"/>
-      <c r="R22" s="270"/>
-      <c r="S22" s="235"/>
-      <c r="T22" s="228"/>
+      <c r="P22" s="232"/>
+      <c r="Q22" s="231"/>
+      <c r="R22" s="232"/>
+      <c r="S22" s="244"/>
+      <c r="T22" s="245"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A23" s="275"/>
-      <c r="B23" s="252" t="s">
+      <c r="A23" s="269"/>
+      <c r="B23" s="246" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="253"/>
-      <c r="D23" s="254"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="248"/>
       <c r="E23" s="82"/>
       <c r="F23" s="83"/>
       <c r="G23" s="65"/>
@@ -44533,22 +44543,22 @@
       <c r="L23" s="56"/>
       <c r="M23" s="37"/>
       <c r="N23" s="38"/>
-      <c r="O23" s="238" t="s">
+      <c r="O23" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P23" s="270"/>
-      <c r="Q23" s="238"/>
-      <c r="R23" s="270"/>
-      <c r="S23" s="235"/>
-      <c r="T23" s="228"/>
+      <c r="P23" s="232"/>
+      <c r="Q23" s="231"/>
+      <c r="R23" s="232"/>
+      <c r="S23" s="244"/>
+      <c r="T23" s="245"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A24" s="275"/>
-      <c r="B24" s="279" t="s">
+      <c r="A24" s="269"/>
+      <c r="B24" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="294"/>
-      <c r="D24" s="295"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="243"/>
       <c r="E24" s="82"/>
       <c r="F24" s="83"/>
       <c r="G24" s="65"/>
@@ -44559,22 +44569,22 @@
       <c r="L24" s="56"/>
       <c r="M24" s="37"/>
       <c r="N24" s="38"/>
-      <c r="O24" s="238" t="s">
+      <c r="O24" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P24" s="270"/>
-      <c r="Q24" s="238"/>
-      <c r="R24" s="270"/>
-      <c r="S24" s="235"/>
-      <c r="T24" s="228"/>
+      <c r="P24" s="232"/>
+      <c r="Q24" s="231"/>
+      <c r="R24" s="232"/>
+      <c r="S24" s="244"/>
+      <c r="T24" s="245"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A25" s="275"/>
-      <c r="B25" s="279" t="s">
+      <c r="A25" s="269"/>
+      <c r="B25" s="241" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="295"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="243"/>
       <c r="E25" s="82"/>
       <c r="F25" s="83"/>
       <c r="G25" s="65"/>
@@ -44585,22 +44595,22 @@
       <c r="L25" s="56"/>
       <c r="M25" s="37"/>
       <c r="N25" s="38"/>
-      <c r="O25" s="238" t="s">
+      <c r="O25" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P25" s="270"/>
-      <c r="Q25" s="238"/>
-      <c r="R25" s="270"/>
-      <c r="S25" s="235"/>
-      <c r="T25" s="228"/>
+      <c r="P25" s="232"/>
+      <c r="Q25" s="231"/>
+      <c r="R25" s="232"/>
+      <c r="S25" s="244"/>
+      <c r="T25" s="245"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A26" s="275"/>
-      <c r="B26" s="279" t="s">
+      <c r="A26" s="269"/>
+      <c r="B26" s="241" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="295"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="243"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="65"/>
@@ -44611,22 +44621,22 @@
       <c r="L26" s="56"/>
       <c r="M26" s="37"/>
       <c r="N26" s="38"/>
-      <c r="O26" s="238" t="s">
+      <c r="O26" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="270"/>
-      <c r="Q26" s="238"/>
-      <c r="R26" s="270"/>
-      <c r="S26" s="235"/>
-      <c r="T26" s="228"/>
+      <c r="P26" s="232"/>
+      <c r="Q26" s="231"/>
+      <c r="R26" s="232"/>
+      <c r="S26" s="244"/>
+      <c r="T26" s="245"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="276"/>
-      <c r="B27" s="297" t="s">
+      <c r="A27" s="270"/>
+      <c r="B27" s="228" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="298"/>
-      <c r="D27" s="299"/>
+      <c r="C27" s="229"/>
+      <c r="D27" s="230"/>
       <c r="E27" s="89"/>
       <c r="F27" s="90"/>
       <c r="G27" s="71"/>
@@ -44637,24 +44647,24 @@
       <c r="L27" s="59"/>
       <c r="M27" s="95"/>
       <c r="N27" s="41"/>
-      <c r="O27" s="238" t="s">
+      <c r="O27" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P27" s="270"/>
-      <c r="Q27" s="238"/>
-      <c r="R27" s="270"/>
-      <c r="S27" s="289"/>
-      <c r="T27" s="291"/>
+      <c r="P27" s="232"/>
+      <c r="Q27" s="231"/>
+      <c r="R27" s="232"/>
+      <c r="S27" s="233"/>
+      <c r="T27" s="234"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="300" t="s">
+      <c r="B28" s="235" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="301"/>
-      <c r="D28" s="302"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="237"/>
       <c r="E28" s="91"/>
       <c r="F28" s="92"/>
       <c r="G28" s="73"/>
@@ -44665,17 +44675,17 @@
       <c r="L28" s="62"/>
       <c r="M28" s="96"/>
       <c r="N28" s="97"/>
-      <c r="O28" s="303"/>
-      <c r="P28" s="232"/>
-      <c r="Q28" s="232"/>
-      <c r="R28" s="232"/>
-      <c r="S28" s="232"/>
-      <c r="T28" s="242"/>
+      <c r="O28" s="238"/>
+      <c r="P28" s="239"/>
+      <c r="Q28" s="239"/>
+      <c r="R28" s="239"/>
+      <c r="S28" s="239"/>
+      <c r="T28" s="240"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="296"/>
-      <c r="C29" s="296"/>
-      <c r="D29" s="296"/>
+      <c r="B29" s="227"/>
+      <c r="C29" s="227"/>
+      <c r="D29" s="227"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="16" t="s">
@@ -44689,147 +44699,130 @@
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="223" t="s">
+      <c r="B31" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="223"/>
+      <c r="C31" s="178"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="223" t="s">
+      <c r="B32" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="223"/>
+      <c r="C32" s="178"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1">
       <c r="A33" s="19"/>
-      <c r="B33" s="223" t="s">
+      <c r="B33" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="223"/>
+      <c r="C33" s="178"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="223" t="s">
+      <c r="B34" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="223"/>
+      <c r="C34" s="178"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="223" t="s">
+      <c r="B35" s="178" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="223"/>
+      <c r="C35" s="178"/>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1">
-      <c r="B36" s="296"/>
-      <c r="C36" s="296"/>
-      <c r="D36" s="296"/>
+      <c r="B36" s="227"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="227"/>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1">
-      <c r="B37" s="296"/>
-      <c r="C37" s="296"/>
-      <c r="D37" s="296"/>
+      <c r="B37" s="227"/>
+      <c r="C37" s="227"/>
+      <c r="D37" s="227"/>
     </row>
     <row r="38" spans="1:6" ht="18" customHeight="1">
-      <c r="B38" s="296"/>
-      <c r="C38" s="296"/>
-      <c r="D38" s="296"/>
+      <c r="B38" s="227"/>
+      <c r="C38" s="227"/>
+      <c r="D38" s="227"/>
     </row>
     <row r="39" spans="1:6" ht="18" customHeight="1">
-      <c r="B39" s="296"/>
-      <c r="C39" s="296"/>
-      <c r="D39" s="296"/>
+      <c r="B39" s="227"/>
+      <c r="C39" s="227"/>
+      <c r="D39" s="227"/>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1">
-      <c r="B40" s="296"/>
-      <c r="C40" s="296"/>
-      <c r="D40" s="296"/>
+      <c r="B40" s="227"/>
+      <c r="C40" s="227"/>
+      <c r="D40" s="227"/>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1">
-      <c r="B41" s="296"/>
-      <c r="C41" s="296"/>
-      <c r="D41" s="296"/>
+      <c r="B41" s="227"/>
+      <c r="C41" s="227"/>
+      <c r="D41" s="227"/>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1">
-      <c r="B42" s="296"/>
-      <c r="C42" s="296"/>
-      <c r="D42" s="296"/>
+      <c r="B42" s="227"/>
+      <c r="C42" s="227"/>
+      <c r="D42" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="O12:P12"/>
@@ -44854,48 +44847,65 @@
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44917,89 +44927,89 @@
       <c r="B2" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="233" t="s">
+      <c r="G2" s="299" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="234"/>
-      <c r="I2" s="240" t="s">
+      <c r="H2" s="300"/>
+      <c r="I2" s="289" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="235"/>
-      <c r="L2" s="233" t="s">
+      <c r="J2" s="244"/>
+      <c r="L2" s="299" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="234"/>
-      <c r="N2" s="240" t="s">
+      <c r="M2" s="300"/>
+      <c r="N2" s="289" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="235"/>
-      <c r="Q2" s="233" t="s">
+      <c r="O2" s="244"/>
+      <c r="Q2" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="234"/>
-      <c r="S2" s="305">
+      <c r="R2" s="300"/>
+      <c r="S2" s="323">
         <v>45451</v>
       </c>
-      <c r="T2" s="235"/>
-      <c r="V2" s="233" t="s">
+      <c r="T2" s="244"/>
+      <c r="V2" s="299" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="234"/>
-      <c r="X2" s="305">
+      <c r="W2" s="300"/>
+      <c r="X2" s="323">
         <v>45451</v>
       </c>
-      <c r="Y2" s="235"/>
+      <c r="Y2" s="244"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="D4" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="306" t="s">
+      <c r="E4" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="307"/>
-      <c r="G4" s="306" t="s">
+      <c r="F4" s="325"/>
+      <c r="G4" s="324" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="307"/>
-      <c r="I4" s="306" t="s">
+      <c r="H4" s="325"/>
+      <c r="I4" s="324" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="307"/>
-      <c r="K4" s="306" t="s">
+      <c r="J4" s="325"/>
+      <c r="K4" s="324" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="307"/>
-      <c r="M4" s="306" t="s">
+      <c r="L4" s="325"/>
+      <c r="M4" s="324" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="308"/>
+      <c r="N4" s="326"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D5" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="235">
+      <c r="E5" s="244">
         <v>10</v>
       </c>
-      <c r="F5" s="235"/>
-      <c r="G5" s="235">
+      <c r="F5" s="244"/>
+      <c r="G5" s="244">
         <v>11</v>
       </c>
-      <c r="H5" s="235"/>
-      <c r="I5" s="235">
+      <c r="H5" s="244"/>
+      <c r="I5" s="244">
         <v>12</v>
       </c>
-      <c r="J5" s="235"/>
-      <c r="K5" s="235">
+      <c r="J5" s="244"/>
+      <c r="K5" s="244">
         <v>13</v>
       </c>
-      <c r="L5" s="235"/>
-      <c r="M5" s="235">
+      <c r="L5" s="244"/>
+      <c r="M5" s="244">
         <v>14</v>
       </c>
-      <c r="N5" s="304"/>
+      <c r="N5" s="322"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D6" s="161" t="s">
@@ -45035,28 +45045,28 @@
       <c r="N6" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="231" t="s">
+      <c r="O6" s="298" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="232"/>
-      <c r="Q6" s="241" t="s">
+      <c r="P6" s="239"/>
+      <c r="Q6" s="303" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="232"/>
-      <c r="S6" s="241" t="s">
+      <c r="R6" s="239"/>
+      <c r="S6" s="303" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="242"/>
+      <c r="T6" s="240"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="243" t="s">
+      <c r="A7" s="281" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="246" t="s">
+      <c r="B7" s="271" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="247"/>
-      <c r="D7" s="309"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="318"/>
       <c r="E7" s="63"/>
       <c r="F7" s="153"/>
       <c r="G7" s="64"/>
@@ -45067,20 +45077,20 @@
       <c r="L7" s="42"/>
       <c r="M7" s="153"/>
       <c r="N7" s="157"/>
-      <c r="O7" s="310"/>
-      <c r="P7" s="250"/>
-      <c r="Q7" s="250"/>
-      <c r="R7" s="250"/>
-      <c r="S7" s="250"/>
-      <c r="T7" s="251"/>
+      <c r="O7" s="319"/>
+      <c r="P7" s="287"/>
+      <c r="Q7" s="287"/>
+      <c r="R7" s="287"/>
+      <c r="S7" s="287"/>
+      <c r="T7" s="288"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="244"/>
-      <c r="B8" s="252" t="s">
+      <c r="A8" s="282"/>
+      <c r="B8" s="246" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="253"/>
-      <c r="D8" s="311"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="309"/>
       <c r="E8" s="65"/>
       <c r="F8" s="154"/>
       <c r="G8" s="66"/>
@@ -45091,20 +45101,20 @@
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
       <c r="N8" s="56"/>
-      <c r="O8" s="227"/>
-      <c r="P8" s="235"/>
-      <c r="Q8" s="235"/>
-      <c r="R8" s="235"/>
-      <c r="S8" s="235"/>
-      <c r="T8" s="228"/>
+      <c r="O8" s="296"/>
+      <c r="P8" s="244"/>
+      <c r="Q8" s="244"/>
+      <c r="R8" s="244"/>
+      <c r="S8" s="244"/>
+      <c r="T8" s="245"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="244"/>
-      <c r="B9" s="252" t="s">
+      <c r="A9" s="282"/>
+      <c r="B9" s="246" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="253"/>
-      <c r="D9" s="311"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="309"/>
       <c r="E9" s="65"/>
       <c r="F9" s="34"/>
       <c r="G9" s="66"/>
@@ -45115,20 +45125,20 @@
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
       <c r="N9" s="56"/>
-      <c r="O9" s="227"/>
-      <c r="P9" s="235"/>
-      <c r="Q9" s="235"/>
-      <c r="R9" s="235"/>
-      <c r="S9" s="235"/>
-      <c r="T9" s="228"/>
+      <c r="O9" s="296"/>
+      <c r="P9" s="244"/>
+      <c r="Q9" s="244"/>
+      <c r="R9" s="244"/>
+      <c r="S9" s="244"/>
+      <c r="T9" s="245"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="244"/>
-      <c r="B10" s="252" t="s">
+      <c r="A10" s="282"/>
+      <c r="B10" s="246" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="253"/>
-      <c r="D10" s="311"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="309"/>
       <c r="E10" s="65"/>
       <c r="F10" s="34"/>
       <c r="G10" s="66"/>
@@ -45139,20 +45149,20 @@
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="56"/>
-      <c r="O10" s="227"/>
-      <c r="P10" s="235"/>
-      <c r="Q10" s="235"/>
-      <c r="R10" s="235"/>
-      <c r="S10" s="235"/>
-      <c r="T10" s="228"/>
+      <c r="O10" s="296"/>
+      <c r="P10" s="244"/>
+      <c r="Q10" s="244"/>
+      <c r="R10" s="244"/>
+      <c r="S10" s="244"/>
+      <c r="T10" s="245"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="245"/>
-      <c r="B11" s="256" t="s">
+      <c r="A11" s="283"/>
+      <c r="B11" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="257"/>
-      <c r="D11" s="312"/>
+      <c r="C11" s="291"/>
+      <c r="D11" s="320"/>
       <c r="E11" s="67"/>
       <c r="F11" s="50"/>
       <c r="G11" s="68"/>
@@ -45163,22 +45173,22 @@
       <c r="L11" s="50"/>
       <c r="M11" s="50"/>
       <c r="N11" s="57"/>
-      <c r="O11" s="313"/>
-      <c r="P11" s="260"/>
-      <c r="Q11" s="260"/>
-      <c r="R11" s="260"/>
-      <c r="S11" s="260"/>
-      <c r="T11" s="261"/>
+      <c r="O11" s="321"/>
+      <c r="P11" s="294"/>
+      <c r="Q11" s="294"/>
+      <c r="R11" s="294"/>
+      <c r="S11" s="294"/>
+      <c r="T11" s="295"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="262" t="s">
+      <c r="A12" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="259" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="266"/>
-      <c r="D12" s="314"/>
+      <c r="C12" s="260"/>
+      <c r="D12" s="312"/>
       <c r="E12" s="69"/>
       <c r="F12" s="155"/>
       <c r="G12" s="70"/>
@@ -45189,20 +45199,20 @@
       <c r="L12" s="155"/>
       <c r="M12" s="36"/>
       <c r="N12" s="58"/>
-      <c r="O12" s="315"/>
-      <c r="P12" s="270"/>
-      <c r="Q12" s="270"/>
-      <c r="R12" s="270"/>
-      <c r="S12" s="270"/>
-      <c r="T12" s="237"/>
+      <c r="O12" s="313"/>
+      <c r="P12" s="232"/>
+      <c r="Q12" s="232"/>
+      <c r="R12" s="232"/>
+      <c r="S12" s="232"/>
+      <c r="T12" s="264"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="263"/>
-      <c r="B13" s="271" t="s">
+      <c r="A13" s="257"/>
+      <c r="B13" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="272"/>
-      <c r="D13" s="316"/>
+      <c r="C13" s="266"/>
+      <c r="D13" s="314"/>
       <c r="E13" s="65"/>
       <c r="F13" s="154"/>
       <c r="G13" s="66"/>
@@ -45213,20 +45223,20 @@
       <c r="L13" s="34"/>
       <c r="M13" s="154"/>
       <c r="N13" s="156"/>
-      <c r="O13" s="227"/>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="235"/>
-      <c r="R13" s="235"/>
-      <c r="S13" s="235"/>
-      <c r="T13" s="228"/>
+      <c r="O13" s="296"/>
+      <c r="P13" s="244"/>
+      <c r="Q13" s="244"/>
+      <c r="R13" s="244"/>
+      <c r="S13" s="244"/>
+      <c r="T13" s="245"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="263"/>
-      <c r="B14" s="271" t="s">
+      <c r="A14" s="257"/>
+      <c r="B14" s="265" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="282"/>
-      <c r="D14" s="319"/>
+      <c r="C14" s="277"/>
+      <c r="D14" s="317"/>
       <c r="E14" s="65"/>
       <c r="F14" s="154"/>
       <c r="G14" s="66"/>
@@ -45237,20 +45247,20 @@
       <c r="L14" s="154"/>
       <c r="M14" s="34"/>
       <c r="N14" s="56"/>
-      <c r="O14" s="227"/>
-      <c r="P14" s="235"/>
-      <c r="Q14" s="235"/>
-      <c r="R14" s="235"/>
-      <c r="S14" s="235"/>
-      <c r="T14" s="228"/>
+      <c r="O14" s="296"/>
+      <c r="P14" s="244"/>
+      <c r="Q14" s="244"/>
+      <c r="R14" s="244"/>
+      <c r="S14" s="244"/>
+      <c r="T14" s="245"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="264"/>
-      <c r="B15" s="285" t="s">
+      <c r="A15" s="258"/>
+      <c r="B15" s="251" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="286"/>
-      <c r="D15" s="320"/>
+      <c r="C15" s="252"/>
+      <c r="D15" s="311"/>
       <c r="E15" s="71"/>
       <c r="F15" s="40"/>
       <c r="G15" s="72"/>
@@ -45261,22 +45271,22 @@
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
       <c r="N15" s="59"/>
-      <c r="O15" s="321"/>
-      <c r="P15" s="289"/>
-      <c r="Q15" s="289"/>
-      <c r="R15" s="289"/>
-      <c r="S15" s="289"/>
-      <c r="T15" s="291"/>
+      <c r="O15" s="305"/>
+      <c r="P15" s="233"/>
+      <c r="Q15" s="233"/>
+      <c r="R15" s="233"/>
+      <c r="S15" s="233"/>
+      <c r="T15" s="234"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="274" t="s">
+      <c r="A16" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="246" t="s">
+      <c r="B16" s="271" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="277"/>
-      <c r="D16" s="317"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="315"/>
       <c r="E16" s="69"/>
       <c r="F16" s="36"/>
       <c r="G16" s="70"/>
@@ -45287,20 +45297,20 @@
       <c r="L16" s="36"/>
       <c r="M16" s="155"/>
       <c r="N16" s="158"/>
-      <c r="O16" s="315"/>
-      <c r="P16" s="270"/>
-      <c r="Q16" s="270"/>
-      <c r="R16" s="270"/>
-      <c r="S16" s="270"/>
-      <c r="T16" s="237"/>
+      <c r="O16" s="313"/>
+      <c r="P16" s="232"/>
+      <c r="Q16" s="232"/>
+      <c r="R16" s="232"/>
+      <c r="S16" s="232"/>
+      <c r="T16" s="264"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="275"/>
-      <c r="B17" s="279" t="s">
+      <c r="A17" s="269"/>
+      <c r="B17" s="241" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="280"/>
-      <c r="D17" s="318"/>
+      <c r="C17" s="274"/>
+      <c r="D17" s="316"/>
       <c r="E17" s="65"/>
       <c r="F17" s="34"/>
       <c r="G17" s="66"/>
@@ -45311,20 +45321,20 @@
       <c r="L17" s="34"/>
       <c r="M17" s="154"/>
       <c r="N17" s="156"/>
-      <c r="O17" s="227"/>
-      <c r="P17" s="235"/>
-      <c r="Q17" s="235"/>
-      <c r="R17" s="235"/>
-      <c r="S17" s="235"/>
-      <c r="T17" s="228"/>
+      <c r="O17" s="296"/>
+      <c r="P17" s="244"/>
+      <c r="Q17" s="244"/>
+      <c r="R17" s="244"/>
+      <c r="S17" s="244"/>
+      <c r="T17" s="245"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="275"/>
-      <c r="B18" s="279" t="s">
+      <c r="A18" s="269"/>
+      <c r="B18" s="241" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="280"/>
-      <c r="D18" s="318"/>
+      <c r="C18" s="274"/>
+      <c r="D18" s="316"/>
       <c r="E18" s="65"/>
       <c r="F18" s="34"/>
       <c r="G18" s="66"/>
@@ -45335,20 +45345,20 @@
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="56"/>
-      <c r="O18" s="227"/>
-      <c r="P18" s="235"/>
-      <c r="Q18" s="235"/>
-      <c r="R18" s="235"/>
-      <c r="S18" s="235"/>
-      <c r="T18" s="228"/>
+      <c r="O18" s="296"/>
+      <c r="P18" s="244"/>
+      <c r="Q18" s="244"/>
+      <c r="R18" s="244"/>
+      <c r="S18" s="244"/>
+      <c r="T18" s="245"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="275"/>
-      <c r="B19" s="252" t="s">
+      <c r="A19" s="269"/>
+      <c r="B19" s="246" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="292"/>
-      <c r="D19" s="322"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="310"/>
       <c r="E19" s="65"/>
       <c r="F19" s="34"/>
       <c r="G19" s="66"/>
@@ -45359,20 +45369,20 @@
       <c r="L19" s="34"/>
       <c r="M19" s="154"/>
       <c r="N19" s="156"/>
-      <c r="O19" s="227"/>
-      <c r="P19" s="235"/>
-      <c r="Q19" s="235"/>
-      <c r="R19" s="235"/>
-      <c r="S19" s="235"/>
-      <c r="T19" s="228"/>
+      <c r="O19" s="296"/>
+      <c r="P19" s="244"/>
+      <c r="Q19" s="244"/>
+      <c r="R19" s="244"/>
+      <c r="S19" s="244"/>
+      <c r="T19" s="245"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="275"/>
-      <c r="B20" s="252" t="s">
+      <c r="A20" s="269"/>
+      <c r="B20" s="246" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="292"/>
-      <c r="D20" s="322"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="310"/>
       <c r="E20" s="65"/>
       <c r="F20" s="34"/>
       <c r="G20" s="66"/>
@@ -45383,20 +45393,20 @@
       <c r="L20" s="34"/>
       <c r="M20" s="154"/>
       <c r="N20" s="156"/>
-      <c r="O20" s="227"/>
-      <c r="P20" s="235"/>
-      <c r="Q20" s="235"/>
-      <c r="R20" s="235"/>
-      <c r="S20" s="235"/>
-      <c r="T20" s="228"/>
+      <c r="O20" s="296"/>
+      <c r="P20" s="244"/>
+      <c r="Q20" s="244"/>
+      <c r="R20" s="244"/>
+      <c r="S20" s="244"/>
+      <c r="T20" s="245"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="275"/>
-      <c r="B21" s="252" t="s">
+      <c r="A21" s="269"/>
+      <c r="B21" s="246" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="292"/>
-      <c r="D21" s="322"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="310"/>
       <c r="E21" s="65"/>
       <c r="F21" s="34"/>
       <c r="G21" s="66"/>
@@ -45407,20 +45417,20 @@
       <c r="L21" s="34"/>
       <c r="M21" s="154"/>
       <c r="N21" s="156"/>
-      <c r="O21" s="227"/>
-      <c r="P21" s="235"/>
-      <c r="Q21" s="235"/>
-      <c r="R21" s="235"/>
-      <c r="S21" s="235"/>
-      <c r="T21" s="228"/>
+      <c r="O21" s="296"/>
+      <c r="P21" s="244"/>
+      <c r="Q21" s="244"/>
+      <c r="R21" s="244"/>
+      <c r="S21" s="244"/>
+      <c r="T21" s="245"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="275"/>
-      <c r="B22" s="252" t="s">
+      <c r="A22" s="269"/>
+      <c r="B22" s="246" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="292"/>
-      <c r="D22" s="322"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="310"/>
       <c r="E22" s="65"/>
       <c r="F22" s="34"/>
       <c r="G22" s="66"/>
@@ -45431,20 +45441,20 @@
       <c r="L22" s="34"/>
       <c r="M22" s="154"/>
       <c r="N22" s="156"/>
-      <c r="O22" s="227"/>
-      <c r="P22" s="235"/>
-      <c r="Q22" s="235"/>
-      <c r="R22" s="235"/>
-      <c r="S22" s="235"/>
-      <c r="T22" s="228"/>
+      <c r="O22" s="296"/>
+      <c r="P22" s="244"/>
+      <c r="Q22" s="244"/>
+      <c r="R22" s="244"/>
+      <c r="S22" s="244"/>
+      <c r="T22" s="245"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="275"/>
-      <c r="B23" s="252" t="s">
+      <c r="A23" s="269"/>
+      <c r="B23" s="246" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="253"/>
-      <c r="D23" s="311"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="309"/>
       <c r="E23" s="65"/>
       <c r="F23" s="34"/>
       <c r="G23" s="66"/>
@@ -45455,20 +45465,20 @@
       <c r="L23" s="34"/>
       <c r="M23" s="154"/>
       <c r="N23" s="156"/>
-      <c r="O23" s="227"/>
-      <c r="P23" s="235"/>
-      <c r="Q23" s="235"/>
-      <c r="R23" s="235"/>
-      <c r="S23" s="235"/>
-      <c r="T23" s="228"/>
+      <c r="O23" s="296"/>
+      <c r="P23" s="244"/>
+      <c r="Q23" s="244"/>
+      <c r="R23" s="244"/>
+      <c r="S23" s="244"/>
+      <c r="T23" s="245"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="275"/>
-      <c r="B24" s="279" t="s">
+      <c r="A24" s="269"/>
+      <c r="B24" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="294"/>
-      <c r="D24" s="323"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="308"/>
       <c r="E24" s="65"/>
       <c r="F24" s="34"/>
       <c r="G24" s="66"/>
@@ -45479,20 +45489,20 @@
       <c r="L24" s="34"/>
       <c r="M24" s="154"/>
       <c r="N24" s="156"/>
-      <c r="O24" s="227"/>
-      <c r="P24" s="235"/>
-      <c r="Q24" s="235"/>
-      <c r="R24" s="235"/>
-      <c r="S24" s="235"/>
-      <c r="T24" s="228"/>
+      <c r="O24" s="296"/>
+      <c r="P24" s="244"/>
+      <c r="Q24" s="244"/>
+      <c r="R24" s="244"/>
+      <c r="S24" s="244"/>
+      <c r="T24" s="245"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="275"/>
-      <c r="B25" s="279" t="s">
+      <c r="A25" s="269"/>
+      <c r="B25" s="241" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="323"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="308"/>
       <c r="E25" s="65"/>
       <c r="F25" s="34"/>
       <c r="G25" s="66"/>
@@ -45503,20 +45513,20 @@
       <c r="L25" s="34"/>
       <c r="M25" s="154"/>
       <c r="N25" s="156"/>
-      <c r="O25" s="227"/>
-      <c r="P25" s="235"/>
-      <c r="Q25" s="235"/>
-      <c r="R25" s="235"/>
-      <c r="S25" s="235"/>
-      <c r="T25" s="228"/>
+      <c r="O25" s="296"/>
+      <c r="P25" s="244"/>
+      <c r="Q25" s="244"/>
+      <c r="R25" s="244"/>
+      <c r="S25" s="244"/>
+      <c r="T25" s="245"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="275"/>
-      <c r="B26" s="279" t="s">
+      <c r="A26" s="269"/>
+      <c r="B26" s="241" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="323"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="308"/>
       <c r="E26" s="65"/>
       <c r="F26" s="34"/>
       <c r="G26" s="66"/>
@@ -45527,20 +45537,20 @@
       <c r="L26" s="34"/>
       <c r="M26" s="154"/>
       <c r="N26" s="156"/>
-      <c r="O26" s="227"/>
-      <c r="P26" s="235"/>
-      <c r="Q26" s="235"/>
-      <c r="R26" s="235"/>
-      <c r="S26" s="235"/>
-      <c r="T26" s="228"/>
+      <c r="O26" s="296"/>
+      <c r="P26" s="244"/>
+      <c r="Q26" s="244"/>
+      <c r="R26" s="244"/>
+      <c r="S26" s="244"/>
+      <c r="T26" s="245"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="276"/>
-      <c r="B27" s="297" t="s">
+      <c r="A27" s="270"/>
+      <c r="B27" s="228" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="298"/>
-      <c r="D27" s="324"/>
+      <c r="C27" s="229"/>
+      <c r="D27" s="304"/>
       <c r="E27" s="71"/>
       <c r="F27" s="40"/>
       <c r="G27" s="72"/>
@@ -45551,22 +45561,22 @@
       <c r="L27" s="40"/>
       <c r="M27" s="40"/>
       <c r="N27" s="59"/>
-      <c r="O27" s="321"/>
-      <c r="P27" s="289"/>
-      <c r="Q27" s="289"/>
-      <c r="R27" s="289"/>
-      <c r="S27" s="289"/>
-      <c r="T27" s="291"/>
+      <c r="O27" s="305"/>
+      <c r="P27" s="233"/>
+      <c r="Q27" s="233"/>
+      <c r="R27" s="233"/>
+      <c r="S27" s="233"/>
+      <c r="T27" s="234"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="300" t="s">
+      <c r="B28" s="235" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="301"/>
-      <c r="D28" s="325"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="306"/>
       <c r="E28" s="73"/>
       <c r="F28" s="61"/>
       <c r="G28" s="74"/>
@@ -45577,17 +45587,17 @@
       <c r="L28" s="61"/>
       <c r="M28" s="61"/>
       <c r="N28" s="62"/>
-      <c r="O28" s="326"/>
-      <c r="P28" s="232"/>
-      <c r="Q28" s="232"/>
-      <c r="R28" s="232"/>
-      <c r="S28" s="232"/>
-      <c r="T28" s="242"/>
+      <c r="O28" s="307"/>
+      <c r="P28" s="239"/>
+      <c r="Q28" s="239"/>
+      <c r="R28" s="239"/>
+      <c r="S28" s="239"/>
+      <c r="T28" s="240"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="296"/>
-      <c r="C29" s="296"/>
-      <c r="D29" s="296"/>
+      <c r="B29" s="227"/>
+      <c r="C29" s="227"/>
+      <c r="D29" s="227"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="16" t="s">
@@ -45598,135 +45608,118 @@
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="223" t="s">
+      <c r="B31" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="223"/>
+      <c r="C31" s="178"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="223" t="s">
+      <c r="B32" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="223"/>
+      <c r="C32" s="178"/>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1">
       <c r="A33" s="19"/>
-      <c r="B33" s="223" t="s">
+      <c r="B33" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="223"/>
+      <c r="C33" s="178"/>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="223" t="s">
+      <c r="B34" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="223"/>
+      <c r="C34" s="178"/>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="223" t="s">
+      <c r="B35" s="178" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="223"/>
+      <c r="C35" s="178"/>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1">
-      <c r="B36" s="296"/>
-      <c r="C36" s="296"/>
-      <c r="D36" s="296"/>
+      <c r="B36" s="227"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="227"/>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1">
-      <c r="B37" s="296"/>
-      <c r="C37" s="296"/>
-      <c r="D37" s="296"/>
+      <c r="B37" s="227"/>
+      <c r="C37" s="227"/>
+      <c r="D37" s="227"/>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1">
-      <c r="B38" s="296"/>
-      <c r="C38" s="296"/>
-      <c r="D38" s="296"/>
+      <c r="B38" s="227"/>
+      <c r="C38" s="227"/>
+      <c r="D38" s="227"/>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1">
-      <c r="B39" s="296"/>
-      <c r="C39" s="296"/>
-      <c r="D39" s="296"/>
+      <c r="B39" s="227"/>
+      <c r="C39" s="227"/>
+      <c r="D39" s="227"/>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1">
-      <c r="B40" s="296"/>
-      <c r="C40" s="296"/>
-      <c r="D40" s="296"/>
+      <c r="B40" s="227"/>
+      <c r="C40" s="227"/>
+      <c r="D40" s="227"/>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1">
-      <c r="B41" s="296"/>
-      <c r="C41" s="296"/>
-      <c r="D41" s="296"/>
+      <c r="B41" s="227"/>
+      <c r="C41" s="227"/>
+      <c r="D41" s="227"/>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1">
-      <c r="B42" s="296"/>
-      <c r="C42" s="296"/>
-      <c r="D42" s="296"/>
+      <c r="B42" s="227"/>
+      <c r="C42" s="227"/>
+      <c r="D42" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="O12:P12"/>
@@ -45751,48 +45744,65 @@
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45814,75 +45824,75 @@
       <c r="B2" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="233" t="s">
+      <c r="G2" s="299" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="234"/>
-      <c r="I2" s="240" t="s">
+      <c r="H2" s="300"/>
+      <c r="I2" s="289" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="235"/>
-      <c r="L2" s="233" t="s">
+      <c r="J2" s="244"/>
+      <c r="L2" s="299" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="234"/>
-      <c r="N2" s="240" t="s">
+      <c r="M2" s="300"/>
+      <c r="N2" s="289" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="235"/>
-      <c r="Q2" s="233" t="s">
+      <c r="O2" s="244"/>
+      <c r="Q2" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="234"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="235"/>
-      <c r="V2" s="233" t="s">
+      <c r="R2" s="300"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="244"/>
+      <c r="V2" s="299" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="234"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="235"/>
+      <c r="W2" s="300"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="244"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="D4" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="236" t="s">
+      <c r="E4" s="301" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="237"/>
-      <c r="G4" s="238" t="s">
+      <c r="F4" s="264"/>
+      <c r="G4" s="231" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="239"/>
-      <c r="I4" s="236" t="s">
+      <c r="H4" s="302"/>
+      <c r="I4" s="301" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="237"/>
-      <c r="K4" s="238" t="s">
+      <c r="J4" s="264"/>
+      <c r="K4" s="231" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="239"/>
-      <c r="M4" s="236" t="s">
+      <c r="L4" s="302"/>
+      <c r="M4" s="301" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="237"/>
+      <c r="N4" s="264"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D5" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="227"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="229"/>
-      <c r="H5" s="230"/>
-      <c r="I5" s="227"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="229"/>
-      <c r="L5" s="230"/>
-      <c r="M5" s="227"/>
-      <c r="N5" s="228"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="297"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="245"/>
+      <c r="K5" s="280"/>
+      <c r="L5" s="297"/>
+      <c r="M5" s="296"/>
+      <c r="N5" s="245"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D6" s="78" t="s">
@@ -45921,25 +45931,25 @@
       <c r="O6" s="327" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="232"/>
-      <c r="Q6" s="241" t="s">
+      <c r="P6" s="239"/>
+      <c r="Q6" s="303" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="232"/>
-      <c r="S6" s="241" t="s">
+      <c r="R6" s="239"/>
+      <c r="S6" s="303" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="242"/>
+      <c r="T6" s="240"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="243" t="s">
+      <c r="A7" s="281" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="246" t="s">
+      <c r="B7" s="271" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="247"/>
-      <c r="D7" s="248"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="285"/>
       <c r="E7" s="93"/>
       <c r="F7" s="43"/>
       <c r="G7" s="45"/>
@@ -45950,20 +45960,20 @@
       <c r="L7" s="55"/>
       <c r="M7" s="93"/>
       <c r="N7" s="43"/>
-      <c r="O7" s="310"/>
-      <c r="P7" s="250"/>
-      <c r="Q7" s="250"/>
-      <c r="R7" s="250"/>
-      <c r="S7" s="250"/>
-      <c r="T7" s="251"/>
+      <c r="O7" s="319"/>
+      <c r="P7" s="287"/>
+      <c r="Q7" s="287"/>
+      <c r="R7" s="287"/>
+      <c r="S7" s="287"/>
+      <c r="T7" s="288"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="244"/>
-      <c r="B8" s="252" t="s">
+      <c r="A8" s="282"/>
+      <c r="B8" s="246" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="253"/>
-      <c r="D8" s="254"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="248"/>
       <c r="E8" s="37"/>
       <c r="F8" s="38"/>
       <c r="G8" s="46"/>
@@ -45974,20 +45984,20 @@
       <c r="L8" s="56"/>
       <c r="M8" s="37"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="227"/>
-      <c r="P8" s="235"/>
-      <c r="Q8" s="235"/>
-      <c r="R8" s="235"/>
-      <c r="S8" s="235"/>
-      <c r="T8" s="228"/>
+      <c r="O8" s="296"/>
+      <c r="P8" s="244"/>
+      <c r="Q8" s="244"/>
+      <c r="R8" s="244"/>
+      <c r="S8" s="244"/>
+      <c r="T8" s="245"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="244"/>
-      <c r="B9" s="252" t="s">
+      <c r="A9" s="282"/>
+      <c r="B9" s="246" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="253"/>
-      <c r="D9" s="254"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="248"/>
       <c r="E9" s="37"/>
       <c r="F9" s="38"/>
       <c r="G9" s="46"/>
@@ -45998,20 +46008,20 @@
       <c r="L9" s="56"/>
       <c r="M9" s="37"/>
       <c r="N9" s="38"/>
-      <c r="O9" s="227"/>
-      <c r="P9" s="235"/>
-      <c r="Q9" s="235"/>
-      <c r="R9" s="235"/>
-      <c r="S9" s="235"/>
-      <c r="T9" s="228"/>
+      <c r="O9" s="296"/>
+      <c r="P9" s="244"/>
+      <c r="Q9" s="244"/>
+      <c r="R9" s="244"/>
+      <c r="S9" s="244"/>
+      <c r="T9" s="245"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="244"/>
-      <c r="B10" s="252" t="s">
+      <c r="A10" s="282"/>
+      <c r="B10" s="246" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="253"/>
-      <c r="D10" s="254"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="248"/>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
       <c r="G10" s="46"/>
@@ -46022,20 +46032,20 @@
       <c r="L10" s="56"/>
       <c r="M10" s="37"/>
       <c r="N10" s="38"/>
-      <c r="O10" s="227"/>
-      <c r="P10" s="235"/>
-      <c r="Q10" s="235"/>
-      <c r="R10" s="235"/>
-      <c r="S10" s="235"/>
-      <c r="T10" s="228"/>
+      <c r="O10" s="296"/>
+      <c r="P10" s="244"/>
+      <c r="Q10" s="244"/>
+      <c r="R10" s="244"/>
+      <c r="S10" s="244"/>
+      <c r="T10" s="245"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="245"/>
-      <c r="B11" s="256" t="s">
+      <c r="A11" s="283"/>
+      <c r="B11" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="257"/>
-      <c r="D11" s="258"/>
+      <c r="C11" s="291"/>
+      <c r="D11" s="292"/>
       <c r="E11" s="94"/>
       <c r="F11" s="51"/>
       <c r="G11" s="49"/>
@@ -46046,22 +46056,22 @@
       <c r="L11" s="57"/>
       <c r="M11" s="94"/>
       <c r="N11" s="51"/>
-      <c r="O11" s="313"/>
-      <c r="P11" s="260"/>
-      <c r="Q11" s="260"/>
-      <c r="R11" s="260"/>
-      <c r="S11" s="260"/>
-      <c r="T11" s="261"/>
+      <c r="O11" s="321"/>
+      <c r="P11" s="294"/>
+      <c r="Q11" s="294"/>
+      <c r="R11" s="294"/>
+      <c r="S11" s="294"/>
+      <c r="T11" s="295"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="262" t="s">
+      <c r="A12" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="259" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="266"/>
-      <c r="D12" s="267"/>
+      <c r="C12" s="260"/>
+      <c r="D12" s="261"/>
       <c r="E12" s="35"/>
       <c r="F12" s="53"/>
       <c r="G12" s="52"/>
@@ -46072,20 +46082,20 @@
       <c r="L12" s="58"/>
       <c r="M12" s="35"/>
       <c r="N12" s="53"/>
-      <c r="O12" s="315"/>
-      <c r="P12" s="270"/>
-      <c r="Q12" s="270"/>
-      <c r="R12" s="270"/>
-      <c r="S12" s="270"/>
-      <c r="T12" s="237"/>
+      <c r="O12" s="313"/>
+      <c r="P12" s="232"/>
+      <c r="Q12" s="232"/>
+      <c r="R12" s="232"/>
+      <c r="S12" s="232"/>
+      <c r="T12" s="264"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="263"/>
-      <c r="B13" s="271" t="s">
+      <c r="A13" s="257"/>
+      <c r="B13" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="272"/>
-      <c r="D13" s="273"/>
+      <c r="C13" s="266"/>
+      <c r="D13" s="267"/>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
       <c r="G13" s="46"/>
@@ -46096,20 +46106,20 @@
       <c r="L13" s="56"/>
       <c r="M13" s="37"/>
       <c r="N13" s="38"/>
-      <c r="O13" s="227"/>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="235"/>
-      <c r="R13" s="235"/>
-      <c r="S13" s="235"/>
-      <c r="T13" s="228"/>
+      <c r="O13" s="296"/>
+      <c r="P13" s="244"/>
+      <c r="Q13" s="244"/>
+      <c r="R13" s="244"/>
+      <c r="S13" s="244"/>
+      <c r="T13" s="245"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="263"/>
-      <c r="B14" s="271" t="s">
+      <c r="A14" s="257"/>
+      <c r="B14" s="265" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="282"/>
-      <c r="D14" s="283"/>
+      <c r="C14" s="277"/>
+      <c r="D14" s="278"/>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
       <c r="G14" s="46"/>
@@ -46120,20 +46130,20 @@
       <c r="L14" s="56"/>
       <c r="M14" s="37"/>
       <c r="N14" s="38"/>
-      <c r="O14" s="227"/>
-      <c r="P14" s="235"/>
-      <c r="Q14" s="235"/>
-      <c r="R14" s="235"/>
-      <c r="S14" s="235"/>
-      <c r="T14" s="228"/>
+      <c r="O14" s="296"/>
+      <c r="P14" s="244"/>
+      <c r="Q14" s="244"/>
+      <c r="R14" s="244"/>
+      <c r="S14" s="244"/>
+      <c r="T14" s="245"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="264"/>
-      <c r="B15" s="285" t="s">
+      <c r="A15" s="258"/>
+      <c r="B15" s="251" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="286"/>
-      <c r="D15" s="287"/>
+      <c r="C15" s="252"/>
+      <c r="D15" s="253"/>
       <c r="E15" s="95"/>
       <c r="F15" s="41"/>
       <c r="G15" s="47"/>
@@ -46144,22 +46154,22 @@
       <c r="L15" s="59"/>
       <c r="M15" s="95"/>
       <c r="N15" s="41"/>
-      <c r="O15" s="321"/>
-      <c r="P15" s="289"/>
-      <c r="Q15" s="289"/>
-      <c r="R15" s="289"/>
-      <c r="S15" s="289"/>
-      <c r="T15" s="291"/>
+      <c r="O15" s="305"/>
+      <c r="P15" s="233"/>
+      <c r="Q15" s="233"/>
+      <c r="R15" s="233"/>
+      <c r="S15" s="233"/>
+      <c r="T15" s="234"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="274" t="s">
+      <c r="A16" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="246" t="s">
+      <c r="B16" s="271" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="277"/>
-      <c r="D16" s="278"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="273"/>
       <c r="E16" s="35"/>
       <c r="F16" s="53"/>
       <c r="G16" s="52"/>
@@ -46170,20 +46180,20 @@
       <c r="L16" s="58"/>
       <c r="M16" s="35"/>
       <c r="N16" s="53"/>
-      <c r="O16" s="315"/>
-      <c r="P16" s="270"/>
-      <c r="Q16" s="270"/>
-      <c r="R16" s="270"/>
-      <c r="S16" s="270"/>
-      <c r="T16" s="237"/>
+      <c r="O16" s="313"/>
+      <c r="P16" s="232"/>
+      <c r="Q16" s="232"/>
+      <c r="R16" s="232"/>
+      <c r="S16" s="232"/>
+      <c r="T16" s="264"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="275"/>
-      <c r="B17" s="279" t="s">
+      <c r="A17" s="269"/>
+      <c r="B17" s="241" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="280"/>
-      <c r="D17" s="281"/>
+      <c r="C17" s="274"/>
+      <c r="D17" s="275"/>
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
       <c r="G17" s="46"/>
@@ -46194,20 +46204,20 @@
       <c r="L17" s="56"/>
       <c r="M17" s="37"/>
       <c r="N17" s="38"/>
-      <c r="O17" s="227"/>
-      <c r="P17" s="235"/>
-      <c r="Q17" s="235"/>
-      <c r="R17" s="235"/>
-      <c r="S17" s="235"/>
-      <c r="T17" s="228"/>
+      <c r="O17" s="296"/>
+      <c r="P17" s="244"/>
+      <c r="Q17" s="244"/>
+      <c r="R17" s="244"/>
+      <c r="S17" s="244"/>
+      <c r="T17" s="245"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="275"/>
-      <c r="B18" s="279" t="s">
+      <c r="A18" s="269"/>
+      <c r="B18" s="241" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="280"/>
-      <c r="D18" s="281"/>
+      <c r="C18" s="274"/>
+      <c r="D18" s="275"/>
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
       <c r="G18" s="46"/>
@@ -46218,20 +46228,20 @@
       <c r="L18" s="56"/>
       <c r="M18" s="37"/>
       <c r="N18" s="38"/>
-      <c r="O18" s="227"/>
-      <c r="P18" s="235"/>
-      <c r="Q18" s="235"/>
-      <c r="R18" s="235"/>
-      <c r="S18" s="235"/>
-      <c r="T18" s="228"/>
+      <c r="O18" s="296"/>
+      <c r="P18" s="244"/>
+      <c r="Q18" s="244"/>
+      <c r="R18" s="244"/>
+      <c r="S18" s="244"/>
+      <c r="T18" s="245"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="275"/>
-      <c r="B19" s="252" t="s">
+      <c r="A19" s="269"/>
+      <c r="B19" s="246" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="292"/>
-      <c r="D19" s="293"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="250"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
       <c r="G19" s="46"/>
@@ -46242,20 +46252,20 @@
       <c r="L19" s="56"/>
       <c r="M19" s="37"/>
       <c r="N19" s="38"/>
-      <c r="O19" s="227"/>
-      <c r="P19" s="235"/>
-      <c r="Q19" s="235"/>
-      <c r="R19" s="235"/>
-      <c r="S19" s="235"/>
-      <c r="T19" s="228"/>
+      <c r="O19" s="296"/>
+      <c r="P19" s="244"/>
+      <c r="Q19" s="244"/>
+      <c r="R19" s="244"/>
+      <c r="S19" s="244"/>
+      <c r="T19" s="245"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="275"/>
-      <c r="B20" s="252" t="s">
+      <c r="A20" s="269"/>
+      <c r="B20" s="246" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="292"/>
-      <c r="D20" s="293"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="250"/>
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
       <c r="G20" s="46"/>
@@ -46266,20 +46276,20 @@
       <c r="L20" s="56"/>
       <c r="M20" s="37"/>
       <c r="N20" s="38"/>
-      <c r="O20" s="227"/>
-      <c r="P20" s="235"/>
-      <c r="Q20" s="235"/>
-      <c r="R20" s="235"/>
-      <c r="S20" s="235"/>
-      <c r="T20" s="228"/>
+      <c r="O20" s="296"/>
+      <c r="P20" s="244"/>
+      <c r="Q20" s="244"/>
+      <c r="R20" s="244"/>
+      <c r="S20" s="244"/>
+      <c r="T20" s="245"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="275"/>
-      <c r="B21" s="252" t="s">
+      <c r="A21" s="269"/>
+      <c r="B21" s="246" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="292"/>
-      <c r="D21" s="293"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="250"/>
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
       <c r="G21" s="46"/>
@@ -46290,20 +46300,20 @@
       <c r="L21" s="56"/>
       <c r="M21" s="37"/>
       <c r="N21" s="38"/>
-      <c r="O21" s="227"/>
-      <c r="P21" s="235"/>
-      <c r="Q21" s="235"/>
-      <c r="R21" s="235"/>
-      <c r="S21" s="235"/>
-      <c r="T21" s="228"/>
+      <c r="O21" s="296"/>
+      <c r="P21" s="244"/>
+      <c r="Q21" s="244"/>
+      <c r="R21" s="244"/>
+      <c r="S21" s="244"/>
+      <c r="T21" s="245"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="275"/>
-      <c r="B22" s="252" t="s">
+      <c r="A22" s="269"/>
+      <c r="B22" s="246" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="292"/>
-      <c r="D22" s="293"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="250"/>
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
       <c r="G22" s="46"/>
@@ -46314,20 +46324,20 @@
       <c r="L22" s="56"/>
       <c r="M22" s="37"/>
       <c r="N22" s="38"/>
-      <c r="O22" s="227"/>
-      <c r="P22" s="235"/>
-      <c r="Q22" s="235"/>
-      <c r="R22" s="235"/>
-      <c r="S22" s="235"/>
-      <c r="T22" s="228"/>
+      <c r="O22" s="296"/>
+      <c r="P22" s="244"/>
+      <c r="Q22" s="244"/>
+      <c r="R22" s="244"/>
+      <c r="S22" s="244"/>
+      <c r="T22" s="245"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="275"/>
-      <c r="B23" s="252" t="s">
+      <c r="A23" s="269"/>
+      <c r="B23" s="246" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="253"/>
-      <c r="D23" s="254"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="248"/>
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
       <c r="G23" s="46"/>
@@ -46338,20 +46348,20 @@
       <c r="L23" s="56"/>
       <c r="M23" s="37"/>
       <c r="N23" s="38"/>
-      <c r="O23" s="227"/>
-      <c r="P23" s="235"/>
-      <c r="Q23" s="235"/>
-      <c r="R23" s="235"/>
-      <c r="S23" s="235"/>
-      <c r="T23" s="228"/>
+      <c r="O23" s="296"/>
+      <c r="P23" s="244"/>
+      <c r="Q23" s="244"/>
+      <c r="R23" s="244"/>
+      <c r="S23" s="244"/>
+      <c r="T23" s="245"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="275"/>
-      <c r="B24" s="279" t="s">
+      <c r="A24" s="269"/>
+      <c r="B24" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="294"/>
-      <c r="D24" s="295"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="243"/>
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
       <c r="G24" s="46"/>
@@ -46362,20 +46372,20 @@
       <c r="L24" s="56"/>
       <c r="M24" s="37"/>
       <c r="N24" s="38"/>
-      <c r="O24" s="227"/>
-      <c r="P24" s="235"/>
-      <c r="Q24" s="235"/>
-      <c r="R24" s="235"/>
-      <c r="S24" s="235"/>
-      <c r="T24" s="228"/>
+      <c r="O24" s="296"/>
+      <c r="P24" s="244"/>
+      <c r="Q24" s="244"/>
+      <c r="R24" s="244"/>
+      <c r="S24" s="244"/>
+      <c r="T24" s="245"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="275"/>
-      <c r="B25" s="279" t="s">
+      <c r="A25" s="269"/>
+      <c r="B25" s="241" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="295"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="243"/>
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
       <c r="G25" s="46"/>
@@ -46386,20 +46396,20 @@
       <c r="L25" s="56"/>
       <c r="M25" s="37"/>
       <c r="N25" s="38"/>
-      <c r="O25" s="227"/>
-      <c r="P25" s="235"/>
-      <c r="Q25" s="235"/>
-      <c r="R25" s="235"/>
-      <c r="S25" s="235"/>
-      <c r="T25" s="228"/>
+      <c r="O25" s="296"/>
+      <c r="P25" s="244"/>
+      <c r="Q25" s="244"/>
+      <c r="R25" s="244"/>
+      <c r="S25" s="244"/>
+      <c r="T25" s="245"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="275"/>
-      <c r="B26" s="279" t="s">
+      <c r="A26" s="269"/>
+      <c r="B26" s="241" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="295"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="243"/>
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
       <c r="G26" s="46"/>
@@ -46410,20 +46420,20 @@
       <c r="L26" s="56"/>
       <c r="M26" s="37"/>
       <c r="N26" s="38"/>
-      <c r="O26" s="227"/>
-      <c r="P26" s="235"/>
-      <c r="Q26" s="235"/>
-      <c r="R26" s="235"/>
-      <c r="S26" s="235"/>
-      <c r="T26" s="228"/>
+      <c r="O26" s="296"/>
+      <c r="P26" s="244"/>
+      <c r="Q26" s="244"/>
+      <c r="R26" s="244"/>
+      <c r="S26" s="244"/>
+      <c r="T26" s="245"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="276"/>
-      <c r="B27" s="297" t="s">
+      <c r="A27" s="270"/>
+      <c r="B27" s="228" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="298"/>
-      <c r="D27" s="299"/>
+      <c r="C27" s="229"/>
+      <c r="D27" s="230"/>
       <c r="E27" s="95"/>
       <c r="F27" s="41"/>
       <c r="G27" s="47"/>
@@ -46434,22 +46444,22 @@
       <c r="L27" s="59"/>
       <c r="M27" s="95"/>
       <c r="N27" s="41"/>
-      <c r="O27" s="321"/>
-      <c r="P27" s="289"/>
-      <c r="Q27" s="289"/>
-      <c r="R27" s="289"/>
-      <c r="S27" s="289"/>
-      <c r="T27" s="291"/>
+      <c r="O27" s="305"/>
+      <c r="P27" s="233"/>
+      <c r="Q27" s="233"/>
+      <c r="R27" s="233"/>
+      <c r="S27" s="233"/>
+      <c r="T27" s="234"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="300" t="s">
+      <c r="B28" s="235" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="301"/>
-      <c r="D28" s="302"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="237"/>
       <c r="E28" s="96"/>
       <c r="F28" s="97"/>
       <c r="G28" s="60"/>
@@ -46460,17 +46470,17 @@
       <c r="L28" s="62"/>
       <c r="M28" s="96"/>
       <c r="N28" s="97"/>
-      <c r="O28" s="326"/>
-      <c r="P28" s="232"/>
-      <c r="Q28" s="232"/>
-      <c r="R28" s="232"/>
-      <c r="S28" s="232"/>
-      <c r="T28" s="242"/>
+      <c r="O28" s="307"/>
+      <c r="P28" s="239"/>
+      <c r="Q28" s="239"/>
+      <c r="R28" s="239"/>
+      <c r="S28" s="239"/>
+      <c r="T28" s="240"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="296"/>
-      <c r="C29" s="296"/>
-      <c r="D29" s="296"/>
+      <c r="B29" s="227"/>
+      <c r="C29" s="227"/>
+      <c r="D29" s="227"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="16" t="s">
@@ -46481,99 +46491,150 @@
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="223" t="s">
+      <c r="B31" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="223"/>
+      <c r="C31" s="178"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="223" t="s">
+      <c r="B32" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="223"/>
+      <c r="C32" s="178"/>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1">
       <c r="A33" s="19"/>
-      <c r="B33" s="223" t="s">
+      <c r="B33" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="223"/>
+      <c r="C33" s="178"/>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="223" t="s">
+      <c r="B34" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="223"/>
+      <c r="C34" s="178"/>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1">
-      <c r="B35" s="296"/>
-      <c r="C35" s="296"/>
-      <c r="D35" s="296"/>
+      <c r="B35" s="227"/>
+      <c r="C35" s="227"/>
+      <c r="D35" s="227"/>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1">
-      <c r="B36" s="296"/>
-      <c r="C36" s="296"/>
-      <c r="D36" s="296"/>
+      <c r="B36" s="227"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="227"/>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1">
-      <c r="B37" s="296"/>
-      <c r="C37" s="296"/>
-      <c r="D37" s="296"/>
+      <c r="B37" s="227"/>
+      <c r="C37" s="227"/>
+      <c r="D37" s="227"/>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1">
-      <c r="B38" s="296"/>
-      <c r="C38" s="296"/>
-      <c r="D38" s="296"/>
+      <c r="B38" s="227"/>
+      <c r="C38" s="227"/>
+      <c r="D38" s="227"/>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1">
-      <c r="B39" s="296"/>
-      <c r="C39" s="296"/>
-      <c r="D39" s="296"/>
+      <c r="B39" s="227"/>
+      <c r="C39" s="227"/>
+      <c r="D39" s="227"/>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1">
-      <c r="B40" s="296"/>
-      <c r="C40" s="296"/>
-      <c r="D40" s="296"/>
+      <c r="B40" s="227"/>
+      <c r="C40" s="227"/>
+      <c r="D40" s="227"/>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1">
-      <c r="B41" s="296"/>
-      <c r="C41" s="296"/>
-      <c r="D41" s="296"/>
+      <c r="B41" s="227"/>
+      <c r="C41" s="227"/>
+      <c r="D41" s="227"/>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1">
-      <c r="B42" s="296"/>
-      <c r="C42" s="296"/>
-      <c r="D42" s="296"/>
+      <c r="B42" s="227"/>
+      <c r="C42" s="227"/>
+      <c r="D42" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="Q10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S11:T11"/>
@@ -46598,82 +46659,31 @@
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="S21:T21"/>
     <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/30_工程表/工程表_第2版.xlsx
+++ b/doc/30_工程表/工程表_第2版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E4\doc\30_工程表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A475C05F-5029-4006-BD2F-A89A9E31B7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D82457-646C-4FBC-BD36-43221C23315C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2836,123 +2836,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2986,6 +2869,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2998,64 +2905,175 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3067,25 +3085,25 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3112,7 +3130,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3133,23 +3151,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3160,101 +3175,92 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3274,31 +3280,25 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5816,8 +5816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F461FB36-AA5C-4255-9DAB-20DEB8CADCD8}">
   <dimension ref="A1:AO1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM20" sqref="AM20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
@@ -5870,18 +5870,18 @@
       <c r="AJ1" s="2"/>
     </row>
     <row r="2" spans="1:41" ht="22.5" customHeight="1">
-      <c r="B2" s="221">
+      <c r="B2" s="182">
         <v>2024</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
+      <c r="C2" s="183"/>
+      <c r="D2" s="183"/>
       <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="221">
+      <c r="F2" s="182">
         <v>6</v>
       </c>
-      <c r="G2" s="201"/>
+      <c r="G2" s="183"/>
       <c r="H2" s="12" t="s">
         <v>1</v>
       </c>
@@ -5954,57 +5954,57 @@
       <c r="AJ3" s="3"/>
     </row>
     <row r="4" spans="1:41" ht="19.5" customHeight="1">
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="206" t="s">
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="186"/>
+      <c r="F4" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="209" t="s">
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="186"/>
+      <c r="K4" s="184" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="205"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="206" t="s">
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="186"/>
+      <c r="O4" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="205"/>
-      <c r="Q4" s="205"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="207"/>
-      <c r="T4" s="209" t="s">
+      <c r="P4" s="185"/>
+      <c r="Q4" s="185"/>
+      <c r="R4" s="185"/>
+      <c r="S4" s="186"/>
+      <c r="T4" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="205"/>
-      <c r="V4" s="205"/>
-      <c r="W4" s="207"/>
-      <c r="X4" s="210">
+      <c r="U4" s="185"/>
+      <c r="V4" s="185"/>
+      <c r="W4" s="186"/>
+      <c r="X4" s="215">
         <v>45451</v>
       </c>
-      <c r="Y4" s="205"/>
-      <c r="Z4" s="205"/>
-      <c r="AA4" s="205"/>
-      <c r="AB4" s="207"/>
-      <c r="AC4" s="209" t="s">
+      <c r="Y4" s="185"/>
+      <c r="Z4" s="185"/>
+      <c r="AA4" s="185"/>
+      <c r="AB4" s="186"/>
+      <c r="AC4" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="205"/>
-      <c r="AE4" s="205"/>
-      <c r="AF4" s="205"/>
-      <c r="AG4" s="195">
+      <c r="AD4" s="185"/>
+      <c r="AE4" s="185"/>
+      <c r="AF4" s="185"/>
+      <c r="AG4" s="205">
         <v>45451</v>
       </c>
-      <c r="AH4" s="196"/>
-      <c r="AI4" s="196"/>
-      <c r="AJ4" s="196"/>
+      <c r="AH4" s="206"/>
+      <c r="AI4" s="206"/>
+      <c r="AJ4" s="206"/>
     </row>
     <row r="5" spans="1:41" ht="18.75" customHeight="1">
       <c r="B5" s="2"/>
@@ -6044,52 +6044,52 @@
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:41" ht="18.75" customHeight="1">
-      <c r="B6" s="197"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="199"/>
+      <c r="B6" s="207"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="196"/>
       <c r="F6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="204">
+      <c r="G6" s="211">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="205"/>
-      <c r="I6" s="205"/>
-      <c r="J6" s="205"/>
-      <c r="K6" s="205"/>
-      <c r="L6" s="205"/>
-      <c r="M6" s="205"/>
-      <c r="N6" s="205"/>
-      <c r="O6" s="205"/>
-      <c r="P6" s="205"/>
-      <c r="Q6" s="205"/>
-      <c r="R6" s="205"/>
-      <c r="S6" s="205"/>
-      <c r="T6" s="205"/>
-      <c r="U6" s="205"/>
-      <c r="V6" s="205"/>
-      <c r="W6" s="205"/>
-      <c r="X6" s="205"/>
-      <c r="Y6" s="205"/>
-      <c r="Z6" s="205"/>
-      <c r="AA6" s="205"/>
-      <c r="AB6" s="205"/>
-      <c r="AC6" s="205"/>
-      <c r="AD6" s="205"/>
-      <c r="AE6" s="205"/>
-      <c r="AF6" s="205"/>
-      <c r="AG6" s="205"/>
-      <c r="AH6" s="205"/>
-      <c r="AI6" s="205"/>
-      <c r="AJ6" s="205"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="185"/>
+      <c r="K6" s="185"/>
+      <c r="L6" s="185"/>
+      <c r="M6" s="185"/>
+      <c r="N6" s="185"/>
+      <c r="O6" s="185"/>
+      <c r="P6" s="185"/>
+      <c r="Q6" s="185"/>
+      <c r="R6" s="185"/>
+      <c r="S6" s="185"/>
+      <c r="T6" s="185"/>
+      <c r="U6" s="185"/>
+      <c r="V6" s="185"/>
+      <c r="W6" s="185"/>
+      <c r="X6" s="185"/>
+      <c r="Y6" s="185"/>
+      <c r="Z6" s="185"/>
+      <c r="AA6" s="185"/>
+      <c r="AB6" s="185"/>
+      <c r="AC6" s="185"/>
+      <c r="AD6" s="185"/>
+      <c r="AE6" s="185"/>
+      <c r="AF6" s="185"/>
+      <c r="AG6" s="185"/>
+      <c r="AH6" s="185"/>
+      <c r="AI6" s="185"/>
+      <c r="AJ6" s="185"/>
     </row>
     <row r="7" spans="1:41" ht="22.5" customHeight="1">
-      <c r="B7" s="200"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="202"/>
+      <c r="B7" s="208"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="209"/>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
@@ -6215,10 +6215,10 @@
       </c>
     </row>
     <row r="8" spans="1:41" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B8" s="200"/>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
-      <c r="E8" s="202"/>
+      <c r="B8" s="208"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="209"/>
       <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
@@ -6356,16 +6356,16 @@
       </c>
     </row>
     <row r="9" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A9" s="211" t="s">
+      <c r="A9" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="208" t="s">
+      <c r="B9" s="212" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="192"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="193"/>
+      <c r="C9" s="213"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="214"/>
       <c r="G9" s="117"/>
       <c r="H9" s="118"/>
       <c r="I9" s="118"/>
@@ -6378,7 +6378,7 @@
       <c r="P9" s="166"/>
       <c r="Q9" s="167"/>
       <c r="R9" s="167"/>
-      <c r="S9" s="119"/>
+      <c r="S9" s="166"/>
       <c r="T9" s="119"/>
       <c r="U9" s="118"/>
       <c r="V9" s="118"/>
@@ -6410,14 +6410,14 @@
       </c>
     </row>
     <row r="10" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A10" s="212"/>
-      <c r="B10" s="224" t="s">
+      <c r="A10" s="173"/>
+      <c r="B10" s="193" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="205"/>
-      <c r="D10" s="205"/>
-      <c r="E10" s="205"/>
-      <c r="F10" s="207"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="185"/>
+      <c r="F10" s="186"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -6430,7 +6430,7 @@
       <c r="P10" s="21"/>
       <c r="Q10" s="31"/>
       <c r="R10" s="31"/>
-      <c r="S10" s="13"/>
+      <c r="S10" s="21"/>
       <c r="T10" s="11"/>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
@@ -6460,14 +6460,14 @@
       </c>
     </row>
     <row r="11" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A11" s="212"/>
-      <c r="B11" s="224" t="s">
+      <c r="A11" s="173"/>
+      <c r="B11" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="205"/>
-      <c r="D11" s="205"/>
-      <c r="E11" s="205"/>
-      <c r="F11" s="207"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="185"/>
+      <c r="F11" s="186"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -6480,7 +6480,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
       <c r="R11" s="31"/>
-      <c r="S11" s="13"/>
+      <c r="S11" s="21"/>
       <c r="T11" s="11"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
@@ -6510,14 +6510,14 @@
       </c>
     </row>
     <row r="12" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A12" s="212"/>
-      <c r="B12" s="224" t="s">
+      <c r="A12" s="173"/>
+      <c r="B12" s="193" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="205"/>
-      <c r="D12" s="205"/>
-      <c r="E12" s="205"/>
-      <c r="F12" s="207"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="186"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -6562,14 +6562,14 @@
       </c>
     </row>
     <row r="13" spans="1:41" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A13" s="213"/>
-      <c r="B13" s="225" t="s">
+      <c r="A13" s="174"/>
+      <c r="B13" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="198"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="199"/>
+      <c r="C13" s="195"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="196"/>
       <c r="G13" s="28"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -6612,16 +6612,16 @@
       </c>
     </row>
     <row r="14" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A14" s="214" t="s">
+      <c r="A14" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="222" t="s">
+      <c r="B14" s="191" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="223"/>
-      <c r="D14" s="223"/>
-      <c r="E14" s="223"/>
-      <c r="F14" s="223"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
       <c r="G14" s="129"/>
       <c r="H14" s="129"/>
       <c r="I14" s="130"/>
@@ -6634,7 +6634,7 @@
       <c r="P14" s="165"/>
       <c r="Q14" s="166"/>
       <c r="R14" s="169"/>
-      <c r="S14" s="119"/>
+      <c r="S14" s="166"/>
       <c r="T14" s="118"/>
       <c r="U14" s="118"/>
       <c r="V14" s="118"/>
@@ -6663,14 +6663,14 @@
       </c>
     </row>
     <row r="15" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A15" s="215"/>
-      <c r="B15" s="185" t="s">
+      <c r="A15" s="176"/>
+      <c r="B15" s="216" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
+      <c r="C15" s="217"/>
+      <c r="D15" s="217"/>
+      <c r="E15" s="217"/>
+      <c r="F15" s="217"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="29"/>
@@ -6683,7 +6683,7 @@
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
       <c r="R15" s="170"/>
-      <c r="S15" s="13"/>
+      <c r="S15" s="21"/>
       <c r="T15" s="13"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
@@ -6708,18 +6708,18 @@
         <v>96</v>
       </c>
       <c r="AM15" s="122">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A16" s="215"/>
-      <c r="B16" s="185" t="s">
+      <c r="A16" s="176"/>
+      <c r="B16" s="216" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
+      <c r="C16" s="217"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="217"/>
+      <c r="F16" s="217"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="29"/>
@@ -6732,7 +6732,7 @@
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
       <c r="R16" s="170"/>
-      <c r="S16" s="13"/>
+      <c r="S16" s="21"/>
       <c r="T16" s="13"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
@@ -6755,18 +6755,18 @@
       </c>
       <c r="AL16" s="15"/>
       <c r="AM16" s="122">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A17" s="215"/>
-      <c r="B17" s="187" t="s">
+      <c r="A17" s="176"/>
+      <c r="B17" s="218" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="188"/>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
+      <c r="C17" s="219"/>
+      <c r="D17" s="219"/>
+      <c r="E17" s="219"/>
+      <c r="F17" s="219"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="29"/>
@@ -6779,7 +6779,7 @@
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="170"/>
-      <c r="S17" s="13"/>
+      <c r="S17" s="21"/>
       <c r="T17" s="13"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
@@ -6808,14 +6808,14 @@
       </c>
     </row>
     <row r="18" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A18" s="215"/>
-      <c r="B18" s="187" t="s">
+      <c r="A18" s="176"/>
+      <c r="B18" s="218" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="188"/>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
+      <c r="C18" s="219"/>
+      <c r="D18" s="219"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="219"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="30"/>
@@ -6828,7 +6828,7 @@
       <c r="P18" s="22"/>
       <c r="Q18" s="21"/>
       <c r="R18" s="170"/>
-      <c r="S18" s="13"/>
+      <c r="S18" s="21"/>
       <c r="T18" s="13"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
@@ -6857,14 +6857,14 @@
       </c>
     </row>
     <row r="19" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A19" s="216"/>
-      <c r="B19" s="189" t="s">
+      <c r="A19" s="177"/>
+      <c r="B19" s="220" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="190"/>
-      <c r="D19" s="190"/>
-      <c r="E19" s="190"/>
-      <c r="F19" s="190"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="221"/>
+      <c r="E19" s="221"/>
+      <c r="F19" s="221"/>
       <c r="G19" s="132"/>
       <c r="H19" s="132"/>
       <c r="I19" s="133"/>
@@ -6906,16 +6906,16 @@
       </c>
     </row>
     <row r="20" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A20" s="217" t="s">
+      <c r="A20" s="178" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="191" t="s">
+      <c r="B20" s="222" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="192"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="193"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="214"/>
       <c r="G20" s="118"/>
       <c r="H20" s="118"/>
       <c r="I20" s="118"/>
@@ -6957,14 +6957,14 @@
       </c>
     </row>
     <row r="21" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A21" s="218"/>
-      <c r="B21" s="175" t="s">
+      <c r="A21" s="179"/>
+      <c r="B21" s="197" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="176"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="177"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="198"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="199"/>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -7004,14 +7004,14 @@
       </c>
     </row>
     <row r="22" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A22" s="218"/>
-      <c r="B22" s="172" t="s">
+      <c r="A22" s="179"/>
+      <c r="B22" s="200" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="172"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="194"/>
+      <c r="C22" s="200"/>
+      <c r="D22" s="200"/>
+      <c r="E22" s="200"/>
+      <c r="F22" s="201"/>
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -7053,14 +7053,14 @@
       </c>
     </row>
     <row r="23" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A23" s="218"/>
-      <c r="B23" s="172" t="s">
+      <c r="A23" s="179"/>
+      <c r="B23" s="200" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="172"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="194"/>
+      <c r="C23" s="200"/>
+      <c r="D23" s="200"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="201"/>
       <c r="G23" s="10"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -7102,14 +7102,14 @@
       </c>
     </row>
     <row r="24" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A24" s="218"/>
-      <c r="B24" s="172" t="s">
+      <c r="A24" s="179"/>
+      <c r="B24" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="172"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="194"/>
+      <c r="C24" s="200"/>
+      <c r="D24" s="200"/>
+      <c r="E24" s="200"/>
+      <c r="F24" s="201"/>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -7149,14 +7149,14 @@
       </c>
     </row>
     <row r="25" spans="1:39" ht="22.2" customHeight="1">
-      <c r="A25" s="218"/>
-      <c r="B25" s="226" t="s">
+      <c r="A25" s="179"/>
+      <c r="B25" s="202" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="173"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="174"/>
+      <c r="C25" s="203"/>
+      <c r="D25" s="203"/>
+      <c r="E25" s="203"/>
+      <c r="F25" s="204"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -7196,14 +7196,14 @@
       </c>
     </row>
     <row r="26" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A26" s="218"/>
-      <c r="B26" s="172" t="s">
+      <c r="A26" s="179"/>
+      <c r="B26" s="200" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="173"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="174"/>
+      <c r="C26" s="203"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="203"/>
+      <c r="F26" s="204"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -7243,14 +7243,14 @@
       </c>
     </row>
     <row r="27" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A27" s="218"/>
-      <c r="B27" s="172" t="s">
+      <c r="A27" s="179"/>
+      <c r="B27" s="200" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="174"/>
+      <c r="C27" s="203"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="204"/>
       <c r="G27" s="10"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -7290,14 +7290,14 @@
       </c>
     </row>
     <row r="28" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A28" s="218"/>
-      <c r="B28" s="172" t="s">
+      <c r="A28" s="179"/>
+      <c r="B28" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="174"/>
+      <c r="C28" s="203"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="204"/>
       <c r="G28" s="10"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -7337,14 +7337,14 @@
       </c>
     </row>
     <row r="29" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A29" s="218"/>
-      <c r="B29" s="175" t="s">
+      <c r="A29" s="179"/>
+      <c r="B29" s="197" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="176"/>
-      <c r="D29" s="176"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="177"/>
+      <c r="C29" s="198"/>
+      <c r="D29" s="198"/>
+      <c r="E29" s="198"/>
+      <c r="F29" s="199"/>
       <c r="G29" s="10"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7384,14 +7384,14 @@
       </c>
     </row>
     <row r="30" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A30" s="218"/>
-      <c r="B30" s="175" t="s">
+      <c r="A30" s="179"/>
+      <c r="B30" s="197" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="176"/>
-      <c r="D30" s="176"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="177"/>
+      <c r="C30" s="198"/>
+      <c r="D30" s="198"/>
+      <c r="E30" s="198"/>
+      <c r="F30" s="199"/>
       <c r="G30" s="10"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -7431,14 +7431,14 @@
       </c>
     </row>
     <row r="31" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A31" s="218"/>
-      <c r="B31" s="172" t="s">
+      <c r="A31" s="179"/>
+      <c r="B31" s="200" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="173"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="174"/>
+      <c r="C31" s="203"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="204"/>
       <c r="G31" s="10"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -7478,14 +7478,14 @@
       </c>
     </row>
     <row r="32" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A32" s="218"/>
-      <c r="B32" s="175" t="s">
+      <c r="A32" s="179"/>
+      <c r="B32" s="197" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="176"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="177"/>
+      <c r="C32" s="198"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="199"/>
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -7525,14 +7525,14 @@
       </c>
     </row>
     <row r="33" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A33" s="218"/>
-      <c r="B33" s="175" t="s">
+      <c r="A33" s="179"/>
+      <c r="B33" s="197" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="177"/>
+      <c r="C33" s="198"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="199"/>
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -7572,14 +7572,14 @@
       </c>
     </row>
     <row r="34" spans="1:39" ht="22.2" customHeight="1">
-      <c r="A34" s="218"/>
-      <c r="B34" s="175" t="s">
+      <c r="A34" s="179"/>
+      <c r="B34" s="197" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="177"/>
+      <c r="C34" s="198"/>
+      <c r="D34" s="198"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="199"/>
       <c r="G34" s="10"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -7619,14 +7619,14 @@
       </c>
     </row>
     <row r="35" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A35" s="219"/>
-      <c r="B35" s="182" t="s">
+      <c r="A35" s="180"/>
+      <c r="B35" s="188" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="183"/>
-      <c r="D35" s="183"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="184"/>
+      <c r="C35" s="189"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="190"/>
       <c r="G35" s="28"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -7666,14 +7666,14 @@
       </c>
     </row>
     <row r="36" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A36" s="220"/>
-      <c r="B36" s="182" t="s">
+      <c r="A36" s="181"/>
+      <c r="B36" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="183"/>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183"/>
-      <c r="F36" s="184"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="190"/>
       <c r="G36" s="123"/>
       <c r="H36" s="124"/>
       <c r="I36" s="124"/>
@@ -7716,13 +7716,13 @@
       <c r="A37" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="179" t="s">
+      <c r="B37" s="224" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="180"/>
-      <c r="D37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="181"/>
+      <c r="C37" s="225"/>
+      <c r="D37" s="225"/>
+      <c r="E37" s="225"/>
+      <c r="F37" s="226"/>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -7841,12 +7841,12 @@
     <row r="40" spans="1:39" ht="22.5" customHeight="1">
       <c r="A40" s="17"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="178" t="s">
+      <c r="C40" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="178"/>
-      <c r="E40" s="178"/>
-      <c r="F40" s="178"/>
+      <c r="D40" s="223"/>
+      <c r="E40" s="223"/>
+      <c r="F40" s="223"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -7881,12 +7881,12 @@
     <row r="41" spans="1:39" ht="22.5" customHeight="1">
       <c r="A41" s="171"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="178" t="s">
+      <c r="C41" s="223" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="178"/>
-      <c r="E41" s="178"/>
-      <c r="F41" s="178"/>
+      <c r="D41" s="223"/>
+      <c r="E41" s="223"/>
+      <c r="F41" s="223"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -7921,12 +7921,12 @@
     <row r="42" spans="1:39" ht="22.5" customHeight="1">
       <c r="A42" s="18"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="178" t="s">
+      <c r="C42" s="223" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="178"/>
-      <c r="E42" s="178"/>
-      <c r="F42" s="178"/>
+      <c r="D42" s="223"/>
+      <c r="E42" s="223"/>
+      <c r="F42" s="223"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -7961,12 +7961,12 @@
     <row r="43" spans="1:39" ht="22.5" customHeight="1">
       <c r="A43" s="19"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="178" t="s">
+      <c r="C43" s="223" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="178"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="178"/>
+      <c r="D43" s="223"/>
+      <c r="E43" s="223"/>
+      <c r="F43" s="223"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -8001,12 +8001,12 @@
     <row r="44" spans="1:39" ht="22.5" customHeight="1">
       <c r="A44" s="20"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="178" t="s">
+      <c r="C44" s="223" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="178"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="178"/>
+      <c r="D44" s="223"/>
+      <c r="E44" s="223"/>
+      <c r="F44" s="223"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -8041,12 +8041,12 @@
     <row r="45" spans="1:39" ht="22.5" customHeight="1">
       <c r="A45" s="75"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="178" t="s">
+      <c r="C45" s="223" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="178"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="178"/>
+      <c r="D45" s="223"/>
+      <c r="E45" s="223"/>
+      <c r="F45" s="223"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -43896,6 +43896,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AJ6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A20:A36"/>
@@ -43912,40 +43946,6 @@
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B25:F25"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AJ6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="C41:F41"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7:AJ8">
@@ -43979,85 +43979,85 @@
       <c r="B2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="299" t="s">
+      <c r="G2" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="300"/>
-      <c r="I2" s="289" t="s">
+      <c r="H2" s="234"/>
+      <c r="I2" s="240" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="244"/>
-      <c r="L2" s="299" t="s">
+      <c r="J2" s="235"/>
+      <c r="L2" s="233" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="300"/>
-      <c r="N2" s="289" t="s">
+      <c r="M2" s="234"/>
+      <c r="N2" s="240" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="244"/>
-      <c r="Q2" s="299" t="s">
+      <c r="O2" s="235"/>
+      <c r="Q2" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="300"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="244"/>
-      <c r="V2" s="299" t="s">
+      <c r="R2" s="234"/>
+      <c r="S2" s="235"/>
+      <c r="T2" s="235"/>
+      <c r="V2" s="233" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="300"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
+      <c r="W2" s="234"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="D4" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="301" t="s">
+      <c r="E4" s="236" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="264"/>
-      <c r="G4" s="231" t="s">
+      <c r="F4" s="237"/>
+      <c r="G4" s="238" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="302"/>
-      <c r="I4" s="301" t="s">
+      <c r="H4" s="239"/>
+      <c r="I4" s="236" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="264"/>
-      <c r="K4" s="231" t="s">
+      <c r="J4" s="237"/>
+      <c r="K4" s="238" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="302"/>
-      <c r="M4" s="301" t="s">
+      <c r="L4" s="239"/>
+      <c r="M4" s="236" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="264"/>
+      <c r="N4" s="237"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D5" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="296">
+      <c r="E5" s="227">
         <v>3</v>
       </c>
-      <c r="F5" s="245"/>
-      <c r="G5" s="280">
+      <c r="F5" s="228"/>
+      <c r="G5" s="229">
         <v>4</v>
       </c>
-      <c r="H5" s="297"/>
-      <c r="I5" s="296">
+      <c r="H5" s="230"/>
+      <c r="I5" s="227">
         <v>5</v>
       </c>
-      <c r="J5" s="245"/>
-      <c r="K5" s="280">
+      <c r="J5" s="228"/>
+      <c r="K5" s="229">
         <v>6</v>
       </c>
-      <c r="L5" s="297"/>
-      <c r="M5" s="296">
+      <c r="L5" s="230"/>
+      <c r="M5" s="227">
         <v>7</v>
       </c>
-      <c r="N5" s="245"/>
+      <c r="N5" s="228"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D6" s="78" t="s">
@@ -44093,28 +44093,28 @@
       <c r="N6" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="298" t="s">
+      <c r="O6" s="231" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="303" t="s">
+      <c r="P6" s="232"/>
+      <c r="Q6" s="241" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="239"/>
-      <c r="S6" s="303" t="s">
+      <c r="R6" s="232"/>
+      <c r="S6" s="241" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="240"/>
+      <c r="T6" s="242"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="281" t="s">
+      <c r="A7" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="271" t="s">
+      <c r="B7" s="246" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="285"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="80"/>
       <c r="F7" s="81"/>
       <c r="G7" s="63"/>
@@ -44125,22 +44125,22 @@
       <c r="L7" s="55"/>
       <c r="M7" s="93"/>
       <c r="N7" s="43"/>
-      <c r="O7" s="286" t="s">
+      <c r="O7" s="249" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="287"/>
-      <c r="Q7" s="287"/>
-      <c r="R7" s="287"/>
-      <c r="S7" s="287"/>
-      <c r="T7" s="288"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="251"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="282"/>
-      <c r="B8" s="246" t="s">
+      <c r="A8" s="244"/>
+      <c r="B8" s="252" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="247"/>
-      <c r="D8" s="248"/>
+      <c r="C8" s="253"/>
+      <c r="D8" s="254"/>
       <c r="E8" s="82"/>
       <c r="F8" s="83"/>
       <c r="G8" s="65"/>
@@ -44151,22 +44151,22 @@
       <c r="L8" s="56"/>
       <c r="M8" s="37"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="289" t="s">
+      <c r="O8" s="240" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="244"/>
-      <c r="Q8" s="244"/>
-      <c r="R8" s="244"/>
-      <c r="S8" s="244"/>
-      <c r="T8" s="245"/>
+      <c r="P8" s="235"/>
+      <c r="Q8" s="235"/>
+      <c r="R8" s="235"/>
+      <c r="S8" s="235"/>
+      <c r="T8" s="228"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="282"/>
-      <c r="B9" s="246" t="s">
+      <c r="A9" s="244"/>
+      <c r="B9" s="252" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="247"/>
-      <c r="D9" s="248"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="254"/>
       <c r="E9" s="82"/>
       <c r="F9" s="84"/>
       <c r="G9" s="65"/>
@@ -44177,24 +44177,24 @@
       <c r="L9" s="56"/>
       <c r="M9" s="37"/>
       <c r="N9" s="38"/>
-      <c r="O9" s="276" t="s">
+      <c r="O9" s="255" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="244"/>
-      <c r="Q9" s="289" t="s">
+      <c r="P9" s="235"/>
+      <c r="Q9" s="240" t="s">
         <v>70</v>
       </c>
-      <c r="R9" s="244"/>
-      <c r="S9" s="244"/>
-      <c r="T9" s="245"/>
+      <c r="R9" s="235"/>
+      <c r="S9" s="235"/>
+      <c r="T9" s="228"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="282"/>
-      <c r="B10" s="246" t="s">
+      <c r="A10" s="244"/>
+      <c r="B10" s="252" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="247"/>
-      <c r="D10" s="248"/>
+      <c r="C10" s="253"/>
+      <c r="D10" s="254"/>
       <c r="E10" s="82"/>
       <c r="F10" s="83"/>
       <c r="G10" s="65"/>
@@ -44205,20 +44205,20 @@
       <c r="L10" s="56"/>
       <c r="M10" s="37"/>
       <c r="N10" s="38"/>
-      <c r="O10" s="280"/>
-      <c r="P10" s="244"/>
-      <c r="Q10" s="244"/>
-      <c r="R10" s="244"/>
-      <c r="S10" s="244"/>
-      <c r="T10" s="245"/>
+      <c r="O10" s="229"/>
+      <c r="P10" s="235"/>
+      <c r="Q10" s="235"/>
+      <c r="R10" s="235"/>
+      <c r="S10" s="235"/>
+      <c r="T10" s="228"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="283"/>
-      <c r="B11" s="290" t="s">
+      <c r="A11" s="245"/>
+      <c r="B11" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="291"/>
-      <c r="D11" s="292"/>
+      <c r="C11" s="257"/>
+      <c r="D11" s="258"/>
       <c r="E11" s="85"/>
       <c r="F11" s="86"/>
       <c r="G11" s="67"/>
@@ -44229,22 +44229,22 @@
       <c r="L11" s="57"/>
       <c r="M11" s="94"/>
       <c r="N11" s="51"/>
-      <c r="O11" s="293"/>
-      <c r="P11" s="294"/>
-      <c r="Q11" s="294"/>
-      <c r="R11" s="294"/>
-      <c r="S11" s="294"/>
-      <c r="T11" s="295"/>
+      <c r="O11" s="259"/>
+      <c r="P11" s="260"/>
+      <c r="Q11" s="260"/>
+      <c r="R11" s="260"/>
+      <c r="S11" s="260"/>
+      <c r="T11" s="261"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="256" t="s">
+      <c r="A12" s="262" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="259" t="s">
+      <c r="B12" s="265" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="260"/>
-      <c r="D12" s="261"/>
+      <c r="C12" s="266"/>
+      <c r="D12" s="267"/>
       <c r="E12" s="87"/>
       <c r="F12" s="88"/>
       <c r="G12" s="69"/>
@@ -44255,22 +44255,22 @@
       <c r="L12" s="58"/>
       <c r="M12" s="35"/>
       <c r="N12" s="106"/>
-      <c r="O12" s="262" t="s">
+      <c r="O12" s="268" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="263"/>
-      <c r="Q12" s="232"/>
-      <c r="R12" s="232"/>
-      <c r="S12" s="232"/>
-      <c r="T12" s="264"/>
+      <c r="P12" s="269"/>
+      <c r="Q12" s="270"/>
+      <c r="R12" s="270"/>
+      <c r="S12" s="270"/>
+      <c r="T12" s="237"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="257"/>
-      <c r="B13" s="265" t="s">
+      <c r="A13" s="263"/>
+      <c r="B13" s="271" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="266"/>
-      <c r="D13" s="267"/>
+      <c r="C13" s="272"/>
+      <c r="D13" s="273"/>
       <c r="E13" s="82"/>
       <c r="F13" s="83"/>
       <c r="G13" s="65"/>
@@ -44281,22 +44281,22 @@
       <c r="L13" s="104"/>
       <c r="M13" s="99"/>
       <c r="N13" s="99"/>
-      <c r="O13" s="276" t="s">
+      <c r="O13" s="255" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="244"/>
-      <c r="Q13" s="244"/>
-      <c r="R13" s="244"/>
-      <c r="S13" s="244"/>
-      <c r="T13" s="245"/>
+      <c r="P13" s="235"/>
+      <c r="Q13" s="235"/>
+      <c r="R13" s="235"/>
+      <c r="S13" s="235"/>
+      <c r="T13" s="228"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="257"/>
-      <c r="B14" s="265" t="s">
+      <c r="A14" s="263"/>
+      <c r="B14" s="271" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="277"/>
-      <c r="D14" s="278"/>
+      <c r="C14" s="282"/>
+      <c r="D14" s="283"/>
       <c r="E14" s="82"/>
       <c r="F14" s="83"/>
       <c r="G14" s="65"/>
@@ -44307,22 +44307,22 @@
       <c r="L14" s="104"/>
       <c r="M14" s="99"/>
       <c r="N14" s="99"/>
-      <c r="O14" s="279" t="s">
+      <c r="O14" s="284" t="s">
         <v>72</v>
       </c>
-      <c r="P14" s="280"/>
-      <c r="Q14" s="244"/>
-      <c r="R14" s="244"/>
-      <c r="S14" s="244"/>
-      <c r="T14" s="245"/>
+      <c r="P14" s="229"/>
+      <c r="Q14" s="235"/>
+      <c r="R14" s="235"/>
+      <c r="S14" s="235"/>
+      <c r="T14" s="228"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="258"/>
-      <c r="B15" s="251" t="s">
+      <c r="A15" s="264"/>
+      <c r="B15" s="285" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="252"/>
-      <c r="D15" s="253"/>
+      <c r="C15" s="286"/>
+      <c r="D15" s="287"/>
       <c r="E15" s="89"/>
       <c r="F15" s="90"/>
       <c r="G15" s="71"/>
@@ -44333,24 +44333,24 @@
       <c r="L15" s="105"/>
       <c r="M15" s="102"/>
       <c r="N15" s="102"/>
-      <c r="O15" s="254" t="s">
+      <c r="O15" s="288" t="s">
         <v>71</v>
       </c>
-      <c r="P15" s="233"/>
-      <c r="Q15" s="255"/>
-      <c r="R15" s="233"/>
-      <c r="S15" s="233"/>
-      <c r="T15" s="234"/>
+      <c r="P15" s="289"/>
+      <c r="Q15" s="290"/>
+      <c r="R15" s="289"/>
+      <c r="S15" s="289"/>
+      <c r="T15" s="291"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A16" s="268" t="s">
+      <c r="A16" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="271" t="s">
+      <c r="B16" s="246" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="272"/>
-      <c r="D16" s="273"/>
+      <c r="C16" s="277"/>
+      <c r="D16" s="278"/>
       <c r="E16" s="87"/>
       <c r="F16" s="88"/>
       <c r="G16" s="69"/>
@@ -44361,22 +44361,22 @@
       <c r="L16" s="58"/>
       <c r="M16" s="35"/>
       <c r="N16" s="53"/>
-      <c r="O16" s="231" t="s">
+      <c r="O16" s="238" t="s">
         <v>68</v>
       </c>
-      <c r="P16" s="232"/>
-      <c r="Q16" s="231"/>
-      <c r="R16" s="232"/>
-      <c r="S16" s="232"/>
-      <c r="T16" s="264"/>
+      <c r="P16" s="270"/>
+      <c r="Q16" s="238"/>
+      <c r="R16" s="270"/>
+      <c r="S16" s="270"/>
+      <c r="T16" s="237"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A17" s="269"/>
-      <c r="B17" s="241" t="s">
+      <c r="A17" s="275"/>
+      <c r="B17" s="279" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="274"/>
-      <c r="D17" s="275"/>
+      <c r="C17" s="280"/>
+      <c r="D17" s="281"/>
       <c r="E17" s="82"/>
       <c r="F17" s="83"/>
       <c r="G17" s="65"/>
@@ -44387,22 +44387,22 @@
       <c r="L17" s="56"/>
       <c r="M17" s="37"/>
       <c r="N17" s="38"/>
-      <c r="O17" s="231" t="s">
+      <c r="O17" s="238" t="s">
         <v>68</v>
       </c>
-      <c r="P17" s="232"/>
-      <c r="Q17" s="231"/>
-      <c r="R17" s="232"/>
-      <c r="S17" s="244"/>
-      <c r="T17" s="245"/>
+      <c r="P17" s="270"/>
+      <c r="Q17" s="238"/>
+      <c r="R17" s="270"/>
+      <c r="S17" s="235"/>
+      <c r="T17" s="228"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A18" s="269"/>
-      <c r="B18" s="241" t="s">
+      <c r="A18" s="275"/>
+      <c r="B18" s="279" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="274"/>
-      <c r="D18" s="275"/>
+      <c r="C18" s="280"/>
+      <c r="D18" s="281"/>
       <c r="E18" s="82"/>
       <c r="F18" s="83"/>
       <c r="G18" s="65"/>
@@ -44413,22 +44413,22 @@
       <c r="L18" s="56"/>
       <c r="M18" s="37"/>
       <c r="N18" s="38"/>
-      <c r="O18" s="231" t="s">
+      <c r="O18" s="238" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="232"/>
-      <c r="Q18" s="231"/>
-      <c r="R18" s="232"/>
-      <c r="S18" s="244"/>
-      <c r="T18" s="245"/>
+      <c r="P18" s="270"/>
+      <c r="Q18" s="238"/>
+      <c r="R18" s="270"/>
+      <c r="S18" s="235"/>
+      <c r="T18" s="228"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A19" s="269"/>
-      <c r="B19" s="246" t="s">
+      <c r="A19" s="275"/>
+      <c r="B19" s="252" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="249"/>
-      <c r="D19" s="250"/>
+      <c r="C19" s="292"/>
+      <c r="D19" s="293"/>
       <c r="E19" s="82"/>
       <c r="F19" s="83"/>
       <c r="G19" s="65"/>
@@ -44439,22 +44439,22 @@
       <c r="L19" s="56"/>
       <c r="M19" s="37"/>
       <c r="N19" s="38"/>
-      <c r="O19" s="231" t="s">
+      <c r="O19" s="238" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="232"/>
-      <c r="Q19" s="231"/>
-      <c r="R19" s="232"/>
-      <c r="S19" s="244"/>
-      <c r="T19" s="245"/>
+      <c r="P19" s="270"/>
+      <c r="Q19" s="238"/>
+      <c r="R19" s="270"/>
+      <c r="S19" s="235"/>
+      <c r="T19" s="228"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="269"/>
-      <c r="B20" s="246" t="s">
+      <c r="A20" s="275"/>
+      <c r="B20" s="252" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="249"/>
-      <c r="D20" s="250"/>
+      <c r="C20" s="292"/>
+      <c r="D20" s="293"/>
       <c r="E20" s="82"/>
       <c r="F20" s="83"/>
       <c r="G20" s="65"/>
@@ -44465,22 +44465,22 @@
       <c r="L20" s="56"/>
       <c r="M20" s="37"/>
       <c r="N20" s="38"/>
-      <c r="O20" s="231" t="s">
+      <c r="O20" s="238" t="s">
         <v>68</v>
       </c>
-      <c r="P20" s="232"/>
-      <c r="Q20" s="231"/>
-      <c r="R20" s="232"/>
-      <c r="S20" s="244"/>
-      <c r="T20" s="245"/>
+      <c r="P20" s="270"/>
+      <c r="Q20" s="238"/>
+      <c r="R20" s="270"/>
+      <c r="S20" s="235"/>
+      <c r="T20" s="228"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="269"/>
-      <c r="B21" s="246" t="s">
+      <c r="A21" s="275"/>
+      <c r="B21" s="252" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="249"/>
-      <c r="D21" s="250"/>
+      <c r="C21" s="292"/>
+      <c r="D21" s="293"/>
       <c r="E21" s="82"/>
       <c r="F21" s="83"/>
       <c r="G21" s="65"/>
@@ -44491,22 +44491,22 @@
       <c r="L21" s="56"/>
       <c r="M21" s="37"/>
       <c r="N21" s="38"/>
-      <c r="O21" s="231" t="s">
+      <c r="O21" s="238" t="s">
         <v>68</v>
       </c>
-      <c r="P21" s="232"/>
-      <c r="Q21" s="231"/>
-      <c r="R21" s="232"/>
-      <c r="S21" s="244"/>
-      <c r="T21" s="245"/>
+      <c r="P21" s="270"/>
+      <c r="Q21" s="238"/>
+      <c r="R21" s="270"/>
+      <c r="S21" s="235"/>
+      <c r="T21" s="228"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="269"/>
-      <c r="B22" s="246" t="s">
+      <c r="A22" s="275"/>
+      <c r="B22" s="252" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="249"/>
-      <c r="D22" s="250"/>
+      <c r="C22" s="292"/>
+      <c r="D22" s="293"/>
       <c r="E22" s="82"/>
       <c r="F22" s="83"/>
       <c r="G22" s="65"/>
@@ -44517,22 +44517,22 @@
       <c r="L22" s="56"/>
       <c r="M22" s="37"/>
       <c r="N22" s="38"/>
-      <c r="O22" s="231" t="s">
+      <c r="O22" s="238" t="s">
         <v>68</v>
       </c>
-      <c r="P22" s="232"/>
-      <c r="Q22" s="231"/>
-      <c r="R22" s="232"/>
-      <c r="S22" s="244"/>
-      <c r="T22" s="245"/>
+      <c r="P22" s="270"/>
+      <c r="Q22" s="238"/>
+      <c r="R22" s="270"/>
+      <c r="S22" s="235"/>
+      <c r="T22" s="228"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A23" s="269"/>
-      <c r="B23" s="246" t="s">
+      <c r="A23" s="275"/>
+      <c r="B23" s="252" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="247"/>
-      <c r="D23" s="248"/>
+      <c r="C23" s="253"/>
+      <c r="D23" s="254"/>
       <c r="E23" s="82"/>
       <c r="F23" s="83"/>
       <c r="G23" s="65"/>
@@ -44543,22 +44543,22 @@
       <c r="L23" s="56"/>
       <c r="M23" s="37"/>
       <c r="N23" s="38"/>
-      <c r="O23" s="231" t="s">
+      <c r="O23" s="238" t="s">
         <v>68</v>
       </c>
-      <c r="P23" s="232"/>
-      <c r="Q23" s="231"/>
-      <c r="R23" s="232"/>
-      <c r="S23" s="244"/>
-      <c r="T23" s="245"/>
+      <c r="P23" s="270"/>
+      <c r="Q23" s="238"/>
+      <c r="R23" s="270"/>
+      <c r="S23" s="235"/>
+      <c r="T23" s="228"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A24" s="269"/>
-      <c r="B24" s="241" t="s">
+      <c r="A24" s="275"/>
+      <c r="B24" s="279" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="242"/>
-      <c r="D24" s="243"/>
+      <c r="C24" s="294"/>
+      <c r="D24" s="295"/>
       <c r="E24" s="82"/>
       <c r="F24" s="83"/>
       <c r="G24" s="65"/>
@@ -44569,22 +44569,22 @@
       <c r="L24" s="56"/>
       <c r="M24" s="37"/>
       <c r="N24" s="38"/>
-      <c r="O24" s="231" t="s">
+      <c r="O24" s="238" t="s">
         <v>68</v>
       </c>
-      <c r="P24" s="232"/>
-      <c r="Q24" s="231"/>
-      <c r="R24" s="232"/>
-      <c r="S24" s="244"/>
-      <c r="T24" s="245"/>
+      <c r="P24" s="270"/>
+      <c r="Q24" s="238"/>
+      <c r="R24" s="270"/>
+      <c r="S24" s="235"/>
+      <c r="T24" s="228"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A25" s="269"/>
-      <c r="B25" s="241" t="s">
+      <c r="A25" s="275"/>
+      <c r="B25" s="279" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="242"/>
-      <c r="D25" s="243"/>
+      <c r="C25" s="294"/>
+      <c r="D25" s="295"/>
       <c r="E25" s="82"/>
       <c r="F25" s="83"/>
       <c r="G25" s="65"/>
@@ -44595,22 +44595,22 @@
       <c r="L25" s="56"/>
       <c r="M25" s="37"/>
       <c r="N25" s="38"/>
-      <c r="O25" s="231" t="s">
+      <c r="O25" s="238" t="s">
         <v>68</v>
       </c>
-      <c r="P25" s="232"/>
-      <c r="Q25" s="231"/>
-      <c r="R25" s="232"/>
-      <c r="S25" s="244"/>
-      <c r="T25" s="245"/>
+      <c r="P25" s="270"/>
+      <c r="Q25" s="238"/>
+      <c r="R25" s="270"/>
+      <c r="S25" s="235"/>
+      <c r="T25" s="228"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A26" s="269"/>
-      <c r="B26" s="241" t="s">
+      <c r="A26" s="275"/>
+      <c r="B26" s="279" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="242"/>
-      <c r="D26" s="243"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="295"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="65"/>
@@ -44621,22 +44621,22 @@
       <c r="L26" s="56"/>
       <c r="M26" s="37"/>
       <c r="N26" s="38"/>
-      <c r="O26" s="231" t="s">
+      <c r="O26" s="238" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="232"/>
-      <c r="Q26" s="231"/>
-      <c r="R26" s="232"/>
-      <c r="S26" s="244"/>
-      <c r="T26" s="245"/>
+      <c r="P26" s="270"/>
+      <c r="Q26" s="238"/>
+      <c r="R26" s="270"/>
+      <c r="S26" s="235"/>
+      <c r="T26" s="228"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="270"/>
-      <c r="B27" s="228" t="s">
+      <c r="A27" s="276"/>
+      <c r="B27" s="297" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="229"/>
-      <c r="D27" s="230"/>
+      <c r="C27" s="298"/>
+      <c r="D27" s="299"/>
       <c r="E27" s="89"/>
       <c r="F27" s="90"/>
       <c r="G27" s="71"/>
@@ -44647,24 +44647,24 @@
       <c r="L27" s="59"/>
       <c r="M27" s="95"/>
       <c r="N27" s="41"/>
-      <c r="O27" s="231" t="s">
+      <c r="O27" s="238" t="s">
         <v>68</v>
       </c>
-      <c r="P27" s="232"/>
-      <c r="Q27" s="231"/>
-      <c r="R27" s="232"/>
-      <c r="S27" s="233"/>
-      <c r="T27" s="234"/>
+      <c r="P27" s="270"/>
+      <c r="Q27" s="238"/>
+      <c r="R27" s="270"/>
+      <c r="S27" s="289"/>
+      <c r="T27" s="291"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="235" t="s">
+      <c r="B28" s="300" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="236"/>
-      <c r="D28" s="237"/>
+      <c r="C28" s="301"/>
+      <c r="D28" s="302"/>
       <c r="E28" s="91"/>
       <c r="F28" s="92"/>
       <c r="G28" s="73"/>
@@ -44675,17 +44675,17 @@
       <c r="L28" s="62"/>
       <c r="M28" s="96"/>
       <c r="N28" s="97"/>
-      <c r="O28" s="238"/>
-      <c r="P28" s="239"/>
-      <c r="Q28" s="239"/>
-      <c r="R28" s="239"/>
-      <c r="S28" s="239"/>
-      <c r="T28" s="240"/>
+      <c r="O28" s="303"/>
+      <c r="P28" s="232"/>
+      <c r="Q28" s="232"/>
+      <c r="R28" s="232"/>
+      <c r="S28" s="232"/>
+      <c r="T28" s="242"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="227"/>
-      <c r="C29" s="227"/>
-      <c r="D29" s="227"/>
+      <c r="B29" s="296"/>
+      <c r="C29" s="296"/>
+      <c r="D29" s="296"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="16" t="s">
@@ -44699,130 +44699,147 @@
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="178" t="s">
+      <c r="B31" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="178"/>
+      <c r="C31" s="223"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="178" t="s">
+      <c r="B32" s="223" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="178"/>
+      <c r="C32" s="223"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1">
       <c r="A33" s="19"/>
-      <c r="B33" s="178" t="s">
+      <c r="B33" s="223" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="178"/>
+      <c r="C33" s="223"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="178" t="s">
+      <c r="B34" s="223" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="178"/>
+      <c r="C34" s="223"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="178" t="s">
+      <c r="B35" s="223" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="178"/>
+      <c r="C35" s="223"/>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1">
-      <c r="B36" s="227"/>
-      <c r="C36" s="227"/>
-      <c r="D36" s="227"/>
+      <c r="B36" s="296"/>
+      <c r="C36" s="296"/>
+      <c r="D36" s="296"/>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1">
-      <c r="B37" s="227"/>
-      <c r="C37" s="227"/>
-      <c r="D37" s="227"/>
+      <c r="B37" s="296"/>
+      <c r="C37" s="296"/>
+      <c r="D37" s="296"/>
     </row>
     <row r="38" spans="1:6" ht="18" customHeight="1">
-      <c r="B38" s="227"/>
-      <c r="C38" s="227"/>
-      <c r="D38" s="227"/>
+      <c r="B38" s="296"/>
+      <c r="C38" s="296"/>
+      <c r="D38" s="296"/>
     </row>
     <row r="39" spans="1:6" ht="18" customHeight="1">
-      <c r="B39" s="227"/>
-      <c r="C39" s="227"/>
-      <c r="D39" s="227"/>
+      <c r="B39" s="296"/>
+      <c r="C39" s="296"/>
+      <c r="D39" s="296"/>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1">
-      <c r="B40" s="227"/>
-      <c r="C40" s="227"/>
-      <c r="D40" s="227"/>
+      <c r="B40" s="296"/>
+      <c r="C40" s="296"/>
+      <c r="D40" s="296"/>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1">
-      <c r="B41" s="227"/>
-      <c r="C41" s="227"/>
-      <c r="D41" s="227"/>
+      <c r="B41" s="296"/>
+      <c r="C41" s="296"/>
+      <c r="D41" s="296"/>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1">
-      <c r="B42" s="227"/>
-      <c r="C42" s="227"/>
-      <c r="D42" s="227"/>
+      <c r="B42" s="296"/>
+      <c r="C42" s="296"/>
+      <c r="D42" s="296"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="O12:P12"/>
@@ -44847,65 +44864,48 @@
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44927,89 +44927,89 @@
       <c r="B2" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="299" t="s">
+      <c r="G2" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="300"/>
-      <c r="I2" s="289" t="s">
+      <c r="H2" s="234"/>
+      <c r="I2" s="240" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="244"/>
-      <c r="L2" s="299" t="s">
+      <c r="J2" s="235"/>
+      <c r="L2" s="233" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="300"/>
-      <c r="N2" s="289" t="s">
+      <c r="M2" s="234"/>
+      <c r="N2" s="240" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="244"/>
-      <c r="Q2" s="299" t="s">
+      <c r="O2" s="235"/>
+      <c r="Q2" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="300"/>
-      <c r="S2" s="323">
+      <c r="R2" s="234"/>
+      <c r="S2" s="305">
         <v>45451</v>
       </c>
-      <c r="T2" s="244"/>
-      <c r="V2" s="299" t="s">
+      <c r="T2" s="235"/>
+      <c r="V2" s="233" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="300"/>
-      <c r="X2" s="323">
+      <c r="W2" s="234"/>
+      <c r="X2" s="305">
         <v>45451</v>
       </c>
-      <c r="Y2" s="244"/>
+      <c r="Y2" s="235"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="D4" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="324" t="s">
+      <c r="E4" s="306" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="325"/>
-      <c r="G4" s="324" t="s">
+      <c r="F4" s="307"/>
+      <c r="G4" s="306" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="325"/>
-      <c r="I4" s="324" t="s">
+      <c r="H4" s="307"/>
+      <c r="I4" s="306" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="325"/>
-      <c r="K4" s="324" t="s">
+      <c r="J4" s="307"/>
+      <c r="K4" s="306" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="325"/>
-      <c r="M4" s="324" t="s">
+      <c r="L4" s="307"/>
+      <c r="M4" s="306" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="326"/>
+      <c r="N4" s="308"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D5" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="244">
+      <c r="E5" s="235">
         <v>10</v>
       </c>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244">
+      <c r="F5" s="235"/>
+      <c r="G5" s="235">
         <v>11</v>
       </c>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244">
+      <c r="H5" s="235"/>
+      <c r="I5" s="235">
         <v>12</v>
       </c>
-      <c r="J5" s="244"/>
-      <c r="K5" s="244">
+      <c r="J5" s="235"/>
+      <c r="K5" s="235">
         <v>13</v>
       </c>
-      <c r="L5" s="244"/>
-      <c r="M5" s="244">
+      <c r="L5" s="235"/>
+      <c r="M5" s="235">
         <v>14</v>
       </c>
-      <c r="N5" s="322"/>
+      <c r="N5" s="304"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D6" s="161" t="s">
@@ -45045,28 +45045,28 @@
       <c r="N6" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="298" t="s">
+      <c r="O6" s="231" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="303" t="s">
+      <c r="P6" s="232"/>
+      <c r="Q6" s="241" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="239"/>
-      <c r="S6" s="303" t="s">
+      <c r="R6" s="232"/>
+      <c r="S6" s="241" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="240"/>
+      <c r="T6" s="242"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="281" t="s">
+      <c r="A7" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="271" t="s">
+      <c r="B7" s="246" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="318"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="309"/>
       <c r="E7" s="63"/>
       <c r="F7" s="153"/>
       <c r="G7" s="64"/>
@@ -45077,20 +45077,20 @@
       <c r="L7" s="42"/>
       <c r="M7" s="153"/>
       <c r="N7" s="157"/>
-      <c r="O7" s="319"/>
-      <c r="P7" s="287"/>
-      <c r="Q7" s="287"/>
-      <c r="R7" s="287"/>
-      <c r="S7" s="287"/>
-      <c r="T7" s="288"/>
+      <c r="O7" s="310"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="251"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="282"/>
-      <c r="B8" s="246" t="s">
+      <c r="A8" s="244"/>
+      <c r="B8" s="252" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="247"/>
-      <c r="D8" s="309"/>
+      <c r="C8" s="253"/>
+      <c r="D8" s="311"/>
       <c r="E8" s="65"/>
       <c r="F8" s="154"/>
       <c r="G8" s="66"/>
@@ -45101,20 +45101,20 @@
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
       <c r="N8" s="56"/>
-      <c r="O8" s="296"/>
-      <c r="P8" s="244"/>
-      <c r="Q8" s="244"/>
-      <c r="R8" s="244"/>
-      <c r="S8" s="244"/>
-      <c r="T8" s="245"/>
+      <c r="O8" s="227"/>
+      <c r="P8" s="235"/>
+      <c r="Q8" s="235"/>
+      <c r="R8" s="235"/>
+      <c r="S8" s="235"/>
+      <c r="T8" s="228"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="282"/>
-      <c r="B9" s="246" t="s">
+      <c r="A9" s="244"/>
+      <c r="B9" s="252" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="247"/>
-      <c r="D9" s="309"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="311"/>
       <c r="E9" s="65"/>
       <c r="F9" s="34"/>
       <c r="G9" s="66"/>
@@ -45125,20 +45125,20 @@
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
       <c r="N9" s="56"/>
-      <c r="O9" s="296"/>
-      <c r="P9" s="244"/>
-      <c r="Q9" s="244"/>
-      <c r="R9" s="244"/>
-      <c r="S9" s="244"/>
-      <c r="T9" s="245"/>
+      <c r="O9" s="227"/>
+      <c r="P9" s="235"/>
+      <c r="Q9" s="235"/>
+      <c r="R9" s="235"/>
+      <c r="S9" s="235"/>
+      <c r="T9" s="228"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="282"/>
-      <c r="B10" s="246" t="s">
+      <c r="A10" s="244"/>
+      <c r="B10" s="252" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="247"/>
-      <c r="D10" s="309"/>
+      <c r="C10" s="253"/>
+      <c r="D10" s="311"/>
       <c r="E10" s="65"/>
       <c r="F10" s="34"/>
       <c r="G10" s="66"/>
@@ -45149,20 +45149,20 @@
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="56"/>
-      <c r="O10" s="296"/>
-      <c r="P10" s="244"/>
-      <c r="Q10" s="244"/>
-      <c r="R10" s="244"/>
-      <c r="S10" s="244"/>
-      <c r="T10" s="245"/>
+      <c r="O10" s="227"/>
+      <c r="P10" s="235"/>
+      <c r="Q10" s="235"/>
+      <c r="R10" s="235"/>
+      <c r="S10" s="235"/>
+      <c r="T10" s="228"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="283"/>
-      <c r="B11" s="290" t="s">
+      <c r="A11" s="245"/>
+      <c r="B11" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="291"/>
-      <c r="D11" s="320"/>
+      <c r="C11" s="257"/>
+      <c r="D11" s="312"/>
       <c r="E11" s="67"/>
       <c r="F11" s="50"/>
       <c r="G11" s="68"/>
@@ -45173,22 +45173,22 @@
       <c r="L11" s="50"/>
       <c r="M11" s="50"/>
       <c r="N11" s="57"/>
-      <c r="O11" s="321"/>
-      <c r="P11" s="294"/>
-      <c r="Q11" s="294"/>
-      <c r="R11" s="294"/>
-      <c r="S11" s="294"/>
-      <c r="T11" s="295"/>
+      <c r="O11" s="313"/>
+      <c r="P11" s="260"/>
+      <c r="Q11" s="260"/>
+      <c r="R11" s="260"/>
+      <c r="S11" s="260"/>
+      <c r="T11" s="261"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="256" t="s">
+      <c r="A12" s="262" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="259" t="s">
+      <c r="B12" s="265" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="260"/>
-      <c r="D12" s="312"/>
+      <c r="C12" s="266"/>
+      <c r="D12" s="314"/>
       <c r="E12" s="69"/>
       <c r="F12" s="155"/>
       <c r="G12" s="70"/>
@@ -45199,20 +45199,20 @@
       <c r="L12" s="155"/>
       <c r="M12" s="36"/>
       <c r="N12" s="58"/>
-      <c r="O12" s="313"/>
-      <c r="P12" s="232"/>
-      <c r="Q12" s="232"/>
-      <c r="R12" s="232"/>
-      <c r="S12" s="232"/>
-      <c r="T12" s="264"/>
+      <c r="O12" s="315"/>
+      <c r="P12" s="270"/>
+      <c r="Q12" s="270"/>
+      <c r="R12" s="270"/>
+      <c r="S12" s="270"/>
+      <c r="T12" s="237"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="257"/>
-      <c r="B13" s="265" t="s">
+      <c r="A13" s="263"/>
+      <c r="B13" s="271" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="266"/>
-      <c r="D13" s="314"/>
+      <c r="C13" s="272"/>
+      <c r="D13" s="316"/>
       <c r="E13" s="65"/>
       <c r="F13" s="154"/>
       <c r="G13" s="66"/>
@@ -45223,20 +45223,20 @@
       <c r="L13" s="34"/>
       <c r="M13" s="154"/>
       <c r="N13" s="156"/>
-      <c r="O13" s="296"/>
-      <c r="P13" s="244"/>
-      <c r="Q13" s="244"/>
-      <c r="R13" s="244"/>
-      <c r="S13" s="244"/>
-      <c r="T13" s="245"/>
+      <c r="O13" s="227"/>
+      <c r="P13" s="235"/>
+      <c r="Q13" s="235"/>
+      <c r="R13" s="235"/>
+      <c r="S13" s="235"/>
+      <c r="T13" s="228"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="257"/>
-      <c r="B14" s="265" t="s">
+      <c r="A14" s="263"/>
+      <c r="B14" s="271" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="277"/>
-      <c r="D14" s="317"/>
+      <c r="C14" s="282"/>
+      <c r="D14" s="319"/>
       <c r="E14" s="65"/>
       <c r="F14" s="154"/>
       <c r="G14" s="66"/>
@@ -45247,20 +45247,20 @@
       <c r="L14" s="154"/>
       <c r="M14" s="34"/>
       <c r="N14" s="56"/>
-      <c r="O14" s="296"/>
-      <c r="P14" s="244"/>
-      <c r="Q14" s="244"/>
-      <c r="R14" s="244"/>
-      <c r="S14" s="244"/>
-      <c r="T14" s="245"/>
+      <c r="O14" s="227"/>
+      <c r="P14" s="235"/>
+      <c r="Q14" s="235"/>
+      <c r="R14" s="235"/>
+      <c r="S14" s="235"/>
+      <c r="T14" s="228"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="258"/>
-      <c r="B15" s="251" t="s">
+      <c r="A15" s="264"/>
+      <c r="B15" s="285" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="252"/>
-      <c r="D15" s="311"/>
+      <c r="C15" s="286"/>
+      <c r="D15" s="320"/>
       <c r="E15" s="71"/>
       <c r="F15" s="40"/>
       <c r="G15" s="72"/>
@@ -45271,22 +45271,22 @@
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
       <c r="N15" s="59"/>
-      <c r="O15" s="305"/>
-      <c r="P15" s="233"/>
-      <c r="Q15" s="233"/>
-      <c r="R15" s="233"/>
-      <c r="S15" s="233"/>
-      <c r="T15" s="234"/>
+      <c r="O15" s="321"/>
+      <c r="P15" s="289"/>
+      <c r="Q15" s="289"/>
+      <c r="R15" s="289"/>
+      <c r="S15" s="289"/>
+      <c r="T15" s="291"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="268" t="s">
+      <c r="A16" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="271" t="s">
+      <c r="B16" s="246" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="272"/>
-      <c r="D16" s="315"/>
+      <c r="C16" s="277"/>
+      <c r="D16" s="317"/>
       <c r="E16" s="69"/>
       <c r="F16" s="36"/>
       <c r="G16" s="70"/>
@@ -45297,20 +45297,20 @@
       <c r="L16" s="36"/>
       <c r="M16" s="155"/>
       <c r="N16" s="158"/>
-      <c r="O16" s="313"/>
-      <c r="P16" s="232"/>
-      <c r="Q16" s="232"/>
-      <c r="R16" s="232"/>
-      <c r="S16" s="232"/>
-      <c r="T16" s="264"/>
+      <c r="O16" s="315"/>
+      <c r="P16" s="270"/>
+      <c r="Q16" s="270"/>
+      <c r="R16" s="270"/>
+      <c r="S16" s="270"/>
+      <c r="T16" s="237"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="269"/>
-      <c r="B17" s="241" t="s">
+      <c r="A17" s="275"/>
+      <c r="B17" s="279" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="274"/>
-      <c r="D17" s="316"/>
+      <c r="C17" s="280"/>
+      <c r="D17" s="318"/>
       <c r="E17" s="65"/>
       <c r="F17" s="34"/>
       <c r="G17" s="66"/>
@@ -45321,20 +45321,20 @@
       <c r="L17" s="34"/>
       <c r="M17" s="154"/>
       <c r="N17" s="156"/>
-      <c r="O17" s="296"/>
-      <c r="P17" s="244"/>
-      <c r="Q17" s="244"/>
-      <c r="R17" s="244"/>
-      <c r="S17" s="244"/>
-      <c r="T17" s="245"/>
+      <c r="O17" s="227"/>
+      <c r="P17" s="235"/>
+      <c r="Q17" s="235"/>
+      <c r="R17" s="235"/>
+      <c r="S17" s="235"/>
+      <c r="T17" s="228"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="269"/>
-      <c r="B18" s="241" t="s">
+      <c r="A18" s="275"/>
+      <c r="B18" s="279" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="274"/>
-      <c r="D18" s="316"/>
+      <c r="C18" s="280"/>
+      <c r="D18" s="318"/>
       <c r="E18" s="65"/>
       <c r="F18" s="34"/>
       <c r="G18" s="66"/>
@@ -45345,20 +45345,20 @@
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="56"/>
-      <c r="O18" s="296"/>
-      <c r="P18" s="244"/>
-      <c r="Q18" s="244"/>
-      <c r="R18" s="244"/>
-      <c r="S18" s="244"/>
-      <c r="T18" s="245"/>
+      <c r="O18" s="227"/>
+      <c r="P18" s="235"/>
+      <c r="Q18" s="235"/>
+      <c r="R18" s="235"/>
+      <c r="S18" s="235"/>
+      <c r="T18" s="228"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="269"/>
-      <c r="B19" s="246" t="s">
+      <c r="A19" s="275"/>
+      <c r="B19" s="252" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="249"/>
-      <c r="D19" s="310"/>
+      <c r="C19" s="292"/>
+      <c r="D19" s="322"/>
       <c r="E19" s="65"/>
       <c r="F19" s="34"/>
       <c r="G19" s="66"/>
@@ -45369,20 +45369,20 @@
       <c r="L19" s="34"/>
       <c r="M19" s="154"/>
       <c r="N19" s="156"/>
-      <c r="O19" s="296"/>
-      <c r="P19" s="244"/>
-      <c r="Q19" s="244"/>
-      <c r="R19" s="244"/>
-      <c r="S19" s="244"/>
-      <c r="T19" s="245"/>
+      <c r="O19" s="227"/>
+      <c r="P19" s="235"/>
+      <c r="Q19" s="235"/>
+      <c r="R19" s="235"/>
+      <c r="S19" s="235"/>
+      <c r="T19" s="228"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="269"/>
-      <c r="B20" s="246" t="s">
+      <c r="A20" s="275"/>
+      <c r="B20" s="252" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="249"/>
-      <c r="D20" s="310"/>
+      <c r="C20" s="292"/>
+      <c r="D20" s="322"/>
       <c r="E20" s="65"/>
       <c r="F20" s="34"/>
       <c r="G20" s="66"/>
@@ -45393,20 +45393,20 @@
       <c r="L20" s="34"/>
       <c r="M20" s="154"/>
       <c r="N20" s="156"/>
-      <c r="O20" s="296"/>
-      <c r="P20" s="244"/>
-      <c r="Q20" s="244"/>
-      <c r="R20" s="244"/>
-      <c r="S20" s="244"/>
-      <c r="T20" s="245"/>
+      <c r="O20" s="227"/>
+      <c r="P20" s="235"/>
+      <c r="Q20" s="235"/>
+      <c r="R20" s="235"/>
+      <c r="S20" s="235"/>
+      <c r="T20" s="228"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="269"/>
-      <c r="B21" s="246" t="s">
+      <c r="A21" s="275"/>
+      <c r="B21" s="252" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="249"/>
-      <c r="D21" s="310"/>
+      <c r="C21" s="292"/>
+      <c r="D21" s="322"/>
       <c r="E21" s="65"/>
       <c r="F21" s="34"/>
       <c r="G21" s="66"/>
@@ -45417,20 +45417,20 @@
       <c r="L21" s="34"/>
       <c r="M21" s="154"/>
       <c r="N21" s="156"/>
-      <c r="O21" s="296"/>
-      <c r="P21" s="244"/>
-      <c r="Q21" s="244"/>
-      <c r="R21" s="244"/>
-      <c r="S21" s="244"/>
-      <c r="T21" s="245"/>
+      <c r="O21" s="227"/>
+      <c r="P21" s="235"/>
+      <c r="Q21" s="235"/>
+      <c r="R21" s="235"/>
+      <c r="S21" s="235"/>
+      <c r="T21" s="228"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="269"/>
-      <c r="B22" s="246" t="s">
+      <c r="A22" s="275"/>
+      <c r="B22" s="252" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="249"/>
-      <c r="D22" s="310"/>
+      <c r="C22" s="292"/>
+      <c r="D22" s="322"/>
       <c r="E22" s="65"/>
       <c r="F22" s="34"/>
       <c r="G22" s="66"/>
@@ -45441,20 +45441,20 @@
       <c r="L22" s="34"/>
       <c r="M22" s="154"/>
       <c r="N22" s="156"/>
-      <c r="O22" s="296"/>
-      <c r="P22" s="244"/>
-      <c r="Q22" s="244"/>
-      <c r="R22" s="244"/>
-      <c r="S22" s="244"/>
-      <c r="T22" s="245"/>
+      <c r="O22" s="227"/>
+      <c r="P22" s="235"/>
+      <c r="Q22" s="235"/>
+      <c r="R22" s="235"/>
+      <c r="S22" s="235"/>
+      <c r="T22" s="228"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="269"/>
-      <c r="B23" s="246" t="s">
+      <c r="A23" s="275"/>
+      <c r="B23" s="252" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="247"/>
-      <c r="D23" s="309"/>
+      <c r="C23" s="253"/>
+      <c r="D23" s="311"/>
       <c r="E23" s="65"/>
       <c r="F23" s="34"/>
       <c r="G23" s="66"/>
@@ -45465,20 +45465,20 @@
       <c r="L23" s="34"/>
       <c r="M23" s="154"/>
       <c r="N23" s="156"/>
-      <c r="O23" s="296"/>
-      <c r="P23" s="244"/>
-      <c r="Q23" s="244"/>
-      <c r="R23" s="244"/>
-      <c r="S23" s="244"/>
-      <c r="T23" s="245"/>
+      <c r="O23" s="227"/>
+      <c r="P23" s="235"/>
+      <c r="Q23" s="235"/>
+      <c r="R23" s="235"/>
+      <c r="S23" s="235"/>
+      <c r="T23" s="228"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="269"/>
-      <c r="B24" s="241" t="s">
+      <c r="A24" s="275"/>
+      <c r="B24" s="279" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="242"/>
-      <c r="D24" s="308"/>
+      <c r="C24" s="294"/>
+      <c r="D24" s="323"/>
       <c r="E24" s="65"/>
       <c r="F24" s="34"/>
       <c r="G24" s="66"/>
@@ -45489,20 +45489,20 @@
       <c r="L24" s="34"/>
       <c r="M24" s="154"/>
       <c r="N24" s="156"/>
-      <c r="O24" s="296"/>
-      <c r="P24" s="244"/>
-      <c r="Q24" s="244"/>
-      <c r="R24" s="244"/>
-      <c r="S24" s="244"/>
-      <c r="T24" s="245"/>
+      <c r="O24" s="227"/>
+      <c r="P24" s="235"/>
+      <c r="Q24" s="235"/>
+      <c r="R24" s="235"/>
+      <c r="S24" s="235"/>
+      <c r="T24" s="228"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="269"/>
-      <c r="B25" s="241" t="s">
+      <c r="A25" s="275"/>
+      <c r="B25" s="279" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="242"/>
-      <c r="D25" s="308"/>
+      <c r="C25" s="294"/>
+      <c r="D25" s="323"/>
       <c r="E25" s="65"/>
       <c r="F25" s="34"/>
       <c r="G25" s="66"/>
@@ -45513,20 +45513,20 @@
       <c r="L25" s="34"/>
       <c r="M25" s="154"/>
       <c r="N25" s="156"/>
-      <c r="O25" s="296"/>
-      <c r="P25" s="244"/>
-      <c r="Q25" s="244"/>
-      <c r="R25" s="244"/>
-      <c r="S25" s="244"/>
-      <c r="T25" s="245"/>
+      <c r="O25" s="227"/>
+      <c r="P25" s="235"/>
+      <c r="Q25" s="235"/>
+      <c r="R25" s="235"/>
+      <c r="S25" s="235"/>
+      <c r="T25" s="228"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="269"/>
-      <c r="B26" s="241" t="s">
+      <c r="A26" s="275"/>
+      <c r="B26" s="279" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="242"/>
-      <c r="D26" s="308"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="323"/>
       <c r="E26" s="65"/>
       <c r="F26" s="34"/>
       <c r="G26" s="66"/>
@@ -45537,20 +45537,20 @@
       <c r="L26" s="34"/>
       <c r="M26" s="154"/>
       <c r="N26" s="156"/>
-      <c r="O26" s="296"/>
-      <c r="P26" s="244"/>
-      <c r="Q26" s="244"/>
-      <c r="R26" s="244"/>
-      <c r="S26" s="244"/>
-      <c r="T26" s="245"/>
+      <c r="O26" s="227"/>
+      <c r="P26" s="235"/>
+      <c r="Q26" s="235"/>
+      <c r="R26" s="235"/>
+      <c r="S26" s="235"/>
+      <c r="T26" s="228"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="270"/>
-      <c r="B27" s="228" t="s">
+      <c r="A27" s="276"/>
+      <c r="B27" s="297" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="229"/>
-      <c r="D27" s="304"/>
+      <c r="C27" s="298"/>
+      <c r="D27" s="324"/>
       <c r="E27" s="71"/>
       <c r="F27" s="40"/>
       <c r="G27" s="72"/>
@@ -45561,22 +45561,22 @@
       <c r="L27" s="40"/>
       <c r="M27" s="40"/>
       <c r="N27" s="59"/>
-      <c r="O27" s="305"/>
-      <c r="P27" s="233"/>
-      <c r="Q27" s="233"/>
-      <c r="R27" s="233"/>
-      <c r="S27" s="233"/>
-      <c r="T27" s="234"/>
+      <c r="O27" s="321"/>
+      <c r="P27" s="289"/>
+      <c r="Q27" s="289"/>
+      <c r="R27" s="289"/>
+      <c r="S27" s="289"/>
+      <c r="T27" s="291"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="235" t="s">
+      <c r="B28" s="300" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="236"/>
-      <c r="D28" s="306"/>
+      <c r="C28" s="301"/>
+      <c r="D28" s="325"/>
       <c r="E28" s="73"/>
       <c r="F28" s="61"/>
       <c r="G28" s="74"/>
@@ -45587,17 +45587,17 @@
       <c r="L28" s="61"/>
       <c r="M28" s="61"/>
       <c r="N28" s="62"/>
-      <c r="O28" s="307"/>
-      <c r="P28" s="239"/>
-      <c r="Q28" s="239"/>
-      <c r="R28" s="239"/>
-      <c r="S28" s="239"/>
-      <c r="T28" s="240"/>
+      <c r="O28" s="326"/>
+      <c r="P28" s="232"/>
+      <c r="Q28" s="232"/>
+      <c r="R28" s="232"/>
+      <c r="S28" s="232"/>
+      <c r="T28" s="242"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="227"/>
-      <c r="C29" s="227"/>
-      <c r="D29" s="227"/>
+      <c r="B29" s="296"/>
+      <c r="C29" s="296"/>
+      <c r="D29" s="296"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="16" t="s">
@@ -45608,118 +45608,135 @@
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="178" t="s">
+      <c r="B31" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="178"/>
+      <c r="C31" s="223"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="178" t="s">
+      <c r="B32" s="223" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="178"/>
+      <c r="C32" s="223"/>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1">
       <c r="A33" s="19"/>
-      <c r="B33" s="178" t="s">
+      <c r="B33" s="223" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="178"/>
+      <c r="C33" s="223"/>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="178" t="s">
+      <c r="B34" s="223" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="178"/>
+      <c r="C34" s="223"/>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="178" t="s">
+      <c r="B35" s="223" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="178"/>
+      <c r="C35" s="223"/>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1">
-      <c r="B36" s="227"/>
-      <c r="C36" s="227"/>
-      <c r="D36" s="227"/>
+      <c r="B36" s="296"/>
+      <c r="C36" s="296"/>
+      <c r="D36" s="296"/>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1">
-      <c r="B37" s="227"/>
-      <c r="C37" s="227"/>
-      <c r="D37" s="227"/>
+      <c r="B37" s="296"/>
+      <c r="C37" s="296"/>
+      <c r="D37" s="296"/>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1">
-      <c r="B38" s="227"/>
-      <c r="C38" s="227"/>
-      <c r="D38" s="227"/>
+      <c r="B38" s="296"/>
+      <c r="C38" s="296"/>
+      <c r="D38" s="296"/>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1">
-      <c r="B39" s="227"/>
-      <c r="C39" s="227"/>
-      <c r="D39" s="227"/>
+      <c r="B39" s="296"/>
+      <c r="C39" s="296"/>
+      <c r="D39" s="296"/>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1">
-      <c r="B40" s="227"/>
-      <c r="C40" s="227"/>
-      <c r="D40" s="227"/>
+      <c r="B40" s="296"/>
+      <c r="C40" s="296"/>
+      <c r="D40" s="296"/>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1">
-      <c r="B41" s="227"/>
-      <c r="C41" s="227"/>
-      <c r="D41" s="227"/>
+      <c r="B41" s="296"/>
+      <c r="C41" s="296"/>
+      <c r="D41" s="296"/>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1">
-      <c r="B42" s="227"/>
-      <c r="C42" s="227"/>
-      <c r="D42" s="227"/>
+      <c r="B42" s="296"/>
+      <c r="C42" s="296"/>
+      <c r="D42" s="296"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="O12:P12"/>
@@ -45744,65 +45761,48 @@
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45824,75 +45824,75 @@
       <c r="B2" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="299" t="s">
+      <c r="G2" s="233" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="300"/>
-      <c r="I2" s="289" t="s">
+      <c r="H2" s="234"/>
+      <c r="I2" s="240" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="244"/>
-      <c r="L2" s="299" t="s">
+      <c r="J2" s="235"/>
+      <c r="L2" s="233" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="300"/>
-      <c r="N2" s="289" t="s">
+      <c r="M2" s="234"/>
+      <c r="N2" s="240" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="244"/>
-      <c r="Q2" s="299" t="s">
+      <c r="O2" s="235"/>
+      <c r="Q2" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="300"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="244"/>
-      <c r="V2" s="299" t="s">
+      <c r="R2" s="234"/>
+      <c r="S2" s="235"/>
+      <c r="T2" s="235"/>
+      <c r="V2" s="233" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="300"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
+      <c r="W2" s="234"/>
+      <c r="X2" s="235"/>
+      <c r="Y2" s="235"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="D4" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="301" t="s">
+      <c r="E4" s="236" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="264"/>
-      <c r="G4" s="231" t="s">
+      <c r="F4" s="237"/>
+      <c r="G4" s="238" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="302"/>
-      <c r="I4" s="301" t="s">
+      <c r="H4" s="239"/>
+      <c r="I4" s="236" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="264"/>
-      <c r="K4" s="231" t="s">
+      <c r="J4" s="237"/>
+      <c r="K4" s="238" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="302"/>
-      <c r="M4" s="301" t="s">
+      <c r="L4" s="239"/>
+      <c r="M4" s="236" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="264"/>
+      <c r="N4" s="237"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D5" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="296"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="280"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="296"/>
-      <c r="J5" s="245"/>
-      <c r="K5" s="280"/>
-      <c r="L5" s="297"/>
-      <c r="M5" s="296"/>
-      <c r="N5" s="245"/>
+      <c r="E5" s="227"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="229"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="227"/>
+      <c r="J5" s="228"/>
+      <c r="K5" s="229"/>
+      <c r="L5" s="230"/>
+      <c r="M5" s="227"/>
+      <c r="N5" s="228"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D6" s="78" t="s">
@@ -45931,25 +45931,25 @@
       <c r="O6" s="327" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="303" t="s">
+      <c r="P6" s="232"/>
+      <c r="Q6" s="241" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="239"/>
-      <c r="S6" s="303" t="s">
+      <c r="R6" s="232"/>
+      <c r="S6" s="241" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="240"/>
+      <c r="T6" s="242"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="281" t="s">
+      <c r="A7" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="271" t="s">
+      <c r="B7" s="246" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="285"/>
+      <c r="C7" s="247"/>
+      <c r="D7" s="248"/>
       <c r="E7" s="93"/>
       <c r="F7" s="43"/>
       <c r="G7" s="45"/>
@@ -45960,20 +45960,20 @@
       <c r="L7" s="55"/>
       <c r="M7" s="93"/>
       <c r="N7" s="43"/>
-      <c r="O7" s="319"/>
-      <c r="P7" s="287"/>
-      <c r="Q7" s="287"/>
-      <c r="R7" s="287"/>
-      <c r="S7" s="287"/>
-      <c r="T7" s="288"/>
+      <c r="O7" s="310"/>
+      <c r="P7" s="250"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="250"/>
+      <c r="S7" s="250"/>
+      <c r="T7" s="251"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="282"/>
-      <c r="B8" s="246" t="s">
+      <c r="A8" s="244"/>
+      <c r="B8" s="252" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="247"/>
-      <c r="D8" s="248"/>
+      <c r="C8" s="253"/>
+      <c r="D8" s="254"/>
       <c r="E8" s="37"/>
       <c r="F8" s="38"/>
       <c r="G8" s="46"/>
@@ -45984,20 +45984,20 @@
       <c r="L8" s="56"/>
       <c r="M8" s="37"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="296"/>
-      <c r="P8" s="244"/>
-      <c r="Q8" s="244"/>
-      <c r="R8" s="244"/>
-      <c r="S8" s="244"/>
-      <c r="T8" s="245"/>
+      <c r="O8" s="227"/>
+      <c r="P8" s="235"/>
+      <c r="Q8" s="235"/>
+      <c r="R8" s="235"/>
+      <c r="S8" s="235"/>
+      <c r="T8" s="228"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="282"/>
-      <c r="B9" s="246" t="s">
+      <c r="A9" s="244"/>
+      <c r="B9" s="252" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="247"/>
-      <c r="D9" s="248"/>
+      <c r="C9" s="253"/>
+      <c r="D9" s="254"/>
       <c r="E9" s="37"/>
       <c r="F9" s="38"/>
       <c r="G9" s="46"/>
@@ -46008,20 +46008,20 @@
       <c r="L9" s="56"/>
       <c r="M9" s="37"/>
       <c r="N9" s="38"/>
-      <c r="O9" s="296"/>
-      <c r="P9" s="244"/>
-      <c r="Q9" s="244"/>
-      <c r="R9" s="244"/>
-      <c r="S9" s="244"/>
-      <c r="T9" s="245"/>
+      <c r="O9" s="227"/>
+      <c r="P9" s="235"/>
+      <c r="Q9" s="235"/>
+      <c r="R9" s="235"/>
+      <c r="S9" s="235"/>
+      <c r="T9" s="228"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="282"/>
-      <c r="B10" s="246" t="s">
+      <c r="A10" s="244"/>
+      <c r="B10" s="252" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="247"/>
-      <c r="D10" s="248"/>
+      <c r="C10" s="253"/>
+      <c r="D10" s="254"/>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
       <c r="G10" s="46"/>
@@ -46032,20 +46032,20 @@
       <c r="L10" s="56"/>
       <c r="M10" s="37"/>
       <c r="N10" s="38"/>
-      <c r="O10" s="296"/>
-      <c r="P10" s="244"/>
-      <c r="Q10" s="244"/>
-      <c r="R10" s="244"/>
-      <c r="S10" s="244"/>
-      <c r="T10" s="245"/>
+      <c r="O10" s="227"/>
+      <c r="P10" s="235"/>
+      <c r="Q10" s="235"/>
+      <c r="R10" s="235"/>
+      <c r="S10" s="235"/>
+      <c r="T10" s="228"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="283"/>
-      <c r="B11" s="290" t="s">
+      <c r="A11" s="245"/>
+      <c r="B11" s="256" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="291"/>
-      <c r="D11" s="292"/>
+      <c r="C11" s="257"/>
+      <c r="D11" s="258"/>
       <c r="E11" s="94"/>
       <c r="F11" s="51"/>
       <c r="G11" s="49"/>
@@ -46056,22 +46056,22 @@
       <c r="L11" s="57"/>
       <c r="M11" s="94"/>
       <c r="N11" s="51"/>
-      <c r="O11" s="321"/>
-      <c r="P11" s="294"/>
-      <c r="Q11" s="294"/>
-      <c r="R11" s="294"/>
-      <c r="S11" s="294"/>
-      <c r="T11" s="295"/>
+      <c r="O11" s="313"/>
+      <c r="P11" s="260"/>
+      <c r="Q11" s="260"/>
+      <c r="R11" s="260"/>
+      <c r="S11" s="260"/>
+      <c r="T11" s="261"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="256" t="s">
+      <c r="A12" s="262" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="259" t="s">
+      <c r="B12" s="265" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="260"/>
-      <c r="D12" s="261"/>
+      <c r="C12" s="266"/>
+      <c r="D12" s="267"/>
       <c r="E12" s="35"/>
       <c r="F12" s="53"/>
       <c r="G12" s="52"/>
@@ -46082,20 +46082,20 @@
       <c r="L12" s="58"/>
       <c r="M12" s="35"/>
       <c r="N12" s="53"/>
-      <c r="O12" s="313"/>
-      <c r="P12" s="232"/>
-      <c r="Q12" s="232"/>
-      <c r="R12" s="232"/>
-      <c r="S12" s="232"/>
-      <c r="T12" s="264"/>
+      <c r="O12" s="315"/>
+      <c r="P12" s="270"/>
+      <c r="Q12" s="270"/>
+      <c r="R12" s="270"/>
+      <c r="S12" s="270"/>
+      <c r="T12" s="237"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="257"/>
-      <c r="B13" s="265" t="s">
+      <c r="A13" s="263"/>
+      <c r="B13" s="271" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="266"/>
-      <c r="D13" s="267"/>
+      <c r="C13" s="272"/>
+      <c r="D13" s="273"/>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
       <c r="G13" s="46"/>
@@ -46106,20 +46106,20 @@
       <c r="L13" s="56"/>
       <c r="M13" s="37"/>
       <c r="N13" s="38"/>
-      <c r="O13" s="296"/>
-      <c r="P13" s="244"/>
-      <c r="Q13" s="244"/>
-      <c r="R13" s="244"/>
-      <c r="S13" s="244"/>
-      <c r="T13" s="245"/>
+      <c r="O13" s="227"/>
+      <c r="P13" s="235"/>
+      <c r="Q13" s="235"/>
+      <c r="R13" s="235"/>
+      <c r="S13" s="235"/>
+      <c r="T13" s="228"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="257"/>
-      <c r="B14" s="265" t="s">
+      <c r="A14" s="263"/>
+      <c r="B14" s="271" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="277"/>
-      <c r="D14" s="278"/>
+      <c r="C14" s="282"/>
+      <c r="D14" s="283"/>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
       <c r="G14" s="46"/>
@@ -46130,20 +46130,20 @@
       <c r="L14" s="56"/>
       <c r="M14" s="37"/>
       <c r="N14" s="38"/>
-      <c r="O14" s="296"/>
-      <c r="P14" s="244"/>
-      <c r="Q14" s="244"/>
-      <c r="R14" s="244"/>
-      <c r="S14" s="244"/>
-      <c r="T14" s="245"/>
+      <c r="O14" s="227"/>
+      <c r="P14" s="235"/>
+      <c r="Q14" s="235"/>
+      <c r="R14" s="235"/>
+      <c r="S14" s="235"/>
+      <c r="T14" s="228"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="258"/>
-      <c r="B15" s="251" t="s">
+      <c r="A15" s="264"/>
+      <c r="B15" s="285" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="252"/>
-      <c r="D15" s="253"/>
+      <c r="C15" s="286"/>
+      <c r="D15" s="287"/>
       <c r="E15" s="95"/>
       <c r="F15" s="41"/>
       <c r="G15" s="47"/>
@@ -46154,22 +46154,22 @@
       <c r="L15" s="59"/>
       <c r="M15" s="95"/>
       <c r="N15" s="41"/>
-      <c r="O15" s="305"/>
-      <c r="P15" s="233"/>
-      <c r="Q15" s="233"/>
-      <c r="R15" s="233"/>
-      <c r="S15" s="233"/>
-      <c r="T15" s="234"/>
+      <c r="O15" s="321"/>
+      <c r="P15" s="289"/>
+      <c r="Q15" s="289"/>
+      <c r="R15" s="289"/>
+      <c r="S15" s="289"/>
+      <c r="T15" s="291"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="268" t="s">
+      <c r="A16" s="274" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="271" t="s">
+      <c r="B16" s="246" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="272"/>
-      <c r="D16" s="273"/>
+      <c r="C16" s="277"/>
+      <c r="D16" s="278"/>
       <c r="E16" s="35"/>
       <c r="F16" s="53"/>
       <c r="G16" s="52"/>
@@ -46180,20 +46180,20 @@
       <c r="L16" s="58"/>
       <c r="M16" s="35"/>
       <c r="N16" s="53"/>
-      <c r="O16" s="313"/>
-      <c r="P16" s="232"/>
-      <c r="Q16" s="232"/>
-      <c r="R16" s="232"/>
-      <c r="S16" s="232"/>
-      <c r="T16" s="264"/>
+      <c r="O16" s="315"/>
+      <c r="P16" s="270"/>
+      <c r="Q16" s="270"/>
+      <c r="R16" s="270"/>
+      <c r="S16" s="270"/>
+      <c r="T16" s="237"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="269"/>
-      <c r="B17" s="241" t="s">
+      <c r="A17" s="275"/>
+      <c r="B17" s="279" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="274"/>
-      <c r="D17" s="275"/>
+      <c r="C17" s="280"/>
+      <c r="D17" s="281"/>
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
       <c r="G17" s="46"/>
@@ -46204,20 +46204,20 @@
       <c r="L17" s="56"/>
       <c r="M17" s="37"/>
       <c r="N17" s="38"/>
-      <c r="O17" s="296"/>
-      <c r="P17" s="244"/>
-      <c r="Q17" s="244"/>
-      <c r="R17" s="244"/>
-      <c r="S17" s="244"/>
-      <c r="T17" s="245"/>
+      <c r="O17" s="227"/>
+      <c r="P17" s="235"/>
+      <c r="Q17" s="235"/>
+      <c r="R17" s="235"/>
+      <c r="S17" s="235"/>
+      <c r="T17" s="228"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="269"/>
-      <c r="B18" s="241" t="s">
+      <c r="A18" s="275"/>
+      <c r="B18" s="279" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="274"/>
-      <c r="D18" s="275"/>
+      <c r="C18" s="280"/>
+      <c r="D18" s="281"/>
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
       <c r="G18" s="46"/>
@@ -46228,20 +46228,20 @@
       <c r="L18" s="56"/>
       <c r="M18" s="37"/>
       <c r="N18" s="38"/>
-      <c r="O18" s="296"/>
-      <c r="P18" s="244"/>
-      <c r="Q18" s="244"/>
-      <c r="R18" s="244"/>
-      <c r="S18" s="244"/>
-      <c r="T18" s="245"/>
+      <c r="O18" s="227"/>
+      <c r="P18" s="235"/>
+      <c r="Q18" s="235"/>
+      <c r="R18" s="235"/>
+      <c r="S18" s="235"/>
+      <c r="T18" s="228"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="269"/>
-      <c r="B19" s="246" t="s">
+      <c r="A19" s="275"/>
+      <c r="B19" s="252" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="249"/>
-      <c r="D19" s="250"/>
+      <c r="C19" s="292"/>
+      <c r="D19" s="293"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
       <c r="G19" s="46"/>
@@ -46252,20 +46252,20 @@
       <c r="L19" s="56"/>
       <c r="M19" s="37"/>
       <c r="N19" s="38"/>
-      <c r="O19" s="296"/>
-      <c r="P19" s="244"/>
-      <c r="Q19" s="244"/>
-      <c r="R19" s="244"/>
-      <c r="S19" s="244"/>
-      <c r="T19" s="245"/>
+      <c r="O19" s="227"/>
+      <c r="P19" s="235"/>
+      <c r="Q19" s="235"/>
+      <c r="R19" s="235"/>
+      <c r="S19" s="235"/>
+      <c r="T19" s="228"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="269"/>
-      <c r="B20" s="246" t="s">
+      <c r="A20" s="275"/>
+      <c r="B20" s="252" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="249"/>
-      <c r="D20" s="250"/>
+      <c r="C20" s="292"/>
+      <c r="D20" s="293"/>
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
       <c r="G20" s="46"/>
@@ -46276,20 +46276,20 @@
       <c r="L20" s="56"/>
       <c r="M20" s="37"/>
       <c r="N20" s="38"/>
-      <c r="O20" s="296"/>
-      <c r="P20" s="244"/>
-      <c r="Q20" s="244"/>
-      <c r="R20" s="244"/>
-      <c r="S20" s="244"/>
-      <c r="T20" s="245"/>
+      <c r="O20" s="227"/>
+      <c r="P20" s="235"/>
+      <c r="Q20" s="235"/>
+      <c r="R20" s="235"/>
+      <c r="S20" s="235"/>
+      <c r="T20" s="228"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="269"/>
-      <c r="B21" s="246" t="s">
+      <c r="A21" s="275"/>
+      <c r="B21" s="252" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="249"/>
-      <c r="D21" s="250"/>
+      <c r="C21" s="292"/>
+      <c r="D21" s="293"/>
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
       <c r="G21" s="46"/>
@@ -46300,20 +46300,20 @@
       <c r="L21" s="56"/>
       <c r="M21" s="37"/>
       <c r="N21" s="38"/>
-      <c r="O21" s="296"/>
-      <c r="P21" s="244"/>
-      <c r="Q21" s="244"/>
-      <c r="R21" s="244"/>
-      <c r="S21" s="244"/>
-      <c r="T21" s="245"/>
+      <c r="O21" s="227"/>
+      <c r="P21" s="235"/>
+      <c r="Q21" s="235"/>
+      <c r="R21" s="235"/>
+      <c r="S21" s="235"/>
+      <c r="T21" s="228"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="269"/>
-      <c r="B22" s="246" t="s">
+      <c r="A22" s="275"/>
+      <c r="B22" s="252" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="249"/>
-      <c r="D22" s="250"/>
+      <c r="C22" s="292"/>
+      <c r="D22" s="293"/>
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
       <c r="G22" s="46"/>
@@ -46324,20 +46324,20 @@
       <c r="L22" s="56"/>
       <c r="M22" s="37"/>
       <c r="N22" s="38"/>
-      <c r="O22" s="296"/>
-      <c r="P22" s="244"/>
-      <c r="Q22" s="244"/>
-      <c r="R22" s="244"/>
-      <c r="S22" s="244"/>
-      <c r="T22" s="245"/>
+      <c r="O22" s="227"/>
+      <c r="P22" s="235"/>
+      <c r="Q22" s="235"/>
+      <c r="R22" s="235"/>
+      <c r="S22" s="235"/>
+      <c r="T22" s="228"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="269"/>
-      <c r="B23" s="246" t="s">
+      <c r="A23" s="275"/>
+      <c r="B23" s="252" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="247"/>
-      <c r="D23" s="248"/>
+      <c r="C23" s="253"/>
+      <c r="D23" s="254"/>
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
       <c r="G23" s="46"/>
@@ -46348,20 +46348,20 @@
       <c r="L23" s="56"/>
       <c r="M23" s="37"/>
       <c r="N23" s="38"/>
-      <c r="O23" s="296"/>
-      <c r="P23" s="244"/>
-      <c r="Q23" s="244"/>
-      <c r="R23" s="244"/>
-      <c r="S23" s="244"/>
-      <c r="T23" s="245"/>
+      <c r="O23" s="227"/>
+      <c r="P23" s="235"/>
+      <c r="Q23" s="235"/>
+      <c r="R23" s="235"/>
+      <c r="S23" s="235"/>
+      <c r="T23" s="228"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="269"/>
-      <c r="B24" s="241" t="s">
+      <c r="A24" s="275"/>
+      <c r="B24" s="279" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="242"/>
-      <c r="D24" s="243"/>
+      <c r="C24" s="294"/>
+      <c r="D24" s="295"/>
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
       <c r="G24" s="46"/>
@@ -46372,20 +46372,20 @@
       <c r="L24" s="56"/>
       <c r="M24" s="37"/>
       <c r="N24" s="38"/>
-      <c r="O24" s="296"/>
-      <c r="P24" s="244"/>
-      <c r="Q24" s="244"/>
-      <c r="R24" s="244"/>
-      <c r="S24" s="244"/>
-      <c r="T24" s="245"/>
+      <c r="O24" s="227"/>
+      <c r="P24" s="235"/>
+      <c r="Q24" s="235"/>
+      <c r="R24" s="235"/>
+      <c r="S24" s="235"/>
+      <c r="T24" s="228"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="269"/>
-      <c r="B25" s="241" t="s">
+      <c r="A25" s="275"/>
+      <c r="B25" s="279" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="242"/>
-      <c r="D25" s="243"/>
+      <c r="C25" s="294"/>
+      <c r="D25" s="295"/>
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
       <c r="G25" s="46"/>
@@ -46396,20 +46396,20 @@
       <c r="L25" s="56"/>
       <c r="M25" s="37"/>
       <c r="N25" s="38"/>
-      <c r="O25" s="296"/>
-      <c r="P25" s="244"/>
-      <c r="Q25" s="244"/>
-      <c r="R25" s="244"/>
-      <c r="S25" s="244"/>
-      <c r="T25" s="245"/>
+      <c r="O25" s="227"/>
+      <c r="P25" s="235"/>
+      <c r="Q25" s="235"/>
+      <c r="R25" s="235"/>
+      <c r="S25" s="235"/>
+      <c r="T25" s="228"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="269"/>
-      <c r="B26" s="241" t="s">
+      <c r="A26" s="275"/>
+      <c r="B26" s="279" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="242"/>
-      <c r="D26" s="243"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="295"/>
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
       <c r="G26" s="46"/>
@@ -46420,20 +46420,20 @@
       <c r="L26" s="56"/>
       <c r="M26" s="37"/>
       <c r="N26" s="38"/>
-      <c r="O26" s="296"/>
-      <c r="P26" s="244"/>
-      <c r="Q26" s="244"/>
-      <c r="R26" s="244"/>
-      <c r="S26" s="244"/>
-      <c r="T26" s="245"/>
+      <c r="O26" s="227"/>
+      <c r="P26" s="235"/>
+      <c r="Q26" s="235"/>
+      <c r="R26" s="235"/>
+      <c r="S26" s="235"/>
+      <c r="T26" s="228"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="270"/>
-      <c r="B27" s="228" t="s">
+      <c r="A27" s="276"/>
+      <c r="B27" s="297" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="229"/>
-      <c r="D27" s="230"/>
+      <c r="C27" s="298"/>
+      <c r="D27" s="299"/>
       <c r="E27" s="95"/>
       <c r="F27" s="41"/>
       <c r="G27" s="47"/>
@@ -46444,22 +46444,22 @@
       <c r="L27" s="59"/>
       <c r="M27" s="95"/>
       <c r="N27" s="41"/>
-      <c r="O27" s="305"/>
-      <c r="P27" s="233"/>
-      <c r="Q27" s="233"/>
-      <c r="R27" s="233"/>
-      <c r="S27" s="233"/>
-      <c r="T27" s="234"/>
+      <c r="O27" s="321"/>
+      <c r="P27" s="289"/>
+      <c r="Q27" s="289"/>
+      <c r="R27" s="289"/>
+      <c r="S27" s="289"/>
+      <c r="T27" s="291"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="235" t="s">
+      <c r="B28" s="300" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="236"/>
-      <c r="D28" s="237"/>
+      <c r="C28" s="301"/>
+      <c r="D28" s="302"/>
       <c r="E28" s="96"/>
       <c r="F28" s="97"/>
       <c r="G28" s="60"/>
@@ -46470,17 +46470,17 @@
       <c r="L28" s="62"/>
       <c r="M28" s="96"/>
       <c r="N28" s="97"/>
-      <c r="O28" s="307"/>
-      <c r="P28" s="239"/>
-      <c r="Q28" s="239"/>
-      <c r="R28" s="239"/>
-      <c r="S28" s="239"/>
-      <c r="T28" s="240"/>
+      <c r="O28" s="326"/>
+      <c r="P28" s="232"/>
+      <c r="Q28" s="232"/>
+      <c r="R28" s="232"/>
+      <c r="S28" s="232"/>
+      <c r="T28" s="242"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="227"/>
-      <c r="C29" s="227"/>
-      <c r="D29" s="227"/>
+      <c r="B29" s="296"/>
+      <c r="C29" s="296"/>
+      <c r="D29" s="296"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="16" t="s">
@@ -46491,102 +46491,147 @@
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="178" t="s">
+      <c r="B31" s="223" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="178"/>
+      <c r="C31" s="223"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="178" t="s">
+      <c r="B32" s="223" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="178"/>
+      <c r="C32" s="223"/>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1">
       <c r="A33" s="19"/>
-      <c r="B33" s="178" t="s">
+      <c r="B33" s="223" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="178"/>
+      <c r="C33" s="223"/>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="178" t="s">
+      <c r="B34" s="223" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="178"/>
+      <c r="C34" s="223"/>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1">
-      <c r="B35" s="227"/>
-      <c r="C35" s="227"/>
-      <c r="D35" s="227"/>
+      <c r="B35" s="296"/>
+      <c r="C35" s="296"/>
+      <c r="D35" s="296"/>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1">
-      <c r="B36" s="227"/>
-      <c r="C36" s="227"/>
-      <c r="D36" s="227"/>
+      <c r="B36" s="296"/>
+      <c r="C36" s="296"/>
+      <c r="D36" s="296"/>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1">
-      <c r="B37" s="227"/>
-      <c r="C37" s="227"/>
-      <c r="D37" s="227"/>
+      <c r="B37" s="296"/>
+      <c r="C37" s="296"/>
+      <c r="D37" s="296"/>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1">
-      <c r="B38" s="227"/>
-      <c r="C38" s="227"/>
-      <c r="D38" s="227"/>
+      <c r="B38" s="296"/>
+      <c r="C38" s="296"/>
+      <c r="D38" s="296"/>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1">
-      <c r="B39" s="227"/>
-      <c r="C39" s="227"/>
-      <c r="D39" s="227"/>
+      <c r="B39" s="296"/>
+      <c r="C39" s="296"/>
+      <c r="D39" s="296"/>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1">
-      <c r="B40" s="227"/>
-      <c r="C40" s="227"/>
-      <c r="D40" s="227"/>
+      <c r="B40" s="296"/>
+      <c r="C40" s="296"/>
+      <c r="D40" s="296"/>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1">
-      <c r="B41" s="227"/>
-      <c r="C41" s="227"/>
-      <c r="D41" s="227"/>
+      <c r="B41" s="296"/>
+      <c r="C41" s="296"/>
+      <c r="D41" s="296"/>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1">
-      <c r="B42" s="227"/>
-      <c r="C42" s="227"/>
-      <c r="D42" s="227"/>
+      <c r="B42" s="296"/>
+      <c r="C42" s="296"/>
+      <c r="D42" s="296"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="Q10:R10"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
@@ -46611,79 +46656,34 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/30_工程表/工程表_第2版.xlsx
+++ b/doc/30_工程表/工程表_第2版.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E4\doc\30_工程表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\doc0614朝\30_工程表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D82457-646C-4FBC-BD36-43221C23315C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F770BF4-BEB1-4CE9-A4E2-D5FF1C9B914F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1692" yWindow="828" windowWidth="13800" windowHeight="10176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="月間" sheetId="4" r:id="rId1"/>
@@ -2319,7 +2319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="328">
+  <cellXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2836,6 +2836,123 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2869,30 +2986,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2905,175 +2998,64 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3085,25 +3067,25 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3130,7 +3112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3151,20 +3133,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3175,92 +3160,101 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3280,29 +3274,38 @@
     <xf numFmtId="0" fontId="9" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4077,9 +4080,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>296830</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>92637</xdr:rowOff>
+      <xdr:colOff>289029</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>108239</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1363133" cy="581954"/>
     <xdr:sp macro="" textlink="">
@@ -4095,7 +4098,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8705724" y="3741272"/>
+          <a:off x="8607529" y="4353668"/>
           <a:ext cx="1363133" cy="581954"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4331,9 +4334,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>197225</xdr:colOff>
+      <xdr:colOff>68955</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>254500</xdr:rowOff>
+      <xdr:rowOff>229826</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1757081" cy="588182"/>
     <xdr:sp macro="" textlink="">
@@ -4349,7 +4352,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8606119" y="2791512"/>
+          <a:off x="8387455" y="2787969"/>
           <a:ext cx="1757081" cy="588182"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5816,8 +5819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F461FB36-AA5C-4255-9DAB-20DEB8CADCD8}">
   <dimension ref="A1:AO1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM20" sqref="AM20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
@@ -5870,18 +5873,18 @@
       <c r="AJ1" s="2"/>
     </row>
     <row r="2" spans="1:41" ht="22.5" customHeight="1">
-      <c r="B2" s="182">
+      <c r="B2" s="221">
         <v>2024</v>
       </c>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
       <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="182">
+      <c r="F2" s="221">
         <v>6</v>
       </c>
-      <c r="G2" s="183"/>
+      <c r="G2" s="201"/>
       <c r="H2" s="12" t="s">
         <v>1</v>
       </c>
@@ -5954,57 +5957,57 @@
       <c r="AJ3" s="3"/>
     </row>
     <row r="4" spans="1:41" ht="19.5" customHeight="1">
-      <c r="B4" s="184" t="s">
+      <c r="B4" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="187" t="s">
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="207"/>
+      <c r="F4" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="184" t="s">
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="207"/>
+      <c r="K4" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="185"/>
-      <c r="M4" s="185"/>
-      <c r="N4" s="186"/>
-      <c r="O4" s="187" t="s">
+      <c r="L4" s="205"/>
+      <c r="M4" s="205"/>
+      <c r="N4" s="207"/>
+      <c r="O4" s="206" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="185"/>
-      <c r="Q4" s="185"/>
-      <c r="R4" s="185"/>
-      <c r="S4" s="186"/>
-      <c r="T4" s="184" t="s">
+      <c r="P4" s="205"/>
+      <c r="Q4" s="205"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="207"/>
+      <c r="T4" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="185"/>
-      <c r="V4" s="185"/>
-      <c r="W4" s="186"/>
-      <c r="X4" s="215">
+      <c r="U4" s="205"/>
+      <c r="V4" s="205"/>
+      <c r="W4" s="207"/>
+      <c r="X4" s="210">
         <v>45451</v>
       </c>
-      <c r="Y4" s="185"/>
-      <c r="Z4" s="185"/>
-      <c r="AA4" s="185"/>
-      <c r="AB4" s="186"/>
-      <c r="AC4" s="184" t="s">
+      <c r="Y4" s="205"/>
+      <c r="Z4" s="205"/>
+      <c r="AA4" s="205"/>
+      <c r="AB4" s="207"/>
+      <c r="AC4" s="209" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="185"/>
-      <c r="AE4" s="185"/>
-      <c r="AF4" s="185"/>
-      <c r="AG4" s="205">
+      <c r="AD4" s="205"/>
+      <c r="AE4" s="205"/>
+      <c r="AF4" s="205"/>
+      <c r="AG4" s="195">
         <v>45451</v>
       </c>
-      <c r="AH4" s="206"/>
-      <c r="AI4" s="206"/>
-      <c r="AJ4" s="206"/>
+      <c r="AH4" s="196"/>
+      <c r="AI4" s="196"/>
+      <c r="AJ4" s="196"/>
     </row>
     <row r="5" spans="1:41" ht="18.75" customHeight="1">
       <c r="B5" s="2"/>
@@ -6044,52 +6047,52 @@
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:41" ht="18.75" customHeight="1">
-      <c r="B6" s="207"/>
-      <c r="C6" s="195"/>
-      <c r="D6" s="195"/>
-      <c r="E6" s="196"/>
+      <c r="B6" s="197"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="199"/>
       <c r="F6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="211">
+      <c r="G6" s="204">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="185"/>
-      <c r="K6" s="185"/>
-      <c r="L6" s="185"/>
-      <c r="M6" s="185"/>
-      <c r="N6" s="185"/>
-      <c r="O6" s="185"/>
-      <c r="P6" s="185"/>
-      <c r="Q6" s="185"/>
-      <c r="R6" s="185"/>
-      <c r="S6" s="185"/>
-      <c r="T6" s="185"/>
-      <c r="U6" s="185"/>
-      <c r="V6" s="185"/>
-      <c r="W6" s="185"/>
-      <c r="X6" s="185"/>
-      <c r="Y6" s="185"/>
-      <c r="Z6" s="185"/>
-      <c r="AA6" s="185"/>
-      <c r="AB6" s="185"/>
-      <c r="AC6" s="185"/>
-      <c r="AD6" s="185"/>
-      <c r="AE6" s="185"/>
-      <c r="AF6" s="185"/>
-      <c r="AG6" s="185"/>
-      <c r="AH6" s="185"/>
-      <c r="AI6" s="185"/>
-      <c r="AJ6" s="185"/>
+      <c r="H6" s="205"/>
+      <c r="I6" s="205"/>
+      <c r="J6" s="205"/>
+      <c r="K6" s="205"/>
+      <c r="L6" s="205"/>
+      <c r="M6" s="205"/>
+      <c r="N6" s="205"/>
+      <c r="O6" s="205"/>
+      <c r="P6" s="205"/>
+      <c r="Q6" s="205"/>
+      <c r="R6" s="205"/>
+      <c r="S6" s="205"/>
+      <c r="T6" s="205"/>
+      <c r="U6" s="205"/>
+      <c r="V6" s="205"/>
+      <c r="W6" s="205"/>
+      <c r="X6" s="205"/>
+      <c r="Y6" s="205"/>
+      <c r="Z6" s="205"/>
+      <c r="AA6" s="205"/>
+      <c r="AB6" s="205"/>
+      <c r="AC6" s="205"/>
+      <c r="AD6" s="205"/>
+      <c r="AE6" s="205"/>
+      <c r="AF6" s="205"/>
+      <c r="AG6" s="205"/>
+      <c r="AH6" s="205"/>
+      <c r="AI6" s="205"/>
+      <c r="AJ6" s="205"/>
     </row>
     <row r="7" spans="1:41" ht="22.5" customHeight="1">
-      <c r="B7" s="208"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="209"/>
+      <c r="B7" s="200"/>
+      <c r="C7" s="201"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="202"/>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
@@ -6215,10 +6218,10 @@
       </c>
     </row>
     <row r="8" spans="1:41" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B8" s="208"/>
-      <c r="C8" s="210"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="209"/>
+      <c r="B8" s="200"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="202"/>
       <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
@@ -6356,16 +6359,16 @@
       </c>
     </row>
     <row r="9" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A9" s="172" t="s">
+      <c r="A9" s="211" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="212" t="s">
+      <c r="B9" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="213"/>
-      <c r="D9" s="213"/>
-      <c r="E9" s="213"/>
-      <c r="F9" s="214"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="193"/>
       <c r="G9" s="117"/>
       <c r="H9" s="118"/>
       <c r="I9" s="118"/>
@@ -6379,7 +6382,7 @@
       <c r="Q9" s="167"/>
       <c r="R9" s="167"/>
       <c r="S9" s="166"/>
-      <c r="T9" s="119"/>
+      <c r="T9" s="166"/>
       <c r="U9" s="118"/>
       <c r="V9" s="118"/>
       <c r="W9" s="119"/>
@@ -6410,14 +6413,14 @@
       </c>
     </row>
     <row r="10" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A10" s="173"/>
-      <c r="B10" s="193" t="s">
+      <c r="A10" s="212"/>
+      <c r="B10" s="224" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="185"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="186"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="205"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="207"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -6460,14 +6463,14 @@
       </c>
     </row>
     <row r="11" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A11" s="173"/>
-      <c r="B11" s="193" t="s">
+      <c r="A11" s="212"/>
+      <c r="B11" s="224" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="185"/>
-      <c r="D11" s="185"/>
-      <c r="E11" s="185"/>
-      <c r="F11" s="186"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="205"/>
+      <c r="F11" s="207"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -6510,14 +6513,14 @@
       </c>
     </row>
     <row r="12" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A12" s="173"/>
-      <c r="B12" s="193" t="s">
+      <c r="A12" s="212"/>
+      <c r="B12" s="224" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="185"/>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185"/>
-      <c r="F12" s="186"/>
+      <c r="C12" s="205"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="205"/>
+      <c r="F12" s="207"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -6562,14 +6565,14 @@
       </c>
     </row>
     <row r="13" spans="1:41" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A13" s="174"/>
-      <c r="B13" s="194" t="s">
+      <c r="A13" s="213"/>
+      <c r="B13" s="225" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="195"/>
-      <c r="D13" s="195"/>
-      <c r="E13" s="195"/>
-      <c r="F13" s="196"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="198"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="199"/>
       <c r="G13" s="28"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -6612,16 +6615,16 @@
       </c>
     </row>
     <row r="14" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A14" s="175" t="s">
+      <c r="A14" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="222" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="192"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="192"/>
+      <c r="C14" s="223"/>
+      <c r="D14" s="223"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="223"/>
       <c r="G14" s="129"/>
       <c r="H14" s="129"/>
       <c r="I14" s="130"/>
@@ -6663,14 +6666,14 @@
       </c>
     </row>
     <row r="15" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A15" s="176"/>
-      <c r="B15" s="216" t="s">
+      <c r="A15" s="215"/>
+      <c r="B15" s="185" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="217"/>
-      <c r="D15" s="217"/>
-      <c r="E15" s="217"/>
-      <c r="F15" s="217"/>
+      <c r="C15" s="186"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="29"/>
@@ -6684,7 +6687,7 @@
       <c r="Q15" s="21"/>
       <c r="R15" s="170"/>
       <c r="S15" s="21"/>
-      <c r="T15" s="13"/>
+      <c r="T15" s="21"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
@@ -6712,14 +6715,14 @@
       </c>
     </row>
     <row r="16" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A16" s="176"/>
-      <c r="B16" s="216" t="s">
+      <c r="A16" s="215"/>
+      <c r="B16" s="185" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="217"/>
-      <c r="D16" s="217"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="217"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="29"/>
@@ -6733,7 +6736,7 @@
       <c r="Q16" s="21"/>
       <c r="R16" s="170"/>
       <c r="S16" s="21"/>
-      <c r="T16" s="13"/>
+      <c r="T16" s="21"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="13"/>
@@ -6759,14 +6762,14 @@
       </c>
     </row>
     <row r="17" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A17" s="176"/>
-      <c r="B17" s="218" t="s">
+      <c r="A17" s="215"/>
+      <c r="B17" s="187" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="219"/>
-      <c r="D17" s="219"/>
-      <c r="E17" s="219"/>
-      <c r="F17" s="219"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="29"/>
@@ -6780,7 +6783,7 @@
       <c r="Q17" s="21"/>
       <c r="R17" s="170"/>
       <c r="S17" s="21"/>
-      <c r="T17" s="13"/>
+      <c r="T17" s="21"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="13"/>
@@ -6808,14 +6811,14 @@
       </c>
     </row>
     <row r="18" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A18" s="176"/>
-      <c r="B18" s="218" t="s">
+      <c r="A18" s="215"/>
+      <c r="B18" s="187" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="219"/>
-      <c r="D18" s="219"/>
-      <c r="E18" s="219"/>
-      <c r="F18" s="219"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="188"/>
+      <c r="F18" s="188"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="30"/>
@@ -6829,7 +6832,7 @@
       <c r="Q18" s="21"/>
       <c r="R18" s="170"/>
       <c r="S18" s="21"/>
-      <c r="T18" s="13"/>
+      <c r="T18" s="21"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="13"/>
@@ -6857,14 +6860,14 @@
       </c>
     </row>
     <row r="19" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A19" s="177"/>
-      <c r="B19" s="220" t="s">
+      <c r="A19" s="216"/>
+      <c r="B19" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="221"/>
-      <c r="D19" s="221"/>
-      <c r="E19" s="221"/>
-      <c r="F19" s="221"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
       <c r="G19" s="132"/>
       <c r="H19" s="132"/>
       <c r="I19" s="133"/>
@@ -6906,16 +6909,16 @@
       </c>
     </row>
     <row r="20" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A20" s="178" t="s">
+      <c r="A20" s="217" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="222" t="s">
+      <c r="B20" s="191" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="213"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="214"/>
+      <c r="C20" s="192"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="193"/>
       <c r="G20" s="118"/>
       <c r="H20" s="118"/>
       <c r="I20" s="118"/>
@@ -6929,7 +6932,7 @@
       <c r="Q20" s="118"/>
       <c r="R20" s="118"/>
       <c r="S20" s="118"/>
-      <c r="T20" s="119"/>
+      <c r="T20" s="169"/>
       <c r="U20" s="118"/>
       <c r="V20" s="118"/>
       <c r="W20" s="119"/>
@@ -6957,14 +6960,14 @@
       </c>
     </row>
     <row r="21" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A21" s="179"/>
-      <c r="B21" s="197" t="s">
+      <c r="A21" s="218"/>
+      <c r="B21" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="198"/>
-      <c r="D21" s="198"/>
-      <c r="E21" s="198"/>
-      <c r="F21" s="199"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="177"/>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -7004,14 +7007,14 @@
       </c>
     </row>
     <row r="22" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A22" s="179"/>
-      <c r="B22" s="200" t="s">
+      <c r="A22" s="218"/>
+      <c r="B22" s="172" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="200"/>
-      <c r="D22" s="200"/>
-      <c r="E22" s="200"/>
-      <c r="F22" s="201"/>
+      <c r="C22" s="172"/>
+      <c r="D22" s="172"/>
+      <c r="E22" s="172"/>
+      <c r="F22" s="194"/>
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -7053,14 +7056,14 @@
       </c>
     </row>
     <row r="23" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A23" s="179"/>
-      <c r="B23" s="200" t="s">
+      <c r="A23" s="218"/>
+      <c r="B23" s="172" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="200"/>
-      <c r="D23" s="200"/>
-      <c r="E23" s="200"/>
-      <c r="F23" s="201"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="194"/>
       <c r="G23" s="10"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -7074,7 +7077,7 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
-      <c r="T23" s="13"/>
+      <c r="T23" s="31"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="13"/>
@@ -7102,14 +7105,14 @@
       </c>
     </row>
     <row r="24" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A24" s="179"/>
-      <c r="B24" s="200" t="s">
+      <c r="A24" s="218"/>
+      <c r="B24" s="172" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="200"/>
-      <c r="D24" s="200"/>
-      <c r="E24" s="200"/>
-      <c r="F24" s="201"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="194"/>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -7123,7 +7126,7 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="11"/>
-      <c r="T24" s="13"/>
+      <c r="T24" s="170"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="13"/>
@@ -7149,14 +7152,14 @@
       </c>
     </row>
     <row r="25" spans="1:39" ht="22.2" customHeight="1">
-      <c r="A25" s="179"/>
-      <c r="B25" s="202" t="s">
+      <c r="A25" s="218"/>
+      <c r="B25" s="226" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="203"/>
-      <c r="D25" s="203"/>
-      <c r="E25" s="203"/>
-      <c r="F25" s="204"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="174"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -7170,7 +7173,7 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="11"/>
-      <c r="T25" s="13"/>
+      <c r="T25" s="21"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="13"/>
@@ -7196,14 +7199,14 @@
       </c>
     </row>
     <row r="26" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A26" s="179"/>
-      <c r="B26" s="200" t="s">
+      <c r="A26" s="218"/>
+      <c r="B26" s="172" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="203"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="203"/>
-      <c r="F26" s="204"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="173"/>
+      <c r="F26" s="174"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -7217,7 +7220,7 @@
       <c r="Q26" s="111"/>
       <c r="R26" s="111"/>
       <c r="S26" s="107"/>
-      <c r="T26" s="13"/>
+      <c r="T26" s="31"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="13"/>
@@ -7243,14 +7246,14 @@
       </c>
     </row>
     <row r="27" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A27" s="179"/>
-      <c r="B27" s="200" t="s">
+      <c r="A27" s="218"/>
+      <c r="B27" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="203"/>
-      <c r="D27" s="203"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="204"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
+      <c r="E27" s="173"/>
+      <c r="F27" s="174"/>
       <c r="G27" s="10"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -7264,7 +7267,7 @@
       <c r="Q27" s="111"/>
       <c r="R27" s="111"/>
       <c r="S27" s="107"/>
-      <c r="T27" s="13"/>
+      <c r="T27" s="31"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="13"/>
@@ -7290,14 +7293,14 @@
       </c>
     </row>
     <row r="28" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A28" s="179"/>
-      <c r="B28" s="200" t="s">
+      <c r="A28" s="218"/>
+      <c r="B28" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="203"/>
-      <c r="D28" s="203"/>
-      <c r="E28" s="203"/>
-      <c r="F28" s="204"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="173"/>
+      <c r="E28" s="173"/>
+      <c r="F28" s="174"/>
       <c r="G28" s="10"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -7337,14 +7340,14 @@
       </c>
     </row>
     <row r="29" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A29" s="179"/>
-      <c r="B29" s="197" t="s">
+      <c r="A29" s="218"/>
+      <c r="B29" s="175" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="198"/>
-      <c r="D29" s="198"/>
-      <c r="E29" s="198"/>
-      <c r="F29" s="199"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="177"/>
       <c r="G29" s="10"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7384,14 +7387,14 @@
       </c>
     </row>
     <row r="30" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A30" s="179"/>
-      <c r="B30" s="197" t="s">
+      <c r="A30" s="218"/>
+      <c r="B30" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="198"/>
-      <c r="D30" s="198"/>
-      <c r="E30" s="198"/>
-      <c r="F30" s="199"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="177"/>
       <c r="G30" s="10"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -7431,14 +7434,14 @@
       </c>
     </row>
     <row r="31" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A31" s="179"/>
-      <c r="B31" s="200" t="s">
+      <c r="A31" s="218"/>
+      <c r="B31" s="172" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="203"/>
-      <c r="D31" s="203"/>
-      <c r="E31" s="203"/>
-      <c r="F31" s="204"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="173"/>
+      <c r="E31" s="173"/>
+      <c r="F31" s="174"/>
       <c r="G31" s="10"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -7452,7 +7455,7 @@
       <c r="Q31" s="111"/>
       <c r="R31" s="111"/>
       <c r="S31" s="107"/>
-      <c r="T31" s="13"/>
+      <c r="T31" s="31"/>
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
       <c r="W31" s="13"/>
@@ -7478,14 +7481,14 @@
       </c>
     </row>
     <row r="32" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A32" s="179"/>
-      <c r="B32" s="197" t="s">
+      <c r="A32" s="218"/>
+      <c r="B32" s="175" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="198"/>
-      <c r="D32" s="198"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="199"/>
+      <c r="C32" s="176"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="177"/>
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -7499,7 +7502,7 @@
       <c r="Q32" s="111"/>
       <c r="R32" s="111"/>
       <c r="S32" s="107"/>
-      <c r="T32" s="13"/>
+      <c r="T32" s="21"/>
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
       <c r="W32" s="13"/>
@@ -7525,14 +7528,14 @@
       </c>
     </row>
     <row r="33" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A33" s="179"/>
-      <c r="B33" s="197" t="s">
+      <c r="A33" s="218"/>
+      <c r="B33" s="175" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="198"/>
-      <c r="D33" s="198"/>
-      <c r="E33" s="198"/>
-      <c r="F33" s="199"/>
+      <c r="C33" s="176"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="177"/>
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -7546,7 +7549,7 @@
       <c r="Q33" s="111"/>
       <c r="R33" s="111"/>
       <c r="S33" s="107"/>
-      <c r="T33" s="13"/>
+      <c r="T33" s="170"/>
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
       <c r="W33" s="13"/>
@@ -7572,14 +7575,14 @@
       </c>
     </row>
     <row r="34" spans="1:39" ht="22.2" customHeight="1">
-      <c r="A34" s="179"/>
-      <c r="B34" s="197" t="s">
+      <c r="A34" s="218"/>
+      <c r="B34" s="175" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="198"/>
-      <c r="D34" s="198"/>
-      <c r="E34" s="198"/>
-      <c r="F34" s="199"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="177"/>
       <c r="G34" s="10"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -7593,7 +7596,7 @@
       <c r="Q34" s="111"/>
       <c r="R34" s="111"/>
       <c r="S34" s="107"/>
-      <c r="T34" s="13"/>
+      <c r="T34" s="31"/>
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
       <c r="W34" s="13"/>
@@ -7619,14 +7622,14 @@
       </c>
     </row>
     <row r="35" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A35" s="180"/>
-      <c r="B35" s="188" t="s">
+      <c r="A35" s="219"/>
+      <c r="B35" s="182" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="189"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="190"/>
+      <c r="C35" s="183"/>
+      <c r="D35" s="183"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="184"/>
       <c r="G35" s="28"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -7640,7 +7643,7 @@
       <c r="Q35" s="168"/>
       <c r="R35" s="168"/>
       <c r="S35" s="109"/>
-      <c r="T35" s="26"/>
+      <c r="T35" s="328"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
       <c r="W35" s="26"/>
@@ -7666,14 +7669,14 @@
       </c>
     </row>
     <row r="36" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A36" s="181"/>
-      <c r="B36" s="188" t="s">
+      <c r="A36" s="220"/>
+      <c r="B36" s="182" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="189"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="190"/>
+      <c r="C36" s="183"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="183"/>
+      <c r="F36" s="184"/>
       <c r="G36" s="123"/>
       <c r="H36" s="124"/>
       <c r="I36" s="124"/>
@@ -7716,13 +7719,13 @@
       <c r="A37" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="224" t="s">
+      <c r="B37" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="225"/>
-      <c r="D37" s="225"/>
-      <c r="E37" s="225"/>
-      <c r="F37" s="226"/>
+      <c r="C37" s="180"/>
+      <c r="D37" s="180"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="181"/>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -7841,12 +7844,12 @@
     <row r="40" spans="1:39" ht="22.5" customHeight="1">
       <c r="A40" s="17"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="223" t="s">
+      <c r="C40" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="223"/>
-      <c r="E40" s="223"/>
-      <c r="F40" s="223"/>
+      <c r="D40" s="178"/>
+      <c r="E40" s="178"/>
+      <c r="F40" s="178"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -7881,12 +7884,12 @@
     <row r="41" spans="1:39" ht="22.5" customHeight="1">
       <c r="A41" s="171"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="223" t="s">
+      <c r="C41" s="178" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="223"/>
-      <c r="E41" s="223"/>
-      <c r="F41" s="223"/>
+      <c r="D41" s="178"/>
+      <c r="E41" s="178"/>
+      <c r="F41" s="178"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -7921,12 +7924,12 @@
     <row r="42" spans="1:39" ht="22.5" customHeight="1">
       <c r="A42" s="18"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="223" t="s">
+      <c r="C42" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="223"/>
-      <c r="E42" s="223"/>
-      <c r="F42" s="223"/>
+      <c r="D42" s="178"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="178"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -7961,12 +7964,12 @@
     <row r="43" spans="1:39" ht="22.5" customHeight="1">
       <c r="A43" s="19"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="223" t="s">
+      <c r="C43" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="223"/>
-      <c r="E43" s="223"/>
-      <c r="F43" s="223"/>
+      <c r="D43" s="178"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="178"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -8001,12 +8004,12 @@
     <row r="44" spans="1:39" ht="22.5" customHeight="1">
       <c r="A44" s="20"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="223" t="s">
+      <c r="C44" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="223"/>
-      <c r="E44" s="223"/>
-      <c r="F44" s="223"/>
+      <c r="D44" s="178"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="178"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -8041,12 +8044,12 @@
     <row r="45" spans="1:39" ht="22.5" customHeight="1">
       <c r="A45" s="75"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="223" t="s">
+      <c r="C45" s="178" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="223"/>
-      <c r="E45" s="223"/>
-      <c r="F45" s="223"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="178"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -43896,40 +43899,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="AG4:AJ4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AJ6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A20:A36"/>
@@ -43946,6 +43915,40 @@
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B23:F23"/>
     <mergeCell ref="B25:F25"/>
+    <mergeCell ref="AG4:AJ4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AJ6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="C41:F41"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7:AJ8">
@@ -43979,85 +43982,85 @@
       <c r="B2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="233" t="s">
+      <c r="G2" s="299" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="234"/>
-      <c r="I2" s="240" t="s">
+      <c r="H2" s="300"/>
+      <c r="I2" s="289" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="235"/>
-      <c r="L2" s="233" t="s">
+      <c r="J2" s="244"/>
+      <c r="L2" s="299" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="234"/>
-      <c r="N2" s="240" t="s">
+      <c r="M2" s="300"/>
+      <c r="N2" s="289" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="235"/>
-      <c r="Q2" s="233" t="s">
+      <c r="O2" s="244"/>
+      <c r="Q2" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="234"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="235"/>
-      <c r="V2" s="233" t="s">
+      <c r="R2" s="300"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="244"/>
+      <c r="V2" s="299" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="234"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="235"/>
+      <c r="W2" s="300"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="244"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="D4" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="236" t="s">
+      <c r="E4" s="301" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="237"/>
-      <c r="G4" s="238" t="s">
+      <c r="F4" s="264"/>
+      <c r="G4" s="231" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="239"/>
-      <c r="I4" s="236" t="s">
+      <c r="H4" s="302"/>
+      <c r="I4" s="301" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="237"/>
-      <c r="K4" s="238" t="s">
+      <c r="J4" s="264"/>
+      <c r="K4" s="231" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="239"/>
-      <c r="M4" s="236" t="s">
+      <c r="L4" s="302"/>
+      <c r="M4" s="301" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="237"/>
+      <c r="N4" s="264"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D5" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="227">
+      <c r="E5" s="296">
         <v>3</v>
       </c>
-      <c r="F5" s="228"/>
-      <c r="G5" s="229">
+      <c r="F5" s="245"/>
+      <c r="G5" s="280">
         <v>4</v>
       </c>
-      <c r="H5" s="230"/>
-      <c r="I5" s="227">
+      <c r="H5" s="297"/>
+      <c r="I5" s="296">
         <v>5</v>
       </c>
-      <c r="J5" s="228"/>
-      <c r="K5" s="229">
+      <c r="J5" s="245"/>
+      <c r="K5" s="280">
         <v>6</v>
       </c>
-      <c r="L5" s="230"/>
-      <c r="M5" s="227">
+      <c r="L5" s="297"/>
+      <c r="M5" s="296">
         <v>7</v>
       </c>
-      <c r="N5" s="228"/>
+      <c r="N5" s="245"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D6" s="78" t="s">
@@ -44093,28 +44096,28 @@
       <c r="N6" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="231" t="s">
+      <c r="O6" s="298" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="232"/>
-      <c r="Q6" s="241" t="s">
+      <c r="P6" s="239"/>
+      <c r="Q6" s="303" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="232"/>
-      <c r="S6" s="241" t="s">
+      <c r="R6" s="239"/>
+      <c r="S6" s="303" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="242"/>
+      <c r="T6" s="240"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="243" t="s">
+      <c r="A7" s="281" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="246" t="s">
+      <c r="B7" s="271" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="247"/>
-      <c r="D7" s="248"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="285"/>
       <c r="E7" s="80"/>
       <c r="F7" s="81"/>
       <c r="G7" s="63"/>
@@ -44125,22 +44128,22 @@
       <c r="L7" s="55"/>
       <c r="M7" s="93"/>
       <c r="N7" s="43"/>
-      <c r="O7" s="249" t="s">
+      <c r="O7" s="286" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="250"/>
-      <c r="Q7" s="250"/>
-      <c r="R7" s="250"/>
-      <c r="S7" s="250"/>
-      <c r="T7" s="251"/>
+      <c r="P7" s="287"/>
+      <c r="Q7" s="287"/>
+      <c r="R7" s="287"/>
+      <c r="S7" s="287"/>
+      <c r="T7" s="288"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="244"/>
-      <c r="B8" s="252" t="s">
+      <c r="A8" s="282"/>
+      <c r="B8" s="246" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="253"/>
-      <c r="D8" s="254"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="248"/>
       <c r="E8" s="82"/>
       <c r="F8" s="83"/>
       <c r="G8" s="65"/>
@@ -44151,22 +44154,22 @@
       <c r="L8" s="56"/>
       <c r="M8" s="37"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="240" t="s">
+      <c r="O8" s="289" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="235"/>
-      <c r="Q8" s="235"/>
-      <c r="R8" s="235"/>
-      <c r="S8" s="235"/>
-      <c r="T8" s="228"/>
+      <c r="P8" s="244"/>
+      <c r="Q8" s="244"/>
+      <c r="R8" s="244"/>
+      <c r="S8" s="244"/>
+      <c r="T8" s="245"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="244"/>
-      <c r="B9" s="252" t="s">
+      <c r="A9" s="282"/>
+      <c r="B9" s="246" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="253"/>
-      <c r="D9" s="254"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="248"/>
       <c r="E9" s="82"/>
       <c r="F9" s="84"/>
       <c r="G9" s="65"/>
@@ -44177,24 +44180,24 @@
       <c r="L9" s="56"/>
       <c r="M9" s="37"/>
       <c r="N9" s="38"/>
-      <c r="O9" s="255" t="s">
+      <c r="O9" s="276" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="235"/>
-      <c r="Q9" s="240" t="s">
+      <c r="P9" s="244"/>
+      <c r="Q9" s="289" t="s">
         <v>70</v>
       </c>
-      <c r="R9" s="235"/>
-      <c r="S9" s="235"/>
-      <c r="T9" s="228"/>
+      <c r="R9" s="244"/>
+      <c r="S9" s="244"/>
+      <c r="T9" s="245"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="244"/>
-      <c r="B10" s="252" t="s">
+      <c r="A10" s="282"/>
+      <c r="B10" s="246" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="253"/>
-      <c r="D10" s="254"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="248"/>
       <c r="E10" s="82"/>
       <c r="F10" s="83"/>
       <c r="G10" s="65"/>
@@ -44205,20 +44208,20 @@
       <c r="L10" s="56"/>
       <c r="M10" s="37"/>
       <c r="N10" s="38"/>
-      <c r="O10" s="229"/>
-      <c r="P10" s="235"/>
-      <c r="Q10" s="235"/>
-      <c r="R10" s="235"/>
-      <c r="S10" s="235"/>
-      <c r="T10" s="228"/>
+      <c r="O10" s="280"/>
+      <c r="P10" s="244"/>
+      <c r="Q10" s="244"/>
+      <c r="R10" s="244"/>
+      <c r="S10" s="244"/>
+      <c r="T10" s="245"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="245"/>
-      <c r="B11" s="256" t="s">
+      <c r="A11" s="283"/>
+      <c r="B11" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="257"/>
-      <c r="D11" s="258"/>
+      <c r="C11" s="291"/>
+      <c r="D11" s="292"/>
       <c r="E11" s="85"/>
       <c r="F11" s="86"/>
       <c r="G11" s="67"/>
@@ -44229,22 +44232,22 @@
       <c r="L11" s="57"/>
       <c r="M11" s="94"/>
       <c r="N11" s="51"/>
-      <c r="O11" s="259"/>
-      <c r="P11" s="260"/>
-      <c r="Q11" s="260"/>
-      <c r="R11" s="260"/>
-      <c r="S11" s="260"/>
-      <c r="T11" s="261"/>
+      <c r="O11" s="293"/>
+      <c r="P11" s="294"/>
+      <c r="Q11" s="294"/>
+      <c r="R11" s="294"/>
+      <c r="S11" s="294"/>
+      <c r="T11" s="295"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="262" t="s">
+      <c r="A12" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="259" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="266"/>
-      <c r="D12" s="267"/>
+      <c r="C12" s="260"/>
+      <c r="D12" s="261"/>
       <c r="E12" s="87"/>
       <c r="F12" s="88"/>
       <c r="G12" s="69"/>
@@ -44255,22 +44258,22 @@
       <c r="L12" s="58"/>
       <c r="M12" s="35"/>
       <c r="N12" s="106"/>
-      <c r="O12" s="268" t="s">
+      <c r="O12" s="262" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="269"/>
-      <c r="Q12" s="270"/>
-      <c r="R12" s="270"/>
-      <c r="S12" s="270"/>
-      <c r="T12" s="237"/>
+      <c r="P12" s="263"/>
+      <c r="Q12" s="232"/>
+      <c r="R12" s="232"/>
+      <c r="S12" s="232"/>
+      <c r="T12" s="264"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="263"/>
-      <c r="B13" s="271" t="s">
+      <c r="A13" s="257"/>
+      <c r="B13" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="272"/>
-      <c r="D13" s="273"/>
+      <c r="C13" s="266"/>
+      <c r="D13" s="267"/>
       <c r="E13" s="82"/>
       <c r="F13" s="83"/>
       <c r="G13" s="65"/>
@@ -44281,22 +44284,22 @@
       <c r="L13" s="104"/>
       <c r="M13" s="99"/>
       <c r="N13" s="99"/>
-      <c r="O13" s="255" t="s">
+      <c r="O13" s="276" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="235"/>
-      <c r="R13" s="235"/>
-      <c r="S13" s="235"/>
-      <c r="T13" s="228"/>
+      <c r="P13" s="244"/>
+      <c r="Q13" s="244"/>
+      <c r="R13" s="244"/>
+      <c r="S13" s="244"/>
+      <c r="T13" s="245"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="263"/>
-      <c r="B14" s="271" t="s">
+      <c r="A14" s="257"/>
+      <c r="B14" s="265" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="282"/>
-      <c r="D14" s="283"/>
+      <c r="C14" s="277"/>
+      <c r="D14" s="278"/>
       <c r="E14" s="82"/>
       <c r="F14" s="83"/>
       <c r="G14" s="65"/>
@@ -44307,22 +44310,22 @@
       <c r="L14" s="104"/>
       <c r="M14" s="99"/>
       <c r="N14" s="99"/>
-      <c r="O14" s="284" t="s">
+      <c r="O14" s="279" t="s">
         <v>72</v>
       </c>
-      <c r="P14" s="229"/>
-      <c r="Q14" s="235"/>
-      <c r="R14" s="235"/>
-      <c r="S14" s="235"/>
-      <c r="T14" s="228"/>
+      <c r="P14" s="280"/>
+      <c r="Q14" s="244"/>
+      <c r="R14" s="244"/>
+      <c r="S14" s="244"/>
+      <c r="T14" s="245"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="264"/>
-      <c r="B15" s="285" t="s">
+      <c r="A15" s="258"/>
+      <c r="B15" s="251" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="286"/>
-      <c r="D15" s="287"/>
+      <c r="C15" s="252"/>
+      <c r="D15" s="253"/>
       <c r="E15" s="89"/>
       <c r="F15" s="90"/>
       <c r="G15" s="71"/>
@@ -44333,24 +44336,24 @@
       <c r="L15" s="105"/>
       <c r="M15" s="102"/>
       <c r="N15" s="102"/>
-      <c r="O15" s="288" t="s">
+      <c r="O15" s="254" t="s">
         <v>71</v>
       </c>
-      <c r="P15" s="289"/>
-      <c r="Q15" s="290"/>
-      <c r="R15" s="289"/>
-      <c r="S15" s="289"/>
-      <c r="T15" s="291"/>
+      <c r="P15" s="233"/>
+      <c r="Q15" s="255"/>
+      <c r="R15" s="233"/>
+      <c r="S15" s="233"/>
+      <c r="T15" s="234"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A16" s="274" t="s">
+      <c r="A16" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="246" t="s">
+      <c r="B16" s="271" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="277"/>
-      <c r="D16" s="278"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="273"/>
       <c r="E16" s="87"/>
       <c r="F16" s="88"/>
       <c r="G16" s="69"/>
@@ -44361,22 +44364,22 @@
       <c r="L16" s="58"/>
       <c r="M16" s="35"/>
       <c r="N16" s="53"/>
-      <c r="O16" s="238" t="s">
+      <c r="O16" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P16" s="270"/>
-      <c r="Q16" s="238"/>
-      <c r="R16" s="270"/>
-      <c r="S16" s="270"/>
-      <c r="T16" s="237"/>
+      <c r="P16" s="232"/>
+      <c r="Q16" s="231"/>
+      <c r="R16" s="232"/>
+      <c r="S16" s="232"/>
+      <c r="T16" s="264"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A17" s="275"/>
-      <c r="B17" s="279" t="s">
+      <c r="A17" s="269"/>
+      <c r="B17" s="241" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="280"/>
-      <c r="D17" s="281"/>
+      <c r="C17" s="274"/>
+      <c r="D17" s="275"/>
       <c r="E17" s="82"/>
       <c r="F17" s="83"/>
       <c r="G17" s="65"/>
@@ -44387,22 +44390,22 @@
       <c r="L17" s="56"/>
       <c r="M17" s="37"/>
       <c r="N17" s="38"/>
-      <c r="O17" s="238" t="s">
+      <c r="O17" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P17" s="270"/>
-      <c r="Q17" s="238"/>
-      <c r="R17" s="270"/>
-      <c r="S17" s="235"/>
-      <c r="T17" s="228"/>
+      <c r="P17" s="232"/>
+      <c r="Q17" s="231"/>
+      <c r="R17" s="232"/>
+      <c r="S17" s="244"/>
+      <c r="T17" s="245"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A18" s="275"/>
-      <c r="B18" s="279" t="s">
+      <c r="A18" s="269"/>
+      <c r="B18" s="241" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="280"/>
-      <c r="D18" s="281"/>
+      <c r="C18" s="274"/>
+      <c r="D18" s="275"/>
       <c r="E18" s="82"/>
       <c r="F18" s="83"/>
       <c r="G18" s="65"/>
@@ -44413,22 +44416,22 @@
       <c r="L18" s="56"/>
       <c r="M18" s="37"/>
       <c r="N18" s="38"/>
-      <c r="O18" s="238" t="s">
+      <c r="O18" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="270"/>
-      <c r="Q18" s="238"/>
-      <c r="R18" s="270"/>
-      <c r="S18" s="235"/>
-      <c r="T18" s="228"/>
+      <c r="P18" s="232"/>
+      <c r="Q18" s="231"/>
+      <c r="R18" s="232"/>
+      <c r="S18" s="244"/>
+      <c r="T18" s="245"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A19" s="275"/>
-      <c r="B19" s="252" t="s">
+      <c r="A19" s="269"/>
+      <c r="B19" s="246" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="292"/>
-      <c r="D19" s="293"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="250"/>
       <c r="E19" s="82"/>
       <c r="F19" s="83"/>
       <c r="G19" s="65"/>
@@ -44439,22 +44442,22 @@
       <c r="L19" s="56"/>
       <c r="M19" s="37"/>
       <c r="N19" s="38"/>
-      <c r="O19" s="238" t="s">
+      <c r="O19" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="270"/>
-      <c r="Q19" s="238"/>
-      <c r="R19" s="270"/>
-      <c r="S19" s="235"/>
-      <c r="T19" s="228"/>
+      <c r="P19" s="232"/>
+      <c r="Q19" s="231"/>
+      <c r="R19" s="232"/>
+      <c r="S19" s="244"/>
+      <c r="T19" s="245"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="275"/>
-      <c r="B20" s="252" t="s">
+      <c r="A20" s="269"/>
+      <c r="B20" s="246" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="292"/>
-      <c r="D20" s="293"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="250"/>
       <c r="E20" s="82"/>
       <c r="F20" s="83"/>
       <c r="G20" s="65"/>
@@ -44465,22 +44468,22 @@
       <c r="L20" s="56"/>
       <c r="M20" s="37"/>
       <c r="N20" s="38"/>
-      <c r="O20" s="238" t="s">
+      <c r="O20" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P20" s="270"/>
-      <c r="Q20" s="238"/>
-      <c r="R20" s="270"/>
-      <c r="S20" s="235"/>
-      <c r="T20" s="228"/>
+      <c r="P20" s="232"/>
+      <c r="Q20" s="231"/>
+      <c r="R20" s="232"/>
+      <c r="S20" s="244"/>
+      <c r="T20" s="245"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="275"/>
-      <c r="B21" s="252" t="s">
+      <c r="A21" s="269"/>
+      <c r="B21" s="246" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="292"/>
-      <c r="D21" s="293"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="250"/>
       <c r="E21" s="82"/>
       <c r="F21" s="83"/>
       <c r="G21" s="65"/>
@@ -44491,22 +44494,22 @@
       <c r="L21" s="56"/>
       <c r="M21" s="37"/>
       <c r="N21" s="38"/>
-      <c r="O21" s="238" t="s">
+      <c r="O21" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P21" s="270"/>
-      <c r="Q21" s="238"/>
-      <c r="R21" s="270"/>
-      <c r="S21" s="235"/>
-      <c r="T21" s="228"/>
+      <c r="P21" s="232"/>
+      <c r="Q21" s="231"/>
+      <c r="R21" s="232"/>
+      <c r="S21" s="244"/>
+      <c r="T21" s="245"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="275"/>
-      <c r="B22" s="252" t="s">
+      <c r="A22" s="269"/>
+      <c r="B22" s="246" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="292"/>
-      <c r="D22" s="293"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="250"/>
       <c r="E22" s="82"/>
       <c r="F22" s="83"/>
       <c r="G22" s="65"/>
@@ -44517,22 +44520,22 @@
       <c r="L22" s="56"/>
       <c r="M22" s="37"/>
       <c r="N22" s="38"/>
-      <c r="O22" s="238" t="s">
+      <c r="O22" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P22" s="270"/>
-      <c r="Q22" s="238"/>
-      <c r="R22" s="270"/>
-      <c r="S22" s="235"/>
-      <c r="T22" s="228"/>
+      <c r="P22" s="232"/>
+      <c r="Q22" s="231"/>
+      <c r="R22" s="232"/>
+      <c r="S22" s="244"/>
+      <c r="T22" s="245"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A23" s="275"/>
-      <c r="B23" s="252" t="s">
+      <c r="A23" s="269"/>
+      <c r="B23" s="246" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="253"/>
-      <c r="D23" s="254"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="248"/>
       <c r="E23" s="82"/>
       <c r="F23" s="83"/>
       <c r="G23" s="65"/>
@@ -44543,22 +44546,22 @@
       <c r="L23" s="56"/>
       <c r="M23" s="37"/>
       <c r="N23" s="38"/>
-      <c r="O23" s="238" t="s">
+      <c r="O23" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P23" s="270"/>
-      <c r="Q23" s="238"/>
-      <c r="R23" s="270"/>
-      <c r="S23" s="235"/>
-      <c r="T23" s="228"/>
+      <c r="P23" s="232"/>
+      <c r="Q23" s="231"/>
+      <c r="R23" s="232"/>
+      <c r="S23" s="244"/>
+      <c r="T23" s="245"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A24" s="275"/>
-      <c r="B24" s="279" t="s">
+      <c r="A24" s="269"/>
+      <c r="B24" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="294"/>
-      <c r="D24" s="295"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="243"/>
       <c r="E24" s="82"/>
       <c r="F24" s="83"/>
       <c r="G24" s="65"/>
@@ -44569,22 +44572,22 @@
       <c r="L24" s="56"/>
       <c r="M24" s="37"/>
       <c r="N24" s="38"/>
-      <c r="O24" s="238" t="s">
+      <c r="O24" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P24" s="270"/>
-      <c r="Q24" s="238"/>
-      <c r="R24" s="270"/>
-      <c r="S24" s="235"/>
-      <c r="T24" s="228"/>
+      <c r="P24" s="232"/>
+      <c r="Q24" s="231"/>
+      <c r="R24" s="232"/>
+      <c r="S24" s="244"/>
+      <c r="T24" s="245"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A25" s="275"/>
-      <c r="B25" s="279" t="s">
+      <c r="A25" s="269"/>
+      <c r="B25" s="241" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="295"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="243"/>
       <c r="E25" s="82"/>
       <c r="F25" s="83"/>
       <c r="G25" s="65"/>
@@ -44595,22 +44598,22 @@
       <c r="L25" s="56"/>
       <c r="M25" s="37"/>
       <c r="N25" s="38"/>
-      <c r="O25" s="238" t="s">
+      <c r="O25" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P25" s="270"/>
-      <c r="Q25" s="238"/>
-      <c r="R25" s="270"/>
-      <c r="S25" s="235"/>
-      <c r="T25" s="228"/>
+      <c r="P25" s="232"/>
+      <c r="Q25" s="231"/>
+      <c r="R25" s="232"/>
+      <c r="S25" s="244"/>
+      <c r="T25" s="245"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A26" s="275"/>
-      <c r="B26" s="279" t="s">
+      <c r="A26" s="269"/>
+      <c r="B26" s="241" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="295"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="243"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="65"/>
@@ -44621,22 +44624,22 @@
       <c r="L26" s="56"/>
       <c r="M26" s="37"/>
       <c r="N26" s="38"/>
-      <c r="O26" s="238" t="s">
+      <c r="O26" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="270"/>
-      <c r="Q26" s="238"/>
-      <c r="R26" s="270"/>
-      <c r="S26" s="235"/>
-      <c r="T26" s="228"/>
+      <c r="P26" s="232"/>
+      <c r="Q26" s="231"/>
+      <c r="R26" s="232"/>
+      <c r="S26" s="244"/>
+      <c r="T26" s="245"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="276"/>
-      <c r="B27" s="297" t="s">
+      <c r="A27" s="270"/>
+      <c r="B27" s="228" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="298"/>
-      <c r="D27" s="299"/>
+      <c r="C27" s="229"/>
+      <c r="D27" s="230"/>
       <c r="E27" s="89"/>
       <c r="F27" s="90"/>
       <c r="G27" s="71"/>
@@ -44647,24 +44650,24 @@
       <c r="L27" s="59"/>
       <c r="M27" s="95"/>
       <c r="N27" s="41"/>
-      <c r="O27" s="238" t="s">
+      <c r="O27" s="231" t="s">
         <v>68</v>
       </c>
-      <c r="P27" s="270"/>
-      <c r="Q27" s="238"/>
-      <c r="R27" s="270"/>
-      <c r="S27" s="289"/>
-      <c r="T27" s="291"/>
+      <c r="P27" s="232"/>
+      <c r="Q27" s="231"/>
+      <c r="R27" s="232"/>
+      <c r="S27" s="233"/>
+      <c r="T27" s="234"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="300" t="s">
+      <c r="B28" s="235" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="301"/>
-      <c r="D28" s="302"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="237"/>
       <c r="E28" s="91"/>
       <c r="F28" s="92"/>
       <c r="G28" s="73"/>
@@ -44675,17 +44678,17 @@
       <c r="L28" s="62"/>
       <c r="M28" s="96"/>
       <c r="N28" s="97"/>
-      <c r="O28" s="303"/>
-      <c r="P28" s="232"/>
-      <c r="Q28" s="232"/>
-      <c r="R28" s="232"/>
-      <c r="S28" s="232"/>
-      <c r="T28" s="242"/>
+      <c r="O28" s="238"/>
+      <c r="P28" s="239"/>
+      <c r="Q28" s="239"/>
+      <c r="R28" s="239"/>
+      <c r="S28" s="239"/>
+      <c r="T28" s="240"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="296"/>
-      <c r="C29" s="296"/>
-      <c r="D29" s="296"/>
+      <c r="B29" s="227"/>
+      <c r="C29" s="227"/>
+      <c r="D29" s="227"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="16" t="s">
@@ -44699,147 +44702,130 @@
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="223" t="s">
+      <c r="B31" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="223"/>
+      <c r="C31" s="178"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="223" t="s">
+      <c r="B32" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="223"/>
+      <c r="C32" s="178"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1">
       <c r="A33" s="19"/>
-      <c r="B33" s="223" t="s">
+      <c r="B33" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="223"/>
+      <c r="C33" s="178"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="223" t="s">
+      <c r="B34" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="223"/>
+      <c r="C34" s="178"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="223" t="s">
+      <c r="B35" s="178" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="223"/>
+      <c r="C35" s="178"/>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1">
-      <c r="B36" s="296"/>
-      <c r="C36" s="296"/>
-      <c r="D36" s="296"/>
+      <c r="B36" s="227"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="227"/>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1">
-      <c r="B37" s="296"/>
-      <c r="C37" s="296"/>
-      <c r="D37" s="296"/>
+      <c r="B37" s="227"/>
+      <c r="C37" s="227"/>
+      <c r="D37" s="227"/>
     </row>
     <row r="38" spans="1:6" ht="18" customHeight="1">
-      <c r="B38" s="296"/>
-      <c r="C38" s="296"/>
-      <c r="D38" s="296"/>
+      <c r="B38" s="227"/>
+      <c r="C38" s="227"/>
+      <c r="D38" s="227"/>
     </row>
     <row r="39" spans="1:6" ht="18" customHeight="1">
-      <c r="B39" s="296"/>
-      <c r="C39" s="296"/>
-      <c r="D39" s="296"/>
+      <c r="B39" s="227"/>
+      <c r="C39" s="227"/>
+      <c r="D39" s="227"/>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1">
-      <c r="B40" s="296"/>
-      <c r="C40" s="296"/>
-      <c r="D40" s="296"/>
+      <c r="B40" s="227"/>
+      <c r="C40" s="227"/>
+      <c r="D40" s="227"/>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1">
-      <c r="B41" s="296"/>
-      <c r="C41" s="296"/>
-      <c r="D41" s="296"/>
+      <c r="B41" s="227"/>
+      <c r="C41" s="227"/>
+      <c r="D41" s="227"/>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1">
-      <c r="B42" s="296"/>
-      <c r="C42" s="296"/>
-      <c r="D42" s="296"/>
+      <c r="B42" s="227"/>
+      <c r="C42" s="227"/>
+      <c r="D42" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="O12:P12"/>
@@ -44864,48 +44850,65 @@
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44927,89 +44930,89 @@
       <c r="B2" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="233" t="s">
+      <c r="G2" s="299" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="234"/>
-      <c r="I2" s="240" t="s">
+      <c r="H2" s="300"/>
+      <c r="I2" s="289" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="235"/>
-      <c r="L2" s="233" t="s">
+      <c r="J2" s="244"/>
+      <c r="L2" s="299" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="234"/>
-      <c r="N2" s="240" t="s">
+      <c r="M2" s="300"/>
+      <c r="N2" s="289" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="235"/>
-      <c r="Q2" s="233" t="s">
+      <c r="O2" s="244"/>
+      <c r="Q2" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="234"/>
-      <c r="S2" s="305">
+      <c r="R2" s="300"/>
+      <c r="S2" s="323">
         <v>45451</v>
       </c>
-      <c r="T2" s="235"/>
-      <c r="V2" s="233" t="s">
+      <c r="T2" s="244"/>
+      <c r="V2" s="299" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="234"/>
-      <c r="X2" s="305">
+      <c r="W2" s="300"/>
+      <c r="X2" s="323">
         <v>45451</v>
       </c>
-      <c r="Y2" s="235"/>
+      <c r="Y2" s="244"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="D4" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="306" t="s">
+      <c r="E4" s="324" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="307"/>
-      <c r="G4" s="306" t="s">
+      <c r="F4" s="325"/>
+      <c r="G4" s="324" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="307"/>
-      <c r="I4" s="306" t="s">
+      <c r="H4" s="325"/>
+      <c r="I4" s="324" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="307"/>
-      <c r="K4" s="306" t="s">
+      <c r="J4" s="325"/>
+      <c r="K4" s="324" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="307"/>
-      <c r="M4" s="306" t="s">
+      <c r="L4" s="325"/>
+      <c r="M4" s="324" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="308"/>
+      <c r="N4" s="326"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D5" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="235">
+      <c r="E5" s="244">
         <v>10</v>
       </c>
-      <c r="F5" s="235"/>
-      <c r="G5" s="235">
+      <c r="F5" s="244"/>
+      <c r="G5" s="244">
         <v>11</v>
       </c>
-      <c r="H5" s="235"/>
-      <c r="I5" s="235">
+      <c r="H5" s="244"/>
+      <c r="I5" s="244">
         <v>12</v>
       </c>
-      <c r="J5" s="235"/>
-      <c r="K5" s="235">
+      <c r="J5" s="244"/>
+      <c r="K5" s="244">
         <v>13</v>
       </c>
-      <c r="L5" s="235"/>
-      <c r="M5" s="235">
+      <c r="L5" s="244"/>
+      <c r="M5" s="244">
         <v>14</v>
       </c>
-      <c r="N5" s="304"/>
+      <c r="N5" s="322"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D6" s="161" t="s">
@@ -45045,28 +45048,28 @@
       <c r="N6" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="231" t="s">
+      <c r="O6" s="298" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="232"/>
-      <c r="Q6" s="241" t="s">
+      <c r="P6" s="239"/>
+      <c r="Q6" s="303" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="232"/>
-      <c r="S6" s="241" t="s">
+      <c r="R6" s="239"/>
+      <c r="S6" s="303" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="242"/>
+      <c r="T6" s="240"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="243" t="s">
+      <c r="A7" s="281" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="246" t="s">
+      <c r="B7" s="271" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="247"/>
-      <c r="D7" s="309"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="318"/>
       <c r="E7" s="63"/>
       <c r="F7" s="153"/>
       <c r="G7" s="64"/>
@@ -45077,20 +45080,20 @@
       <c r="L7" s="42"/>
       <c r="M7" s="153"/>
       <c r="N7" s="157"/>
-      <c r="O7" s="310"/>
-      <c r="P7" s="250"/>
-      <c r="Q7" s="250"/>
-      <c r="R7" s="250"/>
-      <c r="S7" s="250"/>
-      <c r="T7" s="251"/>
+      <c r="O7" s="319"/>
+      <c r="P7" s="287"/>
+      <c r="Q7" s="287"/>
+      <c r="R7" s="287"/>
+      <c r="S7" s="287"/>
+      <c r="T7" s="288"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="244"/>
-      <c r="B8" s="252" t="s">
+      <c r="A8" s="282"/>
+      <c r="B8" s="246" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="253"/>
-      <c r="D8" s="311"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="309"/>
       <c r="E8" s="65"/>
       <c r="F8" s="154"/>
       <c r="G8" s="66"/>
@@ -45101,20 +45104,20 @@
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
       <c r="N8" s="56"/>
-      <c r="O8" s="227"/>
-      <c r="P8" s="235"/>
-      <c r="Q8" s="235"/>
-      <c r="R8" s="235"/>
-      <c r="S8" s="235"/>
-      <c r="T8" s="228"/>
+      <c r="O8" s="296"/>
+      <c r="P8" s="244"/>
+      <c r="Q8" s="244"/>
+      <c r="R8" s="244"/>
+      <c r="S8" s="244"/>
+      <c r="T8" s="245"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="244"/>
-      <c r="B9" s="252" t="s">
+      <c r="A9" s="282"/>
+      <c r="B9" s="246" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="253"/>
-      <c r="D9" s="311"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="309"/>
       <c r="E9" s="65"/>
       <c r="F9" s="34"/>
       <c r="G9" s="66"/>
@@ -45125,20 +45128,20 @@
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
       <c r="N9" s="56"/>
-      <c r="O9" s="227"/>
-      <c r="P9" s="235"/>
-      <c r="Q9" s="235"/>
-      <c r="R9" s="235"/>
-      <c r="S9" s="235"/>
-      <c r="T9" s="228"/>
+      <c r="O9" s="296"/>
+      <c r="P9" s="244"/>
+      <c r="Q9" s="244"/>
+      <c r="R9" s="244"/>
+      <c r="S9" s="244"/>
+      <c r="T9" s="245"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="244"/>
-      <c r="B10" s="252" t="s">
+      <c r="A10" s="282"/>
+      <c r="B10" s="246" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="253"/>
-      <c r="D10" s="311"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="309"/>
       <c r="E10" s="65"/>
       <c r="F10" s="34"/>
       <c r="G10" s="66"/>
@@ -45149,20 +45152,20 @@
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="56"/>
-      <c r="O10" s="227"/>
-      <c r="P10" s="235"/>
-      <c r="Q10" s="235"/>
-      <c r="R10" s="235"/>
-      <c r="S10" s="235"/>
-      <c r="T10" s="228"/>
+      <c r="O10" s="296"/>
+      <c r="P10" s="244"/>
+      <c r="Q10" s="244"/>
+      <c r="R10" s="244"/>
+      <c r="S10" s="244"/>
+      <c r="T10" s="245"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="245"/>
-      <c r="B11" s="256" t="s">
+      <c r="A11" s="283"/>
+      <c r="B11" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="257"/>
-      <c r="D11" s="312"/>
+      <c r="C11" s="291"/>
+      <c r="D11" s="320"/>
       <c r="E11" s="67"/>
       <c r="F11" s="50"/>
       <c r="G11" s="68"/>
@@ -45173,22 +45176,22 @@
       <c r="L11" s="50"/>
       <c r="M11" s="50"/>
       <c r="N11" s="57"/>
-      <c r="O11" s="313"/>
-      <c r="P11" s="260"/>
-      <c r="Q11" s="260"/>
-      <c r="R11" s="260"/>
-      <c r="S11" s="260"/>
-      <c r="T11" s="261"/>
+      <c r="O11" s="321"/>
+      <c r="P11" s="294"/>
+      <c r="Q11" s="294"/>
+      <c r="R11" s="294"/>
+      <c r="S11" s="294"/>
+      <c r="T11" s="295"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="262" t="s">
+      <c r="A12" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="259" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="266"/>
-      <c r="D12" s="314"/>
+      <c r="C12" s="260"/>
+      <c r="D12" s="312"/>
       <c r="E12" s="69"/>
       <c r="F12" s="155"/>
       <c r="G12" s="70"/>
@@ -45199,20 +45202,20 @@
       <c r="L12" s="155"/>
       <c r="M12" s="36"/>
       <c r="N12" s="58"/>
-      <c r="O12" s="315"/>
-      <c r="P12" s="270"/>
-      <c r="Q12" s="270"/>
-      <c r="R12" s="270"/>
-      <c r="S12" s="270"/>
-      <c r="T12" s="237"/>
+      <c r="O12" s="313"/>
+      <c r="P12" s="232"/>
+      <c r="Q12" s="232"/>
+      <c r="R12" s="232"/>
+      <c r="S12" s="232"/>
+      <c r="T12" s="264"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="263"/>
-      <c r="B13" s="271" t="s">
+      <c r="A13" s="257"/>
+      <c r="B13" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="272"/>
-      <c r="D13" s="316"/>
+      <c r="C13" s="266"/>
+      <c r="D13" s="314"/>
       <c r="E13" s="65"/>
       <c r="F13" s="154"/>
       <c r="G13" s="66"/>
@@ -45223,20 +45226,20 @@
       <c r="L13" s="34"/>
       <c r="M13" s="154"/>
       <c r="N13" s="156"/>
-      <c r="O13" s="227"/>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="235"/>
-      <c r="R13" s="235"/>
-      <c r="S13" s="235"/>
-      <c r="T13" s="228"/>
+      <c r="O13" s="296"/>
+      <c r="P13" s="244"/>
+      <c r="Q13" s="244"/>
+      <c r="R13" s="244"/>
+      <c r="S13" s="244"/>
+      <c r="T13" s="245"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="263"/>
-      <c r="B14" s="271" t="s">
+      <c r="A14" s="257"/>
+      <c r="B14" s="265" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="282"/>
-      <c r="D14" s="319"/>
+      <c r="C14" s="277"/>
+      <c r="D14" s="317"/>
       <c r="E14" s="65"/>
       <c r="F14" s="154"/>
       <c r="G14" s="66"/>
@@ -45247,20 +45250,20 @@
       <c r="L14" s="154"/>
       <c r="M14" s="34"/>
       <c r="N14" s="56"/>
-      <c r="O14" s="227"/>
-      <c r="P14" s="235"/>
-      <c r="Q14" s="235"/>
-      <c r="R14" s="235"/>
-      <c r="S14" s="235"/>
-      <c r="T14" s="228"/>
+      <c r="O14" s="296"/>
+      <c r="P14" s="244"/>
+      <c r="Q14" s="244"/>
+      <c r="R14" s="244"/>
+      <c r="S14" s="244"/>
+      <c r="T14" s="245"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="264"/>
-      <c r="B15" s="285" t="s">
+      <c r="A15" s="258"/>
+      <c r="B15" s="251" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="286"/>
-      <c r="D15" s="320"/>
+      <c r="C15" s="252"/>
+      <c r="D15" s="311"/>
       <c r="E15" s="71"/>
       <c r="F15" s="40"/>
       <c r="G15" s="72"/>
@@ -45271,22 +45274,22 @@
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
       <c r="N15" s="59"/>
-      <c r="O15" s="321"/>
-      <c r="P15" s="289"/>
-      <c r="Q15" s="289"/>
-      <c r="R15" s="289"/>
-      <c r="S15" s="289"/>
-      <c r="T15" s="291"/>
+      <c r="O15" s="305"/>
+      <c r="P15" s="233"/>
+      <c r="Q15" s="233"/>
+      <c r="R15" s="233"/>
+      <c r="S15" s="233"/>
+      <c r="T15" s="234"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="274" t="s">
+      <c r="A16" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="246" t="s">
+      <c r="B16" s="271" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="277"/>
-      <c r="D16" s="317"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="315"/>
       <c r="E16" s="69"/>
       <c r="F16" s="36"/>
       <c r="G16" s="70"/>
@@ -45297,20 +45300,20 @@
       <c r="L16" s="36"/>
       <c r="M16" s="155"/>
       <c r="N16" s="158"/>
-      <c r="O16" s="315"/>
-      <c r="P16" s="270"/>
-      <c r="Q16" s="270"/>
-      <c r="R16" s="270"/>
-      <c r="S16" s="270"/>
-      <c r="T16" s="237"/>
+      <c r="O16" s="313"/>
+      <c r="P16" s="232"/>
+      <c r="Q16" s="232"/>
+      <c r="R16" s="232"/>
+      <c r="S16" s="232"/>
+      <c r="T16" s="264"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="275"/>
-      <c r="B17" s="279" t="s">
+      <c r="A17" s="269"/>
+      <c r="B17" s="241" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="280"/>
-      <c r="D17" s="318"/>
+      <c r="C17" s="274"/>
+      <c r="D17" s="316"/>
       <c r="E17" s="65"/>
       <c r="F17" s="34"/>
       <c r="G17" s="66"/>
@@ -45321,20 +45324,20 @@
       <c r="L17" s="34"/>
       <c r="M17" s="154"/>
       <c r="N17" s="156"/>
-      <c r="O17" s="227"/>
-      <c r="P17" s="235"/>
-      <c r="Q17" s="235"/>
-      <c r="R17" s="235"/>
-      <c r="S17" s="235"/>
-      <c r="T17" s="228"/>
+      <c r="O17" s="296"/>
+      <c r="P17" s="244"/>
+      <c r="Q17" s="244"/>
+      <c r="R17" s="244"/>
+      <c r="S17" s="244"/>
+      <c r="T17" s="245"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="275"/>
-      <c r="B18" s="279" t="s">
+      <c r="A18" s="269"/>
+      <c r="B18" s="241" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="280"/>
-      <c r="D18" s="318"/>
+      <c r="C18" s="274"/>
+      <c r="D18" s="316"/>
       <c r="E18" s="65"/>
       <c r="F18" s="34"/>
       <c r="G18" s="66"/>
@@ -45345,20 +45348,20 @@
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="56"/>
-      <c r="O18" s="227"/>
-      <c r="P18" s="235"/>
-      <c r="Q18" s="235"/>
-      <c r="R18" s="235"/>
-      <c r="S18" s="235"/>
-      <c r="T18" s="228"/>
+      <c r="O18" s="296"/>
+      <c r="P18" s="244"/>
+      <c r="Q18" s="244"/>
+      <c r="R18" s="244"/>
+      <c r="S18" s="244"/>
+      <c r="T18" s="245"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="275"/>
-      <c r="B19" s="252" t="s">
+      <c r="A19" s="269"/>
+      <c r="B19" s="246" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="292"/>
-      <c r="D19" s="322"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="310"/>
       <c r="E19" s="65"/>
       <c r="F19" s="34"/>
       <c r="G19" s="66"/>
@@ -45369,20 +45372,20 @@
       <c r="L19" s="34"/>
       <c r="M19" s="154"/>
       <c r="N19" s="156"/>
-      <c r="O19" s="227"/>
-      <c r="P19" s="235"/>
-      <c r="Q19" s="235"/>
-      <c r="R19" s="235"/>
-      <c r="S19" s="235"/>
-      <c r="T19" s="228"/>
+      <c r="O19" s="296"/>
+      <c r="P19" s="244"/>
+      <c r="Q19" s="244"/>
+      <c r="R19" s="244"/>
+      <c r="S19" s="244"/>
+      <c r="T19" s="245"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="275"/>
-      <c r="B20" s="252" t="s">
+      <c r="A20" s="269"/>
+      <c r="B20" s="246" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="292"/>
-      <c r="D20" s="322"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="310"/>
       <c r="E20" s="65"/>
       <c r="F20" s="34"/>
       <c r="G20" s="66"/>
@@ -45393,20 +45396,20 @@
       <c r="L20" s="34"/>
       <c r="M20" s="154"/>
       <c r="N20" s="156"/>
-      <c r="O20" s="227"/>
-      <c r="P20" s="235"/>
-      <c r="Q20" s="235"/>
-      <c r="R20" s="235"/>
-      <c r="S20" s="235"/>
-      <c r="T20" s="228"/>
+      <c r="O20" s="296"/>
+      <c r="P20" s="244"/>
+      <c r="Q20" s="244"/>
+      <c r="R20" s="244"/>
+      <c r="S20" s="244"/>
+      <c r="T20" s="245"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="275"/>
-      <c r="B21" s="252" t="s">
+      <c r="A21" s="269"/>
+      <c r="B21" s="246" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="292"/>
-      <c r="D21" s="322"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="310"/>
       <c r="E21" s="65"/>
       <c r="F21" s="34"/>
       <c r="G21" s="66"/>
@@ -45417,20 +45420,20 @@
       <c r="L21" s="34"/>
       <c r="M21" s="154"/>
       <c r="N21" s="156"/>
-      <c r="O21" s="227"/>
-      <c r="P21" s="235"/>
-      <c r="Q21" s="235"/>
-      <c r="R21" s="235"/>
-      <c r="S21" s="235"/>
-      <c r="T21" s="228"/>
+      <c r="O21" s="296"/>
+      <c r="P21" s="244"/>
+      <c r="Q21" s="244"/>
+      <c r="R21" s="244"/>
+      <c r="S21" s="244"/>
+      <c r="T21" s="245"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="275"/>
-      <c r="B22" s="252" t="s">
+      <c r="A22" s="269"/>
+      <c r="B22" s="246" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="292"/>
-      <c r="D22" s="322"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="310"/>
       <c r="E22" s="65"/>
       <c r="F22" s="34"/>
       <c r="G22" s="66"/>
@@ -45441,20 +45444,20 @@
       <c r="L22" s="34"/>
       <c r="M22" s="154"/>
       <c r="N22" s="156"/>
-      <c r="O22" s="227"/>
-      <c r="P22" s="235"/>
-      <c r="Q22" s="235"/>
-      <c r="R22" s="235"/>
-      <c r="S22" s="235"/>
-      <c r="T22" s="228"/>
+      <c r="O22" s="296"/>
+      <c r="P22" s="244"/>
+      <c r="Q22" s="244"/>
+      <c r="R22" s="244"/>
+      <c r="S22" s="244"/>
+      <c r="T22" s="245"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="275"/>
-      <c r="B23" s="252" t="s">
+      <c r="A23" s="269"/>
+      <c r="B23" s="246" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="253"/>
-      <c r="D23" s="311"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="309"/>
       <c r="E23" s="65"/>
       <c r="F23" s="34"/>
       <c r="G23" s="66"/>
@@ -45465,20 +45468,20 @@
       <c r="L23" s="34"/>
       <c r="M23" s="154"/>
       <c r="N23" s="156"/>
-      <c r="O23" s="227"/>
-      <c r="P23" s="235"/>
-      <c r="Q23" s="235"/>
-      <c r="R23" s="235"/>
-      <c r="S23" s="235"/>
-      <c r="T23" s="228"/>
+      <c r="O23" s="296"/>
+      <c r="P23" s="244"/>
+      <c r="Q23" s="244"/>
+      <c r="R23" s="244"/>
+      <c r="S23" s="244"/>
+      <c r="T23" s="245"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="275"/>
-      <c r="B24" s="279" t="s">
+      <c r="A24" s="269"/>
+      <c r="B24" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="294"/>
-      <c r="D24" s="323"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="308"/>
       <c r="E24" s="65"/>
       <c r="F24" s="34"/>
       <c r="G24" s="66"/>
@@ -45489,20 +45492,20 @@
       <c r="L24" s="34"/>
       <c r="M24" s="154"/>
       <c r="N24" s="156"/>
-      <c r="O24" s="227"/>
-      <c r="P24" s="235"/>
-      <c r="Q24" s="235"/>
-      <c r="R24" s="235"/>
-      <c r="S24" s="235"/>
-      <c r="T24" s="228"/>
+      <c r="O24" s="296"/>
+      <c r="P24" s="244"/>
+      <c r="Q24" s="244"/>
+      <c r="R24" s="244"/>
+      <c r="S24" s="244"/>
+      <c r="T24" s="245"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="275"/>
-      <c r="B25" s="279" t="s">
+      <c r="A25" s="269"/>
+      <c r="B25" s="241" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="323"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="308"/>
       <c r="E25" s="65"/>
       <c r="F25" s="34"/>
       <c r="G25" s="66"/>
@@ -45513,20 +45516,20 @@
       <c r="L25" s="34"/>
       <c r="M25" s="154"/>
       <c r="N25" s="156"/>
-      <c r="O25" s="227"/>
-      <c r="P25" s="235"/>
-      <c r="Q25" s="235"/>
-      <c r="R25" s="235"/>
-      <c r="S25" s="235"/>
-      <c r="T25" s="228"/>
+      <c r="O25" s="296"/>
+      <c r="P25" s="244"/>
+      <c r="Q25" s="244"/>
+      <c r="R25" s="244"/>
+      <c r="S25" s="244"/>
+      <c r="T25" s="245"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="275"/>
-      <c r="B26" s="279" t="s">
+      <c r="A26" s="269"/>
+      <c r="B26" s="241" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="323"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="308"/>
       <c r="E26" s="65"/>
       <c r="F26" s="34"/>
       <c r="G26" s="66"/>
@@ -45537,20 +45540,20 @@
       <c r="L26" s="34"/>
       <c r="M26" s="154"/>
       <c r="N26" s="156"/>
-      <c r="O26" s="227"/>
-      <c r="P26" s="235"/>
-      <c r="Q26" s="235"/>
-      <c r="R26" s="235"/>
-      <c r="S26" s="235"/>
-      <c r="T26" s="228"/>
+      <c r="O26" s="296"/>
+      <c r="P26" s="244"/>
+      <c r="Q26" s="244"/>
+      <c r="R26" s="244"/>
+      <c r="S26" s="244"/>
+      <c r="T26" s="245"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="276"/>
-      <c r="B27" s="297" t="s">
+      <c r="A27" s="270"/>
+      <c r="B27" s="228" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="298"/>
-      <c r="D27" s="324"/>
+      <c r="C27" s="229"/>
+      <c r="D27" s="304"/>
       <c r="E27" s="71"/>
       <c r="F27" s="40"/>
       <c r="G27" s="72"/>
@@ -45561,22 +45564,22 @@
       <c r="L27" s="40"/>
       <c r="M27" s="40"/>
       <c r="N27" s="59"/>
-      <c r="O27" s="321"/>
-      <c r="P27" s="289"/>
-      <c r="Q27" s="289"/>
-      <c r="R27" s="289"/>
-      <c r="S27" s="289"/>
-      <c r="T27" s="291"/>
+      <c r="O27" s="305"/>
+      <c r="P27" s="233"/>
+      <c r="Q27" s="233"/>
+      <c r="R27" s="233"/>
+      <c r="S27" s="233"/>
+      <c r="T27" s="234"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="300" t="s">
+      <c r="B28" s="235" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="301"/>
-      <c r="D28" s="325"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="306"/>
       <c r="E28" s="73"/>
       <c r="F28" s="61"/>
       <c r="G28" s="74"/>
@@ -45587,17 +45590,17 @@
       <c r="L28" s="61"/>
       <c r="M28" s="61"/>
       <c r="N28" s="62"/>
-      <c r="O28" s="326"/>
-      <c r="P28" s="232"/>
-      <c r="Q28" s="232"/>
-      <c r="R28" s="232"/>
-      <c r="S28" s="232"/>
-      <c r="T28" s="242"/>
+      <c r="O28" s="307"/>
+      <c r="P28" s="239"/>
+      <c r="Q28" s="239"/>
+      <c r="R28" s="239"/>
+      <c r="S28" s="239"/>
+      <c r="T28" s="240"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="296"/>
-      <c r="C29" s="296"/>
-      <c r="D29" s="296"/>
+      <c r="B29" s="227"/>
+      <c r="C29" s="227"/>
+      <c r="D29" s="227"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="16" t="s">
@@ -45608,135 +45611,118 @@
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="223" t="s">
+      <c r="B31" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="223"/>
+      <c r="C31" s="178"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="223" t="s">
+      <c r="B32" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="223"/>
+      <c r="C32" s="178"/>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1">
       <c r="A33" s="19"/>
-      <c r="B33" s="223" t="s">
+      <c r="B33" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="223"/>
+      <c r="C33" s="178"/>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="223" t="s">
+      <c r="B34" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="223"/>
+      <c r="C34" s="178"/>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="223" t="s">
+      <c r="B35" s="178" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="223"/>
+      <c r="C35" s="178"/>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1">
-      <c r="B36" s="296"/>
-      <c r="C36" s="296"/>
-      <c r="D36" s="296"/>
+      <c r="B36" s="227"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="227"/>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1">
-      <c r="B37" s="296"/>
-      <c r="C37" s="296"/>
-      <c r="D37" s="296"/>
+      <c r="B37" s="227"/>
+      <c r="C37" s="227"/>
+      <c r="D37" s="227"/>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1">
-      <c r="B38" s="296"/>
-      <c r="C38" s="296"/>
-      <c r="D38" s="296"/>
+      <c r="B38" s="227"/>
+      <c r="C38" s="227"/>
+      <c r="D38" s="227"/>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1">
-      <c r="B39" s="296"/>
-      <c r="C39" s="296"/>
-      <c r="D39" s="296"/>
+      <c r="B39" s="227"/>
+      <c r="C39" s="227"/>
+      <c r="D39" s="227"/>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1">
-      <c r="B40" s="296"/>
-      <c r="C40" s="296"/>
-      <c r="D40" s="296"/>
+      <c r="B40" s="227"/>
+      <c r="C40" s="227"/>
+      <c r="D40" s="227"/>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1">
-      <c r="B41" s="296"/>
-      <c r="C41" s="296"/>
-      <c r="D41" s="296"/>
+      <c r="B41" s="227"/>
+      <c r="C41" s="227"/>
+      <c r="D41" s="227"/>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1">
-      <c r="B42" s="296"/>
-      <c r="C42" s="296"/>
-      <c r="D42" s="296"/>
+      <c r="B42" s="227"/>
+      <c r="C42" s="227"/>
+      <c r="D42" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="O12:P12"/>
@@ -45761,48 +45747,65 @@
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="O18:P18"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45824,75 +45827,75 @@
       <c r="B2" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="233" t="s">
+      <c r="G2" s="299" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="234"/>
-      <c r="I2" s="240" t="s">
+      <c r="H2" s="300"/>
+      <c r="I2" s="289" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="235"/>
-      <c r="L2" s="233" t="s">
+      <c r="J2" s="244"/>
+      <c r="L2" s="299" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="234"/>
-      <c r="N2" s="240" t="s">
+      <c r="M2" s="300"/>
+      <c r="N2" s="289" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="235"/>
-      <c r="Q2" s="233" t="s">
+      <c r="O2" s="244"/>
+      <c r="Q2" s="299" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="234"/>
-      <c r="S2" s="235"/>
-      <c r="T2" s="235"/>
-      <c r="V2" s="233" t="s">
+      <c r="R2" s="300"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="244"/>
+      <c r="V2" s="299" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="234"/>
-      <c r="X2" s="235"/>
-      <c r="Y2" s="235"/>
+      <c r="W2" s="300"/>
+      <c r="X2" s="244"/>
+      <c r="Y2" s="244"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="D4" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="236" t="s">
+      <c r="E4" s="301" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="237"/>
-      <c r="G4" s="238" t="s">
+      <c r="F4" s="264"/>
+      <c r="G4" s="231" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="239"/>
-      <c r="I4" s="236" t="s">
+      <c r="H4" s="302"/>
+      <c r="I4" s="301" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="237"/>
-      <c r="K4" s="238" t="s">
+      <c r="J4" s="264"/>
+      <c r="K4" s="231" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="239"/>
-      <c r="M4" s="236" t="s">
+      <c r="L4" s="302"/>
+      <c r="M4" s="301" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="237"/>
+      <c r="N4" s="264"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D5" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="227"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="229"/>
-      <c r="H5" s="230"/>
-      <c r="I5" s="227"/>
-      <c r="J5" s="228"/>
-      <c r="K5" s="229"/>
-      <c r="L5" s="230"/>
-      <c r="M5" s="227"/>
-      <c r="N5" s="228"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="280"/>
+      <c r="H5" s="297"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="245"/>
+      <c r="K5" s="280"/>
+      <c r="L5" s="297"/>
+      <c r="M5" s="296"/>
+      <c r="N5" s="245"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D6" s="78" t="s">
@@ -45931,25 +45934,25 @@
       <c r="O6" s="327" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="232"/>
-      <c r="Q6" s="241" t="s">
+      <c r="P6" s="239"/>
+      <c r="Q6" s="303" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="232"/>
-      <c r="S6" s="241" t="s">
+      <c r="R6" s="239"/>
+      <c r="S6" s="303" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="242"/>
+      <c r="T6" s="240"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="243" t="s">
+      <c r="A7" s="281" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="246" t="s">
+      <c r="B7" s="271" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="247"/>
-      <c r="D7" s="248"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="285"/>
       <c r="E7" s="93"/>
       <c r="F7" s="43"/>
       <c r="G7" s="45"/>
@@ -45960,20 +45963,20 @@
       <c r="L7" s="55"/>
       <c r="M7" s="93"/>
       <c r="N7" s="43"/>
-      <c r="O7" s="310"/>
-      <c r="P7" s="250"/>
-      <c r="Q7" s="250"/>
-      <c r="R7" s="250"/>
-      <c r="S7" s="250"/>
-      <c r="T7" s="251"/>
+      <c r="O7" s="319"/>
+      <c r="P7" s="287"/>
+      <c r="Q7" s="287"/>
+      <c r="R7" s="287"/>
+      <c r="S7" s="287"/>
+      <c r="T7" s="288"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="244"/>
-      <c r="B8" s="252" t="s">
+      <c r="A8" s="282"/>
+      <c r="B8" s="246" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="253"/>
-      <c r="D8" s="254"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="248"/>
       <c r="E8" s="37"/>
       <c r="F8" s="38"/>
       <c r="G8" s="46"/>
@@ -45984,20 +45987,20 @@
       <c r="L8" s="56"/>
       <c r="M8" s="37"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="227"/>
-      <c r="P8" s="235"/>
-      <c r="Q8" s="235"/>
-      <c r="R8" s="235"/>
-      <c r="S8" s="235"/>
-      <c r="T8" s="228"/>
+      <c r="O8" s="296"/>
+      <c r="P8" s="244"/>
+      <c r="Q8" s="244"/>
+      <c r="R8" s="244"/>
+      <c r="S8" s="244"/>
+      <c r="T8" s="245"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="244"/>
-      <c r="B9" s="252" t="s">
+      <c r="A9" s="282"/>
+      <c r="B9" s="246" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="253"/>
-      <c r="D9" s="254"/>
+      <c r="C9" s="247"/>
+      <c r="D9" s="248"/>
       <c r="E9" s="37"/>
       <c r="F9" s="38"/>
       <c r="G9" s="46"/>
@@ -46008,20 +46011,20 @@
       <c r="L9" s="56"/>
       <c r="M9" s="37"/>
       <c r="N9" s="38"/>
-      <c r="O9" s="227"/>
-      <c r="P9" s="235"/>
-      <c r="Q9" s="235"/>
-      <c r="R9" s="235"/>
-      <c r="S9" s="235"/>
-      <c r="T9" s="228"/>
+      <c r="O9" s="296"/>
+      <c r="P9" s="244"/>
+      <c r="Q9" s="244"/>
+      <c r="R9" s="244"/>
+      <c r="S9" s="244"/>
+      <c r="T9" s="245"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="244"/>
-      <c r="B10" s="252" t="s">
+      <c r="A10" s="282"/>
+      <c r="B10" s="246" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="253"/>
-      <c r="D10" s="254"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="248"/>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
       <c r="G10" s="46"/>
@@ -46032,20 +46035,20 @@
       <c r="L10" s="56"/>
       <c r="M10" s="37"/>
       <c r="N10" s="38"/>
-      <c r="O10" s="227"/>
-      <c r="P10" s="235"/>
-      <c r="Q10" s="235"/>
-      <c r="R10" s="235"/>
-      <c r="S10" s="235"/>
-      <c r="T10" s="228"/>
+      <c r="O10" s="296"/>
+      <c r="P10" s="244"/>
+      <c r="Q10" s="244"/>
+      <c r="R10" s="244"/>
+      <c r="S10" s="244"/>
+      <c r="T10" s="245"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="245"/>
-      <c r="B11" s="256" t="s">
+      <c r="A11" s="283"/>
+      <c r="B11" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="257"/>
-      <c r="D11" s="258"/>
+      <c r="C11" s="291"/>
+      <c r="D11" s="292"/>
       <c r="E11" s="94"/>
       <c r="F11" s="51"/>
       <c r="G11" s="49"/>
@@ -46056,22 +46059,22 @@
       <c r="L11" s="57"/>
       <c r="M11" s="94"/>
       <c r="N11" s="51"/>
-      <c r="O11" s="313"/>
-      <c r="P11" s="260"/>
-      <c r="Q11" s="260"/>
-      <c r="R11" s="260"/>
-      <c r="S11" s="260"/>
-      <c r="T11" s="261"/>
+      <c r="O11" s="321"/>
+      <c r="P11" s="294"/>
+      <c r="Q11" s="294"/>
+      <c r="R11" s="294"/>
+      <c r="S11" s="294"/>
+      <c r="T11" s="295"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="262" t="s">
+      <c r="A12" s="256" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="265" t="s">
+      <c r="B12" s="259" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="266"/>
-      <c r="D12" s="267"/>
+      <c r="C12" s="260"/>
+      <c r="D12" s="261"/>
       <c r="E12" s="35"/>
       <c r="F12" s="53"/>
       <c r="G12" s="52"/>
@@ -46082,20 +46085,20 @@
       <c r="L12" s="58"/>
       <c r="M12" s="35"/>
       <c r="N12" s="53"/>
-      <c r="O12" s="315"/>
-      <c r="P12" s="270"/>
-      <c r="Q12" s="270"/>
-      <c r="R12" s="270"/>
-      <c r="S12" s="270"/>
-      <c r="T12" s="237"/>
+      <c r="O12" s="313"/>
+      <c r="P12" s="232"/>
+      <c r="Q12" s="232"/>
+      <c r="R12" s="232"/>
+      <c r="S12" s="232"/>
+      <c r="T12" s="264"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="263"/>
-      <c r="B13" s="271" t="s">
+      <c r="A13" s="257"/>
+      <c r="B13" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="272"/>
-      <c r="D13" s="273"/>
+      <c r="C13" s="266"/>
+      <c r="D13" s="267"/>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
       <c r="G13" s="46"/>
@@ -46106,20 +46109,20 @@
       <c r="L13" s="56"/>
       <c r="M13" s="37"/>
       <c r="N13" s="38"/>
-      <c r="O13" s="227"/>
-      <c r="P13" s="235"/>
-      <c r="Q13" s="235"/>
-      <c r="R13" s="235"/>
-      <c r="S13" s="235"/>
-      <c r="T13" s="228"/>
+      <c r="O13" s="296"/>
+      <c r="P13" s="244"/>
+      <c r="Q13" s="244"/>
+      <c r="R13" s="244"/>
+      <c r="S13" s="244"/>
+      <c r="T13" s="245"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="263"/>
-      <c r="B14" s="271" t="s">
+      <c r="A14" s="257"/>
+      <c r="B14" s="265" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="282"/>
-      <c r="D14" s="283"/>
+      <c r="C14" s="277"/>
+      <c r="D14" s="278"/>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
       <c r="G14" s="46"/>
@@ -46130,20 +46133,20 @@
       <c r="L14" s="56"/>
       <c r="M14" s="37"/>
       <c r="N14" s="38"/>
-      <c r="O14" s="227"/>
-      <c r="P14" s="235"/>
-      <c r="Q14" s="235"/>
-      <c r="R14" s="235"/>
-      <c r="S14" s="235"/>
-      <c r="T14" s="228"/>
+      <c r="O14" s="296"/>
+      <c r="P14" s="244"/>
+      <c r="Q14" s="244"/>
+      <c r="R14" s="244"/>
+      <c r="S14" s="244"/>
+      <c r="T14" s="245"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="264"/>
-      <c r="B15" s="285" t="s">
+      <c r="A15" s="258"/>
+      <c r="B15" s="251" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="286"/>
-      <c r="D15" s="287"/>
+      <c r="C15" s="252"/>
+      <c r="D15" s="253"/>
       <c r="E15" s="95"/>
       <c r="F15" s="41"/>
       <c r="G15" s="47"/>
@@ -46154,22 +46157,22 @@
       <c r="L15" s="59"/>
       <c r="M15" s="95"/>
       <c r="N15" s="41"/>
-      <c r="O15" s="321"/>
-      <c r="P15" s="289"/>
-      <c r="Q15" s="289"/>
-      <c r="R15" s="289"/>
-      <c r="S15" s="289"/>
-      <c r="T15" s="291"/>
+      <c r="O15" s="305"/>
+      <c r="P15" s="233"/>
+      <c r="Q15" s="233"/>
+      <c r="R15" s="233"/>
+      <c r="S15" s="233"/>
+      <c r="T15" s="234"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="274" t="s">
+      <c r="A16" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="246" t="s">
+      <c r="B16" s="271" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="277"/>
-      <c r="D16" s="278"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="273"/>
       <c r="E16" s="35"/>
       <c r="F16" s="53"/>
       <c r="G16" s="52"/>
@@ -46180,20 +46183,20 @@
       <c r="L16" s="58"/>
       <c r="M16" s="35"/>
       <c r="N16" s="53"/>
-      <c r="O16" s="315"/>
-      <c r="P16" s="270"/>
-      <c r="Q16" s="270"/>
-      <c r="R16" s="270"/>
-      <c r="S16" s="270"/>
-      <c r="T16" s="237"/>
+      <c r="O16" s="313"/>
+      <c r="P16" s="232"/>
+      <c r="Q16" s="232"/>
+      <c r="R16" s="232"/>
+      <c r="S16" s="232"/>
+      <c r="T16" s="264"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="275"/>
-      <c r="B17" s="279" t="s">
+      <c r="A17" s="269"/>
+      <c r="B17" s="241" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="280"/>
-      <c r="D17" s="281"/>
+      <c r="C17" s="274"/>
+      <c r="D17" s="275"/>
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
       <c r="G17" s="46"/>
@@ -46204,20 +46207,20 @@
       <c r="L17" s="56"/>
       <c r="M17" s="37"/>
       <c r="N17" s="38"/>
-      <c r="O17" s="227"/>
-      <c r="P17" s="235"/>
-      <c r="Q17" s="235"/>
-      <c r="R17" s="235"/>
-      <c r="S17" s="235"/>
-      <c r="T17" s="228"/>
+      <c r="O17" s="296"/>
+      <c r="P17" s="244"/>
+      <c r="Q17" s="244"/>
+      <c r="R17" s="244"/>
+      <c r="S17" s="244"/>
+      <c r="T17" s="245"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="275"/>
-      <c r="B18" s="279" t="s">
+      <c r="A18" s="269"/>
+      <c r="B18" s="241" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="280"/>
-      <c r="D18" s="281"/>
+      <c r="C18" s="274"/>
+      <c r="D18" s="275"/>
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
       <c r="G18" s="46"/>
@@ -46228,20 +46231,20 @@
       <c r="L18" s="56"/>
       <c r="M18" s="37"/>
       <c r="N18" s="38"/>
-      <c r="O18" s="227"/>
-      <c r="P18" s="235"/>
-      <c r="Q18" s="235"/>
-      <c r="R18" s="235"/>
-      <c r="S18" s="235"/>
-      <c r="T18" s="228"/>
+      <c r="O18" s="296"/>
+      <c r="P18" s="244"/>
+      <c r="Q18" s="244"/>
+      <c r="R18" s="244"/>
+      <c r="S18" s="244"/>
+      <c r="T18" s="245"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="275"/>
-      <c r="B19" s="252" t="s">
+      <c r="A19" s="269"/>
+      <c r="B19" s="246" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="292"/>
-      <c r="D19" s="293"/>
+      <c r="C19" s="249"/>
+      <c r="D19" s="250"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
       <c r="G19" s="46"/>
@@ -46252,20 +46255,20 @@
       <c r="L19" s="56"/>
       <c r="M19" s="37"/>
       <c r="N19" s="38"/>
-      <c r="O19" s="227"/>
-      <c r="P19" s="235"/>
-      <c r="Q19" s="235"/>
-      <c r="R19" s="235"/>
-      <c r="S19" s="235"/>
-      <c r="T19" s="228"/>
+      <c r="O19" s="296"/>
+      <c r="P19" s="244"/>
+      <c r="Q19" s="244"/>
+      <c r="R19" s="244"/>
+      <c r="S19" s="244"/>
+      <c r="T19" s="245"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="275"/>
-      <c r="B20" s="252" t="s">
+      <c r="A20" s="269"/>
+      <c r="B20" s="246" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="292"/>
-      <c r="D20" s="293"/>
+      <c r="C20" s="249"/>
+      <c r="D20" s="250"/>
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
       <c r="G20" s="46"/>
@@ -46276,20 +46279,20 @@
       <c r="L20" s="56"/>
       <c r="M20" s="37"/>
       <c r="N20" s="38"/>
-      <c r="O20" s="227"/>
-      <c r="P20" s="235"/>
-      <c r="Q20" s="235"/>
-      <c r="R20" s="235"/>
-      <c r="S20" s="235"/>
-      <c r="T20" s="228"/>
+      <c r="O20" s="296"/>
+      <c r="P20" s="244"/>
+      <c r="Q20" s="244"/>
+      <c r="R20" s="244"/>
+      <c r="S20" s="244"/>
+      <c r="T20" s="245"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="275"/>
-      <c r="B21" s="252" t="s">
+      <c r="A21" s="269"/>
+      <c r="B21" s="246" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="292"/>
-      <c r="D21" s="293"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="250"/>
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
       <c r="G21" s="46"/>
@@ -46300,20 +46303,20 @@
       <c r="L21" s="56"/>
       <c r="M21" s="37"/>
       <c r="N21" s="38"/>
-      <c r="O21" s="227"/>
-      <c r="P21" s="235"/>
-      <c r="Q21" s="235"/>
-      <c r="R21" s="235"/>
-      <c r="S21" s="235"/>
-      <c r="T21" s="228"/>
+      <c r="O21" s="296"/>
+      <c r="P21" s="244"/>
+      <c r="Q21" s="244"/>
+      <c r="R21" s="244"/>
+      <c r="S21" s="244"/>
+      <c r="T21" s="245"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="275"/>
-      <c r="B22" s="252" t="s">
+      <c r="A22" s="269"/>
+      <c r="B22" s="246" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="292"/>
-      <c r="D22" s="293"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="250"/>
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
       <c r="G22" s="46"/>
@@ -46324,20 +46327,20 @@
       <c r="L22" s="56"/>
       <c r="M22" s="37"/>
       <c r="N22" s="38"/>
-      <c r="O22" s="227"/>
-      <c r="P22" s="235"/>
-      <c r="Q22" s="235"/>
-      <c r="R22" s="235"/>
-      <c r="S22" s="235"/>
-      <c r="T22" s="228"/>
+      <c r="O22" s="296"/>
+      <c r="P22" s="244"/>
+      <c r="Q22" s="244"/>
+      <c r="R22" s="244"/>
+      <c r="S22" s="244"/>
+      <c r="T22" s="245"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="275"/>
-      <c r="B23" s="252" t="s">
+      <c r="A23" s="269"/>
+      <c r="B23" s="246" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="253"/>
-      <c r="D23" s="254"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="248"/>
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
       <c r="G23" s="46"/>
@@ -46348,20 +46351,20 @@
       <c r="L23" s="56"/>
       <c r="M23" s="37"/>
       <c r="N23" s="38"/>
-      <c r="O23" s="227"/>
-      <c r="P23" s="235"/>
-      <c r="Q23" s="235"/>
-      <c r="R23" s="235"/>
-      <c r="S23" s="235"/>
-      <c r="T23" s="228"/>
+      <c r="O23" s="296"/>
+      <c r="P23" s="244"/>
+      <c r="Q23" s="244"/>
+      <c r="R23" s="244"/>
+      <c r="S23" s="244"/>
+      <c r="T23" s="245"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="275"/>
-      <c r="B24" s="279" t="s">
+      <c r="A24" s="269"/>
+      <c r="B24" s="241" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="294"/>
-      <c r="D24" s="295"/>
+      <c r="C24" s="242"/>
+      <c r="D24" s="243"/>
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
       <c r="G24" s="46"/>
@@ -46372,20 +46375,20 @@
       <c r="L24" s="56"/>
       <c r="M24" s="37"/>
       <c r="N24" s="38"/>
-      <c r="O24" s="227"/>
-      <c r="P24" s="235"/>
-      <c r="Q24" s="235"/>
-      <c r="R24" s="235"/>
-      <c r="S24" s="235"/>
-      <c r="T24" s="228"/>
+      <c r="O24" s="296"/>
+      <c r="P24" s="244"/>
+      <c r="Q24" s="244"/>
+      <c r="R24" s="244"/>
+      <c r="S24" s="244"/>
+      <c r="T24" s="245"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="275"/>
-      <c r="B25" s="279" t="s">
+      <c r="A25" s="269"/>
+      <c r="B25" s="241" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="295"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="243"/>
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
       <c r="G25" s="46"/>
@@ -46396,20 +46399,20 @@
       <c r="L25" s="56"/>
       <c r="M25" s="37"/>
       <c r="N25" s="38"/>
-      <c r="O25" s="227"/>
-      <c r="P25" s="235"/>
-      <c r="Q25" s="235"/>
-      <c r="R25" s="235"/>
-      <c r="S25" s="235"/>
-      <c r="T25" s="228"/>
+      <c r="O25" s="296"/>
+      <c r="P25" s="244"/>
+      <c r="Q25" s="244"/>
+      <c r="R25" s="244"/>
+      <c r="S25" s="244"/>
+      <c r="T25" s="245"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="275"/>
-      <c r="B26" s="279" t="s">
+      <c r="A26" s="269"/>
+      <c r="B26" s="241" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="295"/>
+      <c r="C26" s="242"/>
+      <c r="D26" s="243"/>
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
       <c r="G26" s="46"/>
@@ -46420,20 +46423,20 @@
       <c r="L26" s="56"/>
       <c r="M26" s="37"/>
       <c r="N26" s="38"/>
-      <c r="O26" s="227"/>
-      <c r="P26" s="235"/>
-      <c r="Q26" s="235"/>
-      <c r="R26" s="235"/>
-      <c r="S26" s="235"/>
-      <c r="T26" s="228"/>
+      <c r="O26" s="296"/>
+      <c r="P26" s="244"/>
+      <c r="Q26" s="244"/>
+      <c r="R26" s="244"/>
+      <c r="S26" s="244"/>
+      <c r="T26" s="245"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="276"/>
-      <c r="B27" s="297" t="s">
+      <c r="A27" s="270"/>
+      <c r="B27" s="228" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="298"/>
-      <c r="D27" s="299"/>
+      <c r="C27" s="229"/>
+      <c r="D27" s="230"/>
       <c r="E27" s="95"/>
       <c r="F27" s="41"/>
       <c r="G27" s="47"/>
@@ -46444,22 +46447,22 @@
       <c r="L27" s="59"/>
       <c r="M27" s="95"/>
       <c r="N27" s="41"/>
-      <c r="O27" s="321"/>
-      <c r="P27" s="289"/>
-      <c r="Q27" s="289"/>
-      <c r="R27" s="289"/>
-      <c r="S27" s="289"/>
-      <c r="T27" s="291"/>
+      <c r="O27" s="305"/>
+      <c r="P27" s="233"/>
+      <c r="Q27" s="233"/>
+      <c r="R27" s="233"/>
+      <c r="S27" s="233"/>
+      <c r="T27" s="234"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="300" t="s">
+      <c r="B28" s="235" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="301"/>
-      <c r="D28" s="302"/>
+      <c r="C28" s="236"/>
+      <c r="D28" s="237"/>
       <c r="E28" s="96"/>
       <c r="F28" s="97"/>
       <c r="G28" s="60"/>
@@ -46470,17 +46473,17 @@
       <c r="L28" s="62"/>
       <c r="M28" s="96"/>
       <c r="N28" s="97"/>
-      <c r="O28" s="326"/>
-      <c r="P28" s="232"/>
-      <c r="Q28" s="232"/>
-      <c r="R28" s="232"/>
-      <c r="S28" s="232"/>
-      <c r="T28" s="242"/>
+      <c r="O28" s="307"/>
+      <c r="P28" s="239"/>
+      <c r="Q28" s="239"/>
+      <c r="R28" s="239"/>
+      <c r="S28" s="239"/>
+      <c r="T28" s="240"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="296"/>
-      <c r="C29" s="296"/>
-      <c r="D29" s="296"/>
+      <c r="B29" s="227"/>
+      <c r="C29" s="227"/>
+      <c r="D29" s="227"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="16" t="s">
@@ -46491,99 +46494,150 @@
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="223" t="s">
+      <c r="B31" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="223"/>
+      <c r="C31" s="178"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="223" t="s">
+      <c r="B32" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="223"/>
+      <c r="C32" s="178"/>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1">
       <c r="A33" s="19"/>
-      <c r="B33" s="223" t="s">
+      <c r="B33" s="178" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="223"/>
+      <c r="C33" s="178"/>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="223" t="s">
+      <c r="B34" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="223"/>
+      <c r="C34" s="178"/>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1">
-      <c r="B35" s="296"/>
-      <c r="C35" s="296"/>
-      <c r="D35" s="296"/>
+      <c r="B35" s="227"/>
+      <c r="C35" s="227"/>
+      <c r="D35" s="227"/>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1">
-      <c r="B36" s="296"/>
-      <c r="C36" s="296"/>
-      <c r="D36" s="296"/>
+      <c r="B36" s="227"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="227"/>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1">
-      <c r="B37" s="296"/>
-      <c r="C37" s="296"/>
-      <c r="D37" s="296"/>
+      <c r="B37" s="227"/>
+      <c r="C37" s="227"/>
+      <c r="D37" s="227"/>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1">
-      <c r="B38" s="296"/>
-      <c r="C38" s="296"/>
-      <c r="D38" s="296"/>
+      <c r="B38" s="227"/>
+      <c r="C38" s="227"/>
+      <c r="D38" s="227"/>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1">
-      <c r="B39" s="296"/>
-      <c r="C39" s="296"/>
-      <c r="D39" s="296"/>
+      <c r="B39" s="227"/>
+      <c r="C39" s="227"/>
+      <c r="D39" s="227"/>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1">
-      <c r="B40" s="296"/>
-      <c r="C40" s="296"/>
-      <c r="D40" s="296"/>
+      <c r="B40" s="227"/>
+      <c r="C40" s="227"/>
+      <c r="D40" s="227"/>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1">
-      <c r="B41" s="296"/>
-      <c r="C41" s="296"/>
-      <c r="D41" s="296"/>
+      <c r="B41" s="227"/>
+      <c r="C41" s="227"/>
+      <c r="D41" s="227"/>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1">
-      <c r="B42" s="296"/>
-      <c r="C42" s="296"/>
-      <c r="D42" s="296"/>
+      <c r="B42" s="227"/>
+      <c r="C42" s="227"/>
+      <c r="D42" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="Q10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S11:T11"/>
@@ -46608,82 +46662,31 @@
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="S21:T21"/>
     <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A16:A27"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/30_工程表/工程表_第2版.xlsx
+++ b/doc/30_工程表/工程表_第2版.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\doc0614朝\30_工程表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\doc0617編集\30_工程表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F770BF4-BEB1-4CE9-A4E2-D5FF1C9B914F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A64393-5BCC-40BE-8F45-0F4537170571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1692" yWindow="828" windowWidth="13800" windowHeight="10176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="月間" sheetId="4" r:id="rId1"/>
     <sheet name="週間_第1週" sheetId="12" r:id="rId2"/>
     <sheet name="週間_第2週" sheetId="11" r:id="rId3"/>
-    <sheet name="週間(原本)" sheetId="10" r:id="rId4"/>
+    <sheet name="週間_第3週" sheetId="13" r:id="rId4"/>
+    <sheet name="週間_第4週" sheetId="14" r:id="rId5"/>
+    <sheet name="週間(原本)" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="115">
   <si>
     <t>年</t>
   </si>
@@ -828,6 +830,23 @@
     <t>岡崎一志</t>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>素材用意</t>
+    <rPh sb="0" eb="4">
+      <t>ソザイヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>サブ機能・未</t>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
@@ -928,7 +947,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1043,8 +1062,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="96">
+  <borders count="106">
     <border>
       <left/>
       <right/>
@@ -2315,11 +2346,129 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="452">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2836,6 +2985,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3304,7 +3459,370 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -5619,6 +6137,989 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1333499" cy="3482340"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37BB1CBA-5973-4D34-AF6F-A6FC8F6ACBD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2019300" y="4495800"/>
+          <a:ext cx="1333499" cy="3482340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>HTML</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>CSS</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1965960" cy="3756660"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A7A09EE-6E32-4C1D-B465-092101DF5B45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3421380" y="4221480"/>
+          <a:ext cx="1965960" cy="3756660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>JSP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>・サーブレット</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1272539" cy="327660"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D01FF59-B138-40CD-A943-5DBA5AAA318F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324101" y="3771900"/>
+          <a:ext cx="1272539" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>ロゴ・アイコン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>99061</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1226819" cy="220980"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F68E1F53-C575-4E25-A8E7-6A125FECAB14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2385061" y="1882140"/>
+          <a:ext cx="1226819" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>DAO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>作成</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>45721</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="815340" cy="3764280"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE95BCF-1826-494F-9C3E-786AD51B0037}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5532121" y="4213860"/>
+          <a:ext cx="815340" cy="3764280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>テストの</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>項目出し</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>CSS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>調整</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="701040" cy="6355080"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17DF367B-8472-4D74-AA1E-6D23EE98A69E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5585460" y="2065020"/>
+          <a:ext cx="701040" cy="6355080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>発表</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1470660" cy="6431280"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35A1B015-65D8-4362-8894-A17819FB6BC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="2004060"/>
+          <a:ext cx="1470660" cy="6431280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>リハ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1805940" cy="3680460"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640752EC-44CE-4FF9-A6CC-60FFCB006E83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1965960" y="4472940"/>
+          <a:ext cx="1805940" cy="3680460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>プログラム調整</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>品質テスト</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1173480" cy="815340"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E242B7F3-6AB3-45FA-9ED4-7CC7C34FC16F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1943101" y="3512820"/>
+          <a:ext cx="1173480" cy="815340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>コーディング</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>調整</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>仮</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>) </a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1889760" cy="338041"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CBDF4AF-93DA-4911-9B63-71DE2743EB00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1912620" y="2598420"/>
+          <a:ext cx="1889760" cy="338041"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テスト・コーディング</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -5820,7 +7321,7 @@
   <dimension ref="A1:AO1013"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+      <selection activeCell="AK27" sqref="AK27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
@@ -5873,18 +7374,18 @@
       <c r="AJ1" s="2"/>
     </row>
     <row r="2" spans="1:41" ht="22.5" customHeight="1">
-      <c r="B2" s="221">
+      <c r="B2" s="223">
         <v>2024</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
       <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="221">
+      <c r="F2" s="223">
         <v>6</v>
       </c>
-      <c r="G2" s="201"/>
+      <c r="G2" s="203"/>
       <c r="H2" s="12" t="s">
         <v>1</v>
       </c>
@@ -5957,57 +7458,57 @@
       <c r="AJ3" s="3"/>
     </row>
     <row r="4" spans="1:41" ht="19.5" customHeight="1">
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="206" t="s">
+      <c r="C4" s="207"/>
+      <c r="D4" s="207"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="209" t="s">
+      <c r="G4" s="207"/>
+      <c r="H4" s="207"/>
+      <c r="I4" s="207"/>
+      <c r="J4" s="209"/>
+      <c r="K4" s="211" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="205"/>
-      <c r="M4" s="205"/>
-      <c r="N4" s="207"/>
-      <c r="O4" s="206" t="s">
+      <c r="L4" s="207"/>
+      <c r="M4" s="207"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="205"/>
-      <c r="Q4" s="205"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="207"/>
-      <c r="T4" s="209" t="s">
+      <c r="P4" s="207"/>
+      <c r="Q4" s="207"/>
+      <c r="R4" s="207"/>
+      <c r="S4" s="209"/>
+      <c r="T4" s="211" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="205"/>
-      <c r="V4" s="205"/>
-      <c r="W4" s="207"/>
-      <c r="X4" s="210">
+      <c r="U4" s="207"/>
+      <c r="V4" s="207"/>
+      <c r="W4" s="209"/>
+      <c r="X4" s="212">
         <v>45451</v>
       </c>
-      <c r="Y4" s="205"/>
-      <c r="Z4" s="205"/>
-      <c r="AA4" s="205"/>
-      <c r="AB4" s="207"/>
-      <c r="AC4" s="209" t="s">
+      <c r="Y4" s="207"/>
+      <c r="Z4" s="207"/>
+      <c r="AA4" s="207"/>
+      <c r="AB4" s="209"/>
+      <c r="AC4" s="211" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="205"/>
-      <c r="AE4" s="205"/>
-      <c r="AF4" s="205"/>
-      <c r="AG4" s="195">
+      <c r="AD4" s="207"/>
+      <c r="AE4" s="207"/>
+      <c r="AF4" s="207"/>
+      <c r="AG4" s="197">
         <v>45451</v>
       </c>
-      <c r="AH4" s="196"/>
-      <c r="AI4" s="196"/>
-      <c r="AJ4" s="196"/>
+      <c r="AH4" s="198"/>
+      <c r="AI4" s="198"/>
+      <c r="AJ4" s="198"/>
     </row>
     <row r="5" spans="1:41" ht="18.75" customHeight="1">
       <c r="B5" s="2"/>
@@ -6047,52 +7548,52 @@
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:41" ht="18.75" customHeight="1">
-      <c r="B6" s="197"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="199"/>
+      <c r="B6" s="199"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="200"/>
+      <c r="E6" s="201"/>
       <c r="F6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="204">
+      <c r="G6" s="206">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="205"/>
-      <c r="I6" s="205"/>
-      <c r="J6" s="205"/>
-      <c r="K6" s="205"/>
-      <c r="L6" s="205"/>
-      <c r="M6" s="205"/>
-      <c r="N6" s="205"/>
-      <c r="O6" s="205"/>
-      <c r="P6" s="205"/>
-      <c r="Q6" s="205"/>
-      <c r="R6" s="205"/>
-      <c r="S6" s="205"/>
-      <c r="T6" s="205"/>
-      <c r="U6" s="205"/>
-      <c r="V6" s="205"/>
-      <c r="W6" s="205"/>
-      <c r="X6" s="205"/>
-      <c r="Y6" s="205"/>
-      <c r="Z6" s="205"/>
-      <c r="AA6" s="205"/>
-      <c r="AB6" s="205"/>
-      <c r="AC6" s="205"/>
-      <c r="AD6" s="205"/>
-      <c r="AE6" s="205"/>
-      <c r="AF6" s="205"/>
-      <c r="AG6" s="205"/>
-      <c r="AH6" s="205"/>
-      <c r="AI6" s="205"/>
-      <c r="AJ6" s="205"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="207"/>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="207"/>
+      <c r="O6" s="207"/>
+      <c r="P6" s="207"/>
+      <c r="Q6" s="207"/>
+      <c r="R6" s="207"/>
+      <c r="S6" s="207"/>
+      <c r="T6" s="207"/>
+      <c r="U6" s="207"/>
+      <c r="V6" s="207"/>
+      <c r="W6" s="207"/>
+      <c r="X6" s="207"/>
+      <c r="Y6" s="207"/>
+      <c r="Z6" s="207"/>
+      <c r="AA6" s="207"/>
+      <c r="AB6" s="207"/>
+      <c r="AC6" s="207"/>
+      <c r="AD6" s="207"/>
+      <c r="AE6" s="207"/>
+      <c r="AF6" s="207"/>
+      <c r="AG6" s="207"/>
+      <c r="AH6" s="207"/>
+      <c r="AI6" s="207"/>
+      <c r="AJ6" s="207"/>
     </row>
     <row r="7" spans="1:41" ht="22.5" customHeight="1">
-      <c r="B7" s="200"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="202"/>
+      <c r="B7" s="202"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="203"/>
+      <c r="E7" s="204"/>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
@@ -6218,10 +7719,10 @@
       </c>
     </row>
     <row r="8" spans="1:41" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B8" s="200"/>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
-      <c r="E8" s="202"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="204"/>
       <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
@@ -6359,16 +7860,16 @@
       </c>
     </row>
     <row r="9" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A9" s="211" t="s">
+      <c r="A9" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="208" t="s">
+      <c r="B9" s="210" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="192"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="193"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="195"/>
       <c r="G9" s="117"/>
       <c r="H9" s="118"/>
       <c r="I9" s="118"/>
@@ -6385,7 +7886,7 @@
       <c r="T9" s="166"/>
       <c r="U9" s="118"/>
       <c r="V9" s="118"/>
-      <c r="W9" s="119"/>
+      <c r="W9" s="166"/>
       <c r="X9" s="119"/>
       <c r="Y9" s="118"/>
       <c r="Z9" s="118"/>
@@ -6413,14 +7914,14 @@
       </c>
     </row>
     <row r="10" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A10" s="212"/>
-      <c r="B10" s="224" t="s">
+      <c r="A10" s="214"/>
+      <c r="B10" s="226" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="205"/>
-      <c r="D10" s="205"/>
-      <c r="E10" s="205"/>
-      <c r="F10" s="207"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="209"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -6463,14 +7964,14 @@
       </c>
     </row>
     <row r="11" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A11" s="212"/>
-      <c r="B11" s="224" t="s">
+      <c r="A11" s="214"/>
+      <c r="B11" s="226" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="205"/>
-      <c r="D11" s="205"/>
-      <c r="E11" s="205"/>
-      <c r="F11" s="207"/>
+      <c r="C11" s="207"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="207"/>
+      <c r="F11" s="209"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -6513,14 +8014,14 @@
       </c>
     </row>
     <row r="12" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A12" s="212"/>
-      <c r="B12" s="224" t="s">
+      <c r="A12" s="214"/>
+      <c r="B12" s="226" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="205"/>
-      <c r="D12" s="205"/>
-      <c r="E12" s="205"/>
-      <c r="F12" s="207"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="207"/>
+      <c r="F12" s="209"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -6565,14 +8066,14 @@
       </c>
     </row>
     <row r="13" spans="1:41" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A13" s="213"/>
-      <c r="B13" s="225" t="s">
+      <c r="A13" s="215"/>
+      <c r="B13" s="227" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="198"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="199"/>
+      <c r="C13" s="200"/>
+      <c r="D13" s="200"/>
+      <c r="E13" s="200"/>
+      <c r="F13" s="201"/>
       <c r="G13" s="28"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -6615,16 +8116,16 @@
       </c>
     </row>
     <row r="14" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A14" s="214" t="s">
+      <c r="A14" s="216" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="222" t="s">
+      <c r="B14" s="224" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="223"/>
-      <c r="D14" s="223"/>
-      <c r="E14" s="223"/>
-      <c r="F14" s="223"/>
+      <c r="C14" s="225"/>
+      <c r="D14" s="225"/>
+      <c r="E14" s="225"/>
+      <c r="F14" s="225"/>
       <c r="G14" s="129"/>
       <c r="H14" s="129"/>
       <c r="I14" s="130"/>
@@ -6666,14 +8167,14 @@
       </c>
     </row>
     <row r="15" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A15" s="215"/>
-      <c r="B15" s="185" t="s">
+      <c r="A15" s="217"/>
+      <c r="B15" s="187" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="29"/>
@@ -6715,14 +8216,14 @@
       </c>
     </row>
     <row r="16" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A16" s="215"/>
-      <c r="B16" s="185" t="s">
+      <c r="A16" s="217"/>
+      <c r="B16" s="187" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
+      <c r="C16" s="188"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="188"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="29"/>
@@ -6739,7 +8240,7 @@
       <c r="T16" s="21"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
-      <c r="W16" s="13"/>
+      <c r="W16" s="21"/>
       <c r="X16" s="13"/>
       <c r="Y16" s="13"/>
       <c r="Z16" s="11"/>
@@ -6762,14 +8263,14 @@
       </c>
     </row>
     <row r="17" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A17" s="215"/>
-      <c r="B17" s="187" t="s">
+      <c r="A17" s="217"/>
+      <c r="B17" s="189" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="188"/>
-      <c r="D17" s="188"/>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
+      <c r="C17" s="190"/>
+      <c r="D17" s="190"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="29"/>
@@ -6786,7 +8287,7 @@
       <c r="T17" s="21"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
-      <c r="W17" s="13"/>
+      <c r="W17" s="21"/>
       <c r="X17" s="13"/>
       <c r="Y17" s="13"/>
       <c r="Z17" s="11"/>
@@ -6811,14 +8312,14 @@
       </c>
     </row>
     <row r="18" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A18" s="215"/>
-      <c r="B18" s="187" t="s">
+      <c r="A18" s="217"/>
+      <c r="B18" s="189" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="188"/>
-      <c r="D18" s="188"/>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="30"/>
@@ -6835,7 +8336,7 @@
       <c r="T18" s="21"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
-      <c r="W18" s="13"/>
+      <c r="W18" s="21"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
       <c r="Z18" s="11"/>
@@ -6860,14 +8361,14 @@
       </c>
     </row>
     <row r="19" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A19" s="216"/>
-      <c r="B19" s="189" t="s">
+      <c r="A19" s="218"/>
+      <c r="B19" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="190"/>
-      <c r="D19" s="190"/>
-      <c r="E19" s="190"/>
-      <c r="F19" s="190"/>
+      <c r="C19" s="192"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="192"/>
       <c r="G19" s="132"/>
       <c r="H19" s="132"/>
       <c r="I19" s="133"/>
@@ -6909,16 +8410,16 @@
       </c>
     </row>
     <row r="20" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A20" s="217" t="s">
+      <c r="A20" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="191" t="s">
+      <c r="B20" s="193" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="192"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="193"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="195"/>
       <c r="G20" s="118"/>
       <c r="H20" s="118"/>
       <c r="I20" s="118"/>
@@ -6935,7 +8436,7 @@
       <c r="T20" s="169"/>
       <c r="U20" s="118"/>
       <c r="V20" s="118"/>
-      <c r="W20" s="119"/>
+      <c r="W20" s="166"/>
       <c r="X20" s="119"/>
       <c r="Y20" s="119"/>
       <c r="Z20" s="119"/>
@@ -6960,14 +8461,14 @@
       </c>
     </row>
     <row r="21" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A21" s="218"/>
-      <c r="B21" s="175" t="s">
+      <c r="A21" s="220"/>
+      <c r="B21" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="176"/>
-      <c r="D21" s="176"/>
-      <c r="E21" s="176"/>
-      <c r="F21" s="177"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="179"/>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -7007,14 +8508,14 @@
       </c>
     </row>
     <row r="22" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A22" s="218"/>
-      <c r="B22" s="172" t="s">
+      <c r="A22" s="220"/>
+      <c r="B22" s="174" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="172"/>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="194"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="196"/>
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -7056,14 +8557,14 @@
       </c>
     </row>
     <row r="23" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A23" s="218"/>
-      <c r="B23" s="172" t="s">
+      <c r="A23" s="220"/>
+      <c r="B23" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="172"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="194"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="174"/>
+      <c r="E23" s="174"/>
+      <c r="F23" s="196"/>
       <c r="G23" s="10"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -7080,7 +8581,7 @@
       <c r="T23" s="31"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
-      <c r="W23" s="13"/>
+      <c r="W23" s="170"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
@@ -7105,14 +8606,14 @@
       </c>
     </row>
     <row r="24" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A24" s="218"/>
-      <c r="B24" s="172" t="s">
+      <c r="A24" s="220"/>
+      <c r="B24" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="172"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="194"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="196"/>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -7129,7 +8630,7 @@
       <c r="T24" s="170"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
-      <c r="W24" s="13"/>
+      <c r="W24" s="21"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
@@ -7152,14 +8653,14 @@
       </c>
     </row>
     <row r="25" spans="1:39" ht="22.2" customHeight="1">
-      <c r="A25" s="218"/>
-      <c r="B25" s="226" t="s">
+      <c r="A25" s="220"/>
+      <c r="B25" s="228" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="173"/>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="174"/>
+      <c r="C25" s="175"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="176"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -7173,10 +8674,10 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="11"/>
-      <c r="T25" s="21"/>
+      <c r="T25" s="170"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
-      <c r="W25" s="13"/>
+      <c r="W25" s="21"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
@@ -7199,14 +8700,14 @@
       </c>
     </row>
     <row r="26" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A26" s="218"/>
-      <c r="B26" s="172" t="s">
+      <c r="A26" s="220"/>
+      <c r="B26" s="174" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="173"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="174"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="176"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -7223,7 +8724,7 @@
       <c r="T26" s="31"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
-      <c r="W26" s="13"/>
+      <c r="W26" s="21"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
@@ -7246,14 +8747,14 @@
       </c>
     </row>
     <row r="27" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A27" s="218"/>
-      <c r="B27" s="172" t="s">
+      <c r="A27" s="220"/>
+      <c r="B27" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="174"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="176"/>
       <c r="G27" s="10"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -7270,7 +8771,7 @@
       <c r="T27" s="31"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
-      <c r="W27" s="13"/>
+      <c r="W27" s="31"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
@@ -7293,14 +8794,14 @@
       </c>
     </row>
     <row r="28" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A28" s="218"/>
-      <c r="B28" s="172" t="s">
+      <c r="A28" s="220"/>
+      <c r="B28" s="174" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="173"/>
-      <c r="D28" s="173"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="174"/>
+      <c r="C28" s="175"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="176"/>
       <c r="G28" s="10"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -7314,10 +8815,10 @@
       <c r="Q28" s="111"/>
       <c r="R28" s="111"/>
       <c r="S28" s="107"/>
-      <c r="T28" s="13"/>
+      <c r="T28" s="170"/>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
-      <c r="W28" s="13"/>
+      <c r="W28" s="21"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
@@ -7340,14 +8841,14 @@
       </c>
     </row>
     <row r="29" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A29" s="218"/>
-      <c r="B29" s="175" t="s">
+      <c r="A29" s="220"/>
+      <c r="B29" s="177" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="176"/>
-      <c r="D29" s="176"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="177"/>
+      <c r="C29" s="178"/>
+      <c r="D29" s="178"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="179"/>
       <c r="G29" s="10"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -7361,10 +8862,10 @@
       <c r="Q29" s="111"/>
       <c r="R29" s="111"/>
       <c r="S29" s="107"/>
-      <c r="T29" s="13"/>
+      <c r="T29" s="170"/>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
-      <c r="W29" s="13"/>
+      <c r="W29" s="21"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
@@ -7387,14 +8888,14 @@
       </c>
     </row>
     <row r="30" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A30" s="218"/>
-      <c r="B30" s="175" t="s">
+      <c r="A30" s="220"/>
+      <c r="B30" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="176"/>
-      <c r="D30" s="176"/>
-      <c r="E30" s="176"/>
-      <c r="F30" s="177"/>
+      <c r="C30" s="178"/>
+      <c r="D30" s="178"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="179"/>
       <c r="G30" s="10"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -7408,10 +8909,10 @@
       <c r="Q30" s="111"/>
       <c r="R30" s="111"/>
       <c r="S30" s="107"/>
-      <c r="T30" s="13"/>
+      <c r="T30" s="170"/>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
-      <c r="W30" s="13"/>
+      <c r="W30" s="21"/>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
@@ -7434,14 +8935,14 @@
       </c>
     </row>
     <row r="31" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A31" s="218"/>
-      <c r="B31" s="172" t="s">
+      <c r="A31" s="220"/>
+      <c r="B31" s="174" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="173"/>
-      <c r="D31" s="173"/>
-      <c r="E31" s="173"/>
-      <c r="F31" s="174"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="176"/>
       <c r="G31" s="10"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -7458,7 +8959,7 @@
       <c r="T31" s="31"/>
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
-      <c r="W31" s="13"/>
+      <c r="W31" s="21"/>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
@@ -7481,14 +8982,14 @@
       </c>
     </row>
     <row r="32" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A32" s="218"/>
-      <c r="B32" s="175" t="s">
+      <c r="A32" s="220"/>
+      <c r="B32" s="177" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="176"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="177"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="179"/>
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -7505,7 +9006,7 @@
       <c r="T32" s="21"/>
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
-      <c r="W32" s="13"/>
+      <c r="W32" s="21"/>
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
@@ -7528,14 +9029,14 @@
       </c>
     </row>
     <row r="33" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A33" s="218"/>
-      <c r="B33" s="175" t="s">
+      <c r="A33" s="220"/>
+      <c r="B33" s="177" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="177"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="179"/>
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -7552,7 +9053,7 @@
       <c r="T33" s="170"/>
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
-      <c r="W33" s="13"/>
+      <c r="W33" s="21"/>
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
@@ -7575,14 +9076,14 @@
       </c>
     </row>
     <row r="34" spans="1:39" ht="22.2" customHeight="1">
-      <c r="A34" s="218"/>
-      <c r="B34" s="175" t="s">
+      <c r="A34" s="220"/>
+      <c r="B34" s="177" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="177"/>
+      <c r="C34" s="178"/>
+      <c r="D34" s="178"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="179"/>
       <c r="G34" s="10"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -7599,7 +9100,7 @@
       <c r="T34" s="31"/>
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
-      <c r="W34" s="13"/>
+      <c r="W34" s="21"/>
       <c r="X34" s="13"/>
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
@@ -7622,14 +9123,14 @@
       </c>
     </row>
     <row r="35" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A35" s="219"/>
-      <c r="B35" s="182" t="s">
+      <c r="A35" s="221"/>
+      <c r="B35" s="184" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="183"/>
-      <c r="D35" s="183"/>
-      <c r="E35" s="183"/>
-      <c r="F35" s="184"/>
+      <c r="C35" s="185"/>
+      <c r="D35" s="185"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="186"/>
       <c r="G35" s="28"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
@@ -7643,10 +9144,10 @@
       <c r="Q35" s="168"/>
       <c r="R35" s="168"/>
       <c r="S35" s="109"/>
-      <c r="T35" s="328"/>
+      <c r="T35" s="172"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
-      <c r="W35" s="26"/>
+      <c r="W35" s="451"/>
       <c r="X35" s="26"/>
       <c r="Y35" s="26"/>
       <c r="Z35" s="26"/>
@@ -7669,14 +9170,14 @@
       </c>
     </row>
     <row r="36" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A36" s="220"/>
-      <c r="B36" s="182" t="s">
+      <c r="A36" s="222"/>
+      <c r="B36" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="183"/>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183"/>
-      <c r="F36" s="184"/>
+      <c r="C36" s="185"/>
+      <c r="D36" s="185"/>
+      <c r="E36" s="185"/>
+      <c r="F36" s="186"/>
       <c r="G36" s="123"/>
       <c r="H36" s="124"/>
       <c r="I36" s="124"/>
@@ -7719,13 +9220,13 @@
       <c r="A37" s="140" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="179" t="s">
+      <c r="B37" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="180"/>
-      <c r="D37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="181"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="182"/>
+      <c r="E37" s="182"/>
+      <c r="F37" s="183"/>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -7844,12 +9345,12 @@
     <row r="40" spans="1:39" ht="22.5" customHeight="1">
       <c r="A40" s="17"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="178" t="s">
+      <c r="C40" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="178"/>
-      <c r="E40" s="178"/>
-      <c r="F40" s="178"/>
+      <c r="D40" s="180"/>
+      <c r="E40" s="180"/>
+      <c r="F40" s="180"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -7884,12 +9385,12 @@
     <row r="41" spans="1:39" ht="22.5" customHeight="1">
       <c r="A41" s="171"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="178" t="s">
+      <c r="C41" s="180" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="178"/>
-      <c r="E41" s="178"/>
-      <c r="F41" s="178"/>
+      <c r="D41" s="180"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="180"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -7924,12 +9425,12 @@
     <row r="42" spans="1:39" ht="22.5" customHeight="1">
       <c r="A42" s="18"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="178" t="s">
+      <c r="C42" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="178"/>
-      <c r="E42" s="178"/>
-      <c r="F42" s="178"/>
+      <c r="D42" s="180"/>
+      <c r="E42" s="180"/>
+      <c r="F42" s="180"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -7964,12 +9465,12 @@
     <row r="43" spans="1:39" ht="22.5" customHeight="1">
       <c r="A43" s="19"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="178" t="s">
+      <c r="C43" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="178"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="178"/>
+      <c r="D43" s="180"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="180"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -8004,12 +9505,12 @@
     <row r="44" spans="1:39" ht="22.5" customHeight="1">
       <c r="A44" s="20"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="178" t="s">
+      <c r="C44" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="178"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="178"/>
+      <c r="D44" s="180"/>
+      <c r="E44" s="180"/>
+      <c r="F44" s="180"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -8044,12 +9545,12 @@
     <row r="45" spans="1:39" ht="22.5" customHeight="1">
       <c r="A45" s="75"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="178" t="s">
+      <c r="C45" s="180" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="178"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="178"/>
+      <c r="D45" s="180"/>
+      <c r="E45" s="180"/>
+      <c r="F45" s="180"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -43969,7 +45470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2009E1-BDBC-4192-B1E5-BC497DEC5159}">
   <dimension ref="A2:Y42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B35" sqref="A35:C35"/>
     </sheetView>
   </sheetViews>
@@ -43982,85 +45483,85 @@
       <c r="B2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="299" t="s">
+      <c r="G2" s="301" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="300"/>
-      <c r="I2" s="289" t="s">
+      <c r="H2" s="302"/>
+      <c r="I2" s="291" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="244"/>
-      <c r="L2" s="299" t="s">
+      <c r="J2" s="246"/>
+      <c r="L2" s="301" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="300"/>
-      <c r="N2" s="289" t="s">
+      <c r="M2" s="302"/>
+      <c r="N2" s="291" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="244"/>
-      <c r="Q2" s="299" t="s">
+      <c r="O2" s="246"/>
+      <c r="Q2" s="301" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="300"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="244"/>
-      <c r="V2" s="299" t="s">
+      <c r="R2" s="302"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="246"/>
+      <c r="V2" s="301" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="300"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
+      <c r="W2" s="302"/>
+      <c r="X2" s="246"/>
+      <c r="Y2" s="246"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="D4" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="301" t="s">
+      <c r="E4" s="303" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="264"/>
-      <c r="G4" s="231" t="s">
+      <c r="F4" s="266"/>
+      <c r="G4" s="233" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="302"/>
-      <c r="I4" s="301" t="s">
+      <c r="H4" s="304"/>
+      <c r="I4" s="303" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="264"/>
-      <c r="K4" s="231" t="s">
+      <c r="J4" s="266"/>
+      <c r="K4" s="233" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="302"/>
-      <c r="M4" s="301" t="s">
+      <c r="L4" s="304"/>
+      <c r="M4" s="303" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="264"/>
+      <c r="N4" s="266"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D5" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="296">
+      <c r="E5" s="298">
         <v>3</v>
       </c>
-      <c r="F5" s="245"/>
-      <c r="G5" s="280">
+      <c r="F5" s="247"/>
+      <c r="G5" s="282">
         <v>4</v>
       </c>
-      <c r="H5" s="297"/>
-      <c r="I5" s="296">
+      <c r="H5" s="299"/>
+      <c r="I5" s="298">
         <v>5</v>
       </c>
-      <c r="J5" s="245"/>
-      <c r="K5" s="280">
+      <c r="J5" s="247"/>
+      <c r="K5" s="282">
         <v>6</v>
       </c>
-      <c r="L5" s="297"/>
-      <c r="M5" s="296">
+      <c r="L5" s="299"/>
+      <c r="M5" s="298">
         <v>7</v>
       </c>
-      <c r="N5" s="245"/>
+      <c r="N5" s="247"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D6" s="78" t="s">
@@ -44096,28 +45597,28 @@
       <c r="N6" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="298" t="s">
+      <c r="O6" s="300" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="303" t="s">
+      <c r="P6" s="241"/>
+      <c r="Q6" s="305" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="239"/>
-      <c r="S6" s="303" t="s">
+      <c r="R6" s="241"/>
+      <c r="S6" s="305" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="240"/>
+      <c r="T6" s="242"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="281" t="s">
+      <c r="A7" s="283" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="271" t="s">
+      <c r="B7" s="273" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="285"/>
+      <c r="C7" s="286"/>
+      <c r="D7" s="287"/>
       <c r="E7" s="80"/>
       <c r="F7" s="81"/>
       <c r="G7" s="63"/>
@@ -44128,22 +45629,22 @@
       <c r="L7" s="55"/>
       <c r="M7" s="93"/>
       <c r="N7" s="43"/>
-      <c r="O7" s="286" t="s">
+      <c r="O7" s="288" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="287"/>
-      <c r="Q7" s="287"/>
-      <c r="R7" s="287"/>
-      <c r="S7" s="287"/>
-      <c r="T7" s="288"/>
+      <c r="P7" s="289"/>
+      <c r="Q7" s="289"/>
+      <c r="R7" s="289"/>
+      <c r="S7" s="289"/>
+      <c r="T7" s="290"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="282"/>
-      <c r="B8" s="246" t="s">
+      <c r="A8" s="284"/>
+      <c r="B8" s="248" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="247"/>
-      <c r="D8" s="248"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="250"/>
       <c r="E8" s="82"/>
       <c r="F8" s="83"/>
       <c r="G8" s="65"/>
@@ -44154,22 +45655,22 @@
       <c r="L8" s="56"/>
       <c r="M8" s="37"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="289" t="s">
+      <c r="O8" s="291" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="244"/>
-      <c r="Q8" s="244"/>
-      <c r="R8" s="244"/>
-      <c r="S8" s="244"/>
-      <c r="T8" s="245"/>
+      <c r="P8" s="246"/>
+      <c r="Q8" s="246"/>
+      <c r="R8" s="246"/>
+      <c r="S8" s="246"/>
+      <c r="T8" s="247"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="282"/>
-      <c r="B9" s="246" t="s">
+      <c r="A9" s="284"/>
+      <c r="B9" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="247"/>
-      <c r="D9" s="248"/>
+      <c r="C9" s="249"/>
+      <c r="D9" s="250"/>
       <c r="E9" s="82"/>
       <c r="F9" s="84"/>
       <c r="G9" s="65"/>
@@ -44180,24 +45681,24 @@
       <c r="L9" s="56"/>
       <c r="M9" s="37"/>
       <c r="N9" s="38"/>
-      <c r="O9" s="276" t="s">
+      <c r="O9" s="278" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="244"/>
-      <c r="Q9" s="289" t="s">
+      <c r="P9" s="246"/>
+      <c r="Q9" s="291" t="s">
         <v>70</v>
       </c>
-      <c r="R9" s="244"/>
-      <c r="S9" s="244"/>
-      <c r="T9" s="245"/>
+      <c r="R9" s="246"/>
+      <c r="S9" s="246"/>
+      <c r="T9" s="247"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="282"/>
-      <c r="B10" s="246" t="s">
+      <c r="A10" s="284"/>
+      <c r="B10" s="248" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="247"/>
-      <c r="D10" s="248"/>
+      <c r="C10" s="249"/>
+      <c r="D10" s="250"/>
       <c r="E10" s="82"/>
       <c r="F10" s="83"/>
       <c r="G10" s="65"/>
@@ -44208,20 +45709,20 @@
       <c r="L10" s="56"/>
       <c r="M10" s="37"/>
       <c r="N10" s="38"/>
-      <c r="O10" s="280"/>
-      <c r="P10" s="244"/>
-      <c r="Q10" s="244"/>
-      <c r="R10" s="244"/>
-      <c r="S10" s="244"/>
-      <c r="T10" s="245"/>
+      <c r="O10" s="282"/>
+      <c r="P10" s="246"/>
+      <c r="Q10" s="246"/>
+      <c r="R10" s="246"/>
+      <c r="S10" s="246"/>
+      <c r="T10" s="247"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="283"/>
-      <c r="B11" s="290" t="s">
+      <c r="A11" s="285"/>
+      <c r="B11" s="292" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="291"/>
-      <c r="D11" s="292"/>
+      <c r="C11" s="293"/>
+      <c r="D11" s="294"/>
       <c r="E11" s="85"/>
       <c r="F11" s="86"/>
       <c r="G11" s="67"/>
@@ -44232,22 +45733,22 @@
       <c r="L11" s="57"/>
       <c r="M11" s="94"/>
       <c r="N11" s="51"/>
-      <c r="O11" s="293"/>
-      <c r="P11" s="294"/>
-      <c r="Q11" s="294"/>
-      <c r="R11" s="294"/>
-      <c r="S11" s="294"/>
-      <c r="T11" s="295"/>
+      <c r="O11" s="295"/>
+      <c r="P11" s="296"/>
+      <c r="Q11" s="296"/>
+      <c r="R11" s="296"/>
+      <c r="S11" s="296"/>
+      <c r="T11" s="297"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="256" t="s">
+      <c r="A12" s="258" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="259" t="s">
+      <c r="B12" s="261" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="260"/>
-      <c r="D12" s="261"/>
+      <c r="C12" s="262"/>
+      <c r="D12" s="263"/>
       <c r="E12" s="87"/>
       <c r="F12" s="88"/>
       <c r="G12" s="69"/>
@@ -44258,22 +45759,22 @@
       <c r="L12" s="58"/>
       <c r="M12" s="35"/>
       <c r="N12" s="106"/>
-      <c r="O12" s="262" t="s">
+      <c r="O12" s="264" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="263"/>
-      <c r="Q12" s="232"/>
-      <c r="R12" s="232"/>
-      <c r="S12" s="232"/>
-      <c r="T12" s="264"/>
+      <c r="P12" s="265"/>
+      <c r="Q12" s="234"/>
+      <c r="R12" s="234"/>
+      <c r="S12" s="234"/>
+      <c r="T12" s="266"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="257"/>
-      <c r="B13" s="265" t="s">
+      <c r="A13" s="259"/>
+      <c r="B13" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="266"/>
-      <c r="D13" s="267"/>
+      <c r="C13" s="268"/>
+      <c r="D13" s="269"/>
       <c r="E13" s="82"/>
       <c r="F13" s="83"/>
       <c r="G13" s="65"/>
@@ -44284,22 +45785,22 @@
       <c r="L13" s="104"/>
       <c r="M13" s="99"/>
       <c r="N13" s="99"/>
-      <c r="O13" s="276" t="s">
+      <c r="O13" s="278" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="244"/>
-      <c r="Q13" s="244"/>
-      <c r="R13" s="244"/>
-      <c r="S13" s="244"/>
-      <c r="T13" s="245"/>
+      <c r="P13" s="246"/>
+      <c r="Q13" s="246"/>
+      <c r="R13" s="246"/>
+      <c r="S13" s="246"/>
+      <c r="T13" s="247"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="257"/>
-      <c r="B14" s="265" t="s">
+      <c r="A14" s="259"/>
+      <c r="B14" s="267" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="277"/>
-      <c r="D14" s="278"/>
+      <c r="C14" s="279"/>
+      <c r="D14" s="280"/>
       <c r="E14" s="82"/>
       <c r="F14" s="83"/>
       <c r="G14" s="65"/>
@@ -44310,22 +45811,22 @@
       <c r="L14" s="104"/>
       <c r="M14" s="99"/>
       <c r="N14" s="99"/>
-      <c r="O14" s="279" t="s">
+      <c r="O14" s="281" t="s">
         <v>72</v>
       </c>
-      <c r="P14" s="280"/>
-      <c r="Q14" s="244"/>
-      <c r="R14" s="244"/>
-      <c r="S14" s="244"/>
-      <c r="T14" s="245"/>
+      <c r="P14" s="282"/>
+      <c r="Q14" s="246"/>
+      <c r="R14" s="246"/>
+      <c r="S14" s="246"/>
+      <c r="T14" s="247"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="258"/>
-      <c r="B15" s="251" t="s">
+      <c r="A15" s="260"/>
+      <c r="B15" s="253" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="252"/>
-      <c r="D15" s="253"/>
+      <c r="C15" s="254"/>
+      <c r="D15" s="255"/>
       <c r="E15" s="89"/>
       <c r="F15" s="90"/>
       <c r="G15" s="71"/>
@@ -44336,24 +45837,24 @@
       <c r="L15" s="105"/>
       <c r="M15" s="102"/>
       <c r="N15" s="102"/>
-      <c r="O15" s="254" t="s">
+      <c r="O15" s="256" t="s">
         <v>71</v>
       </c>
-      <c r="P15" s="233"/>
-      <c r="Q15" s="255"/>
-      <c r="R15" s="233"/>
-      <c r="S15" s="233"/>
-      <c r="T15" s="234"/>
+      <c r="P15" s="235"/>
+      <c r="Q15" s="257"/>
+      <c r="R15" s="235"/>
+      <c r="S15" s="235"/>
+      <c r="T15" s="236"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A16" s="268" t="s">
+      <c r="A16" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="271" t="s">
+      <c r="B16" s="273" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="272"/>
-      <c r="D16" s="273"/>
+      <c r="C16" s="274"/>
+      <c r="D16" s="275"/>
       <c r="E16" s="87"/>
       <c r="F16" s="88"/>
       <c r="G16" s="69"/>
@@ -44364,22 +45865,22 @@
       <c r="L16" s="58"/>
       <c r="M16" s="35"/>
       <c r="N16" s="53"/>
-      <c r="O16" s="231" t="s">
+      <c r="O16" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="P16" s="232"/>
-      <c r="Q16" s="231"/>
-      <c r="R16" s="232"/>
-      <c r="S16" s="232"/>
-      <c r="T16" s="264"/>
+      <c r="P16" s="234"/>
+      <c r="Q16" s="233"/>
+      <c r="R16" s="234"/>
+      <c r="S16" s="234"/>
+      <c r="T16" s="266"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A17" s="269"/>
-      <c r="B17" s="241" t="s">
+      <c r="A17" s="271"/>
+      <c r="B17" s="243" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="274"/>
-      <c r="D17" s="275"/>
+      <c r="C17" s="276"/>
+      <c r="D17" s="277"/>
       <c r="E17" s="82"/>
       <c r="F17" s="83"/>
       <c r="G17" s="65"/>
@@ -44390,22 +45891,22 @@
       <c r="L17" s="56"/>
       <c r="M17" s="37"/>
       <c r="N17" s="38"/>
-      <c r="O17" s="231" t="s">
+      <c r="O17" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="P17" s="232"/>
-      <c r="Q17" s="231"/>
-      <c r="R17" s="232"/>
-      <c r="S17" s="244"/>
-      <c r="T17" s="245"/>
+      <c r="P17" s="234"/>
+      <c r="Q17" s="233"/>
+      <c r="R17" s="234"/>
+      <c r="S17" s="246"/>
+      <c r="T17" s="247"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A18" s="269"/>
-      <c r="B18" s="241" t="s">
+      <c r="A18" s="271"/>
+      <c r="B18" s="243" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="274"/>
-      <c r="D18" s="275"/>
+      <c r="C18" s="276"/>
+      <c r="D18" s="277"/>
       <c r="E18" s="82"/>
       <c r="F18" s="83"/>
       <c r="G18" s="65"/>
@@ -44416,22 +45917,22 @@
       <c r="L18" s="56"/>
       <c r="M18" s="37"/>
       <c r="N18" s="38"/>
-      <c r="O18" s="231" t="s">
+      <c r="O18" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="232"/>
-      <c r="Q18" s="231"/>
-      <c r="R18" s="232"/>
-      <c r="S18" s="244"/>
-      <c r="T18" s="245"/>
+      <c r="P18" s="234"/>
+      <c r="Q18" s="233"/>
+      <c r="R18" s="234"/>
+      <c r="S18" s="246"/>
+      <c r="T18" s="247"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A19" s="269"/>
-      <c r="B19" s="246" t="s">
+      <c r="A19" s="271"/>
+      <c r="B19" s="248" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="249"/>
-      <c r="D19" s="250"/>
+      <c r="C19" s="251"/>
+      <c r="D19" s="252"/>
       <c r="E19" s="82"/>
       <c r="F19" s="83"/>
       <c r="G19" s="65"/>
@@ -44442,22 +45943,22 @@
       <c r="L19" s="56"/>
       <c r="M19" s="37"/>
       <c r="N19" s="38"/>
-      <c r="O19" s="231" t="s">
+      <c r="O19" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="232"/>
-      <c r="Q19" s="231"/>
-      <c r="R19" s="232"/>
-      <c r="S19" s="244"/>
-      <c r="T19" s="245"/>
+      <c r="P19" s="234"/>
+      <c r="Q19" s="233"/>
+      <c r="R19" s="234"/>
+      <c r="S19" s="246"/>
+      <c r="T19" s="247"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="269"/>
-      <c r="B20" s="246" t="s">
+      <c r="A20" s="271"/>
+      <c r="B20" s="248" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="249"/>
-      <c r="D20" s="250"/>
+      <c r="C20" s="251"/>
+      <c r="D20" s="252"/>
       <c r="E20" s="82"/>
       <c r="F20" s="83"/>
       <c r="G20" s="65"/>
@@ -44468,22 +45969,22 @@
       <c r="L20" s="56"/>
       <c r="M20" s="37"/>
       <c r="N20" s="38"/>
-      <c r="O20" s="231" t="s">
+      <c r="O20" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="P20" s="232"/>
-      <c r="Q20" s="231"/>
-      <c r="R20" s="232"/>
-      <c r="S20" s="244"/>
-      <c r="T20" s="245"/>
+      <c r="P20" s="234"/>
+      <c r="Q20" s="233"/>
+      <c r="R20" s="234"/>
+      <c r="S20" s="246"/>
+      <c r="T20" s="247"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="269"/>
-      <c r="B21" s="246" t="s">
+      <c r="A21" s="271"/>
+      <c r="B21" s="248" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="249"/>
-      <c r="D21" s="250"/>
+      <c r="C21" s="251"/>
+      <c r="D21" s="252"/>
       <c r="E21" s="82"/>
       <c r="F21" s="83"/>
       <c r="G21" s="65"/>
@@ -44494,22 +45995,22 @@
       <c r="L21" s="56"/>
       <c r="M21" s="37"/>
       <c r="N21" s="38"/>
-      <c r="O21" s="231" t="s">
+      <c r="O21" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="P21" s="232"/>
-      <c r="Q21" s="231"/>
-      <c r="R21" s="232"/>
-      <c r="S21" s="244"/>
-      <c r="T21" s="245"/>
+      <c r="P21" s="234"/>
+      <c r="Q21" s="233"/>
+      <c r="R21" s="234"/>
+      <c r="S21" s="246"/>
+      <c r="T21" s="247"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="269"/>
-      <c r="B22" s="246" t="s">
+      <c r="A22" s="271"/>
+      <c r="B22" s="248" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="249"/>
-      <c r="D22" s="250"/>
+      <c r="C22" s="251"/>
+      <c r="D22" s="252"/>
       <c r="E22" s="82"/>
       <c r="F22" s="83"/>
       <c r="G22" s="65"/>
@@ -44520,22 +46021,22 @@
       <c r="L22" s="56"/>
       <c r="M22" s="37"/>
       <c r="N22" s="38"/>
-      <c r="O22" s="231" t="s">
+      <c r="O22" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="P22" s="232"/>
-      <c r="Q22" s="231"/>
-      <c r="R22" s="232"/>
-      <c r="S22" s="244"/>
-      <c r="T22" s="245"/>
+      <c r="P22" s="234"/>
+      <c r="Q22" s="233"/>
+      <c r="R22" s="234"/>
+      <c r="S22" s="246"/>
+      <c r="T22" s="247"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A23" s="269"/>
-      <c r="B23" s="246" t="s">
+      <c r="A23" s="271"/>
+      <c r="B23" s="248" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="247"/>
-      <c r="D23" s="248"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="250"/>
       <c r="E23" s="82"/>
       <c r="F23" s="83"/>
       <c r="G23" s="65"/>
@@ -44546,22 +46047,22 @@
       <c r="L23" s="56"/>
       <c r="M23" s="37"/>
       <c r="N23" s="38"/>
-      <c r="O23" s="231" t="s">
+      <c r="O23" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="P23" s="232"/>
-      <c r="Q23" s="231"/>
-      <c r="R23" s="232"/>
-      <c r="S23" s="244"/>
-      <c r="T23" s="245"/>
+      <c r="P23" s="234"/>
+      <c r="Q23" s="233"/>
+      <c r="R23" s="234"/>
+      <c r="S23" s="246"/>
+      <c r="T23" s="247"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A24" s="269"/>
-      <c r="B24" s="241" t="s">
+      <c r="A24" s="271"/>
+      <c r="B24" s="243" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="242"/>
-      <c r="D24" s="243"/>
+      <c r="C24" s="244"/>
+      <c r="D24" s="245"/>
       <c r="E24" s="82"/>
       <c r="F24" s="83"/>
       <c r="G24" s="65"/>
@@ -44572,22 +46073,22 @@
       <c r="L24" s="56"/>
       <c r="M24" s="37"/>
       <c r="N24" s="38"/>
-      <c r="O24" s="231" t="s">
+      <c r="O24" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="P24" s="232"/>
-      <c r="Q24" s="231"/>
-      <c r="R24" s="232"/>
-      <c r="S24" s="244"/>
-      <c r="T24" s="245"/>
+      <c r="P24" s="234"/>
+      <c r="Q24" s="233"/>
+      <c r="R24" s="234"/>
+      <c r="S24" s="246"/>
+      <c r="T24" s="247"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A25" s="269"/>
-      <c r="B25" s="241" t="s">
+      <c r="A25" s="271"/>
+      <c r="B25" s="243" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="242"/>
-      <c r="D25" s="243"/>
+      <c r="C25" s="244"/>
+      <c r="D25" s="245"/>
       <c r="E25" s="82"/>
       <c r="F25" s="83"/>
       <c r="G25" s="65"/>
@@ -44598,22 +46099,22 @@
       <c r="L25" s="56"/>
       <c r="M25" s="37"/>
       <c r="N25" s="38"/>
-      <c r="O25" s="231" t="s">
+      <c r="O25" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="P25" s="232"/>
-      <c r="Q25" s="231"/>
-      <c r="R25" s="232"/>
-      <c r="S25" s="244"/>
-      <c r="T25" s="245"/>
+      <c r="P25" s="234"/>
+      <c r="Q25" s="233"/>
+      <c r="R25" s="234"/>
+      <c r="S25" s="246"/>
+      <c r="T25" s="247"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A26" s="269"/>
-      <c r="B26" s="241" t="s">
+      <c r="A26" s="271"/>
+      <c r="B26" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="242"/>
-      <c r="D26" s="243"/>
+      <c r="C26" s="244"/>
+      <c r="D26" s="245"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="65"/>
@@ -44624,22 +46125,22 @@
       <c r="L26" s="56"/>
       <c r="M26" s="37"/>
       <c r="N26" s="38"/>
-      <c r="O26" s="231" t="s">
+      <c r="O26" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="232"/>
-      <c r="Q26" s="231"/>
-      <c r="R26" s="232"/>
-      <c r="S26" s="244"/>
-      <c r="T26" s="245"/>
+      <c r="P26" s="234"/>
+      <c r="Q26" s="233"/>
+      <c r="R26" s="234"/>
+      <c r="S26" s="246"/>
+      <c r="T26" s="247"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="270"/>
-      <c r="B27" s="228" t="s">
+      <c r="A27" s="272"/>
+      <c r="B27" s="230" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="229"/>
-      <c r="D27" s="230"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="232"/>
       <c r="E27" s="89"/>
       <c r="F27" s="90"/>
       <c r="G27" s="71"/>
@@ -44650,24 +46151,24 @@
       <c r="L27" s="59"/>
       <c r="M27" s="95"/>
       <c r="N27" s="41"/>
-      <c r="O27" s="231" t="s">
+      <c r="O27" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="P27" s="232"/>
-      <c r="Q27" s="231"/>
-      <c r="R27" s="232"/>
-      <c r="S27" s="233"/>
-      <c r="T27" s="234"/>
+      <c r="P27" s="234"/>
+      <c r="Q27" s="233"/>
+      <c r="R27" s="234"/>
+      <c r="S27" s="235"/>
+      <c r="T27" s="236"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="235" t="s">
+      <c r="B28" s="237" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="236"/>
-      <c r="D28" s="237"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="239"/>
       <c r="E28" s="91"/>
       <c r="F28" s="92"/>
       <c r="G28" s="73"/>
@@ -44678,17 +46179,17 @@
       <c r="L28" s="62"/>
       <c r="M28" s="96"/>
       <c r="N28" s="97"/>
-      <c r="O28" s="238"/>
-      <c r="P28" s="239"/>
-      <c r="Q28" s="239"/>
-      <c r="R28" s="239"/>
-      <c r="S28" s="239"/>
-      <c r="T28" s="240"/>
+      <c r="O28" s="240"/>
+      <c r="P28" s="241"/>
+      <c r="Q28" s="241"/>
+      <c r="R28" s="241"/>
+      <c r="S28" s="241"/>
+      <c r="T28" s="242"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="227"/>
-      <c r="C29" s="227"/>
-      <c r="D29" s="227"/>
+      <c r="B29" s="229"/>
+      <c r="C29" s="229"/>
+      <c r="D29" s="229"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="16" t="s">
@@ -44702,85 +46203,85 @@
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="178" t="s">
+      <c r="B31" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="178"/>
+      <c r="C31" s="180"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="178" t="s">
+      <c r="B32" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="178"/>
+      <c r="C32" s="180"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1">
       <c r="A33" s="19"/>
-      <c r="B33" s="178" t="s">
+      <c r="B33" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="178"/>
+      <c r="C33" s="180"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="178" t="s">
+      <c r="B34" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="178"/>
+      <c r="C34" s="180"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="178" t="s">
+      <c r="B35" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="178"/>
+      <c r="C35" s="180"/>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1">
-      <c r="B36" s="227"/>
-      <c r="C36" s="227"/>
-      <c r="D36" s="227"/>
+      <c r="B36" s="229"/>
+      <c r="C36" s="229"/>
+      <c r="D36" s="229"/>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1">
-      <c r="B37" s="227"/>
-      <c r="C37" s="227"/>
-      <c r="D37" s="227"/>
+      <c r="B37" s="229"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="229"/>
     </row>
     <row r="38" spans="1:6" ht="18" customHeight="1">
-      <c r="B38" s="227"/>
-      <c r="C38" s="227"/>
-      <c r="D38" s="227"/>
+      <c r="B38" s="229"/>
+      <c r="C38" s="229"/>
+      <c r="D38" s="229"/>
     </row>
     <row r="39" spans="1:6" ht="18" customHeight="1">
-      <c r="B39" s="227"/>
-      <c r="C39" s="227"/>
-      <c r="D39" s="227"/>
+      <c r="B39" s="229"/>
+      <c r="C39" s="229"/>
+      <c r="D39" s="229"/>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1">
-      <c r="B40" s="227"/>
-      <c r="C40" s="227"/>
-      <c r="D40" s="227"/>
+      <c r="B40" s="229"/>
+      <c r="C40" s="229"/>
+      <c r="D40" s="229"/>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1">
-      <c r="B41" s="227"/>
-      <c r="C41" s="227"/>
-      <c r="D41" s="227"/>
+      <c r="B41" s="229"/>
+      <c r="C41" s="229"/>
+      <c r="D41" s="229"/>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1">
-      <c r="B42" s="227"/>
-      <c r="C42" s="227"/>
-      <c r="D42" s="227"/>
+      <c r="B42" s="229"/>
+      <c r="C42" s="229"/>
+      <c r="D42" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="125">
@@ -44920,8 +46421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF4906B-027D-4E20-B248-E186BA8B7085}">
   <dimension ref="A2:Y42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.453125" defaultRowHeight="18" customHeight="1"/>
@@ -44930,89 +46431,89 @@
       <c r="B2" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="299" t="s">
+      <c r="G2" s="301" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="300"/>
-      <c r="I2" s="289" t="s">
+      <c r="H2" s="302"/>
+      <c r="I2" s="291" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="244"/>
-      <c r="L2" s="299" t="s">
+      <c r="J2" s="246"/>
+      <c r="L2" s="301" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="300"/>
-      <c r="N2" s="289" t="s">
+      <c r="M2" s="302"/>
+      <c r="N2" s="291" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="244"/>
-      <c r="Q2" s="299" t="s">
+      <c r="O2" s="246"/>
+      <c r="Q2" s="301" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="300"/>
-      <c r="S2" s="323">
+      <c r="R2" s="302"/>
+      <c r="S2" s="325">
         <v>45451</v>
       </c>
-      <c r="T2" s="244"/>
-      <c r="V2" s="299" t="s">
+      <c r="T2" s="246"/>
+      <c r="V2" s="301" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="300"/>
-      <c r="X2" s="323">
+      <c r="W2" s="302"/>
+      <c r="X2" s="325">
         <v>45451</v>
       </c>
-      <c r="Y2" s="244"/>
+      <c r="Y2" s="246"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="D4" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="324" t="s">
+      <c r="E4" s="326" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="325"/>
-      <c r="G4" s="324" t="s">
+      <c r="F4" s="327"/>
+      <c r="G4" s="326" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="325"/>
-      <c r="I4" s="324" t="s">
+      <c r="H4" s="327"/>
+      <c r="I4" s="326" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="325"/>
-      <c r="K4" s="324" t="s">
+      <c r="J4" s="327"/>
+      <c r="K4" s="326" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="325"/>
-      <c r="M4" s="324" t="s">
+      <c r="L4" s="327"/>
+      <c r="M4" s="326" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="326"/>
+      <c r="N4" s="328"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D5" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="244">
+      <c r="E5" s="246">
         <v>10</v>
       </c>
-      <c r="F5" s="244"/>
-      <c r="G5" s="244">
+      <c r="F5" s="246"/>
+      <c r="G5" s="246">
         <v>11</v>
       </c>
-      <c r="H5" s="244"/>
-      <c r="I5" s="244">
+      <c r="H5" s="246"/>
+      <c r="I5" s="246">
         <v>12</v>
       </c>
-      <c r="J5" s="244"/>
-      <c r="K5" s="244">
+      <c r="J5" s="246"/>
+      <c r="K5" s="246">
         <v>13</v>
       </c>
-      <c r="L5" s="244"/>
-      <c r="M5" s="244">
+      <c r="L5" s="246"/>
+      <c r="M5" s="246">
         <v>14</v>
       </c>
-      <c r="N5" s="322"/>
+      <c r="N5" s="324"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D6" s="161" t="s">
@@ -45048,28 +46549,28 @@
       <c r="N6" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="298" t="s">
+      <c r="O6" s="300" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="303" t="s">
+      <c r="P6" s="241"/>
+      <c r="Q6" s="305" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="239"/>
-      <c r="S6" s="303" t="s">
+      <c r="R6" s="241"/>
+      <c r="S6" s="305" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="240"/>
+      <c r="T6" s="242"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="281" t="s">
+      <c r="A7" s="283" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="271" t="s">
+      <c r="B7" s="273" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="318"/>
+      <c r="C7" s="286"/>
+      <c r="D7" s="320"/>
       <c r="E7" s="63"/>
       <c r="F7" s="153"/>
       <c r="G7" s="64"/>
@@ -45080,20 +46581,20 @@
       <c r="L7" s="42"/>
       <c r="M7" s="153"/>
       <c r="N7" s="157"/>
-      <c r="O7" s="319"/>
-      <c r="P7" s="287"/>
-      <c r="Q7" s="287"/>
-      <c r="R7" s="287"/>
-      <c r="S7" s="287"/>
-      <c r="T7" s="288"/>
+      <c r="O7" s="321"/>
+      <c r="P7" s="289"/>
+      <c r="Q7" s="289"/>
+      <c r="R7" s="289"/>
+      <c r="S7" s="289"/>
+      <c r="T7" s="290"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="282"/>
-      <c r="B8" s="246" t="s">
+      <c r="A8" s="284"/>
+      <c r="B8" s="248" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="247"/>
-      <c r="D8" s="309"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="311"/>
       <c r="E8" s="65"/>
       <c r="F8" s="154"/>
       <c r="G8" s="66"/>
@@ -45104,20 +46605,20 @@
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
       <c r="N8" s="56"/>
-      <c r="O8" s="296"/>
-      <c r="P8" s="244"/>
-      <c r="Q8" s="244"/>
-      <c r="R8" s="244"/>
-      <c r="S8" s="244"/>
-      <c r="T8" s="245"/>
+      <c r="O8" s="298"/>
+      <c r="P8" s="246"/>
+      <c r="Q8" s="246"/>
+      <c r="R8" s="246"/>
+      <c r="S8" s="246"/>
+      <c r="T8" s="247"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="282"/>
-      <c r="B9" s="246" t="s">
+      <c r="A9" s="284"/>
+      <c r="B9" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="247"/>
-      <c r="D9" s="309"/>
+      <c r="C9" s="249"/>
+      <c r="D9" s="311"/>
       <c r="E9" s="65"/>
       <c r="F9" s="34"/>
       <c r="G9" s="66"/>
@@ -45128,20 +46629,20 @@
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
       <c r="N9" s="56"/>
-      <c r="O9" s="296"/>
-      <c r="P9" s="244"/>
-      <c r="Q9" s="244"/>
-      <c r="R9" s="244"/>
-      <c r="S9" s="244"/>
-      <c r="T9" s="245"/>
+      <c r="O9" s="298"/>
+      <c r="P9" s="246"/>
+      <c r="Q9" s="246"/>
+      <c r="R9" s="246"/>
+      <c r="S9" s="246"/>
+      <c r="T9" s="247"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="282"/>
-      <c r="B10" s="246" t="s">
+      <c r="A10" s="284"/>
+      <c r="B10" s="248" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="247"/>
-      <c r="D10" s="309"/>
+      <c r="C10" s="249"/>
+      <c r="D10" s="311"/>
       <c r="E10" s="65"/>
       <c r="F10" s="34"/>
       <c r="G10" s="66"/>
@@ -45152,20 +46653,20 @@
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="56"/>
-      <c r="O10" s="296"/>
-      <c r="P10" s="244"/>
-      <c r="Q10" s="244"/>
-      <c r="R10" s="244"/>
-      <c r="S10" s="244"/>
-      <c r="T10" s="245"/>
+      <c r="O10" s="298"/>
+      <c r="P10" s="246"/>
+      <c r="Q10" s="246"/>
+      <c r="R10" s="246"/>
+      <c r="S10" s="246"/>
+      <c r="T10" s="247"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="283"/>
-      <c r="B11" s="290" t="s">
+      <c r="A11" s="285"/>
+      <c r="B11" s="292" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="291"/>
-      <c r="D11" s="320"/>
+      <c r="C11" s="293"/>
+      <c r="D11" s="322"/>
       <c r="E11" s="67"/>
       <c r="F11" s="50"/>
       <c r="G11" s="68"/>
@@ -45176,22 +46677,22 @@
       <c r="L11" s="50"/>
       <c r="M11" s="50"/>
       <c r="N11" s="57"/>
-      <c r="O11" s="321"/>
-      <c r="P11" s="294"/>
-      <c r="Q11" s="294"/>
-      <c r="R11" s="294"/>
-      <c r="S11" s="294"/>
-      <c r="T11" s="295"/>
+      <c r="O11" s="323"/>
+      <c r="P11" s="296"/>
+      <c r="Q11" s="296"/>
+      <c r="R11" s="296"/>
+      <c r="S11" s="296"/>
+      <c r="T11" s="297"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="256" t="s">
+      <c r="A12" s="258" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="259" t="s">
+      <c r="B12" s="261" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="260"/>
-      <c r="D12" s="312"/>
+      <c r="C12" s="262"/>
+      <c r="D12" s="314"/>
       <c r="E12" s="69"/>
       <c r="F12" s="155"/>
       <c r="G12" s="70"/>
@@ -45202,20 +46703,20 @@
       <c r="L12" s="155"/>
       <c r="M12" s="36"/>
       <c r="N12" s="58"/>
-      <c r="O12" s="313"/>
-      <c r="P12" s="232"/>
-      <c r="Q12" s="232"/>
-      <c r="R12" s="232"/>
-      <c r="S12" s="232"/>
-      <c r="T12" s="264"/>
+      <c r="O12" s="315"/>
+      <c r="P12" s="234"/>
+      <c r="Q12" s="234"/>
+      <c r="R12" s="234"/>
+      <c r="S12" s="234"/>
+      <c r="T12" s="266"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="257"/>
-      <c r="B13" s="265" t="s">
+      <c r="A13" s="259"/>
+      <c r="B13" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="266"/>
-      <c r="D13" s="314"/>
+      <c r="C13" s="268"/>
+      <c r="D13" s="316"/>
       <c r="E13" s="65"/>
       <c r="F13" s="154"/>
       <c r="G13" s="66"/>
@@ -45226,20 +46727,20 @@
       <c r="L13" s="34"/>
       <c r="M13" s="154"/>
       <c r="N13" s="156"/>
-      <c r="O13" s="296"/>
-      <c r="P13" s="244"/>
-      <c r="Q13" s="244"/>
-      <c r="R13" s="244"/>
-      <c r="S13" s="244"/>
-      <c r="T13" s="245"/>
+      <c r="O13" s="298"/>
+      <c r="P13" s="246"/>
+      <c r="Q13" s="246"/>
+      <c r="R13" s="246"/>
+      <c r="S13" s="246"/>
+      <c r="T13" s="247"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="257"/>
-      <c r="B14" s="265" t="s">
+      <c r="A14" s="259"/>
+      <c r="B14" s="267" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="277"/>
-      <c r="D14" s="317"/>
+      <c r="C14" s="279"/>
+      <c r="D14" s="319"/>
       <c r="E14" s="65"/>
       <c r="F14" s="154"/>
       <c r="G14" s="66"/>
@@ -45250,20 +46751,20 @@
       <c r="L14" s="154"/>
       <c r="M14" s="34"/>
       <c r="N14" s="56"/>
-      <c r="O14" s="296"/>
-      <c r="P14" s="244"/>
-      <c r="Q14" s="244"/>
-      <c r="R14" s="244"/>
-      <c r="S14" s="244"/>
-      <c r="T14" s="245"/>
+      <c r="O14" s="298"/>
+      <c r="P14" s="246"/>
+      <c r="Q14" s="246"/>
+      <c r="R14" s="246"/>
+      <c r="S14" s="246"/>
+      <c r="T14" s="247"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="258"/>
-      <c r="B15" s="251" t="s">
+      <c r="A15" s="260"/>
+      <c r="B15" s="253" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="252"/>
-      <c r="D15" s="311"/>
+      <c r="C15" s="254"/>
+      <c r="D15" s="313"/>
       <c r="E15" s="71"/>
       <c r="F15" s="40"/>
       <c r="G15" s="72"/>
@@ -45274,22 +46775,22 @@
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
       <c r="N15" s="59"/>
-      <c r="O15" s="305"/>
-      <c r="P15" s="233"/>
-      <c r="Q15" s="233"/>
-      <c r="R15" s="233"/>
-      <c r="S15" s="233"/>
-      <c r="T15" s="234"/>
+      <c r="O15" s="307"/>
+      <c r="P15" s="235"/>
+      <c r="Q15" s="235"/>
+      <c r="R15" s="235"/>
+      <c r="S15" s="235"/>
+      <c r="T15" s="236"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="268" t="s">
+      <c r="A16" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="271" t="s">
+      <c r="B16" s="273" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="272"/>
-      <c r="D16" s="315"/>
+      <c r="C16" s="274"/>
+      <c r="D16" s="317"/>
       <c r="E16" s="69"/>
       <c r="F16" s="36"/>
       <c r="G16" s="70"/>
@@ -45300,20 +46801,20 @@
       <c r="L16" s="36"/>
       <c r="M16" s="155"/>
       <c r="N16" s="158"/>
-      <c r="O16" s="313"/>
-      <c r="P16" s="232"/>
-      <c r="Q16" s="232"/>
-      <c r="R16" s="232"/>
-      <c r="S16" s="232"/>
-      <c r="T16" s="264"/>
+      <c r="O16" s="315"/>
+      <c r="P16" s="234"/>
+      <c r="Q16" s="234"/>
+      <c r="R16" s="234"/>
+      <c r="S16" s="234"/>
+      <c r="T16" s="266"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="269"/>
-      <c r="B17" s="241" t="s">
+      <c r="A17" s="271"/>
+      <c r="B17" s="243" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="274"/>
-      <c r="D17" s="316"/>
+      <c r="C17" s="276"/>
+      <c r="D17" s="318"/>
       <c r="E17" s="65"/>
       <c r="F17" s="34"/>
       <c r="G17" s="66"/>
@@ -45324,20 +46825,20 @@
       <c r="L17" s="34"/>
       <c r="M17" s="154"/>
       <c r="N17" s="156"/>
-      <c r="O17" s="296"/>
-      <c r="P17" s="244"/>
-      <c r="Q17" s="244"/>
-      <c r="R17" s="244"/>
-      <c r="S17" s="244"/>
-      <c r="T17" s="245"/>
+      <c r="O17" s="298"/>
+      <c r="P17" s="246"/>
+      <c r="Q17" s="246"/>
+      <c r="R17" s="246"/>
+      <c r="S17" s="246"/>
+      <c r="T17" s="247"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="269"/>
-      <c r="B18" s="241" t="s">
+      <c r="A18" s="271"/>
+      <c r="B18" s="243" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="274"/>
-      <c r="D18" s="316"/>
+      <c r="C18" s="276"/>
+      <c r="D18" s="318"/>
       <c r="E18" s="65"/>
       <c r="F18" s="34"/>
       <c r="G18" s="66"/>
@@ -45348,20 +46849,20 @@
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="56"/>
-      <c r="O18" s="296"/>
-      <c r="P18" s="244"/>
-      <c r="Q18" s="244"/>
-      <c r="R18" s="244"/>
-      <c r="S18" s="244"/>
-      <c r="T18" s="245"/>
+      <c r="O18" s="298"/>
+      <c r="P18" s="246"/>
+      <c r="Q18" s="246"/>
+      <c r="R18" s="246"/>
+      <c r="S18" s="246"/>
+      <c r="T18" s="247"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="269"/>
-      <c r="B19" s="246" t="s">
+      <c r="A19" s="271"/>
+      <c r="B19" s="248" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="249"/>
-      <c r="D19" s="310"/>
+      <c r="C19" s="251"/>
+      <c r="D19" s="312"/>
       <c r="E19" s="65"/>
       <c r="F19" s="34"/>
       <c r="G19" s="66"/>
@@ -45372,20 +46873,20 @@
       <c r="L19" s="34"/>
       <c r="M19" s="154"/>
       <c r="N19" s="156"/>
-      <c r="O19" s="296"/>
-      <c r="P19" s="244"/>
-      <c r="Q19" s="244"/>
-      <c r="R19" s="244"/>
-      <c r="S19" s="244"/>
-      <c r="T19" s="245"/>
+      <c r="O19" s="298"/>
+      <c r="P19" s="246"/>
+      <c r="Q19" s="246"/>
+      <c r="R19" s="246"/>
+      <c r="S19" s="246"/>
+      <c r="T19" s="247"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="269"/>
-      <c r="B20" s="246" t="s">
+      <c r="A20" s="271"/>
+      <c r="B20" s="248" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="249"/>
-      <c r="D20" s="310"/>
+      <c r="C20" s="251"/>
+      <c r="D20" s="312"/>
       <c r="E20" s="65"/>
       <c r="F20" s="34"/>
       <c r="G20" s="66"/>
@@ -45396,20 +46897,20 @@
       <c r="L20" s="34"/>
       <c r="M20" s="154"/>
       <c r="N20" s="156"/>
-      <c r="O20" s="296"/>
-      <c r="P20" s="244"/>
-      <c r="Q20" s="244"/>
-      <c r="R20" s="244"/>
-      <c r="S20" s="244"/>
-      <c r="T20" s="245"/>
+      <c r="O20" s="298"/>
+      <c r="P20" s="246"/>
+      <c r="Q20" s="246"/>
+      <c r="R20" s="246"/>
+      <c r="S20" s="246"/>
+      <c r="T20" s="247"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="269"/>
-      <c r="B21" s="246" t="s">
+      <c r="A21" s="271"/>
+      <c r="B21" s="248" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="249"/>
-      <c r="D21" s="310"/>
+      <c r="C21" s="251"/>
+      <c r="D21" s="312"/>
       <c r="E21" s="65"/>
       <c r="F21" s="34"/>
       <c r="G21" s="66"/>
@@ -45420,20 +46921,20 @@
       <c r="L21" s="34"/>
       <c r="M21" s="154"/>
       <c r="N21" s="156"/>
-      <c r="O21" s="296"/>
-      <c r="P21" s="244"/>
-      <c r="Q21" s="244"/>
-      <c r="R21" s="244"/>
-      <c r="S21" s="244"/>
-      <c r="T21" s="245"/>
+      <c r="O21" s="298"/>
+      <c r="P21" s="246"/>
+      <c r="Q21" s="246"/>
+      <c r="R21" s="246"/>
+      <c r="S21" s="246"/>
+      <c r="T21" s="247"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="269"/>
-      <c r="B22" s="246" t="s">
+      <c r="A22" s="271"/>
+      <c r="B22" s="248" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="249"/>
-      <c r="D22" s="310"/>
+      <c r="C22" s="251"/>
+      <c r="D22" s="312"/>
       <c r="E22" s="65"/>
       <c r="F22" s="34"/>
       <c r="G22" s="66"/>
@@ -45444,20 +46945,20 @@
       <c r="L22" s="34"/>
       <c r="M22" s="154"/>
       <c r="N22" s="156"/>
-      <c r="O22" s="296"/>
-      <c r="P22" s="244"/>
-      <c r="Q22" s="244"/>
-      <c r="R22" s="244"/>
-      <c r="S22" s="244"/>
-      <c r="T22" s="245"/>
+      <c r="O22" s="298"/>
+      <c r="P22" s="246"/>
+      <c r="Q22" s="246"/>
+      <c r="R22" s="246"/>
+      <c r="S22" s="246"/>
+      <c r="T22" s="247"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="269"/>
-      <c r="B23" s="246" t="s">
+      <c r="A23" s="271"/>
+      <c r="B23" s="248" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="247"/>
-      <c r="D23" s="309"/>
+      <c r="C23" s="249"/>
+      <c r="D23" s="311"/>
       <c r="E23" s="65"/>
       <c r="F23" s="34"/>
       <c r="G23" s="66"/>
@@ -45468,20 +46969,20 @@
       <c r="L23" s="34"/>
       <c r="M23" s="154"/>
       <c r="N23" s="156"/>
-      <c r="O23" s="296"/>
-      <c r="P23" s="244"/>
-      <c r="Q23" s="244"/>
-      <c r="R23" s="244"/>
-      <c r="S23" s="244"/>
-      <c r="T23" s="245"/>
+      <c r="O23" s="298"/>
+      <c r="P23" s="246"/>
+      <c r="Q23" s="246"/>
+      <c r="R23" s="246"/>
+      <c r="S23" s="246"/>
+      <c r="T23" s="247"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="269"/>
-      <c r="B24" s="241" t="s">
+      <c r="A24" s="271"/>
+      <c r="B24" s="243" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="242"/>
-      <c r="D24" s="308"/>
+      <c r="C24" s="244"/>
+      <c r="D24" s="310"/>
       <c r="E24" s="65"/>
       <c r="F24" s="34"/>
       <c r="G24" s="66"/>
@@ -45492,20 +46993,20 @@
       <c r="L24" s="34"/>
       <c r="M24" s="154"/>
       <c r="N24" s="156"/>
-      <c r="O24" s="296"/>
-      <c r="P24" s="244"/>
-      <c r="Q24" s="244"/>
-      <c r="R24" s="244"/>
-      <c r="S24" s="244"/>
-      <c r="T24" s="245"/>
+      <c r="O24" s="298"/>
+      <c r="P24" s="246"/>
+      <c r="Q24" s="246"/>
+      <c r="R24" s="246"/>
+      <c r="S24" s="246"/>
+      <c r="T24" s="247"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="269"/>
-      <c r="B25" s="241" t="s">
+      <c r="A25" s="271"/>
+      <c r="B25" s="243" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="242"/>
-      <c r="D25" s="308"/>
+      <c r="C25" s="244"/>
+      <c r="D25" s="310"/>
       <c r="E25" s="65"/>
       <c r="F25" s="34"/>
       <c r="G25" s="66"/>
@@ -45516,20 +47017,20 @@
       <c r="L25" s="34"/>
       <c r="M25" s="154"/>
       <c r="N25" s="156"/>
-      <c r="O25" s="296"/>
-      <c r="P25" s="244"/>
-      <c r="Q25" s="244"/>
-      <c r="R25" s="244"/>
-      <c r="S25" s="244"/>
-      <c r="T25" s="245"/>
+      <c r="O25" s="298"/>
+      <c r="P25" s="246"/>
+      <c r="Q25" s="246"/>
+      <c r="R25" s="246"/>
+      <c r="S25" s="246"/>
+      <c r="T25" s="247"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="269"/>
-      <c r="B26" s="241" t="s">
+      <c r="A26" s="271"/>
+      <c r="B26" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="242"/>
-      <c r="D26" s="308"/>
+      <c r="C26" s="244"/>
+      <c r="D26" s="310"/>
       <c r="E26" s="65"/>
       <c r="F26" s="34"/>
       <c r="G26" s="66"/>
@@ -45540,20 +47041,20 @@
       <c r="L26" s="34"/>
       <c r="M26" s="154"/>
       <c r="N26" s="156"/>
-      <c r="O26" s="296"/>
-      <c r="P26" s="244"/>
-      <c r="Q26" s="244"/>
-      <c r="R26" s="244"/>
-      <c r="S26" s="244"/>
-      <c r="T26" s="245"/>
+      <c r="O26" s="298"/>
+      <c r="P26" s="246"/>
+      <c r="Q26" s="246"/>
+      <c r="R26" s="246"/>
+      <c r="S26" s="246"/>
+      <c r="T26" s="247"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="270"/>
-      <c r="B27" s="228" t="s">
+      <c r="A27" s="272"/>
+      <c r="B27" s="230" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="229"/>
-      <c r="D27" s="304"/>
+      <c r="C27" s="231"/>
+      <c r="D27" s="306"/>
       <c r="E27" s="71"/>
       <c r="F27" s="40"/>
       <c r="G27" s="72"/>
@@ -45564,22 +47065,22 @@
       <c r="L27" s="40"/>
       <c r="M27" s="40"/>
       <c r="N27" s="59"/>
-      <c r="O27" s="305"/>
-      <c r="P27" s="233"/>
-      <c r="Q27" s="233"/>
-      <c r="R27" s="233"/>
-      <c r="S27" s="233"/>
-      <c r="T27" s="234"/>
+      <c r="O27" s="307"/>
+      <c r="P27" s="235"/>
+      <c r="Q27" s="235"/>
+      <c r="R27" s="235"/>
+      <c r="S27" s="235"/>
+      <c r="T27" s="236"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="235" t="s">
+      <c r="B28" s="237" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="236"/>
-      <c r="D28" s="306"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="308"/>
       <c r="E28" s="73"/>
       <c r="F28" s="61"/>
       <c r="G28" s="74"/>
@@ -45590,17 +47091,17 @@
       <c r="L28" s="61"/>
       <c r="M28" s="61"/>
       <c r="N28" s="62"/>
-      <c r="O28" s="307"/>
-      <c r="P28" s="239"/>
-      <c r="Q28" s="239"/>
-      <c r="R28" s="239"/>
-      <c r="S28" s="239"/>
-      <c r="T28" s="240"/>
+      <c r="O28" s="309"/>
+      <c r="P28" s="241"/>
+      <c r="Q28" s="241"/>
+      <c r="R28" s="241"/>
+      <c r="S28" s="241"/>
+      <c r="T28" s="242"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="227"/>
-      <c r="C29" s="227"/>
-      <c r="D29" s="227"/>
+      <c r="B29" s="229"/>
+      <c r="C29" s="229"/>
+      <c r="D29" s="229"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="16" t="s">
@@ -45611,73 +47112,73 @@
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="178" t="s">
+      <c r="B31" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="178"/>
+      <c r="C31" s="180"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="178" t="s">
+      <c r="B32" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="178"/>
+      <c r="C32" s="180"/>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1">
       <c r="A33" s="19"/>
-      <c r="B33" s="178" t="s">
+      <c r="B33" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="178"/>
+      <c r="C33" s="180"/>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="178" t="s">
+      <c r="B34" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="178"/>
+      <c r="C34" s="180"/>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="178" t="s">
+      <c r="B35" s="180" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="178"/>
+      <c r="C35" s="180"/>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1">
-      <c r="B36" s="227"/>
-      <c r="C36" s="227"/>
-      <c r="D36" s="227"/>
+      <c r="B36" s="229"/>
+      <c r="C36" s="229"/>
+      <c r="D36" s="229"/>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1">
-      <c r="B37" s="227"/>
-      <c r="C37" s="227"/>
-      <c r="D37" s="227"/>
+      <c r="B37" s="229"/>
+      <c r="C37" s="229"/>
+      <c r="D37" s="229"/>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1">
-      <c r="B38" s="227"/>
-      <c r="C38" s="227"/>
-      <c r="D38" s="227"/>
+      <c r="B38" s="229"/>
+      <c r="C38" s="229"/>
+      <c r="D38" s="229"/>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1">
-      <c r="B39" s="227"/>
-      <c r="C39" s="227"/>
-      <c r="D39" s="227"/>
+      <c r="B39" s="229"/>
+      <c r="C39" s="229"/>
+      <c r="D39" s="229"/>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1">
-      <c r="B40" s="227"/>
-      <c r="C40" s="227"/>
-      <c r="D40" s="227"/>
+      <c r="B40" s="229"/>
+      <c r="C40" s="229"/>
+      <c r="D40" s="229"/>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1">
-      <c r="B41" s="227"/>
-      <c r="C41" s="227"/>
-      <c r="D41" s="227"/>
+      <c r="B41" s="229"/>
+      <c r="C41" s="229"/>
+      <c r="D41" s="229"/>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1">
-      <c r="B42" s="227"/>
-      <c r="C42" s="227"/>
-      <c r="D42" s="227"/>
+      <c r="B42" s="229"/>
+      <c r="C42" s="229"/>
+      <c r="D42" s="229"/>
     </row>
   </sheetData>
   <mergeCells count="125">
@@ -45814,90 +47315,2542 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28374B32-943B-4A9E-8CA0-96B6F058FC49}">
+  <dimension ref="A2:Z52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.453125" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="15" max="17" width="9.1796875" style="164" customWidth="1"/>
+    <col min="18" max="20" width="5.453125" style="368"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:26" ht="18" customHeight="1">
+      <c r="B2" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="301" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="302"/>
+      <c r="I2" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="246"/>
+      <c r="L2" s="373"/>
+      <c r="M2" s="369"/>
+      <c r="N2" s="373"/>
+      <c r="O2" s="371"/>
+      <c r="P2" s="371"/>
+      <c r="Q2" s="371"/>
+      <c r="R2" s="369"/>
+      <c r="S2" s="374"/>
+      <c r="T2" s="369"/>
+      <c r="U2" s="369"/>
+      <c r="V2" s="373"/>
+      <c r="W2" s="369"/>
+      <c r="X2" s="369"/>
+      <c r="Y2" s="369"/>
+    </row>
+    <row r="3" spans="1:26" ht="18" customHeight="1">
+      <c r="B3" s="33"/>
+      <c r="G3" s="301" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="302"/>
+      <c r="I3" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="246"/>
+      <c r="L3" s="370"/>
+      <c r="M3" s="371"/>
+      <c r="N3" s="370"/>
+      <c r="O3" s="371"/>
+      <c r="P3" s="371"/>
+      <c r="Q3" s="371"/>
+      <c r="R3" s="371"/>
+      <c r="S3" s="372"/>
+      <c r="T3" s="371"/>
+      <c r="U3" s="369"/>
+      <c r="V3" s="370"/>
+      <c r="W3" s="371"/>
+      <c r="X3" s="371"/>
+      <c r="Y3" s="371"/>
+    </row>
+    <row r="4" spans="1:26" ht="18" customHeight="1">
+      <c r="B4" s="33"/>
+      <c r="G4" s="301" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="302"/>
+      <c r="I4" s="325">
+        <v>45460</v>
+      </c>
+      <c r="J4" s="246"/>
+      <c r="L4" s="370"/>
+      <c r="M4" s="371"/>
+      <c r="N4" s="370"/>
+      <c r="O4" s="371"/>
+      <c r="P4" s="371"/>
+      <c r="Q4" s="371"/>
+      <c r="R4" s="371"/>
+      <c r="S4" s="372"/>
+      <c r="T4" s="371"/>
+      <c r="U4" s="369"/>
+      <c r="V4" s="370"/>
+      <c r="W4" s="371"/>
+      <c r="X4" s="371"/>
+      <c r="Y4" s="371"/>
+    </row>
+    <row r="5" spans="1:26" ht="18" customHeight="1">
+      <c r="B5" s="33"/>
+      <c r="G5" s="301" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="302"/>
+      <c r="I5" s="291"/>
+      <c r="J5" s="246"/>
+      <c r="L5" s="370"/>
+      <c r="M5" s="371"/>
+      <c r="N5" s="370"/>
+      <c r="O5" s="371"/>
+      <c r="P5" s="371"/>
+      <c r="Q5" s="371"/>
+      <c r="R5" s="371"/>
+      <c r="S5" s="372"/>
+      <c r="T5" s="371"/>
+      <c r="U5" s="369"/>
+      <c r="V5" s="370"/>
+      <c r="W5" s="371"/>
+      <c r="X5" s="371"/>
+      <c r="Y5" s="371"/>
+    </row>
+    <row r="6" spans="1:26" ht="12" customHeight="1" thickBot="1"/>
+    <row r="7" spans="1:26" ht="15" customHeight="1">
+      <c r="D7" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="303" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="266"/>
+      <c r="G7" s="233" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="304"/>
+      <c r="I7" s="303" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="266"/>
+      <c r="K7" s="233" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="304"/>
+      <c r="M7" s="303" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="266"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="D8" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="298">
+        <v>17</v>
+      </c>
+      <c r="F8" s="247"/>
+      <c r="G8" s="298">
+        <v>18</v>
+      </c>
+      <c r="H8" s="247"/>
+      <c r="I8" s="298">
+        <v>19</v>
+      </c>
+      <c r="J8" s="247"/>
+      <c r="K8" s="298">
+        <v>20</v>
+      </c>
+      <c r="L8" s="247"/>
+      <c r="M8" s="298">
+        <v>21</v>
+      </c>
+      <c r="N8" s="247"/>
+    </row>
+    <row r="9" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="D9" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="173" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="173" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="416" t="s">
+        <v>65</v>
+      </c>
+      <c r="S9" s="377"/>
+    </row>
+    <row r="10" spans="1:26" ht="18" customHeight="1">
+      <c r="A10" s="283" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="273" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="286"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="420"/>
+      <c r="G10" s="421"/>
+      <c r="H10" s="422"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="93"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="404" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="404" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="407"/>
+    </row>
+    <row r="11" spans="1:26" ht="18" customHeight="1">
+      <c r="A11" s="284"/>
+      <c r="B11" s="248" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="249"/>
+      <c r="D11" s="250"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="405" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="405"/>
+      <c r="Q11" s="408"/>
+    </row>
+    <row r="12" spans="1:26" ht="18" customHeight="1">
+      <c r="A12" s="284"/>
+      <c r="B12" s="248" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="249"/>
+      <c r="D12" s="250"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="405" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="405"/>
+      <c r="Q12" s="408"/>
+    </row>
+    <row r="13" spans="1:26" ht="18" customHeight="1">
+      <c r="A13" s="284"/>
+      <c r="B13" s="248" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="249"/>
+      <c r="D13" s="250"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="405" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="405" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="408"/>
+    </row>
+    <row r="14" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A14" s="285"/>
+      <c r="B14" s="292" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="293"/>
+      <c r="D14" s="294"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="410" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="406"/>
+      <c r="Q14" s="409"/>
+    </row>
+    <row r="15" spans="1:26" ht="18" customHeight="1">
+      <c r="A15" s="337" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="341" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="342"/>
+      <c r="D15" s="343"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="404" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="120" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="404"/>
+      <c r="V15" s="351"/>
+      <c r="W15" s="350"/>
+      <c r="X15" s="350"/>
+      <c r="Y15" s="350"/>
+      <c r="Z15" s="350"/>
+    </row>
+    <row r="16" spans="1:26" ht="18" customHeight="1">
+      <c r="A16" s="339"/>
+      <c r="B16" s="344" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="338"/>
+      <c r="D16" s="345"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="405" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="405"/>
+      <c r="V16" s="348"/>
+      <c r="W16" s="349"/>
+      <c r="X16" s="349"/>
+      <c r="Y16" s="349"/>
+      <c r="Z16" s="349"/>
+    </row>
+    <row r="17" spans="1:26" ht="18" customHeight="1">
+      <c r="A17" s="340"/>
+      <c r="B17" s="346" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="268"/>
+      <c r="D17" s="316"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="405" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="405"/>
+      <c r="V17" s="351"/>
+      <c r="W17" s="350"/>
+      <c r="X17" s="350"/>
+      <c r="Y17" s="350"/>
+      <c r="Z17" s="350"/>
+    </row>
+    <row r="18" spans="1:26" ht="18" customHeight="1">
+      <c r="A18" s="340"/>
+      <c r="B18" s="365" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="366"/>
+      <c r="D18" s="367"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="423"/>
+      <c r="G18" s="424"/>
+      <c r="H18" s="425"/>
+      <c r="I18" s="426"/>
+      <c r="J18" s="423"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="405" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="405"/>
+      <c r="V18" s="348"/>
+      <c r="W18" s="349"/>
+      <c r="X18" s="349"/>
+      <c r="Y18" s="349"/>
+      <c r="Z18" s="349"/>
+    </row>
+    <row r="19" spans="1:26" ht="18" customHeight="1">
+      <c r="A19" s="340"/>
+      <c r="B19" s="365" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="366"/>
+      <c r="D19" s="367"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="423"/>
+      <c r="G19" s="424"/>
+      <c r="H19" s="425"/>
+      <c r="I19" s="426"/>
+      <c r="J19" s="423"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="405" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="405"/>
+      <c r="V19" s="348"/>
+      <c r="W19" s="349"/>
+      <c r="X19" s="349"/>
+      <c r="Y19" s="349"/>
+      <c r="Z19" s="349"/>
+    </row>
+    <row r="20" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A20" s="340"/>
+      <c r="B20" s="347" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="254"/>
+      <c r="D20" s="313"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="356"/>
+      <c r="I20" s="426"/>
+      <c r="J20" s="423"/>
+      <c r="K20" s="424"/>
+      <c r="L20" s="425"/>
+      <c r="M20" s="436"/>
+      <c r="N20" s="435"/>
+      <c r="O20" s="406" t="s">
+        <v>85</v>
+      </c>
+      <c r="P20" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="406"/>
+      <c r="V20" s="351"/>
+      <c r="W20" s="350"/>
+      <c r="X20" s="350"/>
+      <c r="Y20" s="350"/>
+      <c r="Z20" s="350"/>
+    </row>
+    <row r="21" spans="1:26" ht="18" customHeight="1">
+      <c r="A21" s="270" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="273" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="274"/>
+      <c r="D21" s="275"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="427"/>
+      <c r="G21" s="428"/>
+      <c r="H21" s="429"/>
+      <c r="I21" s="430"/>
+      <c r="J21" s="427"/>
+      <c r="K21" s="428"/>
+      <c r="L21" s="429"/>
+      <c r="M21" s="359"/>
+      <c r="N21" s="354"/>
+      <c r="O21" s="418" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" s="411" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q21" s="419"/>
+      <c r="U21" s="368"/>
+      <c r="V21" s="351"/>
+      <c r="W21" s="350"/>
+      <c r="X21" s="350"/>
+      <c r="Y21" s="350"/>
+      <c r="Z21" s="350"/>
+    </row>
+    <row r="22" spans="1:26" ht="18" customHeight="1">
+      <c r="A22" s="271"/>
+      <c r="B22" s="243" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="276"/>
+      <c r="D22" s="277"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="362"/>
+      <c r="G22" s="355"/>
+      <c r="H22" s="356"/>
+      <c r="I22" s="361"/>
+      <c r="J22" s="362"/>
+      <c r="K22" s="355"/>
+      <c r="L22" s="356"/>
+      <c r="M22" s="361"/>
+      <c r="N22" s="356"/>
+      <c r="O22" s="405" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" s="412"/>
+      <c r="Q22" s="413"/>
+      <c r="U22" s="368"/>
+      <c r="V22" s="351"/>
+      <c r="W22" s="351"/>
+      <c r="X22" s="351"/>
+      <c r="Y22" s="351"/>
+      <c r="Z22" s="351"/>
+    </row>
+    <row r="23" spans="1:26" ht="18" customHeight="1">
+      <c r="A23" s="271"/>
+      <c r="B23" s="248" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="251"/>
+      <c r="D23" s="252"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="423"/>
+      <c r="G23" s="424"/>
+      <c r="H23" s="425"/>
+      <c r="I23" s="426"/>
+      <c r="J23" s="423"/>
+      <c r="K23" s="424"/>
+      <c r="L23" s="425"/>
+      <c r="M23" s="426"/>
+      <c r="N23" s="425"/>
+      <c r="O23" s="405" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" s="412" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q23" s="413"/>
+      <c r="U23" s="368"/>
+      <c r="V23" s="351"/>
+      <c r="W23" s="351"/>
+      <c r="X23" s="351"/>
+      <c r="Y23" s="351"/>
+      <c r="Z23" s="351"/>
+    </row>
+    <row r="24" spans="1:26" ht="18" customHeight="1">
+      <c r="A24" s="271"/>
+      <c r="B24" s="248" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="251"/>
+      <c r="D24" s="252"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="423"/>
+      <c r="G24" s="424"/>
+      <c r="H24" s="425"/>
+      <c r="I24" s="426"/>
+      <c r="J24" s="423"/>
+      <c r="K24" s="424"/>
+      <c r="L24" s="425"/>
+      <c r="M24" s="426"/>
+      <c r="N24" s="425"/>
+      <c r="O24" s="405" t="s">
+        <v>85</v>
+      </c>
+      <c r="P24" s="412" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q24" s="413"/>
+      <c r="U24" s="368"/>
+      <c r="V24" s="351"/>
+      <c r="W24" s="351"/>
+      <c r="X24" s="351"/>
+      <c r="Y24" s="351"/>
+      <c r="Z24" s="351"/>
+    </row>
+    <row r="25" spans="1:26" ht="18" customHeight="1">
+      <c r="A25" s="271"/>
+      <c r="B25" s="248" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="251"/>
+      <c r="D25" s="252"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="423"/>
+      <c r="G25" s="424"/>
+      <c r="H25" s="425"/>
+      <c r="I25" s="426"/>
+      <c r="J25" s="423"/>
+      <c r="K25" s="424"/>
+      <c r="L25" s="425"/>
+      <c r="M25" s="426"/>
+      <c r="N25" s="425"/>
+      <c r="O25" s="405" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" s="412"/>
+      <c r="Q25" s="413"/>
+      <c r="U25" s="368"/>
+      <c r="V25" s="348"/>
+      <c r="W25" s="348"/>
+      <c r="X25" s="348"/>
+      <c r="Y25" s="348"/>
+      <c r="Z25" s="348"/>
+    </row>
+    <row r="26" spans="1:26" ht="18" customHeight="1">
+      <c r="A26" s="271"/>
+      <c r="B26" s="248" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="251"/>
+      <c r="D26" s="252"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="423"/>
+      <c r="G26" s="424"/>
+      <c r="H26" s="425"/>
+      <c r="I26" s="426"/>
+      <c r="J26" s="423"/>
+      <c r="K26" s="424"/>
+      <c r="L26" s="425"/>
+      <c r="M26" s="426"/>
+      <c r="N26" s="425"/>
+      <c r="O26" s="405" t="s">
+        <v>89</v>
+      </c>
+      <c r="P26" s="412"/>
+      <c r="Q26" s="413"/>
+      <c r="U26" s="368"/>
+      <c r="V26" s="351"/>
+      <c r="W26" s="351"/>
+      <c r="X26" s="351"/>
+      <c r="Y26" s="351"/>
+      <c r="Z26" s="351"/>
+    </row>
+    <row r="27" spans="1:26" ht="18" customHeight="1">
+      <c r="A27" s="271"/>
+      <c r="B27" s="248" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="251"/>
+      <c r="D27" s="252"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="423"/>
+      <c r="G27" s="424"/>
+      <c r="H27" s="425"/>
+      <c r="I27" s="426"/>
+      <c r="J27" s="423"/>
+      <c r="K27" s="424"/>
+      <c r="L27" s="425"/>
+      <c r="M27" s="426"/>
+      <c r="N27" s="425"/>
+      <c r="O27" s="405" t="s">
+        <v>92</v>
+      </c>
+      <c r="P27" s="412"/>
+      <c r="Q27" s="413"/>
+      <c r="U27" s="368"/>
+      <c r="V27" s="351"/>
+      <c r="W27" s="350"/>
+      <c r="X27" s="350"/>
+      <c r="Y27" s="350"/>
+      <c r="Z27" s="350"/>
+    </row>
+    <row r="28" spans="1:26" ht="18" customHeight="1">
+      <c r="A28" s="271"/>
+      <c r="B28" s="248" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="251"/>
+      <c r="D28" s="252"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="423"/>
+      <c r="G28" s="424"/>
+      <c r="H28" s="425"/>
+      <c r="I28" s="426"/>
+      <c r="J28" s="423"/>
+      <c r="K28" s="424"/>
+      <c r="L28" s="425"/>
+      <c r="M28" s="426"/>
+      <c r="N28" s="425"/>
+      <c r="O28" s="405" t="s">
+        <v>92</v>
+      </c>
+      <c r="P28" s="412"/>
+      <c r="Q28" s="413"/>
+      <c r="U28" s="368"/>
+      <c r="V28" s="351"/>
+      <c r="W28" s="350"/>
+      <c r="X28" s="350"/>
+      <c r="Y28" s="350"/>
+      <c r="Z28" s="350"/>
+    </row>
+    <row r="29" spans="1:26" ht="18" customHeight="1">
+      <c r="A29" s="271"/>
+      <c r="B29" s="248" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="249"/>
+      <c r="D29" s="250"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="423"/>
+      <c r="G29" s="424"/>
+      <c r="H29" s="425"/>
+      <c r="I29" s="426"/>
+      <c r="J29" s="423"/>
+      <c r="K29" s="424"/>
+      <c r="L29" s="425"/>
+      <c r="M29" s="426"/>
+      <c r="N29" s="425"/>
+      <c r="O29" s="405" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" s="412"/>
+      <c r="Q29" s="413"/>
+      <c r="U29" s="368"/>
+      <c r="V29" s="351"/>
+      <c r="W29" s="350"/>
+      <c r="X29" s="350"/>
+      <c r="Y29" s="350"/>
+      <c r="Z29" s="350"/>
+    </row>
+    <row r="30" spans="1:26" ht="18" customHeight="1">
+      <c r="A30" s="271"/>
+      <c r="B30" s="243" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="244"/>
+      <c r="D30" s="245"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="423"/>
+      <c r="G30" s="424"/>
+      <c r="H30" s="425"/>
+      <c r="I30" s="426"/>
+      <c r="J30" s="423"/>
+      <c r="K30" s="424"/>
+      <c r="L30" s="425"/>
+      <c r="M30" s="426"/>
+      <c r="N30" s="425"/>
+      <c r="O30" s="405" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30" s="412"/>
+      <c r="Q30" s="413"/>
+      <c r="U30" s="368"/>
+      <c r="V30" s="348"/>
+      <c r="W30" s="349"/>
+      <c r="X30" s="349"/>
+      <c r="Y30" s="349"/>
+      <c r="Z30" s="349"/>
+    </row>
+    <row r="31" spans="1:26" ht="18" customHeight="1">
+      <c r="A31" s="271"/>
+      <c r="B31" s="243" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="244"/>
+      <c r="D31" s="245"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="423"/>
+      <c r="G31" s="424"/>
+      <c r="H31" s="425"/>
+      <c r="I31" s="426"/>
+      <c r="J31" s="423"/>
+      <c r="K31" s="424"/>
+      <c r="L31" s="425"/>
+      <c r="M31" s="426"/>
+      <c r="N31" s="425"/>
+      <c r="O31" s="405" t="s">
+        <v>89</v>
+      </c>
+      <c r="P31" s="412"/>
+      <c r="Q31" s="413"/>
+      <c r="U31" s="368"/>
+      <c r="V31" s="348"/>
+      <c r="W31" s="349"/>
+      <c r="X31" s="349"/>
+      <c r="Y31" s="349"/>
+      <c r="Z31" s="349"/>
+    </row>
+    <row r="32" spans="1:26" ht="18" customHeight="1">
+      <c r="A32" s="271"/>
+      <c r="B32" s="331" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="332"/>
+      <c r="D32" s="333"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="423"/>
+      <c r="G32" s="424"/>
+      <c r="H32" s="425"/>
+      <c r="I32" s="426"/>
+      <c r="J32" s="423"/>
+      <c r="K32" s="424"/>
+      <c r="L32" s="425"/>
+      <c r="M32" s="426"/>
+      <c r="N32" s="425"/>
+      <c r="O32" s="405" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" s="412"/>
+      <c r="Q32" s="413"/>
+      <c r="U32" s="368"/>
+      <c r="V32" s="351"/>
+      <c r="W32" s="350"/>
+      <c r="X32" s="350"/>
+      <c r="Y32" s="350"/>
+      <c r="Z32" s="350"/>
+    </row>
+    <row r="33" spans="1:26" ht="18" customHeight="1">
+      <c r="A33" s="271"/>
+      <c r="B33" s="243" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="244"/>
+      <c r="D33" s="245"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="423"/>
+      <c r="G33" s="424"/>
+      <c r="H33" s="425"/>
+      <c r="I33" s="426"/>
+      <c r="J33" s="423"/>
+      <c r="K33" s="424"/>
+      <c r="L33" s="425"/>
+      <c r="M33" s="426"/>
+      <c r="N33" s="425"/>
+      <c r="O33" s="405" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" s="412"/>
+      <c r="Q33" s="413"/>
+      <c r="U33" s="368"/>
+      <c r="V33" s="401"/>
+      <c r="W33" s="402"/>
+      <c r="X33" s="402"/>
+      <c r="Y33" s="402"/>
+      <c r="Z33" s="402"/>
+    </row>
+    <row r="34" spans="1:26" ht="18" customHeight="1">
+      <c r="A34" s="271"/>
+      <c r="B34" s="243" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="244"/>
+      <c r="D34" s="245"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="423"/>
+      <c r="G34" s="424"/>
+      <c r="H34" s="425"/>
+      <c r="I34" s="426"/>
+      <c r="J34" s="423"/>
+      <c r="K34" s="424"/>
+      <c r="L34" s="425"/>
+      <c r="M34" s="426"/>
+      <c r="N34" s="425"/>
+      <c r="O34" s="405" t="s">
+        <v>78</v>
+      </c>
+      <c r="P34" s="412"/>
+      <c r="Q34" s="413"/>
+      <c r="U34" s="368"/>
+      <c r="V34" s="403"/>
+      <c r="W34" s="402"/>
+      <c r="X34" s="402"/>
+      <c r="Y34" s="402"/>
+      <c r="Z34" s="402"/>
+    </row>
+    <row r="35" spans="1:26" ht="18" customHeight="1">
+      <c r="A35" s="271"/>
+      <c r="B35" s="243" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="244"/>
+      <c r="D35" s="245"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="423"/>
+      <c r="G35" s="424"/>
+      <c r="H35" s="425"/>
+      <c r="I35" s="426"/>
+      <c r="J35" s="423"/>
+      <c r="K35" s="424"/>
+      <c r="L35" s="425"/>
+      <c r="M35" s="426"/>
+      <c r="N35" s="425"/>
+      <c r="O35" s="405" t="s">
+        <v>78</v>
+      </c>
+      <c r="P35" s="412"/>
+      <c r="Q35" s="413"/>
+      <c r="U35" s="368"/>
+      <c r="V35" s="401"/>
+      <c r="W35" s="402"/>
+      <c r="X35" s="402"/>
+      <c r="Y35" s="402"/>
+      <c r="Z35" s="402"/>
+    </row>
+    <row r="36" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A36" s="330"/>
+      <c r="B36" s="230" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="231"/>
+      <c r="D36" s="232"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="431"/>
+      <c r="G36" s="432"/>
+      <c r="H36" s="433"/>
+      <c r="I36" s="434"/>
+      <c r="J36" s="431"/>
+      <c r="K36" s="432"/>
+      <c r="L36" s="433"/>
+      <c r="M36" s="434"/>
+      <c r="N36" s="433"/>
+      <c r="O36" s="405" t="s">
+        <v>73</v>
+      </c>
+      <c r="P36" s="412"/>
+      <c r="Q36" s="413"/>
+      <c r="U36" s="368"/>
+      <c r="V36" s="403"/>
+      <c r="W36" s="402"/>
+      <c r="X36" s="402"/>
+      <c r="Y36" s="402"/>
+      <c r="Z36" s="402"/>
+    </row>
+    <row r="37" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A37" s="272"/>
+      <c r="B37" s="230" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="231"/>
+      <c r="D37" s="232"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="364"/>
+      <c r="G37" s="357"/>
+      <c r="H37" s="358"/>
+      <c r="I37" s="363"/>
+      <c r="J37" s="364"/>
+      <c r="K37" s="357"/>
+      <c r="L37" s="358"/>
+      <c r="M37" s="363"/>
+      <c r="N37" s="358"/>
+      <c r="O37" s="410" t="s">
+        <v>114</v>
+      </c>
+      <c r="P37" s="414"/>
+      <c r="Q37" s="415"/>
+      <c r="U37" s="368"/>
+      <c r="V37" s="351"/>
+      <c r="W37" s="350"/>
+      <c r="X37" s="350"/>
+      <c r="Y37" s="350"/>
+      <c r="Z37" s="350"/>
+    </row>
+    <row r="38" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A38" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="237" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="238"/>
+      <c r="D38" s="239"/>
+      <c r="E38" s="91"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="96"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="P38" s="417"/>
+      <c r="Q38" s="376"/>
+    </row>
+    <row r="39" spans="1:26" ht="18" customHeight="1">
+      <c r="B39" s="229"/>
+      <c r="C39" s="229"/>
+      <c r="D39" s="229"/>
+      <c r="O39" s="352"/>
+      <c r="P39" s="352"/>
+      <c r="Q39" s="352"/>
+    </row>
+    <row r="40" spans="1:26" ht="18" customHeight="1">
+      <c r="A40" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="O40" s="352"/>
+      <c r="P40" s="352"/>
+      <c r="Q40" s="352"/>
+    </row>
+    <row r="41" spans="1:26" ht="18" customHeight="1">
+      <c r="A41" s="17"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="180" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="180"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="180"/>
+      <c r="O41" s="352"/>
+      <c r="P41" s="352"/>
+      <c r="Q41" s="352"/>
+    </row>
+    <row r="42" spans="1:26" ht="18" customHeight="1">
+      <c r="A42" s="171"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="180" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="180"/>
+      <c r="E42" s="180"/>
+      <c r="F42" s="180"/>
+      <c r="O42" s="352"/>
+      <c r="P42" s="352"/>
+      <c r="Q42" s="352"/>
+    </row>
+    <row r="43" spans="1:26" ht="18" customHeight="1">
+      <c r="A43" s="18"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="180" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="180"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="180"/>
+      <c r="O43" s="352"/>
+      <c r="P43" s="352"/>
+      <c r="Q43" s="352"/>
+    </row>
+    <row r="44" spans="1:26" ht="18" customHeight="1">
+      <c r="A44" s="19"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="180" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="180"/>
+      <c r="E44" s="180"/>
+      <c r="F44" s="180"/>
+    </row>
+    <row r="45" spans="1:26" ht="18" customHeight="1">
+      <c r="A45" s="20"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="180" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="180"/>
+      <c r="E45" s="180"/>
+      <c r="F45" s="180"/>
+    </row>
+    <row r="46" spans="1:26" ht="18" customHeight="1">
+      <c r="A46" s="75"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="180" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="180"/>
+      <c r="E46" s="180"/>
+      <c r="F46" s="180"/>
+    </row>
+    <row r="47" spans="1:26" ht="18" customHeight="1">
+      <c r="B47" s="229"/>
+      <c r="C47" s="229"/>
+      <c r="D47" s="229"/>
+    </row>
+    <row r="48" spans="1:26" ht="18" customHeight="1">
+      <c r="B48" s="229"/>
+      <c r="C48" s="229"/>
+      <c r="D48" s="229"/>
+    </row>
+    <row r="49" spans="2:4" ht="18" customHeight="1">
+      <c r="B49" s="229"/>
+      <c r="C49" s="229"/>
+      <c r="D49" s="229"/>
+    </row>
+    <row r="50" spans="2:4" ht="18" customHeight="1">
+      <c r="B50" s="229"/>
+      <c r="C50" s="229"/>
+      <c r="D50" s="229"/>
+    </row>
+    <row r="51" spans="2:4" ht="18" customHeight="1">
+      <c r="B51" s="229"/>
+      <c r="C51" s="229"/>
+      <c r="D51" s="229"/>
+    </row>
+    <row r="52" spans="2:4" ht="18" customHeight="1">
+      <c r="B52" s="229"/>
+      <c r="C52" s="229"/>
+      <c r="D52" s="229"/>
+    </row>
+  </sheetData>
+  <mergeCells count="63">
+    <mergeCell ref="A21:A37"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B39:D39"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E26E551-5274-4EE6-B72F-EB832B4BE978}">
+  <dimension ref="A2:Z52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.453125" defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="15" max="17" width="9.1796875" style="164" customWidth="1"/>
+    <col min="18" max="20" width="5.453125" style="368"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:26" ht="18" customHeight="1">
+      <c r="B2" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="301" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="302"/>
+      <c r="I2" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="246"/>
+      <c r="L2" s="373"/>
+      <c r="M2" s="369"/>
+      <c r="N2" s="373"/>
+      <c r="O2" s="371"/>
+      <c r="P2" s="371"/>
+      <c r="Q2" s="371"/>
+      <c r="R2" s="369"/>
+      <c r="S2" s="374"/>
+      <c r="T2" s="369"/>
+      <c r="U2" s="369"/>
+      <c r="V2" s="373"/>
+      <c r="W2" s="369"/>
+      <c r="X2" s="369"/>
+      <c r="Y2" s="369"/>
+    </row>
+    <row r="3" spans="1:26" ht="18" customHeight="1">
+      <c r="B3" s="33"/>
+      <c r="G3" s="301" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="302"/>
+      <c r="I3" s="291" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="246"/>
+      <c r="L3" s="370"/>
+      <c r="M3" s="371"/>
+      <c r="N3" s="370"/>
+      <c r="O3" s="371"/>
+      <c r="P3" s="371"/>
+      <c r="Q3" s="371"/>
+      <c r="R3" s="371"/>
+      <c r="S3" s="372"/>
+      <c r="T3" s="371"/>
+      <c r="U3" s="369"/>
+      <c r="V3" s="370"/>
+      <c r="W3" s="371"/>
+      <c r="X3" s="371"/>
+      <c r="Y3" s="371"/>
+    </row>
+    <row r="4" spans="1:26" ht="18" customHeight="1">
+      <c r="B4" s="33"/>
+      <c r="G4" s="301" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="302"/>
+      <c r="I4" s="325">
+        <v>45460</v>
+      </c>
+      <c r="J4" s="246"/>
+      <c r="L4" s="370"/>
+      <c r="M4" s="371"/>
+      <c r="N4" s="370"/>
+      <c r="O4" s="371"/>
+      <c r="P4" s="371"/>
+      <c r="Q4" s="371"/>
+      <c r="R4" s="371"/>
+      <c r="S4" s="372"/>
+      <c r="T4" s="371"/>
+      <c r="U4" s="369"/>
+      <c r="V4" s="370"/>
+      <c r="W4" s="371"/>
+      <c r="X4" s="371"/>
+      <c r="Y4" s="371"/>
+    </row>
+    <row r="5" spans="1:26" ht="18" customHeight="1">
+      <c r="B5" s="33"/>
+      <c r="G5" s="301" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="302"/>
+      <c r="I5" s="291"/>
+      <c r="J5" s="246"/>
+      <c r="L5" s="370"/>
+      <c r="M5" s="371"/>
+      <c r="N5" s="370"/>
+      <c r="O5" s="371"/>
+      <c r="P5" s="371"/>
+      <c r="Q5" s="371"/>
+      <c r="R5" s="371"/>
+      <c r="S5" s="372"/>
+      <c r="T5" s="371"/>
+      <c r="U5" s="369"/>
+      <c r="V5" s="370"/>
+      <c r="W5" s="371"/>
+      <c r="X5" s="371"/>
+      <c r="Y5" s="371"/>
+    </row>
+    <row r="6" spans="1:26" ht="12" customHeight="1" thickBot="1"/>
+    <row r="7" spans="1:26" ht="15" customHeight="1">
+      <c r="D7" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="303" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="266"/>
+      <c r="G7" s="233" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="304"/>
+      <c r="I7" s="303" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="266"/>
+      <c r="K7" s="233" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="304"/>
+      <c r="M7" s="303" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="266"/>
+    </row>
+    <row r="8" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="D8" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="298">
+        <v>17</v>
+      </c>
+      <c r="F8" s="247"/>
+      <c r="G8" s="298">
+        <v>18</v>
+      </c>
+      <c r="H8" s="247"/>
+      <c r="I8" s="298">
+        <v>19</v>
+      </c>
+      <c r="J8" s="247"/>
+      <c r="K8" s="298">
+        <v>20</v>
+      </c>
+      <c r="L8" s="247"/>
+      <c r="M8" s="298">
+        <v>21</v>
+      </c>
+      <c r="N8" s="247"/>
+    </row>
+    <row r="9" spans="1:26" ht="15" customHeight="1" thickBot="1">
+      <c r="D9" s="78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="173" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="173" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="416" t="s">
+        <v>65</v>
+      </c>
+      <c r="S9" s="377"/>
+    </row>
+    <row r="10" spans="1:26" ht="18" customHeight="1">
+      <c r="A10" s="283" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="273" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="286"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="378"/>
+      <c r="F10" s="379"/>
+      <c r="G10" s="380"/>
+      <c r="H10" s="381"/>
+      <c r="I10" s="378"/>
+      <c r="J10" s="379"/>
+      <c r="K10" s="380"/>
+      <c r="L10" s="381"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="445"/>
+      <c r="O10" s="404" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="404" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" s="407"/>
+    </row>
+    <row r="11" spans="1:26" ht="18" customHeight="1">
+      <c r="A11" s="284"/>
+      <c r="B11" s="248" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="249"/>
+      <c r="D11" s="250"/>
+      <c r="E11" s="361"/>
+      <c r="F11" s="362"/>
+      <c r="G11" s="355"/>
+      <c r="H11" s="356"/>
+      <c r="I11" s="361"/>
+      <c r="J11" s="362"/>
+      <c r="K11" s="355"/>
+      <c r="L11" s="356"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="446"/>
+      <c r="O11" s="405" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="405"/>
+      <c r="Q11" s="408"/>
+    </row>
+    <row r="12" spans="1:26" ht="18" customHeight="1">
+      <c r="A12" s="284"/>
+      <c r="B12" s="248" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="249"/>
+      <c r="D12" s="250"/>
+      <c r="E12" s="361"/>
+      <c r="F12" s="362"/>
+      <c r="G12" s="355"/>
+      <c r="H12" s="356"/>
+      <c r="I12" s="361"/>
+      <c r="J12" s="362"/>
+      <c r="K12" s="355"/>
+      <c r="L12" s="356"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="446"/>
+      <c r="O12" s="405" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="405"/>
+      <c r="Q12" s="408"/>
+    </row>
+    <row r="13" spans="1:26" ht="18" customHeight="1">
+      <c r="A13" s="284"/>
+      <c r="B13" s="248" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="249"/>
+      <c r="D13" s="250"/>
+      <c r="E13" s="361"/>
+      <c r="F13" s="362"/>
+      <c r="G13" s="355"/>
+      <c r="H13" s="356"/>
+      <c r="I13" s="361"/>
+      <c r="J13" s="362"/>
+      <c r="K13" s="355"/>
+      <c r="L13" s="356"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="446"/>
+      <c r="O13" s="405" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="405" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="408"/>
+    </row>
+    <row r="14" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A14" s="285"/>
+      <c r="B14" s="292" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="293"/>
+      <c r="D14" s="294"/>
+      <c r="E14" s="437"/>
+      <c r="F14" s="438"/>
+      <c r="G14" s="439"/>
+      <c r="H14" s="440"/>
+      <c r="I14" s="437"/>
+      <c r="J14" s="438"/>
+      <c r="K14" s="439"/>
+      <c r="L14" s="440"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="447"/>
+      <c r="O14" s="410" t="s">
+        <v>79</v>
+      </c>
+      <c r="P14" s="406"/>
+      <c r="Q14" s="409"/>
+    </row>
+    <row r="15" spans="1:26" ht="18" customHeight="1">
+      <c r="A15" s="337" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="341" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="342"/>
+      <c r="D15" s="343"/>
+      <c r="E15" s="353"/>
+      <c r="F15" s="360"/>
+      <c r="G15" s="353"/>
+      <c r="H15" s="354"/>
+      <c r="I15" s="359"/>
+      <c r="J15" s="360"/>
+      <c r="K15" s="353"/>
+      <c r="L15" s="354"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="448"/>
+      <c r="O15" s="404" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="120" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="404"/>
+      <c r="V15" s="351"/>
+      <c r="W15" s="350"/>
+      <c r="X15" s="350"/>
+      <c r="Y15" s="350"/>
+      <c r="Z15" s="350"/>
+    </row>
+    <row r="16" spans="1:26" ht="18" customHeight="1">
+      <c r="A16" s="339"/>
+      <c r="B16" s="344" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="338"/>
+      <c r="D16" s="345"/>
+      <c r="E16" s="380"/>
+      <c r="F16" s="379"/>
+      <c r="G16" s="380"/>
+      <c r="H16" s="381"/>
+      <c r="I16" s="378"/>
+      <c r="J16" s="379"/>
+      <c r="K16" s="380"/>
+      <c r="L16" s="381"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="445"/>
+      <c r="O16" s="405" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="405"/>
+      <c r="V16" s="348"/>
+      <c r="W16" s="349"/>
+      <c r="X16" s="349"/>
+      <c r="Y16" s="349"/>
+      <c r="Z16" s="349"/>
+    </row>
+    <row r="17" spans="1:26" ht="18" customHeight="1">
+      <c r="A17" s="340"/>
+      <c r="B17" s="346" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="268"/>
+      <c r="D17" s="316"/>
+      <c r="E17" s="355"/>
+      <c r="F17" s="362"/>
+      <c r="G17" s="355"/>
+      <c r="H17" s="356"/>
+      <c r="I17" s="361"/>
+      <c r="J17" s="362"/>
+      <c r="K17" s="355"/>
+      <c r="L17" s="356"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="446"/>
+      <c r="O17" s="405" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="405"/>
+      <c r="V17" s="351"/>
+      <c r="W17" s="350"/>
+      <c r="X17" s="350"/>
+      <c r="Y17" s="350"/>
+      <c r="Z17" s="350"/>
+    </row>
+    <row r="18" spans="1:26" ht="18" customHeight="1">
+      <c r="A18" s="340"/>
+      <c r="B18" s="365" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="366"/>
+      <c r="D18" s="367"/>
+      <c r="E18" s="355"/>
+      <c r="F18" s="362"/>
+      <c r="G18" s="355"/>
+      <c r="H18" s="356"/>
+      <c r="I18" s="361"/>
+      <c r="J18" s="362"/>
+      <c r="K18" s="355"/>
+      <c r="L18" s="356"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="446"/>
+      <c r="O18" s="405" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="405"/>
+      <c r="V18" s="348"/>
+      <c r="W18" s="349"/>
+      <c r="X18" s="349"/>
+      <c r="Y18" s="349"/>
+      <c r="Z18" s="349"/>
+    </row>
+    <row r="19" spans="1:26" ht="18" customHeight="1">
+      <c r="A19" s="340"/>
+      <c r="B19" s="365" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="366"/>
+      <c r="D19" s="367"/>
+      <c r="E19" s="355"/>
+      <c r="F19" s="362"/>
+      <c r="G19" s="355"/>
+      <c r="H19" s="356"/>
+      <c r="I19" s="361"/>
+      <c r="J19" s="362"/>
+      <c r="K19" s="355"/>
+      <c r="L19" s="356"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="446"/>
+      <c r="O19" s="405" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="405"/>
+      <c r="V19" s="348"/>
+      <c r="W19" s="349"/>
+      <c r="X19" s="349"/>
+      <c r="Y19" s="349"/>
+      <c r="Z19" s="349"/>
+    </row>
+    <row r="20" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A20" s="340"/>
+      <c r="B20" s="347" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="254"/>
+      <c r="D20" s="313"/>
+      <c r="E20" s="355"/>
+      <c r="F20" s="362"/>
+      <c r="G20" s="355"/>
+      <c r="H20" s="356"/>
+      <c r="I20" s="361"/>
+      <c r="J20" s="362"/>
+      <c r="K20" s="355"/>
+      <c r="L20" s="356"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="449"/>
+      <c r="O20" s="406" t="s">
+        <v>85</v>
+      </c>
+      <c r="P20" s="126" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="406"/>
+      <c r="V20" s="351"/>
+      <c r="W20" s="350"/>
+      <c r="X20" s="350"/>
+      <c r="Y20" s="350"/>
+      <c r="Z20" s="350"/>
+    </row>
+    <row r="21" spans="1:26" ht="18" customHeight="1">
+      <c r="A21" s="270" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="273" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="274"/>
+      <c r="D21" s="275"/>
+      <c r="E21" s="359"/>
+      <c r="F21" s="360"/>
+      <c r="G21" s="353"/>
+      <c r="H21" s="354"/>
+      <c r="I21" s="359"/>
+      <c r="J21" s="360"/>
+      <c r="K21" s="353"/>
+      <c r="L21" s="354"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="448"/>
+      <c r="O21" s="418" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" s="411" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q21" s="419"/>
+      <c r="U21" s="368"/>
+      <c r="V21" s="351"/>
+      <c r="W21" s="350"/>
+      <c r="X21" s="350"/>
+      <c r="Y21" s="350"/>
+      <c r="Z21" s="350"/>
+    </row>
+    <row r="22" spans="1:26" ht="18" customHeight="1">
+      <c r="A22" s="271"/>
+      <c r="B22" s="243" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="276"/>
+      <c r="D22" s="277"/>
+      <c r="E22" s="361"/>
+      <c r="F22" s="362"/>
+      <c r="G22" s="355"/>
+      <c r="H22" s="356"/>
+      <c r="I22" s="361"/>
+      <c r="J22" s="362"/>
+      <c r="K22" s="355"/>
+      <c r="L22" s="356"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="446"/>
+      <c r="O22" s="405" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" s="412"/>
+      <c r="Q22" s="413"/>
+      <c r="U22" s="368"/>
+      <c r="V22" s="351"/>
+      <c r="W22" s="351"/>
+      <c r="X22" s="351"/>
+      <c r="Y22" s="351"/>
+      <c r="Z22" s="351"/>
+    </row>
+    <row r="23" spans="1:26" ht="18" customHeight="1">
+      <c r="A23" s="271"/>
+      <c r="B23" s="248" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="251"/>
+      <c r="D23" s="252"/>
+      <c r="E23" s="361"/>
+      <c r="F23" s="362"/>
+      <c r="G23" s="355"/>
+      <c r="H23" s="356"/>
+      <c r="I23" s="361"/>
+      <c r="J23" s="362"/>
+      <c r="K23" s="355"/>
+      <c r="L23" s="356"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="446"/>
+      <c r="O23" s="405" t="s">
+        <v>85</v>
+      </c>
+      <c r="P23" s="412" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q23" s="413"/>
+      <c r="U23" s="368"/>
+      <c r="V23" s="351"/>
+      <c r="W23" s="351"/>
+      <c r="X23" s="351"/>
+      <c r="Y23" s="351"/>
+      <c r="Z23" s="351"/>
+    </row>
+    <row r="24" spans="1:26" ht="18" customHeight="1">
+      <c r="A24" s="271"/>
+      <c r="B24" s="248" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="251"/>
+      <c r="D24" s="252"/>
+      <c r="E24" s="361"/>
+      <c r="F24" s="362"/>
+      <c r="G24" s="355"/>
+      <c r="H24" s="356"/>
+      <c r="I24" s="361"/>
+      <c r="J24" s="362"/>
+      <c r="K24" s="355"/>
+      <c r="L24" s="356"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="446"/>
+      <c r="O24" s="405" t="s">
+        <v>85</v>
+      </c>
+      <c r="P24" s="412" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q24" s="413"/>
+      <c r="U24" s="368"/>
+      <c r="V24" s="351"/>
+      <c r="W24" s="351"/>
+      <c r="X24" s="351"/>
+      <c r="Y24" s="351"/>
+      <c r="Z24" s="351"/>
+    </row>
+    <row r="25" spans="1:26" ht="18" customHeight="1">
+      <c r="A25" s="271"/>
+      <c r="B25" s="248" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="251"/>
+      <c r="D25" s="252"/>
+      <c r="E25" s="361"/>
+      <c r="F25" s="362"/>
+      <c r="G25" s="355"/>
+      <c r="H25" s="356"/>
+      <c r="I25" s="361"/>
+      <c r="J25" s="362"/>
+      <c r="K25" s="355"/>
+      <c r="L25" s="356"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="446"/>
+      <c r="O25" s="405" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" s="412"/>
+      <c r="Q25" s="413"/>
+      <c r="U25" s="368"/>
+      <c r="V25" s="348"/>
+      <c r="W25" s="348"/>
+      <c r="X25" s="348"/>
+      <c r="Y25" s="348"/>
+      <c r="Z25" s="348"/>
+    </row>
+    <row r="26" spans="1:26" ht="18" customHeight="1">
+      <c r="A26" s="271"/>
+      <c r="B26" s="248" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="251"/>
+      <c r="D26" s="252"/>
+      <c r="E26" s="361"/>
+      <c r="F26" s="362"/>
+      <c r="G26" s="355"/>
+      <c r="H26" s="356"/>
+      <c r="I26" s="361"/>
+      <c r="J26" s="362"/>
+      <c r="K26" s="355"/>
+      <c r="L26" s="356"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="446"/>
+      <c r="O26" s="405" t="s">
+        <v>89</v>
+      </c>
+      <c r="P26" s="412"/>
+      <c r="Q26" s="413"/>
+      <c r="U26" s="368"/>
+      <c r="V26" s="351"/>
+      <c r="W26" s="351"/>
+      <c r="X26" s="351"/>
+      <c r="Y26" s="351"/>
+      <c r="Z26" s="351"/>
+    </row>
+    <row r="27" spans="1:26" ht="18" customHeight="1">
+      <c r="A27" s="271"/>
+      <c r="B27" s="248" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="251"/>
+      <c r="D27" s="252"/>
+      <c r="E27" s="361"/>
+      <c r="F27" s="362"/>
+      <c r="G27" s="355"/>
+      <c r="H27" s="356"/>
+      <c r="I27" s="361"/>
+      <c r="J27" s="362"/>
+      <c r="K27" s="355"/>
+      <c r="L27" s="356"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="446"/>
+      <c r="O27" s="405" t="s">
+        <v>92</v>
+      </c>
+      <c r="P27" s="412"/>
+      <c r="Q27" s="413"/>
+      <c r="U27" s="368"/>
+      <c r="V27" s="351"/>
+      <c r="W27" s="350"/>
+      <c r="X27" s="350"/>
+      <c r="Y27" s="350"/>
+      <c r="Z27" s="350"/>
+    </row>
+    <row r="28" spans="1:26" ht="18" customHeight="1">
+      <c r="A28" s="271"/>
+      <c r="B28" s="248" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="251"/>
+      <c r="D28" s="252"/>
+      <c r="E28" s="361"/>
+      <c r="F28" s="362"/>
+      <c r="G28" s="355"/>
+      <c r="H28" s="356"/>
+      <c r="I28" s="361"/>
+      <c r="J28" s="362"/>
+      <c r="K28" s="355"/>
+      <c r="L28" s="356"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="446"/>
+      <c r="O28" s="405" t="s">
+        <v>92</v>
+      </c>
+      <c r="P28" s="412"/>
+      <c r="Q28" s="413"/>
+      <c r="U28" s="368"/>
+      <c r="V28" s="351"/>
+      <c r="W28" s="350"/>
+      <c r="X28" s="350"/>
+      <c r="Y28" s="350"/>
+      <c r="Z28" s="350"/>
+    </row>
+    <row r="29" spans="1:26" ht="18" customHeight="1">
+      <c r="A29" s="271"/>
+      <c r="B29" s="248" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="249"/>
+      <c r="D29" s="250"/>
+      <c r="E29" s="361"/>
+      <c r="F29" s="362"/>
+      <c r="G29" s="355"/>
+      <c r="H29" s="356"/>
+      <c r="I29" s="361"/>
+      <c r="J29" s="362"/>
+      <c r="K29" s="355"/>
+      <c r="L29" s="356"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="446"/>
+      <c r="O29" s="405" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" s="412"/>
+      <c r="Q29" s="413"/>
+      <c r="U29" s="368"/>
+      <c r="V29" s="351"/>
+      <c r="W29" s="350"/>
+      <c r="X29" s="350"/>
+      <c r="Y29" s="350"/>
+      <c r="Z29" s="350"/>
+    </row>
+    <row r="30" spans="1:26" ht="18" customHeight="1">
+      <c r="A30" s="271"/>
+      <c r="B30" s="243" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="244"/>
+      <c r="D30" s="245"/>
+      <c r="E30" s="361"/>
+      <c r="F30" s="362"/>
+      <c r="G30" s="355"/>
+      <c r="H30" s="356"/>
+      <c r="I30" s="361"/>
+      <c r="J30" s="362"/>
+      <c r="K30" s="355"/>
+      <c r="L30" s="356"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="446"/>
+      <c r="O30" s="405" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30" s="412"/>
+      <c r="Q30" s="413"/>
+      <c r="U30" s="368"/>
+      <c r="V30" s="348"/>
+      <c r="W30" s="349"/>
+      <c r="X30" s="349"/>
+      <c r="Y30" s="349"/>
+      <c r="Z30" s="349"/>
+    </row>
+    <row r="31" spans="1:26" ht="18" customHeight="1">
+      <c r="A31" s="271"/>
+      <c r="B31" s="243" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="244"/>
+      <c r="D31" s="245"/>
+      <c r="E31" s="361"/>
+      <c r="F31" s="362"/>
+      <c r="G31" s="355"/>
+      <c r="H31" s="356"/>
+      <c r="I31" s="361"/>
+      <c r="J31" s="362"/>
+      <c r="K31" s="355"/>
+      <c r="L31" s="356"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="446"/>
+      <c r="O31" s="405" t="s">
+        <v>89</v>
+      </c>
+      <c r="P31" s="412"/>
+      <c r="Q31" s="413"/>
+      <c r="U31" s="368"/>
+      <c r="V31" s="348"/>
+      <c r="W31" s="349"/>
+      <c r="X31" s="349"/>
+      <c r="Y31" s="349"/>
+      <c r="Z31" s="349"/>
+    </row>
+    <row r="32" spans="1:26" ht="18" customHeight="1">
+      <c r="A32" s="271"/>
+      <c r="B32" s="331" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="332"/>
+      <c r="D32" s="333"/>
+      <c r="E32" s="361"/>
+      <c r="F32" s="362"/>
+      <c r="G32" s="355"/>
+      <c r="H32" s="356"/>
+      <c r="I32" s="361"/>
+      <c r="J32" s="362"/>
+      <c r="K32" s="355"/>
+      <c r="L32" s="356"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="446"/>
+      <c r="O32" s="405" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" s="412"/>
+      <c r="Q32" s="413"/>
+      <c r="U32" s="368"/>
+      <c r="V32" s="351"/>
+      <c r="W32" s="350"/>
+      <c r="X32" s="350"/>
+      <c r="Y32" s="350"/>
+      <c r="Z32" s="350"/>
+    </row>
+    <row r="33" spans="1:26" ht="18" customHeight="1">
+      <c r="A33" s="271"/>
+      <c r="B33" s="243" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="244"/>
+      <c r="D33" s="245"/>
+      <c r="E33" s="361"/>
+      <c r="F33" s="362"/>
+      <c r="G33" s="355"/>
+      <c r="H33" s="356"/>
+      <c r="I33" s="361"/>
+      <c r="J33" s="362"/>
+      <c r="K33" s="355"/>
+      <c r="L33" s="356"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="446"/>
+      <c r="O33" s="405" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" s="412"/>
+      <c r="Q33" s="413"/>
+      <c r="U33" s="368"/>
+      <c r="V33" s="401"/>
+      <c r="W33" s="402"/>
+      <c r="X33" s="402"/>
+      <c r="Y33" s="402"/>
+      <c r="Z33" s="402"/>
+    </row>
+    <row r="34" spans="1:26" ht="18" customHeight="1">
+      <c r="A34" s="271"/>
+      <c r="B34" s="243" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="244"/>
+      <c r="D34" s="245"/>
+      <c r="E34" s="361"/>
+      <c r="F34" s="362"/>
+      <c r="G34" s="355"/>
+      <c r="H34" s="356"/>
+      <c r="I34" s="361"/>
+      <c r="J34" s="362"/>
+      <c r="K34" s="355"/>
+      <c r="L34" s="356"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="446"/>
+      <c r="O34" s="405" t="s">
+        <v>78</v>
+      </c>
+      <c r="P34" s="412"/>
+      <c r="Q34" s="413"/>
+      <c r="U34" s="368"/>
+      <c r="V34" s="403"/>
+      <c r="W34" s="402"/>
+      <c r="X34" s="402"/>
+      <c r="Y34" s="402"/>
+      <c r="Z34" s="402"/>
+    </row>
+    <row r="35" spans="1:26" ht="18" customHeight="1">
+      <c r="A35" s="271"/>
+      <c r="B35" s="243" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="244"/>
+      <c r="D35" s="245"/>
+      <c r="E35" s="361"/>
+      <c r="F35" s="362"/>
+      <c r="G35" s="355"/>
+      <c r="H35" s="356"/>
+      <c r="I35" s="361"/>
+      <c r="J35" s="362"/>
+      <c r="K35" s="355"/>
+      <c r="L35" s="356"/>
+      <c r="M35" s="82"/>
+      <c r="N35" s="446"/>
+      <c r="O35" s="405" t="s">
+        <v>78</v>
+      </c>
+      <c r="P35" s="412"/>
+      <c r="Q35" s="413"/>
+      <c r="U35" s="368"/>
+      <c r="V35" s="401"/>
+      <c r="W35" s="402"/>
+      <c r="X35" s="402"/>
+      <c r="Y35" s="402"/>
+      <c r="Z35" s="402"/>
+    </row>
+    <row r="36" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A36" s="330"/>
+      <c r="B36" s="230" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="231"/>
+      <c r="D36" s="232"/>
+      <c r="E36" s="437"/>
+      <c r="F36" s="438"/>
+      <c r="G36" s="439"/>
+      <c r="H36" s="440"/>
+      <c r="I36" s="437"/>
+      <c r="J36" s="438"/>
+      <c r="K36" s="439"/>
+      <c r="L36" s="440"/>
+      <c r="M36" s="85"/>
+      <c r="N36" s="447"/>
+      <c r="O36" s="405" t="s">
+        <v>73</v>
+      </c>
+      <c r="P36" s="412"/>
+      <c r="Q36" s="413"/>
+      <c r="U36" s="368"/>
+      <c r="V36" s="403"/>
+      <c r="W36" s="402"/>
+      <c r="X36" s="402"/>
+      <c r="Y36" s="402"/>
+      <c r="Z36" s="402"/>
+    </row>
+    <row r="37" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A37" s="272"/>
+      <c r="B37" s="230" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="231"/>
+      <c r="D37" s="232"/>
+      <c r="E37" s="363"/>
+      <c r="F37" s="364"/>
+      <c r="G37" s="357"/>
+      <c r="H37" s="358"/>
+      <c r="I37" s="363"/>
+      <c r="J37" s="364"/>
+      <c r="K37" s="357"/>
+      <c r="L37" s="358"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="449"/>
+      <c r="O37" s="410" t="s">
+        <v>114</v>
+      </c>
+      <c r="P37" s="414"/>
+      <c r="Q37" s="415"/>
+      <c r="U37" s="368"/>
+      <c r="V37" s="351"/>
+      <c r="W37" s="350"/>
+      <c r="X37" s="350"/>
+      <c r="Y37" s="350"/>
+      <c r="Z37" s="350"/>
+    </row>
+    <row r="38" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A38" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="237" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="238"/>
+      <c r="D38" s="239"/>
+      <c r="E38" s="441"/>
+      <c r="F38" s="442"/>
+      <c r="G38" s="443"/>
+      <c r="H38" s="444"/>
+      <c r="I38" s="441"/>
+      <c r="J38" s="442"/>
+      <c r="K38" s="443"/>
+      <c r="L38" s="444"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="450"/>
+      <c r="O38" s="375" t="s">
+        <v>91</v>
+      </c>
+      <c r="P38" s="417"/>
+      <c r="Q38" s="376"/>
+    </row>
+    <row r="39" spans="1:26" ht="18" customHeight="1">
+      <c r="B39" s="229"/>
+      <c r="C39" s="229"/>
+      <c r="D39" s="229"/>
+      <c r="O39" s="352"/>
+      <c r="P39" s="352"/>
+      <c r="Q39" s="352"/>
+    </row>
+    <row r="40" spans="1:26" ht="18" customHeight="1">
+      <c r="A40" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="O40" s="352"/>
+      <c r="P40" s="352"/>
+      <c r="Q40" s="352"/>
+    </row>
+    <row r="41" spans="1:26" ht="18" customHeight="1">
+      <c r="A41" s="17"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="180" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="180"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="180"/>
+      <c r="O41" s="352"/>
+      <c r="P41" s="352"/>
+      <c r="Q41" s="352"/>
+    </row>
+    <row r="42" spans="1:26" ht="18" customHeight="1">
+      <c r="A42" s="171"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="180" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="180"/>
+      <c r="E42" s="180"/>
+      <c r="F42" s="180"/>
+      <c r="O42" s="352"/>
+      <c r="P42" s="352"/>
+      <c r="Q42" s="352"/>
+    </row>
+    <row r="43" spans="1:26" ht="18" customHeight="1">
+      <c r="A43" s="18"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="180" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="180"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="180"/>
+      <c r="O43" s="352"/>
+      <c r="P43" s="352"/>
+      <c r="Q43" s="352"/>
+    </row>
+    <row r="44" spans="1:26" ht="18" customHeight="1">
+      <c r="A44" s="19"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="180" t="s">
+        <v>26</v>
+      </c>
+      <c r="D44" s="180"/>
+      <c r="E44" s="180"/>
+      <c r="F44" s="180"/>
+    </row>
+    <row r="45" spans="1:26" ht="18" customHeight="1">
+      <c r="A45" s="20"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="180" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="180"/>
+      <c r="E45" s="180"/>
+      <c r="F45" s="180"/>
+    </row>
+    <row r="46" spans="1:26" ht="18" customHeight="1">
+      <c r="A46" s="75"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="180" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="180"/>
+      <c r="E46" s="180"/>
+      <c r="F46" s="180"/>
+    </row>
+    <row r="47" spans="1:26" ht="18" customHeight="1">
+      <c r="B47" s="229"/>
+      <c r="C47" s="229"/>
+      <c r="D47" s="229"/>
+    </row>
+    <row r="48" spans="1:26" ht="18" customHeight="1">
+      <c r="B48" s="229"/>
+      <c r="C48" s="229"/>
+      <c r="D48" s="229"/>
+    </row>
+    <row r="49" spans="2:4" ht="18" customHeight="1">
+      <c r="B49" s="229"/>
+      <c r="C49" s="229"/>
+      <c r="D49" s="229"/>
+    </row>
+    <row r="50" spans="2:4" ht="18" customHeight="1">
+      <c r="B50" s="229"/>
+      <c r="C50" s="229"/>
+      <c r="D50" s="229"/>
+    </row>
+    <row r="51" spans="2:4" ht="18" customHeight="1">
+      <c r="B51" s="229"/>
+      <c r="C51" s="229"/>
+      <c r="D51" s="229"/>
+    </row>
+    <row r="52" spans="2:4" ht="18" customHeight="1">
+      <c r="B52" s="229"/>
+      <c r="C52" s="229"/>
+      <c r="D52" s="229"/>
+    </row>
+  </sheetData>
+  <mergeCells count="63">
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A21:A37"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3C01B9-310F-457D-96AB-8BF80EF180F8}">
-  <dimension ref="A2:Y42"/>
+  <dimension ref="A2:Z46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="A16:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.453125" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
-    <row r="2" spans="1:25" ht="18" customHeight="1">
+    <row r="2" spans="1:26" ht="18" customHeight="1">
       <c r="B2" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="299" t="s">
+      <c r="G2" s="301" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="300"/>
-      <c r="I2" s="289" t="s">
+      <c r="H2" s="302"/>
+      <c r="I2" s="291" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="244"/>
-      <c r="L2" s="299" t="s">
+      <c r="J2" s="246"/>
+      <c r="L2" s="301" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="300"/>
-      <c r="N2" s="289" t="s">
+      <c r="M2" s="302"/>
+      <c r="N2" s="291" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="244"/>
-      <c r="Q2" s="299" t="s">
+      <c r="O2" s="246"/>
+      <c r="Q2" s="301" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="300"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="244"/>
-      <c r="V2" s="299" t="s">
+      <c r="R2" s="302"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="246"/>
+      <c r="V2" s="301" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="300"/>
-      <c r="X2" s="244"/>
-      <c r="Y2" s="244"/>
-    </row>
-    <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
-    <row r="4" spans="1:25" ht="15" customHeight="1">
+      <c r="W2" s="302"/>
+      <c r="X2" s="246"/>
+      <c r="Y2" s="246"/>
+    </row>
+    <row r="3" spans="1:26" ht="12" customHeight="1" thickBot="1"/>
+    <row r="4" spans="1:26" ht="15" customHeight="1">
       <c r="D4" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="301" t="s">
+      <c r="E4" s="303" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="264"/>
-      <c r="G4" s="231" t="s">
+      <c r="F4" s="266"/>
+      <c r="G4" s="233" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="302"/>
-      <c r="I4" s="301" t="s">
+      <c r="H4" s="304"/>
+      <c r="I4" s="303" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="264"/>
-      <c r="K4" s="231" t="s">
+      <c r="J4" s="266"/>
+      <c r="K4" s="233" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="302"/>
-      <c r="M4" s="301" t="s">
+      <c r="L4" s="304"/>
+      <c r="M4" s="303" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="264"/>
-    </row>
-    <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="N4" s="266"/>
+    </row>
+    <row r="5" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="D5" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="296"/>
-      <c r="F5" s="245"/>
-      <c r="G5" s="280"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="296"/>
-      <c r="J5" s="245"/>
-      <c r="K5" s="280"/>
-      <c r="L5" s="297"/>
-      <c r="M5" s="296"/>
-      <c r="N5" s="245"/>
-    </row>
-    <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
+      <c r="E5" s="298"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="282"/>
+      <c r="H5" s="299"/>
+      <c r="I5" s="298"/>
+      <c r="J5" s="247"/>
+      <c r="K5" s="282"/>
+      <c r="L5" s="299"/>
+      <c r="M5" s="298"/>
+      <c r="N5" s="247"/>
+    </row>
+    <row r="6" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="D6" s="78" t="s">
         <v>37</v>
       </c>
@@ -45931,28 +49884,28 @@
       <c r="N6" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="327" t="s">
+      <c r="O6" s="329" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="239"/>
-      <c r="Q6" s="303" t="s">
+      <c r="P6" s="241"/>
+      <c r="Q6" s="305" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="239"/>
-      <c r="S6" s="303" t="s">
+      <c r="R6" s="241"/>
+      <c r="S6" s="305" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="240"/>
-    </row>
-    <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="281" t="s">
+      <c r="T6" s="242"/>
+    </row>
+    <row r="7" spans="1:26" ht="18" customHeight="1">
+      <c r="A7" s="283" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="271" t="s">
+      <c r="B7" s="273" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="285"/>
+      <c r="C7" s="286"/>
+      <c r="D7" s="287"/>
       <c r="E7" s="93"/>
       <c r="F7" s="43"/>
       <c r="G7" s="45"/>
@@ -45963,20 +49916,20 @@
       <c r="L7" s="55"/>
       <c r="M7" s="93"/>
       <c r="N7" s="43"/>
-      <c r="O7" s="319"/>
-      <c r="P7" s="287"/>
-      <c r="Q7" s="287"/>
-      <c r="R7" s="287"/>
-      <c r="S7" s="287"/>
-      <c r="T7" s="288"/>
-    </row>
-    <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="282"/>
-      <c r="B8" s="246" t="s">
+      <c r="O7" s="321"/>
+      <c r="P7" s="289"/>
+      <c r="Q7" s="289"/>
+      <c r="R7" s="289"/>
+      <c r="S7" s="289"/>
+      <c r="T7" s="290"/>
+    </row>
+    <row r="8" spans="1:26" ht="18" customHeight="1">
+      <c r="A8" s="284"/>
+      <c r="B8" s="248" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="247"/>
-      <c r="D8" s="248"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="250"/>
       <c r="E8" s="37"/>
       <c r="F8" s="38"/>
       <c r="G8" s="46"/>
@@ -45987,20 +49940,20 @@
       <c r="L8" s="56"/>
       <c r="M8" s="37"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="296"/>
-      <c r="P8" s="244"/>
-      <c r="Q8" s="244"/>
-      <c r="R8" s="244"/>
-      <c r="S8" s="244"/>
-      <c r="T8" s="245"/>
-    </row>
-    <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="282"/>
-      <c r="B9" s="246" t="s">
+      <c r="O8" s="298"/>
+      <c r="P8" s="246"/>
+      <c r="Q8" s="246"/>
+      <c r="R8" s="246"/>
+      <c r="S8" s="246"/>
+      <c r="T8" s="247"/>
+    </row>
+    <row r="9" spans="1:26" ht="18" customHeight="1">
+      <c r="A9" s="284"/>
+      <c r="B9" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="247"/>
-      <c r="D9" s="248"/>
+      <c r="C9" s="249"/>
+      <c r="D9" s="250"/>
       <c r="E9" s="37"/>
       <c r="F9" s="38"/>
       <c r="G9" s="46"/>
@@ -46011,20 +49964,20 @@
       <c r="L9" s="56"/>
       <c r="M9" s="37"/>
       <c r="N9" s="38"/>
-      <c r="O9" s="296"/>
-      <c r="P9" s="244"/>
-      <c r="Q9" s="244"/>
-      <c r="R9" s="244"/>
-      <c r="S9" s="244"/>
-      <c r="T9" s="245"/>
-    </row>
-    <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="282"/>
-      <c r="B10" s="246" t="s">
+      <c r="O9" s="298"/>
+      <c r="P9" s="246"/>
+      <c r="Q9" s="246"/>
+      <c r="R9" s="246"/>
+      <c r="S9" s="246"/>
+      <c r="T9" s="247"/>
+    </row>
+    <row r="10" spans="1:26" ht="18" customHeight="1">
+      <c r="A10" s="284"/>
+      <c r="B10" s="248" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="247"/>
-      <c r="D10" s="248"/>
+      <c r="C10" s="249"/>
+      <c r="D10" s="250"/>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
       <c r="G10" s="46"/>
@@ -46035,20 +49988,20 @@
       <c r="L10" s="56"/>
       <c r="M10" s="37"/>
       <c r="N10" s="38"/>
-      <c r="O10" s="296"/>
-      <c r="P10" s="244"/>
-      <c r="Q10" s="244"/>
-      <c r="R10" s="244"/>
-      <c r="S10" s="244"/>
-      <c r="T10" s="245"/>
-    </row>
-    <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="283"/>
-      <c r="B11" s="290" t="s">
+      <c r="O10" s="298"/>
+      <c r="P10" s="246"/>
+      <c r="Q10" s="246"/>
+      <c r="R10" s="246"/>
+      <c r="S10" s="246"/>
+      <c r="T10" s="247"/>
+    </row>
+    <row r="11" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A11" s="285"/>
+      <c r="B11" s="292" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="291"/>
-      <c r="D11" s="292"/>
+      <c r="C11" s="293"/>
+      <c r="D11" s="294"/>
       <c r="E11" s="94"/>
       <c r="F11" s="51"/>
       <c r="G11" s="49"/>
@@ -46059,22 +50012,22 @@
       <c r="L11" s="57"/>
       <c r="M11" s="94"/>
       <c r="N11" s="51"/>
-      <c r="O11" s="321"/>
-      <c r="P11" s="294"/>
-      <c r="Q11" s="294"/>
-      <c r="R11" s="294"/>
-      <c r="S11" s="294"/>
-      <c r="T11" s="295"/>
-    </row>
-    <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="256" t="s">
+      <c r="O11" s="323"/>
+      <c r="P11" s="296"/>
+      <c r="Q11" s="296"/>
+      <c r="R11" s="296"/>
+      <c r="S11" s="296"/>
+      <c r="T11" s="297"/>
+    </row>
+    <row r="12" spans="1:26" ht="18" customHeight="1">
+      <c r="A12" s="258" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="259" t="s">
+      <c r="B12" s="261" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="260"/>
-      <c r="D12" s="261"/>
+      <c r="C12" s="262"/>
+      <c r="D12" s="263"/>
       <c r="E12" s="35"/>
       <c r="F12" s="53"/>
       <c r="G12" s="52"/>
@@ -46085,20 +50038,20 @@
       <c r="L12" s="58"/>
       <c r="M12" s="35"/>
       <c r="N12" s="53"/>
-      <c r="O12" s="313"/>
-      <c r="P12" s="232"/>
-      <c r="Q12" s="232"/>
-      <c r="R12" s="232"/>
-      <c r="S12" s="232"/>
-      <c r="T12" s="264"/>
-    </row>
-    <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="257"/>
-      <c r="B13" s="265" t="s">
+      <c r="O12" s="315"/>
+      <c r="P12" s="234"/>
+      <c r="Q12" s="234"/>
+      <c r="R12" s="234"/>
+      <c r="S12" s="234"/>
+      <c r="T12" s="266"/>
+    </row>
+    <row r="13" spans="1:26" ht="18" customHeight="1">
+      <c r="A13" s="259"/>
+      <c r="B13" s="267" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="266"/>
-      <c r="D13" s="267"/>
+      <c r="C13" s="268"/>
+      <c r="D13" s="269"/>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
       <c r="G13" s="46"/>
@@ -46109,20 +50062,20 @@
       <c r="L13" s="56"/>
       <c r="M13" s="37"/>
       <c r="N13" s="38"/>
-      <c r="O13" s="296"/>
-      <c r="P13" s="244"/>
-      <c r="Q13" s="244"/>
-      <c r="R13" s="244"/>
-      <c r="S13" s="244"/>
-      <c r="T13" s="245"/>
-    </row>
-    <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="257"/>
-      <c r="B14" s="265" t="s">
+      <c r="O13" s="298"/>
+      <c r="P13" s="246"/>
+      <c r="Q13" s="246"/>
+      <c r="R13" s="246"/>
+      <c r="S13" s="246"/>
+      <c r="T13" s="247"/>
+    </row>
+    <row r="14" spans="1:26" ht="18" customHeight="1">
+      <c r="A14" s="259"/>
+      <c r="B14" s="267" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="277"/>
-      <c r="D14" s="278"/>
+      <c r="C14" s="279"/>
+      <c r="D14" s="280"/>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
       <c r="G14" s="46"/>
@@ -46133,20 +50086,20 @@
       <c r="L14" s="56"/>
       <c r="M14" s="37"/>
       <c r="N14" s="38"/>
-      <c r="O14" s="296"/>
-      <c r="P14" s="244"/>
-      <c r="Q14" s="244"/>
-      <c r="R14" s="244"/>
-      <c r="S14" s="244"/>
-      <c r="T14" s="245"/>
-    </row>
-    <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="258"/>
-      <c r="B15" s="251" t="s">
+      <c r="O14" s="298"/>
+      <c r="P14" s="246"/>
+      <c r="Q14" s="246"/>
+      <c r="R14" s="246"/>
+      <c r="S14" s="246"/>
+      <c r="T14" s="247"/>
+    </row>
+    <row r="15" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A15" s="260"/>
+      <c r="B15" s="253" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="252"/>
-      <c r="D15" s="253"/>
+      <c r="C15" s="254"/>
+      <c r="D15" s="255"/>
       <c r="E15" s="95"/>
       <c r="F15" s="41"/>
       <c r="G15" s="47"/>
@@ -46157,22 +50110,22 @@
       <c r="L15" s="59"/>
       <c r="M15" s="95"/>
       <c r="N15" s="41"/>
-      <c r="O15" s="305"/>
-      <c r="P15" s="233"/>
-      <c r="Q15" s="233"/>
-      <c r="R15" s="233"/>
-      <c r="S15" s="233"/>
-      <c r="T15" s="234"/>
-    </row>
-    <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="268" t="s">
+      <c r="O15" s="323"/>
+      <c r="P15" s="296"/>
+      <c r="Q15" s="296"/>
+      <c r="R15" s="296"/>
+      <c r="S15" s="296"/>
+      <c r="T15" s="297"/>
+    </row>
+    <row r="16" spans="1:26" ht="18" customHeight="1">
+      <c r="A16" s="270" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="271" t="s">
+      <c r="B16" s="273" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="272"/>
-      <c r="D16" s="273"/>
+      <c r="C16" s="274"/>
+      <c r="D16" s="275"/>
       <c r="E16" s="35"/>
       <c r="F16" s="53"/>
       <c r="G16" s="52"/>
@@ -46182,21 +50135,26 @@
       <c r="K16" s="52"/>
       <c r="L16" s="58"/>
       <c r="M16" s="35"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="313"/>
-      <c r="P16" s="232"/>
-      <c r="Q16" s="232"/>
-      <c r="R16" s="232"/>
-      <c r="S16" s="232"/>
-      <c r="T16" s="264"/>
-    </row>
-    <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="269"/>
-      <c r="B17" s="241" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="274"/>
-      <c r="D17" s="275"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="315"/>
+      <c r="P16" s="234"/>
+      <c r="Q16" s="234"/>
+      <c r="R16" s="234"/>
+      <c r="S16" s="234"/>
+      <c r="T16" s="266"/>
+      <c r="V16" s="382"/>
+      <c r="W16" s="383"/>
+      <c r="X16" s="383"/>
+      <c r="Y16" s="383"/>
+      <c r="Z16" s="384"/>
+    </row>
+    <row r="17" spans="1:26" ht="18" customHeight="1">
+      <c r="A17" s="271"/>
+      <c r="B17" s="243" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="276"/>
+      <c r="D17" s="277"/>
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
       <c r="G17" s="46"/>
@@ -46206,21 +50164,26 @@
       <c r="K17" s="46"/>
       <c r="L17" s="56"/>
       <c r="M17" s="37"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="296"/>
-      <c r="P17" s="244"/>
-      <c r="Q17" s="244"/>
-      <c r="R17" s="244"/>
-      <c r="S17" s="244"/>
-      <c r="T17" s="245"/>
-    </row>
-    <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="269"/>
-      <c r="B18" s="241" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="274"/>
-      <c r="D18" s="275"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="298"/>
+      <c r="P17" s="246"/>
+      <c r="Q17" s="246"/>
+      <c r="R17" s="246"/>
+      <c r="S17" s="246"/>
+      <c r="T17" s="247"/>
+      <c r="V17" s="385"/>
+      <c r="W17" s="385"/>
+      <c r="X17" s="385"/>
+      <c r="Y17" s="385"/>
+      <c r="Z17" s="386"/>
+    </row>
+    <row r="18" spans="1:26" ht="18" customHeight="1">
+      <c r="A18" s="271"/>
+      <c r="B18" s="248" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="251"/>
+      <c r="D18" s="252"/>
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
       <c r="G18" s="46"/>
@@ -46230,21 +50193,26 @@
       <c r="K18" s="46"/>
       <c r="L18" s="56"/>
       <c r="M18" s="37"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="296"/>
-      <c r="P18" s="244"/>
-      <c r="Q18" s="244"/>
-      <c r="R18" s="244"/>
-      <c r="S18" s="244"/>
-      <c r="T18" s="245"/>
-    </row>
-    <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="269"/>
-      <c r="B19" s="246" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="249"/>
-      <c r="D19" s="250"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="298"/>
+      <c r="P18" s="246"/>
+      <c r="Q18" s="246"/>
+      <c r="R18" s="246"/>
+      <c r="S18" s="246"/>
+      <c r="T18" s="247"/>
+      <c r="V18" s="385"/>
+      <c r="W18" s="385"/>
+      <c r="X18" s="385"/>
+      <c r="Y18" s="385"/>
+      <c r="Z18" s="386"/>
+    </row>
+    <row r="19" spans="1:26" ht="18" customHeight="1">
+      <c r="A19" s="271"/>
+      <c r="B19" s="248" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="251"/>
+      <c r="D19" s="252"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
       <c r="G19" s="46"/>
@@ -46254,21 +50222,26 @@
       <c r="K19" s="46"/>
       <c r="L19" s="56"/>
       <c r="M19" s="37"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="296"/>
-      <c r="P19" s="244"/>
-      <c r="Q19" s="244"/>
-      <c r="R19" s="244"/>
-      <c r="S19" s="244"/>
-      <c r="T19" s="245"/>
-    </row>
-    <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="269"/>
-      <c r="B20" s="246" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="249"/>
-      <c r="D20" s="250"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="298"/>
+      <c r="P19" s="246"/>
+      <c r="Q19" s="246"/>
+      <c r="R19" s="246"/>
+      <c r="S19" s="246"/>
+      <c r="T19" s="247"/>
+      <c r="V19" s="387"/>
+      <c r="W19" s="387"/>
+      <c r="X19" s="387"/>
+      <c r="Y19" s="387"/>
+      <c r="Z19" s="388"/>
+    </row>
+    <row r="20" spans="1:26" ht="18" customHeight="1">
+      <c r="A20" s="271"/>
+      <c r="B20" s="248" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="251"/>
+      <c r="D20" s="252"/>
       <c r="E20" s="37"/>
       <c r="F20" s="38"/>
       <c r="G20" s="46"/>
@@ -46278,21 +50251,26 @@
       <c r="K20" s="46"/>
       <c r="L20" s="56"/>
       <c r="M20" s="37"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="296"/>
-      <c r="P20" s="244"/>
-      <c r="Q20" s="244"/>
-      <c r="R20" s="244"/>
-      <c r="S20" s="244"/>
-      <c r="T20" s="245"/>
-    </row>
-    <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="269"/>
-      <c r="B21" s="246" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="249"/>
-      <c r="D21" s="250"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="298"/>
+      <c r="P20" s="246"/>
+      <c r="Q20" s="246"/>
+      <c r="R20" s="246"/>
+      <c r="S20" s="246"/>
+      <c r="T20" s="247"/>
+      <c r="V20" s="385"/>
+      <c r="W20" s="385"/>
+      <c r="X20" s="385"/>
+      <c r="Y20" s="385"/>
+      <c r="Z20" s="386"/>
+    </row>
+    <row r="21" spans="1:26" ht="18" customHeight="1">
+      <c r="A21" s="271"/>
+      <c r="B21" s="248" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="251"/>
+      <c r="D21" s="252"/>
       <c r="E21" s="37"/>
       <c r="F21" s="38"/>
       <c r="G21" s="46"/>
@@ -46302,21 +50280,26 @@
       <c r="K21" s="46"/>
       <c r="L21" s="56"/>
       <c r="M21" s="37"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="296"/>
-      <c r="P21" s="244"/>
-      <c r="Q21" s="244"/>
-      <c r="R21" s="244"/>
-      <c r="S21" s="244"/>
-      <c r="T21" s="245"/>
-    </row>
-    <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="269"/>
-      <c r="B22" s="246" t="s">
+      <c r="N21" s="56"/>
+      <c r="O21" s="298"/>
+      <c r="P21" s="246"/>
+      <c r="Q21" s="246"/>
+      <c r="R21" s="246"/>
+      <c r="S21" s="246"/>
+      <c r="T21" s="247"/>
+      <c r="V21" s="385"/>
+      <c r="W21" s="389"/>
+      <c r="X21" s="389"/>
+      <c r="Y21" s="389"/>
+      <c r="Z21" s="390"/>
+    </row>
+    <row r="22" spans="1:26" ht="18" customHeight="1">
+      <c r="A22" s="271"/>
+      <c r="B22" s="248" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="249"/>
-      <c r="D22" s="250"/>
+      <c r="C22" s="251"/>
+      <c r="D22" s="252"/>
       <c r="E22" s="37"/>
       <c r="F22" s="38"/>
       <c r="G22" s="46"/>
@@ -46326,21 +50309,26 @@
       <c r="K22" s="46"/>
       <c r="L22" s="56"/>
       <c r="M22" s="37"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="296"/>
-      <c r="P22" s="244"/>
-      <c r="Q22" s="244"/>
-      <c r="R22" s="244"/>
-      <c r="S22" s="244"/>
-      <c r="T22" s="245"/>
-    </row>
-    <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="269"/>
-      <c r="B23" s="246" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="247"/>
-      <c r="D23" s="248"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="298"/>
+      <c r="P22" s="246"/>
+      <c r="Q22" s="246"/>
+      <c r="R22" s="246"/>
+      <c r="S22" s="246"/>
+      <c r="T22" s="247"/>
+      <c r="V22" s="385"/>
+      <c r="W22" s="389"/>
+      <c r="X22" s="389"/>
+      <c r="Y22" s="389"/>
+      <c r="Z22" s="390"/>
+    </row>
+    <row r="23" spans="1:26" ht="18" customHeight="1">
+      <c r="A23" s="271"/>
+      <c r="B23" s="248" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="249"/>
+      <c r="D23" s="250"/>
       <c r="E23" s="37"/>
       <c r="F23" s="38"/>
       <c r="G23" s="46"/>
@@ -46350,21 +50338,26 @@
       <c r="K23" s="46"/>
       <c r="L23" s="56"/>
       <c r="M23" s="37"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="296"/>
-      <c r="P23" s="244"/>
-      <c r="Q23" s="244"/>
-      <c r="R23" s="244"/>
-      <c r="S23" s="244"/>
-      <c r="T23" s="245"/>
-    </row>
-    <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="269"/>
-      <c r="B24" s="241" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="242"/>
-      <c r="D24" s="243"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="298"/>
+      <c r="P23" s="246"/>
+      <c r="Q23" s="246"/>
+      <c r="R23" s="246"/>
+      <c r="S23" s="246"/>
+      <c r="T23" s="247"/>
+      <c r="V23" s="385"/>
+      <c r="W23" s="389"/>
+      <c r="X23" s="389"/>
+      <c r="Y23" s="389"/>
+      <c r="Z23" s="390"/>
+    </row>
+    <row r="24" spans="1:26" ht="18" customHeight="1">
+      <c r="A24" s="271"/>
+      <c r="B24" s="243" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="244"/>
+      <c r="D24" s="245"/>
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
       <c r="G24" s="46"/>
@@ -46374,21 +50367,26 @@
       <c r="K24" s="46"/>
       <c r="L24" s="56"/>
       <c r="M24" s="37"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="296"/>
-      <c r="P24" s="244"/>
-      <c r="Q24" s="244"/>
-      <c r="R24" s="244"/>
-      <c r="S24" s="244"/>
-      <c r="T24" s="245"/>
-    </row>
-    <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="269"/>
-      <c r="B25" s="241" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="242"/>
-      <c r="D25" s="243"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="298"/>
+      <c r="P24" s="246"/>
+      <c r="Q24" s="246"/>
+      <c r="R24" s="246"/>
+      <c r="S24" s="246"/>
+      <c r="T24" s="247"/>
+      <c r="V24" s="387"/>
+      <c r="W24" s="391"/>
+      <c r="X24" s="391"/>
+      <c r="Y24" s="391"/>
+      <c r="Z24" s="392"/>
+    </row>
+    <row r="25" spans="1:26" ht="18" customHeight="1">
+      <c r="A25" s="271"/>
+      <c r="B25" s="243" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="244"/>
+      <c r="D25" s="245"/>
       <c r="E25" s="37"/>
       <c r="F25" s="38"/>
       <c r="G25" s="46"/>
@@ -46398,21 +50396,26 @@
       <c r="K25" s="46"/>
       <c r="L25" s="56"/>
       <c r="M25" s="37"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="296"/>
-      <c r="P25" s="244"/>
-      <c r="Q25" s="244"/>
-      <c r="R25" s="244"/>
-      <c r="S25" s="244"/>
-      <c r="T25" s="245"/>
-    </row>
-    <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="269"/>
-      <c r="B26" s="241" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="242"/>
-      <c r="D26" s="243"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="298"/>
+      <c r="P25" s="246"/>
+      <c r="Q25" s="246"/>
+      <c r="R25" s="246"/>
+      <c r="S25" s="246"/>
+      <c r="T25" s="247"/>
+      <c r="V25" s="387"/>
+      <c r="W25" s="391"/>
+      <c r="X25" s="391"/>
+      <c r="Y25" s="391"/>
+      <c r="Z25" s="392"/>
+    </row>
+    <row r="26" spans="1:26" ht="18" customHeight="1">
+      <c r="A26" s="271"/>
+      <c r="B26" s="331" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="332"/>
+      <c r="D26" s="333"/>
       <c r="E26" s="37"/>
       <c r="F26" s="38"/>
       <c r="G26" s="46"/>
@@ -46422,146 +50425,302 @@
       <c r="K26" s="46"/>
       <c r="L26" s="56"/>
       <c r="M26" s="37"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="296"/>
-      <c r="P26" s="244"/>
-      <c r="Q26" s="244"/>
-      <c r="R26" s="244"/>
-      <c r="S26" s="244"/>
-      <c r="T26" s="245"/>
-    </row>
-    <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="270"/>
-      <c r="B27" s="228" t="s">
+      <c r="N26" s="56"/>
+      <c r="O26" s="298"/>
+      <c r="P26" s="246"/>
+      <c r="Q26" s="246"/>
+      <c r="R26" s="246"/>
+      <c r="S26" s="246"/>
+      <c r="T26" s="247"/>
+      <c r="V26" s="385"/>
+      <c r="W26" s="389"/>
+      <c r="X26" s="389"/>
+      <c r="Y26" s="389"/>
+      <c r="Z26" s="390"/>
+    </row>
+    <row r="27" spans="1:26" ht="18" customHeight="1">
+      <c r="A27" s="271"/>
+      <c r="B27" s="243" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="244"/>
+      <c r="D27" s="245"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="298"/>
+      <c r="P27" s="246"/>
+      <c r="Q27" s="246"/>
+      <c r="R27" s="246"/>
+      <c r="S27" s="246"/>
+      <c r="T27" s="247"/>
+      <c r="V27" s="393"/>
+      <c r="W27" s="394"/>
+      <c r="X27" s="394"/>
+      <c r="Y27" s="394"/>
+      <c r="Z27" s="395"/>
+    </row>
+    <row r="28" spans="1:26" ht="18" customHeight="1">
+      <c r="A28" s="271"/>
+      <c r="B28" s="243" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="244"/>
+      <c r="D28" s="245"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="298"/>
+      <c r="P28" s="246"/>
+      <c r="Q28" s="246"/>
+      <c r="R28" s="246"/>
+      <c r="S28" s="246"/>
+      <c r="T28" s="247"/>
+      <c r="V28" s="396"/>
+      <c r="W28" s="394"/>
+      <c r="X28" s="394"/>
+      <c r="Y28" s="394"/>
+      <c r="Z28" s="395"/>
+    </row>
+    <row r="29" spans="1:26" ht="18" customHeight="1">
+      <c r="A29" s="271"/>
+      <c r="B29" s="243" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="244"/>
+      <c r="D29" s="245"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="298"/>
+      <c r="P29" s="246"/>
+      <c r="Q29" s="246"/>
+      <c r="R29" s="246"/>
+      <c r="S29" s="246"/>
+      <c r="T29" s="247"/>
+      <c r="V29" s="393"/>
+      <c r="W29" s="394"/>
+      <c r="X29" s="394"/>
+      <c r="Y29" s="394"/>
+      <c r="Z29" s="395"/>
+    </row>
+    <row r="30" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A30" s="330"/>
+      <c r="B30" s="230" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="231"/>
+      <c r="D30" s="232"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="298"/>
+      <c r="P30" s="246"/>
+      <c r="Q30" s="246"/>
+      <c r="R30" s="246"/>
+      <c r="S30" s="246"/>
+      <c r="T30" s="247"/>
+      <c r="V30" s="396"/>
+      <c r="W30" s="394"/>
+      <c r="X30" s="394"/>
+      <c r="Y30" s="394"/>
+      <c r="Z30" s="395"/>
+    </row>
+    <row r="31" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A31" s="272"/>
+      <c r="B31" s="230" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="229"/>
-      <c r="D27" s="230"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="305"/>
-      <c r="P27" s="233"/>
-      <c r="Q27" s="233"/>
-      <c r="R27" s="233"/>
-      <c r="S27" s="233"/>
-      <c r="T27" s="234"/>
-    </row>
-    <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="48" t="s">
+      <c r="C31" s="231"/>
+      <c r="D31" s="232"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="307"/>
+      <c r="P31" s="235"/>
+      <c r="Q31" s="235"/>
+      <c r="R31" s="235"/>
+      <c r="S31" s="235"/>
+      <c r="T31" s="236"/>
+      <c r="V31" s="385"/>
+      <c r="W31" s="389"/>
+      <c r="X31" s="389"/>
+      <c r="Y31" s="389"/>
+      <c r="Z31" s="390"/>
+    </row>
+    <row r="32" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A32" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="235" t="s">
+      <c r="B32" s="237" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="236"/>
-      <c r="D28" s="237"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="60"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="307"/>
-      <c r="P28" s="239"/>
-      <c r="Q28" s="239"/>
-      <c r="R28" s="239"/>
-      <c r="S28" s="239"/>
-      <c r="T28" s="240"/>
-    </row>
-    <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="227"/>
-      <c r="C29" s="227"/>
-      <c r="D29" s="227"/>
-    </row>
-    <row r="30" spans="1:20" ht="18" customHeight="1">
-      <c r="A30" s="16" t="s">
+      <c r="C32" s="238"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="334"/>
+      <c r="P32" s="335"/>
+      <c r="Q32" s="335"/>
+      <c r="R32" s="335"/>
+      <c r="S32" s="335"/>
+      <c r="T32" s="336"/>
+      <c r="V32" s="393"/>
+      <c r="W32" s="394"/>
+      <c r="X32" s="394"/>
+      <c r="Y32" s="394"/>
+      <c r="Z32" s="395"/>
+    </row>
+    <row r="33" spans="1:26" ht="18" customHeight="1">
+      <c r="B33" s="229"/>
+      <c r="C33" s="229"/>
+      <c r="D33" s="229"/>
+      <c r="V33" s="393"/>
+      <c r="W33" s="394"/>
+      <c r="X33" s="394"/>
+      <c r="Y33" s="394"/>
+      <c r="Z33" s="395"/>
+    </row>
+    <row r="34" spans="1:26" ht="18" customHeight="1">
+      <c r="A34" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:20" ht="18" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="178" t="s">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="V34" s="393"/>
+      <c r="W34" s="394"/>
+      <c r="X34" s="394"/>
+      <c r="Y34" s="394"/>
+      <c r="Z34" s="395"/>
+    </row>
+    <row r="35" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A35" s="17"/>
+      <c r="B35" s="180" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="178"/>
-    </row>
-    <row r="32" spans="1:20" ht="18" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="178" t="s">
+      <c r="C35" s="180"/>
+      <c r="V35" s="397"/>
+      <c r="W35" s="398"/>
+      <c r="X35" s="398"/>
+      <c r="Y35" s="398"/>
+      <c r="Z35" s="399"/>
+    </row>
+    <row r="36" spans="1:26" ht="18" customHeight="1" thickBot="1">
+      <c r="A36" s="18"/>
+      <c r="B36" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="178"/>
-    </row>
-    <row r="33" spans="1:4" ht="18" customHeight="1">
-      <c r="A33" s="19"/>
-      <c r="B33" s="178" t="s">
+      <c r="C36" s="180"/>
+      <c r="V36" s="397"/>
+      <c r="W36" s="398"/>
+      <c r="X36" s="398"/>
+      <c r="Y36" s="398"/>
+      <c r="Z36" s="399"/>
+    </row>
+    <row r="37" spans="1:26" ht="18" customHeight="1">
+      <c r="A37" s="19"/>
+      <c r="B37" s="180" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="178"/>
-    </row>
-    <row r="34" spans="1:4" ht="18" customHeight="1">
-      <c r="A34" s="20"/>
-      <c r="B34" s="178" t="s">
+      <c r="C37" s="180"/>
+      <c r="V37" s="400"/>
+      <c r="W37" s="400"/>
+      <c r="X37" s="400"/>
+      <c r="Y37" s="400"/>
+      <c r="Z37" s="400"/>
+    </row>
+    <row r="38" spans="1:26" ht="18" customHeight="1">
+      <c r="A38" s="20"/>
+      <c r="B38" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="178"/>
-    </row>
-    <row r="35" spans="1:4" ht="18" customHeight="1">
-      <c r="B35" s="227"/>
-      <c r="C35" s="227"/>
-      <c r="D35" s="227"/>
-    </row>
-    <row r="36" spans="1:4" ht="18" customHeight="1">
-      <c r="B36" s="227"/>
-      <c r="C36" s="227"/>
-      <c r="D36" s="227"/>
-    </row>
-    <row r="37" spans="1:4" ht="18" customHeight="1">
-      <c r="B37" s="227"/>
-      <c r="C37" s="227"/>
-      <c r="D37" s="227"/>
-    </row>
-    <row r="38" spans="1:4" ht="18" customHeight="1">
-      <c r="B38" s="227"/>
-      <c r="C38" s="227"/>
-      <c r="D38" s="227"/>
-    </row>
-    <row r="39" spans="1:4" ht="18" customHeight="1">
-      <c r="B39" s="227"/>
-      <c r="C39" s="227"/>
-      <c r="D39" s="227"/>
-    </row>
-    <row r="40" spans="1:4" ht="18" customHeight="1">
-      <c r="B40" s="227"/>
-      <c r="C40" s="227"/>
-      <c r="D40" s="227"/>
-    </row>
-    <row r="41" spans="1:4" ht="18" customHeight="1">
-      <c r="B41" s="227"/>
-      <c r="C41" s="227"/>
-      <c r="D41" s="227"/>
-    </row>
-    <row r="42" spans="1:4" ht="18" customHeight="1">
-      <c r="B42" s="227"/>
-      <c r="C42" s="227"/>
-      <c r="D42" s="227"/>
+      <c r="C38" s="180"/>
+    </row>
+    <row r="39" spans="1:26" ht="18" customHeight="1">
+      <c r="B39" s="229"/>
+      <c r="C39" s="229"/>
+      <c r="D39" s="229"/>
+    </row>
+    <row r="40" spans="1:26" ht="18" customHeight="1">
+      <c r="B40" s="229"/>
+      <c r="C40" s="229"/>
+      <c r="D40" s="229"/>
+    </row>
+    <row r="41" spans="1:26" ht="18" customHeight="1">
+      <c r="B41" s="229"/>
+      <c r="C41" s="229"/>
+      <c r="D41" s="229"/>
+    </row>
+    <row r="42" spans="1:26" ht="18" customHeight="1">
+      <c r="B42" s="229"/>
+      <c r="C42" s="229"/>
+      <c r="D42" s="229"/>
+    </row>
+    <row r="43" spans="1:26" ht="18" customHeight="1">
+      <c r="B43" s="229"/>
+      <c r="C43" s="229"/>
+      <c r="D43" s="229"/>
+    </row>
+    <row r="44" spans="1:26" ht="18" customHeight="1">
+      <c r="B44" s="229"/>
+      <c r="C44" s="229"/>
+      <c r="D44" s="229"/>
+    </row>
+    <row r="45" spans="1:26" ht="18" customHeight="1">
+      <c r="B45" s="229"/>
+      <c r="C45" s="229"/>
+      <c r="D45" s="229"/>
+    </row>
+    <row r="46" spans="1:26" ht="18" customHeight="1">
+      <c r="B46" s="229"/>
+      <c r="C46" s="229"/>
+      <c r="D46" s="229"/>
     </row>
   </sheetData>
-  <mergeCells count="125">
+  <mergeCells count="141">
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="E5:F5"/>
@@ -46583,34 +50742,33 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
     <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="Q2:R2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A16:A27"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A16:A31"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:N5"/>
@@ -46620,7 +50778,7 @@
     <mergeCell ref="S7:T7"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="S8:T8"/>
-    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O18:P18"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="O13:P13"/>
@@ -46628,7 +50786,6 @@
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="O9:P9"/>
@@ -46641,18 +50798,16 @@
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S11:T11"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
     <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O31:P31"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O26:P26"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="S16:T16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="S12:T12"/>
     <mergeCell ref="Q13:R13"/>
@@ -46665,28 +50820,48 @@
     <mergeCell ref="S22:T22"/>
     <mergeCell ref="Q23:R23"/>
     <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
     <mergeCell ref="Q18:R18"/>
     <mergeCell ref="S18:T18"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O25:P25"/>
     <mergeCell ref="Q19:R19"/>
     <mergeCell ref="S19:T19"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="S24:T24"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="S25:T25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="S30:T30"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/30_工程表/工程表_第2版.xlsx
+++ b/doc/30_工程表/工程表_第2版.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\doc0617編集\30_工程表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\CK5\docバックアップ\doc0618\30_工程表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A64393-5BCC-40BE-8F45-0F4537170571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB4606B-8DF7-422F-9A78-C228A54E4B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="117">
   <si>
     <t>年</t>
   </si>
@@ -847,6 +847,20 @@
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>紺野由夏</t>
+    <rPh sb="0" eb="4">
+      <t>コンノユカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>藤川開斗</t>
+    <rPh sb="0" eb="4">
+      <t>フジカワカイト</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
@@ -856,7 +870,7 @@
     <numFmt numFmtId="176" formatCode="0&quot;月&quot;"/>
     <numFmt numFmtId="177" formatCode="d"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -943,6 +957,13 @@
     <font>
       <sz val="9"/>
       <name val="Meiryo ui"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -2468,7 +2489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="452">
+  <cellXfs count="422">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2886,9 +2907,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2990,6 +3008,216 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -3456,8 +3684,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="89" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3480,349 +3747,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="104" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -4296,13 +4227,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>8467</xdr:colOff>
+      <xdr:colOff>215295</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>93132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>287866</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>179008</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>186267</xdr:rowOff>
     </xdr:to>
@@ -4319,8 +4250,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7797800" y="4326465"/>
-          <a:ext cx="592666" cy="3166535"/>
+          <a:off x="8042124" y="4937275"/>
+          <a:ext cx="595084" cy="4338563"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4349,18 +4280,6 @@
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -4398,45 +4317,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>流し込み</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>仮</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>) </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4513,16 +4393,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>59900</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>138639</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>42334</xdr:rowOff>
+      <xdr:rowOff>198907</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>262466</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>186327</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>77288</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4537,8 +4417,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5969633" y="4555067"/>
-          <a:ext cx="1768900" cy="2954866"/>
+          <a:off x="3230182" y="5326078"/>
+          <a:ext cx="1941802" cy="4123810"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4602,7 +4482,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>108239</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1363133" cy="581954"/>
+    <xdr:ext cx="1363133" cy="338041"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="テキスト ボックス 32">
@@ -4616,8 +4496,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8607529" y="4353668"/>
-          <a:ext cx="1363133" cy="581954"/>
+          <a:off x="8747229" y="4386325"/>
+          <a:ext cx="1363133" cy="338041"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4669,42 +4549,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>コーディング調整</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>仮</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>) </a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -4783,68 +4627,6 @@
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>仮</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>) </a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -4856,7 +4638,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>229826</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1757081" cy="588182"/>
+    <xdr:ext cx="1757081" cy="338041"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="36" name="テキスト ボックス 35">
@@ -4870,8 +4652,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8387455" y="2787969"/>
-          <a:ext cx="1757081" cy="588182"/>
+          <a:off x="8527155" y="2809740"/>
+          <a:ext cx="1757081" cy="338041"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4923,42 +4705,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>テスト・コーディング</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>仮</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>) </a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -7320,8 +7066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F461FB36-AA5C-4255-9DAB-20DEB8CADCD8}">
   <dimension ref="A1:AO1013"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AK27" sqref="AK27"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AM38" sqref="AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
@@ -7330,7 +7076,7 @@
     <col min="2" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="3.36328125" customWidth="1"/>
     <col min="7" max="36" width="3.7265625" customWidth="1"/>
-    <col min="37" max="37" width="11.36328125" style="164" customWidth="1"/>
+    <col min="37" max="37" width="11.36328125" style="163" customWidth="1"/>
     <col min="38" max="38" width="10.453125" customWidth="1"/>
     <col min="39" max="39" width="11.453125" customWidth="1"/>
     <col min="40" max="40" width="5.1796875" customWidth="1"/>
@@ -7374,18 +7120,18 @@
       <c r="AJ1" s="2"/>
     </row>
     <row r="2" spans="1:41" ht="22.5" customHeight="1">
-      <c r="B2" s="223">
+      <c r="B2" s="292">
         <v>2024</v>
       </c>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
       <c r="E2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="223">
+      <c r="F2" s="292">
         <v>6</v>
       </c>
-      <c r="G2" s="203"/>
+      <c r="G2" s="272"/>
       <c r="H2" s="12" t="s">
         <v>1</v>
       </c>
@@ -7458,57 +7204,57 @@
       <c r="AJ3" s="3"/>
     </row>
     <row r="4" spans="1:41" ht="19.5" customHeight="1">
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="280" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="209"/>
-      <c r="F4" s="208" t="s">
+      <c r="C4" s="276"/>
+      <c r="D4" s="276"/>
+      <c r="E4" s="278"/>
+      <c r="F4" s="277" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="209"/>
-      <c r="K4" s="211" t="s">
+      <c r="G4" s="276"/>
+      <c r="H4" s="276"/>
+      <c r="I4" s="276"/>
+      <c r="J4" s="278"/>
+      <c r="K4" s="280" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="207"/>
-      <c r="M4" s="207"/>
-      <c r="N4" s="209"/>
-      <c r="O4" s="208" t="s">
+      <c r="L4" s="276"/>
+      <c r="M4" s="276"/>
+      <c r="N4" s="278"/>
+      <c r="O4" s="277" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="207"/>
-      <c r="Q4" s="207"/>
-      <c r="R4" s="207"/>
-      <c r="S4" s="209"/>
-      <c r="T4" s="211" t="s">
+      <c r="P4" s="276"/>
+      <c r="Q4" s="276"/>
+      <c r="R4" s="276"/>
+      <c r="S4" s="278"/>
+      <c r="T4" s="280" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="207"/>
-      <c r="V4" s="207"/>
-      <c r="W4" s="209"/>
-      <c r="X4" s="212">
+      <c r="U4" s="276"/>
+      <c r="V4" s="276"/>
+      <c r="W4" s="278"/>
+      <c r="X4" s="281">
         <v>45451</v>
       </c>
-      <c r="Y4" s="207"/>
-      <c r="Z4" s="207"/>
-      <c r="AA4" s="207"/>
-      <c r="AB4" s="209"/>
-      <c r="AC4" s="211" t="s">
+      <c r="Y4" s="276"/>
+      <c r="Z4" s="276"/>
+      <c r="AA4" s="276"/>
+      <c r="AB4" s="278"/>
+      <c r="AC4" s="280" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="207"/>
-      <c r="AE4" s="207"/>
-      <c r="AF4" s="207"/>
-      <c r="AG4" s="197">
+      <c r="AD4" s="276"/>
+      <c r="AE4" s="276"/>
+      <c r="AF4" s="276"/>
+      <c r="AG4" s="266">
         <v>45451</v>
       </c>
-      <c r="AH4" s="198"/>
-      <c r="AI4" s="198"/>
-      <c r="AJ4" s="198"/>
+      <c r="AH4" s="267"/>
+      <c r="AI4" s="267"/>
+      <c r="AJ4" s="267"/>
     </row>
     <row r="5" spans="1:41" ht="18.75" customHeight="1">
       <c r="B5" s="2"/>
@@ -7548,52 +7294,52 @@
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:41" ht="18.75" customHeight="1">
-      <c r="B6" s="199"/>
-      <c r="C6" s="200"/>
-      <c r="D6" s="200"/>
-      <c r="E6" s="201"/>
+      <c r="B6" s="268"/>
+      <c r="C6" s="269"/>
+      <c r="D6" s="269"/>
+      <c r="E6" s="270"/>
       <c r="F6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="206">
+      <c r="G6" s="275">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="207"/>
-      <c r="I6" s="207"/>
-      <c r="J6" s="207"/>
-      <c r="K6" s="207"/>
-      <c r="L6" s="207"/>
-      <c r="M6" s="207"/>
-      <c r="N6" s="207"/>
-      <c r="O6" s="207"/>
-      <c r="P6" s="207"/>
-      <c r="Q6" s="207"/>
-      <c r="R6" s="207"/>
-      <c r="S6" s="207"/>
-      <c r="T6" s="207"/>
-      <c r="U6" s="207"/>
-      <c r="V6" s="207"/>
-      <c r="W6" s="207"/>
-      <c r="X6" s="207"/>
-      <c r="Y6" s="207"/>
-      <c r="Z6" s="207"/>
-      <c r="AA6" s="207"/>
-      <c r="AB6" s="207"/>
-      <c r="AC6" s="207"/>
-      <c r="AD6" s="207"/>
-      <c r="AE6" s="207"/>
-      <c r="AF6" s="207"/>
-      <c r="AG6" s="207"/>
-      <c r="AH6" s="207"/>
-      <c r="AI6" s="207"/>
-      <c r="AJ6" s="207"/>
+      <c r="H6" s="276"/>
+      <c r="I6" s="276"/>
+      <c r="J6" s="276"/>
+      <c r="K6" s="276"/>
+      <c r="L6" s="276"/>
+      <c r="M6" s="276"/>
+      <c r="N6" s="276"/>
+      <c r="O6" s="276"/>
+      <c r="P6" s="276"/>
+      <c r="Q6" s="276"/>
+      <c r="R6" s="276"/>
+      <c r="S6" s="276"/>
+      <c r="T6" s="276"/>
+      <c r="U6" s="276"/>
+      <c r="V6" s="276"/>
+      <c r="W6" s="276"/>
+      <c r="X6" s="276"/>
+      <c r="Y6" s="276"/>
+      <c r="Z6" s="276"/>
+      <c r="AA6" s="276"/>
+      <c r="AB6" s="276"/>
+      <c r="AC6" s="276"/>
+      <c r="AD6" s="276"/>
+      <c r="AE6" s="276"/>
+      <c r="AF6" s="276"/>
+      <c r="AG6" s="276"/>
+      <c r="AH6" s="276"/>
+      <c r="AI6" s="276"/>
+      <c r="AJ6" s="276"/>
     </row>
     <row r="7" spans="1:41" ht="22.5" customHeight="1">
-      <c r="B7" s="202"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="204"/>
+      <c r="B7" s="271"/>
+      <c r="C7" s="272"/>
+      <c r="D7" s="272"/>
+      <c r="E7" s="273"/>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
@@ -7605,11 +7351,11 @@
         <f>DATE($B$2,$F$2,2)</f>
         <v>45445</v>
       </c>
-      <c r="I7" s="150">
+      <c r="I7" s="149">
         <f>DATE($B$2,$F$2,3)</f>
         <v>45446</v>
       </c>
-      <c r="J7" s="150">
+      <c r="J7" s="149">
         <f>DATE($B$2,$F$2,4)</f>
         <v>45447</v>
       </c>
@@ -7617,7 +7363,7 @@
         <f>DATE($B$2,$F$2,5)</f>
         <v>45448</v>
       </c>
-      <c r="L7" s="150">
+      <c r="L7" s="149">
         <f>DATE($B$2,$F$2,6)</f>
         <v>45449</v>
       </c>
@@ -7633,11 +7379,11 @@
         <f>DATE($B$2,$F$2,9)</f>
         <v>45452</v>
       </c>
-      <c r="P7" s="150">
+      <c r="P7" s="149">
         <f>DATE($B$2,$F$2,10)</f>
         <v>45453</v>
       </c>
-      <c r="Q7" s="150">
+      <c r="Q7" s="149">
         <f>DATE($B$2,$F$2,11)</f>
         <v>45454</v>
       </c>
@@ -7661,7 +7407,7 @@
         <f>DATE($B$2,$F$2,16)</f>
         <v>45459</v>
       </c>
-      <c r="W7" s="150">
+      <c r="W7" s="149">
         <f>DATE($B$2,$F$2,17)</f>
         <v>45460</v>
       </c>
@@ -7705,7 +7451,7 @@
         <f>DATE($B$2,$F$2,27)</f>
         <v>45470</v>
       </c>
-      <c r="AH7" s="151">
+      <c r="AH7" s="150">
         <f>DATE($B$2,$F$2,28)</f>
         <v>45471</v>
       </c>
@@ -7719,10 +7465,10 @@
       </c>
     </row>
     <row r="8" spans="1:41" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B8" s="202"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="204"/>
+      <c r="B8" s="271"/>
+      <c r="C8" s="274"/>
+      <c r="D8" s="274"/>
+      <c r="E8" s="273"/>
       <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
@@ -7734,11 +7480,11 @@
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
-      <c r="I8" s="149" t="str">
+      <c r="I8" s="148" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="J8" s="149" t="str">
+      <c r="J8" s="148" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
@@ -7746,7 +7492,7 @@
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
-      <c r="L8" s="149" t="str">
+      <c r="L8" s="148" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
@@ -7762,11 +7508,11 @@
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
-      <c r="P8" s="149" t="str">
+      <c r="P8" s="148" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
-      <c r="Q8" s="149" t="str">
+      <c r="Q8" s="148" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
@@ -7790,7 +7536,7 @@
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
-      <c r="W8" s="149" t="str">
+      <c r="W8" s="148" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
@@ -7834,7 +7580,7 @@
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
-      <c r="AH8" s="152" t="str">
+      <c r="AH8" s="151" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
@@ -7860,16 +7606,16 @@
       </c>
     </row>
     <row r="9" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A9" s="213" t="s">
+      <c r="A9" s="282" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="210" t="s">
+      <c r="B9" s="279" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="195"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="264"/>
       <c r="G9" s="117"/>
       <c r="H9" s="118"/>
       <c r="I9" s="118"/>
@@ -7879,15 +7625,15 @@
       <c r="M9" s="117"/>
       <c r="N9" s="118"/>
       <c r="O9" s="118"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="167"/>
-      <c r="R9" s="167"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="166"/>
+      <c r="P9" s="165"/>
+      <c r="Q9" s="166"/>
+      <c r="R9" s="166"/>
+      <c r="S9" s="165"/>
+      <c r="T9" s="165"/>
       <c r="U9" s="118"/>
       <c r="V9" s="118"/>
-      <c r="W9" s="166"/>
-      <c r="X9" s="119"/>
+      <c r="W9" s="165"/>
+      <c r="X9" s="165"/>
       <c r="Y9" s="118"/>
       <c r="Z9" s="118"/>
       <c r="AA9" s="118"/>
@@ -7914,14 +7660,14 @@
       </c>
     </row>
     <row r="10" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A10" s="214"/>
-      <c r="B10" s="226" t="s">
+      <c r="A10" s="283"/>
+      <c r="B10" s="295" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="207"/>
-      <c r="D10" s="207"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="209"/>
+      <c r="C10" s="276"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="276"/>
+      <c r="F10" s="278"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -7964,14 +7710,14 @@
       </c>
     </row>
     <row r="11" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A11" s="214"/>
-      <c r="B11" s="226" t="s">
+      <c r="A11" s="283"/>
+      <c r="B11" s="295" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="207"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="209"/>
+      <c r="C11" s="276"/>
+      <c r="D11" s="276"/>
+      <c r="E11" s="276"/>
+      <c r="F11" s="278"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -8014,14 +7760,14 @@
       </c>
     </row>
     <row r="12" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A12" s="214"/>
-      <c r="B12" s="226" t="s">
+      <c r="A12" s="283"/>
+      <c r="B12" s="295" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="207"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="207"/>
-      <c r="F12" s="209"/>
+      <c r="C12" s="276"/>
+      <c r="D12" s="276"/>
+      <c r="E12" s="276"/>
+      <c r="F12" s="278"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -8066,14 +7812,14 @@
       </c>
     </row>
     <row r="13" spans="1:41" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A13" s="215"/>
-      <c r="B13" s="227" t="s">
+      <c r="A13" s="284"/>
+      <c r="B13" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="200"/>
-      <c r="D13" s="200"/>
-      <c r="E13" s="200"/>
-      <c r="F13" s="201"/>
+      <c r="C13" s="269"/>
+      <c r="D13" s="269"/>
+      <c r="E13" s="269"/>
+      <c r="F13" s="270"/>
       <c r="G13" s="28"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -8116,16 +7862,16 @@
       </c>
     </row>
     <row r="14" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A14" s="216" t="s">
+      <c r="A14" s="285" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="224" t="s">
+      <c r="B14" s="293" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="225"/>
-      <c r="D14" s="225"/>
-      <c r="E14" s="225"/>
-      <c r="F14" s="225"/>
+      <c r="C14" s="294"/>
+      <c r="D14" s="294"/>
+      <c r="E14" s="294"/>
+      <c r="F14" s="294"/>
       <c r="G14" s="129"/>
       <c r="H14" s="129"/>
       <c r="I14" s="130"/>
@@ -8135,10 +7881,10 @@
       <c r="M14" s="131"/>
       <c r="N14" s="118"/>
       <c r="O14" s="118"/>
-      <c r="P14" s="165"/>
-      <c r="Q14" s="166"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="166"/>
+      <c r="P14" s="164"/>
+      <c r="Q14" s="165"/>
+      <c r="R14" s="168"/>
+      <c r="S14" s="165"/>
       <c r="T14" s="118"/>
       <c r="U14" s="118"/>
       <c r="V14" s="118"/>
@@ -8167,14 +7913,14 @@
       </c>
     </row>
     <row r="15" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A15" s="217"/>
-      <c r="B15" s="187" t="s">
+      <c r="A15" s="286"/>
+      <c r="B15" s="256" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="188"/>
-      <c r="D15" s="188"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="188"/>
+      <c r="C15" s="257"/>
+      <c r="D15" s="257"/>
+      <c r="E15" s="257"/>
+      <c r="F15" s="257"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="29"/>
@@ -8186,7 +7932,7 @@
       <c r="O15" s="14"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="170"/>
+      <c r="R15" s="169"/>
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
       <c r="U15" s="11"/>
@@ -8216,14 +7962,14 @@
       </c>
     </row>
     <row r="16" spans="1:41" ht="22.5" customHeight="1">
-      <c r="A16" s="217"/>
-      <c r="B16" s="187" t="s">
+      <c r="A16" s="286"/>
+      <c r="B16" s="256" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="188"/>
-      <c r="D16" s="188"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="188"/>
+      <c r="C16" s="257"/>
+      <c r="D16" s="257"/>
+      <c r="E16" s="257"/>
+      <c r="F16" s="257"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="29"/>
@@ -8235,14 +7981,14 @@
       <c r="O16" s="14"/>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="170"/>
+      <c r="R16" s="169"/>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="21"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="169"/>
       <c r="Z16" s="11"/>
       <c r="AA16" s="11"/>
       <c r="AB16" s="11"/>
@@ -8263,14 +8009,14 @@
       </c>
     </row>
     <row r="17" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A17" s="217"/>
-      <c r="B17" s="189" t="s">
+      <c r="A17" s="286"/>
+      <c r="B17" s="258" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="190"/>
-      <c r="D17" s="190"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
+      <c r="C17" s="259"/>
+      <c r="D17" s="259"/>
+      <c r="E17" s="259"/>
+      <c r="F17" s="259"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="29"/>
@@ -8282,14 +8028,14 @@
       <c r="O17" s="14"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
-      <c r="R17" s="170"/>
+      <c r="R17" s="169"/>
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="21"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="169"/>
       <c r="Z17" s="11"/>
       <c r="AA17" s="11"/>
       <c r="AB17" s="11"/>
@@ -8308,18 +8054,18 @@
         <v>34</v>
       </c>
       <c r="AM17" s="122">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A18" s="217"/>
-      <c r="B18" s="189" t="s">
+      <c r="A18" s="286"/>
+      <c r="B18" s="258" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="190"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
+      <c r="C18" s="259"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="259"/>
+      <c r="F18" s="259"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="30"/>
@@ -8331,14 +8077,14 @@
       <c r="O18" s="14"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="170"/>
+      <c r="R18" s="169"/>
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="21"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="169"/>
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
       <c r="AB18" s="11"/>
@@ -8354,21 +8100,21 @@
         <v>89</v>
       </c>
       <c r="AL18" s="15" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="AM18" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A19" s="218"/>
-      <c r="B19" s="191" t="s">
+      <c r="A19" s="287"/>
+      <c r="B19" s="260" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="192"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="192"/>
+      <c r="C19" s="261"/>
+      <c r="D19" s="261"/>
+      <c r="E19" s="261"/>
+      <c r="F19" s="261"/>
       <c r="G19" s="132"/>
       <c r="H19" s="132"/>
       <c r="I19" s="133"/>
@@ -8387,7 +8133,7 @@
       <c r="V19" s="124"/>
       <c r="W19" s="124"/>
       <c r="X19" s="138"/>
-      <c r="Y19" s="139"/>
+      <c r="Y19" s="420"/>
       <c r="Z19" s="125"/>
       <c r="AA19" s="125"/>
       <c r="AB19" s="124"/>
@@ -8410,16 +8156,16 @@
       </c>
     </row>
     <row r="20" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A20" s="219" t="s">
+      <c r="A20" s="288" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="193" t="s">
+      <c r="B20" s="262" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="194"/>
-      <c r="D20" s="194"/>
-      <c r="E20" s="194"/>
-      <c r="F20" s="195"/>
+      <c r="C20" s="263"/>
+      <c r="D20" s="263"/>
+      <c r="E20" s="263"/>
+      <c r="F20" s="264"/>
       <c r="G20" s="118"/>
       <c r="H20" s="118"/>
       <c r="I20" s="118"/>
@@ -8427,18 +8173,18 @@
       <c r="K20" s="118"/>
       <c r="L20" s="118"/>
       <c r="M20" s="118"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="146"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="145"/>
       <c r="P20" s="118"/>
       <c r="Q20" s="118"/>
       <c r="R20" s="118"/>
       <c r="S20" s="118"/>
-      <c r="T20" s="169"/>
+      <c r="T20" s="168"/>
       <c r="U20" s="118"/>
       <c r="V20" s="118"/>
-      <c r="W20" s="166"/>
-      <c r="X20" s="119"/>
-      <c r="Y20" s="119"/>
+      <c r="W20" s="165"/>
+      <c r="X20" s="168"/>
+      <c r="Y20" s="168"/>
       <c r="Z20" s="119"/>
       <c r="AA20" s="118"/>
       <c r="AB20" s="118"/>
@@ -8461,14 +8207,14 @@
       </c>
     </row>
     <row r="21" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A21" s="220"/>
-      <c r="B21" s="177" t="s">
+      <c r="A21" s="289"/>
+      <c r="B21" s="246" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="178"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="179"/>
+      <c r="C21" s="247"/>
+      <c r="D21" s="247"/>
+      <c r="E21" s="247"/>
+      <c r="F21" s="248"/>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -8508,14 +8254,14 @@
       </c>
     </row>
     <row r="22" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A22" s="220"/>
-      <c r="B22" s="174" t="s">
+      <c r="A22" s="289"/>
+      <c r="B22" s="243" t="s">
         <v>97</v>
       </c>
-      <c r="C22" s="174"/>
-      <c r="D22" s="174"/>
-      <c r="E22" s="174"/>
-      <c r="F22" s="196"/>
+      <c r="C22" s="243"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="243"/>
+      <c r="F22" s="265"/>
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -8557,14 +8303,14 @@
       </c>
     </row>
     <row r="23" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A23" s="220"/>
-      <c r="B23" s="174" t="s">
+      <c r="A23" s="289"/>
+      <c r="B23" s="243" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="174"/>
-      <c r="D23" s="174"/>
-      <c r="E23" s="174"/>
-      <c r="F23" s="196"/>
+      <c r="C23" s="243"/>
+      <c r="D23" s="243"/>
+      <c r="E23" s="243"/>
+      <c r="F23" s="265"/>
       <c r="G23" s="10"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -8581,9 +8327,9 @@
       <c r="T23" s="31"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
-      <c r="W23" s="170"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
+      <c r="W23" s="169"/>
+      <c r="X23" s="169"/>
+      <c r="Y23" s="31"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
       <c r="AB23" s="11"/>
@@ -8606,14 +8352,14 @@
       </c>
     </row>
     <row r="24" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A24" s="220"/>
-      <c r="B24" s="174" t="s">
+      <c r="A24" s="289"/>
+      <c r="B24" s="243" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="174"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="196"/>
+      <c r="C24" s="243"/>
+      <c r="D24" s="243"/>
+      <c r="E24" s="243"/>
+      <c r="F24" s="265"/>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
@@ -8627,12 +8373,12 @@
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
       <c r="S24" s="11"/>
-      <c r="T24" s="170"/>
+      <c r="T24" s="169"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="21"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
+      <c r="X24" s="169"/>
+      <c r="Y24" s="31"/>
       <c r="Z24" s="13"/>
       <c r="AA24" s="13"/>
       <c r="AB24" s="11"/>
@@ -8653,14 +8399,14 @@
       </c>
     </row>
     <row r="25" spans="1:39" ht="22.2" customHeight="1">
-      <c r="A25" s="220"/>
-      <c r="B25" s="228" t="s">
+      <c r="A25" s="289"/>
+      <c r="B25" s="297" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="176"/>
+      <c r="C25" s="244"/>
+      <c r="D25" s="244"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="245"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -8674,12 +8420,12 @@
       <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
       <c r="S25" s="11"/>
-      <c r="T25" s="170"/>
+      <c r="T25" s="169"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="21"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
       <c r="AB25" s="11"/>
@@ -8700,14 +8446,14 @@
       </c>
     </row>
     <row r="26" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A26" s="220"/>
-      <c r="B26" s="174" t="s">
+      <c r="A26" s="289"/>
+      <c r="B26" s="243" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="176"/>
+      <c r="C26" s="244"/>
+      <c r="D26" s="244"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="245"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -8725,8 +8471,8 @@
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="21"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
+      <c r="X26" s="169"/>
+      <c r="Y26" s="31"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="13"/>
       <c r="AB26" s="11"/>
@@ -8747,14 +8493,14 @@
       </c>
     </row>
     <row r="27" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A27" s="220"/>
-      <c r="B27" s="174" t="s">
+      <c r="A27" s="289"/>
+      <c r="B27" s="243" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="175"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="176"/>
+      <c r="C27" s="244"/>
+      <c r="D27" s="244"/>
+      <c r="E27" s="244"/>
+      <c r="F27" s="245"/>
       <c r="G27" s="10"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -8772,8 +8518,8 @@
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="31"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
+      <c r="X27" s="169"/>
+      <c r="Y27" s="31"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
       <c r="AB27" s="11"/>
@@ -8788,20 +8534,22 @@
       <c r="AK27" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AL27" s="15"/>
+      <c r="AL27" s="15" t="s">
+        <v>116</v>
+      </c>
       <c r="AM27" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A28" s="220"/>
-      <c r="B28" s="174" t="s">
+      <c r="A28" s="289"/>
+      <c r="B28" s="243" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="176"/>
+      <c r="C28" s="244"/>
+      <c r="D28" s="244"/>
+      <c r="E28" s="244"/>
+      <c r="F28" s="245"/>
       <c r="G28" s="10"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -8815,12 +8563,12 @@
       <c r="Q28" s="111"/>
       <c r="R28" s="111"/>
       <c r="S28" s="107"/>
-      <c r="T28" s="170"/>
+      <c r="T28" s="169"/>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="21"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
+      <c r="X28" s="169"/>
+      <c r="Y28" s="21"/>
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
       <c r="AB28" s="11"/>
@@ -8841,14 +8589,14 @@
       </c>
     </row>
     <row r="29" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A29" s="220"/>
-      <c r="B29" s="177" t="s">
+      <c r="A29" s="289"/>
+      <c r="B29" s="246" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="178"/>
-      <c r="D29" s="178"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="179"/>
+      <c r="C29" s="247"/>
+      <c r="D29" s="247"/>
+      <c r="E29" s="247"/>
+      <c r="F29" s="248"/>
       <c r="G29" s="10"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -8862,12 +8610,12 @@
       <c r="Q29" s="111"/>
       <c r="R29" s="111"/>
       <c r="S29" s="107"/>
-      <c r="T29" s="170"/>
+      <c r="T29" s="169"/>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
       <c r="W29" s="21"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
+      <c r="X29" s="169"/>
+      <c r="Y29" s="21"/>
       <c r="Z29" s="13"/>
       <c r="AA29" s="13"/>
       <c r="AB29" s="11"/>
@@ -8888,14 +8636,14 @@
       </c>
     </row>
     <row r="30" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A30" s="220"/>
-      <c r="B30" s="177" t="s">
+      <c r="A30" s="289"/>
+      <c r="B30" s="246" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="178"/>
-      <c r="D30" s="178"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="179"/>
+      <c r="C30" s="247"/>
+      <c r="D30" s="247"/>
+      <c r="E30" s="247"/>
+      <c r="F30" s="248"/>
       <c r="G30" s="10"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -8909,12 +8657,12 @@
       <c r="Q30" s="111"/>
       <c r="R30" s="111"/>
       <c r="S30" s="107"/>
-      <c r="T30" s="170"/>
+      <c r="T30" s="169"/>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="21"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
+      <c r="X30" s="169"/>
+      <c r="Y30" s="21"/>
       <c r="Z30" s="13"/>
       <c r="AA30" s="13"/>
       <c r="AB30" s="11"/>
@@ -8935,14 +8683,14 @@
       </c>
     </row>
     <row r="31" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A31" s="220"/>
-      <c r="B31" s="174" t="s">
+      <c r="A31" s="289"/>
+      <c r="B31" s="243" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="175"/>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="176"/>
+      <c r="C31" s="244"/>
+      <c r="D31" s="244"/>
+      <c r="E31" s="244"/>
+      <c r="F31" s="245"/>
       <c r="G31" s="10"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -8960,8 +8708,8 @@
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
       <c r="W31" s="21"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
+      <c r="X31" s="169"/>
+      <c r="Y31" s="421"/>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
       <c r="AB31" s="11"/>
@@ -8982,14 +8730,14 @@
       </c>
     </row>
     <row r="32" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A32" s="220"/>
-      <c r="B32" s="177" t="s">
+      <c r="A32" s="289"/>
+      <c r="B32" s="246" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="178"/>
-      <c r="D32" s="178"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="179"/>
+      <c r="C32" s="247"/>
+      <c r="D32" s="247"/>
+      <c r="E32" s="247"/>
+      <c r="F32" s="248"/>
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -9007,8 +8755,8 @@
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
       <c r="W32" s="21"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
+      <c r="X32" s="169"/>
+      <c r="Y32" s="169"/>
       <c r="Z32" s="13"/>
       <c r="AA32" s="13"/>
       <c r="AB32" s="11"/>
@@ -9029,14 +8777,14 @@
       </c>
     </row>
     <row r="33" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A33" s="220"/>
-      <c r="B33" s="177" t="s">
+      <c r="A33" s="289"/>
+      <c r="B33" s="246" t="s">
         <v>103</v>
       </c>
-      <c r="C33" s="178"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="179"/>
+      <c r="C33" s="247"/>
+      <c r="D33" s="247"/>
+      <c r="E33" s="247"/>
+      <c r="F33" s="248"/>
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -9050,12 +8798,12 @@
       <c r="Q33" s="111"/>
       <c r="R33" s="111"/>
       <c r="S33" s="107"/>
-      <c r="T33" s="170"/>
+      <c r="T33" s="169"/>
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
+      <c r="W33" s="169"/>
+      <c r="X33" s="169"/>
+      <c r="Y33" s="31"/>
       <c r="Z33" s="13"/>
       <c r="AA33" s="13"/>
       <c r="AB33" s="11"/>
@@ -9076,14 +8824,14 @@
       </c>
     </row>
     <row r="34" spans="1:39" ht="22.2" customHeight="1">
-      <c r="A34" s="220"/>
-      <c r="B34" s="177" t="s">
+      <c r="A34" s="289"/>
+      <c r="B34" s="246" t="s">
         <v>104</v>
       </c>
-      <c r="C34" s="178"/>
-      <c r="D34" s="178"/>
-      <c r="E34" s="178"/>
-      <c r="F34" s="179"/>
+      <c r="C34" s="247"/>
+      <c r="D34" s="247"/>
+      <c r="E34" s="247"/>
+      <c r="F34" s="248"/>
       <c r="G34" s="10"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -9100,9 +8848,9 @@
       <c r="T34" s="31"/>
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
-      <c r="W34" s="21"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
+      <c r="W34" s="169"/>
+      <c r="X34" s="169"/>
+      <c r="Y34" s="31"/>
       <c r="Z34" s="13"/>
       <c r="AA34" s="13"/>
       <c r="AB34" s="11"/>
@@ -9123,33 +8871,33 @@
       </c>
     </row>
     <row r="35" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A35" s="221"/>
-      <c r="B35" s="184" t="s">
+      <c r="A35" s="290"/>
+      <c r="B35" s="253" t="s">
         <v>107</v>
       </c>
-      <c r="C35" s="185"/>
-      <c r="D35" s="185"/>
-      <c r="E35" s="185"/>
-      <c r="F35" s="186"/>
+      <c r="C35" s="254"/>
+      <c r="D35" s="254"/>
+      <c r="E35" s="254"/>
+      <c r="F35" s="255"/>
       <c r="G35" s="28"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="110"/>
-      <c r="L35" s="168"/>
-      <c r="M35" s="168"/>
+      <c r="L35" s="167"/>
+      <c r="M35" s="167"/>
       <c r="N35" s="108"/>
       <c r="O35" s="108"/>
-      <c r="P35" s="168"/>
-      <c r="Q35" s="168"/>
-      <c r="R35" s="168"/>
+      <c r="P35" s="167"/>
+      <c r="Q35" s="167"/>
+      <c r="R35" s="167"/>
       <c r="S35" s="109"/>
-      <c r="T35" s="172"/>
+      <c r="T35" s="171"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
-      <c r="W35" s="451"/>
-      <c r="X35" s="26"/>
-      <c r="Y35" s="26"/>
+      <c r="W35" s="242"/>
+      <c r="X35" s="242"/>
+      <c r="Y35" s="171"/>
       <c r="Z35" s="26"/>
       <c r="AA35" s="26"/>
       <c r="AB35" s="9"/>
@@ -9164,33 +8912,35 @@
       <c r="AK35" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="AL35" s="113"/>
+      <c r="AL35" s="113" t="s">
+        <v>115</v>
+      </c>
       <c r="AM35" s="122">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:39" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A36" s="222"/>
-      <c r="B36" s="184" t="s">
+      <c r="A36" s="291"/>
+      <c r="B36" s="253" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="185"/>
-      <c r="D36" s="185"/>
-      <c r="E36" s="185"/>
-      <c r="F36" s="186"/>
+      <c r="C36" s="254"/>
+      <c r="D36" s="254"/>
+      <c r="E36" s="254"/>
+      <c r="F36" s="255"/>
       <c r="G36" s="123"/>
       <c r="H36" s="124"/>
       <c r="I36" s="124"/>
       <c r="J36" s="124"/>
       <c r="K36" s="137"/>
-      <c r="L36" s="147"/>
-      <c r="M36" s="147"/>
-      <c r="N36" s="147"/>
-      <c r="O36" s="147"/>
-      <c r="P36" s="147"/>
-      <c r="Q36" s="147"/>
-      <c r="R36" s="147"/>
-      <c r="S36" s="148"/>
+      <c r="L36" s="146"/>
+      <c r="M36" s="146"/>
+      <c r="N36" s="146"/>
+      <c r="O36" s="146"/>
+      <c r="P36" s="146"/>
+      <c r="Q36" s="146"/>
+      <c r="R36" s="146"/>
+      <c r="S36" s="147"/>
       <c r="T36" s="124"/>
       <c r="U36" s="124"/>
       <c r="V36" s="124"/>
@@ -9217,29 +8967,29 @@
       </c>
     </row>
     <row r="37" spans="1:39" ht="22.2" customHeight="1">
-      <c r="A37" s="140" t="s">
+      <c r="A37" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="181" t="s">
+      <c r="B37" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="182"/>
-      <c r="D37" s="182"/>
-      <c r="E37" s="182"/>
-      <c r="F37" s="183"/>
+      <c r="C37" s="251"/>
+      <c r="D37" s="251"/>
+      <c r="E37" s="251"/>
+      <c r="F37" s="252"/>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
       <c r="J37" s="24"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="142"/>
-      <c r="M37" s="142"/>
-      <c r="N37" s="142"/>
-      <c r="O37" s="142"/>
-      <c r="P37" s="142"/>
-      <c r="Q37" s="142"/>
-      <c r="R37" s="142"/>
-      <c r="S37" s="143"/>
+      <c r="K37" s="140"/>
+      <c r="L37" s="141"/>
+      <c r="M37" s="141"/>
+      <c r="N37" s="141"/>
+      <c r="O37" s="141"/>
+      <c r="P37" s="141"/>
+      <c r="Q37" s="141"/>
+      <c r="R37" s="141"/>
+      <c r="S37" s="142"/>
       <c r="T37" s="24"/>
       <c r="U37" s="24"/>
       <c r="V37" s="24"/>
@@ -9254,9 +9004,9 @@
       <c r="AE37" s="114"/>
       <c r="AF37" s="114"/>
       <c r="AG37" s="114"/>
-      <c r="AH37" s="144"/>
+      <c r="AH37" s="143"/>
       <c r="AI37" s="24"/>
-      <c r="AJ37" s="145"/>
+      <c r="AJ37" s="144"/>
       <c r="AK37" s="115" t="s">
         <v>91</v>
       </c>
@@ -9345,12 +9095,12 @@
     <row r="40" spans="1:39" ht="22.5" customHeight="1">
       <c r="A40" s="17"/>
       <c r="B40" s="3"/>
-      <c r="C40" s="180" t="s">
+      <c r="C40" s="249" t="s">
         <v>24</v>
       </c>
-      <c r="D40" s="180"/>
-      <c r="E40" s="180"/>
-      <c r="F40" s="180"/>
+      <c r="D40" s="249"/>
+      <c r="E40" s="249"/>
+      <c r="F40" s="249"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -9383,14 +9133,14 @@
       <c r="AJ40" s="3"/>
     </row>
     <row r="41" spans="1:39" ht="22.5" customHeight="1">
-      <c r="A41" s="171"/>
+      <c r="A41" s="170"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="180" t="s">
+      <c r="C41" s="249" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="180"/>
-      <c r="E41" s="180"/>
-      <c r="F41" s="180"/>
+      <c r="D41" s="249"/>
+      <c r="E41" s="249"/>
+      <c r="F41" s="249"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
@@ -9425,12 +9175,12 @@
     <row r="42" spans="1:39" ht="22.5" customHeight="1">
       <c r="A42" s="18"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="180" t="s">
+      <c r="C42" s="249" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="180"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="180"/>
+      <c r="D42" s="249"/>
+      <c r="E42" s="249"/>
+      <c r="F42" s="249"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
@@ -9465,12 +9215,12 @@
     <row r="43" spans="1:39" ht="22.5" customHeight="1">
       <c r="A43" s="19"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="180" t="s">
+      <c r="C43" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="180"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="180"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="249"/>
+      <c r="F43" s="249"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
@@ -9505,12 +9255,12 @@
     <row r="44" spans="1:39" ht="22.5" customHeight="1">
       <c r="A44" s="20"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="180" t="s">
+      <c r="C44" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="D44" s="180"/>
-      <c r="E44" s="180"/>
-      <c r="F44" s="180"/>
+      <c r="D44" s="249"/>
+      <c r="E44" s="249"/>
+      <c r="F44" s="249"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
@@ -9545,12 +9295,12 @@
     <row r="45" spans="1:39" ht="22.5" customHeight="1">
       <c r="A45" s="75"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="180" t="s">
+      <c r="C45" s="249" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="180"/>
-      <c r="E45" s="180"/>
-      <c r="F45" s="180"/>
+      <c r="D45" s="249"/>
+      <c r="E45" s="249"/>
+      <c r="F45" s="249"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
@@ -45483,85 +45233,85 @@
       <c r="B2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="301" t="s">
+      <c r="G2" s="370" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="302"/>
-      <c r="I2" s="291" t="s">
+      <c r="H2" s="371"/>
+      <c r="I2" s="360" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="246"/>
-      <c r="L2" s="301" t="s">
+      <c r="J2" s="315"/>
+      <c r="L2" s="370" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="302"/>
-      <c r="N2" s="291" t="s">
+      <c r="M2" s="371"/>
+      <c r="N2" s="360" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="246"/>
-      <c r="Q2" s="301" t="s">
+      <c r="O2" s="315"/>
+      <c r="Q2" s="370" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="302"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="246"/>
-      <c r="V2" s="301" t="s">
+      <c r="R2" s="371"/>
+      <c r="S2" s="315"/>
+      <c r="T2" s="315"/>
+      <c r="V2" s="370" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="302"/>
-      <c r="X2" s="246"/>
-      <c r="Y2" s="246"/>
+      <c r="W2" s="371"/>
+      <c r="X2" s="315"/>
+      <c r="Y2" s="315"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
       <c r="D4" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="303" t="s">
+      <c r="E4" s="372" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="266"/>
-      <c r="G4" s="233" t="s">
+      <c r="F4" s="335"/>
+      <c r="G4" s="302" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="304"/>
-      <c r="I4" s="303" t="s">
+      <c r="H4" s="373"/>
+      <c r="I4" s="372" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="266"/>
-      <c r="K4" s="233" t="s">
+      <c r="J4" s="335"/>
+      <c r="K4" s="302" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="304"/>
-      <c r="M4" s="303" t="s">
+      <c r="L4" s="373"/>
+      <c r="M4" s="372" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="266"/>
+      <c r="N4" s="335"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D5" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="298">
+      <c r="E5" s="367">
         <v>3</v>
       </c>
-      <c r="F5" s="247"/>
-      <c r="G5" s="282">
+      <c r="F5" s="316"/>
+      <c r="G5" s="351">
         <v>4</v>
       </c>
-      <c r="H5" s="299"/>
-      <c r="I5" s="298">
+      <c r="H5" s="368"/>
+      <c r="I5" s="367">
         <v>5</v>
       </c>
-      <c r="J5" s="247"/>
-      <c r="K5" s="282">
+      <c r="J5" s="316"/>
+      <c r="K5" s="351">
         <v>6</v>
       </c>
-      <c r="L5" s="299"/>
-      <c r="M5" s="298">
+      <c r="L5" s="368"/>
+      <c r="M5" s="367">
         <v>7</v>
       </c>
-      <c r="N5" s="247"/>
+      <c r="N5" s="316"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
       <c r="D6" s="78" t="s">
@@ -45597,28 +45347,28 @@
       <c r="N6" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="300" t="s">
+      <c r="O6" s="369" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="241"/>
-      <c r="Q6" s="305" t="s">
+      <c r="P6" s="310"/>
+      <c r="Q6" s="374" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="241"/>
-      <c r="S6" s="305" t="s">
+      <c r="R6" s="310"/>
+      <c r="S6" s="374" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="242"/>
+      <c r="T6" s="311"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="283" t="s">
+      <c r="A7" s="352" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="273" t="s">
+      <c r="B7" s="342" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="286"/>
-      <c r="D7" s="287"/>
+      <c r="C7" s="355"/>
+      <c r="D7" s="356"/>
       <c r="E7" s="80"/>
       <c r="F7" s="81"/>
       <c r="G7" s="63"/>
@@ -45629,22 +45379,22 @@
       <c r="L7" s="55"/>
       <c r="M7" s="93"/>
       <c r="N7" s="43"/>
-      <c r="O7" s="288" t="s">
+      <c r="O7" s="357" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="289"/>
-      <c r="Q7" s="289"/>
-      <c r="R7" s="289"/>
-      <c r="S7" s="289"/>
-      <c r="T7" s="290"/>
+      <c r="P7" s="358"/>
+      <c r="Q7" s="358"/>
+      <c r="R7" s="358"/>
+      <c r="S7" s="358"/>
+      <c r="T7" s="359"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="284"/>
-      <c r="B8" s="248" t="s">
+      <c r="A8" s="353"/>
+      <c r="B8" s="317" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="249"/>
-      <c r="D8" s="250"/>
+      <c r="C8" s="318"/>
+      <c r="D8" s="319"/>
       <c r="E8" s="82"/>
       <c r="F8" s="83"/>
       <c r="G8" s="65"/>
@@ -45655,22 +45405,22 @@
       <c r="L8" s="56"/>
       <c r="M8" s="37"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="291" t="s">
+      <c r="O8" s="360" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="246"/>
-      <c r="Q8" s="246"/>
-      <c r="R8" s="246"/>
-      <c r="S8" s="246"/>
-      <c r="T8" s="247"/>
+      <c r="P8" s="315"/>
+      <c r="Q8" s="315"/>
+      <c r="R8" s="315"/>
+      <c r="S8" s="315"/>
+      <c r="T8" s="316"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="284"/>
-      <c r="B9" s="248" t="s">
+      <c r="A9" s="353"/>
+      <c r="B9" s="317" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="249"/>
-      <c r="D9" s="250"/>
+      <c r="C9" s="318"/>
+      <c r="D9" s="319"/>
       <c r="E9" s="82"/>
       <c r="F9" s="84"/>
       <c r="G9" s="65"/>
@@ -45681,24 +45431,24 @@
       <c r="L9" s="56"/>
       <c r="M9" s="37"/>
       <c r="N9" s="38"/>
-      <c r="O9" s="278" t="s">
+      <c r="O9" s="347" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="246"/>
-      <c r="Q9" s="291" t="s">
+      <c r="P9" s="315"/>
+      <c r="Q9" s="360" t="s">
         <v>70</v>
       </c>
-      <c r="R9" s="246"/>
-      <c r="S9" s="246"/>
-      <c r="T9" s="247"/>
+      <c r="R9" s="315"/>
+      <c r="S9" s="315"/>
+      <c r="T9" s="316"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="284"/>
-      <c r="B10" s="248" t="s">
+      <c r="A10" s="353"/>
+      <c r="B10" s="317" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="249"/>
-      <c r="D10" s="250"/>
+      <c r="C10" s="318"/>
+      <c r="D10" s="319"/>
       <c r="E10" s="82"/>
       <c r="F10" s="83"/>
       <c r="G10" s="65"/>
@@ -45709,20 +45459,20 @@
       <c r="L10" s="56"/>
       <c r="M10" s="37"/>
       <c r="N10" s="38"/>
-      <c r="O10" s="282"/>
-      <c r="P10" s="246"/>
-      <c r="Q10" s="246"/>
-      <c r="R10" s="246"/>
-      <c r="S10" s="246"/>
-      <c r="T10" s="247"/>
+      <c r="O10" s="351"/>
+      <c r="P10" s="315"/>
+      <c r="Q10" s="315"/>
+      <c r="R10" s="315"/>
+      <c r="S10" s="315"/>
+      <c r="T10" s="316"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="285"/>
-      <c r="B11" s="292" t="s">
+      <c r="A11" s="354"/>
+      <c r="B11" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="293"/>
-      <c r="D11" s="294"/>
+      <c r="C11" s="362"/>
+      <c r="D11" s="363"/>
       <c r="E11" s="85"/>
       <c r="F11" s="86"/>
       <c r="G11" s="67"/>
@@ -45733,22 +45483,22 @@
       <c r="L11" s="57"/>
       <c r="M11" s="94"/>
       <c r="N11" s="51"/>
-      <c r="O11" s="295"/>
-      <c r="P11" s="296"/>
-      <c r="Q11" s="296"/>
-      <c r="R11" s="296"/>
-      <c r="S11" s="296"/>
-      <c r="T11" s="297"/>
+      <c r="O11" s="364"/>
+      <c r="P11" s="365"/>
+      <c r="Q11" s="365"/>
+      <c r="R11" s="365"/>
+      <c r="S11" s="365"/>
+      <c r="T11" s="366"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="258" t="s">
+      <c r="A12" s="327" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="261" t="s">
+      <c r="B12" s="330" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="262"/>
-      <c r="D12" s="263"/>
+      <c r="C12" s="331"/>
+      <c r="D12" s="332"/>
       <c r="E12" s="87"/>
       <c r="F12" s="88"/>
       <c r="G12" s="69"/>
@@ -45759,22 +45509,22 @@
       <c r="L12" s="58"/>
       <c r="M12" s="35"/>
       <c r="N12" s="106"/>
-      <c r="O12" s="264" t="s">
+      <c r="O12" s="333" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="265"/>
-      <c r="Q12" s="234"/>
-      <c r="R12" s="234"/>
-      <c r="S12" s="234"/>
-      <c r="T12" s="266"/>
+      <c r="P12" s="334"/>
+      <c r="Q12" s="303"/>
+      <c r="R12" s="303"/>
+      <c r="S12" s="303"/>
+      <c r="T12" s="335"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="259"/>
-      <c r="B13" s="267" t="s">
+      <c r="A13" s="328"/>
+      <c r="B13" s="336" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="268"/>
-      <c r="D13" s="269"/>
+      <c r="C13" s="337"/>
+      <c r="D13" s="338"/>
       <c r="E13" s="82"/>
       <c r="F13" s="83"/>
       <c r="G13" s="65"/>
@@ -45785,22 +45535,22 @@
       <c r="L13" s="104"/>
       <c r="M13" s="99"/>
       <c r="N13" s="99"/>
-      <c r="O13" s="278" t="s">
+      <c r="O13" s="347" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="246"/>
-      <c r="Q13" s="246"/>
-      <c r="R13" s="246"/>
-      <c r="S13" s="246"/>
-      <c r="T13" s="247"/>
+      <c r="P13" s="315"/>
+      <c r="Q13" s="315"/>
+      <c r="R13" s="315"/>
+      <c r="S13" s="315"/>
+      <c r="T13" s="316"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="259"/>
-      <c r="B14" s="267" t="s">
+      <c r="A14" s="328"/>
+      <c r="B14" s="336" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="279"/>
-      <c r="D14" s="280"/>
+      <c r="C14" s="348"/>
+      <c r="D14" s="349"/>
       <c r="E14" s="82"/>
       <c r="F14" s="83"/>
       <c r="G14" s="65"/>
@@ -45811,22 +45561,22 @@
       <c r="L14" s="104"/>
       <c r="M14" s="99"/>
       <c r="N14" s="99"/>
-      <c r="O14" s="281" t="s">
+      <c r="O14" s="350" t="s">
         <v>72</v>
       </c>
-      <c r="P14" s="282"/>
-      <c r="Q14" s="246"/>
-      <c r="R14" s="246"/>
-      <c r="S14" s="246"/>
-      <c r="T14" s="247"/>
+      <c r="P14" s="351"/>
+      <c r="Q14" s="315"/>
+      <c r="R14" s="315"/>
+      <c r="S14" s="315"/>
+      <c r="T14" s="316"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="260"/>
-      <c r="B15" s="253" t="s">
+      <c r="A15" s="329"/>
+      <c r="B15" s="322" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="254"/>
-      <c r="D15" s="255"/>
+      <c r="C15" s="323"/>
+      <c r="D15" s="324"/>
       <c r="E15" s="89"/>
       <c r="F15" s="90"/>
       <c r="G15" s="71"/>
@@ -45837,24 +45587,24 @@
       <c r="L15" s="105"/>
       <c r="M15" s="102"/>
       <c r="N15" s="102"/>
-      <c r="O15" s="256" t="s">
+      <c r="O15" s="325" t="s">
         <v>71</v>
       </c>
-      <c r="P15" s="235"/>
-      <c r="Q15" s="257"/>
-      <c r="R15" s="235"/>
-      <c r="S15" s="235"/>
-      <c r="T15" s="236"/>
+      <c r="P15" s="304"/>
+      <c r="Q15" s="326"/>
+      <c r="R15" s="304"/>
+      <c r="S15" s="304"/>
+      <c r="T15" s="305"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A16" s="270" t="s">
+      <c r="A16" s="339" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="273" t="s">
+      <c r="B16" s="342" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="274"/>
-      <c r="D16" s="275"/>
+      <c r="C16" s="343"/>
+      <c r="D16" s="344"/>
       <c r="E16" s="87"/>
       <c r="F16" s="88"/>
       <c r="G16" s="69"/>
@@ -45865,22 +45615,22 @@
       <c r="L16" s="58"/>
       <c r="M16" s="35"/>
       <c r="N16" s="53"/>
-      <c r="O16" s="233" t="s">
+      <c r="O16" s="302" t="s">
         <v>68</v>
       </c>
-      <c r="P16" s="234"/>
-      <c r="Q16" s="233"/>
-      <c r="R16" s="234"/>
-      <c r="S16" s="234"/>
-      <c r="T16" s="266"/>
+      <c r="P16" s="303"/>
+      <c r="Q16" s="302"/>
+      <c r="R16" s="303"/>
+      <c r="S16" s="303"/>
+      <c r="T16" s="335"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A17" s="271"/>
-      <c r="B17" s="243" t="s">
+      <c r="A17" s="340"/>
+      <c r="B17" s="312" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="276"/>
-      <c r="D17" s="277"/>
+      <c r="C17" s="345"/>
+      <c r="D17" s="346"/>
       <c r="E17" s="82"/>
       <c r="F17" s="83"/>
       <c r="G17" s="65"/>
@@ -45891,22 +45641,22 @@
       <c r="L17" s="56"/>
       <c r="M17" s="37"/>
       <c r="N17" s="38"/>
-      <c r="O17" s="233" t="s">
+      <c r="O17" s="302" t="s">
         <v>68</v>
       </c>
-      <c r="P17" s="234"/>
-      <c r="Q17" s="233"/>
-      <c r="R17" s="234"/>
-      <c r="S17" s="246"/>
-      <c r="T17" s="247"/>
+      <c r="P17" s="303"/>
+      <c r="Q17" s="302"/>
+      <c r="R17" s="303"/>
+      <c r="S17" s="315"/>
+      <c r="T17" s="316"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A18" s="271"/>
-      <c r="B18" s="243" t="s">
+      <c r="A18" s="340"/>
+      <c r="B18" s="312" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="276"/>
-      <c r="D18" s="277"/>
+      <c r="C18" s="345"/>
+      <c r="D18" s="346"/>
       <c r="E18" s="82"/>
       <c r="F18" s="83"/>
       <c r="G18" s="65"/>
@@ -45917,22 +45667,22 @@
       <c r="L18" s="56"/>
       <c r="M18" s="37"/>
       <c r="N18" s="38"/>
-      <c r="O18" s="233" t="s">
+      <c r="O18" s="302" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="234"/>
-      <c r="Q18" s="233"/>
-      <c r="R18" s="234"/>
-      <c r="S18" s="246"/>
-      <c r="T18" s="247"/>
+      <c r="P18" s="303"/>
+      <c r="Q18" s="302"/>
+      <c r="R18" s="303"/>
+      <c r="S18" s="315"/>
+      <c r="T18" s="316"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A19" s="271"/>
-      <c r="B19" s="248" t="s">
+      <c r="A19" s="340"/>
+      <c r="B19" s="317" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="251"/>
-      <c r="D19" s="252"/>
+      <c r="C19" s="320"/>
+      <c r="D19" s="321"/>
       <c r="E19" s="82"/>
       <c r="F19" s="83"/>
       <c r="G19" s="65"/>
@@ -45943,22 +45693,22 @@
       <c r="L19" s="56"/>
       <c r="M19" s="37"/>
       <c r="N19" s="38"/>
-      <c r="O19" s="233" t="s">
+      <c r="O19" s="302" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="234"/>
-      <c r="Q19" s="233"/>
-      <c r="R19" s="234"/>
-      <c r="S19" s="246"/>
-      <c r="T19" s="247"/>
+      <c r="P19" s="303"/>
+      <c r="Q19" s="302"/>
+      <c r="R19" s="303"/>
+      <c r="S19" s="315"/>
+      <c r="T19" s="316"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="271"/>
-      <c r="B20" s="248" t="s">
+      <c r="A20" s="340"/>
+      <c r="B20" s="317" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="251"/>
-      <c r="D20" s="252"/>
+      <c r="C20" s="320"/>
+      <c r="D20" s="321"/>
       <c r="E20" s="82"/>
       <c r="F20" s="83"/>
       <c r="G20" s="65"/>
@@ -45969,22 +45719,22 @@
       <c r="L20" s="56"/>
       <c r="M20" s="37"/>
       <c r="N20" s="38"/>
-      <c r="O20" s="233" t="s">
+      <c r="O20" s="302" t="s">
         <v>68</v>
       </c>
-      <c r="P20" s="234"/>
-      <c r="Q20" s="233"/>
-      <c r="R20" s="234"/>
-      <c r="S20" s="246"/>
-      <c r="T20" s="247"/>
+      <c r="P20" s="303"/>
+      <c r="Q20" s="302"/>
+      <c r="R20" s="303"/>
+      <c r="S20" s="315"/>
+      <c r="T20" s="316"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A21" s="271"/>
-      <c r="B21" s="248" t="s">
+      <c r="A21" s="340"/>
+      <c r="B21" s="317" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="251"/>
-      <c r="D21" s="252"/>
+      <c r="C21" s="320"/>
+      <c r="D21" s="321"/>
       <c r="E21" s="82"/>
       <c r="F21" s="83"/>
       <c r="G21" s="65"/>
@@ -45995,22 +45745,22 @@
       <c r="L21" s="56"/>
       <c r="M21" s="37"/>
       <c r="N21" s="38"/>
-      <c r="O21" s="233" t="s">
+      <c r="O21" s="302" t="s">
         <v>68</v>
       </c>
-      <c r="P21" s="234"/>
-      <c r="Q21" s="233"/>
-      <c r="R21" s="234"/>
-      <c r="S21" s="246"/>
-      <c r="T21" s="247"/>
+      <c r="P21" s="303"/>
+      <c r="Q21" s="302"/>
+      <c r="R21" s="303"/>
+      <c r="S21" s="315"/>
+      <c r="T21" s="316"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A22" s="271"/>
-      <c r="B22" s="248" t="s">
+      <c r="A22" s="340"/>
+      <c r="B22" s="317" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="251"/>
-      <c r="D22" s="252"/>
+      <c r="C22" s="320"/>
+      <c r="D22" s="321"/>
       <c r="E22" s="82"/>
       <c r="F22" s="83"/>
       <c r="G22" s="65"/>
@@ -46021,22 +45771,22 @@
       <c r="L22" s="56"/>
       <c r="M22" s="37"/>
       <c r="N22" s="38"/>
-      <c r="O22" s="233" t="s">
+      <c r="O22" s="302" t="s">
         <v>68</v>
       </c>
-      <c r="P22" s="234"/>
-      <c r="Q22" s="233"/>
-      <c r="R22" s="234"/>
-      <c r="S22" s="246"/>
-      <c r="T22" s="247"/>
+      <c r="P22" s="303"/>
+      <c r="Q22" s="302"/>
+      <c r="R22" s="303"/>
+      <c r="S22" s="315"/>
+      <c r="T22" s="316"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A23" s="271"/>
-      <c r="B23" s="248" t="s">
+      <c r="A23" s="340"/>
+      <c r="B23" s="317" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="249"/>
-      <c r="D23" s="250"/>
+      <c r="C23" s="318"/>
+      <c r="D23" s="319"/>
       <c r="E23" s="82"/>
       <c r="F23" s="83"/>
       <c r="G23" s="65"/>
@@ -46047,22 +45797,22 @@
       <c r="L23" s="56"/>
       <c r="M23" s="37"/>
       <c r="N23" s="38"/>
-      <c r="O23" s="233" t="s">
+      <c r="O23" s="302" t="s">
         <v>68</v>
       </c>
-      <c r="P23" s="234"/>
-      <c r="Q23" s="233"/>
-      <c r="R23" s="234"/>
-      <c r="S23" s="246"/>
-      <c r="T23" s="247"/>
+      <c r="P23" s="303"/>
+      <c r="Q23" s="302"/>
+      <c r="R23" s="303"/>
+      <c r="S23" s="315"/>
+      <c r="T23" s="316"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A24" s="271"/>
-      <c r="B24" s="243" t="s">
+      <c r="A24" s="340"/>
+      <c r="B24" s="312" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="244"/>
-      <c r="D24" s="245"/>
+      <c r="C24" s="313"/>
+      <c r="D24" s="314"/>
       <c r="E24" s="82"/>
       <c r="F24" s="83"/>
       <c r="G24" s="65"/>
@@ -46073,22 +45823,22 @@
       <c r="L24" s="56"/>
       <c r="M24" s="37"/>
       <c r="N24" s="38"/>
-      <c r="O24" s="233" t="s">
+      <c r="O24" s="302" t="s">
         <v>68</v>
       </c>
-      <c r="P24" s="234"/>
-      <c r="Q24" s="233"/>
-      <c r="R24" s="234"/>
-      <c r="S24" s="246"/>
-      <c r="T24" s="247"/>
+      <c r="P24" s="303"/>
+      <c r="Q24" s="302"/>
+      <c r="R24" s="303"/>
+      <c r="S24" s="315"/>
+      <c r="T24" s="316"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A25" s="271"/>
-      <c r="B25" s="243" t="s">
+      <c r="A25" s="340"/>
+      <c r="B25" s="312" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="244"/>
-      <c r="D25" s="245"/>
+      <c r="C25" s="313"/>
+      <c r="D25" s="314"/>
       <c r="E25" s="82"/>
       <c r="F25" s="83"/>
       <c r="G25" s="65"/>
@@ -46099,22 +45849,22 @@
       <c r="L25" s="56"/>
       <c r="M25" s="37"/>
       <c r="N25" s="38"/>
-      <c r="O25" s="233" t="s">
+      <c r="O25" s="302" t="s">
         <v>68</v>
       </c>
-      <c r="P25" s="234"/>
-      <c r="Q25" s="233"/>
-      <c r="R25" s="234"/>
-      <c r="S25" s="246"/>
-      <c r="T25" s="247"/>
+      <c r="P25" s="303"/>
+      <c r="Q25" s="302"/>
+      <c r="R25" s="303"/>
+      <c r="S25" s="315"/>
+      <c r="T25" s="316"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A26" s="271"/>
-      <c r="B26" s="243" t="s">
+      <c r="A26" s="340"/>
+      <c r="B26" s="312" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="244"/>
-      <c r="D26" s="245"/>
+      <c r="C26" s="313"/>
+      <c r="D26" s="314"/>
       <c r="E26" s="82"/>
       <c r="F26" s="83"/>
       <c r="G26" s="65"/>
@@ -46125,22 +45875,22 @@
       <c r="L26" s="56"/>
       <c r="M26" s="37"/>
       <c r="N26" s="38"/>
-      <c r="O26" s="233" t="s">
+      <c r="O26" s="302" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="234"/>
-      <c r="Q26" s="233"/>
-      <c r="R26" s="234"/>
-      <c r="S26" s="246"/>
-      <c r="T26" s="247"/>
+      <c r="P26" s="303"/>
+      <c r="Q26" s="302"/>
+      <c r="R26" s="303"/>
+      <c r="S26" s="315"/>
+      <c r="T26" s="316"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="272"/>
-      <c r="B27" s="230" t="s">
+      <c r="A27" s="341"/>
+      <c r="B27" s="299" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="231"/>
-      <c r="D27" s="232"/>
+      <c r="C27" s="300"/>
+      <c r="D27" s="301"/>
       <c r="E27" s="89"/>
       <c r="F27" s="90"/>
       <c r="G27" s="71"/>
@@ -46151,24 +45901,24 @@
       <c r="L27" s="59"/>
       <c r="M27" s="95"/>
       <c r="N27" s="41"/>
-      <c r="O27" s="233" t="s">
+      <c r="O27" s="302" t="s">
         <v>68</v>
       </c>
-      <c r="P27" s="234"/>
-      <c r="Q27" s="233"/>
-      <c r="R27" s="234"/>
-      <c r="S27" s="235"/>
-      <c r="T27" s="236"/>
+      <c r="P27" s="303"/>
+      <c r="Q27" s="302"/>
+      <c r="R27" s="303"/>
+      <c r="S27" s="304"/>
+      <c r="T27" s="305"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="237" t="s">
+      <c r="B28" s="306" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="238"/>
-      <c r="D28" s="239"/>
+      <c r="C28" s="307"/>
+      <c r="D28" s="308"/>
       <c r="E28" s="91"/>
       <c r="F28" s="92"/>
       <c r="G28" s="73"/>
@@ -46179,17 +45929,17 @@
       <c r="L28" s="62"/>
       <c r="M28" s="96"/>
       <c r="N28" s="97"/>
-      <c r="O28" s="240"/>
-      <c r="P28" s="241"/>
-      <c r="Q28" s="241"/>
-      <c r="R28" s="241"/>
-      <c r="S28" s="241"/>
-      <c r="T28" s="242"/>
+      <c r="O28" s="309"/>
+      <c r="P28" s="310"/>
+      <c r="Q28" s="310"/>
+      <c r="R28" s="310"/>
+      <c r="S28" s="310"/>
+      <c r="T28" s="311"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="229"/>
-      <c r="C29" s="229"/>
-      <c r="D29" s="229"/>
+      <c r="B29" s="298"/>
+      <c r="C29" s="298"/>
+      <c r="D29" s="298"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="16" t="s">
@@ -46203,85 +45953,85 @@
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="180" t="s">
+      <c r="B31" s="249" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="180"/>
+      <c r="C31" s="249"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="180" t="s">
+      <c r="B32" s="249" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="180"/>
+      <c r="C32" s="249"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" ht="18" customHeight="1">
       <c r="A33" s="19"/>
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="180"/>
+      <c r="C33" s="249"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="180" t="s">
+      <c r="B34" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="180"/>
+      <c r="C34" s="249"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" ht="18" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="180" t="s">
+      <c r="B35" s="249" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="180"/>
+      <c r="C35" s="249"/>
     </row>
     <row r="36" spans="1:6" ht="18" customHeight="1">
-      <c r="B36" s="229"/>
-      <c r="C36" s="229"/>
-      <c r="D36" s="229"/>
+      <c r="B36" s="298"/>
+      <c r="C36" s="298"/>
+      <c r="D36" s="298"/>
     </row>
     <row r="37" spans="1:6" ht="18" customHeight="1">
-      <c r="B37" s="229"/>
-      <c r="C37" s="229"/>
-      <c r="D37" s="229"/>
+      <c r="B37" s="298"/>
+      <c r="C37" s="298"/>
+      <c r="D37" s="298"/>
     </row>
     <row r="38" spans="1:6" ht="18" customHeight="1">
-      <c r="B38" s="229"/>
-      <c r="C38" s="229"/>
-      <c r="D38" s="229"/>
+      <c r="B38" s="298"/>
+      <c r="C38" s="298"/>
+      <c r="D38" s="298"/>
     </row>
     <row r="39" spans="1:6" ht="18" customHeight="1">
-      <c r="B39" s="229"/>
-      <c r="C39" s="229"/>
-      <c r="D39" s="229"/>
+      <c r="B39" s="298"/>
+      <c r="C39" s="298"/>
+      <c r="D39" s="298"/>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1">
-      <c r="B40" s="229"/>
-      <c r="C40" s="229"/>
-      <c r="D40" s="229"/>
+      <c r="B40" s="298"/>
+      <c r="C40" s="298"/>
+      <c r="D40" s="298"/>
     </row>
     <row r="41" spans="1:6" ht="18" customHeight="1">
-      <c r="B41" s="229"/>
-      <c r="C41" s="229"/>
-      <c r="D41" s="229"/>
+      <c r="B41" s="298"/>
+      <c r="C41" s="298"/>
+      <c r="D41" s="298"/>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1">
-      <c r="B42" s="229"/>
-      <c r="C42" s="229"/>
-      <c r="D42" s="229"/>
+      <c r="B42" s="298"/>
+      <c r="C42" s="298"/>
+      <c r="D42" s="298"/>
     </row>
   </sheetData>
   <mergeCells count="125">
@@ -46421,7 +46171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF4906B-027D-4E20-B248-E186BA8B7085}">
   <dimension ref="A2:Y42"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A16" sqref="A16:H31"/>
     </sheetView>
   </sheetViews>
@@ -46431,194 +46181,194 @@
       <c r="B2" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="301" t="s">
+      <c r="G2" s="370" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="302"/>
-      <c r="I2" s="291" t="s">
+      <c r="H2" s="371"/>
+      <c r="I2" s="360" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="246"/>
-      <c r="L2" s="301" t="s">
+      <c r="J2" s="315"/>
+      <c r="L2" s="370" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="302"/>
-      <c r="N2" s="291" t="s">
+      <c r="M2" s="371"/>
+      <c r="N2" s="360" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="246"/>
-      <c r="Q2" s="301" t="s">
+      <c r="O2" s="315"/>
+      <c r="Q2" s="370" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="302"/>
-      <c r="S2" s="325">
+      <c r="R2" s="371"/>
+      <c r="S2" s="394">
         <v>45451</v>
       </c>
-      <c r="T2" s="246"/>
-      <c r="V2" s="301" t="s">
+      <c r="T2" s="315"/>
+      <c r="V2" s="370" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="302"/>
-      <c r="X2" s="325">
+      <c r="W2" s="371"/>
+      <c r="X2" s="394">
         <v>45451</v>
       </c>
-      <c r="Y2" s="246"/>
+      <c r="Y2" s="315"/>
     </row>
     <row r="3" spans="1:25" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:25" ht="15" customHeight="1">
-      <c r="D4" s="159" t="s">
+      <c r="D4" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="326" t="s">
+      <c r="E4" s="395" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="327"/>
-      <c r="G4" s="326" t="s">
+      <c r="F4" s="396"/>
+      <c r="G4" s="395" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="327"/>
-      <c r="I4" s="326" t="s">
+      <c r="H4" s="396"/>
+      <c r="I4" s="395" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="327"/>
-      <c r="K4" s="326" t="s">
+      <c r="J4" s="396"/>
+      <c r="K4" s="395" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="327"/>
-      <c r="M4" s="326" t="s">
+      <c r="L4" s="396"/>
+      <c r="M4" s="395" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="328"/>
+      <c r="N4" s="397"/>
     </row>
     <row r="5" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="D5" s="160" t="s">
+      <c r="D5" s="159" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="246">
+      <c r="E5" s="315">
         <v>10</v>
       </c>
-      <c r="F5" s="246"/>
-      <c r="G5" s="246">
+      <c r="F5" s="315"/>
+      <c r="G5" s="315">
         <v>11</v>
       </c>
-      <c r="H5" s="246"/>
-      <c r="I5" s="246">
+      <c r="H5" s="315"/>
+      <c r="I5" s="315">
         <v>12</v>
       </c>
-      <c r="J5" s="246"/>
-      <c r="K5" s="246">
+      <c r="J5" s="315"/>
+      <c r="K5" s="315">
         <v>13</v>
       </c>
-      <c r="L5" s="246"/>
-      <c r="M5" s="246">
+      <c r="L5" s="315"/>
+      <c r="M5" s="315">
         <v>14</v>
       </c>
-      <c r="N5" s="324"/>
+      <c r="N5" s="393"/>
     </row>
     <row r="6" spans="1:25" ht="15" customHeight="1" thickBot="1">
-      <c r="D6" s="161" t="s">
+      <c r="D6" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="162" t="s">
+      <c r="E6" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="162" t="s">
+      <c r="F6" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="162" t="s">
+      <c r="G6" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="162" t="s">
+      <c r="H6" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="162" t="s">
+      <c r="I6" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="162" t="s">
+      <c r="J6" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="162" t="s">
+      <c r="K6" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="162" t="s">
+      <c r="L6" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="M6" s="162" t="s">
+      <c r="M6" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="163" t="s">
+      <c r="N6" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="300" t="s">
+      <c r="O6" s="369" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="241"/>
-      <c r="Q6" s="305" t="s">
+      <c r="P6" s="310"/>
+      <c r="Q6" s="374" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="241"/>
-      <c r="S6" s="305" t="s">
+      <c r="R6" s="310"/>
+      <c r="S6" s="374" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="242"/>
+      <c r="T6" s="311"/>
     </row>
     <row r="7" spans="1:25" ht="18" customHeight="1">
-      <c r="A7" s="283" t="s">
+      <c r="A7" s="352" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="273" t="s">
+      <c r="B7" s="342" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="286"/>
-      <c r="D7" s="320"/>
+      <c r="C7" s="355"/>
+      <c r="D7" s="389"/>
       <c r="E7" s="63"/>
-      <c r="F7" s="153"/>
+      <c r="F7" s="152"/>
       <c r="G7" s="64"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
       <c r="L7" s="42"/>
-      <c r="M7" s="153"/>
-      <c r="N7" s="157"/>
-      <c r="O7" s="321"/>
-      <c r="P7" s="289"/>
-      <c r="Q7" s="289"/>
-      <c r="R7" s="289"/>
-      <c r="S7" s="289"/>
-      <c r="T7" s="290"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="390"/>
+      <c r="P7" s="358"/>
+      <c r="Q7" s="358"/>
+      <c r="R7" s="358"/>
+      <c r="S7" s="358"/>
+      <c r="T7" s="359"/>
     </row>
     <row r="8" spans="1:25" ht="18" customHeight="1">
-      <c r="A8" s="284"/>
-      <c r="B8" s="248" t="s">
+      <c r="A8" s="353"/>
+      <c r="B8" s="317" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="249"/>
-      <c r="D8" s="311"/>
+      <c r="C8" s="318"/>
+      <c r="D8" s="380"/>
       <c r="E8" s="65"/>
-      <c r="F8" s="154"/>
+      <c r="F8" s="153"/>
       <c r="G8" s="66"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-      <c r="K8" s="154"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
       <c r="L8" s="34"/>
       <c r="M8" s="34"/>
       <c r="N8" s="56"/>
-      <c r="O8" s="298"/>
-      <c r="P8" s="246"/>
-      <c r="Q8" s="246"/>
-      <c r="R8" s="246"/>
-      <c r="S8" s="246"/>
-      <c r="T8" s="247"/>
+      <c r="O8" s="367"/>
+      <c r="P8" s="315"/>
+      <c r="Q8" s="315"/>
+      <c r="R8" s="315"/>
+      <c r="S8" s="315"/>
+      <c r="T8" s="316"/>
     </row>
     <row r="9" spans="1:25" ht="18" customHeight="1">
-      <c r="A9" s="284"/>
-      <c r="B9" s="248" t="s">
+      <c r="A9" s="353"/>
+      <c r="B9" s="317" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="249"/>
-      <c r="D9" s="311"/>
+      <c r="C9" s="318"/>
+      <c r="D9" s="380"/>
       <c r="E9" s="65"/>
       <c r="F9" s="34"/>
       <c r="G9" s="66"/>
@@ -46629,20 +46379,20 @@
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
       <c r="N9" s="56"/>
-      <c r="O9" s="298"/>
-      <c r="P9" s="246"/>
-      <c r="Q9" s="246"/>
-      <c r="R9" s="246"/>
-      <c r="S9" s="246"/>
-      <c r="T9" s="247"/>
+      <c r="O9" s="367"/>
+      <c r="P9" s="315"/>
+      <c r="Q9" s="315"/>
+      <c r="R9" s="315"/>
+      <c r="S9" s="315"/>
+      <c r="T9" s="316"/>
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1">
-      <c r="A10" s="284"/>
-      <c r="B10" s="248" t="s">
+      <c r="A10" s="353"/>
+      <c r="B10" s="317" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="249"/>
-      <c r="D10" s="311"/>
+      <c r="C10" s="318"/>
+      <c r="D10" s="380"/>
       <c r="E10" s="65"/>
       <c r="F10" s="34"/>
       <c r="G10" s="66"/>
@@ -46653,20 +46403,20 @@
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
       <c r="N10" s="56"/>
-      <c r="O10" s="298"/>
-      <c r="P10" s="246"/>
-      <c r="Q10" s="246"/>
-      <c r="R10" s="246"/>
-      <c r="S10" s="246"/>
-      <c r="T10" s="247"/>
+      <c r="O10" s="367"/>
+      <c r="P10" s="315"/>
+      <c r="Q10" s="315"/>
+      <c r="R10" s="315"/>
+      <c r="S10" s="315"/>
+      <c r="T10" s="316"/>
     </row>
     <row r="11" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="285"/>
-      <c r="B11" s="292" t="s">
+      <c r="A11" s="354"/>
+      <c r="B11" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="293"/>
-      <c r="D11" s="322"/>
+      <c r="C11" s="362"/>
+      <c r="D11" s="391"/>
       <c r="E11" s="67"/>
       <c r="F11" s="50"/>
       <c r="G11" s="68"/>
@@ -46677,94 +46427,94 @@
       <c r="L11" s="50"/>
       <c r="M11" s="50"/>
       <c r="N11" s="57"/>
-      <c r="O11" s="323"/>
-      <c r="P11" s="296"/>
-      <c r="Q11" s="296"/>
-      <c r="R11" s="296"/>
-      <c r="S11" s="296"/>
-      <c r="T11" s="297"/>
+      <c r="O11" s="392"/>
+      <c r="P11" s="365"/>
+      <c r="Q11" s="365"/>
+      <c r="R11" s="365"/>
+      <c r="S11" s="365"/>
+      <c r="T11" s="366"/>
     </row>
     <row r="12" spans="1:25" ht="18" customHeight="1">
-      <c r="A12" s="258" t="s">
+      <c r="A12" s="327" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="261" t="s">
+      <c r="B12" s="330" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="262"/>
-      <c r="D12" s="314"/>
+      <c r="C12" s="331"/>
+      <c r="D12" s="383"/>
       <c r="E12" s="69"/>
-      <c r="F12" s="155"/>
+      <c r="F12" s="154"/>
       <c r="G12" s="70"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="155"/>
-      <c r="K12" s="155"/>
-      <c r="L12" s="155"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
       <c r="M12" s="36"/>
       <c r="N12" s="58"/>
-      <c r="O12" s="315"/>
-      <c r="P12" s="234"/>
-      <c r="Q12" s="234"/>
-      <c r="R12" s="234"/>
-      <c r="S12" s="234"/>
-      <c r="T12" s="266"/>
+      <c r="O12" s="384"/>
+      <c r="P12" s="303"/>
+      <c r="Q12" s="303"/>
+      <c r="R12" s="303"/>
+      <c r="S12" s="303"/>
+      <c r="T12" s="335"/>
     </row>
     <row r="13" spans="1:25" ht="18" customHeight="1">
-      <c r="A13" s="259"/>
-      <c r="B13" s="267" t="s">
+      <c r="A13" s="328"/>
+      <c r="B13" s="336" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="268"/>
-      <c r="D13" s="316"/>
+      <c r="C13" s="337"/>
+      <c r="D13" s="385"/>
       <c r="E13" s="65"/>
-      <c r="F13" s="154"/>
+      <c r="F13" s="153"/>
       <c r="G13" s="66"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
       <c r="L13" s="34"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="156"/>
-      <c r="O13" s="298"/>
-      <c r="P13" s="246"/>
-      <c r="Q13" s="246"/>
-      <c r="R13" s="246"/>
-      <c r="S13" s="246"/>
-      <c r="T13" s="247"/>
+      <c r="M13" s="153"/>
+      <c r="N13" s="155"/>
+      <c r="O13" s="367"/>
+      <c r="P13" s="315"/>
+      <c r="Q13" s="315"/>
+      <c r="R13" s="315"/>
+      <c r="S13" s="315"/>
+      <c r="T13" s="316"/>
     </row>
     <row r="14" spans="1:25" ht="18" customHeight="1">
-      <c r="A14" s="259"/>
-      <c r="B14" s="267" t="s">
+      <c r="A14" s="328"/>
+      <c r="B14" s="336" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="279"/>
-      <c r="D14" s="319"/>
+      <c r="C14" s="348"/>
+      <c r="D14" s="388"/>
       <c r="E14" s="65"/>
-      <c r="F14" s="154"/>
+      <c r="F14" s="153"/>
       <c r="G14" s="66"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="154"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153"/>
       <c r="M14" s="34"/>
       <c r="N14" s="56"/>
-      <c r="O14" s="298"/>
-      <c r="P14" s="246"/>
-      <c r="Q14" s="246"/>
-      <c r="R14" s="246"/>
-      <c r="S14" s="246"/>
-      <c r="T14" s="247"/>
+      <c r="O14" s="367"/>
+      <c r="P14" s="315"/>
+      <c r="Q14" s="315"/>
+      <c r="R14" s="315"/>
+      <c r="S14" s="315"/>
+      <c r="T14" s="316"/>
     </row>
     <row r="15" spans="1:25" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="260"/>
-      <c r="B15" s="253" t="s">
+      <c r="A15" s="329"/>
+      <c r="B15" s="322" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="254"/>
-      <c r="D15" s="313"/>
+      <c r="C15" s="323"/>
+      <c r="D15" s="382"/>
       <c r="E15" s="71"/>
       <c r="F15" s="40"/>
       <c r="G15" s="72"/>
@@ -46775,22 +46525,22 @@
       <c r="L15" s="40"/>
       <c r="M15" s="40"/>
       <c r="N15" s="59"/>
-      <c r="O15" s="307"/>
-      <c r="P15" s="235"/>
-      <c r="Q15" s="235"/>
-      <c r="R15" s="235"/>
-      <c r="S15" s="235"/>
-      <c r="T15" s="236"/>
+      <c r="O15" s="376"/>
+      <c r="P15" s="304"/>
+      <c r="Q15" s="304"/>
+      <c r="R15" s="304"/>
+      <c r="S15" s="304"/>
+      <c r="T15" s="305"/>
     </row>
     <row r="16" spans="1:25" ht="18" customHeight="1">
-      <c r="A16" s="270" t="s">
+      <c r="A16" s="339" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="273" t="s">
+      <c r="B16" s="342" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="274"/>
-      <c r="D16" s="317"/>
+      <c r="C16" s="343"/>
+      <c r="D16" s="386"/>
       <c r="E16" s="69"/>
       <c r="F16" s="36"/>
       <c r="G16" s="70"/>
@@ -46799,22 +46549,22 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
-      <c r="M16" s="155"/>
-      <c r="N16" s="158"/>
-      <c r="O16" s="315"/>
-      <c r="P16" s="234"/>
-      <c r="Q16" s="234"/>
-      <c r="R16" s="234"/>
-      <c r="S16" s="234"/>
-      <c r="T16" s="266"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="157"/>
+      <c r="O16" s="384"/>
+      <c r="P16" s="303"/>
+      <c r="Q16" s="303"/>
+      <c r="R16" s="303"/>
+      <c r="S16" s="303"/>
+      <c r="T16" s="335"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="271"/>
-      <c r="B17" s="243" t="s">
+      <c r="A17" s="340"/>
+      <c r="B17" s="312" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="276"/>
-      <c r="D17" s="318"/>
+      <c r="C17" s="345"/>
+      <c r="D17" s="387"/>
       <c r="E17" s="65"/>
       <c r="F17" s="34"/>
       <c r="G17" s="66"/>
@@ -46823,22 +46573,22 @@
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
       <c r="L17" s="34"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="156"/>
-      <c r="O17" s="298"/>
-      <c r="P17" s="246"/>
-      <c r="Q17" s="246"/>
-      <c r="R17" s="246"/>
-      <c r="S17" s="246"/>
-      <c r="T17" s="247"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="155"/>
+      <c r="O17" s="367"/>
+      <c r="P17" s="315"/>
+      <c r="Q17" s="315"/>
+      <c r="R17" s="315"/>
+      <c r="S17" s="315"/>
+      <c r="T17" s="316"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="271"/>
-      <c r="B18" s="243" t="s">
+      <c r="A18" s="340"/>
+      <c r="B18" s="312" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="276"/>
-      <c r="D18" s="318"/>
+      <c r="C18" s="345"/>
+      <c r="D18" s="387"/>
       <c r="E18" s="65"/>
       <c r="F18" s="34"/>
       <c r="G18" s="66"/>
@@ -46849,20 +46599,20 @@
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
       <c r="N18" s="56"/>
-      <c r="O18" s="298"/>
-      <c r="P18" s="246"/>
-      <c r="Q18" s="246"/>
-      <c r="R18" s="246"/>
-      <c r="S18" s="246"/>
-      <c r="T18" s="247"/>
+      <c r="O18" s="367"/>
+      <c r="P18" s="315"/>
+      <c r="Q18" s="315"/>
+      <c r="R18" s="315"/>
+      <c r="S18" s="315"/>
+      <c r="T18" s="316"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="271"/>
-      <c r="B19" s="248" t="s">
+      <c r="A19" s="340"/>
+      <c r="B19" s="317" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="251"/>
-      <c r="D19" s="312"/>
+      <c r="C19" s="320"/>
+      <c r="D19" s="381"/>
       <c r="E19" s="65"/>
       <c r="F19" s="34"/>
       <c r="G19" s="66"/>
@@ -46871,22 +46621,22 @@
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
       <c r="L19" s="34"/>
-      <c r="M19" s="154"/>
-      <c r="N19" s="156"/>
-      <c r="O19" s="298"/>
-      <c r="P19" s="246"/>
-      <c r="Q19" s="246"/>
-      <c r="R19" s="246"/>
-      <c r="S19" s="246"/>
-      <c r="T19" s="247"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="367"/>
+      <c r="P19" s="315"/>
+      <c r="Q19" s="315"/>
+      <c r="R19" s="315"/>
+      <c r="S19" s="315"/>
+      <c r="T19" s="316"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="271"/>
-      <c r="B20" s="248" t="s">
+      <c r="A20" s="340"/>
+      <c r="B20" s="317" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="251"/>
-      <c r="D20" s="312"/>
+      <c r="C20" s="320"/>
+      <c r="D20" s="381"/>
       <c r="E20" s="65"/>
       <c r="F20" s="34"/>
       <c r="G20" s="66"/>
@@ -46895,22 +46645,22 @@
       <c r="J20" s="34"/>
       <c r="K20" s="34"/>
       <c r="L20" s="34"/>
-      <c r="M20" s="154"/>
-      <c r="N20" s="156"/>
-      <c r="O20" s="298"/>
-      <c r="P20" s="246"/>
-      <c r="Q20" s="246"/>
-      <c r="R20" s="246"/>
-      <c r="S20" s="246"/>
-      <c r="T20" s="247"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="155"/>
+      <c r="O20" s="367"/>
+      <c r="P20" s="315"/>
+      <c r="Q20" s="315"/>
+      <c r="R20" s="315"/>
+      <c r="S20" s="315"/>
+      <c r="T20" s="316"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="271"/>
-      <c r="B21" s="248" t="s">
+      <c r="A21" s="340"/>
+      <c r="B21" s="317" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="251"/>
-      <c r="D21" s="312"/>
+      <c r="C21" s="320"/>
+      <c r="D21" s="381"/>
       <c r="E21" s="65"/>
       <c r="F21" s="34"/>
       <c r="G21" s="66"/>
@@ -46919,22 +46669,22 @@
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="156"/>
-      <c r="O21" s="298"/>
-      <c r="P21" s="246"/>
-      <c r="Q21" s="246"/>
-      <c r="R21" s="246"/>
-      <c r="S21" s="246"/>
-      <c r="T21" s="247"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="155"/>
+      <c r="O21" s="367"/>
+      <c r="P21" s="315"/>
+      <c r="Q21" s="315"/>
+      <c r="R21" s="315"/>
+      <c r="S21" s="315"/>
+      <c r="T21" s="316"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="271"/>
-      <c r="B22" s="248" t="s">
+      <c r="A22" s="340"/>
+      <c r="B22" s="317" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="251"/>
-      <c r="D22" s="312"/>
+      <c r="C22" s="320"/>
+      <c r="D22" s="381"/>
       <c r="E22" s="65"/>
       <c r="F22" s="34"/>
       <c r="G22" s="66"/>
@@ -46943,22 +46693,22 @@
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
-      <c r="M22" s="154"/>
-      <c r="N22" s="156"/>
-      <c r="O22" s="298"/>
-      <c r="P22" s="246"/>
-      <c r="Q22" s="246"/>
-      <c r="R22" s="246"/>
-      <c r="S22" s="246"/>
-      <c r="T22" s="247"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="155"/>
+      <c r="O22" s="367"/>
+      <c r="P22" s="315"/>
+      <c r="Q22" s="315"/>
+      <c r="R22" s="315"/>
+      <c r="S22" s="315"/>
+      <c r="T22" s="316"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="271"/>
-      <c r="B23" s="248" t="s">
+      <c r="A23" s="340"/>
+      <c r="B23" s="317" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="249"/>
-      <c r="D23" s="311"/>
+      <c r="C23" s="318"/>
+      <c r="D23" s="380"/>
       <c r="E23" s="65"/>
       <c r="F23" s="34"/>
       <c r="G23" s="66"/>
@@ -46967,22 +46717,22 @@
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
-      <c r="M23" s="154"/>
-      <c r="N23" s="156"/>
-      <c r="O23" s="298"/>
-      <c r="P23" s="246"/>
-      <c r="Q23" s="246"/>
-      <c r="R23" s="246"/>
-      <c r="S23" s="246"/>
-      <c r="T23" s="247"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="155"/>
+      <c r="O23" s="367"/>
+      <c r="P23" s="315"/>
+      <c r="Q23" s="315"/>
+      <c r="R23" s="315"/>
+      <c r="S23" s="315"/>
+      <c r="T23" s="316"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="271"/>
-      <c r="B24" s="243" t="s">
+      <c r="A24" s="340"/>
+      <c r="B24" s="312" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="244"/>
-      <c r="D24" s="310"/>
+      <c r="C24" s="313"/>
+      <c r="D24" s="379"/>
       <c r="E24" s="65"/>
       <c r="F24" s="34"/>
       <c r="G24" s="66"/>
@@ -46991,22 +46741,22 @@
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="156"/>
-      <c r="O24" s="298"/>
-      <c r="P24" s="246"/>
-      <c r="Q24" s="246"/>
-      <c r="R24" s="246"/>
-      <c r="S24" s="246"/>
-      <c r="T24" s="247"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="155"/>
+      <c r="O24" s="367"/>
+      <c r="P24" s="315"/>
+      <c r="Q24" s="315"/>
+      <c r="R24" s="315"/>
+      <c r="S24" s="315"/>
+      <c r="T24" s="316"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
-      <c r="A25" s="271"/>
-      <c r="B25" s="243" t="s">
+      <c r="A25" s="340"/>
+      <c r="B25" s="312" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="244"/>
-      <c r="D25" s="310"/>
+      <c r="C25" s="313"/>
+      <c r="D25" s="379"/>
       <c r="E25" s="65"/>
       <c r="F25" s="34"/>
       <c r="G25" s="66"/>
@@ -47015,22 +46765,22 @@
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
       <c r="L25" s="34"/>
-      <c r="M25" s="154"/>
-      <c r="N25" s="156"/>
-      <c r="O25" s="298"/>
-      <c r="P25" s="246"/>
-      <c r="Q25" s="246"/>
-      <c r="R25" s="246"/>
-      <c r="S25" s="246"/>
-      <c r="T25" s="247"/>
+      <c r="M25" s="153"/>
+      <c r="N25" s="155"/>
+      <c r="O25" s="367"/>
+      <c r="P25" s="315"/>
+      <c r="Q25" s="315"/>
+      <c r="R25" s="315"/>
+      <c r="S25" s="315"/>
+      <c r="T25" s="316"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
-      <c r="A26" s="271"/>
-      <c r="B26" s="243" t="s">
+      <c r="A26" s="340"/>
+      <c r="B26" s="312" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="244"/>
-      <c r="D26" s="310"/>
+      <c r="C26" s="313"/>
+      <c r="D26" s="379"/>
       <c r="E26" s="65"/>
       <c r="F26" s="34"/>
       <c r="G26" s="66"/>
@@ -47039,22 +46789,22 @@
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
       <c r="L26" s="34"/>
-      <c r="M26" s="154"/>
-      <c r="N26" s="156"/>
-      <c r="O26" s="298"/>
-      <c r="P26" s="246"/>
-      <c r="Q26" s="246"/>
-      <c r="R26" s="246"/>
-      <c r="S26" s="246"/>
-      <c r="T26" s="247"/>
+      <c r="M26" s="153"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="367"/>
+      <c r="P26" s="315"/>
+      <c r="Q26" s="315"/>
+      <c r="R26" s="315"/>
+      <c r="S26" s="315"/>
+      <c r="T26" s="316"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1" thickBot="1">
-      <c r="A27" s="272"/>
-      <c r="B27" s="230" t="s">
+      <c r="A27" s="341"/>
+      <c r="B27" s="299" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="231"/>
-      <c r="D27" s="306"/>
+      <c r="C27" s="300"/>
+      <c r="D27" s="375"/>
       <c r="E27" s="71"/>
       <c r="F27" s="40"/>
       <c r="G27" s="72"/>
@@ -47065,22 +46815,22 @@
       <c r="L27" s="40"/>
       <c r="M27" s="40"/>
       <c r="N27" s="59"/>
-      <c r="O27" s="307"/>
-      <c r="P27" s="235"/>
-      <c r="Q27" s="235"/>
-      <c r="R27" s="235"/>
-      <c r="S27" s="235"/>
-      <c r="T27" s="236"/>
+      <c r="O27" s="376"/>
+      <c r="P27" s="304"/>
+      <c r="Q27" s="304"/>
+      <c r="R27" s="304"/>
+      <c r="S27" s="304"/>
+      <c r="T27" s="305"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1" thickBot="1">
       <c r="A28" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="237" t="s">
+      <c r="B28" s="306" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="238"/>
-      <c r="D28" s="308"/>
+      <c r="C28" s="307"/>
+      <c r="D28" s="377"/>
       <c r="E28" s="73"/>
       <c r="F28" s="61"/>
       <c r="G28" s="74"/>
@@ -47091,17 +46841,17 @@
       <c r="L28" s="61"/>
       <c r="M28" s="61"/>
       <c r="N28" s="62"/>
-      <c r="O28" s="309"/>
-      <c r="P28" s="241"/>
-      <c r="Q28" s="241"/>
-      <c r="R28" s="241"/>
-      <c r="S28" s="241"/>
-      <c r="T28" s="242"/>
+      <c r="O28" s="378"/>
+      <c r="P28" s="310"/>
+      <c r="Q28" s="310"/>
+      <c r="R28" s="310"/>
+      <c r="S28" s="310"/>
+      <c r="T28" s="311"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
-      <c r="B29" s="229"/>
-      <c r="C29" s="229"/>
-      <c r="D29" s="229"/>
+      <c r="B29" s="298"/>
+      <c r="C29" s="298"/>
+      <c r="D29" s="298"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="16" t="s">
@@ -47112,73 +46862,73 @@
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="17"/>
-      <c r="B31" s="180" t="s">
+      <c r="B31" s="249" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="180"/>
+      <c r="C31" s="249"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="18"/>
-      <c r="B32" s="180" t="s">
+      <c r="B32" s="249" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="180"/>
+      <c r="C32" s="249"/>
     </row>
     <row r="33" spans="1:4" ht="18" customHeight="1">
       <c r="A33" s="19"/>
-      <c r="B33" s="180" t="s">
+      <c r="B33" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="180"/>
+      <c r="C33" s="249"/>
     </row>
     <row r="34" spans="1:4" ht="18" customHeight="1">
       <c r="A34" s="20"/>
-      <c r="B34" s="180" t="s">
+      <c r="B34" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="180"/>
+      <c r="C34" s="249"/>
     </row>
     <row r="35" spans="1:4" ht="18" customHeight="1">
       <c r="A35" s="75"/>
-      <c r="B35" s="180" t="s">
+      <c r="B35" s="249" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="180"/>
+      <c r="C35" s="249"/>
     </row>
     <row r="36" spans="1:4" ht="18" customHeight="1">
-      <c r="B36" s="229"/>
-      <c r="C36" s="229"/>
-      <c r="D36" s="229"/>
+      <c r="B36" s="298"/>
+      <c r="C36" s="298"/>
+      <c r="D36" s="298"/>
     </row>
     <row r="37" spans="1:4" ht="18" customHeight="1">
-      <c r="B37" s="229"/>
-      <c r="C37" s="229"/>
-      <c r="D37" s="229"/>
+      <c r="B37" s="298"/>
+      <c r="C37" s="298"/>
+      <c r="D37" s="298"/>
     </row>
     <row r="38" spans="1:4" ht="18" customHeight="1">
-      <c r="B38" s="229"/>
-      <c r="C38" s="229"/>
-      <c r="D38" s="229"/>
+      <c r="B38" s="298"/>
+      <c r="C38" s="298"/>
+      <c r="D38" s="298"/>
     </row>
     <row r="39" spans="1:4" ht="18" customHeight="1">
-      <c r="B39" s="229"/>
-      <c r="C39" s="229"/>
-      <c r="D39" s="229"/>
+      <c r="B39" s="298"/>
+      <c r="C39" s="298"/>
+      <c r="D39" s="298"/>
     </row>
     <row r="40" spans="1:4" ht="18" customHeight="1">
-      <c r="B40" s="229"/>
-      <c r="C40" s="229"/>
-      <c r="D40" s="229"/>
+      <c r="B40" s="298"/>
+      <c r="C40" s="298"/>
+      <c r="D40" s="298"/>
     </row>
     <row r="41" spans="1:4" ht="18" customHeight="1">
-      <c r="B41" s="229"/>
-      <c r="C41" s="229"/>
-      <c r="D41" s="229"/>
+      <c r="B41" s="298"/>
+      <c r="C41" s="298"/>
+      <c r="D41" s="298"/>
     </row>
     <row r="42" spans="1:4" ht="18" customHeight="1">
-      <c r="B42" s="229"/>
-      <c r="C42" s="229"/>
-      <c r="D42" s="229"/>
+      <c r="B42" s="298"/>
+      <c r="C42" s="298"/>
+      <c r="D42" s="298"/>
     </row>
   </sheetData>
   <mergeCells count="125">
@@ -47318,166 +47068,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28374B32-943B-4A9E-8CA0-96B6F058FC49}">
   <dimension ref="A2:Z52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.453125" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="15" max="17" width="9.1796875" style="164" customWidth="1"/>
-    <col min="18" max="20" width="5.453125" style="368"/>
+    <col min="15" max="17" width="9.1796875" style="163" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="18" customHeight="1">
       <c r="B2" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="301" t="s">
+      <c r="G2" s="370" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="302"/>
-      <c r="I2" s="291" t="s">
+      <c r="H2" s="371"/>
+      <c r="I2" s="360" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="246"/>
-      <c r="L2" s="373"/>
-      <c r="M2" s="369"/>
-      <c r="N2" s="373"/>
-      <c r="O2" s="371"/>
-      <c r="P2" s="371"/>
-      <c r="Q2" s="371"/>
-      <c r="R2" s="369"/>
-      <c r="S2" s="374"/>
-      <c r="T2" s="369"/>
-      <c r="U2" s="369"/>
-      <c r="V2" s="373"/>
-      <c r="W2" s="369"/>
-      <c r="X2" s="369"/>
-      <c r="Y2" s="369"/>
+      <c r="J2" s="315"/>
+      <c r="L2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="S2" s="183"/>
+      <c r="V2" s="16"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
       <c r="B3" s="33"/>
-      <c r="G3" s="301" t="s">
+      <c r="G3" s="370" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="302"/>
-      <c r="I3" s="291" t="s">
+      <c r="H3" s="371"/>
+      <c r="I3" s="360" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="246"/>
-      <c r="L3" s="370"/>
-      <c r="M3" s="371"/>
-      <c r="N3" s="370"/>
-      <c r="O3" s="371"/>
-      <c r="P3" s="371"/>
-      <c r="Q3" s="371"/>
-      <c r="R3" s="371"/>
-      <c r="S3" s="372"/>
-      <c r="T3" s="371"/>
-      <c r="U3" s="369"/>
-      <c r="V3" s="370"/>
-      <c r="W3" s="371"/>
-      <c r="X3" s="371"/>
-      <c r="Y3" s="371"/>
+      <c r="J3" s="315"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="181"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="163"/>
+      <c r="V3" s="181"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
       <c r="B4" s="33"/>
-      <c r="G4" s="301" t="s">
+      <c r="G4" s="370" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="302"/>
-      <c r="I4" s="325">
+      <c r="H4" s="371"/>
+      <c r="I4" s="394">
         <v>45460</v>
       </c>
-      <c r="J4" s="246"/>
-      <c r="L4" s="370"/>
-      <c r="M4" s="371"/>
-      <c r="N4" s="370"/>
-      <c r="O4" s="371"/>
-      <c r="P4" s="371"/>
-      <c r="Q4" s="371"/>
-      <c r="R4" s="371"/>
-      <c r="S4" s="372"/>
-      <c r="T4" s="371"/>
-      <c r="U4" s="369"/>
-      <c r="V4" s="370"/>
-      <c r="W4" s="371"/>
-      <c r="X4" s="371"/>
-      <c r="Y4" s="371"/>
+      <c r="J4" s="315"/>
+      <c r="L4" s="181"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="181"/>
+      <c r="R4" s="163"/>
+      <c r="S4" s="182"/>
+      <c r="T4" s="163"/>
+      <c r="V4" s="181"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
       <c r="B5" s="33"/>
-      <c r="G5" s="301" t="s">
+      <c r="G5" s="370" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="302"/>
-      <c r="I5" s="291"/>
-      <c r="J5" s="246"/>
-      <c r="L5" s="370"/>
-      <c r="M5" s="371"/>
-      <c r="N5" s="370"/>
-      <c r="O5" s="371"/>
-      <c r="P5" s="371"/>
-      <c r="Q5" s="371"/>
-      <c r="R5" s="371"/>
-      <c r="S5" s="372"/>
-      <c r="T5" s="371"/>
-      <c r="U5" s="369"/>
-      <c r="V5" s="370"/>
-      <c r="W5" s="371"/>
-      <c r="X5" s="371"/>
-      <c r="Y5" s="371"/>
+      <c r="H5" s="371"/>
+      <c r="I5" s="360"/>
+      <c r="J5" s="315"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="181"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="163"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="163"/>
+      <c r="X5" s="163"/>
+      <c r="Y5" s="163"/>
     </row>
     <row r="6" spans="1:26" ht="12" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="D7" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="303" t="s">
+      <c r="E7" s="372" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="266"/>
-      <c r="G7" s="233" t="s">
+      <c r="F7" s="335"/>
+      <c r="G7" s="302" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="304"/>
-      <c r="I7" s="303" t="s">
+      <c r="H7" s="373"/>
+      <c r="I7" s="372" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="266"/>
-      <c r="K7" s="233" t="s">
+      <c r="J7" s="335"/>
+      <c r="K7" s="302" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="304"/>
-      <c r="M7" s="303" t="s">
+      <c r="L7" s="373"/>
+      <c r="M7" s="372" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="266"/>
+      <c r="N7" s="335"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="D8" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="298">
+      <c r="E8" s="367">
         <v>17</v>
       </c>
-      <c r="F8" s="247"/>
-      <c r="G8" s="298">
+      <c r="F8" s="316"/>
+      <c r="G8" s="367">
         <v>18</v>
       </c>
-      <c r="H8" s="247"/>
-      <c r="I8" s="298">
+      <c r="H8" s="316"/>
+      <c r="I8" s="367">
         <v>19</v>
       </c>
-      <c r="J8" s="247"/>
-      <c r="K8" s="298">
+      <c r="J8" s="316"/>
+      <c r="K8" s="367">
         <v>20</v>
       </c>
-      <c r="L8" s="247"/>
-      <c r="M8" s="298">
+      <c r="L8" s="316"/>
+      <c r="M8" s="367">
         <v>21</v>
       </c>
-      <c r="N8" s="247"/>
+      <c r="N8" s="316"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="D9" s="78" t="s">
@@ -47513,51 +47240,51 @@
       <c r="N9" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="173" t="s">
+      <c r="O9" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="173" t="s">
+      <c r="P9" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="416" t="s">
+      <c r="Q9" s="215" t="s">
         <v>65</v>
       </c>
-      <c r="S9" s="377"/>
+      <c r="S9" s="16"/>
     </row>
     <row r="10" spans="1:26" ht="18" customHeight="1">
-      <c r="A10" s="283" t="s">
+      <c r="A10" s="352" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="273" t="s">
+      <c r="B10" s="342" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="286"/>
-      <c r="D10" s="287"/>
+      <c r="C10" s="355"/>
+      <c r="D10" s="356"/>
       <c r="E10" s="80"/>
-      <c r="F10" s="420"/>
-      <c r="G10" s="421"/>
-      <c r="H10" s="422"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="220"/>
+      <c r="H10" s="221"/>
       <c r="I10" s="93"/>
       <c r="J10" s="43"/>
       <c r="K10" s="45"/>
       <c r="L10" s="55"/>
       <c r="M10" s="93"/>
       <c r="N10" s="55"/>
-      <c r="O10" s="404" t="s">
+      <c r="O10" s="203" t="s">
         <v>80</v>
       </c>
-      <c r="P10" s="404" t="s">
+      <c r="P10" s="203" t="s">
         <v>79</v>
       </c>
-      <c r="Q10" s="407"/>
+      <c r="Q10" s="206"/>
     </row>
     <row r="11" spans="1:26" ht="18" customHeight="1">
-      <c r="A11" s="284"/>
-      <c r="B11" s="248" t="s">
+      <c r="A11" s="353"/>
+      <c r="B11" s="317" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="249"/>
-      <c r="D11" s="250"/>
+      <c r="C11" s="318"/>
+      <c r="D11" s="319"/>
       <c r="E11" s="82"/>
       <c r="F11" s="38"/>
       <c r="G11" s="46"/>
@@ -47568,19 +47295,19 @@
       <c r="L11" s="56"/>
       <c r="M11" s="37"/>
       <c r="N11" s="56"/>
-      <c r="O11" s="405" t="s">
+      <c r="O11" s="204" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="405"/>
-      <c r="Q11" s="408"/>
+      <c r="P11" s="204"/>
+      <c r="Q11" s="207"/>
     </row>
     <row r="12" spans="1:26" ht="18" customHeight="1">
-      <c r="A12" s="284"/>
-      <c r="B12" s="248" t="s">
+      <c r="A12" s="353"/>
+      <c r="B12" s="317" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="249"/>
-      <c r="D12" s="250"/>
+      <c r="C12" s="318"/>
+      <c r="D12" s="319"/>
       <c r="E12" s="82"/>
       <c r="F12" s="38"/>
       <c r="G12" s="46"/>
@@ -47591,19 +47318,19 @@
       <c r="L12" s="56"/>
       <c r="M12" s="37"/>
       <c r="N12" s="56"/>
-      <c r="O12" s="405" t="s">
+      <c r="O12" s="204" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="405"/>
-      <c r="Q12" s="408"/>
+      <c r="P12" s="204"/>
+      <c r="Q12" s="207"/>
     </row>
     <row r="13" spans="1:26" ht="18" customHeight="1">
-      <c r="A13" s="284"/>
-      <c r="B13" s="248" t="s">
+      <c r="A13" s="353"/>
+      <c r="B13" s="317" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="249"/>
-      <c r="D13" s="250"/>
+      <c r="C13" s="318"/>
+      <c r="D13" s="319"/>
       <c r="E13" s="82"/>
       <c r="F13" s="38"/>
       <c r="G13" s="46"/>
@@ -47614,21 +47341,21 @@
       <c r="L13" s="56"/>
       <c r="M13" s="37"/>
       <c r="N13" s="56"/>
-      <c r="O13" s="405" t="s">
+      <c r="O13" s="204" t="s">
         <v>92</v>
       </c>
-      <c r="P13" s="405" t="s">
+      <c r="P13" s="204" t="s">
         <v>83</v>
       </c>
-      <c r="Q13" s="408"/>
+      <c r="Q13" s="207"/>
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A14" s="285"/>
-      <c r="B14" s="292" t="s">
+      <c r="A14" s="354"/>
+      <c r="B14" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="293"/>
-      <c r="D14" s="294"/>
+      <c r="C14" s="362"/>
+      <c r="D14" s="363"/>
       <c r="E14" s="85"/>
       <c r="F14" s="51"/>
       <c r="G14" s="49"/>
@@ -47639,21 +47366,21 @@
       <c r="L14" s="57"/>
       <c r="M14" s="94"/>
       <c r="N14" s="57"/>
-      <c r="O14" s="410" t="s">
+      <c r="O14" s="209" t="s">
         <v>79</v>
       </c>
-      <c r="P14" s="406"/>
-      <c r="Q14" s="409"/>
+      <c r="P14" s="205"/>
+      <c r="Q14" s="208"/>
     </row>
     <row r="15" spans="1:26" ht="18" customHeight="1">
-      <c r="A15" s="337" t="s">
+      <c r="A15" s="398" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="341" t="s">
+      <c r="B15" s="408" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="342"/>
-      <c r="D15" s="343"/>
+      <c r="C15" s="409"/>
+      <c r="D15" s="410"/>
       <c r="E15" s="69"/>
       <c r="F15" s="53"/>
       <c r="G15" s="52"/>
@@ -47664,26 +47391,26 @@
       <c r="L15" s="58"/>
       <c r="M15" s="35"/>
       <c r="N15" s="58"/>
-      <c r="O15" s="404" t="s">
+      <c r="O15" s="203" t="s">
         <v>79</v>
       </c>
       <c r="P15" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="Q15" s="404"/>
-      <c r="V15" s="351"/>
-      <c r="W15" s="350"/>
-      <c r="X15" s="350"/>
-      <c r="Y15" s="350"/>
-      <c r="Z15" s="350"/>
+      <c r="Q15" s="203"/>
+      <c r="V15" s="180"/>
+      <c r="W15" s="175"/>
+      <c r="X15" s="175"/>
+      <c r="Y15" s="175"/>
+      <c r="Z15" s="175"/>
     </row>
     <row r="16" spans="1:26" ht="18" customHeight="1">
-      <c r="A16" s="339"/>
-      <c r="B16" s="344" t="s">
+      <c r="A16" s="399"/>
+      <c r="B16" s="401" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="338"/>
-      <c r="D16" s="345"/>
+      <c r="C16" s="402"/>
+      <c r="D16" s="403"/>
       <c r="E16" s="63"/>
       <c r="F16" s="43"/>
       <c r="G16" s="45"/>
@@ -47694,26 +47421,26 @@
       <c r="L16" s="55"/>
       <c r="M16" s="93"/>
       <c r="N16" s="55"/>
-      <c r="O16" s="405" t="s">
+      <c r="O16" s="204" t="s">
         <v>83</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" s="405"/>
-      <c r="V16" s="348"/>
-      <c r="W16" s="349"/>
-      <c r="X16" s="349"/>
-      <c r="Y16" s="349"/>
-      <c r="Z16" s="349"/>
+      <c r="Q16" s="204"/>
+      <c r="V16" s="178"/>
+      <c r="W16" s="179"/>
+      <c r="X16" s="179"/>
+      <c r="Y16" s="179"/>
+      <c r="Z16" s="179"/>
     </row>
     <row r="17" spans="1:26" ht="18" customHeight="1">
-      <c r="A17" s="340"/>
-      <c r="B17" s="346" t="s">
+      <c r="A17" s="400"/>
+      <c r="B17" s="411" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="268"/>
-      <c r="D17" s="316"/>
+      <c r="C17" s="337"/>
+      <c r="D17" s="385"/>
       <c r="E17" s="65"/>
       <c r="F17" s="38"/>
       <c r="G17" s="46"/>
@@ -47724,617 +47451,600 @@
       <c r="L17" s="56"/>
       <c r="M17" s="37"/>
       <c r="N17" s="56"/>
-      <c r="O17" s="405" t="s">
+      <c r="O17" s="204" t="s">
         <v>85</v>
       </c>
       <c r="P17" s="15"/>
-      <c r="Q17" s="405"/>
-      <c r="V17" s="351"/>
-      <c r="W17" s="350"/>
-      <c r="X17" s="350"/>
-      <c r="Y17" s="350"/>
-      <c r="Z17" s="350"/>
+      <c r="Q17" s="204"/>
+      <c r="V17" s="180"/>
+      <c r="W17" s="175"/>
+      <c r="X17" s="175"/>
+      <c r="Y17" s="175"/>
+      <c r="Z17" s="175"/>
     </row>
     <row r="18" spans="1:26" ht="18" customHeight="1">
-      <c r="A18" s="340"/>
-      <c r="B18" s="365" t="s">
+      <c r="A18" s="400"/>
+      <c r="B18" s="404" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="366"/>
-      <c r="D18" s="367"/>
+      <c r="C18" s="405"/>
+      <c r="D18" s="406"/>
       <c r="E18" s="65"/>
-      <c r="F18" s="423"/>
-      <c r="G18" s="424"/>
-      <c r="H18" s="425"/>
-      <c r="I18" s="426"/>
-      <c r="J18" s="423"/>
+      <c r="F18" s="222"/>
+      <c r="G18" s="223"/>
+      <c r="H18" s="224"/>
+      <c r="I18" s="225"/>
+      <c r="J18" s="222"/>
       <c r="K18" s="46"/>
       <c r="L18" s="56"/>
       <c r="M18" s="37"/>
       <c r="N18" s="56"/>
-      <c r="O18" s="405" t="s">
+      <c r="O18" s="204" t="s">
         <v>85</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="405"/>
-      <c r="V18" s="348"/>
-      <c r="W18" s="349"/>
-      <c r="X18" s="349"/>
-      <c r="Y18" s="349"/>
-      <c r="Z18" s="349"/>
+      <c r="Q18" s="204"/>
+      <c r="V18" s="178"/>
+      <c r="W18" s="179"/>
+      <c r="X18" s="179"/>
+      <c r="Y18" s="179"/>
+      <c r="Z18" s="179"/>
     </row>
     <row r="19" spans="1:26" ht="18" customHeight="1">
-      <c r="A19" s="340"/>
-      <c r="B19" s="365" t="s">
+      <c r="A19" s="400"/>
+      <c r="B19" s="404" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="366"/>
-      <c r="D19" s="367"/>
+      <c r="C19" s="405"/>
+      <c r="D19" s="406"/>
       <c r="E19" s="65"/>
-      <c r="F19" s="423"/>
-      <c r="G19" s="424"/>
-      <c r="H19" s="425"/>
-      <c r="I19" s="426"/>
-      <c r="J19" s="423"/>
+      <c r="F19" s="222"/>
+      <c r="G19" s="223"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="225"/>
+      <c r="J19" s="222"/>
       <c r="K19" s="46"/>
       <c r="L19" s="56"/>
       <c r="M19" s="37"/>
       <c r="N19" s="56"/>
-      <c r="O19" s="405" t="s">
+      <c r="O19" s="204" t="s">
         <v>89</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="Q19" s="405"/>
-      <c r="V19" s="348"/>
-      <c r="W19" s="349"/>
-      <c r="X19" s="349"/>
-      <c r="Y19" s="349"/>
-      <c r="Z19" s="349"/>
+      <c r="Q19" s="204"/>
+      <c r="V19" s="178"/>
+      <c r="W19" s="179"/>
+      <c r="X19" s="179"/>
+      <c r="Y19" s="179"/>
+      <c r="Z19" s="179"/>
     </row>
     <row r="20" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="340"/>
-      <c r="B20" s="347" t="s">
+      <c r="A20" s="400"/>
+      <c r="B20" s="407" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="254"/>
-      <c r="D20" s="313"/>
+      <c r="C20" s="323"/>
+      <c r="D20" s="382"/>
       <c r="E20" s="65"/>
       <c r="F20" s="38"/>
       <c r="G20" s="46"/>
-      <c r="H20" s="356"/>
-      <c r="I20" s="426"/>
-      <c r="J20" s="423"/>
-      <c r="K20" s="424"/>
-      <c r="L20" s="425"/>
-      <c r="M20" s="436"/>
-      <c r="N20" s="435"/>
-      <c r="O20" s="406" t="s">
+      <c r="H20" s="56"/>
+      <c r="I20" s="225"/>
+      <c r="J20" s="222"/>
+      <c r="K20" s="223"/>
+      <c r="L20" s="224"/>
+      <c r="M20" s="235"/>
+      <c r="N20" s="234"/>
+      <c r="O20" s="205" t="s">
         <v>85</v>
       </c>
       <c r="P20" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="Q20" s="406"/>
-      <c r="V20" s="351"/>
-      <c r="W20" s="350"/>
-      <c r="X20" s="350"/>
-      <c r="Y20" s="350"/>
-      <c r="Z20" s="350"/>
+      <c r="Q20" s="205"/>
+      <c r="V20" s="180"/>
+      <c r="W20" s="175"/>
+      <c r="X20" s="175"/>
+      <c r="Y20" s="175"/>
+      <c r="Z20" s="175"/>
     </row>
     <row r="21" spans="1:26" ht="18" customHeight="1">
-      <c r="A21" s="270" t="s">
+      <c r="A21" s="339" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="273" t="s">
+      <c r="B21" s="342" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="274"/>
-      <c r="D21" s="275"/>
+      <c r="C21" s="343"/>
+      <c r="D21" s="344"/>
       <c r="E21" s="87"/>
-      <c r="F21" s="427"/>
-      <c r="G21" s="428"/>
-      <c r="H21" s="429"/>
-      <c r="I21" s="430"/>
-      <c r="J21" s="427"/>
-      <c r="K21" s="428"/>
-      <c r="L21" s="429"/>
-      <c r="M21" s="359"/>
-      <c r="N21" s="354"/>
-      <c r="O21" s="418" t="s">
+      <c r="F21" s="226"/>
+      <c r="G21" s="227"/>
+      <c r="H21" s="228"/>
+      <c r="I21" s="229"/>
+      <c r="J21" s="226"/>
+      <c r="K21" s="227"/>
+      <c r="L21" s="228"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="P21" s="411" t="s">
+      <c r="P21" s="210" t="s">
         <v>78</v>
       </c>
-      <c r="Q21" s="419"/>
-      <c r="U21" s="368"/>
-      <c r="V21" s="351"/>
-      <c r="W21" s="350"/>
-      <c r="X21" s="350"/>
-      <c r="Y21" s="350"/>
-      <c r="Z21" s="350"/>
+      <c r="Q21" s="218"/>
+      <c r="V21" s="180"/>
+      <c r="W21" s="175"/>
+      <c r="X21" s="175"/>
+      <c r="Y21" s="175"/>
+      <c r="Z21" s="175"/>
     </row>
     <row r="22" spans="1:26" ht="18" customHeight="1">
-      <c r="A22" s="271"/>
-      <c r="B22" s="243" t="s">
+      <c r="A22" s="340"/>
+      <c r="B22" s="312" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="276"/>
-      <c r="D22" s="277"/>
+      <c r="C22" s="345"/>
+      <c r="D22" s="346"/>
       <c r="E22" s="82"/>
-      <c r="F22" s="362"/>
-      <c r="G22" s="355"/>
-      <c r="H22" s="356"/>
-      <c r="I22" s="361"/>
-      <c r="J22" s="362"/>
-      <c r="K22" s="355"/>
-      <c r="L22" s="356"/>
-      <c r="M22" s="361"/>
-      <c r="N22" s="356"/>
-      <c r="O22" s="405" t="s">
+      <c r="F22" s="38"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="204" t="s">
         <v>114</v>
       </c>
-      <c r="P22" s="412"/>
-      <c r="Q22" s="413"/>
-      <c r="U22" s="368"/>
-      <c r="V22" s="351"/>
-      <c r="W22" s="351"/>
-      <c r="X22" s="351"/>
-      <c r="Y22" s="351"/>
-      <c r="Z22" s="351"/>
+      <c r="P22" s="211"/>
+      <c r="Q22" s="212"/>
+      <c r="V22" s="180"/>
+      <c r="W22" s="180"/>
+      <c r="X22" s="180"/>
+      <c r="Y22" s="180"/>
+      <c r="Z22" s="180"/>
     </row>
     <row r="23" spans="1:26" ht="18" customHeight="1">
-      <c r="A23" s="271"/>
-      <c r="B23" s="248" t="s">
+      <c r="A23" s="340"/>
+      <c r="B23" s="317" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="251"/>
-      <c r="D23" s="252"/>
+      <c r="C23" s="320"/>
+      <c r="D23" s="321"/>
       <c r="E23" s="82"/>
-      <c r="F23" s="423"/>
-      <c r="G23" s="424"/>
-      <c r="H23" s="425"/>
-      <c r="I23" s="426"/>
-      <c r="J23" s="423"/>
-      <c r="K23" s="424"/>
-      <c r="L23" s="425"/>
-      <c r="M23" s="426"/>
-      <c r="N23" s="425"/>
-      <c r="O23" s="405" t="s">
+      <c r="F23" s="222"/>
+      <c r="G23" s="223"/>
+      <c r="H23" s="224"/>
+      <c r="I23" s="225"/>
+      <c r="J23" s="222"/>
+      <c r="K23" s="223"/>
+      <c r="L23" s="224"/>
+      <c r="M23" s="225"/>
+      <c r="N23" s="224"/>
+      <c r="O23" s="204" t="s">
         <v>85</v>
       </c>
-      <c r="P23" s="412" t="s">
+      <c r="P23" s="211" t="s">
         <v>78</v>
       </c>
-      <c r="Q23" s="413"/>
-      <c r="U23" s="368"/>
-      <c r="V23" s="351"/>
-      <c r="W23" s="351"/>
-      <c r="X23" s="351"/>
-      <c r="Y23" s="351"/>
-      <c r="Z23" s="351"/>
+      <c r="Q23" s="212"/>
+      <c r="V23" s="180"/>
+      <c r="W23" s="180"/>
+      <c r="X23" s="180"/>
+      <c r="Y23" s="180"/>
+      <c r="Z23" s="180"/>
     </row>
     <row r="24" spans="1:26" ht="18" customHeight="1">
-      <c r="A24" s="271"/>
-      <c r="B24" s="248" t="s">
+      <c r="A24" s="340"/>
+      <c r="B24" s="317" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="251"/>
-      <c r="D24" s="252"/>
+      <c r="C24" s="320"/>
+      <c r="D24" s="321"/>
       <c r="E24" s="82"/>
-      <c r="F24" s="423"/>
-      <c r="G24" s="424"/>
-      <c r="H24" s="425"/>
-      <c r="I24" s="426"/>
-      <c r="J24" s="423"/>
-      <c r="K24" s="424"/>
-      <c r="L24" s="425"/>
-      <c r="M24" s="426"/>
-      <c r="N24" s="425"/>
-      <c r="O24" s="405" t="s">
+      <c r="F24" s="222"/>
+      <c r="G24" s="223"/>
+      <c r="H24" s="224"/>
+      <c r="I24" s="225"/>
+      <c r="J24" s="222"/>
+      <c r="K24" s="223"/>
+      <c r="L24" s="224"/>
+      <c r="M24" s="225"/>
+      <c r="N24" s="224"/>
+      <c r="O24" s="204" t="s">
         <v>85</v>
       </c>
-      <c r="P24" s="412" t="s">
+      <c r="P24" s="211" t="s">
         <v>71</v>
       </c>
-      <c r="Q24" s="413"/>
-      <c r="U24" s="368"/>
-      <c r="V24" s="351"/>
-      <c r="W24" s="351"/>
-      <c r="X24" s="351"/>
-      <c r="Y24" s="351"/>
-      <c r="Z24" s="351"/>
+      <c r="Q24" s="212"/>
+      <c r="V24" s="180"/>
+      <c r="W24" s="180"/>
+      <c r="X24" s="180"/>
+      <c r="Y24" s="180"/>
+      <c r="Z24" s="180"/>
     </row>
     <row r="25" spans="1:26" ht="18" customHeight="1">
-      <c r="A25" s="271"/>
-      <c r="B25" s="248" t="s">
+      <c r="A25" s="340"/>
+      <c r="B25" s="317" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="251"/>
-      <c r="D25" s="252"/>
+      <c r="C25" s="320"/>
+      <c r="D25" s="321"/>
       <c r="E25" s="82"/>
-      <c r="F25" s="423"/>
-      <c r="G25" s="424"/>
-      <c r="H25" s="425"/>
-      <c r="I25" s="426"/>
-      <c r="J25" s="423"/>
-      <c r="K25" s="424"/>
-      <c r="L25" s="425"/>
-      <c r="M25" s="426"/>
-      <c r="N25" s="425"/>
-      <c r="O25" s="405" t="s">
+      <c r="F25" s="222"/>
+      <c r="G25" s="223"/>
+      <c r="H25" s="224"/>
+      <c r="I25" s="225"/>
+      <c r="J25" s="222"/>
+      <c r="K25" s="223"/>
+      <c r="L25" s="224"/>
+      <c r="M25" s="225"/>
+      <c r="N25" s="224"/>
+      <c r="O25" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="P25" s="412"/>
-      <c r="Q25" s="413"/>
-      <c r="U25" s="368"/>
-      <c r="V25" s="348"/>
-      <c r="W25" s="348"/>
-      <c r="X25" s="348"/>
-      <c r="Y25" s="348"/>
-      <c r="Z25" s="348"/>
+      <c r="P25" s="211"/>
+      <c r="Q25" s="212"/>
+      <c r="V25" s="178"/>
+      <c r="W25" s="178"/>
+      <c r="X25" s="178"/>
+      <c r="Y25" s="178"/>
+      <c r="Z25" s="178"/>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1">
-      <c r="A26" s="271"/>
-      <c r="B26" s="248" t="s">
+      <c r="A26" s="340"/>
+      <c r="B26" s="317" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="251"/>
-      <c r="D26" s="252"/>
+      <c r="C26" s="320"/>
+      <c r="D26" s="321"/>
       <c r="E26" s="82"/>
-      <c r="F26" s="423"/>
-      <c r="G26" s="424"/>
-      <c r="H26" s="425"/>
-      <c r="I26" s="426"/>
-      <c r="J26" s="423"/>
-      <c r="K26" s="424"/>
-      <c r="L26" s="425"/>
-      <c r="M26" s="426"/>
-      <c r="N26" s="425"/>
-      <c r="O26" s="405" t="s">
+      <c r="F26" s="222"/>
+      <c r="G26" s="223"/>
+      <c r="H26" s="224"/>
+      <c r="I26" s="225"/>
+      <c r="J26" s="222"/>
+      <c r="K26" s="223"/>
+      <c r="L26" s="224"/>
+      <c r="M26" s="225"/>
+      <c r="N26" s="224"/>
+      <c r="O26" s="204" t="s">
         <v>89</v>
       </c>
-      <c r="P26" s="412"/>
-      <c r="Q26" s="413"/>
-      <c r="U26" s="368"/>
-      <c r="V26" s="351"/>
-      <c r="W26" s="351"/>
-      <c r="X26" s="351"/>
-      <c r="Y26" s="351"/>
-      <c r="Z26" s="351"/>
+      <c r="P26" s="211"/>
+      <c r="Q26" s="212"/>
+      <c r="V26" s="180"/>
+      <c r="W26" s="180"/>
+      <c r="X26" s="180"/>
+      <c r="Y26" s="180"/>
+      <c r="Z26" s="180"/>
     </row>
     <row r="27" spans="1:26" ht="18" customHeight="1">
-      <c r="A27" s="271"/>
-      <c r="B27" s="248" t="s">
+      <c r="A27" s="340"/>
+      <c r="B27" s="317" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="251"/>
-      <c r="D27" s="252"/>
+      <c r="C27" s="320"/>
+      <c r="D27" s="321"/>
       <c r="E27" s="82"/>
-      <c r="F27" s="423"/>
-      <c r="G27" s="424"/>
-      <c r="H27" s="425"/>
-      <c r="I27" s="426"/>
-      <c r="J27" s="423"/>
-      <c r="K27" s="424"/>
-      <c r="L27" s="425"/>
-      <c r="M27" s="426"/>
-      <c r="N27" s="425"/>
-      <c r="O27" s="405" t="s">
+      <c r="F27" s="222"/>
+      <c r="G27" s="223"/>
+      <c r="H27" s="224"/>
+      <c r="I27" s="225"/>
+      <c r="J27" s="222"/>
+      <c r="K27" s="223"/>
+      <c r="L27" s="224"/>
+      <c r="M27" s="225"/>
+      <c r="N27" s="224"/>
+      <c r="O27" s="204" t="s">
         <v>92</v>
       </c>
-      <c r="P27" s="412"/>
-      <c r="Q27" s="413"/>
-      <c r="U27" s="368"/>
-      <c r="V27" s="351"/>
-      <c r="W27" s="350"/>
-      <c r="X27" s="350"/>
-      <c r="Y27" s="350"/>
-      <c r="Z27" s="350"/>
+      <c r="P27" s="211"/>
+      <c r="Q27" s="212"/>
+      <c r="V27" s="180"/>
+      <c r="W27" s="175"/>
+      <c r="X27" s="175"/>
+      <c r="Y27" s="175"/>
+      <c r="Z27" s="175"/>
     </row>
     <row r="28" spans="1:26" ht="18" customHeight="1">
-      <c r="A28" s="271"/>
-      <c r="B28" s="248" t="s">
+      <c r="A28" s="340"/>
+      <c r="B28" s="317" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="251"/>
-      <c r="D28" s="252"/>
+      <c r="C28" s="320"/>
+      <c r="D28" s="321"/>
       <c r="E28" s="82"/>
-      <c r="F28" s="423"/>
-      <c r="G28" s="424"/>
-      <c r="H28" s="425"/>
-      <c r="I28" s="426"/>
-      <c r="J28" s="423"/>
-      <c r="K28" s="424"/>
-      <c r="L28" s="425"/>
-      <c r="M28" s="426"/>
-      <c r="N28" s="425"/>
-      <c r="O28" s="405" t="s">
+      <c r="F28" s="222"/>
+      <c r="G28" s="223"/>
+      <c r="H28" s="224"/>
+      <c r="I28" s="225"/>
+      <c r="J28" s="222"/>
+      <c r="K28" s="223"/>
+      <c r="L28" s="224"/>
+      <c r="M28" s="225"/>
+      <c r="N28" s="224"/>
+      <c r="O28" s="204" t="s">
         <v>92</v>
       </c>
-      <c r="P28" s="412"/>
-      <c r="Q28" s="413"/>
-      <c r="U28" s="368"/>
-      <c r="V28" s="351"/>
-      <c r="W28" s="350"/>
-      <c r="X28" s="350"/>
-      <c r="Y28" s="350"/>
-      <c r="Z28" s="350"/>
+      <c r="P28" s="211"/>
+      <c r="Q28" s="212"/>
+      <c r="V28" s="180"/>
+      <c r="W28" s="175"/>
+      <c r="X28" s="175"/>
+      <c r="Y28" s="175"/>
+      <c r="Z28" s="175"/>
     </row>
     <row r="29" spans="1:26" ht="18" customHeight="1">
-      <c r="A29" s="271"/>
-      <c r="B29" s="248" t="s">
+      <c r="A29" s="340"/>
+      <c r="B29" s="317" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="249"/>
-      <c r="D29" s="250"/>
+      <c r="C29" s="318"/>
+      <c r="D29" s="319"/>
       <c r="E29" s="82"/>
-      <c r="F29" s="423"/>
-      <c r="G29" s="424"/>
-      <c r="H29" s="425"/>
-      <c r="I29" s="426"/>
-      <c r="J29" s="423"/>
-      <c r="K29" s="424"/>
-      <c r="L29" s="425"/>
-      <c r="M29" s="426"/>
-      <c r="N29" s="425"/>
-      <c r="O29" s="405" t="s">
+      <c r="F29" s="222"/>
+      <c r="G29" s="223"/>
+      <c r="H29" s="224"/>
+      <c r="I29" s="225"/>
+      <c r="J29" s="222"/>
+      <c r="K29" s="223"/>
+      <c r="L29" s="224"/>
+      <c r="M29" s="225"/>
+      <c r="N29" s="224"/>
+      <c r="O29" s="204" t="s">
         <v>89</v>
       </c>
-      <c r="P29" s="412"/>
-      <c r="Q29" s="413"/>
-      <c r="U29" s="368"/>
-      <c r="V29" s="351"/>
-      <c r="W29" s="350"/>
-      <c r="X29" s="350"/>
-      <c r="Y29" s="350"/>
-      <c r="Z29" s="350"/>
+      <c r="P29" s="211"/>
+      <c r="Q29" s="212"/>
+      <c r="V29" s="180"/>
+      <c r="W29" s="175"/>
+      <c r="X29" s="175"/>
+      <c r="Y29" s="175"/>
+      <c r="Z29" s="175"/>
     </row>
     <row r="30" spans="1:26" ht="18" customHeight="1">
-      <c r="A30" s="271"/>
-      <c r="B30" s="243" t="s">
+      <c r="A30" s="340"/>
+      <c r="B30" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="244"/>
-      <c r="D30" s="245"/>
+      <c r="C30" s="313"/>
+      <c r="D30" s="314"/>
       <c r="E30" s="82"/>
-      <c r="F30" s="423"/>
-      <c r="G30" s="424"/>
-      <c r="H30" s="425"/>
-      <c r="I30" s="426"/>
-      <c r="J30" s="423"/>
-      <c r="K30" s="424"/>
-      <c r="L30" s="425"/>
-      <c r="M30" s="426"/>
-      <c r="N30" s="425"/>
-      <c r="O30" s="405" t="s">
+      <c r="F30" s="222"/>
+      <c r="G30" s="223"/>
+      <c r="H30" s="224"/>
+      <c r="I30" s="225"/>
+      <c r="J30" s="222"/>
+      <c r="K30" s="223"/>
+      <c r="L30" s="224"/>
+      <c r="M30" s="225"/>
+      <c r="N30" s="224"/>
+      <c r="O30" s="204" t="s">
         <v>89</v>
       </c>
-      <c r="P30" s="412"/>
-      <c r="Q30" s="413"/>
-      <c r="U30" s="368"/>
-      <c r="V30" s="348"/>
-      <c r="W30" s="349"/>
-      <c r="X30" s="349"/>
-      <c r="Y30" s="349"/>
-      <c r="Z30" s="349"/>
+      <c r="P30" s="211"/>
+      <c r="Q30" s="212"/>
+      <c r="V30" s="178"/>
+      <c r="W30" s="179"/>
+      <c r="X30" s="179"/>
+      <c r="Y30" s="179"/>
+      <c r="Z30" s="179"/>
     </row>
     <row r="31" spans="1:26" ht="18" customHeight="1">
-      <c r="A31" s="271"/>
-      <c r="B31" s="243" t="s">
+      <c r="A31" s="340"/>
+      <c r="B31" s="312" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="244"/>
-      <c r="D31" s="245"/>
+      <c r="C31" s="313"/>
+      <c r="D31" s="314"/>
       <c r="E31" s="82"/>
-      <c r="F31" s="423"/>
-      <c r="G31" s="424"/>
-      <c r="H31" s="425"/>
-      <c r="I31" s="426"/>
-      <c r="J31" s="423"/>
-      <c r="K31" s="424"/>
-      <c r="L31" s="425"/>
-      <c r="M31" s="426"/>
-      <c r="N31" s="425"/>
-      <c r="O31" s="405" t="s">
+      <c r="F31" s="222"/>
+      <c r="G31" s="223"/>
+      <c r="H31" s="224"/>
+      <c r="I31" s="225"/>
+      <c r="J31" s="222"/>
+      <c r="K31" s="223"/>
+      <c r="L31" s="224"/>
+      <c r="M31" s="225"/>
+      <c r="N31" s="224"/>
+      <c r="O31" s="204" t="s">
         <v>89</v>
       </c>
-      <c r="P31" s="412"/>
-      <c r="Q31" s="413"/>
-      <c r="U31" s="368"/>
-      <c r="V31" s="348"/>
-      <c r="W31" s="349"/>
-      <c r="X31" s="349"/>
-      <c r="Y31" s="349"/>
-      <c r="Z31" s="349"/>
+      <c r="P31" s="211"/>
+      <c r="Q31" s="212"/>
+      <c r="V31" s="178"/>
+      <c r="W31" s="179"/>
+      <c r="X31" s="179"/>
+      <c r="Y31" s="179"/>
+      <c r="Z31" s="179"/>
     </row>
     <row r="32" spans="1:26" ht="18" customHeight="1">
-      <c r="A32" s="271"/>
-      <c r="B32" s="331" t="s">
+      <c r="A32" s="340"/>
+      <c r="B32" s="413" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="332"/>
-      <c r="D32" s="333"/>
+      <c r="C32" s="414"/>
+      <c r="D32" s="415"/>
       <c r="E32" s="82"/>
-      <c r="F32" s="423"/>
-      <c r="G32" s="424"/>
-      <c r="H32" s="425"/>
-      <c r="I32" s="426"/>
-      <c r="J32" s="423"/>
-      <c r="K32" s="424"/>
-      <c r="L32" s="425"/>
-      <c r="M32" s="426"/>
-      <c r="N32" s="425"/>
-      <c r="O32" s="405" t="s">
+      <c r="F32" s="222"/>
+      <c r="G32" s="223"/>
+      <c r="H32" s="224"/>
+      <c r="I32" s="225"/>
+      <c r="J32" s="222"/>
+      <c r="K32" s="223"/>
+      <c r="L32" s="224"/>
+      <c r="M32" s="225"/>
+      <c r="N32" s="224"/>
+      <c r="O32" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="P32" s="412"/>
-      <c r="Q32" s="413"/>
-      <c r="U32" s="368"/>
-      <c r="V32" s="351"/>
-      <c r="W32" s="350"/>
-      <c r="X32" s="350"/>
-      <c r="Y32" s="350"/>
-      <c r="Z32" s="350"/>
+      <c r="P32" s="211"/>
+      <c r="Q32" s="212"/>
+      <c r="V32" s="180"/>
+      <c r="W32" s="175"/>
+      <c r="X32" s="175"/>
+      <c r="Y32" s="175"/>
+      <c r="Z32" s="175"/>
     </row>
     <row r="33" spans="1:26" ht="18" customHeight="1">
-      <c r="A33" s="271"/>
-      <c r="B33" s="243" t="s">
+      <c r="A33" s="340"/>
+      <c r="B33" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="244"/>
-      <c r="D33" s="245"/>
+      <c r="C33" s="313"/>
+      <c r="D33" s="314"/>
       <c r="E33" s="82"/>
-      <c r="F33" s="423"/>
-      <c r="G33" s="424"/>
-      <c r="H33" s="425"/>
-      <c r="I33" s="426"/>
-      <c r="J33" s="423"/>
-      <c r="K33" s="424"/>
-      <c r="L33" s="425"/>
-      <c r="M33" s="426"/>
-      <c r="N33" s="425"/>
-      <c r="O33" s="405" t="s">
+      <c r="F33" s="222"/>
+      <c r="G33" s="223"/>
+      <c r="H33" s="224"/>
+      <c r="I33" s="225"/>
+      <c r="J33" s="222"/>
+      <c r="K33" s="223"/>
+      <c r="L33" s="224"/>
+      <c r="M33" s="225"/>
+      <c r="N33" s="224"/>
+      <c r="O33" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="P33" s="412"/>
-      <c r="Q33" s="413"/>
-      <c r="U33" s="368"/>
-      <c r="V33" s="401"/>
-      <c r="W33" s="402"/>
-      <c r="X33" s="402"/>
-      <c r="Y33" s="402"/>
-      <c r="Z33" s="402"/>
+      <c r="P33" s="211"/>
+      <c r="Q33" s="212"/>
+      <c r="V33" s="200"/>
+      <c r="W33" s="201"/>
+      <c r="X33" s="201"/>
+      <c r="Y33" s="201"/>
+      <c r="Z33" s="201"/>
     </row>
     <row r="34" spans="1:26" ht="18" customHeight="1">
-      <c r="A34" s="271"/>
-      <c r="B34" s="243" t="s">
+      <c r="A34" s="340"/>
+      <c r="B34" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="244"/>
-      <c r="D34" s="245"/>
+      <c r="C34" s="313"/>
+      <c r="D34" s="314"/>
       <c r="E34" s="82"/>
-      <c r="F34" s="423"/>
-      <c r="G34" s="424"/>
-      <c r="H34" s="425"/>
-      <c r="I34" s="426"/>
-      <c r="J34" s="423"/>
-      <c r="K34" s="424"/>
-      <c r="L34" s="425"/>
-      <c r="M34" s="426"/>
-      <c r="N34" s="425"/>
-      <c r="O34" s="405" t="s">
+      <c r="F34" s="222"/>
+      <c r="G34" s="223"/>
+      <c r="H34" s="224"/>
+      <c r="I34" s="225"/>
+      <c r="J34" s="222"/>
+      <c r="K34" s="223"/>
+      <c r="L34" s="224"/>
+      <c r="M34" s="225"/>
+      <c r="N34" s="224"/>
+      <c r="O34" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="P34" s="412"/>
-      <c r="Q34" s="413"/>
-      <c r="U34" s="368"/>
-      <c r="V34" s="403"/>
-      <c r="W34" s="402"/>
-      <c r="X34" s="402"/>
-      <c r="Y34" s="402"/>
-      <c r="Z34" s="402"/>
+      <c r="P34" s="211"/>
+      <c r="Q34" s="212"/>
+      <c r="V34" s="202"/>
+      <c r="W34" s="201"/>
+      <c r="X34" s="201"/>
+      <c r="Y34" s="201"/>
+      <c r="Z34" s="201"/>
     </row>
     <row r="35" spans="1:26" ht="18" customHeight="1">
-      <c r="A35" s="271"/>
-      <c r="B35" s="243" t="s">
+      <c r="A35" s="340"/>
+      <c r="B35" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="244"/>
-      <c r="D35" s="245"/>
+      <c r="C35" s="313"/>
+      <c r="D35" s="314"/>
       <c r="E35" s="82"/>
-      <c r="F35" s="423"/>
-      <c r="G35" s="424"/>
-      <c r="H35" s="425"/>
-      <c r="I35" s="426"/>
-      <c r="J35" s="423"/>
-      <c r="K35" s="424"/>
-      <c r="L35" s="425"/>
-      <c r="M35" s="426"/>
-      <c r="N35" s="425"/>
-      <c r="O35" s="405" t="s">
+      <c r="F35" s="222"/>
+      <c r="G35" s="223"/>
+      <c r="H35" s="224"/>
+      <c r="I35" s="225"/>
+      <c r="J35" s="222"/>
+      <c r="K35" s="223"/>
+      <c r="L35" s="224"/>
+      <c r="M35" s="225"/>
+      <c r="N35" s="224"/>
+      <c r="O35" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="P35" s="412"/>
-      <c r="Q35" s="413"/>
-      <c r="U35" s="368"/>
-      <c r="V35" s="401"/>
-      <c r="W35" s="402"/>
-      <c r="X35" s="402"/>
-      <c r="Y35" s="402"/>
-      <c r="Z35" s="402"/>
+      <c r="P35" s="211"/>
+      <c r="Q35" s="212"/>
+      <c r="V35" s="200"/>
+      <c r="W35" s="201"/>
+      <c r="X35" s="201"/>
+      <c r="Y35" s="201"/>
+      <c r="Z35" s="201"/>
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A36" s="330"/>
-      <c r="B36" s="230" t="s">
+      <c r="A36" s="412"/>
+      <c r="B36" s="299" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="231"/>
-      <c r="D36" s="232"/>
+      <c r="C36" s="300"/>
+      <c r="D36" s="301"/>
       <c r="E36" s="85"/>
-      <c r="F36" s="431"/>
-      <c r="G36" s="432"/>
-      <c r="H36" s="433"/>
-      <c r="I36" s="434"/>
-      <c r="J36" s="431"/>
-      <c r="K36" s="432"/>
-      <c r="L36" s="433"/>
-      <c r="M36" s="434"/>
-      <c r="N36" s="433"/>
-      <c r="O36" s="405" t="s">
+      <c r="F36" s="230"/>
+      <c r="G36" s="231"/>
+      <c r="H36" s="232"/>
+      <c r="I36" s="233"/>
+      <c r="J36" s="230"/>
+      <c r="K36" s="231"/>
+      <c r="L36" s="232"/>
+      <c r="M36" s="233"/>
+      <c r="N36" s="232"/>
+      <c r="O36" s="204" t="s">
         <v>73</v>
       </c>
-      <c r="P36" s="412"/>
-      <c r="Q36" s="413"/>
-      <c r="U36" s="368"/>
-      <c r="V36" s="403"/>
-      <c r="W36" s="402"/>
-      <c r="X36" s="402"/>
-      <c r="Y36" s="402"/>
-      <c r="Z36" s="402"/>
+      <c r="P36" s="211"/>
+      <c r="Q36" s="212"/>
+      <c r="V36" s="202"/>
+      <c r="W36" s="201"/>
+      <c r="X36" s="201"/>
+      <c r="Y36" s="201"/>
+      <c r="Z36" s="201"/>
     </row>
     <row r="37" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A37" s="272"/>
-      <c r="B37" s="230" t="s">
+      <c r="A37" s="341"/>
+      <c r="B37" s="299" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="231"/>
-      <c r="D37" s="232"/>
+      <c r="C37" s="300"/>
+      <c r="D37" s="301"/>
       <c r="E37" s="89"/>
-      <c r="F37" s="364"/>
-      <c r="G37" s="357"/>
-      <c r="H37" s="358"/>
-      <c r="I37" s="363"/>
-      <c r="J37" s="364"/>
-      <c r="K37" s="357"/>
-      <c r="L37" s="358"/>
-      <c r="M37" s="363"/>
-      <c r="N37" s="358"/>
-      <c r="O37" s="410" t="s">
+      <c r="F37" s="41"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="95"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="209" t="s">
         <v>114</v>
       </c>
-      <c r="P37" s="414"/>
-      <c r="Q37" s="415"/>
-      <c r="U37" s="368"/>
-      <c r="V37" s="351"/>
-      <c r="W37" s="350"/>
-      <c r="X37" s="350"/>
-      <c r="Y37" s="350"/>
-      <c r="Z37" s="350"/>
+      <c r="P37" s="213"/>
+      <c r="Q37" s="214"/>
+      <c r="V37" s="180"/>
+      <c r="W37" s="175"/>
+      <c r="X37" s="175"/>
+      <c r="Y37" s="175"/>
+      <c r="Z37" s="175"/>
     </row>
     <row r="38" spans="1:26" ht="18" customHeight="1" thickBot="1">
       <c r="A38" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="237" t="s">
+      <c r="B38" s="306" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="238"/>
-      <c r="D38" s="239"/>
+      <c r="C38" s="307"/>
+      <c r="D38" s="308"/>
       <c r="E38" s="91"/>
       <c r="F38" s="97"/>
       <c r="G38" s="60"/>
@@ -48345,19 +48055,19 @@
       <c r="L38" s="62"/>
       <c r="M38" s="96"/>
       <c r="N38" s="62"/>
-      <c r="O38" s="375" t="s">
+      <c r="O38" s="184" t="s">
         <v>91</v>
       </c>
-      <c r="P38" s="417"/>
-      <c r="Q38" s="376"/>
+      <c r="P38" s="216"/>
+      <c r="Q38" s="185"/>
     </row>
     <row r="39" spans="1:26" ht="18" customHeight="1">
-      <c r="B39" s="229"/>
-      <c r="C39" s="229"/>
-      <c r="D39" s="229"/>
-      <c r="O39" s="352"/>
-      <c r="P39" s="352"/>
-      <c r="Q39" s="352"/>
+      <c r="B39" s="298"/>
+      <c r="C39" s="298"/>
+      <c r="D39" s="298"/>
+      <c r="O39" s="181"/>
+      <c r="P39" s="181"/>
+      <c r="Q39" s="181"/>
     </row>
     <row r="40" spans="1:26" ht="18" customHeight="1">
       <c r="A40" s="16" t="s">
@@ -48365,108 +48075,108 @@
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="O40" s="352"/>
-      <c r="P40" s="352"/>
-      <c r="Q40" s="352"/>
+      <c r="O40" s="181"/>
+      <c r="P40" s="181"/>
+      <c r="Q40" s="181"/>
     </row>
     <row r="41" spans="1:26" ht="18" customHeight="1">
       <c r="A41" s="17"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="180" t="s">
+      <c r="C41" s="249" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="180"/>
-      <c r="E41" s="180"/>
-      <c r="F41" s="180"/>
-      <c r="O41" s="352"/>
-      <c r="P41" s="352"/>
-      <c r="Q41" s="352"/>
+      <c r="D41" s="249"/>
+      <c r="E41" s="249"/>
+      <c r="F41" s="249"/>
+      <c r="O41" s="181"/>
+      <c r="P41" s="181"/>
+      <c r="Q41" s="181"/>
     </row>
     <row r="42" spans="1:26" ht="18" customHeight="1">
-      <c r="A42" s="171"/>
+      <c r="A42" s="170"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="180" t="s">
+      <c r="C42" s="249" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="180"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="180"/>
-      <c r="O42" s="352"/>
-      <c r="P42" s="352"/>
-      <c r="Q42" s="352"/>
+      <c r="D42" s="249"/>
+      <c r="E42" s="249"/>
+      <c r="F42" s="249"/>
+      <c r="O42" s="181"/>
+      <c r="P42" s="181"/>
+      <c r="Q42" s="181"/>
     </row>
     <row r="43" spans="1:26" ht="18" customHeight="1">
       <c r="A43" s="18"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="180" t="s">
+      <c r="C43" s="249" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="180"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="180"/>
-      <c r="O43" s="352"/>
-      <c r="P43" s="352"/>
-      <c r="Q43" s="352"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="249"/>
+      <c r="F43" s="249"/>
+      <c r="O43" s="181"/>
+      <c r="P43" s="181"/>
+      <c r="Q43" s="181"/>
     </row>
     <row r="44" spans="1:26" ht="18" customHeight="1">
       <c r="A44" s="19"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="180" t="s">
+      <c r="C44" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="180"/>
-      <c r="E44" s="180"/>
-      <c r="F44" s="180"/>
+      <c r="D44" s="249"/>
+      <c r="E44" s="249"/>
+      <c r="F44" s="249"/>
     </row>
     <row r="45" spans="1:26" ht="18" customHeight="1">
       <c r="A45" s="20"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="180" t="s">
+      <c r="C45" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="180"/>
-      <c r="E45" s="180"/>
-      <c r="F45" s="180"/>
+      <c r="D45" s="249"/>
+      <c r="E45" s="249"/>
+      <c r="F45" s="249"/>
     </row>
     <row r="46" spans="1:26" ht="18" customHeight="1">
       <c r="A46" s="75"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="180" t="s">
+      <c r="C46" s="249" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="180"/>
-      <c r="E46" s="180"/>
-      <c r="F46" s="180"/>
+      <c r="D46" s="249"/>
+      <c r="E46" s="249"/>
+      <c r="F46" s="249"/>
     </row>
     <row r="47" spans="1:26" ht="18" customHeight="1">
-      <c r="B47" s="229"/>
-      <c r="C47" s="229"/>
-      <c r="D47" s="229"/>
+      <c r="B47" s="298"/>
+      <c r="C47" s="298"/>
+      <c r="D47" s="298"/>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1">
-      <c r="B48" s="229"/>
-      <c r="C48" s="229"/>
-      <c r="D48" s="229"/>
+      <c r="B48" s="298"/>
+      <c r="C48" s="298"/>
+      <c r="D48" s="298"/>
     </row>
     <row r="49" spans="2:4" ht="18" customHeight="1">
-      <c r="B49" s="229"/>
-      <c r="C49" s="229"/>
-      <c r="D49" s="229"/>
+      <c r="B49" s="298"/>
+      <c r="C49" s="298"/>
+      <c r="D49" s="298"/>
     </row>
     <row r="50" spans="2:4" ht="18" customHeight="1">
-      <c r="B50" s="229"/>
-      <c r="C50" s="229"/>
-      <c r="D50" s="229"/>
+      <c r="B50" s="298"/>
+      <c r="C50" s="298"/>
+      <c r="D50" s="298"/>
     </row>
     <row r="51" spans="2:4" ht="18" customHeight="1">
-      <c r="B51" s="229"/>
-      <c r="C51" s="229"/>
-      <c r="D51" s="229"/>
+      <c r="B51" s="298"/>
+      <c r="C51" s="298"/>
+      <c r="D51" s="298"/>
     </row>
     <row r="52" spans="2:4" ht="18" customHeight="1">
-      <c r="B52" s="229"/>
-      <c r="C52" s="229"/>
-      <c r="D52" s="229"/>
+      <c r="B52" s="298"/>
+      <c r="C52" s="298"/>
+      <c r="D52" s="298"/>
     </row>
   </sheetData>
   <mergeCells count="63">
@@ -48484,25 +48194,21 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B21:D21"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="E7:F7"/>
@@ -48510,6 +48216,7 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="M7:N7"/>
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A10:A14"/>
@@ -48517,11 +48224,9 @@
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
@@ -48533,6 +48238,11 @@
     <mergeCell ref="B50:D50"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -48550,160 +48260,137 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.453125" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="15" max="17" width="9.1796875" style="164" customWidth="1"/>
-    <col min="18" max="20" width="5.453125" style="368"/>
+    <col min="15" max="17" width="9.1796875" style="163" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="18" customHeight="1">
       <c r="B2" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="301" t="s">
+      <c r="G2" s="370" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="302"/>
-      <c r="I2" s="291" t="s">
+      <c r="H2" s="371"/>
+      <c r="I2" s="360" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="246"/>
-      <c r="L2" s="373"/>
-      <c r="M2" s="369"/>
-      <c r="N2" s="373"/>
-      <c r="O2" s="371"/>
-      <c r="P2" s="371"/>
-      <c r="Q2" s="371"/>
-      <c r="R2" s="369"/>
-      <c r="S2" s="374"/>
-      <c r="T2" s="369"/>
-      <c r="U2" s="369"/>
-      <c r="V2" s="373"/>
-      <c r="W2" s="369"/>
-      <c r="X2" s="369"/>
-      <c r="Y2" s="369"/>
+      <c r="J2" s="315"/>
+      <c r="L2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="S2" s="183"/>
+      <c r="V2" s="16"/>
     </row>
     <row r="3" spans="1:26" ht="18" customHeight="1">
       <c r="B3" s="33"/>
-      <c r="G3" s="301" t="s">
+      <c r="G3" s="370" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="302"/>
-      <c r="I3" s="291" t="s">
+      <c r="H3" s="371"/>
+      <c r="I3" s="360" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="246"/>
-      <c r="L3" s="370"/>
-      <c r="M3" s="371"/>
-      <c r="N3" s="370"/>
-      <c r="O3" s="371"/>
-      <c r="P3" s="371"/>
-      <c r="Q3" s="371"/>
-      <c r="R3" s="371"/>
-      <c r="S3" s="372"/>
-      <c r="T3" s="371"/>
-      <c r="U3" s="369"/>
-      <c r="V3" s="370"/>
-      <c r="W3" s="371"/>
-      <c r="X3" s="371"/>
-      <c r="Y3" s="371"/>
+      <c r="J3" s="315"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="163"/>
+      <c r="N3" s="181"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="182"/>
+      <c r="T3" s="163"/>
+      <c r="V3" s="181"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
     </row>
     <row r="4" spans="1:26" ht="18" customHeight="1">
       <c r="B4" s="33"/>
-      <c r="G4" s="301" t="s">
+      <c r="G4" s="370" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="302"/>
-      <c r="I4" s="325">
+      <c r="H4" s="371"/>
+      <c r="I4" s="394">
         <v>45460</v>
       </c>
-      <c r="J4" s="246"/>
-      <c r="L4" s="370"/>
-      <c r="M4" s="371"/>
-      <c r="N4" s="370"/>
-      <c r="O4" s="371"/>
-      <c r="P4" s="371"/>
-      <c r="Q4" s="371"/>
-      <c r="R4" s="371"/>
-      <c r="S4" s="372"/>
-      <c r="T4" s="371"/>
-      <c r="U4" s="369"/>
-      <c r="V4" s="370"/>
-      <c r="W4" s="371"/>
-      <c r="X4" s="371"/>
-      <c r="Y4" s="371"/>
+      <c r="J4" s="315"/>
+      <c r="L4" s="181"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="181"/>
+      <c r="R4" s="163"/>
+      <c r="S4" s="182"/>
+      <c r="T4" s="163"/>
+      <c r="V4" s="181"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
     </row>
     <row r="5" spans="1:26" ht="18" customHeight="1">
       <c r="B5" s="33"/>
-      <c r="G5" s="301" t="s">
+      <c r="G5" s="370" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="302"/>
-      <c r="I5" s="291"/>
-      <c r="J5" s="246"/>
-      <c r="L5" s="370"/>
-      <c r="M5" s="371"/>
-      <c r="N5" s="370"/>
-      <c r="O5" s="371"/>
-      <c r="P5" s="371"/>
-      <c r="Q5" s="371"/>
-      <c r="R5" s="371"/>
-      <c r="S5" s="372"/>
-      <c r="T5" s="371"/>
-      <c r="U5" s="369"/>
-      <c r="V5" s="370"/>
-      <c r="W5" s="371"/>
-      <c r="X5" s="371"/>
-      <c r="Y5" s="371"/>
+      <c r="H5" s="371"/>
+      <c r="I5" s="360"/>
+      <c r="J5" s="315"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="181"/>
+      <c r="R5" s="163"/>
+      <c r="S5" s="182"/>
+      <c r="T5" s="163"/>
+      <c r="V5" s="181"/>
+      <c r="W5" s="163"/>
+      <c r="X5" s="163"/>
+      <c r="Y5" s="163"/>
     </row>
     <row r="6" spans="1:26" ht="12" customHeight="1" thickBot="1"/>
     <row r="7" spans="1:26" ht="15" customHeight="1">
       <c r="D7" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="303" t="s">
+      <c r="E7" s="372" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="266"/>
-      <c r="G7" s="233" t="s">
+      <c r="F7" s="335"/>
+      <c r="G7" s="302" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="304"/>
-      <c r="I7" s="303" t="s">
+      <c r="H7" s="373"/>
+      <c r="I7" s="372" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="266"/>
-      <c r="K7" s="233" t="s">
+      <c r="J7" s="335"/>
+      <c r="K7" s="302" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="304"/>
-      <c r="M7" s="303" t="s">
+      <c r="L7" s="373"/>
+      <c r="M7" s="372" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="266"/>
+      <c r="N7" s="335"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="D8" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="298">
+      <c r="E8" s="367">
         <v>17</v>
       </c>
-      <c r="F8" s="247"/>
-      <c r="G8" s="298">
+      <c r="F8" s="316"/>
+      <c r="G8" s="367">
         <v>18</v>
       </c>
-      <c r="H8" s="247"/>
-      <c r="I8" s="298">
+      <c r="H8" s="316"/>
+      <c r="I8" s="367">
         <v>19</v>
       </c>
-      <c r="J8" s="247"/>
-      <c r="K8" s="298">
+      <c r="J8" s="316"/>
+      <c r="K8" s="367">
         <v>20</v>
       </c>
-      <c r="L8" s="247"/>
-      <c r="M8" s="298">
+      <c r="L8" s="316"/>
+      <c r="M8" s="367">
         <v>21</v>
       </c>
-      <c r="N8" s="247"/>
+      <c r="N8" s="316"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="D9" s="78" t="s">
@@ -48739,851 +48426,834 @@
       <c r="N9" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="173" t="s">
+      <c r="O9" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="P9" s="173" t="s">
+      <c r="P9" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="416" t="s">
+      <c r="Q9" s="215" t="s">
         <v>65</v>
       </c>
-      <c r="S9" s="377"/>
+      <c r="S9" s="16"/>
     </row>
     <row r="10" spans="1:26" ht="18" customHeight="1">
-      <c r="A10" s="283" t="s">
+      <c r="A10" s="352" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="273" t="s">
+      <c r="B10" s="342" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="286"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="378"/>
-      <c r="F10" s="379"/>
-      <c r="G10" s="380"/>
-      <c r="H10" s="381"/>
-      <c r="I10" s="378"/>
-      <c r="J10" s="379"/>
-      <c r="K10" s="380"/>
-      <c r="L10" s="381"/>
+      <c r="C10" s="355"/>
+      <c r="D10" s="356"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="55"/>
       <c r="M10" s="80"/>
-      <c r="N10" s="445"/>
-      <c r="O10" s="404" t="s">
+      <c r="N10" s="236"/>
+      <c r="O10" s="203" t="s">
         <v>80</v>
       </c>
-      <c r="P10" s="404" t="s">
+      <c r="P10" s="203" t="s">
         <v>79</v>
       </c>
-      <c r="Q10" s="407"/>
+      <c r="Q10" s="206"/>
     </row>
     <row r="11" spans="1:26" ht="18" customHeight="1">
-      <c r="A11" s="284"/>
-      <c r="B11" s="248" t="s">
+      <c r="A11" s="353"/>
+      <c r="B11" s="317" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="249"/>
-      <c r="D11" s="250"/>
-      <c r="E11" s="361"/>
-      <c r="F11" s="362"/>
-      <c r="G11" s="355"/>
-      <c r="H11" s="356"/>
-      <c r="I11" s="361"/>
-      <c r="J11" s="362"/>
-      <c r="K11" s="355"/>
-      <c r="L11" s="356"/>
+      <c r="C11" s="318"/>
+      <c r="D11" s="319"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="56"/>
       <c r="M11" s="82"/>
-      <c r="N11" s="446"/>
-      <c r="O11" s="405" t="s">
+      <c r="N11" s="237"/>
+      <c r="O11" s="204" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="405"/>
-      <c r="Q11" s="408"/>
+      <c r="P11" s="204"/>
+      <c r="Q11" s="207"/>
     </row>
     <row r="12" spans="1:26" ht="18" customHeight="1">
-      <c r="A12" s="284"/>
-      <c r="B12" s="248" t="s">
+      <c r="A12" s="353"/>
+      <c r="B12" s="317" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="249"/>
-      <c r="D12" s="250"/>
-      <c r="E12" s="361"/>
-      <c r="F12" s="362"/>
-      <c r="G12" s="355"/>
-      <c r="H12" s="356"/>
-      <c r="I12" s="361"/>
-      <c r="J12" s="362"/>
-      <c r="K12" s="355"/>
-      <c r="L12" s="356"/>
+      <c r="C12" s="318"/>
+      <c r="D12" s="319"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="56"/>
       <c r="M12" s="82"/>
-      <c r="N12" s="446"/>
-      <c r="O12" s="405" t="s">
+      <c r="N12" s="237"/>
+      <c r="O12" s="204" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="405"/>
-      <c r="Q12" s="408"/>
+      <c r="P12" s="204"/>
+      <c r="Q12" s="207"/>
     </row>
     <row r="13" spans="1:26" ht="18" customHeight="1">
-      <c r="A13" s="284"/>
-      <c r="B13" s="248" t="s">
+      <c r="A13" s="353"/>
+      <c r="B13" s="317" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="249"/>
-      <c r="D13" s="250"/>
-      <c r="E13" s="361"/>
-      <c r="F13" s="362"/>
-      <c r="G13" s="355"/>
-      <c r="H13" s="356"/>
-      <c r="I13" s="361"/>
-      <c r="J13" s="362"/>
-      <c r="K13" s="355"/>
-      <c r="L13" s="356"/>
+      <c r="C13" s="318"/>
+      <c r="D13" s="319"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="56"/>
       <c r="M13" s="82"/>
-      <c r="N13" s="446"/>
-      <c r="O13" s="405" t="s">
+      <c r="N13" s="237"/>
+      <c r="O13" s="204" t="s">
         <v>92</v>
       </c>
-      <c r="P13" s="405" t="s">
+      <c r="P13" s="204" t="s">
         <v>83</v>
       </c>
-      <c r="Q13" s="408"/>
+      <c r="Q13" s="207"/>
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A14" s="285"/>
-      <c r="B14" s="292" t="s">
+      <c r="A14" s="354"/>
+      <c r="B14" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="293"/>
-      <c r="D14" s="294"/>
-      <c r="E14" s="437"/>
-      <c r="F14" s="438"/>
-      <c r="G14" s="439"/>
-      <c r="H14" s="440"/>
-      <c r="I14" s="437"/>
-      <c r="J14" s="438"/>
-      <c r="K14" s="439"/>
-      <c r="L14" s="440"/>
+      <c r="C14" s="362"/>
+      <c r="D14" s="363"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="57"/>
       <c r="M14" s="85"/>
-      <c r="N14" s="447"/>
-      <c r="O14" s="410" t="s">
+      <c r="N14" s="238"/>
+      <c r="O14" s="209" t="s">
         <v>79</v>
       </c>
-      <c r="P14" s="406"/>
-      <c r="Q14" s="409"/>
+      <c r="P14" s="205"/>
+      <c r="Q14" s="208"/>
     </row>
     <row r="15" spans="1:26" ht="18" customHeight="1">
-      <c r="A15" s="337" t="s">
+      <c r="A15" s="398" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="341" t="s">
+      <c r="B15" s="408" t="s">
         <v>93</v>
       </c>
-      <c r="C15" s="342"/>
-      <c r="D15" s="343"/>
-      <c r="E15" s="353"/>
-      <c r="F15" s="360"/>
-      <c r="G15" s="353"/>
-      <c r="H15" s="354"/>
-      <c r="I15" s="359"/>
-      <c r="J15" s="360"/>
-      <c r="K15" s="353"/>
-      <c r="L15" s="354"/>
+      <c r="C15" s="409"/>
+      <c r="D15" s="410"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="58"/>
       <c r="M15" s="87"/>
-      <c r="N15" s="448"/>
-      <c r="O15" s="404" t="s">
+      <c r="N15" s="239"/>
+      <c r="O15" s="203" t="s">
         <v>79</v>
       </c>
       <c r="P15" s="120" t="s">
         <v>80</v>
       </c>
-      <c r="Q15" s="404"/>
-      <c r="V15" s="351"/>
-      <c r="W15" s="350"/>
-      <c r="X15" s="350"/>
-      <c r="Y15" s="350"/>
-      <c r="Z15" s="350"/>
+      <c r="Q15" s="203"/>
+      <c r="V15" s="180"/>
+      <c r="W15" s="175"/>
+      <c r="X15" s="175"/>
+      <c r="Y15" s="175"/>
+      <c r="Z15" s="175"/>
     </row>
     <row r="16" spans="1:26" ht="18" customHeight="1">
-      <c r="A16" s="339"/>
-      <c r="B16" s="344" t="s">
+      <c r="A16" s="399"/>
+      <c r="B16" s="401" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="338"/>
-      <c r="D16" s="345"/>
-      <c r="E16" s="380"/>
-      <c r="F16" s="379"/>
-      <c r="G16" s="380"/>
-      <c r="H16" s="381"/>
-      <c r="I16" s="378"/>
-      <c r="J16" s="379"/>
-      <c r="K16" s="380"/>
-      <c r="L16" s="381"/>
+      <c r="C16" s="402"/>
+      <c r="D16" s="403"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="55"/>
       <c r="M16" s="80"/>
-      <c r="N16" s="445"/>
-      <c r="O16" s="405" t="s">
+      <c r="N16" s="236"/>
+      <c r="O16" s="204" t="s">
         <v>83</v>
       </c>
       <c r="P16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" s="405"/>
-      <c r="V16" s="348"/>
-      <c r="W16" s="349"/>
-      <c r="X16" s="349"/>
-      <c r="Y16" s="349"/>
-      <c r="Z16" s="349"/>
+      <c r="Q16" s="204"/>
+      <c r="V16" s="178"/>
+      <c r="W16" s="179"/>
+      <c r="X16" s="179"/>
+      <c r="Y16" s="179"/>
+      <c r="Z16" s="179"/>
     </row>
     <row r="17" spans="1:26" ht="18" customHeight="1">
-      <c r="A17" s="340"/>
-      <c r="B17" s="346" t="s">
+      <c r="A17" s="400"/>
+      <c r="B17" s="411" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="268"/>
-      <c r="D17" s="316"/>
-      <c r="E17" s="355"/>
-      <c r="F17" s="362"/>
-      <c r="G17" s="355"/>
-      <c r="H17" s="356"/>
-      <c r="I17" s="361"/>
-      <c r="J17" s="362"/>
-      <c r="K17" s="355"/>
-      <c r="L17" s="356"/>
+      <c r="C17" s="337"/>
+      <c r="D17" s="385"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="56"/>
       <c r="M17" s="82"/>
-      <c r="N17" s="446"/>
-      <c r="O17" s="405" t="s">
+      <c r="N17" s="237"/>
+      <c r="O17" s="204" t="s">
         <v>85</v>
       </c>
       <c r="P17" s="15"/>
-      <c r="Q17" s="405"/>
-      <c r="V17" s="351"/>
-      <c r="W17" s="350"/>
-      <c r="X17" s="350"/>
-      <c r="Y17" s="350"/>
-      <c r="Z17" s="350"/>
+      <c r="Q17" s="204"/>
+      <c r="V17" s="180"/>
+      <c r="W17" s="175"/>
+      <c r="X17" s="175"/>
+      <c r="Y17" s="175"/>
+      <c r="Z17" s="175"/>
     </row>
     <row r="18" spans="1:26" ht="18" customHeight="1">
-      <c r="A18" s="340"/>
-      <c r="B18" s="365" t="s">
+      <c r="A18" s="400"/>
+      <c r="B18" s="404" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="366"/>
-      <c r="D18" s="367"/>
-      <c r="E18" s="355"/>
-      <c r="F18" s="362"/>
-      <c r="G18" s="355"/>
-      <c r="H18" s="356"/>
-      <c r="I18" s="361"/>
-      <c r="J18" s="362"/>
-      <c r="K18" s="355"/>
-      <c r="L18" s="356"/>
+      <c r="C18" s="405"/>
+      <c r="D18" s="406"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="56"/>
       <c r="M18" s="82"/>
-      <c r="N18" s="446"/>
-      <c r="O18" s="405" t="s">
+      <c r="N18" s="237"/>
+      <c r="O18" s="204" t="s">
         <v>85</v>
       </c>
       <c r="P18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="405"/>
-      <c r="V18" s="348"/>
-      <c r="W18" s="349"/>
-      <c r="X18" s="349"/>
-      <c r="Y18" s="349"/>
-      <c r="Z18" s="349"/>
+      <c r="Q18" s="204"/>
+      <c r="V18" s="178"/>
+      <c r="W18" s="179"/>
+      <c r="X18" s="179"/>
+      <c r="Y18" s="179"/>
+      <c r="Z18" s="179"/>
     </row>
     <row r="19" spans="1:26" ht="18" customHeight="1">
-      <c r="A19" s="340"/>
-      <c r="B19" s="365" t="s">
+      <c r="A19" s="400"/>
+      <c r="B19" s="404" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="366"/>
-      <c r="D19" s="367"/>
-      <c r="E19" s="355"/>
-      <c r="F19" s="362"/>
-      <c r="G19" s="355"/>
-      <c r="H19" s="356"/>
-      <c r="I19" s="361"/>
-      <c r="J19" s="362"/>
-      <c r="K19" s="355"/>
-      <c r="L19" s="356"/>
+      <c r="C19" s="405"/>
+      <c r="D19" s="406"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="56"/>
       <c r="M19" s="82"/>
-      <c r="N19" s="446"/>
-      <c r="O19" s="405" t="s">
+      <c r="N19" s="237"/>
+      <c r="O19" s="204" t="s">
         <v>89</v>
       </c>
       <c r="P19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="Q19" s="405"/>
-      <c r="V19" s="348"/>
-      <c r="W19" s="349"/>
-      <c r="X19" s="349"/>
-      <c r="Y19" s="349"/>
-      <c r="Z19" s="349"/>
+      <c r="Q19" s="204"/>
+      <c r="V19" s="178"/>
+      <c r="W19" s="179"/>
+      <c r="X19" s="179"/>
+      <c r="Y19" s="179"/>
+      <c r="Z19" s="179"/>
     </row>
     <row r="20" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="340"/>
-      <c r="B20" s="347" t="s">
+      <c r="A20" s="400"/>
+      <c r="B20" s="407" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="254"/>
-      <c r="D20" s="313"/>
-      <c r="E20" s="355"/>
-      <c r="F20" s="362"/>
-      <c r="G20" s="355"/>
-      <c r="H20" s="356"/>
-      <c r="I20" s="361"/>
-      <c r="J20" s="362"/>
-      <c r="K20" s="355"/>
-      <c r="L20" s="356"/>
+      <c r="C20" s="323"/>
+      <c r="D20" s="382"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="56"/>
       <c r="M20" s="89"/>
-      <c r="N20" s="449"/>
-      <c r="O20" s="406" t="s">
+      <c r="N20" s="240"/>
+      <c r="O20" s="205" t="s">
         <v>85</v>
       </c>
       <c r="P20" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="Q20" s="406"/>
-      <c r="V20" s="351"/>
-      <c r="W20" s="350"/>
-      <c r="X20" s="350"/>
-      <c r="Y20" s="350"/>
-      <c r="Z20" s="350"/>
+      <c r="Q20" s="205"/>
+      <c r="V20" s="180"/>
+      <c r="W20" s="175"/>
+      <c r="X20" s="175"/>
+      <c r="Y20" s="175"/>
+      <c r="Z20" s="175"/>
     </row>
     <row r="21" spans="1:26" ht="18" customHeight="1">
-      <c r="A21" s="270" t="s">
+      <c r="A21" s="339" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="273" t="s">
+      <c r="B21" s="342" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="274"/>
-      <c r="D21" s="275"/>
-      <c r="E21" s="359"/>
-      <c r="F21" s="360"/>
-      <c r="G21" s="353"/>
-      <c r="H21" s="354"/>
-      <c r="I21" s="359"/>
-      <c r="J21" s="360"/>
-      <c r="K21" s="353"/>
-      <c r="L21" s="354"/>
+      <c r="C21" s="343"/>
+      <c r="D21" s="344"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="58"/>
       <c r="M21" s="87"/>
-      <c r="N21" s="448"/>
-      <c r="O21" s="418" t="s">
+      <c r="N21" s="239"/>
+      <c r="O21" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="P21" s="411" t="s">
+      <c r="P21" s="210" t="s">
         <v>78</v>
       </c>
-      <c r="Q21" s="419"/>
-      <c r="U21" s="368"/>
-      <c r="V21" s="351"/>
-      <c r="W21" s="350"/>
-      <c r="X21" s="350"/>
-      <c r="Y21" s="350"/>
-      <c r="Z21" s="350"/>
+      <c r="Q21" s="218"/>
+      <c r="V21" s="180"/>
+      <c r="W21" s="175"/>
+      <c r="X21" s="175"/>
+      <c r="Y21" s="175"/>
+      <c r="Z21" s="175"/>
     </row>
     <row r="22" spans="1:26" ht="18" customHeight="1">
-      <c r="A22" s="271"/>
-      <c r="B22" s="243" t="s">
+      <c r="A22" s="340"/>
+      <c r="B22" s="312" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="276"/>
-      <c r="D22" s="277"/>
-      <c r="E22" s="361"/>
-      <c r="F22" s="362"/>
-      <c r="G22" s="355"/>
-      <c r="H22" s="356"/>
-      <c r="I22" s="361"/>
-      <c r="J22" s="362"/>
-      <c r="K22" s="355"/>
-      <c r="L22" s="356"/>
+      <c r="C22" s="345"/>
+      <c r="D22" s="346"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="56"/>
       <c r="M22" s="82"/>
-      <c r="N22" s="446"/>
-      <c r="O22" s="405" t="s">
+      <c r="N22" s="237"/>
+      <c r="O22" s="204" t="s">
         <v>114</v>
       </c>
-      <c r="P22" s="412"/>
-      <c r="Q22" s="413"/>
-      <c r="U22" s="368"/>
-      <c r="V22" s="351"/>
-      <c r="W22" s="351"/>
-      <c r="X22" s="351"/>
-      <c r="Y22" s="351"/>
-      <c r="Z22" s="351"/>
+      <c r="P22" s="211"/>
+      <c r="Q22" s="212"/>
+      <c r="V22" s="180"/>
+      <c r="W22" s="180"/>
+      <c r="X22" s="180"/>
+      <c r="Y22" s="180"/>
+      <c r="Z22" s="180"/>
     </row>
     <row r="23" spans="1:26" ht="18" customHeight="1">
-      <c r="A23" s="271"/>
-      <c r="B23" s="248" t="s">
+      <c r="A23" s="340"/>
+      <c r="B23" s="317" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="251"/>
-      <c r="D23" s="252"/>
-      <c r="E23" s="361"/>
-      <c r="F23" s="362"/>
-      <c r="G23" s="355"/>
-      <c r="H23" s="356"/>
-      <c r="I23" s="361"/>
-      <c r="J23" s="362"/>
-      <c r="K23" s="355"/>
-      <c r="L23" s="356"/>
+      <c r="C23" s="320"/>
+      <c r="D23" s="321"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="56"/>
       <c r="M23" s="82"/>
-      <c r="N23" s="446"/>
-      <c r="O23" s="405" t="s">
+      <c r="N23" s="237"/>
+      <c r="O23" s="204" t="s">
         <v>85</v>
       </c>
-      <c r="P23" s="412" t="s">
+      <c r="P23" s="211" t="s">
         <v>78</v>
       </c>
-      <c r="Q23" s="413"/>
-      <c r="U23" s="368"/>
-      <c r="V23" s="351"/>
-      <c r="W23" s="351"/>
-      <c r="X23" s="351"/>
-      <c r="Y23" s="351"/>
-      <c r="Z23" s="351"/>
+      <c r="Q23" s="212"/>
+      <c r="V23" s="180"/>
+      <c r="W23" s="180"/>
+      <c r="X23" s="180"/>
+      <c r="Y23" s="180"/>
+      <c r="Z23" s="180"/>
     </row>
     <row r="24" spans="1:26" ht="18" customHeight="1">
-      <c r="A24" s="271"/>
-      <c r="B24" s="248" t="s">
+      <c r="A24" s="340"/>
+      <c r="B24" s="317" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="251"/>
-      <c r="D24" s="252"/>
-      <c r="E24" s="361"/>
-      <c r="F24" s="362"/>
-      <c r="G24" s="355"/>
-      <c r="H24" s="356"/>
-      <c r="I24" s="361"/>
-      <c r="J24" s="362"/>
-      <c r="K24" s="355"/>
-      <c r="L24" s="356"/>
+      <c r="C24" s="320"/>
+      <c r="D24" s="321"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="56"/>
       <c r="M24" s="82"/>
-      <c r="N24" s="446"/>
-      <c r="O24" s="405" t="s">
+      <c r="N24" s="237"/>
+      <c r="O24" s="204" t="s">
         <v>85</v>
       </c>
-      <c r="P24" s="412" t="s">
+      <c r="P24" s="211" t="s">
         <v>71</v>
       </c>
-      <c r="Q24" s="413"/>
-      <c r="U24" s="368"/>
-      <c r="V24" s="351"/>
-      <c r="W24" s="351"/>
-      <c r="X24" s="351"/>
-      <c r="Y24" s="351"/>
-      <c r="Z24" s="351"/>
+      <c r="Q24" s="212"/>
+      <c r="V24" s="180"/>
+      <c r="W24" s="180"/>
+      <c r="X24" s="180"/>
+      <c r="Y24" s="180"/>
+      <c r="Z24" s="180"/>
     </row>
     <row r="25" spans="1:26" ht="18" customHeight="1">
-      <c r="A25" s="271"/>
-      <c r="B25" s="248" t="s">
+      <c r="A25" s="340"/>
+      <c r="B25" s="317" t="s">
         <v>98</v>
       </c>
-      <c r="C25" s="251"/>
-      <c r="D25" s="252"/>
-      <c r="E25" s="361"/>
-      <c r="F25" s="362"/>
-      <c r="G25" s="355"/>
-      <c r="H25" s="356"/>
-      <c r="I25" s="361"/>
-      <c r="J25" s="362"/>
-      <c r="K25" s="355"/>
-      <c r="L25" s="356"/>
+      <c r="C25" s="320"/>
+      <c r="D25" s="321"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="56"/>
       <c r="M25" s="82"/>
-      <c r="N25" s="446"/>
-      <c r="O25" s="405" t="s">
+      <c r="N25" s="237"/>
+      <c r="O25" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="P25" s="412"/>
-      <c r="Q25" s="413"/>
-      <c r="U25" s="368"/>
-      <c r="V25" s="348"/>
-      <c r="W25" s="348"/>
-      <c r="X25" s="348"/>
-      <c r="Y25" s="348"/>
-      <c r="Z25" s="348"/>
+      <c r="P25" s="211"/>
+      <c r="Q25" s="212"/>
+      <c r="V25" s="178"/>
+      <c r="W25" s="178"/>
+      <c r="X25" s="178"/>
+      <c r="Y25" s="178"/>
+      <c r="Z25" s="178"/>
     </row>
     <row r="26" spans="1:26" ht="18" customHeight="1">
-      <c r="A26" s="271"/>
-      <c r="B26" s="248" t="s">
+      <c r="A26" s="340"/>
+      <c r="B26" s="317" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="251"/>
-      <c r="D26" s="252"/>
-      <c r="E26" s="361"/>
-      <c r="F26" s="362"/>
-      <c r="G26" s="355"/>
-      <c r="H26" s="356"/>
-      <c r="I26" s="361"/>
-      <c r="J26" s="362"/>
-      <c r="K26" s="355"/>
-      <c r="L26" s="356"/>
+      <c r="C26" s="320"/>
+      <c r="D26" s="321"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="56"/>
       <c r="M26" s="82"/>
-      <c r="N26" s="446"/>
-      <c r="O26" s="405" t="s">
+      <c r="N26" s="237"/>
+      <c r="O26" s="204" t="s">
         <v>89</v>
       </c>
-      <c r="P26" s="412"/>
-      <c r="Q26" s="413"/>
-      <c r="U26" s="368"/>
-      <c r="V26" s="351"/>
-      <c r="W26" s="351"/>
-      <c r="X26" s="351"/>
-      <c r="Y26" s="351"/>
-      <c r="Z26" s="351"/>
+      <c r="P26" s="211"/>
+      <c r="Q26" s="212"/>
+      <c r="V26" s="180"/>
+      <c r="W26" s="180"/>
+      <c r="X26" s="180"/>
+      <c r="Y26" s="180"/>
+      <c r="Z26" s="180"/>
     </row>
     <row r="27" spans="1:26" ht="18" customHeight="1">
-      <c r="A27" s="271"/>
-      <c r="B27" s="248" t="s">
+      <c r="A27" s="340"/>
+      <c r="B27" s="317" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="251"/>
-      <c r="D27" s="252"/>
-      <c r="E27" s="361"/>
-      <c r="F27" s="362"/>
-      <c r="G27" s="355"/>
-      <c r="H27" s="356"/>
-      <c r="I27" s="361"/>
-      <c r="J27" s="362"/>
-      <c r="K27" s="355"/>
-      <c r="L27" s="356"/>
+      <c r="C27" s="320"/>
+      <c r="D27" s="321"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="56"/>
       <c r="M27" s="82"/>
-      <c r="N27" s="446"/>
-      <c r="O27" s="405" t="s">
+      <c r="N27" s="237"/>
+      <c r="O27" s="204" t="s">
         <v>92</v>
       </c>
-      <c r="P27" s="412"/>
-      <c r="Q27" s="413"/>
-      <c r="U27" s="368"/>
-      <c r="V27" s="351"/>
-      <c r="W27" s="350"/>
-      <c r="X27" s="350"/>
-      <c r="Y27" s="350"/>
-      <c r="Z27" s="350"/>
+      <c r="P27" s="211"/>
+      <c r="Q27" s="212"/>
+      <c r="V27" s="180"/>
+      <c r="W27" s="175"/>
+      <c r="X27" s="175"/>
+      <c r="Y27" s="175"/>
+      <c r="Z27" s="175"/>
     </row>
     <row r="28" spans="1:26" ht="18" customHeight="1">
-      <c r="A28" s="271"/>
-      <c r="B28" s="248" t="s">
+      <c r="A28" s="340"/>
+      <c r="B28" s="317" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="251"/>
-      <c r="D28" s="252"/>
-      <c r="E28" s="361"/>
-      <c r="F28" s="362"/>
-      <c r="G28" s="355"/>
-      <c r="H28" s="356"/>
-      <c r="I28" s="361"/>
-      <c r="J28" s="362"/>
-      <c r="K28" s="355"/>
-      <c r="L28" s="356"/>
+      <c r="C28" s="320"/>
+      <c r="D28" s="321"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="56"/>
       <c r="M28" s="82"/>
-      <c r="N28" s="446"/>
-      <c r="O28" s="405" t="s">
+      <c r="N28" s="237"/>
+      <c r="O28" s="204" t="s">
         <v>92</v>
       </c>
-      <c r="P28" s="412"/>
-      <c r="Q28" s="413"/>
-      <c r="U28" s="368"/>
-      <c r="V28" s="351"/>
-      <c r="W28" s="350"/>
-      <c r="X28" s="350"/>
-      <c r="Y28" s="350"/>
-      <c r="Z28" s="350"/>
+      <c r="P28" s="211"/>
+      <c r="Q28" s="212"/>
+      <c r="V28" s="180"/>
+      <c r="W28" s="175"/>
+      <c r="X28" s="175"/>
+      <c r="Y28" s="175"/>
+      <c r="Z28" s="175"/>
     </row>
     <row r="29" spans="1:26" ht="18" customHeight="1">
-      <c r="A29" s="271"/>
-      <c r="B29" s="248" t="s">
+      <c r="A29" s="340"/>
+      <c r="B29" s="317" t="s">
         <v>100</v>
       </c>
-      <c r="C29" s="249"/>
-      <c r="D29" s="250"/>
-      <c r="E29" s="361"/>
-      <c r="F29" s="362"/>
-      <c r="G29" s="355"/>
-      <c r="H29" s="356"/>
-      <c r="I29" s="361"/>
-      <c r="J29" s="362"/>
-      <c r="K29" s="355"/>
-      <c r="L29" s="356"/>
+      <c r="C29" s="318"/>
+      <c r="D29" s="319"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="56"/>
       <c r="M29" s="82"/>
-      <c r="N29" s="446"/>
-      <c r="O29" s="405" t="s">
+      <c r="N29" s="237"/>
+      <c r="O29" s="204" t="s">
         <v>89</v>
       </c>
-      <c r="P29" s="412"/>
-      <c r="Q29" s="413"/>
-      <c r="U29" s="368"/>
-      <c r="V29" s="351"/>
-      <c r="W29" s="350"/>
-      <c r="X29" s="350"/>
-      <c r="Y29" s="350"/>
-      <c r="Z29" s="350"/>
+      <c r="P29" s="211"/>
+      <c r="Q29" s="212"/>
+      <c r="V29" s="180"/>
+      <c r="W29" s="175"/>
+      <c r="X29" s="175"/>
+      <c r="Y29" s="175"/>
+      <c r="Z29" s="175"/>
     </row>
     <row r="30" spans="1:26" ht="18" customHeight="1">
-      <c r="A30" s="271"/>
-      <c r="B30" s="243" t="s">
+      <c r="A30" s="340"/>
+      <c r="B30" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="244"/>
-      <c r="D30" s="245"/>
-      <c r="E30" s="361"/>
-      <c r="F30" s="362"/>
-      <c r="G30" s="355"/>
-      <c r="H30" s="356"/>
-      <c r="I30" s="361"/>
-      <c r="J30" s="362"/>
-      <c r="K30" s="355"/>
-      <c r="L30" s="356"/>
+      <c r="C30" s="313"/>
+      <c r="D30" s="314"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="56"/>
       <c r="M30" s="82"/>
-      <c r="N30" s="446"/>
-      <c r="O30" s="405" t="s">
+      <c r="N30" s="237"/>
+      <c r="O30" s="204" t="s">
         <v>89</v>
       </c>
-      <c r="P30" s="412"/>
-      <c r="Q30" s="413"/>
-      <c r="U30" s="368"/>
-      <c r="V30" s="348"/>
-      <c r="W30" s="349"/>
-      <c r="X30" s="349"/>
-      <c r="Y30" s="349"/>
-      <c r="Z30" s="349"/>
+      <c r="P30" s="211"/>
+      <c r="Q30" s="212"/>
+      <c r="V30" s="178"/>
+      <c r="W30" s="179"/>
+      <c r="X30" s="179"/>
+      <c r="Y30" s="179"/>
+      <c r="Z30" s="179"/>
     </row>
     <row r="31" spans="1:26" ht="18" customHeight="1">
-      <c r="A31" s="271"/>
-      <c r="B31" s="243" t="s">
+      <c r="A31" s="340"/>
+      <c r="B31" s="312" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="244"/>
-      <c r="D31" s="245"/>
-      <c r="E31" s="361"/>
-      <c r="F31" s="362"/>
-      <c r="G31" s="355"/>
-      <c r="H31" s="356"/>
-      <c r="I31" s="361"/>
-      <c r="J31" s="362"/>
-      <c r="K31" s="355"/>
-      <c r="L31" s="356"/>
+      <c r="C31" s="313"/>
+      <c r="D31" s="314"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="56"/>
       <c r="M31" s="82"/>
-      <c r="N31" s="446"/>
-      <c r="O31" s="405" t="s">
+      <c r="N31" s="237"/>
+      <c r="O31" s="204" t="s">
         <v>89</v>
       </c>
-      <c r="P31" s="412"/>
-      <c r="Q31" s="413"/>
-      <c r="U31" s="368"/>
-      <c r="V31" s="348"/>
-      <c r="W31" s="349"/>
-      <c r="X31" s="349"/>
-      <c r="Y31" s="349"/>
-      <c r="Z31" s="349"/>
+      <c r="P31" s="211"/>
+      <c r="Q31" s="212"/>
+      <c r="V31" s="178"/>
+      <c r="W31" s="179"/>
+      <c r="X31" s="179"/>
+      <c r="Y31" s="179"/>
+      <c r="Z31" s="179"/>
     </row>
     <row r="32" spans="1:26" ht="18" customHeight="1">
-      <c r="A32" s="271"/>
-      <c r="B32" s="331" t="s">
+      <c r="A32" s="340"/>
+      <c r="B32" s="413" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="332"/>
-      <c r="D32" s="333"/>
-      <c r="E32" s="361"/>
-      <c r="F32" s="362"/>
-      <c r="G32" s="355"/>
-      <c r="H32" s="356"/>
-      <c r="I32" s="361"/>
-      <c r="J32" s="362"/>
-      <c r="K32" s="355"/>
-      <c r="L32" s="356"/>
+      <c r="C32" s="414"/>
+      <c r="D32" s="415"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="56"/>
       <c r="M32" s="82"/>
-      <c r="N32" s="446"/>
-      <c r="O32" s="405" t="s">
+      <c r="N32" s="237"/>
+      <c r="O32" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="P32" s="412"/>
-      <c r="Q32" s="413"/>
-      <c r="U32" s="368"/>
-      <c r="V32" s="351"/>
-      <c r="W32" s="350"/>
-      <c r="X32" s="350"/>
-      <c r="Y32" s="350"/>
-      <c r="Z32" s="350"/>
+      <c r="P32" s="211"/>
+      <c r="Q32" s="212"/>
+      <c r="V32" s="180"/>
+      <c r="W32" s="175"/>
+      <c r="X32" s="175"/>
+      <c r="Y32" s="175"/>
+      <c r="Z32" s="175"/>
     </row>
     <row r="33" spans="1:26" ht="18" customHeight="1">
-      <c r="A33" s="271"/>
-      <c r="B33" s="243" t="s">
+      <c r="A33" s="340"/>
+      <c r="B33" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="244"/>
-      <c r="D33" s="245"/>
-      <c r="E33" s="361"/>
-      <c r="F33" s="362"/>
-      <c r="G33" s="355"/>
-      <c r="H33" s="356"/>
-      <c r="I33" s="361"/>
-      <c r="J33" s="362"/>
-      <c r="K33" s="355"/>
-      <c r="L33" s="356"/>
+      <c r="C33" s="313"/>
+      <c r="D33" s="314"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="56"/>
       <c r="M33" s="82"/>
-      <c r="N33" s="446"/>
-      <c r="O33" s="405" t="s">
+      <c r="N33" s="237"/>
+      <c r="O33" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="P33" s="412"/>
-      <c r="Q33" s="413"/>
-      <c r="U33" s="368"/>
-      <c r="V33" s="401"/>
-      <c r="W33" s="402"/>
-      <c r="X33" s="402"/>
-      <c r="Y33" s="402"/>
-      <c r="Z33" s="402"/>
+      <c r="P33" s="211"/>
+      <c r="Q33" s="212"/>
+      <c r="V33" s="200"/>
+      <c r="W33" s="201"/>
+      <c r="X33" s="201"/>
+      <c r="Y33" s="201"/>
+      <c r="Z33" s="201"/>
     </row>
     <row r="34" spans="1:26" ht="18" customHeight="1">
-      <c r="A34" s="271"/>
-      <c r="B34" s="243" t="s">
+      <c r="A34" s="340"/>
+      <c r="B34" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="C34" s="244"/>
-      <c r="D34" s="245"/>
-      <c r="E34" s="361"/>
-      <c r="F34" s="362"/>
-      <c r="G34" s="355"/>
-      <c r="H34" s="356"/>
-      <c r="I34" s="361"/>
-      <c r="J34" s="362"/>
-      <c r="K34" s="355"/>
-      <c r="L34" s="356"/>
+      <c r="C34" s="313"/>
+      <c r="D34" s="314"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="46"/>
+      <c r="L34" s="56"/>
       <c r="M34" s="82"/>
-      <c r="N34" s="446"/>
-      <c r="O34" s="405" t="s">
+      <c r="N34" s="237"/>
+      <c r="O34" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="P34" s="412"/>
-      <c r="Q34" s="413"/>
-      <c r="U34" s="368"/>
-      <c r="V34" s="403"/>
-      <c r="W34" s="402"/>
-      <c r="X34" s="402"/>
-      <c r="Y34" s="402"/>
-      <c r="Z34" s="402"/>
+      <c r="P34" s="211"/>
+      <c r="Q34" s="212"/>
+      <c r="V34" s="202"/>
+      <c r="W34" s="201"/>
+      <c r="X34" s="201"/>
+      <c r="Y34" s="201"/>
+      <c r="Z34" s="201"/>
     </row>
     <row r="35" spans="1:26" ht="18" customHeight="1">
-      <c r="A35" s="271"/>
-      <c r="B35" s="243" t="s">
+      <c r="A35" s="340"/>
+      <c r="B35" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="244"/>
-      <c r="D35" s="245"/>
-      <c r="E35" s="361"/>
-      <c r="F35" s="362"/>
-      <c r="G35" s="355"/>
-      <c r="H35" s="356"/>
-      <c r="I35" s="361"/>
-      <c r="J35" s="362"/>
-      <c r="K35" s="355"/>
-      <c r="L35" s="356"/>
+      <c r="C35" s="313"/>
+      <c r="D35" s="314"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="56"/>
       <c r="M35" s="82"/>
-      <c r="N35" s="446"/>
-      <c r="O35" s="405" t="s">
+      <c r="N35" s="237"/>
+      <c r="O35" s="204" t="s">
         <v>78</v>
       </c>
-      <c r="P35" s="412"/>
-      <c r="Q35" s="413"/>
-      <c r="U35" s="368"/>
-      <c r="V35" s="401"/>
-      <c r="W35" s="402"/>
-      <c r="X35" s="402"/>
-      <c r="Y35" s="402"/>
-      <c r="Z35" s="402"/>
+      <c r="P35" s="211"/>
+      <c r="Q35" s="212"/>
+      <c r="V35" s="200"/>
+      <c r="W35" s="201"/>
+      <c r="X35" s="201"/>
+      <c r="Y35" s="201"/>
+      <c r="Z35" s="201"/>
     </row>
     <row r="36" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A36" s="330"/>
-      <c r="B36" s="230" t="s">
+      <c r="A36" s="412"/>
+      <c r="B36" s="299" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="231"/>
-      <c r="D36" s="232"/>
-      <c r="E36" s="437"/>
-      <c r="F36" s="438"/>
-      <c r="G36" s="439"/>
-      <c r="H36" s="440"/>
-      <c r="I36" s="437"/>
-      <c r="J36" s="438"/>
-      <c r="K36" s="439"/>
-      <c r="L36" s="440"/>
+      <c r="C36" s="300"/>
+      <c r="D36" s="301"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="57"/>
       <c r="M36" s="85"/>
-      <c r="N36" s="447"/>
-      <c r="O36" s="405" t="s">
+      <c r="N36" s="238"/>
+      <c r="O36" s="204" t="s">
         <v>73</v>
       </c>
-      <c r="P36" s="412"/>
-      <c r="Q36" s="413"/>
-      <c r="U36" s="368"/>
-      <c r="V36" s="403"/>
-      <c r="W36" s="402"/>
-      <c r="X36" s="402"/>
-      <c r="Y36" s="402"/>
-      <c r="Z36" s="402"/>
+      <c r="P36" s="211"/>
+      <c r="Q36" s="212"/>
+      <c r="V36" s="202"/>
+      <c r="W36" s="201"/>
+      <c r="X36" s="201"/>
+      <c r="Y36" s="201"/>
+      <c r="Z36" s="201"/>
     </row>
     <row r="37" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A37" s="272"/>
-      <c r="B37" s="230" t="s">
+      <c r="A37" s="341"/>
+      <c r="B37" s="299" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="231"/>
-      <c r="D37" s="232"/>
-      <c r="E37" s="363"/>
-      <c r="F37" s="364"/>
-      <c r="G37" s="357"/>
-      <c r="H37" s="358"/>
-      <c r="I37" s="363"/>
-      <c r="J37" s="364"/>
-      <c r="K37" s="357"/>
-      <c r="L37" s="358"/>
+      <c r="C37" s="300"/>
+      <c r="D37" s="301"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="47"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="59"/>
       <c r="M37" s="89"/>
-      <c r="N37" s="449"/>
-      <c r="O37" s="410" t="s">
+      <c r="N37" s="240"/>
+      <c r="O37" s="209" t="s">
         <v>114</v>
       </c>
-      <c r="P37" s="414"/>
-      <c r="Q37" s="415"/>
-      <c r="U37" s="368"/>
-      <c r="V37" s="351"/>
-      <c r="W37" s="350"/>
-      <c r="X37" s="350"/>
-      <c r="Y37" s="350"/>
-      <c r="Z37" s="350"/>
+      <c r="P37" s="213"/>
+      <c r="Q37" s="214"/>
+      <c r="V37" s="180"/>
+      <c r="W37" s="175"/>
+      <c r="X37" s="175"/>
+      <c r="Y37" s="175"/>
+      <c r="Z37" s="175"/>
     </row>
     <row r="38" spans="1:26" ht="18" customHeight="1" thickBot="1">
       <c r="A38" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B38" s="237" t="s">
+      <c r="B38" s="306" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="238"/>
-      <c r="D38" s="239"/>
-      <c r="E38" s="441"/>
-      <c r="F38" s="442"/>
-      <c r="G38" s="443"/>
-      <c r="H38" s="444"/>
-      <c r="I38" s="441"/>
-      <c r="J38" s="442"/>
-      <c r="K38" s="443"/>
-      <c r="L38" s="444"/>
+      <c r="C38" s="307"/>
+      <c r="D38" s="308"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="62"/>
       <c r="M38" s="91"/>
-      <c r="N38" s="450"/>
-      <c r="O38" s="375" t="s">
+      <c r="N38" s="241"/>
+      <c r="O38" s="184" t="s">
         <v>91</v>
       </c>
-      <c r="P38" s="417"/>
-      <c r="Q38" s="376"/>
+      <c r="P38" s="216"/>
+      <c r="Q38" s="185"/>
     </row>
     <row r="39" spans="1:26" ht="18" customHeight="1">
-      <c r="B39" s="229"/>
-      <c r="C39" s="229"/>
-      <c r="D39" s="229"/>
-      <c r="O39" s="352"/>
-      <c r="P39" s="352"/>
-      <c r="Q39" s="352"/>
+      <c r="B39" s="298"/>
+      <c r="C39" s="298"/>
+      <c r="D39" s="298"/>
+      <c r="O39" s="181"/>
+      <c r="P39" s="181"/>
+      <c r="Q39" s="181"/>
     </row>
     <row r="40" spans="1:26" ht="18" customHeight="1">
       <c r="A40" s="16" t="s">
@@ -49591,108 +49261,108 @@
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="O40" s="352"/>
-      <c r="P40" s="352"/>
-      <c r="Q40" s="352"/>
+      <c r="O40" s="181"/>
+      <c r="P40" s="181"/>
+      <c r="Q40" s="181"/>
     </row>
     <row r="41" spans="1:26" ht="18" customHeight="1">
       <c r="A41" s="17"/>
       <c r="B41" s="3"/>
-      <c r="C41" s="180" t="s">
+      <c r="C41" s="249" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="180"/>
-      <c r="E41" s="180"/>
-      <c r="F41" s="180"/>
-      <c r="O41" s="352"/>
-      <c r="P41" s="352"/>
-      <c r="Q41" s="352"/>
+      <c r="D41" s="249"/>
+      <c r="E41" s="249"/>
+      <c r="F41" s="249"/>
+      <c r="O41" s="181"/>
+      <c r="P41" s="181"/>
+      <c r="Q41" s="181"/>
     </row>
     <row r="42" spans="1:26" ht="18" customHeight="1">
-      <c r="A42" s="171"/>
+      <c r="A42" s="170"/>
       <c r="B42" s="3"/>
-      <c r="C42" s="180" t="s">
+      <c r="C42" s="249" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="180"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="180"/>
-      <c r="O42" s="352"/>
-      <c r="P42" s="352"/>
-      <c r="Q42" s="352"/>
+      <c r="D42" s="249"/>
+      <c r="E42" s="249"/>
+      <c r="F42" s="249"/>
+      <c r="O42" s="181"/>
+      <c r="P42" s="181"/>
+      <c r="Q42" s="181"/>
     </row>
     <row r="43" spans="1:26" ht="18" customHeight="1">
       <c r="A43" s="18"/>
       <c r="B43" s="3"/>
-      <c r="C43" s="180" t="s">
+      <c r="C43" s="249" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="180"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="180"/>
-      <c r="O43" s="352"/>
-      <c r="P43" s="352"/>
-      <c r="Q43" s="352"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="249"/>
+      <c r="F43" s="249"/>
+      <c r="O43" s="181"/>
+      <c r="P43" s="181"/>
+      <c r="Q43" s="181"/>
     </row>
     <row r="44" spans="1:26" ht="18" customHeight="1">
       <c r="A44" s="19"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="180" t="s">
+      <c r="C44" s="249" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="180"/>
-      <c r="E44" s="180"/>
-      <c r="F44" s="180"/>
+      <c r="D44" s="249"/>
+      <c r="E44" s="249"/>
+      <c r="F44" s="249"/>
     </row>
     <row r="45" spans="1:26" ht="18" customHeight="1">
       <c r="A45" s="20"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="180" t="s">
+      <c r="C45" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="180"/>
-      <c r="E45" s="180"/>
-      <c r="F45" s="180"/>
+      <c r="D45" s="249"/>
+      <c r="E45" s="249"/>
+      <c r="F45" s="249"/>
     </row>
     <row r="46" spans="1:26" ht="18" customHeight="1">
       <c r="A46" s="75"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="180" t="s">
+      <c r="C46" s="249" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="180"/>
-      <c r="E46" s="180"/>
-      <c r="F46" s="180"/>
+      <c r="D46" s="249"/>
+      <c r="E46" s="249"/>
+      <c r="F46" s="249"/>
     </row>
     <row r="47" spans="1:26" ht="18" customHeight="1">
-      <c r="B47" s="229"/>
-      <c r="C47" s="229"/>
-      <c r="D47" s="229"/>
+      <c r="B47" s="298"/>
+      <c r="C47" s="298"/>
+      <c r="D47" s="298"/>
     </row>
     <row r="48" spans="1:26" ht="18" customHeight="1">
-      <c r="B48" s="229"/>
-      <c r="C48" s="229"/>
-      <c r="D48" s="229"/>
+      <c r="B48" s="298"/>
+      <c r="C48" s="298"/>
+      <c r="D48" s="298"/>
     </row>
     <row r="49" spans="2:4" ht="18" customHeight="1">
-      <c r="B49" s="229"/>
-      <c r="C49" s="229"/>
-      <c r="D49" s="229"/>
+      <c r="B49" s="298"/>
+      <c r="C49" s="298"/>
+      <c r="D49" s="298"/>
     </row>
     <row r="50" spans="2:4" ht="18" customHeight="1">
-      <c r="B50" s="229"/>
-      <c r="C50" s="229"/>
-      <c r="D50" s="229"/>
+      <c r="B50" s="298"/>
+      <c r="C50" s="298"/>
+      <c r="D50" s="298"/>
     </row>
     <row r="51" spans="2:4" ht="18" customHeight="1">
-      <c r="B51" s="229"/>
-      <c r="C51" s="229"/>
-      <c r="D51" s="229"/>
+      <c r="B51" s="298"/>
+      <c r="C51" s="298"/>
+      <c r="D51" s="298"/>
     </row>
     <row r="52" spans="2:4" ht="18" customHeight="1">
-      <c r="B52" s="229"/>
-      <c r="C52" s="229"/>
-      <c r="D52" s="229"/>
+      <c r="B52" s="298"/>
+      <c r="C52" s="298"/>
+      <c r="D52" s="298"/>
     </row>
   </sheetData>
   <mergeCells count="63">
@@ -49706,11 +49376,6 @@
     <mergeCell ref="C46:F46"/>
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C41:F41"/>
     <mergeCell ref="C42:F42"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B31:D31"/>
@@ -49718,6 +49383,11 @@
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C41:F41"/>
     <mergeCell ref="A21:A37"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
@@ -49747,12 +49417,12 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:N8"/>
+    <mergeCell ref="K7:L7"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="G3:H3"/>
@@ -49780,75 +49450,75 @@
       <c r="B2" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="301" t="s">
+      <c r="G2" s="370" t="s">
         <v>35</v>
       </c>
-      <c r="H2" s="302"/>
-      <c r="I2" s="291" t="s">
+      <c r="H2" s="371"/>
+      <c r="I2" s="360" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="246"/>
-      <c r="L2" s="301" t="s">
+      <c r="J2" s="315"/>
+      <c r="L2" s="370" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="302"/>
-      <c r="N2" s="291" t="s">
+      <c r="M2" s="371"/>
+      <c r="N2" s="360" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="246"/>
-      <c r="Q2" s="301" t="s">
+      <c r="O2" s="315"/>
+      <c r="Q2" s="370" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="302"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="246"/>
-      <c r="V2" s="301" t="s">
+      <c r="R2" s="371"/>
+      <c r="S2" s="315"/>
+      <c r="T2" s="315"/>
+      <c r="V2" s="370" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="302"/>
-      <c r="X2" s="246"/>
-      <c r="Y2" s="246"/>
+      <c r="W2" s="371"/>
+      <c r="X2" s="315"/>
+      <c r="Y2" s="315"/>
     </row>
     <row r="3" spans="1:26" ht="12" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:26" ht="15" customHeight="1">
       <c r="D4" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="303" t="s">
+      <c r="E4" s="372" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="266"/>
-      <c r="G4" s="233" t="s">
+      <c r="F4" s="335"/>
+      <c r="G4" s="302" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="304"/>
-      <c r="I4" s="303" t="s">
+      <c r="H4" s="373"/>
+      <c r="I4" s="372" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="266"/>
-      <c r="K4" s="233" t="s">
+      <c r="J4" s="335"/>
+      <c r="K4" s="302" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="304"/>
-      <c r="M4" s="303" t="s">
+      <c r="L4" s="373"/>
+      <c r="M4" s="372" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="266"/>
+      <c r="N4" s="335"/>
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="D5" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="298"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="282"/>
-      <c r="H5" s="299"/>
-      <c r="I5" s="298"/>
-      <c r="J5" s="247"/>
-      <c r="K5" s="282"/>
-      <c r="L5" s="299"/>
-      <c r="M5" s="298"/>
-      <c r="N5" s="247"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="316"/>
+      <c r="G5" s="351"/>
+      <c r="H5" s="368"/>
+      <c r="I5" s="367"/>
+      <c r="J5" s="316"/>
+      <c r="K5" s="351"/>
+      <c r="L5" s="368"/>
+      <c r="M5" s="367"/>
+      <c r="N5" s="316"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="D6" s="78" t="s">
@@ -49884,28 +49554,28 @@
       <c r="N6" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="329" t="s">
+      <c r="O6" s="419" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="241"/>
-      <c r="Q6" s="305" t="s">
+      <c r="P6" s="310"/>
+      <c r="Q6" s="374" t="s">
         <v>22</v>
       </c>
-      <c r="R6" s="241"/>
-      <c r="S6" s="305" t="s">
+      <c r="R6" s="310"/>
+      <c r="S6" s="374" t="s">
         <v>65</v>
       </c>
-      <c r="T6" s="242"/>
+      <c r="T6" s="311"/>
     </row>
     <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="283" t="s">
+      <c r="A7" s="352" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="273" t="s">
+      <c r="B7" s="342" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="286"/>
-      <c r="D7" s="287"/>
+      <c r="C7" s="355"/>
+      <c r="D7" s="356"/>
       <c r="E7" s="93"/>
       <c r="F7" s="43"/>
       <c r="G7" s="45"/>
@@ -49916,20 +49586,20 @@
       <c r="L7" s="55"/>
       <c r="M7" s="93"/>
       <c r="N7" s="43"/>
-      <c r="O7" s="321"/>
-      <c r="P7" s="289"/>
-      <c r="Q7" s="289"/>
-      <c r="R7" s="289"/>
-      <c r="S7" s="289"/>
-      <c r="T7" s="290"/>
+      <c r="O7" s="390"/>
+      <c r="P7" s="358"/>
+      <c r="Q7" s="358"/>
+      <c r="R7" s="358"/>
+      <c r="S7" s="358"/>
+      <c r="T7" s="359"/>
     </row>
     <row r="8" spans="1:26" ht="18" customHeight="1">
-      <c r="A8" s="284"/>
-      <c r="B8" s="248" t="s">
+      <c r="A8" s="353"/>
+      <c r="B8" s="317" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="249"/>
-      <c r="D8" s="250"/>
+      <c r="C8" s="318"/>
+      <c r="D8" s="319"/>
       <c r="E8" s="37"/>
       <c r="F8" s="38"/>
       <c r="G8" s="46"/>
@@ -49940,20 +49610,20 @@
       <c r="L8" s="56"/>
       <c r="M8" s="37"/>
       <c r="N8" s="38"/>
-      <c r="O8" s="298"/>
-      <c r="P8" s="246"/>
-      <c r="Q8" s="246"/>
-      <c r="R8" s="246"/>
-      <c r="S8" s="246"/>
-      <c r="T8" s="247"/>
+      <c r="O8" s="367"/>
+      <c r="P8" s="315"/>
+      <c r="Q8" s="315"/>
+      <c r="R8" s="315"/>
+      <c r="S8" s="315"/>
+      <c r="T8" s="316"/>
     </row>
     <row r="9" spans="1:26" ht="18" customHeight="1">
-      <c r="A9" s="284"/>
-      <c r="B9" s="248" t="s">
+      <c r="A9" s="353"/>
+      <c r="B9" s="317" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="249"/>
-      <c r="D9" s="250"/>
+      <c r="C9" s="318"/>
+      <c r="D9" s="319"/>
       <c r="E9" s="37"/>
       <c r="F9" s="38"/>
       <c r="G9" s="46"/>
@@ -49964,20 +49634,20 @@
       <c r="L9" s="56"/>
       <c r="M9" s="37"/>
       <c r="N9" s="38"/>
-      <c r="O9" s="298"/>
-      <c r="P9" s="246"/>
-      <c r="Q9" s="246"/>
-      <c r="R9" s="246"/>
-      <c r="S9" s="246"/>
-      <c r="T9" s="247"/>
+      <c r="O9" s="367"/>
+      <c r="P9" s="315"/>
+      <c r="Q9" s="315"/>
+      <c r="R9" s="315"/>
+      <c r="S9" s="315"/>
+      <c r="T9" s="316"/>
     </row>
     <row r="10" spans="1:26" ht="18" customHeight="1">
-      <c r="A10" s="284"/>
-      <c r="B10" s="248" t="s">
+      <c r="A10" s="353"/>
+      <c r="B10" s="317" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="249"/>
-      <c r="D10" s="250"/>
+      <c r="C10" s="318"/>
+      <c r="D10" s="319"/>
       <c r="E10" s="37"/>
       <c r="F10" s="38"/>
       <c r="G10" s="46"/>
@@ -49988,20 +49658,20 @@
       <c r="L10" s="56"/>
       <c r="M10" s="37"/>
       <c r="N10" s="38"/>
-      <c r="O10" s="298"/>
-      <c r="P10" s="246"/>
-      <c r="Q10" s="246"/>
-      <c r="R10" s="246"/>
-      <c r="S10" s="246"/>
-      <c r="T10" s="247"/>
+      <c r="O10" s="367"/>
+      <c r="P10" s="315"/>
+      <c r="Q10" s="315"/>
+      <c r="R10" s="315"/>
+      <c r="S10" s="315"/>
+      <c r="T10" s="316"/>
     </row>
     <row r="11" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="285"/>
-      <c r="B11" s="292" t="s">
+      <c r="A11" s="354"/>
+      <c r="B11" s="361" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="293"/>
-      <c r="D11" s="294"/>
+      <c r="C11" s="362"/>
+      <c r="D11" s="363"/>
       <c r="E11" s="94"/>
       <c r="F11" s="51"/>
       <c r="G11" s="49"/>
@@ -50012,22 +49682,22 @@
       <c r="L11" s="57"/>
       <c r="M11" s="94"/>
       <c r="N11" s="51"/>
-      <c r="O11" s="323"/>
-      <c r="P11" s="296"/>
-      <c r="Q11" s="296"/>
-      <c r="R11" s="296"/>
-      <c r="S11" s="296"/>
-      <c r="T11" s="297"/>
+      <c r="O11" s="392"/>
+      <c r="P11" s="365"/>
+      <c r="Q11" s="365"/>
+      <c r="R11" s="365"/>
+      <c r="S11" s="365"/>
+      <c r="T11" s="366"/>
     </row>
     <row r="12" spans="1:26" ht="18" customHeight="1">
-      <c r="A12" s="258" t="s">
+      <c r="A12" s="327" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="261" t="s">
+      <c r="B12" s="330" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="262"/>
-      <c r="D12" s="263"/>
+      <c r="C12" s="331"/>
+      <c r="D12" s="332"/>
       <c r="E12" s="35"/>
       <c r="F12" s="53"/>
       <c r="G12" s="52"/>
@@ -50038,20 +49708,20 @@
       <c r="L12" s="58"/>
       <c r="M12" s="35"/>
       <c r="N12" s="53"/>
-      <c r="O12" s="315"/>
-      <c r="P12" s="234"/>
-      <c r="Q12" s="234"/>
-      <c r="R12" s="234"/>
-      <c r="S12" s="234"/>
-      <c r="T12" s="266"/>
+      <c r="O12" s="384"/>
+      <c r="P12" s="303"/>
+      <c r="Q12" s="303"/>
+      <c r="R12" s="303"/>
+      <c r="S12" s="303"/>
+      <c r="T12" s="335"/>
     </row>
     <row r="13" spans="1:26" ht="18" customHeight="1">
-      <c r="A13" s="259"/>
-      <c r="B13" s="267" t="s">
+      <c r="A13" s="328"/>
+      <c r="B13" s="336" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="268"/>
-      <c r="D13" s="269"/>
+      <c r="C13" s="337"/>
+      <c r="D13" s="338"/>
       <c r="E13" s="37"/>
       <c r="F13" s="38"/>
       <c r="G13" s="46"/>
@@ -50062,20 +49732,20 @@
       <c r="L13" s="56"/>
       <c r="M13" s="37"/>
       <c r="N13" s="38"/>
-      <c r="O13" s="298"/>
-      <c r="P13" s="246"/>
-      <c r="Q13" s="246"/>
-      <c r="R13" s="246"/>
-      <c r="S13" s="246"/>
-      <c r="T13" s="247"/>
+      <c r="O13" s="367"/>
+      <c r="P13" s="315"/>
+      <c r="Q13" s="315"/>
+      <c r="R13" s="315"/>
+      <c r="S13" s="315"/>
+      <c r="T13" s="316"/>
     </row>
     <row r="14" spans="1:26" ht="18" customHeight="1">
-      <c r="A14" s="259"/>
-      <c r="B14" s="267" t="s">
+      <c r="A14" s="328"/>
+      <c r="B14" s="336" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="279"/>
-      <c r="D14" s="280"/>
+      <c r="C14" s="348"/>
+      <c r="D14" s="349"/>
       <c r="E14" s="37"/>
       <c r="F14" s="38"/>
       <c r="G14" s="46"/>
@@ -50086,20 +49756,20 @@
       <c r="L14" s="56"/>
       <c r="M14" s="37"/>
       <c r="N14" s="38"/>
-      <c r="O14" s="298"/>
-      <c r="P14" s="246"/>
-      <c r="Q14" s="246"/>
-      <c r="R14" s="246"/>
-      <c r="S14" s="246"/>
-      <c r="T14" s="247"/>
+      <c r="O14" s="367"/>
+      <c r="P14" s="315"/>
+      <c r="Q14" s="315"/>
+      <c r="R14" s="315"/>
+      <c r="S14" s="315"/>
+      <c r="T14" s="316"/>
     </row>
     <row r="15" spans="1:26" ht="18" customHeight="1" thickBot="1">
-      <c r="A15" s="260"/>
-      <c r="B15" s="253" t="s">
+      <c r="A15" s="329"/>
+      <c r="B15" s="322" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="254"/>
-      <c r="D15" s="255"/>
+      <c r="C15" s="323"/>
+      <c r="D15" s="324"/>
       <c r="E15" s="95"/>
       <c r="F15" s="41"/>
       <c r="G15" s="47"/>
@@ -50110,22 +49780,22 @@
       <c r="L15" s="59"/>
       <c r="M15" s="95"/>
       <c r="N15" s="41"/>
-      <c r="O15" s="323"/>
-      <c r="P15" s="296"/>
-      <c r="Q15" s="296"/>
-      <c r="R15" s="296"/>
-      <c r="S15" s="296"/>
-      <c r="T15" s="297"/>
+      <c r="O15" s="392"/>
+      <c r="P15" s="365"/>
+      <c r="Q15" s="365"/>
+      <c r="R15" s="365"/>
+      <c r="S15" s="365"/>
+      <c r="T15" s="366"/>
     </row>
     <row r="16" spans="1:26" ht="18" customHeight="1">
-      <c r="A16" s="270" t="s">
+      <c r="A16" s="339" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="273" t="s">
+      <c r="B16" s="342" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="274"/>
-      <c r="D16" s="275"/>
+      <c r="C16" s="343"/>
+      <c r="D16" s="344"/>
       <c r="E16" s="35"/>
       <c r="F16" s="53"/>
       <c r="G16" s="52"/>
@@ -50136,25 +49806,25 @@
       <c r="L16" s="58"/>
       <c r="M16" s="35"/>
       <c r="N16" s="58"/>
-      <c r="O16" s="315"/>
-      <c r="P16" s="234"/>
-      <c r="Q16" s="234"/>
-      <c r="R16" s="234"/>
-      <c r="S16" s="234"/>
-      <c r="T16" s="266"/>
-      <c r="V16" s="382"/>
-      <c r="W16" s="383"/>
-      <c r="X16" s="383"/>
-      <c r="Y16" s="383"/>
-      <c r="Z16" s="384"/>
+      <c r="O16" s="384"/>
+      <c r="P16" s="303"/>
+      <c r="Q16" s="303"/>
+      <c r="R16" s="303"/>
+      <c r="S16" s="303"/>
+      <c r="T16" s="335"/>
+      <c r="V16" s="186"/>
+      <c r="W16" s="173"/>
+      <c r="X16" s="173"/>
+      <c r="Y16" s="173"/>
+      <c r="Z16" s="174"/>
     </row>
     <row r="17" spans="1:26" ht="18" customHeight="1">
-      <c r="A17" s="271"/>
-      <c r="B17" s="243" t="s">
+      <c r="A17" s="340"/>
+      <c r="B17" s="312" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="276"/>
-      <c r="D17" s="277"/>
+      <c r="C17" s="345"/>
+      <c r="D17" s="346"/>
       <c r="E17" s="37"/>
       <c r="F17" s="38"/>
       <c r="G17" s="46"/>
@@ -50165,25 +49835,25 @@
       <c r="L17" s="56"/>
       <c r="M17" s="37"/>
       <c r="N17" s="56"/>
-      <c r="O17" s="298"/>
-      <c r="P17" s="246"/>
-      <c r="Q17" s="246"/>
-      <c r="R17" s="246"/>
-      <c r="S17" s="246"/>
-      <c r="T17" s="247"/>
-      <c r="V17" s="385"/>
-      <c r="W17" s="385"/>
-      <c r="X17" s="385"/>
-      <c r="Y17" s="385"/>
-      <c r="Z17" s="386"/>
+      <c r="O17" s="367"/>
+      <c r="P17" s="315"/>
+      <c r="Q17" s="315"/>
+      <c r="R17" s="315"/>
+      <c r="S17" s="315"/>
+      <c r="T17" s="316"/>
+      <c r="V17" s="187"/>
+      <c r="W17" s="187"/>
+      <c r="X17" s="187"/>
+      <c r="Y17" s="187"/>
+      <c r="Z17" s="188"/>
     </row>
     <row r="18" spans="1:26" ht="18" customHeight="1">
-      <c r="A18" s="271"/>
-      <c r="B18" s="248" t="s">
+      <c r="A18" s="340"/>
+      <c r="B18" s="317" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="251"/>
-      <c r="D18" s="252"/>
+      <c r="C18" s="320"/>
+      <c r="D18" s="321"/>
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
       <c r="G18" s="46"/>
@@ -50194,25 +49864,25 @@
       <c r="L18" s="56"/>
       <c r="M18" s="37"/>
       <c r="N18" s="56"/>
-      <c r="O18" s="298"/>
-      <c r="P18" s="246"/>
-      <c r="Q18" s="246"/>
-      <c r="R18" s="246"/>
-      <c r="S18" s="246"/>
-      <c r="T18" s="247"/>
-      <c r="V18" s="385"/>
-      <c r="W18" s="385"/>
-      <c r="X18" s="385"/>
-      <c r="Y18" s="385"/>
-      <c r="Z18" s="386"/>
+      <c r="O18" s="367"/>
+      <c r="P18" s="315"/>
+      <c r="Q18" s="315"/>
+      <c r="R18" s="315"/>
+      <c r="S18" s="315"/>
+      <c r="T18" s="316"/>
+      <c r="V18" s="187"/>
+      <c r="W18" s="187"/>
+      <c r="X18" s="187"/>
+      <c r="Y18" s="187"/>
+      <c r="Z18" s="188"/>
     </row>
     <row r="19" spans="1:26" ht="18" customHeight="1">
-      <c r="A19" s="271"/>
-      <c r="B19" s="248" t="s">
+      <c r="A19" s="340"/>
+      <c r="B19" s="317" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="251"/>
-      <c r="D19" s="252"/>
+      <c r="C19" s="320"/>
+      <c r="D19" s="321"/>
       <c r="E19" s="37"/>
       <c r="F19" s="38"/>
       <c r="G19" s="46"/>
@@ -50223,25 +49893,25 @@
       <c r="L19" s="56"/>
       <c r="M19" s="37"/>
       <c r="N19" s="56"/>
-      